--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25CCF13-A48E-478C-8597-DC994D9F2225}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA0135-8DA3-4172-A3EF-333BAEB16738}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,8 +22,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{AA1A2C87-E661-42F6-9248-E28DA19B55B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+服务端专用
+服务端认为，一个功能写一份代码好实现些</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="367">
   <si>
     <t>sheet名</t>
   </si>
@@ -1377,6 +1414,22 @@
   </si>
   <si>
     <t>服务端配置成就的表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1384,7 +1437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1459,6 +1512,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1879,7 +1947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1970,29 +2038,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31260EC7-A481-44E7-A2B8-8414D1341F7E}">
-  <dimension ref="A1:R133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31260EC7-A481-44E7-A2B8-8414D1341F7E}">
+  <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="76.25" customWidth="1"/>
-    <col min="14" max="14" width="16.375" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="10.875" customWidth="1"/>
-    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="76.25" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2003,28 +2073,31 @@
         <v>59</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2035,16 +2108,16 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="H2" t="s">
         <v>76</v>
@@ -2053,22 +2126,25 @@
         <v>76</v>
       </c>
       <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -2079,37 +2155,40 @@
         <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>101</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2120,31 +2199,34 @@
         <v>95</v>
       </c>
       <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>101</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
         <v>20</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>101</v>
       </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2155,31 +2237,34 @@
         <v>96</v>
       </c>
       <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>101</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>50</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>15</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>101</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2190,31 +2275,34 @@
         <v>97</v>
       </c>
       <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>101</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>100</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>16</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>102</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2225,31 +2313,34 @@
         <v>98</v>
       </c>
       <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>101</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
         <v>200</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>102</v>
       </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2260,31 +2351,34 @@
         <v>99</v>
       </c>
       <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>101</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>18</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>102</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2295,31 +2389,34 @@
         <v>100</v>
       </c>
       <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>101</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>159</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>102</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2330,31 +2427,34 @@
         <v>101</v>
       </c>
       <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>101</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>103</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2365,31 +2465,34 @@
         <v>102</v>
       </c>
       <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>101</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>1000</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>54</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>103</v>
       </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2400,31 +2503,34 @@
         <v>103</v>
       </c>
       <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>101</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>55</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>103</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2435,31 +2541,34 @@
         <v>104</v>
       </c>
       <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>101</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
         <v>2000</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>56</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>103</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2470,31 +2579,34 @@
         <v>119</v>
       </c>
       <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
         <v>101</v>
       </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
         <v>20</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>57</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>103</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2505,31 +2617,34 @@
         <v>120</v>
       </c>
       <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
         <v>101</v>
       </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
         <v>50</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>25</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>104</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2540,31 +2655,34 @@
         <v>121</v>
       </c>
       <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
         <v>101</v>
       </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
         <v>100</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>26</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>104</v>
       </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2575,31 +2693,34 @@
         <v>122</v>
       </c>
       <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
         <v>101</v>
       </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>27</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>104</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2610,31 +2731,34 @@
         <v>123</v>
       </c>
       <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
         <v>101</v>
       </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>28</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>105</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2645,31 +2769,34 @@
         <v>124</v>
       </c>
       <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
         <v>101</v>
       </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
         <v>600</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>31</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>105</v>
       </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2680,31 +2807,34 @@
         <v>125</v>
       </c>
       <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>101</v>
       </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>32</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>105</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2715,31 +2845,34 @@
         <v>126</v>
       </c>
       <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>101</v>
       </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>33</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>105</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2750,31 +2883,34 @@
         <v>127</v>
       </c>
       <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
         <v>101</v>
       </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>34</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>105</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2785,31 +2921,34 @@
         <v>128</v>
       </c>
       <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
         <v>101</v>
       </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>35</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>105</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2820,31 +2959,34 @@
         <v>139</v>
       </c>
       <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>101</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
         <v>20</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>36</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>105</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2855,31 +2997,34 @@
         <v>140</v>
       </c>
       <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>101</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
         <v>50</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>37</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>106</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2890,31 +3035,34 @@
         <v>141</v>
       </c>
       <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>101</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>38</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>106</v>
       </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2925,31 +3073,34 @@
         <v>142</v>
       </c>
       <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>101</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>39</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>106</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2960,31 +3111,34 @@
         <v>143</v>
       </c>
       <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
         <v>101</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
         <v>400</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>40</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>106</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2995,31 +3149,34 @@
         <v>144</v>
       </c>
       <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
         <v>101</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>41</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>106</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3030,31 +3187,34 @@
         <v>145</v>
       </c>
       <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
         <v>101</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
         <v>800</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>42</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>106</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3065,31 +3225,34 @@
         <v>146</v>
       </c>
       <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
         <v>101</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
         <v>1000</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>43</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>106</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3100,31 +3263,34 @@
         <v>147</v>
       </c>
       <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>101</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>44</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>107</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3135,31 +3301,34 @@
         <v>148</v>
       </c>
       <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>101</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>45</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>107</v>
       </c>
-      <c r="P33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3170,31 +3339,34 @@
         <v>160</v>
       </c>
       <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
         <v>102</v>
       </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>46</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>107</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3205,31 +3377,34 @@
         <v>161</v>
       </c>
       <c r="D35" s="3">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>102</v>
       </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3" t="s">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>47</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>107</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3240,31 +3415,34 @@
         <v>162</v>
       </c>
       <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
         <v>102</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
         <v>3</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>48</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>107</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3275,31 +3453,34 @@
         <v>163</v>
       </c>
       <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
         <v>102</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
         <v>4</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>49</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>107</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3310,31 +3491,34 @@
         <v>164</v>
       </c>
       <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
         <v>102</v>
       </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
         <v>5</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>50</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>107</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3345,31 +3529,34 @@
         <v>165</v>
       </c>
       <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
         <v>102</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
         <v>6</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>51</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>108</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3380,31 +3567,34 @@
         <v>166</v>
       </c>
       <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
         <v>102</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="3">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
         <v>7</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>52</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>108</v>
       </c>
-      <c r="P40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3415,31 +3605,34 @@
         <v>167</v>
       </c>
       <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
         <v>102</v>
       </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="3">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
         <v>8</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>60</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>108</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3450,31 +3643,34 @@
         <v>168</v>
       </c>
       <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
         <v>102</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="3">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
         <v>9</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>29</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>201</v>
       </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3485,31 +3681,34 @@
         <v>169</v>
       </c>
       <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
         <v>102</v>
       </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="3">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
         <v>10</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>61</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>201</v>
       </c>
-      <c r="P43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3520,31 +3719,34 @@
         <v>170</v>
       </c>
       <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
         <v>102</v>
       </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3" t="s">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>62</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>202</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -3555,31 +3757,34 @@
         <v>171</v>
       </c>
       <c r="D45" s="3">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
         <v>102</v>
       </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="3">
-        <v>2</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3" t="s">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>63</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>202</v>
       </c>
-      <c r="P45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -3590,31 +3795,34 @@
         <v>172</v>
       </c>
       <c r="D46" s="3">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
         <v>102</v>
       </c>
-      <c r="E46" s="3">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
         <v>3</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>30</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>203</v>
       </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -3625,31 +3833,34 @@
         <v>173</v>
       </c>
       <c r="D47" s="3">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
         <v>102</v>
       </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
         <v>4</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>64</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>203</v>
       </c>
-      <c r="P47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -3660,34 +3871,37 @@
         <v>174</v>
       </c>
       <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>102</v>
       </c>
-      <c r="E48" s="3">
-        <v>2</v>
-      </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
         <v>5</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>65</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>301</v>
       </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="R48" t="s">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="S48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -3698,34 +3912,37 @@
         <v>175</v>
       </c>
       <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
         <v>102</v>
       </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="3">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3">
         <v>6</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>67</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>302</v>
       </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="R49" t="s">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="S49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -3736,31 +3953,34 @@
         <v>176</v>
       </c>
       <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3">
         <v>102</v>
       </c>
-      <c r="E50" s="3">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="3">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
         <v>7</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>19</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>303</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3771,31 +3991,34 @@
         <v>177</v>
       </c>
       <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3">
         <v>102</v>
       </c>
-      <c r="E51" s="3">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="3">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3">
         <v>8</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>20</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>401</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -3806,22 +4029,25 @@
         <v>178</v>
       </c>
       <c r="D52" s="3">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>102</v>
       </c>
-      <c r="E52" s="3">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="3">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
         <v>9</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -3832,22 +4058,25 @@
         <v>179</v>
       </c>
       <c r="D53" s="3">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3">
         <v>102</v>
       </c>
-      <c r="E53" s="3">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
         <v>10</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -3858,22 +4087,25 @@
         <v>210</v>
       </c>
       <c r="D54" s="3">
+        <v>6</v>
+      </c>
+      <c r="E54" s="3">
         <v>102</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3</v>
       </c>
-      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3" t="s">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -3884,22 +4116,25 @@
         <v>213</v>
       </c>
       <c r="D55" s="3">
+        <v>6</v>
+      </c>
+      <c r="E55" s="3">
         <v>102</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>3</v>
       </c>
-      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3">
-        <v>2</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3" t="s">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -3910,22 +4145,25 @@
         <v>215</v>
       </c>
       <c r="D56" s="3">
+        <v>6</v>
+      </c>
+      <c r="E56" s="3">
         <v>102</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>3</v>
       </c>
-      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3">
         <v>3</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -3936,22 +4174,25 @@
         <v>217</v>
       </c>
       <c r="D57" s="3">
+        <v>6</v>
+      </c>
+      <c r="E57" s="3">
         <v>102</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3</v>
       </c>
-      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="3">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
         <v>4</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -3962,22 +4203,25 @@
         <v>219</v>
       </c>
       <c r="D58" s="3">
+        <v>6</v>
+      </c>
+      <c r="E58" s="3">
         <v>102</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3</v>
       </c>
-      <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="3">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3">
         <v>5</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -3988,22 +4232,25 @@
         <v>222</v>
       </c>
       <c r="D59" s="3">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3">
         <v>102</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3</v>
       </c>
-      <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="3">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
         <v>6</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -4014,22 +4261,25 @@
         <v>221</v>
       </c>
       <c r="D60" s="3">
+        <v>6</v>
+      </c>
+      <c r="E60" s="3">
         <v>102</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3</v>
       </c>
-      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3">
         <v>7</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -4040,22 +4290,25 @@
         <v>226</v>
       </c>
       <c r="D61" s="3">
+        <v>6</v>
+      </c>
+      <c r="E61" s="3">
         <v>102</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3</v>
       </c>
-      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
         <v>8</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -4066,22 +4319,25 @@
         <v>225</v>
       </c>
       <c r="D62" s="3">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3">
         <v>102</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3</v>
       </c>
-      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="3">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3">
         <v>9</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -4092,22 +4348,25 @@
         <v>244</v>
       </c>
       <c r="D63" s="3">
+        <v>6</v>
+      </c>
+      <c r="E63" s="3">
         <v>102</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>3</v>
       </c>
-      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3">
         <v>10</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -4118,22 +4377,25 @@
         <v>211</v>
       </c>
       <c r="D64" s="3">
+        <v>7</v>
+      </c>
+      <c r="E64" s="3">
         <v>108</v>
       </c>
-      <c r="E64" s="3">
-        <v>2</v>
-      </c>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="3">
-        <v>2</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3" t="s">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3">
+        <v>2</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -4144,22 +4406,25 @@
         <v>214</v>
       </c>
       <c r="D65" s="3">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3">
         <v>108</v>
       </c>
-      <c r="E65" s="3">
-        <v>2</v>
-      </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="3">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3">
         <v>3</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -4170,22 +4435,25 @@
         <v>216</v>
       </c>
       <c r="D66" s="3">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3">
         <v>108</v>
       </c>
-      <c r="E66" s="3">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3"/>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="3">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3">
         <v>4</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -4196,22 +4464,25 @@
         <v>218</v>
       </c>
       <c r="D67" s="3">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3">
         <v>108</v>
       </c>
-      <c r="E67" s="3">
-        <v>2</v>
-      </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="3">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3">
         <v>5</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -4222,22 +4493,25 @@
         <v>220</v>
       </c>
       <c r="D68" s="3">
+        <v>7</v>
+      </c>
+      <c r="E68" s="3">
         <v>108</v>
       </c>
-      <c r="E68" s="3">
-        <v>2</v>
-      </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
       <c r="G68" s="3"/>
-      <c r="H68" s="3">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3">
         <v>6</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -4248,22 +4522,25 @@
         <v>223</v>
       </c>
       <c r="D69" s="3">
+        <v>7</v>
+      </c>
+      <c r="E69" s="3">
         <v>108</v>
       </c>
-      <c r="E69" s="3">
-        <v>2</v>
-      </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="3">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3">
         <v>7</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -4274,22 +4551,25 @@
         <v>224</v>
       </c>
       <c r="D70" s="3">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3">
         <v>108</v>
       </c>
-      <c r="E70" s="3">
-        <v>2</v>
-      </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
       <c r="G70" s="3"/>
-      <c r="H70" s="3">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3">
         <v>8</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -4300,22 +4580,25 @@
         <v>227</v>
       </c>
       <c r="D71" s="3">
+        <v>7</v>
+      </c>
+      <c r="E71" s="3">
         <v>108</v>
       </c>
-      <c r="E71" s="3">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="3">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3">
         <v>9</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -4326,22 +4609,25 @@
         <v>235</v>
       </c>
       <c r="D72" s="3">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
         <v>108</v>
       </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="3">
-        <v>2</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3" t="s">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3">
+        <v>2</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -4352,22 +4638,25 @@
         <v>236</v>
       </c>
       <c r="D73" s="3">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3">
         <v>108</v>
       </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
       <c r="G73" s="3"/>
-      <c r="H73" s="3">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3">
         <v>5</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -4378,22 +4667,25 @@
         <v>237</v>
       </c>
       <c r="D74" s="3">
+        <v>8</v>
+      </c>
+      <c r="E74" s="3">
         <v>108</v>
       </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
       <c r="G74" s="3"/>
-      <c r="H74" s="3">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3">
         <v>10</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -4404,22 +4696,25 @@
         <v>238</v>
       </c>
       <c r="D75" s="3">
+        <v>8</v>
+      </c>
+      <c r="E75" s="3">
         <v>108</v>
       </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
       <c r="G75" s="3"/>
-      <c r="H75" s="3">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3">
         <v>15</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -4430,22 +4725,25 @@
         <v>239</v>
       </c>
       <c r="D76" s="3">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
         <v>108</v>
       </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
       <c r="G76" s="3"/>
-      <c r="H76" s="3">
+      <c r="H76" s="3"/>
+      <c r="I76" s="3">
         <v>20</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -4456,22 +4754,25 @@
         <v>240</v>
       </c>
       <c r="D77" s="3">
+        <v>8</v>
+      </c>
+      <c r="E77" s="3">
         <v>108</v>
       </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
       <c r="G77" s="3"/>
-      <c r="H77" s="3">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3">
         <v>25</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -4482,22 +4783,25 @@
         <v>241</v>
       </c>
       <c r="D78" s="3">
+        <v>8</v>
+      </c>
+      <c r="E78" s="3">
         <v>108</v>
       </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
       <c r="G78" s="3"/>
-      <c r="H78" s="3">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3">
         <v>30</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="3"/>
+      <c r="K78" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -4508,22 +4812,25 @@
         <v>242</v>
       </c>
       <c r="D79" s="3">
+        <v>8</v>
+      </c>
+      <c r="E79" s="3">
         <v>108</v>
       </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="3">
+      <c r="H79" s="3"/>
+      <c r="I79" s="3">
         <v>35</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -4534,22 +4841,25 @@
         <v>243</v>
       </c>
       <c r="D80" s="3">
+        <v>8</v>
+      </c>
+      <c r="E80" s="3">
         <v>108</v>
       </c>
-      <c r="E80" s="3">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
       <c r="G80" s="3"/>
-      <c r="H80" s="3">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3">
         <v>40</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -4560,22 +4870,25 @@
         <v>245</v>
       </c>
       <c r="D81" s="3">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>108</v>
       </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
       <c r="G81" s="3"/>
-      <c r="H81" s="3">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3">
         <v>50</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="3"/>
+      <c r="K81" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -4586,22 +4899,25 @@
         <v>256</v>
       </c>
       <c r="D82" s="3">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3">
         <v>201</v>
       </c>
-      <c r="E82" s="3">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
       <c r="G82" s="3"/>
-      <c r="H82" s="3">
+      <c r="H82" s="3"/>
+      <c r="I82" s="3">
         <v>5</v>
       </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3" t="s">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -4612,22 +4928,25 @@
         <v>257</v>
       </c>
       <c r="D83" s="3">
+        <v>9</v>
+      </c>
+      <c r="E83" s="3">
         <v>201</v>
       </c>
-      <c r="E83" s="3">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3"/>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
       <c r="G83" s="3"/>
-      <c r="H83" s="3">
+      <c r="H83" s="3"/>
+      <c r="I83" s="3">
         <v>10</v>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -4638,22 +4957,25 @@
         <v>258</v>
       </c>
       <c r="D84" s="3">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3">
         <v>201</v>
       </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="3">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3">
         <v>20</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="3"/>
+      <c r="K84" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -4664,22 +4986,25 @@
         <v>259</v>
       </c>
       <c r="D85" s="3">
+        <v>9</v>
+      </c>
+      <c r="E85" s="3">
         <v>201</v>
       </c>
-      <c r="E85" s="3">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="3">
+      <c r="H85" s="3"/>
+      <c r="I85" s="3">
         <v>50</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="3"/>
+      <c r="K85" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -4690,22 +5015,25 @@
         <v>260</v>
       </c>
       <c r="D86" s="3">
+        <v>9</v>
+      </c>
+      <c r="E86" s="3">
         <v>201</v>
       </c>
-      <c r="E86" s="3">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
       <c r="G86" s="3"/>
-      <c r="H86" s="3">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3">
         <v>100</v>
       </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="3"/>
+      <c r="K86" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -4716,22 +5044,25 @@
         <v>261</v>
       </c>
       <c r="D87" s="3">
+        <v>9</v>
+      </c>
+      <c r="E87" s="3">
         <v>201</v>
       </c>
-      <c r="E87" s="3">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
       <c r="G87" s="3"/>
-      <c r="H87" s="3">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3">
         <v>150</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="3"/>
+      <c r="K87" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -4742,22 +5073,25 @@
         <v>262</v>
       </c>
       <c r="D88" s="3">
+        <v>9</v>
+      </c>
+      <c r="E88" s="3">
         <v>201</v>
       </c>
-      <c r="E88" s="3">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3"/>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
       <c r="G88" s="3"/>
-      <c r="H88" s="3">
+      <c r="H88" s="3"/>
+      <c r="I88" s="3">
         <v>200</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="3"/>
+      <c r="K88" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -4768,22 +5102,25 @@
         <v>263</v>
       </c>
       <c r="D89" s="3">
+        <v>9</v>
+      </c>
+      <c r="E89" s="3">
         <v>201</v>
       </c>
-      <c r="E89" s="3">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
       <c r="G89" s="3"/>
-      <c r="H89" s="3">
+      <c r="H89" s="3"/>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -4794,22 +5131,25 @@
         <v>264</v>
       </c>
       <c r="D90" s="3">
+        <v>9</v>
+      </c>
+      <c r="E90" s="3">
         <v>201</v>
       </c>
-      <c r="E90" s="3">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
       <c r="G90" s="3"/>
-      <c r="H90" s="3">
+      <c r="H90" s="3"/>
+      <c r="I90" s="3">
         <v>400</v>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="3"/>
+      <c r="K90" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -4820,22 +5160,25 @@
         <v>265</v>
       </c>
       <c r="D91" s="3">
+        <v>9</v>
+      </c>
+      <c r="E91" s="3">
         <v>201</v>
       </c>
-      <c r="E91" s="3">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="3">
+      <c r="H91" s="3"/>
+      <c r="I91" s="3">
         <v>500</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="3"/>
+      <c r="K91" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -4846,22 +5189,25 @@
         <v>266</v>
       </c>
       <c r="D92" s="3">
+        <v>9</v>
+      </c>
+      <c r="E92" s="3">
         <v>201</v>
       </c>
-      <c r="E92" s="3">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
       <c r="G92" s="3"/>
-      <c r="H92" s="3">
+      <c r="H92" s="3"/>
+      <c r="I92" s="3">
         <v>600</v>
       </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="3"/>
+      <c r="K92" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -4872,22 +5218,25 @@
         <v>267</v>
       </c>
       <c r="D93" s="3">
+        <v>9</v>
+      </c>
+      <c r="E93" s="3">
         <v>201</v>
       </c>
-      <c r="E93" s="3">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
       <c r="G93" s="3"/>
-      <c r="H93" s="3">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3">
         <v>700</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -4898,22 +5247,25 @@
         <v>268</v>
       </c>
       <c r="D94" s="3">
+        <v>9</v>
+      </c>
+      <c r="E94" s="3">
         <v>201</v>
       </c>
-      <c r="E94" s="3">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
       <c r="G94" s="3"/>
-      <c r="H94" s="3">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="3"/>
+      <c r="K94" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -4924,22 +5276,25 @@
         <v>269</v>
       </c>
       <c r="D95" s="3">
+        <v>9</v>
+      </c>
+      <c r="E95" s="3">
         <v>201</v>
       </c>
-      <c r="E95" s="3">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="3">
+      <c r="H95" s="3"/>
+      <c r="I95" s="3">
         <v>1000</v>
       </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3" t="s">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -4950,22 +5305,25 @@
         <v>270</v>
       </c>
       <c r="D96" s="3">
+        <v>9</v>
+      </c>
+      <c r="E96" s="3">
         <v>201</v>
       </c>
-      <c r="E96" s="3">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3"/>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
       <c r="G96" s="3"/>
-      <c r="H96" s="3">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3">
         <v>1200</v>
       </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3" t="s">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -4976,22 +5334,25 @@
         <v>271</v>
       </c>
       <c r="D97" s="3">
+        <v>9</v>
+      </c>
+      <c r="E97" s="3">
         <v>201</v>
       </c>
-      <c r="E97" s="3">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3"/>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="3">
+      <c r="H97" s="3"/>
+      <c r="I97" s="3">
         <v>1500</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -5002,22 +5363,25 @@
         <v>272</v>
       </c>
       <c r="D98" s="3">
+        <v>9</v>
+      </c>
+      <c r="E98" s="3">
         <v>201</v>
       </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
       <c r="G98" s="3"/>
-      <c r="H98" s="3">
+      <c r="H98" s="3"/>
+      <c r="I98" s="3">
         <v>2000</v>
       </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="3"/>
+      <c r="K98" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -5028,26 +5392,29 @@
         <v>290</v>
       </c>
       <c r="D99" s="3">
+        <v>10</v>
+      </c>
+      <c r="E99" s="3">
         <v>301</v>
       </c>
-      <c r="E99" s="3">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3">
-        <v>1</v>
-      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3"/>
       <c r="H99" s="3">
         <v>1</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="3">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -5058,26 +5425,29 @@
         <v>291</v>
       </c>
       <c r="D100" s="3">
+        <v>10</v>
+      </c>
+      <c r="E100" s="3">
         <v>301</v>
       </c>
-      <c r="E100" s="3">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3"/>
       <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="3">
         <v>50</v>
       </c>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="3">
+        <v>1</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -5088,26 +5458,29 @@
         <v>292</v>
       </c>
       <c r="D101" s="3">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3">
         <v>301</v>
       </c>
-      <c r="E101" s="3">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3"/>
       <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>1</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -5118,26 +5491,29 @@
         <v>293</v>
       </c>
       <c r="D102" s="3">
+        <v>10</v>
+      </c>
+      <c r="E102" s="3">
         <v>301</v>
       </c>
-      <c r="E102" s="3">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3">
-        <v>2</v>
-      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3"/>
       <c r="H102" s="3">
         <v>2</v>
       </c>
       <c r="I102" s="3">
-        <v>1</v>
-      </c>
-      <c r="J102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -5148,26 +5524,29 @@
         <v>294</v>
       </c>
       <c r="D103" s="3">
+        <v>10</v>
+      </c>
+      <c r="E103" s="3">
         <v>301</v>
       </c>
-      <c r="E103" s="3">
-        <v>1</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3">
-        <v>2</v>
-      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3"/>
       <c r="H103" s="3">
+        <v>2</v>
+      </c>
+      <c r="I103" s="3">
         <v>50</v>
       </c>
-      <c r="I103" s="3">
-        <v>1</v>
-      </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="3">
+        <v>1</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -5178,26 +5557,29 @@
         <v>295</v>
       </c>
       <c r="D104" s="3">
+        <v>10</v>
+      </c>
+      <c r="E104" s="3">
         <v>301</v>
       </c>
-      <c r="E104" s="3">
-        <v>1</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3">
-        <v>2</v>
-      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3"/>
       <c r="H104" s="3">
+        <v>2</v>
+      </c>
+      <c r="I104" s="3">
         <v>300</v>
       </c>
-      <c r="I104" s="3">
-        <v>1</v>
-      </c>
-      <c r="J104" s="3" t="s">
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -5208,26 +5590,29 @@
         <v>295</v>
       </c>
       <c r="D105" s="3">
+        <v>10</v>
+      </c>
+      <c r="E105" s="3">
         <v>301</v>
       </c>
-      <c r="E105" s="3">
-        <v>1</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3">
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3">
         <v>3</v>
       </c>
-      <c r="H105" s="3">
-        <v>2</v>
-      </c>
       <c r="I105" s="3">
-        <v>1</v>
-      </c>
-      <c r="J105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -5238,26 +5623,29 @@
         <v>296</v>
       </c>
       <c r="D106" s="3">
+        <v>10</v>
+      </c>
+      <c r="E106" s="3">
         <v>301</v>
       </c>
-      <c r="E106" s="3">
-        <v>1</v>
-      </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3">
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3">
         <v>3</v>
       </c>
-      <c r="H106" s="3">
+      <c r="I106" s="3">
         <v>50</v>
       </c>
-      <c r="I106" s="3">
-        <v>1</v>
-      </c>
-      <c r="J106" s="3" t="s">
+      <c r="J106" s="3">
+        <v>1</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -5268,26 +5656,29 @@
         <v>297</v>
       </c>
       <c r="D107" s="3">
+        <v>10</v>
+      </c>
+      <c r="E107" s="3">
         <v>301</v>
       </c>
-      <c r="E107" s="3">
-        <v>1</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3">
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3">
         <v>3</v>
       </c>
-      <c r="H107" s="3">
+      <c r="I107" s="3">
         <v>300</v>
       </c>
-      <c r="I107" s="3">
-        <v>1</v>
-      </c>
-      <c r="J107" s="3" t="s">
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+      <c r="K107" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -5298,26 +5689,29 @@
         <v>298</v>
       </c>
       <c r="D108" s="3">
+        <v>10</v>
+      </c>
+      <c r="E108" s="3">
         <v>301</v>
       </c>
-      <c r="E108" s="3">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3">
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3">
         <v>4</v>
       </c>
-      <c r="H108" s="3">
-        <v>2</v>
-      </c>
       <c r="I108" s="3">
-        <v>1</v>
-      </c>
-      <c r="J108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3">
+        <v>1</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -5328,26 +5722,29 @@
         <v>299</v>
       </c>
       <c r="D109" s="3">
+        <v>10</v>
+      </c>
+      <c r="E109" s="3">
         <v>301</v>
       </c>
-      <c r="E109" s="3">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3">
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3">
         <v>4</v>
       </c>
-      <c r="H109" s="3">
+      <c r="I109" s="3">
         <v>50</v>
       </c>
-      <c r="I109" s="3">
-        <v>1</v>
-      </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -5358,26 +5755,29 @@
         <v>300</v>
       </c>
       <c r="D110" s="3">
+        <v>10</v>
+      </c>
+      <c r="E110" s="3">
         <v>301</v>
       </c>
-      <c r="E110" s="3">
-        <v>1</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3">
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3">
         <v>4</v>
       </c>
-      <c r="H110" s="3">
+      <c r="I110" s="3">
         <v>300</v>
       </c>
-      <c r="I110" s="3">
-        <v>1</v>
-      </c>
-      <c r="J110" s="3" t="s">
+      <c r="J110" s="3">
+        <v>1</v>
+      </c>
+      <c r="K110" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -5388,26 +5788,29 @@
         <v>313</v>
       </c>
       <c r="D111" s="3">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3">
         <v>302</v>
       </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3"/>
       <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="3">
         <v>20</v>
       </c>
-      <c r="I111" s="3">
-        <v>1</v>
-      </c>
-      <c r="J111" s="3" t="s">
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -5418,26 +5821,29 @@
         <v>314</v>
       </c>
       <c r="D112" s="3">
+        <v>10</v>
+      </c>
+      <c r="E112" s="3">
         <v>302</v>
       </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3"/>
       <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="3">
         <v>200</v>
       </c>
-      <c r="I112" s="3">
-        <v>1</v>
-      </c>
-      <c r="J112" s="3" t="s">
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -5448,26 +5854,29 @@
         <v>315</v>
       </c>
       <c r="D113" s="3">
+        <v>10</v>
+      </c>
+      <c r="E113" s="3">
         <v>302</v>
       </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3">
-        <v>2</v>
-      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3"/>
       <c r="H113" s="3">
+        <v>2</v>
+      </c>
+      <c r="I113" s="3">
         <v>5</v>
       </c>
-      <c r="I113" s="3">
-        <v>1</v>
-      </c>
-      <c r="J113" s="3" t="s">
+      <c r="J113" s="3">
+        <v>1</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -5478,26 +5887,29 @@
         <v>316</v>
       </c>
       <c r="D114" s="3">
+        <v>10</v>
+      </c>
+      <c r="E114" s="3">
         <v>302</v>
       </c>
-      <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3">
-        <v>2</v>
-      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3"/>
       <c r="H114" s="3">
+        <v>2</v>
+      </c>
+      <c r="I114" s="3">
         <v>25</v>
       </c>
-      <c r="I114" s="3">
-        <v>1</v>
-      </c>
-      <c r="J114" s="3" t="s">
+      <c r="J114" s="3">
+        <v>1</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -5508,26 +5920,29 @@
         <v>317</v>
       </c>
       <c r="D115" s="3">
+        <v>10</v>
+      </c>
+      <c r="E115" s="3">
         <v>302</v>
       </c>
-      <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3">
-        <v>2</v>
-      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3"/>
       <c r="H115" s="3">
+        <v>2</v>
+      </c>
+      <c r="I115" s="3">
         <v>200</v>
       </c>
-      <c r="I115" s="3">
-        <v>1</v>
-      </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="3">
+        <v>1</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -5538,26 +5953,29 @@
         <v>318</v>
       </c>
       <c r="D116" s="3">
+        <v>10</v>
+      </c>
+      <c r="E116" s="3">
         <v>302</v>
       </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3">
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3">
         <v>3</v>
       </c>
-      <c r="H116" s="3">
+      <c r="I116" s="3">
         <v>5</v>
       </c>
-      <c r="I116" s="3">
-        <v>1</v>
-      </c>
-      <c r="J116" s="3" t="s">
+      <c r="J116" s="3">
+        <v>1</v>
+      </c>
+      <c r="K116" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -5568,26 +5986,29 @@
         <v>318</v>
       </c>
       <c r="D117" s="3">
+        <v>10</v>
+      </c>
+      <c r="E117" s="3">
         <v>302</v>
       </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3">
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3">
         <v>3</v>
       </c>
-      <c r="H117" s="3">
+      <c r="I117" s="3">
         <v>25</v>
       </c>
-      <c r="I117" s="3">
-        <v>1</v>
-      </c>
-      <c r="J117" s="3" t="s">
+      <c r="J117" s="3">
+        <v>1</v>
+      </c>
+      <c r="K117" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -5598,26 +6019,29 @@
         <v>319</v>
       </c>
       <c r="D118" s="3">
+        <v>10</v>
+      </c>
+      <c r="E118" s="3">
         <v>302</v>
       </c>
-      <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3">
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3">
         <v>3</v>
       </c>
-      <c r="H118" s="3">
+      <c r="I118" s="3">
         <v>200</v>
       </c>
-      <c r="I118" s="3">
-        <v>1</v>
-      </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="3">
+        <v>1</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -5628,26 +6052,29 @@
         <v>320</v>
       </c>
       <c r="D119" s="3">
+        <v>10</v>
+      </c>
+      <c r="E119" s="3">
         <v>302</v>
       </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3">
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3">
         <v>4</v>
       </c>
-      <c r="H119" s="3">
+      <c r="I119" s="3">
         <v>5</v>
       </c>
-      <c r="I119" s="3">
-        <v>1</v>
-      </c>
-      <c r="J119" s="3" t="s">
+      <c r="J119" s="3">
+        <v>1</v>
+      </c>
+      <c r="K119" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -5658,26 +6085,29 @@
         <v>321</v>
       </c>
       <c r="D120" s="3">
+        <v>10</v>
+      </c>
+      <c r="E120" s="3">
         <v>302</v>
       </c>
-      <c r="E120" s="3">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3">
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3">
         <v>4</v>
       </c>
-      <c r="H120" s="3">
+      <c r="I120" s="3">
         <v>25</v>
       </c>
-      <c r="I120" s="3">
-        <v>1</v>
-      </c>
-      <c r="J120" s="3" t="s">
+      <c r="J120" s="3">
+        <v>1</v>
+      </c>
+      <c r="K120" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -5688,26 +6118,29 @@
         <v>322</v>
       </c>
       <c r="D121" s="3">
+        <v>10</v>
+      </c>
+      <c r="E121" s="3">
         <v>302</v>
       </c>
-      <c r="E121" s="3">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3">
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3">
         <v>4</v>
       </c>
-      <c r="H121" s="3">
+      <c r="I121" s="3">
         <v>200</v>
       </c>
-      <c r="I121" s="3">
-        <v>1</v>
-      </c>
-      <c r="J121" s="3" t="s">
+      <c r="J121" s="3">
+        <v>1</v>
+      </c>
+      <c r="K121" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -5718,26 +6151,29 @@
         <v>323</v>
       </c>
       <c r="D122" s="3">
+        <v>10</v>
+      </c>
+      <c r="E122" s="3">
         <v>302</v>
       </c>
-      <c r="E122" s="3">
-        <v>1</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3">
-        <v>5</v>
-      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3"/>
       <c r="H122" s="3">
         <v>5</v>
       </c>
       <c r="I122" s="3">
-        <v>1</v>
-      </c>
-      <c r="J122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1</v>
+      </c>
+      <c r="K122" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -5748,24 +6184,27 @@
         <v>335</v>
       </c>
       <c r="D123" s="3">
+        <v>10</v>
+      </c>
+      <c r="E123" s="3">
         <v>302</v>
       </c>
-      <c r="E123" s="3">
-        <v>1</v>
-      </c>
-      <c r="F123" s="3"/>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="3">
+      <c r="H123" s="3"/>
+      <c r="I123" s="3">
         <v>50</v>
       </c>
-      <c r="I123" s="3">
-        <v>2</v>
-      </c>
-      <c r="J123" s="3" t="s">
+      <c r="J123" s="3">
+        <v>2</v>
+      </c>
+      <c r="K123" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -5776,24 +6215,27 @@
         <v>336</v>
       </c>
       <c r="D124" s="3">
+        <v>10</v>
+      </c>
+      <c r="E124" s="3">
         <v>302</v>
       </c>
-      <c r="E124" s="3">
-        <v>1</v>
-      </c>
-      <c r="F124" s="3"/>
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
       <c r="G124" s="3"/>
-      <c r="H124" s="3">
+      <c r="H124" s="3"/>
+      <c r="I124" s="3">
         <v>100</v>
       </c>
-      <c r="I124" s="3">
-        <v>2</v>
-      </c>
-      <c r="J124" s="3" t="s">
+      <c r="J124" s="3">
+        <v>2</v>
+      </c>
+      <c r="K124" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -5804,24 +6246,27 @@
         <v>337</v>
       </c>
       <c r="D125" s="3">
+        <v>10</v>
+      </c>
+      <c r="E125" s="3">
         <v>302</v>
       </c>
-      <c r="E125" s="3">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3"/>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
       <c r="G125" s="3"/>
-      <c r="H125" s="3">
+      <c r="H125" s="3"/>
+      <c r="I125" s="3">
         <v>200</v>
       </c>
-      <c r="I125" s="3">
-        <v>2</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="J125" s="3">
+        <v>2</v>
+      </c>
+      <c r="K125" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -5832,24 +6277,27 @@
         <v>338</v>
       </c>
       <c r="D126" s="3">
+        <v>10</v>
+      </c>
+      <c r="E126" s="3">
         <v>302</v>
       </c>
-      <c r="E126" s="3">
-        <v>1</v>
-      </c>
-      <c r="F126" s="3"/>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
       <c r="G126" s="3"/>
-      <c r="H126" s="3">
+      <c r="H126" s="3"/>
+      <c r="I126" s="3">
         <v>500</v>
       </c>
-      <c r="I126" s="3">
-        <v>2</v>
-      </c>
-      <c r="J126" s="3" t="s">
+      <c r="J126" s="3">
+        <v>2</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -5860,24 +6308,27 @@
         <v>339</v>
       </c>
       <c r="D127" s="3">
+        <v>10</v>
+      </c>
+      <c r="E127" s="3">
         <v>302</v>
       </c>
-      <c r="E127" s="3">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3"/>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
       <c r="G127" s="3"/>
-      <c r="H127" s="3">
+      <c r="H127" s="3"/>
+      <c r="I127" s="3">
         <v>1000</v>
       </c>
-      <c r="I127" s="3">
-        <v>2</v>
-      </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" s="3">
+        <v>2</v>
+      </c>
+      <c r="K127" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -5888,24 +6339,27 @@
         <v>340</v>
       </c>
       <c r="D128" s="3">
+        <v>10</v>
+      </c>
+      <c r="E128" s="3">
         <v>302</v>
       </c>
-      <c r="E128" s="3">
-        <v>1</v>
-      </c>
-      <c r="F128" s="3"/>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
       <c r="G128" s="3"/>
-      <c r="H128" s="3">
+      <c r="H128" s="3"/>
+      <c r="I128" s="3">
         <v>1500</v>
       </c>
-      <c r="I128" s="3">
-        <v>2</v>
-      </c>
-      <c r="J128" s="3" t="s">
+      <c r="J128" s="3">
+        <v>2</v>
+      </c>
+      <c r="K128" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -5916,24 +6370,27 @@
         <v>340</v>
       </c>
       <c r="D129" s="3">
+        <v>10</v>
+      </c>
+      <c r="E129" s="3">
         <v>302</v>
       </c>
-      <c r="E129" s="3">
-        <v>1</v>
-      </c>
-      <c r="F129" s="3"/>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
       <c r="G129" s="3"/>
-      <c r="H129" s="3">
+      <c r="H129" s="3"/>
+      <c r="I129" s="3">
         <v>2000</v>
       </c>
-      <c r="I129" s="3">
-        <v>2</v>
-      </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" s="3">
+        <v>2</v>
+      </c>
+      <c r="K129" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -5944,24 +6401,27 @@
         <v>341</v>
       </c>
       <c r="D130" s="3">
+        <v>10</v>
+      </c>
+      <c r="E130" s="3">
         <v>302</v>
       </c>
-      <c r="E130" s="3">
-        <v>1</v>
-      </c>
-      <c r="F130" s="3"/>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
       <c r="G130" s="3"/>
-      <c r="H130" s="3">
+      <c r="H130" s="3"/>
+      <c r="I130" s="3">
         <v>3000</v>
       </c>
-      <c r="I130" s="3">
-        <v>2</v>
-      </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="3">
+        <v>2</v>
+      </c>
+      <c r="K130" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -5972,24 +6432,27 @@
         <v>342</v>
       </c>
       <c r="D131" s="3">
+        <v>10</v>
+      </c>
+      <c r="E131" s="3">
         <v>302</v>
       </c>
-      <c r="E131" s="3">
-        <v>1</v>
-      </c>
-      <c r="F131" s="3"/>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
       <c r="G131" s="3"/>
-      <c r="H131" s="3">
+      <c r="H131" s="3"/>
+      <c r="I131" s="3">
         <v>5000</v>
       </c>
-      <c r="I131" s="3">
-        <v>2</v>
-      </c>
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="3">
+        <v>2</v>
+      </c>
+      <c r="K131" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -6000,24 +6463,27 @@
         <v>343</v>
       </c>
       <c r="D132" s="3">
+        <v>10</v>
+      </c>
+      <c r="E132" s="3">
         <v>302</v>
       </c>
-      <c r="E132" s="3">
-        <v>1</v>
-      </c>
-      <c r="F132" s="3"/>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
       <c r="G132" s="3"/>
-      <c r="H132" s="3">
+      <c r="H132" s="3"/>
+      <c r="I132" s="3">
         <v>7500</v>
       </c>
-      <c r="I132" s="3">
-        <v>2</v>
-      </c>
-      <c r="J132" s="3" t="s">
+      <c r="J132" s="3">
+        <v>2</v>
+      </c>
+      <c r="K132" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -6028,20 +6494,23 @@
         <v>344</v>
       </c>
       <c r="D133" s="3">
+        <v>10</v>
+      </c>
+      <c r="E133" s="3">
         <v>302</v>
       </c>
-      <c r="E133" s="3">
-        <v>1</v>
-      </c>
-      <c r="F133" s="3"/>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
       <c r="G133" s="3"/>
-      <c r="H133" s="3">
+      <c r="H133" s="3"/>
+      <c r="I133" s="3">
         <v>10000</v>
       </c>
-      <c r="I133" s="3">
-        <v>2</v>
-      </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="3">
+        <v>2</v>
+      </c>
+      <c r="K133" s="3" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6049,6 +6518,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA0135-8DA3-4172-A3EF-333BAEB16738}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B64CA-093A-4610-8D41-5476503F9AAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{AA1A2C87-E661-42F6-9248-E28DA19B55B9}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{AA1A2C87-E661-42F6-9248-E28DA19B55B9}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="395">
   <si>
     <t>sheet名</t>
   </si>
@@ -1430,6 +1430,118 @@
   </si>
   <si>
     <t>int:&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初出茅庐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任督二脉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].param1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].param2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].extId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].param1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].param2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].extId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰，导弹炮，激光炮都达到3突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任督二脉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥金如土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪终结者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵终结者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀20000只小兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀我的麒麟臂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮点击次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击屏幕100次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1947,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2027,6 +2139,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
@@ -2039,10 +2193,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31260EC7-A481-44E7-A2B8-8414D1341F7E}">
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2050,19 +2207,25 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="76.25" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.875" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="76.25" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="22.375" customWidth="1"/>
+    <col min="15" max="18" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="20.625" customWidth="1"/>
+    <col min="20" max="20" width="22.375" customWidth="1"/>
+    <col min="21" max="23" width="15.625" customWidth="1"/>
+    <col min="27" max="27" width="16.375" customWidth="1"/>
+    <col min="28" max="28" width="11" customWidth="1"/>
+    <col min="29" max="29" width="10.875" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2073,31 +2236,67 @@
         <v>59</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2108,10 +2307,10 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>366</v>
-      </c>
-      <c r="E2" t="s">
-        <v>365</v>
       </c>
       <c r="F2" t="s">
         <v>365</v>
@@ -2120,7 +2319,7 @@
         <v>365</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="I2" t="s">
         <v>76</v>
@@ -2129,22 +2328,58 @@
         <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>365</v>
+      </c>
+      <c r="M2" t="s">
+        <v>365</v>
       </c>
       <c r="N2" t="s">
+        <v>365</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S2" t="s">
+        <v>365</v>
+      </c>
+      <c r="T2" t="s">
+        <v>365</v>
+      </c>
+      <c r="U2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AB2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AC2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AD2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -2155,40 +2390,76 @@
         <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="L3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" t="s">
         <v>13</v>
       </c>
-      <c r="P3">
+      <c r="AB3">
         <v>101</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2198,35 +2469,47 @@
       <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
+      <c r="D4" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>101</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>20</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="AA4" t="s">
         <v>14</v>
       </c>
-      <c r="P4">
+      <c r="AB4">
         <v>101</v>
       </c>
-      <c r="Q4">
+      <c r="AC4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2236,35 +2519,47 @@
       <c r="C5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
+      <c r="D5" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>101</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>50</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="AA5" t="s">
         <v>15</v>
       </c>
-      <c r="P5">
+      <c r="AB5">
         <v>101</v>
       </c>
-      <c r="Q5">
+      <c r="AC5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2274,35 +2569,47 @@
       <c r="C6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>101</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>100</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="AA6" t="s">
         <v>16</v>
       </c>
-      <c r="P6">
+      <c r="AB6">
         <v>102</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2312,35 +2619,47 @@
       <c r="C7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>101</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>200</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="AA7" t="s">
         <v>17</v>
       </c>
-      <c r="P7">
+      <c r="AB7">
         <v>102</v>
       </c>
-      <c r="Q7">
+      <c r="AC7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2350,35 +2669,47 @@
       <c r="C8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
+      <c r="D8" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>101</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="AA8" t="s">
         <v>18</v>
       </c>
-      <c r="P8">
+      <c r="AB8">
         <v>102</v>
       </c>
-      <c r="Q8">
+      <c r="AC8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2388,35 +2719,47 @@
       <c r="C9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
+      <c r="D9" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>101</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="AA9" t="s">
         <v>159</v>
       </c>
-      <c r="P9">
+      <c r="AB9">
         <v>102</v>
       </c>
-      <c r="Q9">
+      <c r="AC9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2426,35 +2769,47 @@
       <c r="C10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
+      <c r="D10" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>101</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="AA10" t="s">
         <v>53</v>
       </c>
-      <c r="P10">
+      <c r="AB10">
         <v>103</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2464,35 +2819,47 @@
       <c r="C11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
+      <c r="D11" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>101</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>1000</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="AA11" t="s">
         <v>54</v>
       </c>
-      <c r="P11">
+      <c r="AB11">
         <v>103</v>
       </c>
-      <c r="Q11">
+      <c r="AC11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2502,35 +2869,47 @@
       <c r="C12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
+      <c r="D12" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>101</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="AA12" t="s">
         <v>55</v>
       </c>
-      <c r="P12">
+      <c r="AB12">
         <v>103</v>
       </c>
-      <c r="Q12">
+      <c r="AC12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2540,35 +2919,47 @@
       <c r="C13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
+      <c r="D13" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>101</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>2000</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="AA13" t="s">
         <v>56</v>
       </c>
-      <c r="P13">
+      <c r="AB13">
         <v>103</v>
       </c>
-      <c r="Q13">
+      <c r="AC13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2578,35 +2969,47 @@
       <c r="C14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>101</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>20</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="AA14" t="s">
         <v>57</v>
       </c>
-      <c r="P14">
+      <c r="AB14">
         <v>103</v>
       </c>
-      <c r="Q14">
+      <c r="AC14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2616,35 +3019,47 @@
       <c r="C15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>101</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>50</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="AA15" t="s">
         <v>25</v>
       </c>
-      <c r="P15">
+      <c r="AB15">
         <v>104</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2654,35 +3069,47 @@
       <c r="C16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>101</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>100</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="AA16" t="s">
         <v>26</v>
       </c>
-      <c r="P16">
+      <c r="AB16">
         <v>104</v>
       </c>
-      <c r="Q16">
+      <c r="AC16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2692,35 +3119,47 @@
       <c r="C17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>101</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="AA17" t="s">
         <v>27</v>
       </c>
-      <c r="P17">
+      <c r="AB17">
         <v>104</v>
       </c>
-      <c r="Q17">
+      <c r="AC17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2730,35 +3169,47 @@
       <c r="C18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>101</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="AA18" t="s">
         <v>28</v>
       </c>
-      <c r="P18">
+      <c r="AB18">
         <v>105</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2768,35 +3219,47 @@
       <c r="C19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>101</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
         <v>600</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="AA19" t="s">
         <v>31</v>
       </c>
-      <c r="P19">
+      <c r="AB19">
         <v>105</v>
       </c>
-      <c r="Q19">
+      <c r="AC19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2806,35 +3269,47 @@
       <c r="C20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>101</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="AA20" t="s">
         <v>32</v>
       </c>
-      <c r="P20">
+      <c r="AB20">
         <v>105</v>
       </c>
-      <c r="Q20">
+      <c r="AC20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2844,35 +3319,47 @@
       <c r="C21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>101</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="AA21" t="s">
         <v>33</v>
       </c>
-      <c r="P21">
+      <c r="AB21">
         <v>105</v>
       </c>
-      <c r="Q21">
+      <c r="AC21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2882,35 +3369,47 @@
       <c r="C22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>101</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="AA22" t="s">
         <v>34</v>
       </c>
-      <c r="P22">
+      <c r="AB22">
         <v>105</v>
       </c>
-      <c r="Q22">
+      <c r="AC22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2920,35 +3419,47 @@
       <c r="C23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>101</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="AA23" t="s">
         <v>35</v>
       </c>
-      <c r="P23">
+      <c r="AB23">
         <v>105</v>
       </c>
-      <c r="Q23">
+      <c r="AC23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2958,35 +3469,47 @@
       <c r="C24" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>101</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>20</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="AA24" t="s">
         <v>36</v>
       </c>
-      <c r="P24">
+      <c r="AB24">
         <v>105</v>
       </c>
-      <c r="Q24">
+      <c r="AC24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2996,35 +3519,47 @@
       <c r="C25" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>101</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>50</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="AA25" t="s">
         <v>37</v>
       </c>
-      <c r="P25">
+      <c r="AB25">
         <v>106</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3034,35 +3569,47 @@
       <c r="C26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>101</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="AA26" t="s">
         <v>38</v>
       </c>
-      <c r="P26">
+      <c r="AB26">
         <v>106</v>
       </c>
-      <c r="Q26">
+      <c r="AC26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3072,35 +3619,47 @@
       <c r="C27" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>101</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="AA27" t="s">
         <v>39</v>
       </c>
-      <c r="P27">
+      <c r="AB27">
         <v>106</v>
       </c>
-      <c r="Q27">
+      <c r="AC27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3110,35 +3669,47 @@
       <c r="C28" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>101</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>400</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="AA28" t="s">
         <v>40</v>
       </c>
-      <c r="P28">
+      <c r="AB28">
         <v>106</v>
       </c>
-      <c r="Q28">
+      <c r="AC28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3148,35 +3719,47 @@
       <c r="C29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>101</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>600</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="AA29" t="s">
         <v>41</v>
       </c>
-      <c r="P29">
+      <c r="AB29">
         <v>106</v>
       </c>
-      <c r="Q29">
+      <c r="AC29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3186,35 +3769,47 @@
       <c r="C30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>101</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
         <v>800</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="AA30" t="s">
         <v>42</v>
       </c>
-      <c r="P30">
+      <c r="AB30">
         <v>106</v>
       </c>
-      <c r="Q30">
+      <c r="AC30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3224,35 +3819,47 @@
       <c r="C31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>101</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
         <v>1000</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="AA31" t="s">
         <v>43</v>
       </c>
-      <c r="P31">
+      <c r="AB31">
         <v>106</v>
       </c>
-      <c r="Q31">
+      <c r="AC31">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3262,35 +3869,47 @@
       <c r="C32" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>101</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="AA32" t="s">
         <v>44</v>
       </c>
-      <c r="P32">
+      <c r="AB32">
         <v>107</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3300,35 +3919,47 @@
       <c r="C33" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>101</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="AA33" t="s">
         <v>45</v>
       </c>
-      <c r="P33">
+      <c r="AB33">
         <v>107</v>
       </c>
-      <c r="Q33">
+      <c r="AC33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3338,35 +3969,47 @@
       <c r="C34" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="3">
         <v>4</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>102</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="AA34" t="s">
         <v>46</v>
       </c>
-      <c r="P34">
+      <c r="AB34">
         <v>107</v>
       </c>
-      <c r="Q34">
+      <c r="AC34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3376,35 +4019,47 @@
       <c r="C35" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="3">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>102</v>
       </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
         <v>2</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="AA35" t="s">
         <v>47</v>
       </c>
-      <c r="P35">
+      <c r="AB35">
         <v>107</v>
       </c>
-      <c r="Q35">
+      <c r="AC35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3414,35 +4069,47 @@
       <c r="C36" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="3">
         <v>4</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>102</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="3">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="AA36" t="s">
         <v>48</v>
       </c>
-      <c r="P36">
+      <c r="AB36">
         <v>107</v>
       </c>
-      <c r="Q36">
+      <c r="AC36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3452,35 +4119,47 @@
       <c r="C37" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="3">
         <v>4</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>102</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="3">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
         <v>4</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="AA37" t="s">
         <v>49</v>
       </c>
-      <c r="P37">
+      <c r="AB37">
         <v>107</v>
       </c>
-      <c r="Q37">
+      <c r="AC37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3490,35 +4169,47 @@
       <c r="C38" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="3">
         <v>4</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>102</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
         <v>5</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="AA38" t="s">
         <v>50</v>
       </c>
-      <c r="P38">
+      <c r="AB38">
         <v>107</v>
       </c>
-      <c r="Q38">
+      <c r="AC38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3528,35 +4219,47 @@
       <c r="C39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="3">
         <v>4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>102</v>
       </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="3">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
         <v>6</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="AA39" t="s">
         <v>51</v>
       </c>
-      <c r="P39">
+      <c r="AB39">
         <v>108</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3566,35 +4269,47 @@
       <c r="C40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="3">
         <v>4</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>102</v>
       </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="3">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
         <v>7</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="AA40" t="s">
         <v>52</v>
       </c>
-      <c r="P40">
+      <c r="AB40">
         <v>108</v>
       </c>
-      <c r="Q40">
+      <c r="AC40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3604,35 +4319,47 @@
       <c r="C41" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="3">
         <v>4</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102</v>
       </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="3">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
         <v>8</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="AA41" t="s">
         <v>60</v>
       </c>
-      <c r="P41">
+      <c r="AB41">
         <v>108</v>
       </c>
-      <c r="Q41">
+      <c r="AC41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3642,35 +4369,47 @@
       <c r="C42" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102</v>
       </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="3">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
         <v>9</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="AA42" t="s">
         <v>29</v>
       </c>
-      <c r="P42">
+      <c r="AB42">
         <v>201</v>
       </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3680,35 +4419,47 @@
       <c r="C43" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="3">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>102</v>
       </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="3">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
         <v>10</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="AA43" t="s">
         <v>61</v>
       </c>
-      <c r="P43">
+      <c r="AB43">
         <v>201</v>
       </c>
-      <c r="Q43">
+      <c r="AC43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3718,35 +4469,47 @@
       <c r="C44" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="3">
         <v>5</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>102</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2</v>
       </c>
-      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="AA44" t="s">
         <v>62</v>
       </c>
-      <c r="P44">
+      <c r="AB44">
         <v>202</v>
       </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -3756,35 +4519,47 @@
       <c r="C45" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>102</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2</v>
       </c>
-      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
         <v>2</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="AA45" t="s">
         <v>63</v>
       </c>
-      <c r="P45">
+      <c r="AB45">
         <v>202</v>
       </c>
-      <c r="Q45">
+      <c r="AC45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -3794,35 +4569,47 @@
       <c r="C46" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="3">
         <v>5</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2</v>
       </c>
-      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
         <v>3</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="AA46" t="s">
         <v>30</v>
       </c>
-      <c r="P46">
+      <c r="AB46">
         <v>203</v>
       </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -3832,35 +4619,47 @@
       <c r="C47" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="3">
         <v>5</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2</v>
       </c>
-      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
         <v>4</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="AA47" t="s">
         <v>64</v>
       </c>
-      <c r="P47">
+      <c r="AB47">
         <v>203</v>
       </c>
-      <c r="Q47">
+      <c r="AC47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -3870,38 +4669,50 @@
       <c r="C48" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>102</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2</v>
       </c>
-      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3">
         <v>5</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="AA48" t="s">
         <v>65</v>
       </c>
-      <c r="P48">
+      <c r="AB48">
         <v>301</v>
       </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="S48" t="s">
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -3911,38 +4722,50 @@
       <c r="C49" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="3">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>102</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2</v>
       </c>
-      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
         <v>6</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="AA49" t="s">
         <v>67</v>
       </c>
-      <c r="P49">
+      <c r="AB49">
         <v>302</v>
       </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-      <c r="S49" t="s">
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AE49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -3952,35 +4775,47 @@
       <c r="C50" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="3">
         <v>5</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>102</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>2</v>
       </c>
-      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
         <v>7</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="AA50" t="s">
         <v>19</v>
       </c>
-      <c r="P50">
+      <c r="AB50">
         <v>303</v>
       </c>
-      <c r="Q50">
+      <c r="AC50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3990,35 +4825,47 @@
       <c r="C51" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="3">
         <v>5</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>102</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>2</v>
       </c>
-      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
         <v>8</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="AA51" t="s">
         <v>20</v>
       </c>
-      <c r="P51">
+      <c r="AB51">
         <v>401</v>
       </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -4028,26 +4875,47 @@
       <c r="C52" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="3">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2</v>
       </c>
-      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
         <v>9</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="AA52" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB52">
+        <v>501</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -4057,26 +4925,47 @@
       <c r="C53" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="3">
         <v>5</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>102</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>2</v>
       </c>
-      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
         <v>10</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="AA53" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB53">
+        <v>501</v>
+      </c>
+      <c r="AC53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -4086,26 +4975,38 @@
       <c r="C54" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>102</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -4115,26 +5016,38 @@
       <c r="C55" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="3">
         <v>6</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>102</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>3</v>
       </c>
-      <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
         <v>2</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -4144,26 +5057,38 @@
       <c r="C56" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="3">
         <v>6</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>102</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>3</v>
       </c>
-      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3">
         <v>3</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -4173,26 +5098,38 @@
       <c r="C57" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="3">
         <v>6</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>102</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3</v>
       </c>
-      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
         <v>4</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -4202,26 +5139,38 @@
       <c r="C58" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="3">
         <v>6</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>102</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3</v>
       </c>
-      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3">
+      <c r="I58" s="3"/>
+      <c r="J58" s="3">
         <v>5</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -4231,26 +5180,38 @@
       <c r="C59" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="3">
         <v>6</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>102</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3</v>
       </c>
-      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
         <v>6</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -4260,26 +5221,38 @@
       <c r="C60" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="3">
         <v>6</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>102</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3">
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
         <v>7</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -4289,26 +5262,38 @@
       <c r="C61" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="3">
         <v>6</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>102</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3</v>
       </c>
-      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
         <v>8</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -4318,26 +5303,38 @@
       <c r="C62" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="3">
         <v>6</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>102</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3</v>
       </c>
-      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3">
+      <c r="I62" s="3"/>
+      <c r="J62" s="3">
         <v>9</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -4347,26 +5344,38 @@
       <c r="C63" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="3">
         <v>6</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>102</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>3</v>
       </c>
-      <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
         <v>10</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -4376,26 +5385,38 @@
       <c r="C64" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" s="3">
         <v>7</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="3">
         <v>108</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <v>2</v>
       </c>
-      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
         <v>2</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -4405,26 +5426,38 @@
       <c r="C65" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="3">
         <v>7</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>108</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>2</v>
       </c>
-      <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3">
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
         <v>3</v>
       </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -4434,26 +5467,38 @@
       <c r="C66" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="3">
         <v>7</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>108</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2</v>
       </c>
-      <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3">
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
         <v>4</v>
       </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+    </row>
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -4463,26 +5508,38 @@
       <c r="C67" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="3">
         <v>7</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="3">
         <v>108</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>2</v>
       </c>
-      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3">
         <v>5</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -4492,26 +5549,38 @@
       <c r="C68" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="3">
         <v>7</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="3">
         <v>108</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <v>2</v>
       </c>
-      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3">
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
         <v>6</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+    </row>
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -4521,26 +5590,38 @@
       <c r="C69" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="3">
         <v>7</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="3">
         <v>108</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="3">
         <v>2</v>
       </c>
-      <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="3">
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
         <v>7</v>
       </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -4550,26 +5631,38 @@
       <c r="C70" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="3">
         <v>7</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>108</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>2</v>
       </c>
-      <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="3">
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
         <v>8</v>
       </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -4579,26 +5672,38 @@
       <c r="C71" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" s="3">
         <v>7</v>
       </c>
-      <c r="E71" s="3">
+      <c r="F71" s="3">
         <v>108</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="3">
         <v>2</v>
       </c>
-      <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3">
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
         <v>9</v>
       </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+    </row>
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -4608,26 +5713,38 @@
       <c r="C72" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" s="3">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>108</v>
       </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3"/>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
       <c r="H72" s="3"/>
-      <c r="I72" s="3">
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
         <v>2</v>
       </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+    </row>
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -4637,26 +5754,38 @@
       <c r="C73" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="3">
         <v>8</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>108</v>
       </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3"/>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
       <c r="H73" s="3"/>
-      <c r="I73" s="3">
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
         <v>5</v>
       </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+    </row>
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -4666,26 +5795,38 @@
       <c r="C74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="3">
         <v>8</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="3">
         <v>108</v>
       </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
       <c r="H74" s="3"/>
-      <c r="I74" s="3">
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
         <v>10</v>
       </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -4695,26 +5836,38 @@
       <c r="C75" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75" s="3">
         <v>8</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>108</v>
       </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3"/>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
       <c r="H75" s="3"/>
-      <c r="I75" s="3">
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
         <v>15</v>
       </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+    </row>
+    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -4724,26 +5877,38 @@
       <c r="C76" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" s="3">
         <v>8</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>108</v>
       </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3"/>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
       <c r="H76" s="3"/>
-      <c r="I76" s="3">
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
         <v>20</v>
       </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -4753,26 +5918,38 @@
       <c r="C77" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="3">
         <v>8</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>108</v>
       </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3"/>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
       <c r="H77" s="3"/>
-      <c r="I77" s="3">
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
         <v>25</v>
       </c>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -4782,26 +5959,38 @@
       <c r="C78" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="3">
         <v>8</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>108</v>
       </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3"/>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
       <c r="H78" s="3"/>
-      <c r="I78" s="3">
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
         <v>30</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -4811,26 +6000,38 @@
       <c r="C79" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" s="3">
         <v>8</v>
       </c>
-      <c r="E79" s="3">
+      <c r="F79" s="3">
         <v>108</v>
       </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3"/>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
       <c r="H79" s="3"/>
-      <c r="I79" s="3">
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
         <v>35</v>
       </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+    </row>
+    <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -4840,26 +6041,38 @@
       <c r="C80" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80" s="3">
         <v>8</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>108</v>
       </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3"/>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
       <c r="H80" s="3"/>
-      <c r="I80" s="3">
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
         <v>40</v>
       </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -4869,26 +6082,38 @@
       <c r="C81" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" s="3">
         <v>8</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>108</v>
       </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3"/>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
       <c r="H81" s="3"/>
-      <c r="I81" s="3">
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
         <v>50</v>
       </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -4898,26 +6123,38 @@
       <c r="C82" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="3">
         <v>9</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="3">
         <v>201</v>
       </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3"/>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
       <c r="H82" s="3"/>
-      <c r="I82" s="3">
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
         <v>5</v>
       </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -4927,26 +6164,38 @@
       <c r="C83" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="3">
         <v>9</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>201</v>
       </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-      <c r="G83" s="3"/>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
       <c r="H83" s="3"/>
-      <c r="I83" s="3">
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
         <v>10</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -4956,26 +6205,38 @@
       <c r="C84" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E84" s="3">
         <v>9</v>
       </c>
-      <c r="E84" s="3">
+      <c r="F84" s="3">
         <v>201</v>
       </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3"/>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
       <c r="H84" s="3"/>
-      <c r="I84" s="3">
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
         <v>20</v>
       </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -4985,26 +6246,38 @@
       <c r="C85" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E85" s="3">
         <v>9</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="3">
         <v>201</v>
       </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3"/>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
       <c r="H85" s="3"/>
-      <c r="I85" s="3">
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
         <v>50</v>
       </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -5014,26 +6287,38 @@
       <c r="C86" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E86" s="3">
         <v>9</v>
       </c>
-      <c r="E86" s="3">
+      <c r="F86" s="3">
         <v>201</v>
       </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3"/>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
       <c r="H86" s="3"/>
-      <c r="I86" s="3">
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
         <v>100</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -5043,26 +6328,38 @@
       <c r="C87" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E87" s="3">
         <v>9</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="3">
         <v>201</v>
       </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="3"/>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
       <c r="H87" s="3"/>
-      <c r="I87" s="3">
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
         <v>150</v>
       </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -5072,26 +6369,38 @@
       <c r="C88" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" s="3">
         <v>9</v>
       </c>
-      <c r="E88" s="3">
+      <c r="F88" s="3">
         <v>201</v>
       </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3"/>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
       <c r="H88" s="3"/>
-      <c r="I88" s="3">
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
         <v>200</v>
       </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -5101,26 +6410,38 @@
       <c r="C89" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E89" s="3">
         <v>9</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>201</v>
       </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3"/>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
       <c r="H89" s="3"/>
-      <c r="I89" s="3">
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -5130,26 +6451,38 @@
       <c r="C90" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E90" s="3">
         <v>9</v>
       </c>
-      <c r="E90" s="3">
+      <c r="F90" s="3">
         <v>201</v>
       </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3"/>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
       <c r="H90" s="3"/>
-      <c r="I90" s="3">
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
         <v>400</v>
       </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -5159,26 +6492,38 @@
       <c r="C91" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E91" s="3">
         <v>9</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>201</v>
       </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3"/>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="3">
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
         <v>500</v>
       </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -5188,26 +6533,38 @@
       <c r="C92" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E92" s="3">
         <v>9</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="3">
         <v>201</v>
       </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3"/>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
       <c r="H92" s="3"/>
-      <c r="I92" s="3">
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
         <v>600</v>
       </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -5217,26 +6574,38 @@
       <c r="C93" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E93" s="3">
         <v>9</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="3">
         <v>201</v>
       </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3"/>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
       <c r="H93" s="3"/>
-      <c r="I93" s="3">
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
         <v>700</v>
       </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -5246,26 +6615,38 @@
       <c r="C94" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E94" s="3">
         <v>9</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>201</v>
       </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3"/>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
       <c r="H94" s="3"/>
-      <c r="I94" s="3">
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
         <v>800</v>
       </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -5275,26 +6656,38 @@
       <c r="C95" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="3">
         <v>9</v>
       </c>
-      <c r="E95" s="3">
+      <c r="F95" s="3">
         <v>201</v>
       </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3"/>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
       <c r="H95" s="3"/>
-      <c r="I95" s="3">
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
         <v>1000</v>
       </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -5304,26 +6697,38 @@
       <c r="C96" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E96" s="3">
         <v>9</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>201</v>
       </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3"/>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
       <c r="H96" s="3"/>
-      <c r="I96" s="3">
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
         <v>1200</v>
       </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+    </row>
+    <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -5333,26 +6738,38 @@
       <c r="C97" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E97" s="3">
         <v>9</v>
       </c>
-      <c r="E97" s="3">
+      <c r="F97" s="3">
         <v>201</v>
       </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3"/>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
       <c r="H97" s="3"/>
-      <c r="I97" s="3">
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
         <v>1500</v>
       </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -5362,26 +6779,38 @@
       <c r="C98" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E98" s="3">
         <v>9</v>
       </c>
-      <c r="E98" s="3">
+      <c r="F98" s="3">
         <v>201</v>
       </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3"/>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
       <c r="H98" s="3"/>
-      <c r="I98" s="3">
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
         <v>2000</v>
       </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -5391,30 +6820,42 @@
       <c r="C99" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="3">
         <v>10</v>
       </c>
-      <c r="E99" s="3">
+      <c r="F99" s="3">
         <v>301</v>
       </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3">
-        <v>1</v>
-      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3"/>
       <c r="I99" s="3">
         <v>1</v>
       </c>
       <c r="J99" s="3">
         <v>1</v>
       </c>
-      <c r="K99" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>1</v>
+      </c>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -5424,30 +6865,42 @@
       <c r="C100" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100" s="3">
         <v>10</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>301</v>
       </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3"/>
       <c r="I100" s="3">
+        <v>1</v>
+      </c>
+      <c r="J100" s="3">
         <v>50</v>
       </c>
-      <c r="J100" s="3">
-        <v>1</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>1</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+    </row>
+    <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -5457,30 +6910,42 @@
       <c r="C101" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E101" s="3">
         <v>10</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>301</v>
       </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3"/>
       <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>1</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>1</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+    </row>
+    <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -5490,30 +6955,42 @@
       <c r="C102" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E102" s="3">
         <v>10</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>301</v>
       </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3">
-        <v>2</v>
-      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3"/>
       <c r="I102" s="3">
         <v>2</v>
       </c>
       <c r="J102" s="3">
-        <v>1</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+    </row>
+    <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -5523,30 +7000,42 @@
       <c r="C103" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E103" s="3">
         <v>10</v>
       </c>
-      <c r="E103" s="3">
+      <c r="F103" s="3">
         <v>301</v>
       </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3">
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3">
         <v>2</v>
       </c>
-      <c r="I103" s="3">
+      <c r="J103" s="3">
         <v>50</v>
       </c>
-      <c r="J103" s="3">
-        <v>1</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K103" s="3">
+        <v>1</v>
+      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+    </row>
+    <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -5556,30 +7045,42 @@
       <c r="C104" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E104" s="3">
         <v>10</v>
       </c>
-      <c r="E104" s="3">
+      <c r="F104" s="3">
         <v>301</v>
       </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3">
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3">
         <v>2</v>
       </c>
-      <c r="I104" s="3">
+      <c r="J104" s="3">
         <v>300</v>
       </c>
-      <c r="J104" s="3">
-        <v>1</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K104" s="3">
+        <v>1</v>
+      </c>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+    </row>
+    <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -5589,30 +7090,42 @@
       <c r="C105" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" s="3">
         <v>10</v>
       </c>
-      <c r="E105" s="3">
+      <c r="F105" s="3">
         <v>301</v>
       </c>
-      <c r="F105" s="3">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3">
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3">
         <v>3</v>
       </c>
-      <c r="I105" s="3">
+      <c r="J105" s="3">
         <v>2</v>
       </c>
-      <c r="J105" s="3">
-        <v>1</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K105" s="3">
+        <v>1</v>
+      </c>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+    </row>
+    <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -5622,30 +7135,42 @@
       <c r="C106" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="3">
         <v>10</v>
       </c>
-      <c r="E106" s="3">
+      <c r="F106" s="3">
         <v>301</v>
       </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3">
+      <c r="G106" s="3">
+        <v>1</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3">
         <v>3</v>
       </c>
-      <c r="I106" s="3">
+      <c r="J106" s="3">
         <v>50</v>
       </c>
-      <c r="J106" s="3">
-        <v>1</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K106" s="3">
+        <v>1</v>
+      </c>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+    </row>
+    <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -5655,30 +7180,42 @@
       <c r="C107" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E107" s="3">
         <v>10</v>
       </c>
-      <c r="E107" s="3">
+      <c r="F107" s="3">
         <v>301</v>
       </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3">
+      <c r="G107" s="3">
+        <v>1</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3">
         <v>3</v>
       </c>
-      <c r="I107" s="3">
+      <c r="J107" s="3">
         <v>300</v>
       </c>
-      <c r="J107" s="3">
-        <v>1</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K107" s="3">
+        <v>1</v>
+      </c>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+    </row>
+    <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -5688,30 +7225,42 @@
       <c r="C108" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E108" s="3">
         <v>10</v>
       </c>
-      <c r="E108" s="3">
+      <c r="F108" s="3">
         <v>301</v>
       </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3">
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3">
         <v>4</v>
       </c>
-      <c r="I108" s="3">
+      <c r="J108" s="3">
         <v>2</v>
       </c>
-      <c r="J108" s="3">
-        <v>1</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K108" s="3">
+        <v>1</v>
+      </c>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+    </row>
+    <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -5721,30 +7270,42 @@
       <c r="C109" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E109" s="3">
         <v>10</v>
       </c>
-      <c r="E109" s="3">
+      <c r="F109" s="3">
         <v>301</v>
       </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3">
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3">
         <v>4</v>
       </c>
-      <c r="I109" s="3">
+      <c r="J109" s="3">
         <v>50</v>
       </c>
-      <c r="J109" s="3">
-        <v>1</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K109" s="3">
+        <v>1</v>
+      </c>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+    </row>
+    <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -5754,30 +7315,42 @@
       <c r="C110" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E110" s="3">
         <v>10</v>
       </c>
-      <c r="E110" s="3">
+      <c r="F110" s="3">
         <v>301</v>
       </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3">
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3">
         <v>4</v>
       </c>
-      <c r="I110" s="3">
+      <c r="J110" s="3">
         <v>300</v>
       </c>
-      <c r="J110" s="3">
-        <v>1</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K110" s="3">
+        <v>1</v>
+      </c>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+    </row>
+    <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -5787,30 +7360,42 @@
       <c r="C111" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E111" s="3">
         <v>10</v>
       </c>
-      <c r="E111" s="3">
+      <c r="F111" s="3">
         <v>302</v>
       </c>
-      <c r="F111" s="3">
-        <v>1</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3"/>
       <c r="I111" s="3">
+        <v>1</v>
+      </c>
+      <c r="J111" s="3">
         <v>20</v>
       </c>
-      <c r="J111" s="3">
-        <v>1</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K111" s="3">
+        <v>1</v>
+      </c>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+    </row>
+    <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -5820,30 +7405,42 @@
       <c r="C112" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="3">
         <v>10</v>
       </c>
-      <c r="E112" s="3">
+      <c r="F112" s="3">
         <v>302</v>
       </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3"/>
       <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3">
         <v>200</v>
       </c>
-      <c r="J112" s="3">
-        <v>1</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K112" s="3">
+        <v>1</v>
+      </c>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+    </row>
+    <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -5853,30 +7450,42 @@
       <c r="C113" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E113" s="3">
         <v>10</v>
       </c>
-      <c r="E113" s="3">
+      <c r="F113" s="3">
         <v>302</v>
       </c>
-      <c r="F113" s="3">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3">
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3">
         <v>2</v>
       </c>
-      <c r="I113" s="3">
+      <c r="J113" s="3">
         <v>5</v>
       </c>
-      <c r="J113" s="3">
-        <v>1</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K113" s="3">
+        <v>1</v>
+      </c>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+    </row>
+    <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -5886,30 +7495,42 @@
       <c r="C114" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E114" s="3">
         <v>10</v>
       </c>
-      <c r="E114" s="3">
+      <c r="F114" s="3">
         <v>302</v>
       </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3">
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3">
         <v>2</v>
       </c>
-      <c r="I114" s="3">
+      <c r="J114" s="3">
         <v>25</v>
       </c>
-      <c r="J114" s="3">
-        <v>1</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K114" s="3">
+        <v>1</v>
+      </c>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+    </row>
+    <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -5919,30 +7540,42 @@
       <c r="C115" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E115" s="3">
         <v>10</v>
       </c>
-      <c r="E115" s="3">
+      <c r="F115" s="3">
         <v>302</v>
       </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3">
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3">
         <v>2</v>
       </c>
-      <c r="I115" s="3">
+      <c r="J115" s="3">
         <v>200</v>
       </c>
-      <c r="J115" s="3">
-        <v>1</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K115" s="3">
+        <v>1</v>
+      </c>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+    </row>
+    <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -5952,30 +7585,42 @@
       <c r="C116" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="3">
         <v>10</v>
       </c>
-      <c r="E116" s="3">
+      <c r="F116" s="3">
         <v>302</v>
       </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3">
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3">
         <v>3</v>
       </c>
-      <c r="I116" s="3">
+      <c r="J116" s="3">
         <v>5</v>
       </c>
-      <c r="J116" s="3">
-        <v>1</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K116" s="3">
+        <v>1</v>
+      </c>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+    </row>
+    <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -5985,30 +7630,42 @@
       <c r="C117" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E117" s="3">
         <v>10</v>
       </c>
-      <c r="E117" s="3">
+      <c r="F117" s="3">
         <v>302</v>
       </c>
-      <c r="F117" s="3">
-        <v>1</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3">
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3">
         <v>3</v>
       </c>
-      <c r="I117" s="3">
+      <c r="J117" s="3">
         <v>25</v>
       </c>
-      <c r="J117" s="3">
-        <v>1</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K117" s="3">
+        <v>1</v>
+      </c>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+    </row>
+    <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -6018,30 +7675,42 @@
       <c r="C118" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E118" s="3">
         <v>10</v>
       </c>
-      <c r="E118" s="3">
+      <c r="F118" s="3">
         <v>302</v>
       </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3">
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3">
         <v>3</v>
       </c>
-      <c r="I118" s="3">
+      <c r="J118" s="3">
         <v>200</v>
       </c>
-      <c r="J118" s="3">
-        <v>1</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K118" s="3">
+        <v>1</v>
+      </c>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+    </row>
+    <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -6051,30 +7720,42 @@
       <c r="C119" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E119" s="3">
         <v>10</v>
       </c>
-      <c r="E119" s="3">
+      <c r="F119" s="3">
         <v>302</v>
       </c>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3">
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3">
         <v>4</v>
       </c>
-      <c r="I119" s="3">
+      <c r="J119" s="3">
         <v>5</v>
       </c>
-      <c r="J119" s="3">
-        <v>1</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K119" s="3">
+        <v>1</v>
+      </c>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+    </row>
+    <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -6084,30 +7765,42 @@
       <c r="C120" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E120" s="3">
         <v>10</v>
       </c>
-      <c r="E120" s="3">
+      <c r="F120" s="3">
         <v>302</v>
       </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3">
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3">
         <v>4</v>
       </c>
-      <c r="I120" s="3">
+      <c r="J120" s="3">
         <v>25</v>
       </c>
-      <c r="J120" s="3">
-        <v>1</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+    </row>
+    <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -6117,30 +7810,42 @@
       <c r="C121" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E121" s="3">
         <v>10</v>
       </c>
-      <c r="E121" s="3">
+      <c r="F121" s="3">
         <v>302</v>
       </c>
-      <c r="F121" s="3">
-        <v>1</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3">
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3">
         <v>4</v>
       </c>
-      <c r="I121" s="3">
+      <c r="J121" s="3">
         <v>200</v>
       </c>
-      <c r="J121" s="3">
-        <v>1</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K121" s="3">
+        <v>1</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+    </row>
+    <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -6150,30 +7855,42 @@
       <c r="C122" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E122" s="3">
         <v>10</v>
       </c>
-      <c r="E122" s="3">
+      <c r="F122" s="3">
         <v>302</v>
       </c>
-      <c r="F122" s="3">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3">
-        <v>5</v>
-      </c>
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+      <c r="H122" s="3"/>
       <c r="I122" s="3">
         <v>5</v>
       </c>
       <c r="J122" s="3">
-        <v>1</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="K122" s="3">
+        <v>1</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+    </row>
+    <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -6183,28 +7900,40 @@
       <c r="C123" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="3">
         <v>10</v>
       </c>
-      <c r="E123" s="3">
+      <c r="F123" s="3">
         <v>302</v>
       </c>
-      <c r="F123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3"/>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
       <c r="H123" s="3"/>
-      <c r="I123" s="3">
+      <c r="I123" s="3"/>
+      <c r="J123" s="3">
         <v>50</v>
       </c>
-      <c r="J123" s="3">
+      <c r="K123" s="3">
         <v>2</v>
       </c>
-      <c r="K123" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+    </row>
+    <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -6214,28 +7943,40 @@
       <c r="C124" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E124" s="3">
         <v>10</v>
       </c>
-      <c r="E124" s="3">
+      <c r="F124" s="3">
         <v>302</v>
       </c>
-      <c r="F124" s="3">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3"/>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
       <c r="H124" s="3"/>
-      <c r="I124" s="3">
+      <c r="I124" s="3"/>
+      <c r="J124" s="3">
         <v>100</v>
       </c>
-      <c r="J124" s="3">
+      <c r="K124" s="3">
         <v>2</v>
       </c>
-      <c r="K124" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+    </row>
+    <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -6245,28 +7986,40 @@
       <c r="C125" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" s="3">
         <v>10</v>
       </c>
-      <c r="E125" s="3">
+      <c r="F125" s="3">
         <v>302</v>
       </c>
-      <c r="F125" s="3">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3"/>
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
       <c r="H125" s="3"/>
-      <c r="I125" s="3">
+      <c r="I125" s="3"/>
+      <c r="J125" s="3">
         <v>200</v>
       </c>
-      <c r="J125" s="3">
+      <c r="K125" s="3">
         <v>2</v>
       </c>
-      <c r="K125" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+    </row>
+    <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -6276,28 +8029,40 @@
       <c r="C126" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E126" s="3">
         <v>10</v>
       </c>
-      <c r="E126" s="3">
+      <c r="F126" s="3">
         <v>302</v>
       </c>
-      <c r="F126" s="3">
-        <v>1</v>
-      </c>
-      <c r="G126" s="3"/>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
       <c r="H126" s="3"/>
-      <c r="I126" s="3">
+      <c r="I126" s="3"/>
+      <c r="J126" s="3">
         <v>500</v>
       </c>
-      <c r="J126" s="3">
+      <c r="K126" s="3">
         <v>2</v>
       </c>
-      <c r="K126" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+    </row>
+    <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -6307,28 +8072,40 @@
       <c r="C127" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E127" s="3">
         <v>10</v>
       </c>
-      <c r="E127" s="3">
+      <c r="F127" s="3">
         <v>302</v>
       </c>
-      <c r="F127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3"/>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="3">
+      <c r="I127" s="3"/>
+      <c r="J127" s="3">
         <v>1000</v>
       </c>
-      <c r="J127" s="3">
+      <c r="K127" s="3">
         <v>2</v>
       </c>
-      <c r="K127" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+    </row>
+    <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -6338,28 +8115,40 @@
       <c r="C128" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E128" s="3">
         <v>10</v>
       </c>
-      <c r="E128" s="3">
+      <c r="F128" s="3">
         <v>302</v>
       </c>
-      <c r="F128" s="3">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3"/>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
       <c r="H128" s="3"/>
-      <c r="I128" s="3">
+      <c r="I128" s="3"/>
+      <c r="J128" s="3">
         <v>1500</v>
       </c>
-      <c r="J128" s="3">
+      <c r="K128" s="3">
         <v>2</v>
       </c>
-      <c r="K128" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+    </row>
+    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -6369,28 +8158,40 @@
       <c r="C129" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E129" s="3">
         <v>10</v>
       </c>
-      <c r="E129" s="3">
+      <c r="F129" s="3">
         <v>302</v>
       </c>
-      <c r="F129" s="3">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3"/>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
       <c r="H129" s="3"/>
-      <c r="I129" s="3">
+      <c r="I129" s="3"/>
+      <c r="J129" s="3">
         <v>2000</v>
       </c>
-      <c r="J129" s="3">
+      <c r="K129" s="3">
         <v>2</v>
       </c>
-      <c r="K129" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+    </row>
+    <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -6400,28 +8201,40 @@
       <c r="C130" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E130" s="3">
         <v>10</v>
       </c>
-      <c r="E130" s="3">
+      <c r="F130" s="3">
         <v>302</v>
       </c>
-      <c r="F130" s="3">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3"/>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
       <c r="H130" s="3"/>
-      <c r="I130" s="3">
+      <c r="I130" s="3"/>
+      <c r="J130" s="3">
         <v>3000</v>
       </c>
-      <c r="J130" s="3">
+      <c r="K130" s="3">
         <v>2</v>
       </c>
-      <c r="K130" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+    </row>
+    <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -6431,28 +8244,40 @@
       <c r="C131" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E131" s="3">
         <v>10</v>
       </c>
-      <c r="E131" s="3">
+      <c r="F131" s="3">
         <v>302</v>
       </c>
-      <c r="F131" s="3">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3"/>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
       <c r="H131" s="3"/>
-      <c r="I131" s="3">
+      <c r="I131" s="3"/>
+      <c r="J131" s="3">
         <v>5000</v>
       </c>
-      <c r="J131" s="3">
+      <c r="K131" s="3">
         <v>2</v>
       </c>
-      <c r="K131" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+    </row>
+    <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -6462,28 +8287,40 @@
       <c r="C132" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E132" s="3">
         <v>10</v>
       </c>
-      <c r="E132" s="3">
+      <c r="F132" s="3">
         <v>302</v>
       </c>
-      <c r="F132" s="3">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3"/>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="3">
+      <c r="I132" s="3"/>
+      <c r="J132" s="3">
         <v>7500</v>
       </c>
-      <c r="J132" s="3">
+      <c r="K132" s="3">
         <v>2</v>
       </c>
-      <c r="K132" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+    </row>
+    <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -6493,26 +8330,175 @@
       <c r="C133" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E133" s="3">
         <v>10</v>
       </c>
-      <c r="E133" s="3">
+      <c r="F133" s="3">
         <v>302</v>
       </c>
-      <c r="F133" s="3">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3"/>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
       <c r="H133" s="3"/>
-      <c r="I133" s="3">
+      <c r="I133" s="3"/>
+      <c r="J133" s="3">
         <v>10000</v>
       </c>
-      <c r="J133" s="3">
+      <c r="K133" s="3">
         <v>2</v>
       </c>
-      <c r="K133" s="3" t="s">
-        <v>355</v>
-      </c>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+    </row>
+    <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>131</v>
+      </c>
+      <c r="B134" s="3">
+        <v>400000001</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E134" s="3">
+        <v>11</v>
+      </c>
+      <c r="F134" s="3">
+        <v>102</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3">
+        <v>3</v>
+      </c>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3">
+        <v>102</v>
+      </c>
+      <c r="M134" s="3">
+        <v>2</v>
+      </c>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3">
+        <v>102</v>
+      </c>
+      <c r="S134" s="3">
+        <v>3</v>
+      </c>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3">
+        <v>3</v>
+      </c>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+    </row>
+    <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>132</v>
+      </c>
+      <c r="B135" s="3">
+        <v>500000001</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E135" s="3">
+        <v>12</v>
+      </c>
+      <c r="F135" s="3">
+        <v>202</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3">
+        <v>3</v>
+      </c>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+    </row>
+    <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>133</v>
+      </c>
+      <c r="B136" s="3">
+        <v>600000001</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E136" s="3">
+        <v>13</v>
+      </c>
+      <c r="F136" s="3">
+        <v>501</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3">
+        <v>100</v>
+      </c>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6524,19 +8510,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FBD91C-F569-4595-80D6-ADF1A2755A73}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="9" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>116</v>
       </c>
@@ -6544,28 +8531,31 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -6573,28 +8563,31 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>115</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -6602,25 +8595,140 @@
         <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4">
+        <v>101010001</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5">
+        <v>400000001</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>1011</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6">
+        <v>301020001</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7">
+        <v>500000001</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B64CA-093A-4610-8D41-5476503F9AAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C6D5B-AD17-4F49-9609-68A0E32ABC4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="394">
   <si>
     <t>sheet名</t>
   </si>
@@ -504,10 +504,6 @@
   </si>
   <si>
     <t>item_id:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>row</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2059,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2099,20 +2095,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2120,20 +2116,20 @@
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2141,20 +2137,20 @@
     </row>
     <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -2162,11 +2158,11 @@
     </row>
     <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -2175,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -2196,10 +2192,10 @@
   <dimension ref="A1:AE136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J137" sqref="J137"/>
+      <selection pane="bottomRight" activeCell="U135" sqref="U135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2239,7 +2235,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
@@ -2260,40 +2256,40 @@
         <v>58</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2310,16 +2306,16 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I2" t="s">
         <v>76</v>
@@ -2331,13 +2327,13 @@
         <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O2" t="s">
         <v>76</v>
@@ -2349,13 +2345,13 @@
         <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U2" t="s">
         <v>76</v>
@@ -2393,7 +2389,7 @@
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>81</v>
@@ -2750,7 +2746,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="AA9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB9">
         <v>102</v>
@@ -2967,10 +2963,10 @@
         <v>101020001</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -3017,10 +3013,10 @@
         <v>101020002</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -3067,10 +3063,10 @@
         <v>101020003</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -3117,10 +3113,10 @@
         <v>101020004</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -3167,10 +3163,10 @@
         <v>101020005</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -3217,10 +3213,10 @@
         <v>101020006</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -3267,10 +3263,10 @@
         <v>101020007</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -3317,10 +3313,10 @@
         <v>101020008</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -3367,10 +3363,10 @@
         <v>101020009</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -3417,10 +3413,10 @@
         <v>101020010</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -3467,10 +3463,10 @@
         <v>101030001</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -3517,10 +3513,10 @@
         <v>101030002</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -3567,10 +3563,10 @@
         <v>101030003</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -3617,10 +3613,10 @@
         <v>101030004</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -3667,10 +3663,10 @@
         <v>101030005</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -3717,10 +3713,10 @@
         <v>101030006</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -3767,10 +3763,10 @@
         <v>101030007</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -3817,10 +3813,10 @@
         <v>101030008</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
@@ -3867,10 +3863,10 @@
         <v>101030009</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="3">
         <v>3</v>
@@ -3917,10 +3913,10 @@
         <v>101030010</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
@@ -3967,10 +3963,10 @@
         <v>102010001</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
@@ -4017,10 +4013,10 @@
         <v>102010002</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35" s="3">
         <v>4</v>
@@ -4067,10 +4063,10 @@
         <v>102010003</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" s="3">
         <v>4</v>
@@ -4117,10 +4113,10 @@
         <v>102010004</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E37" s="3">
         <v>4</v>
@@ -4167,10 +4163,10 @@
         <v>102010005</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E38" s="3">
         <v>4</v>
@@ -4217,10 +4213,10 @@
         <v>102010006</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" s="3">
         <v>4</v>
@@ -4267,10 +4263,10 @@
         <v>102010007</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -4317,10 +4313,10 @@
         <v>102010008</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E41" s="3">
         <v>4</v>
@@ -4367,10 +4363,10 @@
         <v>102010009</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="3">
         <v>4</v>
@@ -4417,10 +4413,10 @@
         <v>102010010</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
@@ -4467,10 +4463,10 @@
         <v>102020001</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E44" s="3">
         <v>5</v>
@@ -4517,10 +4513,10 @@
         <v>102020002</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
@@ -4567,10 +4563,10 @@
         <v>102020003</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E46" s="3">
         <v>5</v>
@@ -4617,10 +4613,10 @@
         <v>102020004</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E47" s="3">
         <v>5</v>
@@ -4667,10 +4663,10 @@
         <v>102020005</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48" s="3">
         <v>5</v>
@@ -4720,10 +4716,10 @@
         <v>102020006</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49" s="3">
         <v>5</v>
@@ -4773,10 +4769,10 @@
         <v>102020007</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E50" s="3">
         <v>5</v>
@@ -4823,10 +4819,10 @@
         <v>102020008</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E51" s="3">
         <v>5</v>
@@ -4873,10 +4869,10 @@
         <v>102020009</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="3">
         <v>5</v>
@@ -4906,7 +4902,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="AA52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB52">
         <v>501</v>
@@ -4923,10 +4919,10 @@
         <v>102020010</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
@@ -4956,7 +4952,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="AA53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB53">
         <v>501</v>
@@ -4973,10 +4969,10 @@
         <v>102030001</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E54" s="3">
         <v>6</v>
@@ -5014,10 +5010,10 @@
         <v>102030002</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
@@ -5055,10 +5051,10 @@
         <v>102030003</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E56" s="3">
         <v>6</v>
@@ -5096,10 +5092,10 @@
         <v>102030004</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E57" s="3">
         <v>6</v>
@@ -5137,10 +5133,10 @@
         <v>102030005</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E58" s="3">
         <v>6</v>
@@ -5178,10 +5174,10 @@
         <v>102030006</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
@@ -5219,10 +5215,10 @@
         <v>102030007</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E60" s="3">
         <v>6</v>
@@ -5260,10 +5256,10 @@
         <v>102030008</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E61" s="3">
         <v>6</v>
@@ -5301,10 +5297,10 @@
         <v>102030009</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E62" s="3">
         <v>6</v>
@@ -5342,10 +5338,10 @@
         <v>102030010</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E63" s="3">
         <v>6</v>
@@ -5383,10 +5379,10 @@
         <v>108020001</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="E64" s="3">
         <v>7</v>
@@ -5424,10 +5420,10 @@
         <v>108020002</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E65" s="3">
         <v>7</v>
@@ -5465,10 +5461,10 @@
         <v>108020003</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E66" s="3">
         <v>7</v>
@@ -5506,10 +5502,10 @@
         <v>108020004</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E67" s="3">
         <v>7</v>
@@ -5547,10 +5543,10 @@
         <v>108020005</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E68" s="3">
         <v>7</v>
@@ -5588,10 +5584,10 @@
         <v>108020006</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E69" s="3">
         <v>7</v>
@@ -5629,10 +5625,10 @@
         <v>108020007</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E70" s="3">
         <v>7</v>
@@ -5670,10 +5666,10 @@
         <v>108020008</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E71" s="3">
         <v>7</v>
@@ -5711,10 +5707,10 @@
         <v>108010001</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E72" s="3">
         <v>8</v>
@@ -5752,10 +5748,10 @@
         <v>108010002</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E73" s="3">
         <v>8</v>
@@ -5793,10 +5789,10 @@
         <v>108010003</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E74" s="3">
         <v>8</v>
@@ -5834,10 +5830,10 @@
         <v>108010004</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E75" s="3">
         <v>8</v>
@@ -5875,10 +5871,10 @@
         <v>108010005</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E76" s="3">
         <v>8</v>
@@ -5916,10 +5912,10 @@
         <v>108010006</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E77" s="3">
         <v>8</v>
@@ -5957,10 +5953,10 @@
         <v>108010007</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
@@ -5998,10 +5994,10 @@
         <v>108010008</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E79" s="3">
         <v>8</v>
@@ -6039,10 +6035,10 @@
         <v>108010009</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E80" s="3">
         <v>8</v>
@@ -6080,10 +6076,10 @@
         <v>108010010</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E81" s="3">
         <v>8</v>
@@ -6121,10 +6117,10 @@
         <v>201010001</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E82" s="3">
         <v>9</v>
@@ -6162,10 +6158,10 @@
         <v>201010002</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E83" s="3">
         <v>9</v>
@@ -6203,10 +6199,10 @@
         <v>201010003</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E84" s="3">
         <v>9</v>
@@ -6244,10 +6240,10 @@
         <v>201010004</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E85" s="3">
         <v>9</v>
@@ -6285,10 +6281,10 @@
         <v>201010005</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E86" s="3">
         <v>9</v>
@@ -6326,10 +6322,10 @@
         <v>201010006</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E87" s="3">
         <v>9</v>
@@ -6367,10 +6363,10 @@
         <v>201010007</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E88" s="3">
         <v>9</v>
@@ -6408,10 +6404,10 @@
         <v>201010008</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E89" s="3">
         <v>9</v>
@@ -6449,10 +6445,10 @@
         <v>201010009</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E90" s="3">
         <v>9</v>
@@ -6490,10 +6486,10 @@
         <v>201010010</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E91" s="3">
         <v>9</v>
@@ -6531,10 +6527,10 @@
         <v>201010011</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E92" s="3">
         <v>9</v>
@@ -6572,10 +6568,10 @@
         <v>201010012</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E93" s="3">
         <v>9</v>
@@ -6613,10 +6609,10 @@
         <v>201010013</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E94" s="3">
         <v>9</v>
@@ -6654,10 +6650,10 @@
         <v>201010014</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E95" s="3">
         <v>9</v>
@@ -6695,10 +6691,10 @@
         <v>201010015</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E96" s="3">
         <v>9</v>
@@ -6736,10 +6732,10 @@
         <v>201010016</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E97" s="3">
         <v>9</v>
@@ -6777,10 +6773,10 @@
         <v>201010017</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E98" s="3">
         <v>9</v>
@@ -6818,10 +6814,10 @@
         <v>301010001</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E99" s="3">
         <v>10</v>
@@ -6863,10 +6859,10 @@
         <v>301010002</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E100" s="3">
         <v>10</v>
@@ -6908,10 +6904,10 @@
         <v>301010003</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E101" s="3">
         <v>10</v>
@@ -6953,10 +6949,10 @@
         <v>301010004</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E102" s="3">
         <v>10</v>
@@ -6998,10 +6994,10 @@
         <v>301010005</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E103" s="3">
         <v>10</v>
@@ -7043,10 +7039,10 @@
         <v>301010006</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E104" s="3">
         <v>10</v>
@@ -7088,10 +7084,10 @@
         <v>301010007</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E105" s="3">
         <v>10</v>
@@ -7133,10 +7129,10 @@
         <v>301010008</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E106" s="3">
         <v>10</v>
@@ -7178,10 +7174,10 @@
         <v>301010009</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E107" s="3">
         <v>10</v>
@@ -7223,10 +7219,10 @@
         <v>301010010</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E108" s="3">
         <v>10</v>
@@ -7268,10 +7264,10 @@
         <v>301010011</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E109" s="3">
         <v>10</v>
@@ -7313,10 +7309,10 @@
         <v>301010012</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E110" s="3">
         <v>10</v>
@@ -7358,10 +7354,10 @@
         <v>301020001</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E111" s="3">
         <v>10</v>
@@ -7403,10 +7399,10 @@
         <v>301020002</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E112" s="3">
         <v>10</v>
@@ -7448,10 +7444,10 @@
         <v>301020003</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E113" s="3">
         <v>10</v>
@@ -7493,10 +7489,10 @@
         <v>301020004</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E114" s="3">
         <v>10</v>
@@ -7538,10 +7534,10 @@
         <v>301020005</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
@@ -7583,10 +7579,10 @@
         <v>301020006</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E116" s="3">
         <v>10</v>
@@ -7628,10 +7624,10 @@
         <v>301020007</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E117" s="3">
         <v>10</v>
@@ -7673,10 +7669,10 @@
         <v>301020008</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -7718,10 +7714,10 @@
         <v>301020009</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E119" s="3">
         <v>10</v>
@@ -7763,10 +7759,10 @@
         <v>301020010</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E120" s="3">
         <v>10</v>
@@ -7808,10 +7804,10 @@
         <v>301020011</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E121" s="3">
         <v>10</v>
@@ -7853,10 +7849,10 @@
         <v>301020012</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E122" s="3">
         <v>10</v>
@@ -7898,10 +7894,10 @@
         <v>301020101</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E123" s="3">
         <v>10</v>
@@ -7941,10 +7937,10 @@
         <v>301020102</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E124" s="3">
         <v>10</v>
@@ -7984,10 +7980,10 @@
         <v>301020103</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E125" s="3">
         <v>10</v>
@@ -8027,10 +8023,10 @@
         <v>301020104</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E126" s="3">
         <v>10</v>
@@ -8070,10 +8066,10 @@
         <v>301020105</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E127" s="3">
         <v>10</v>
@@ -8113,10 +8109,10 @@
         <v>301020106</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E128" s="3">
         <v>10</v>
@@ -8156,10 +8152,10 @@
         <v>301020107</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E129" s="3">
         <v>10</v>
@@ -8199,10 +8195,10 @@
         <v>301020108</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E130" s="3">
         <v>10</v>
@@ -8242,10 +8238,10 @@
         <v>301020109</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E131" s="3">
         <v>10</v>
@@ -8285,10 +8281,10 @@
         <v>301020110</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E132" s="3">
         <v>10</v>
@@ -8328,10 +8324,10 @@
         <v>301020111</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E133" s="3">
         <v>10</v>
@@ -8371,10 +8367,10 @@
         <v>400000001</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E134" s="3">
         <v>11</v>
@@ -8424,10 +8420,10 @@
         <v>500000001</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="E135" s="3">
         <v>12</v>
@@ -8453,9 +8449,7 @@
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
-      <c r="U135" s="3">
-        <v>3</v>
-      </c>
+      <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
     </row>
@@ -8467,10 +8461,10 @@
         <v>600000001</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E136" s="3">
         <v>13</v>
@@ -8512,8 +8506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FBD91C-F569-4595-80D6-ADF1A2755A73}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8525,16 +8519,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>68</v>
@@ -8557,7 +8551,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -8592,10 +8586,10 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
@@ -8619,117 +8613,141 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="3">
         <v>101010001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>102</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="3">
+        <v>400000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1011</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D5">
-        <v>400000001</v>
-      </c>
-      <c r="E5">
+      <c r="D6" s="3">
+        <v>301020001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="3">
+        <v>500000001</v>
+      </c>
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="3">
+        <v>600000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>50</v>
       </c>
-      <c r="H5">
-        <v>1011</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6">
-        <v>301020001</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7">
-        <v>500000001</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>389</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C6D5B-AD17-4F49-9609-68A0E32ABC4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B6E6DA-5948-41FD-89D0-0CC4C20C6201}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="397">
   <si>
     <t>sheet名</t>
   </si>
@@ -1245,299 +1245,313 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>花费金币II</t>
+  </si>
+  <si>
+    <t>花费金币III</t>
+  </si>
+  <si>
+    <t>花费金币IV</t>
+  </si>
+  <si>
+    <t>花费金币V</t>
+  </si>
+  <si>
+    <t>花费金币VI</t>
+  </si>
+  <si>
+    <t>花费金币VII</t>
+  </si>
+  <si>
+    <t>花费金币VIII</t>
+  </si>
+  <si>
+    <t>花费金币IX</t>
+  </si>
+  <si>
+    <t>花费金币X</t>
+  </si>
+  <si>
+    <t>花费金币XI</t>
+  </si>
+  <si>
+    <t>花费金币20K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币200K</t>
+  </si>
+  <si>
+    <t>花费金币5M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币25M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币200M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币5B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币25B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币200B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币5G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币25G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币200G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石I</t>
+  </si>
+  <si>
+    <t>花费钻石II</t>
+  </si>
+  <si>
+    <t>花费钻石IV</t>
+  </si>
+  <si>
+    <t>花费钻石V</t>
+  </si>
+  <si>
+    <t>花费钻石VI</t>
+  </si>
+  <si>
+    <t>花费钻石VII</t>
+  </si>
+  <si>
+    <t>花费钻石VIII</t>
+  </si>
+  <si>
+    <t>花费钻石IX</t>
+  </si>
+  <si>
+    <t>花费钻石X</t>
+  </si>
+  <si>
+    <t>花费50钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费100钻石</t>
+  </si>
+  <si>
+    <t>花费200钻石</t>
+  </si>
+  <si>
+    <t>花费500钻石</t>
+  </si>
+  <si>
+    <t>花费1000钻石</t>
+  </si>
+  <si>
+    <t>花费1500钻石</t>
+  </si>
+  <si>
+    <t>花费2000钻石</t>
+  </si>
+  <si>
+    <t>花费3000钻石</t>
+  </si>
+  <si>
+    <t>花费5000钻石</t>
+  </si>
+  <si>
+    <t>花费7500钻石</t>
+  </si>
+  <si>
+    <t>花费10000钻石</t>
+  </si>
+  <si>
+    <t>成就Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveBase.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置成就的表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置成就的表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初出茅庐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任督二脉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].param1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].param2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[2].extId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].param1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].param2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require[3].extId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰，导弹炮，激光炮都达到3突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任督二脉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥金如土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪终结者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵终结者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀20000只小兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀我的麒麟臂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮点击次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击屏幕100次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币XII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石XI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>花费金币I</t>
-  </si>
-  <si>
-    <t>花费金币II</t>
-  </si>
-  <si>
-    <t>花费金币III</t>
-  </si>
-  <si>
-    <t>花费金币IV</t>
-  </si>
-  <si>
-    <t>花费金币V</t>
-  </si>
-  <si>
-    <t>花费金币VI</t>
-  </si>
-  <si>
-    <t>花费金币VII</t>
-  </si>
-  <si>
-    <t>花费金币VIII</t>
-  </si>
-  <si>
-    <t>花费金币IX</t>
-  </si>
-  <si>
-    <t>花费金币X</t>
-  </si>
-  <si>
-    <t>花费金币XI</t>
-  </si>
-  <si>
-    <t>花费金币20K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币200K</t>
-  </si>
-  <si>
-    <t>花费金币5M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币25M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币200M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币5B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币25B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币200B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币5G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币25G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币200G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费钻石I</t>
-  </si>
-  <si>
-    <t>花费钻石II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>花费钻石III</t>
-  </si>
-  <si>
-    <t>花费钻石IV</t>
-  </si>
-  <si>
-    <t>花费钻石V</t>
-  </si>
-  <si>
-    <t>花费钻石VI</t>
-  </si>
-  <si>
-    <t>花费钻石VII</t>
-  </si>
-  <si>
-    <t>花费钻石VIII</t>
-  </si>
-  <si>
-    <t>花费钻石IX</t>
-  </si>
-  <si>
-    <t>花费钻石X</t>
-  </si>
-  <si>
-    <t>花费50钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费100钻石</t>
-  </si>
-  <si>
-    <t>花费200钻石</t>
-  </si>
-  <si>
-    <t>花费500钻石</t>
-  </si>
-  <si>
-    <t>花费1000钻石</t>
-  </si>
-  <si>
-    <t>花费1500钻石</t>
-  </si>
-  <si>
-    <t>花费2000钻石</t>
-  </si>
-  <si>
-    <t>花费3000钻石</t>
-  </si>
-  <si>
-    <t>花费5000钻石</t>
-  </si>
-  <si>
-    <t>花费7500钻石</t>
-  </si>
-  <si>
-    <t>花费10000钻石</t>
-  </si>
-  <si>
-    <t>成就Base</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveBase.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId,id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端配置成就的表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端配置成就的表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初出茅庐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任督二脉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[2].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[2].param1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[2].param2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[2].valw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[2].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[2].extId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[3].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[3].param1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[3].param2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[3].valw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[3].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require[3].extId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰，导弹炮，激光炮都达到3突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任督二脉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥金如土</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪终结者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小兵终结者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀20000只小兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哎呀我的麒麟臂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主炮点击次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击屏幕100次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achievement.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币XII</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2095,20 +2109,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2116,20 +2130,20 @@
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2137,20 +2151,20 @@
     </row>
     <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -2158,11 +2172,11 @@
     </row>
     <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -2171,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -2191,11 +2205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31260EC7-A481-44E7-A2B8-8414D1341F7E}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U135" sqref="U135"/>
+      <selection pane="bottomRight" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2235,7 +2249,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
@@ -2256,40 +2270,40 @@
         <v>58</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2306,16 +2320,16 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
         <v>76</v>
@@ -2327,13 +2341,13 @@
         <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O2" t="s">
         <v>76</v>
@@ -2345,13 +2359,13 @@
         <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="T2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U2" t="s">
         <v>76</v>
@@ -2389,7 +2403,7 @@
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>81</v>
@@ -4902,7 +4916,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="AA52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AB52">
         <v>501</v>
@@ -4952,7 +4966,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="AA53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AB53">
         <v>501</v>
@@ -7084,7 +7098,7 @@
         <v>301010007</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>309</v>
@@ -7129,7 +7143,7 @@
         <v>301010008</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>310</v>
@@ -7174,7 +7188,7 @@
         <v>301010009</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>311</v>
@@ -7219,7 +7233,7 @@
         <v>301010010</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>306</v>
@@ -7264,7 +7278,7 @@
         <v>301010011</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>307</v>
@@ -7309,7 +7323,7 @@
         <v>301010012</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>308</v>
@@ -7354,10 +7368,10 @@
         <v>301020001</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E111" s="3">
         <v>10</v>
@@ -7399,10 +7413,10 @@
         <v>301020002</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E112" s="3">
         <v>10</v>
@@ -7444,10 +7458,10 @@
         <v>301020003</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E113" s="3">
         <v>10</v>
@@ -7489,10 +7503,10 @@
         <v>301020004</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E114" s="3">
         <v>10</v>
@@ -7534,10 +7548,10 @@
         <v>301020005</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
@@ -7579,10 +7593,10 @@
         <v>301020006</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E116" s="3">
         <v>10</v>
@@ -7627,7 +7641,7 @@
         <v>317</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E117" s="3">
         <v>10</v>
@@ -7672,7 +7686,7 @@
         <v>318</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -7717,7 +7731,7 @@
         <v>319</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E119" s="3">
         <v>10</v>
@@ -7762,7 +7776,7 @@
         <v>320</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E120" s="3">
         <v>10</v>
@@ -7807,7 +7821,7 @@
         <v>321</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E121" s="3">
         <v>10</v>
@@ -7849,10 +7863,10 @@
         <v>301020012</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E122" s="3">
         <v>10</v>
@@ -7894,10 +7908,10 @@
         <v>301020101</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E123" s="3">
         <v>10</v>
@@ -7937,10 +7951,10 @@
         <v>301020102</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E124" s="3">
         <v>10</v>
@@ -7980,10 +7994,10 @@
         <v>301020103</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E125" s="3">
         <v>10</v>
@@ -8023,10 +8037,10 @@
         <v>301020104</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E126" s="3">
         <v>10</v>
@@ -8066,10 +8080,10 @@
         <v>301020105</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E127" s="3">
         <v>10</v>
@@ -8109,10 +8123,10 @@
         <v>301020106</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E128" s="3">
         <v>10</v>
@@ -8152,10 +8166,10 @@
         <v>301020107</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E129" s="3">
         <v>10</v>
@@ -8195,10 +8209,10 @@
         <v>301020108</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E130" s="3">
         <v>10</v>
@@ -8238,10 +8252,10 @@
         <v>301020109</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E131" s="3">
         <v>10</v>
@@ -8281,10 +8295,10 @@
         <v>301020110</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E132" s="3">
         <v>10</v>
@@ -8324,10 +8338,10 @@
         <v>301020111</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E133" s="3">
         <v>10</v>
@@ -8367,10 +8381,10 @@
         <v>400000001</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E134" s="3">
         <v>11</v>
@@ -8420,10 +8434,10 @@
         <v>500000001</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E135" s="3">
         <v>12</v>
@@ -8461,10 +8475,10 @@
         <v>600000001</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E136" s="3">
         <v>13</v>
@@ -8506,8 +8520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FBD91C-F569-4595-80D6-ADF1A2755A73}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8525,7 +8539,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>116</v>
@@ -8589,7 +8603,7 @@
         <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
@@ -8621,7 +8635,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D4" s="3">
         <v>101010001</v>
@@ -8647,7 +8661,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D5" s="3">
         <v>400000001</v>
@@ -8679,7 +8693,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D6" s="3">
         <v>301020001</v>
@@ -8705,7 +8719,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D7" s="3">
         <v>500000001</v>
@@ -8731,7 +8745,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D8" s="3">
         <v>600000001</v>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B6E6DA-5948-41FD-89D0-0CC4C20C6201}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C8064-58EA-4469-AB6C-BC1A06F05C9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="成就Base" sheetId="26" r:id="rId2"/>
     <sheet name="成就" sheetId="27" r:id="rId3"/>
-    <sheet name="军阶" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="469">
   <si>
     <t>sheet名</t>
   </si>
@@ -1552,6 +1551,238 @@
   </si>
   <si>
     <t>获得金币XII</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文孔1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文孔2</t>
+  </si>
+  <si>
+    <t>符文孔3</t>
+  </si>
+  <si>
+    <t>符文孔4</t>
+  </si>
+  <si>
+    <t>符文孔5</t>
+  </si>
+  <si>
+    <t>符文孔6</t>
+  </si>
+  <si>
+    <t>符文孔7</t>
+  </si>
+  <si>
+    <t>符文孔8</t>
+  </si>
+  <si>
+    <t>解锁第三章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁第四章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁第五章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁第七章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁第十章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁第十五章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁第二十章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁第三十章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文孔9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文孔10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少尉解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少校解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶达到2等兵</t>
+  </si>
+  <si>
+    <t>军阶达到1等兵</t>
+  </si>
+  <si>
+    <t>军阶达到下士</t>
+  </si>
+  <si>
+    <t>军阶达到中士</t>
+  </si>
+  <si>
+    <t>军阶达到参谋军士</t>
+  </si>
+  <si>
+    <t>军阶达到上士</t>
+  </si>
+  <si>
+    <t>军阶达到1级士官</t>
+  </si>
+  <si>
+    <t>军阶达到2级士官</t>
+  </si>
+  <si>
+    <t>军阶达到3级士官</t>
+  </si>
+  <si>
+    <t>军阶达到1级准尉</t>
+  </si>
+  <si>
+    <t>军阶达到2级准尉</t>
+  </si>
+  <si>
+    <t>军阶达到3级准尉</t>
+  </si>
+  <si>
+    <t>军阶达到4级准尉</t>
+  </si>
+  <si>
+    <t>军阶达到5级准尉</t>
+  </si>
+  <si>
+    <t>军阶达到少尉</t>
+  </si>
+  <si>
+    <t>军阶达到中尉</t>
+  </si>
+  <si>
+    <t>军阶达到上尉</t>
+  </si>
+  <si>
+    <t>军阶达到少校</t>
+  </si>
+  <si>
+    <t>军阶达到中校</t>
+  </si>
+  <si>
+    <t>军阶达到上校</t>
+  </si>
+  <si>
+    <t>军阶达到准将</t>
+  </si>
+  <si>
+    <t>军阶达到少将</t>
+  </si>
+  <si>
+    <t>军阶达到中将</t>
+  </si>
+  <si>
+    <t>军阶达到上将</t>
+  </si>
+  <si>
+    <t>军阶达到元帅</t>
+  </si>
+  <si>
+    <t>军阶2</t>
+  </si>
+  <si>
+    <t>军阶3</t>
+  </si>
+  <si>
+    <t>军阶4</t>
+  </si>
+  <si>
+    <t>军阶5</t>
+  </si>
+  <si>
+    <t>军阶6</t>
+  </si>
+  <si>
+    <t>军阶7</t>
+  </si>
+  <si>
+    <t>军阶8</t>
+  </si>
+  <si>
+    <t>军阶9</t>
+  </si>
+  <si>
+    <t>军阶10</t>
+  </si>
+  <si>
+    <t>军阶11</t>
+  </si>
+  <si>
+    <t>军阶12</t>
+  </si>
+  <si>
+    <t>军阶13</t>
+  </si>
+  <si>
+    <t>军阶14</t>
+  </si>
+  <si>
+    <t>军阶15</t>
+  </si>
+  <si>
+    <t>军阶16</t>
+  </si>
+  <si>
+    <t>军阶17</t>
+  </si>
+  <si>
+    <t>军阶18</t>
+  </si>
+  <si>
+    <t>军阶19</t>
+  </si>
+  <si>
+    <t>军阶20</t>
+  </si>
+  <si>
+    <t>军阶21</t>
+  </si>
+  <si>
+    <t>军阶22</t>
+  </si>
+  <si>
+    <t>军阶23</t>
+  </si>
+  <si>
+    <t>军阶24</t>
+  </si>
+  <si>
+    <t>军阶25</t>
+  </si>
+  <si>
+    <t>军阶1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2070,7 +2301,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2203,13 +2434,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31260EC7-A481-44E7-A2B8-8414D1341F7E}">
-  <dimension ref="A1:AE136"/>
+  <dimension ref="A1:AE171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C115" sqref="C115"/>
+      <selection pane="bottomRight" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4410,10 +4641,10 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="AA42" t="s">
-        <v>29</v>
+        <v>398</v>
       </c>
       <c r="AB42">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="AC42">
         <v>1</v>
@@ -4460,13 +4691,13 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="AA43" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="AB43">
         <v>201</v>
       </c>
       <c r="AC43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -4510,13 +4741,13 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="AA44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB44">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -4560,13 +4791,13 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="AA45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB45">
         <v>202</v>
       </c>
       <c r="AC45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -4610,13 +4841,13 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="AA46" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="AB46">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -4660,13 +4891,13 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="AA47" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="AB47">
         <v>203</v>
       </c>
       <c r="AC47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -4710,13 +4941,13 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="AA48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB48">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE48" t="s">
         <v>66</v>
@@ -4763,10 +4994,10 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="AA49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB49">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AC49">
         <v>1</v>
@@ -4816,13 +5047,13 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="AA50" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AB50">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AC50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -4866,10 +5097,10 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="AA51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB51">
-        <v>401</v>
+        <v>303</v>
       </c>
       <c r="AC51">
         <v>1</v>
@@ -4916,10 +5147,10 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="AA52" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AB52">
-        <v>501</v>
+        <v>304</v>
       </c>
       <c r="AC52">
         <v>1</v>
@@ -4966,13 +5197,13 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="AA53" t="s">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="AB53">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AC53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -5015,6 +5246,15 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
+      <c r="AA54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB54">
+        <v>501</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
@@ -5056,6 +5296,15 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
+      <c r="AA55" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB55">
+        <v>501</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
@@ -6128,19 +6377,19 @@
         <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>201010001</v>
+        <v>109010001</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>255</v>
+        <v>468</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="E82" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F82" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -6148,7 +6397,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -6169,19 +6418,19 @@
         <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>201010002</v>
+        <v>109010002</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>256</v>
+        <v>444</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>273</v>
+        <v>420</v>
       </c>
       <c r="E83" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F83" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -6189,7 +6438,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -6210,19 +6459,19 @@
         <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>201010003</v>
+        <v>109010003</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>274</v>
+        <v>421</v>
       </c>
       <c r="E84" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F84" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -6230,7 +6479,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -6251,19 +6500,19 @@
         <v>82</v>
       </c>
       <c r="B85" s="3">
-        <v>201010004</v>
+        <v>109010004</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>258</v>
+        <v>446</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>275</v>
+        <v>422</v>
       </c>
       <c r="E85" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F85" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -6271,7 +6520,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -6292,19 +6541,19 @@
         <v>83</v>
       </c>
       <c r="B86" s="3">
-        <v>201010005</v>
+        <v>109010005</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>259</v>
+        <v>447</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>276</v>
+        <v>423</v>
       </c>
       <c r="E86" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F86" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -6312,7 +6561,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -6333,19 +6582,19 @@
         <v>84</v>
       </c>
       <c r="B87" s="3">
-        <v>201010006</v>
+        <v>109010006</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>260</v>
+        <v>448</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>277</v>
+        <v>424</v>
       </c>
       <c r="E87" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F87" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -6353,7 +6602,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -6374,19 +6623,19 @@
         <v>85</v>
       </c>
       <c r="B88" s="3">
-        <v>201010007</v>
+        <v>109010007</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>261</v>
+        <v>449</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>278</v>
+        <v>425</v>
       </c>
       <c r="E88" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F88" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -6394,7 +6643,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -6415,19 +6664,19 @@
         <v>86</v>
       </c>
       <c r="B89" s="3">
-        <v>201010008</v>
+        <v>109010008</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>279</v>
+        <v>426</v>
       </c>
       <c r="E89" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F89" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -6435,7 +6684,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -6456,19 +6705,19 @@
         <v>87</v>
       </c>
       <c r="B90" s="3">
-        <v>201010009</v>
+        <v>109010009</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>263</v>
+        <v>451</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>280</v>
+        <v>427</v>
       </c>
       <c r="E90" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F90" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -6476,7 +6725,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -6497,19 +6746,19 @@
         <v>88</v>
       </c>
       <c r="B91" s="3">
-        <v>201010010</v>
+        <v>109010010</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>264</v>
+        <v>452</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>281</v>
+        <v>428</v>
       </c>
       <c r="E91" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F91" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -6517,7 +6766,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -6538,19 +6787,19 @@
         <v>89</v>
       </c>
       <c r="B92" s="3">
-        <v>201010011</v>
+        <v>109010011</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>265</v>
+        <v>453</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>282</v>
+        <v>429</v>
       </c>
       <c r="E92" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F92" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -6558,7 +6807,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -6579,19 +6828,19 @@
         <v>90</v>
       </c>
       <c r="B93" s="3">
-        <v>201010012</v>
+        <v>109010012</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>266</v>
+        <v>454</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>283</v>
+        <v>430</v>
       </c>
       <c r="E93" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F93" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -6599,7 +6848,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3">
-        <v>700</v>
+        <v>13</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6620,19 +6869,19 @@
         <v>91</v>
       </c>
       <c r="B94" s="3">
-        <v>201010013</v>
+        <v>109010013</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>267</v>
+        <v>455</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>284</v>
+        <v>431</v>
       </c>
       <c r="E94" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F94" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -6640,7 +6889,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3">
-        <v>800</v>
+        <v>14</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -6661,19 +6910,19 @@
         <v>92</v>
       </c>
       <c r="B95" s="3">
-        <v>201010014</v>
+        <v>109010014</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>268</v>
+        <v>456</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>285</v>
+        <v>432</v>
       </c>
       <c r="E95" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F95" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G95" s="3">
         <v>1</v>
@@ -6681,7 +6930,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -6702,19 +6951,19 @@
         <v>93</v>
       </c>
       <c r="B96" s="3">
-        <v>201010015</v>
+        <v>109010015</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>269</v>
+        <v>457</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>286</v>
+        <v>433</v>
       </c>
       <c r="E96" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F96" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G96" s="3">
         <v>1</v>
@@ -6722,7 +6971,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3">
-        <v>1200</v>
+        <v>16</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -6743,19 +6992,19 @@
         <v>94</v>
       </c>
       <c r="B97" s="3">
-        <v>201010016</v>
+        <v>109010016</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>287</v>
+        <v>434</v>
       </c>
       <c r="E97" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F97" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -6763,7 +7012,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3">
-        <v>1500</v>
+        <v>17</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -6784,19 +7033,19 @@
         <v>95</v>
       </c>
       <c r="B98" s="3">
-        <v>201010017</v>
+        <v>109010017</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>271</v>
+        <v>459</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>288</v>
+        <v>435</v>
       </c>
       <c r="E98" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F98" s="3">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -6804,7 +7053,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3">
-        <v>2000</v>
+        <v>18</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -6825,33 +7074,29 @@
         <v>96</v>
       </c>
       <c r="B99" s="3">
-        <v>301010001</v>
+        <v>109010018</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>289</v>
+        <v>460</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
       <c r="E99" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F99" s="3">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
       </c>
       <c r="H99" s="3"/>
-      <c r="I99" s="3">
-        <v>1</v>
-      </c>
+      <c r="I99" s="3"/>
       <c r="J99" s="3">
-        <v>1</v>
-      </c>
-      <c r="K99" s="3">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -6870,33 +7115,29 @@
         <v>97</v>
       </c>
       <c r="B100" s="3">
-        <v>301010002</v>
+        <v>109010019</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>290</v>
+        <v>461</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="E100" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F100" s="3">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
       </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
+      <c r="I100" s="3"/>
       <c r="J100" s="3">
-        <v>50</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -6915,33 +7156,29 @@
         <v>98</v>
       </c>
       <c r="B101" s="3">
-        <v>301010003</v>
+        <v>109010020</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>291</v>
+        <v>462</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>302</v>
+        <v>438</v>
       </c>
       <c r="E101" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F101" s="3">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
       </c>
       <c r="H101" s="3"/>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
+      <c r="I101" s="3"/>
       <c r="J101" s="3">
-        <v>300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
@@ -6960,33 +7197,29 @@
         <v>99</v>
       </c>
       <c r="B102" s="3">
-        <v>301010004</v>
+        <v>109010021</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>303</v>
+        <v>439</v>
       </c>
       <c r="E102" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F102" s="3">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
       </c>
       <c r="H102" s="3"/>
-      <c r="I102" s="3">
-        <v>2</v>
-      </c>
+      <c r="I102" s="3"/>
       <c r="J102" s="3">
-        <v>2</v>
-      </c>
-      <c r="K102" s="3">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
@@ -7005,33 +7238,29 @@
         <v>100</v>
       </c>
       <c r="B103" s="3">
-        <v>301010005</v>
+        <v>109010022</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>293</v>
+        <v>464</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="E103" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F103" s="3">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
       </c>
       <c r="H103" s="3"/>
-      <c r="I103" s="3">
-        <v>2</v>
-      </c>
+      <c r="I103" s="3"/>
       <c r="J103" s="3">
-        <v>50</v>
-      </c>
-      <c r="K103" s="3">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
@@ -7050,33 +7279,29 @@
         <v>101</v>
       </c>
       <c r="B104" s="3">
-        <v>301010006</v>
+        <v>109010023</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>294</v>
+        <v>465</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>305</v>
+        <v>441</v>
       </c>
       <c r="E104" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F104" s="3">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
       </c>
       <c r="H104" s="3"/>
-      <c r="I104" s="3">
-        <v>2</v>
-      </c>
+      <c r="I104" s="3"/>
       <c r="J104" s="3">
-        <v>300</v>
-      </c>
-      <c r="K104" s="3">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
@@ -7095,33 +7320,29 @@
         <v>102</v>
       </c>
       <c r="B105" s="3">
-        <v>301010007</v>
+        <v>109010024</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>295</v>
+        <v>466</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>309</v>
+        <v>442</v>
       </c>
       <c r="E105" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F105" s="3">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
       </c>
       <c r="H105" s="3"/>
-      <c r="I105" s="3">
-        <v>3</v>
-      </c>
+      <c r="I105" s="3"/>
       <c r="J105" s="3">
-        <v>2</v>
-      </c>
-      <c r="K105" s="3">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
@@ -7140,33 +7361,29 @@
         <v>103</v>
       </c>
       <c r="B106" s="3">
-        <v>301010008</v>
+        <v>109010025</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>310</v>
+        <v>443</v>
       </c>
       <c r="E106" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F106" s="3">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="3">
-        <v>3</v>
-      </c>
+      <c r="I106" s="3"/>
       <c r="J106" s="3">
-        <v>50</v>
-      </c>
-      <c r="K106" s="3">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
@@ -7185,33 +7402,29 @@
         <v>104</v>
       </c>
       <c r="B107" s="3">
-        <v>301010009</v>
+        <v>201010001</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="E107" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" s="3">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
       </c>
       <c r="H107" s="3"/>
-      <c r="I107" s="3">
-        <v>3</v>
-      </c>
+      <c r="I107" s="3"/>
       <c r="J107" s="3">
-        <v>300</v>
-      </c>
-      <c r="K107" s="3">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
@@ -7230,33 +7443,29 @@
         <v>105</v>
       </c>
       <c r="B108" s="3">
-        <v>301010010</v>
+        <v>201010002</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="E108" s="3">
+        <v>9</v>
+      </c>
+      <c r="F108" s="3">
+        <v>201</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3">
         <v>10</v>
       </c>
-      <c r="F108" s="3">
-        <v>301</v>
-      </c>
-      <c r="G108" s="3">
-        <v>1</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3">
-        <v>4</v>
-      </c>
-      <c r="J108" s="3">
-        <v>2</v>
-      </c>
-      <c r="K108" s="3">
-        <v>1</v>
-      </c>
+      <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
@@ -7275,33 +7484,29 @@
         <v>106</v>
       </c>
       <c r="B109" s="3">
-        <v>301010011</v>
+        <v>201010003</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="E109" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109" s="3">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
       </c>
       <c r="H109" s="3"/>
-      <c r="I109" s="3">
-        <v>4</v>
-      </c>
+      <c r="I109" s="3"/>
       <c r="J109" s="3">
-        <v>50</v>
-      </c>
-      <c r="K109" s="3">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
@@ -7320,33 +7525,29 @@
         <v>107</v>
       </c>
       <c r="B110" s="3">
-        <v>301010012</v>
+        <v>201010004</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>396</v>
+        <v>258</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="E110" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F110" s="3">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="3"/>
-      <c r="I110" s="3">
-        <v>4</v>
-      </c>
+      <c r="I110" s="3"/>
       <c r="J110" s="3">
-        <v>300</v>
-      </c>
-      <c r="K110" s="3">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
@@ -7365,33 +7566,29 @@
         <v>108</v>
       </c>
       <c r="B111" s="3">
-        <v>301020001</v>
+        <v>201010005</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="E111" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F111" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="3"/>
-      <c r="I111" s="3">
-        <v>1</v>
-      </c>
+      <c r="I111" s="3"/>
       <c r="J111" s="3">
-        <v>20</v>
-      </c>
-      <c r="K111" s="3">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
@@ -7410,33 +7607,29 @@
         <v>109</v>
       </c>
       <c r="B112" s="3">
-        <v>301020002</v>
+        <v>201010006</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="E112" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F112" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G112" s="3">
         <v>1</v>
       </c>
       <c r="H112" s="3"/>
-      <c r="I112" s="3">
-        <v>1</v>
-      </c>
+      <c r="I112" s="3"/>
       <c r="J112" s="3">
-        <v>200</v>
-      </c>
-      <c r="K112" s="3">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
@@ -7455,33 +7648,29 @@
         <v>110</v>
       </c>
       <c r="B113" s="3">
-        <v>301020003</v>
+        <v>201010007</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="E113" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F113" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
       </c>
       <c r="H113" s="3"/>
-      <c r="I113" s="3">
-        <v>2</v>
-      </c>
+      <c r="I113" s="3"/>
       <c r="J113" s="3">
-        <v>5</v>
-      </c>
-      <c r="K113" s="3">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
@@ -7500,33 +7689,29 @@
         <v>111</v>
       </c>
       <c r="B114" s="3">
-        <v>301020004</v>
+        <v>201010008</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="E114" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F114" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="3"/>
-      <c r="I114" s="3">
-        <v>2</v>
-      </c>
+      <c r="I114" s="3"/>
       <c r="J114" s="3">
-        <v>25</v>
-      </c>
-      <c r="K114" s="3">
-        <v>1</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
@@ -7545,33 +7730,29 @@
         <v>112</v>
       </c>
       <c r="B115" s="3">
-        <v>301020005</v>
+        <v>201010009</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="E115" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F115" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
       </c>
       <c r="H115" s="3"/>
-      <c r="I115" s="3">
-        <v>2</v>
-      </c>
+      <c r="I115" s="3"/>
       <c r="J115" s="3">
-        <v>200</v>
-      </c>
-      <c r="K115" s="3">
-        <v>1</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
@@ -7590,33 +7771,29 @@
         <v>113</v>
       </c>
       <c r="B116" s="3">
-        <v>301020006</v>
+        <v>201010010</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="E116" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F116" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
       </c>
       <c r="H116" s="3"/>
-      <c r="I116" s="3">
-        <v>3</v>
-      </c>
+      <c r="I116" s="3"/>
       <c r="J116" s="3">
-        <v>5</v>
-      </c>
-      <c r="K116" s="3">
-        <v>1</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
@@ -7635,33 +7812,29 @@
         <v>114</v>
       </c>
       <c r="B117" s="3">
-        <v>301020007</v>
+        <v>201010011</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="E117" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F117" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G117" s="3">
         <v>1</v>
       </c>
       <c r="H117" s="3"/>
-      <c r="I117" s="3">
-        <v>3</v>
-      </c>
+      <c r="I117" s="3"/>
       <c r="J117" s="3">
-        <v>25</v>
-      </c>
-      <c r="K117" s="3">
-        <v>1</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
@@ -7680,33 +7853,29 @@
         <v>115</v>
       </c>
       <c r="B118" s="3">
-        <v>301020008</v>
+        <v>201010012</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="E118" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F118" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
       </c>
       <c r="H118" s="3"/>
-      <c r="I118" s="3">
-        <v>3</v>
-      </c>
+      <c r="I118" s="3"/>
       <c r="J118" s="3">
-        <v>200</v>
-      </c>
-      <c r="K118" s="3">
-        <v>1</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
@@ -7725,33 +7894,29 @@
         <v>116</v>
       </c>
       <c r="B119" s="3">
-        <v>301020009</v>
+        <v>201010013</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="E119" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F119" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
       <c r="H119" s="3"/>
-      <c r="I119" s="3">
-        <v>4</v>
-      </c>
+      <c r="I119" s="3"/>
       <c r="J119" s="3">
-        <v>5</v>
-      </c>
-      <c r="K119" s="3">
-        <v>1</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
@@ -7770,33 +7935,29 @@
         <v>117</v>
       </c>
       <c r="B120" s="3">
-        <v>301020010</v>
+        <v>201010014</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="E120" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F120" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="3"/>
-      <c r="I120" s="3">
-        <v>4</v>
-      </c>
+      <c r="I120" s="3"/>
       <c r="J120" s="3">
-        <v>25</v>
-      </c>
-      <c r="K120" s="3">
-        <v>1</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
@@ -7815,33 +7976,29 @@
         <v>118</v>
       </c>
       <c r="B121" s="3">
-        <v>301020011</v>
+        <v>201010015</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="E121" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F121" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="3"/>
-      <c r="I121" s="3">
-        <v>4</v>
-      </c>
+      <c r="I121" s="3"/>
       <c r="J121" s="3">
-        <v>200</v>
-      </c>
-      <c r="K121" s="3">
-        <v>1</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
@@ -7860,33 +8017,29 @@
         <v>119</v>
       </c>
       <c r="B122" s="3">
-        <v>301020012</v>
+        <v>201010016</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="E122" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F122" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="3"/>
-      <c r="I122" s="3">
-        <v>5</v>
-      </c>
+      <c r="I122" s="3"/>
       <c r="J122" s="3">
-        <v>5</v>
-      </c>
-      <c r="K122" s="3">
-        <v>1</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
@@ -7905,19 +8058,19 @@
         <v>120</v>
       </c>
       <c r="B123" s="3">
-        <v>301020101</v>
+        <v>201010017</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="E123" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" s="3">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -7925,11 +8078,9 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3">
-        <v>50</v>
-      </c>
-      <c r="K123" s="3">
-        <v>2</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
@@ -7948,30 +8099,32 @@
         <v>121</v>
       </c>
       <c r="B124" s="3">
-        <v>301020102</v>
+        <v>301010001</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="E124" s="3">
         <v>10</v>
       </c>
       <c r="F124" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
+      <c r="I124" s="3">
+        <v>1</v>
+      </c>
       <c r="J124" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K124" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -7991,30 +8144,32 @@
         <v>122</v>
       </c>
       <c r="B125" s="3">
-        <v>301020103</v>
+        <v>301010002</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>395</v>
+        <v>290</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="E125" s="3">
         <v>10</v>
       </c>
       <c r="F125" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
       </c>
       <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
+      <c r="I125" s="3">
+        <v>1</v>
+      </c>
       <c r="J125" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K125" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
@@ -8034,30 +8189,32 @@
         <v>123</v>
       </c>
       <c r="B126" s="3">
-        <v>301020104</v>
+        <v>301010003</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="E126" s="3">
         <v>10</v>
       </c>
       <c r="F126" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
+      <c r="I126" s="3">
+        <v>1</v>
+      </c>
       <c r="J126" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K126" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -8077,30 +8234,32 @@
         <v>124</v>
       </c>
       <c r="B127" s="3">
-        <v>301020105</v>
+        <v>301010004</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="E127" s="3">
         <v>10</v>
       </c>
       <c r="F127" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
+      <c r="I127" s="3">
+        <v>2</v>
+      </c>
       <c r="J127" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="K127" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -8120,30 +8279,32 @@
         <v>125</v>
       </c>
       <c r="B128" s="3">
-        <v>301020106</v>
+        <v>301010005</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="E128" s="3">
         <v>10</v>
       </c>
       <c r="F128" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
       </c>
       <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
+      <c r="I128" s="3">
+        <v>2</v>
+      </c>
       <c r="J128" s="3">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="K128" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -8163,30 +8324,32 @@
         <v>126</v>
       </c>
       <c r="B129" s="3">
-        <v>301020107</v>
+        <v>301010006</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="E129" s="3">
         <v>10</v>
       </c>
       <c r="F129" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
       <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
+      <c r="I129" s="3">
+        <v>2</v>
+      </c>
       <c r="J129" s="3">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K129" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -8206,30 +8369,32 @@
         <v>127</v>
       </c>
       <c r="B130" s="3">
-        <v>301020108</v>
+        <v>301010007</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="E130" s="3">
         <v>10</v>
       </c>
       <c r="F130" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
       </c>
       <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
+      <c r="I130" s="3">
+        <v>3</v>
+      </c>
       <c r="J130" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="K130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -8249,30 +8414,32 @@
         <v>128</v>
       </c>
       <c r="B131" s="3">
-        <v>301020109</v>
+        <v>301010008</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="E131" s="3">
         <v>10</v>
       </c>
       <c r="F131" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
       </c>
       <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
+      <c r="I131" s="3">
+        <v>3</v>
+      </c>
       <c r="J131" s="3">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="K131" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -8292,30 +8459,32 @@
         <v>129</v>
       </c>
       <c r="B132" s="3">
-        <v>301020110</v>
+        <v>301010009</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="E132" s="3">
         <v>10</v>
       </c>
       <c r="F132" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
+      <c r="I132" s="3">
+        <v>3</v>
+      </c>
       <c r="J132" s="3">
-        <v>7500</v>
+        <v>300</v>
       </c>
       <c r="K132" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -8335,30 +8504,32 @@
         <v>130</v>
       </c>
       <c r="B133" s="3">
-        <v>301020111</v>
+        <v>301010010</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="E133" s="3">
         <v>10</v>
       </c>
       <c r="F133" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G133" s="3">
         <v>1</v>
       </c>
       <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
+      <c r="I133" s="3">
+        <v>4</v>
+      </c>
       <c r="J133" s="3">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="K133" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -8378,51 +8549,43 @@
         <v>131</v>
       </c>
       <c r="B134" s="3">
-        <v>400000001</v>
+        <v>301010011</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="E134" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F134" s="3">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
       </c>
       <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
+      <c r="I134" s="3">
+        <v>4</v>
+      </c>
       <c r="J134" s="3">
-        <v>3</v>
-      </c>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3">
-        <v>102</v>
-      </c>
-      <c r="M134" s="3">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K134" s="3">
+        <v>1</v>
+      </c>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
-      <c r="P134" s="3">
-        <v>3</v>
-      </c>
+      <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
-      <c r="R134" s="3">
-        <v>102</v>
-      </c>
-      <c r="S134" s="3">
-        <v>3</v>
-      </c>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
       <c r="T134" s="3"/>
-      <c r="U134" s="3">
-        <v>3</v>
-      </c>
+      <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
     </row>
@@ -8431,29 +8594,33 @@
         <v>132</v>
       </c>
       <c r="B135" s="3">
-        <v>500000001</v>
+        <v>301010012</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="E135" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F135" s="3">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
       </c>
       <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
+      <c r="I135" s="3">
+        <v>4</v>
+      </c>
       <c r="J135" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K135" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="K135" s="3">
+        <v>1</v>
+      </c>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
@@ -8472,29 +8639,33 @@
         <v>133</v>
       </c>
       <c r="B136" s="3">
-        <v>600000001</v>
+        <v>301020001</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="E136" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F136" s="3">
-        <v>501</v>
+        <v>302</v>
       </c>
       <c r="G136" s="3">
         <v>1</v>
       </c>
       <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
+      <c r="I136" s="3">
+        <v>1</v>
+      </c>
       <c r="J136" s="3">
-        <v>100</v>
-      </c>
-      <c r="K136" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="K136" s="3">
+        <v>1</v>
+      </c>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
@@ -8507,6 +8678,1519 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
+    </row>
+    <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>134</v>
+      </c>
+      <c r="B137" s="3">
+        <v>301020002</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" s="3">
+        <v>10</v>
+      </c>
+      <c r="F137" s="3">
+        <v>302</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3">
+        <v>1</v>
+      </c>
+      <c r="J137" s="3">
+        <v>200</v>
+      </c>
+      <c r="K137" s="3">
+        <v>1</v>
+      </c>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+    </row>
+    <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>135</v>
+      </c>
+      <c r="B138" s="3">
+        <v>301020003</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E138" s="3">
+        <v>10</v>
+      </c>
+      <c r="F138" s="3">
+        <v>302</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3">
+        <v>2</v>
+      </c>
+      <c r="J138" s="3">
+        <v>5</v>
+      </c>
+      <c r="K138" s="3">
+        <v>1</v>
+      </c>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+    </row>
+    <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>136</v>
+      </c>
+      <c r="B139" s="3">
+        <v>301020004</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E139" s="3">
+        <v>10</v>
+      </c>
+      <c r="F139" s="3">
+        <v>302</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3">
+        <v>2</v>
+      </c>
+      <c r="J139" s="3">
+        <v>25</v>
+      </c>
+      <c r="K139" s="3">
+        <v>1</v>
+      </c>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+    </row>
+    <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>137</v>
+      </c>
+      <c r="B140" s="3">
+        <v>301020005</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E140" s="3">
+        <v>10</v>
+      </c>
+      <c r="F140" s="3">
+        <v>302</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3">
+        <v>2</v>
+      </c>
+      <c r="J140" s="3">
+        <v>200</v>
+      </c>
+      <c r="K140" s="3">
+        <v>1</v>
+      </c>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+    </row>
+    <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>138</v>
+      </c>
+      <c r="B141" s="3">
+        <v>301020006</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E141" s="3">
+        <v>10</v>
+      </c>
+      <c r="F141" s="3">
+        <v>302</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3">
+        <v>3</v>
+      </c>
+      <c r="J141" s="3">
+        <v>5</v>
+      </c>
+      <c r="K141" s="3">
+        <v>1</v>
+      </c>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
+    </row>
+    <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>139</v>
+      </c>
+      <c r="B142" s="3">
+        <v>301020007</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E142" s="3">
+        <v>10</v>
+      </c>
+      <c r="F142" s="3">
+        <v>302</v>
+      </c>
+      <c r="G142" s="3">
+        <v>1</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3">
+        <v>3</v>
+      </c>
+      <c r="J142" s="3">
+        <v>25</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1</v>
+      </c>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3"/>
+    </row>
+    <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>140</v>
+      </c>
+      <c r="B143" s="3">
+        <v>301020008</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E143" s="3">
+        <v>10</v>
+      </c>
+      <c r="F143" s="3">
+        <v>302</v>
+      </c>
+      <c r="G143" s="3">
+        <v>1</v>
+      </c>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3">
+        <v>3</v>
+      </c>
+      <c r="J143" s="3">
+        <v>200</v>
+      </c>
+      <c r="K143" s="3">
+        <v>1</v>
+      </c>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+    </row>
+    <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>141</v>
+      </c>
+      <c r="B144" s="3">
+        <v>301020009</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E144" s="3">
+        <v>10</v>
+      </c>
+      <c r="F144" s="3">
+        <v>302</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3">
+        <v>4</v>
+      </c>
+      <c r="J144" s="3">
+        <v>5</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1</v>
+      </c>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3"/>
+    </row>
+    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>142</v>
+      </c>
+      <c r="B145" s="3">
+        <v>301020010</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E145" s="3">
+        <v>10</v>
+      </c>
+      <c r="F145" s="3">
+        <v>302</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3">
+        <v>4</v>
+      </c>
+      <c r="J145" s="3">
+        <v>25</v>
+      </c>
+      <c r="K145" s="3">
+        <v>1</v>
+      </c>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3"/>
+    </row>
+    <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>143</v>
+      </c>
+      <c r="B146" s="3">
+        <v>301020011</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E146" s="3">
+        <v>10</v>
+      </c>
+      <c r="F146" s="3">
+        <v>302</v>
+      </c>
+      <c r="G146" s="3">
+        <v>1</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3">
+        <v>4</v>
+      </c>
+      <c r="J146" s="3">
+        <v>200</v>
+      </c>
+      <c r="K146" s="3">
+        <v>1</v>
+      </c>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+      <c r="W146" s="3"/>
+    </row>
+    <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>144</v>
+      </c>
+      <c r="B147" s="3">
+        <v>301020012</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E147" s="3">
+        <v>10</v>
+      </c>
+      <c r="F147" s="3">
+        <v>302</v>
+      </c>
+      <c r="G147" s="3">
+        <v>1</v>
+      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3">
+        <v>5</v>
+      </c>
+      <c r="J147" s="3">
+        <v>5</v>
+      </c>
+      <c r="K147" s="3">
+        <v>1</v>
+      </c>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+    </row>
+    <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>145</v>
+      </c>
+      <c r="B148" s="3">
+        <v>301020101</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E148" s="3">
+        <v>10</v>
+      </c>
+      <c r="F148" s="3">
+        <v>302</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3">
+        <v>50</v>
+      </c>
+      <c r="K148" s="3">
+        <v>2</v>
+      </c>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+    </row>
+    <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>146</v>
+      </c>
+      <c r="B149" s="3">
+        <v>301020102</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E149" s="3">
+        <v>10</v>
+      </c>
+      <c r="F149" s="3">
+        <v>302</v>
+      </c>
+      <c r="G149" s="3">
+        <v>1</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3">
+        <v>100</v>
+      </c>
+      <c r="K149" s="3">
+        <v>2</v>
+      </c>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+      <c r="W149" s="3"/>
+    </row>
+    <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>147</v>
+      </c>
+      <c r="B150" s="3">
+        <v>301020103</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E150" s="3">
+        <v>10</v>
+      </c>
+      <c r="F150" s="3">
+        <v>302</v>
+      </c>
+      <c r="G150" s="3">
+        <v>1</v>
+      </c>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3">
+        <v>200</v>
+      </c>
+      <c r="K150" s="3">
+        <v>2</v>
+      </c>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+    </row>
+    <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>148</v>
+      </c>
+      <c r="B151" s="3">
+        <v>301020104</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E151" s="3">
+        <v>10</v>
+      </c>
+      <c r="F151" s="3">
+        <v>302</v>
+      </c>
+      <c r="G151" s="3">
+        <v>1</v>
+      </c>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3">
+        <v>500</v>
+      </c>
+      <c r="K151" s="3">
+        <v>2</v>
+      </c>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+      <c r="W151" s="3"/>
+    </row>
+    <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>149</v>
+      </c>
+      <c r="B152" s="3">
+        <v>301020105</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E152" s="3">
+        <v>10</v>
+      </c>
+      <c r="F152" s="3">
+        <v>302</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1</v>
+      </c>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K152" s="3">
+        <v>2</v>
+      </c>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3"/>
+    </row>
+    <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>150</v>
+      </c>
+      <c r="B153" s="3">
+        <v>301020106</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E153" s="3">
+        <v>10</v>
+      </c>
+      <c r="F153" s="3">
+        <v>302</v>
+      </c>
+      <c r="G153" s="3">
+        <v>1</v>
+      </c>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K153" s="3">
+        <v>2</v>
+      </c>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+      <c r="W153" s="3"/>
+    </row>
+    <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>151</v>
+      </c>
+      <c r="B154" s="3">
+        <v>301020107</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E154" s="3">
+        <v>10</v>
+      </c>
+      <c r="F154" s="3">
+        <v>302</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1</v>
+      </c>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K154" s="3">
+        <v>2</v>
+      </c>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+      <c r="W154" s="3"/>
+    </row>
+    <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>152</v>
+      </c>
+      <c r="B155" s="3">
+        <v>301020108</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E155" s="3">
+        <v>10</v>
+      </c>
+      <c r="F155" s="3">
+        <v>302</v>
+      </c>
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K155" s="3">
+        <v>2</v>
+      </c>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3"/>
+    </row>
+    <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>153</v>
+      </c>
+      <c r="B156" s="3">
+        <v>301020109</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E156" s="3">
+        <v>10</v>
+      </c>
+      <c r="F156" s="3">
+        <v>302</v>
+      </c>
+      <c r="G156" s="3">
+        <v>1</v>
+      </c>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K156" s="3">
+        <v>2</v>
+      </c>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3"/>
+    </row>
+    <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>154</v>
+      </c>
+      <c r="B157" s="3">
+        <v>301020110</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E157" s="3">
+        <v>10</v>
+      </c>
+      <c r="F157" s="3">
+        <v>302</v>
+      </c>
+      <c r="G157" s="3">
+        <v>1</v>
+      </c>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K157" s="3">
+        <v>2</v>
+      </c>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+    </row>
+    <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>155</v>
+      </c>
+      <c r="B158" s="3">
+        <v>301020111</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E158" s="3">
+        <v>10</v>
+      </c>
+      <c r="F158" s="3">
+        <v>302</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K158" s="3">
+        <v>2</v>
+      </c>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+    </row>
+    <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>156</v>
+      </c>
+      <c r="B159" s="3">
+        <v>400000001</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E159" s="3">
+        <v>11</v>
+      </c>
+      <c r="F159" s="3">
+        <v>102</v>
+      </c>
+      <c r="G159" s="3">
+        <v>1</v>
+      </c>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3">
+        <v>3</v>
+      </c>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3">
+        <v>102</v>
+      </c>
+      <c r="M159" s="3">
+        <v>2</v>
+      </c>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3">
+        <v>102</v>
+      </c>
+      <c r="S159" s="3">
+        <v>3</v>
+      </c>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3">
+        <v>3</v>
+      </c>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3"/>
+    </row>
+    <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>157</v>
+      </c>
+      <c r="B160" s="3">
+        <v>500000001</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E160" s="3">
+        <v>12</v>
+      </c>
+      <c r="F160" s="3">
+        <v>202</v>
+      </c>
+      <c r="G160" s="3">
+        <v>1</v>
+      </c>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+    </row>
+    <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>158</v>
+      </c>
+      <c r="B161" s="3">
+        <v>600000001</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E161" s="3">
+        <v>13</v>
+      </c>
+      <c r="F161" s="3">
+        <v>501</v>
+      </c>
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3">
+        <v>100</v>
+      </c>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+    </row>
+    <row r="162" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>159</v>
+      </c>
+      <c r="B162" s="3">
+        <v>11001</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E162" s="3">
+        <v>9</v>
+      </c>
+      <c r="F162" s="3">
+        <v>201</v>
+      </c>
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3">
+        <v>20</v>
+      </c>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3"/>
+    </row>
+    <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>160</v>
+      </c>
+      <c r="B163" s="3">
+        <v>11002</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E163" s="3">
+        <v>9</v>
+      </c>
+      <c r="F163" s="3">
+        <v>201</v>
+      </c>
+      <c r="G163" s="3">
+        <v>1</v>
+      </c>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3">
+        <v>30</v>
+      </c>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+    </row>
+    <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>161</v>
+      </c>
+      <c r="B164" s="3">
+        <v>11003</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E164" s="3">
+        <v>9</v>
+      </c>
+      <c r="F164" s="3">
+        <v>201</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3">
+        <v>40</v>
+      </c>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+    </row>
+    <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>162</v>
+      </c>
+      <c r="B165" s="3">
+        <v>11004</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E165" s="3">
+        <v>9</v>
+      </c>
+      <c r="F165" s="3">
+        <v>201</v>
+      </c>
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3">
+        <v>60</v>
+      </c>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+    </row>
+    <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>163</v>
+      </c>
+      <c r="B166" s="3">
+        <v>11005</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E166" s="3">
+        <v>9</v>
+      </c>
+      <c r="F166" s="3">
+        <v>201</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3">
+        <v>90</v>
+      </c>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+    </row>
+    <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>164</v>
+      </c>
+      <c r="B167" s="3">
+        <v>11006</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E167" s="3">
+        <v>9</v>
+      </c>
+      <c r="F167" s="3">
+        <v>201</v>
+      </c>
+      <c r="G167" s="3">
+        <v>1</v>
+      </c>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3">
+        <v>140</v>
+      </c>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+    </row>
+    <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>165</v>
+      </c>
+      <c r="B168" s="3">
+        <v>11007</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E168" s="3">
+        <v>9</v>
+      </c>
+      <c r="F168" s="3">
+        <v>201</v>
+      </c>
+      <c r="G168" s="3">
+        <v>1</v>
+      </c>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3">
+        <v>190</v>
+      </c>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+    </row>
+    <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>166</v>
+      </c>
+      <c r="B169" s="3">
+        <v>11008</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E169" s="3">
+        <v>9</v>
+      </c>
+      <c r="F169" s="3">
+        <v>201</v>
+      </c>
+      <c r="G169" s="3">
+        <v>1</v>
+      </c>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3">
+        <v>290</v>
+      </c>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+    </row>
+    <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>167</v>
+      </c>
+      <c r="B170" s="3">
+        <v>11009</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E170" s="3">
+        <v>14</v>
+      </c>
+      <c r="F170" s="3">
+        <v>109</v>
+      </c>
+      <c r="G170" s="3">
+        <v>1</v>
+      </c>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3">
+        <v>16</v>
+      </c>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+    </row>
+    <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>168</v>
+      </c>
+      <c r="B171" s="3">
+        <v>11010</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E171" s="3">
+        <v>14</v>
+      </c>
+      <c r="F171" s="3">
+        <v>109</v>
+      </c>
+      <c r="G171" s="3">
+        <v>1</v>
+      </c>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3">
+        <v>19</v>
+      </c>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8767,17 +10451,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F89773-5594-40FA-AAF3-6CDE08A36FD6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C8064-58EA-4469-AB6C-BC1A06F05C9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD03F7-2A5C-4E4B-9076-1098263098A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2437,10 +2437,10 @@
   <dimension ref="A1:AE171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H165" sqref="H165"/>
+      <selection pane="bottomRight" activeCell="U164" sqref="U164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9694,10 +9694,10 @@
         <v>3</v>
       </c>
       <c r="T159" s="3"/>
-      <c r="U159" s="3">
+      <c r="U159" s="3"/>
+      <c r="V159" s="3">
         <v>3</v>
       </c>
-      <c r="V159" s="3"/>
       <c r="W159" s="3"/>
     </row>
     <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD03F7-2A5C-4E4B-9076-1098263098A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F2F1D-A514-4346-80E3-E4399836BFE2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2437,10 +2437,10 @@
   <dimension ref="A1:AE171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U164" sqref="U164"/>
+      <selection pane="bottomRight" activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10205,7 +10205,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE50E24-BFA4-4789-B43D-EAEE7474B0E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178EA5C4-B1A4-4CB3-982A-815DD786E6AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="成就Base" sheetId="26" r:id="rId2"/>
     <sheet name="成就" sheetId="27" r:id="rId3"/>
+    <sheet name="成就组" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="443">
   <si>
     <t>sheet名</t>
   </si>
@@ -432,10 +433,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>最高突破等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -723,10 +720,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初出茅庐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>任督二脉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -783,18 +776,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>任督二脉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥金如土</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪终结者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>小兵终结者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1543,6 +1524,94 @@
   </si>
   <si>
     <t>花费金币5A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片最高等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片总等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_col</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type,help_col,loc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxtId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级成就ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nil]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,type,loc,help_col,nxtId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2058,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2100,20 +2169,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2121,20 +2190,20 @@
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2142,48 +2211,67 @@
     </row>
     <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>203</v>
+        <v>430</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2196,11 +2284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31260EC7-A481-44E7-A2B8-8414D1341F7E}">
   <dimension ref="A1:AE208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2240,7 +2328,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
@@ -2261,40 +2349,40 @@
         <v>58</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2311,16 +2399,16 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
         <v>76</v>
@@ -2332,13 +2420,13 @@
         <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O2" t="s">
         <v>76</v>
@@ -2350,13 +2438,13 @@
         <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
         <v>76</v>
@@ -2394,7 +2482,7 @@
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>81</v>
@@ -2468,10 +2556,10 @@
         <v>101010001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2518,10 +2606,10 @@
         <v>101010002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2559,10 +2647,10 @@
         <v>101010003</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -2609,10 +2697,10 @@
         <v>101010004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -2659,10 +2747,10 @@
         <v>101010005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -2709,10 +2797,10 @@
         <v>101010006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -2759,10 +2847,10 @@
         <v>101010007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2792,7 +2880,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="AA10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB10">
         <v>102</v>
@@ -2809,10 +2897,10 @@
         <v>101010008</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -2859,10 +2947,10 @@
         <v>101010009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -2909,10 +2997,10 @@
         <v>101010010</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -2959,10 +3047,10 @@
         <v>101010011</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -3009,10 +3097,10 @@
         <v>101020001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -3050,10 +3138,10 @@
         <v>101020002</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -3100,10 +3188,10 @@
         <v>101020003</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -3150,10 +3238,10 @@
         <v>101020004</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -3200,10 +3288,10 @@
         <v>101020005</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -3250,10 +3338,10 @@
         <v>101020006</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -3300,10 +3388,10 @@
         <v>101020007</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -3350,10 +3438,10 @@
         <v>101020008</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -3400,10 +3488,10 @@
         <v>101020009</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -3450,10 +3538,10 @@
         <v>101020010</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -3500,10 +3588,10 @@
         <v>101020011</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -3550,10 +3638,10 @@
         <v>101030001</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -3591,10 +3679,10 @@
         <v>101030002</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -3641,10 +3729,10 @@
         <v>101030003</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -3691,10 +3779,10 @@
         <v>101030004</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -3741,10 +3829,10 @@
         <v>101030005</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -3791,10 +3879,10 @@
         <v>101030006</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
@@ -3841,10 +3929,10 @@
         <v>101030007</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E32" s="3">
         <v>3</v>
@@ -3891,10 +3979,10 @@
         <v>101030008</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
@@ -3941,10 +4029,10 @@
         <v>101030009</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E34" s="3">
         <v>3</v>
@@ -3991,10 +4079,10 @@
         <v>101030010</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
@@ -4041,10 +4129,10 @@
         <v>101030011</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
@@ -4091,10 +4179,10 @@
         <v>101040001</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E37" s="3">
         <v>16</v>
@@ -4132,10 +4220,10 @@
         <v>101040002</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E38" s="3">
         <v>16</v>
@@ -4182,10 +4270,10 @@
         <v>101040003</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E39" s="3">
         <v>16</v>
@@ -4232,10 +4320,10 @@
         <v>101040004</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E40" s="3">
         <v>16</v>
@@ -4282,10 +4370,10 @@
         <v>101040005</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E41" s="3">
         <v>16</v>
@@ -4332,10 +4420,10 @@
         <v>101040006</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E42" s="3">
         <v>16</v>
@@ -4382,10 +4470,10 @@
         <v>101040007</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E43" s="3">
         <v>16</v>
@@ -4432,10 +4520,10 @@
         <v>101040008</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E44" s="3">
         <v>16</v>
@@ -4482,10 +4570,10 @@
         <v>101040009</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E45" s="3">
         <v>16</v>
@@ -4532,10 +4620,10 @@
         <v>101040010</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E46" s="3">
         <v>16</v>
@@ -4582,10 +4670,10 @@
         <v>101040011</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E47" s="3">
         <v>16</v>
@@ -4623,10 +4711,10 @@
         <v>101040012</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E48" s="3">
         <v>16</v>
@@ -4664,10 +4752,10 @@
         <v>101040013</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E49" s="3">
         <v>16</v>
@@ -4705,10 +4793,10 @@
         <v>101040014</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E50" s="3">
         <v>16</v>
@@ -4746,10 +4834,10 @@
         <v>101040015</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E51" s="3">
         <v>16</v>
@@ -4787,10 +4875,10 @@
         <v>101040016</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E52" s="3">
         <v>16</v>
@@ -4828,10 +4916,10 @@
         <v>102010001</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E53" s="3">
         <v>4</v>
@@ -4878,10 +4966,10 @@
         <v>102010002</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E54" s="3">
         <v>4</v>
@@ -4928,10 +5016,10 @@
         <v>102010003</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E55" s="3">
         <v>4</v>
@@ -4978,10 +5066,10 @@
         <v>102010004</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E56" s="3">
         <v>4</v>
@@ -5028,10 +5116,10 @@
         <v>102010005</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
@@ -5078,10 +5166,10 @@
         <v>102010006</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E58" s="3">
         <v>4</v>
@@ -5128,10 +5216,10 @@
         <v>102010007</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E59" s="3">
         <v>4</v>
@@ -5178,10 +5266,10 @@
         <v>102010008</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E60" s="3">
         <v>4</v>
@@ -5228,10 +5316,10 @@
         <v>102010009</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E61" s="3">
         <v>4</v>
@@ -5261,7 +5349,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="AA61" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AB61">
         <v>109</v>
@@ -5278,10 +5366,10 @@
         <v>102010010</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E62" s="3">
         <v>4</v>
@@ -5328,10 +5416,10 @@
         <v>102020001</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E63" s="3">
         <v>5</v>
@@ -5378,10 +5466,10 @@
         <v>102020002</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E64" s="3">
         <v>5</v>
@@ -5428,10 +5516,10 @@
         <v>102020003</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E65" s="3">
         <v>5</v>
@@ -5478,10 +5566,10 @@
         <v>102020004</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E66" s="3">
         <v>5</v>
@@ -5528,10 +5616,10 @@
         <v>102020005</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E67" s="3">
         <v>5</v>
@@ -5581,10 +5669,10 @@
         <v>102020006</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E68" s="3">
         <v>5</v>
@@ -5634,10 +5722,10 @@
         <v>102020007</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E69" s="3">
         <v>5</v>
@@ -5684,10 +5772,10 @@
         <v>102020008</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E70" s="3">
         <v>5</v>
@@ -5734,10 +5822,10 @@
         <v>102020009</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E71" s="3">
         <v>5</v>
@@ -5767,7 +5855,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="AA71" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AB71">
         <v>304</v>
@@ -5784,10 +5872,10 @@
         <v>102020010</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E72" s="3">
         <v>5</v>
@@ -5834,10 +5922,10 @@
         <v>102030001</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E73" s="3">
         <v>6</v>
@@ -5867,7 +5955,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="AA73" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AB73">
         <v>501</v>
@@ -5884,10 +5972,10 @@
         <v>102030002</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E74" s="3">
         <v>6</v>
@@ -5917,7 +6005,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="AA74" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AB74">
         <v>501</v>
@@ -5934,10 +6022,10 @@
         <v>102030003</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E75" s="3">
         <v>6</v>
@@ -5975,10 +6063,10 @@
         <v>102030004</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E76" s="3">
         <v>6</v>
@@ -6016,10 +6104,10 @@
         <v>102030005</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E77" s="3">
         <v>6</v>
@@ -6057,10 +6145,10 @@
         <v>102030006</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E78" s="3">
         <v>6</v>
@@ -6098,10 +6186,10 @@
         <v>102030007</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E79" s="3">
         <v>6</v>
@@ -6139,10 +6227,10 @@
         <v>102030008</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E80" s="3">
         <v>6</v>
@@ -6180,10 +6268,10 @@
         <v>102030009</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E81" s="3">
         <v>6</v>
@@ -6221,10 +6309,10 @@
         <v>102030010</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E82" s="3">
         <v>6</v>
@@ -6262,10 +6350,10 @@
         <v>108020001</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E83" s="3">
         <v>7</v>
@@ -6303,10 +6391,10 @@
         <v>108020002</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E84" s="3">
         <v>7</v>
@@ -6344,10 +6432,10 @@
         <v>108020003</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E85" s="3">
         <v>7</v>
@@ -6385,10 +6473,10 @@
         <v>108020004</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E86" s="3">
         <v>7</v>
@@ -6426,10 +6514,10 @@
         <v>108020005</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E87" s="3">
         <v>7</v>
@@ -6467,10 +6555,10 @@
         <v>108020006</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E88" s="3">
         <v>7</v>
@@ -6508,10 +6596,10 @@
         <v>108020007</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E89" s="3">
         <v>7</v>
@@ -6549,10 +6637,10 @@
         <v>108020008</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E90" s="3">
         <v>7</v>
@@ -6590,10 +6678,10 @@
         <v>108010001</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E91" s="3">
         <v>8</v>
@@ -6631,10 +6719,10 @@
         <v>108010002</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E92" s="3">
         <v>8</v>
@@ -6672,10 +6760,10 @@
         <v>108010003</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E93" s="3">
         <v>8</v>
@@ -6713,10 +6801,10 @@
         <v>108010004</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E94" s="3">
         <v>8</v>
@@ -6754,10 +6842,10 @@
         <v>108010005</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
@@ -6795,10 +6883,10 @@
         <v>108010006</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E96" s="3">
         <v>8</v>
@@ -6836,10 +6924,10 @@
         <v>108010007</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E97" s="3">
         <v>8</v>
@@ -6877,10 +6965,10 @@
         <v>108010008</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E98" s="3">
         <v>8</v>
@@ -6918,10 +7006,10 @@
         <v>108010009</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E99" s="3">
         <v>8</v>
@@ -6959,10 +7047,10 @@
         <v>108010010</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E100" s="3">
         <v>8</v>
@@ -7000,10 +7088,10 @@
         <v>109010001</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
@@ -7041,10 +7129,10 @@
         <v>109010002</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E102" s="3">
         <v>14</v>
@@ -7082,10 +7170,10 @@
         <v>109010003</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E103" s="3">
         <v>14</v>
@@ -7123,10 +7211,10 @@
         <v>109010004</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E104" s="3">
         <v>14</v>
@@ -7164,10 +7252,10 @@
         <v>109010005</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E105" s="3">
         <v>14</v>
@@ -7205,10 +7293,10 @@
         <v>109010006</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E106" s="3">
         <v>14</v>
@@ -7246,10 +7334,10 @@
         <v>109010007</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E107" s="3">
         <v>14</v>
@@ -7287,10 +7375,10 @@
         <v>109010008</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E108" s="3">
         <v>14</v>
@@ -7328,10 +7416,10 @@
         <v>109010009</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E109" s="3">
         <v>14</v>
@@ -7369,10 +7457,10 @@
         <v>109010010</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E110" s="3">
         <v>14</v>
@@ -7410,10 +7498,10 @@
         <v>109010011</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E111" s="3">
         <v>14</v>
@@ -7451,10 +7539,10 @@
         <v>109010012</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E112" s="3">
         <v>14</v>
@@ -7492,10 +7580,10 @@
         <v>109010013</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E113" s="3">
         <v>14</v>
@@ -7533,10 +7621,10 @@
         <v>109010014</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E114" s="3">
         <v>14</v>
@@ -7574,10 +7662,10 @@
         <v>109010015</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E115" s="3">
         <v>14</v>
@@ -7615,10 +7703,10 @@
         <v>109010016</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E116" s="3">
         <v>14</v>
@@ -7656,10 +7744,10 @@
         <v>109010017</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E117" s="3">
         <v>14</v>
@@ -7697,10 +7785,10 @@
         <v>109010018</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E118" s="3">
         <v>14</v>
@@ -7738,10 +7826,10 @@
         <v>109010019</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E119" s="3">
         <v>14</v>
@@ -7779,10 +7867,10 @@
         <v>109010020</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E120" s="3">
         <v>14</v>
@@ -7820,10 +7908,10 @@
         <v>109010021</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E121" s="3">
         <v>14</v>
@@ -7861,10 +7949,10 @@
         <v>109010022</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E122" s="3">
         <v>14</v>
@@ -7902,10 +7990,10 @@
         <v>109010023</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E123" s="3">
         <v>14</v>
@@ -7943,10 +8031,10 @@
         <v>109010024</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E124" s="3">
         <v>14</v>
@@ -7984,10 +8072,10 @@
         <v>109010025</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E125" s="3">
         <v>14</v>
@@ -8025,10 +8113,10 @@
         <v>201010001</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E126" s="3">
         <v>9</v>
@@ -8066,10 +8154,10 @@
         <v>201010002</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E127" s="3">
         <v>9</v>
@@ -8107,10 +8195,10 @@
         <v>201010003</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E128" s="3">
         <v>9</v>
@@ -8148,10 +8236,10 @@
         <v>201010004</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E129" s="3">
         <v>9</v>
@@ -8189,10 +8277,10 @@
         <v>201010005</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E130" s="3">
         <v>9</v>
@@ -8230,10 +8318,10 @@
         <v>201010006</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E131" s="3">
         <v>9</v>
@@ -8271,10 +8359,10 @@
         <v>201010007</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E132" s="3">
         <v>9</v>
@@ -8312,10 +8400,10 @@
         <v>201010008</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E133" s="3">
         <v>9</v>
@@ -8353,10 +8441,10 @@
         <v>201010009</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E134" s="3">
         <v>9</v>
@@ -8394,10 +8482,10 @@
         <v>201010010</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E135" s="3">
         <v>9</v>
@@ -8435,10 +8523,10 @@
         <v>201010011</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E136" s="3">
         <v>9</v>
@@ -8476,10 +8564,10 @@
         <v>201010012</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E137" s="3">
         <v>9</v>
@@ -8517,10 +8605,10 @@
         <v>201010013</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E138" s="3">
         <v>9</v>
@@ -8558,10 +8646,10 @@
         <v>201010014</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E139" s="3">
         <v>9</v>
@@ -8599,10 +8687,10 @@
         <v>201010015</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E140" s="3">
         <v>9</v>
@@ -8640,10 +8728,10 @@
         <v>201010016</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E141" s="3">
         <v>9</v>
@@ -8681,10 +8769,10 @@
         <v>201010017</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E142" s="3">
         <v>9</v>
@@ -8722,10 +8810,10 @@
         <v>201010018</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E143" s="3">
         <v>9</v>
@@ -8763,10 +8851,10 @@
         <v>201010019</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E144" s="3">
         <v>9</v>
@@ -8804,10 +8892,10 @@
         <v>201010020</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E145" s="3">
         <v>9</v>
@@ -8845,10 +8933,10 @@
         <v>201010021</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E146" s="3">
         <v>9</v>
@@ -8886,10 +8974,10 @@
         <v>201010022</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E147" s="3">
         <v>9</v>
@@ -8927,10 +9015,10 @@
         <v>201010023</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E148" s="3">
         <v>9</v>
@@ -8968,10 +9056,10 @@
         <v>201010024</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E149" s="3">
         <v>9</v>
@@ -9009,10 +9097,10 @@
         <v>201010025</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E150" s="3">
         <v>9</v>
@@ -9050,10 +9138,10 @@
         <v>201010026</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E151" s="3">
         <v>9</v>
@@ -9091,10 +9179,10 @@
         <v>201010027</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E152" s="3">
         <v>9</v>
@@ -9132,10 +9220,10 @@
         <v>201010028</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E153" s="3">
         <v>9</v>
@@ -9173,10 +9261,10 @@
         <v>201010029</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E154" s="3">
         <v>9</v>
@@ -9214,10 +9302,10 @@
         <v>201010030</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E155" s="3">
         <v>9</v>
@@ -9255,10 +9343,10 @@
         <v>201010031</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E156" s="3">
         <v>9</v>
@@ -9296,10 +9384,10 @@
         <v>201010032</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E157" s="3">
         <v>9</v>
@@ -9337,10 +9425,10 @@
         <v>201010033</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E158" s="3">
         <v>9</v>
@@ -9378,10 +9466,10 @@
         <v>201010034</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E159" s="3">
         <v>9</v>
@@ -9419,10 +9507,10 @@
         <v>201010035</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E160" s="3">
         <v>9</v>
@@ -9460,10 +9548,10 @@
         <v>301010001</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E161" s="3">
         <v>10</v>
@@ -9505,10 +9593,10 @@
         <v>301010002</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E162" s="3">
         <v>10</v>
@@ -9550,10 +9638,10 @@
         <v>301010003</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E163" s="3">
         <v>10</v>
@@ -9595,10 +9683,10 @@
         <v>301010004</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E164" s="3">
         <v>10</v>
@@ -9640,10 +9728,10 @@
         <v>301010005</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E165" s="3">
         <v>10</v>
@@ -9685,10 +9773,10 @@
         <v>301010006</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E166" s="3">
         <v>10</v>
@@ -9730,10 +9818,10 @@
         <v>301010007</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E167" s="3">
         <v>10</v>
@@ -9775,10 +9863,10 @@
         <v>301010008</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E168" s="3">
         <v>10</v>
@@ -9820,10 +9908,10 @@
         <v>301010009</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E169" s="3">
         <v>10</v>
@@ -9865,10 +9953,10 @@
         <v>301010010</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E170" s="3">
         <v>10</v>
@@ -9910,10 +9998,10 @@
         <v>301010011</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E171" s="3">
         <v>10</v>
@@ -9955,10 +10043,10 @@
         <v>301010012</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E172" s="3">
         <v>10</v>
@@ -10000,10 +10088,10 @@
         <v>301020001</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E173" s="3">
         <v>15</v>
@@ -10045,10 +10133,10 @@
         <v>301020002</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E174" s="3">
         <v>15</v>
@@ -10090,10 +10178,10 @@
         <v>301020003</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E175" s="3">
         <v>15</v>
@@ -10135,10 +10223,10 @@
         <v>301020004</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E176" s="3">
         <v>15</v>
@@ -10180,10 +10268,10 @@
         <v>301020005</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E177" s="3">
         <v>15</v>
@@ -10225,10 +10313,10 @@
         <v>301020006</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E178" s="3">
         <v>15</v>
@@ -10270,10 +10358,10 @@
         <v>301020007</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E179" s="3">
         <v>15</v>
@@ -10315,10 +10403,10 @@
         <v>301020008</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E180" s="3">
         <v>15</v>
@@ -10360,10 +10448,10 @@
         <v>301020009</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E181" s="3">
         <v>15</v>
@@ -10405,10 +10493,10 @@
         <v>301020010</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E182" s="3">
         <v>15</v>
@@ -10450,10 +10538,10 @@
         <v>301020011</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E183" s="3">
         <v>15</v>
@@ -10495,10 +10583,10 @@
         <v>301020012</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E184" s="3">
         <v>15</v>
@@ -10540,10 +10628,10 @@
         <v>301020101</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E185" s="3">
         <v>15</v>
@@ -10583,10 +10671,10 @@
         <v>301020102</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E186" s="3">
         <v>15</v>
@@ -10626,10 +10714,10 @@
         <v>301020103</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E187" s="3">
         <v>15</v>
@@ -10669,10 +10757,10 @@
         <v>301020104</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E188" s="3">
         <v>15</v>
@@ -10712,10 +10800,10 @@
         <v>301020105</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E189" s="3">
         <v>15</v>
@@ -10755,10 +10843,10 @@
         <v>301020106</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E190" s="3">
         <v>15</v>
@@ -10798,10 +10886,10 @@
         <v>301020107</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E191" s="3">
         <v>15</v>
@@ -10841,10 +10929,10 @@
         <v>301020108</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E192" s="3">
         <v>15</v>
@@ -10884,10 +10972,10 @@
         <v>301020109</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E193" s="3">
         <v>15</v>
@@ -10927,10 +11015,10 @@
         <v>301020110</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E194" s="3">
         <v>15</v>
@@ -10970,10 +11058,10 @@
         <v>301020111</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E195" s="3">
         <v>15</v>
@@ -11013,10 +11101,10 @@
         <v>400000001</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E196" s="3">
         <v>11</v>
@@ -11066,10 +11154,10 @@
         <v>500000001</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E197" s="3">
         <v>12</v>
@@ -11107,10 +11195,10 @@
         <v>600000001</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E198" s="3">
         <v>13</v>
@@ -11148,10 +11236,10 @@
         <v>11001</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E199" s="3">
         <v>9</v>
@@ -11189,10 +11277,10 @@
         <v>11002</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E200" s="3">
         <v>9</v>
@@ -11230,10 +11318,10 @@
         <v>11003</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E201" s="3">
         <v>9</v>
@@ -11271,10 +11359,10 @@
         <v>11004</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E202" s="3">
         <v>9</v>
@@ -11312,10 +11400,10 @@
         <v>11005</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E203" s="3">
         <v>9</v>
@@ -11353,10 +11441,10 @@
         <v>11006</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E204" s="3">
         <v>9</v>
@@ -11394,10 +11482,10 @@
         <v>11007</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E205" s="3">
         <v>9</v>
@@ -11435,10 +11523,10 @@
         <v>11008</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E206" s="3">
         <v>9</v>
@@ -11476,10 +11564,10 @@
         <v>11009</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E207" s="3">
         <v>14</v>
@@ -11517,10 +11605,10 @@
         <v>11010</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E208" s="3">
         <v>14</v>
@@ -11560,116 +11648,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FBD91C-F569-4595-80D6-ADF1A2755A73}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="10" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
       </c>
       <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>95</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>95</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>438</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -11677,25 +11803,37 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="D4" s="3">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>101010001</v>
       </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="K4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -11703,31 +11841,43 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="D5" s="3">
-        <v>400000001</v>
+        <v>103</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>101010002</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="K5" s="3">
         <v>50</v>
       </c>
-      <c r="H5" s="3">
+      <c r="L5" s="3">
         <v>1011</v>
       </c>
-      <c r="I5" s="3">
+      <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -11735,25 +11885,34 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="D6" s="3">
-        <v>301020001</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>101010003</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -11761,25 +11920,34 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3">
-        <v>500000001</v>
+        <v>105</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>101010004</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -11787,23 +11955,5317 @@
         <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="D8" s="3">
-        <v>600000001</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>101010005</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <v>50</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="3">
+        <v>107</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>101010006</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>107</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="3">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>101010007</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>108</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="3">
+        <v>109</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>101010008</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>109</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="3">
+        <v>110</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3">
+        <v>101010009</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>110</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="3">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>101010010</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
+        <v>101010011</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>201</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="3">
+        <v>202</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>101020001</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>202</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="3">
+        <v>203</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>101020002</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>203</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="3">
+        <v>204</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>101020003</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>204</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="3">
+        <v>205</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>101020004</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>205</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="3">
+        <v>206</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>101020005</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>206</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="3">
+        <v>207</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>101020006</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>207</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="3">
+        <v>208</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3">
+        <v>101020007</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>208</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="3">
+        <v>209</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
+        <v>101020008</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>209</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="3">
+        <v>210</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3">
+        <v>101020009</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>210</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" s="3">
+        <v>211</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>101020010</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>211</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G25" s="3">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3">
+        <v>101020011</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>301</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" s="3">
+        <v>302</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>101030001</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>302</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="3">
+        <v>303</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>101030002</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>303</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="3">
+        <v>304</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3">
+        <v>101030003</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>304</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="3">
+        <v>305</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>101030004</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>305</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="3">
+        <v>306</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3">
+        <v>101030005</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>306</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="3">
+        <v>307</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>101030006</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>307</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="3">
+        <v>308</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3">
+        <v>101030007</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>308</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="3">
+        <v>309</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>101030008</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>309</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" s="3">
+        <v>310</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G34" s="3">
+        <v>9</v>
+      </c>
+      <c r="H34" s="3">
+        <v>101030009</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>310</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D35" s="3">
+        <v>311</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3">
+        <v>101030010</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>311</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G36" s="3">
+        <v>11</v>
+      </c>
+      <c r="H36" s="3">
+        <v>101030011</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>401</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D37" s="3">
+        <v>402</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>101040001</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>402</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D38" s="3">
+        <v>403</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>101040002</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>403</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="3">
+        <v>404</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3">
+        <v>101040003</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>404</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="3">
+        <v>405</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4</v>
+      </c>
+      <c r="H40" s="3">
+        <v>101040004</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>405</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D41" s="3">
+        <v>406</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>101040005</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>406</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="3">
+        <v>407</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3">
+        <v>101040006</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>407</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" s="3">
+        <v>408</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7</v>
+      </c>
+      <c r="H43" s="3">
+        <v>101040007</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>408</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D44" s="3">
+        <v>409</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>101040008</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>409</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" s="3">
+        <v>410</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G45" s="3">
+        <v>9</v>
+      </c>
+      <c r="H45" s="3">
+        <v>101040009</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>410</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D46" s="3">
+        <v>411</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3">
+        <v>101040010</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>411</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" s="3">
+        <v>412</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G47" s="3">
+        <v>11</v>
+      </c>
+      <c r="H47" s="3">
+        <v>101040011</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>412</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D48" s="3">
+        <v>413</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G48" s="3">
+        <v>12</v>
+      </c>
+      <c r="H48" s="3">
+        <v>101040012</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>413</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="3">
+        <v>414</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" s="3">
+        <v>13</v>
+      </c>
+      <c r="H49" s="3">
+        <v>101040013</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>414</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="3">
+        <v>415</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G50" s="3">
+        <v>14</v>
+      </c>
+      <c r="H50" s="3">
+        <v>101040014</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>415</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D51" s="3">
+        <v>416</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G51" s="3">
+        <v>15</v>
+      </c>
+      <c r="H51" s="3">
+        <v>101040015</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>416</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G52" s="3">
+        <v>16</v>
+      </c>
+      <c r="H52" s="3">
+        <v>101040016</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>501</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" s="3">
+        <v>502</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3">
+        <v>102010001</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>502</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D54" s="3">
+        <v>503</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>102010002</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>503</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D55" s="3">
+        <v>504</v>
+      </c>
+      <c r="E55" s="3">
+        <v>5</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3</v>
+      </c>
+      <c r="H55" s="3">
+        <v>102010003</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>504</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D56" s="3">
+        <v>505</v>
+      </c>
+      <c r="E56" s="3">
+        <v>5</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3">
+        <v>102010004</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>505</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D57" s="3">
+        <v>506</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>102010005</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>506</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D58" s="3">
+        <v>507</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6</v>
+      </c>
+      <c r="H58" s="3">
+        <v>102010006</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>507</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D59" s="3">
+        <v>508</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" s="3">
+        <v>7</v>
+      </c>
+      <c r="H59" s="3">
+        <v>102010007</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>508</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D60" s="3">
+        <v>509</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G60" s="3">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3">
+        <v>102010008</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>509</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D61" s="3">
+        <v>510</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G61" s="3">
+        <v>9</v>
+      </c>
+      <c r="H61" s="3">
+        <v>102010009</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>510</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3">
+        <v>102010010</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>601</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" s="3">
+        <v>602</v>
+      </c>
+      <c r="E63" s="3">
+        <v>6</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>102020001</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>602</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="3">
+        <v>603</v>
+      </c>
+      <c r="E64" s="3">
+        <v>6</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G64" s="3">
+        <v>2</v>
+      </c>
+      <c r="H64" s="3">
+        <v>102020002</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>603</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D65" s="3">
+        <v>604</v>
+      </c>
+      <c r="E65" s="3">
+        <v>6</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3">
+        <v>102020003</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>604</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D66" s="3">
+        <v>605</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3">
+        <v>102020004</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>605</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D67" s="3">
+        <v>606</v>
+      </c>
+      <c r="E67" s="3">
+        <v>6</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G67" s="3">
+        <v>5</v>
+      </c>
+      <c r="H67" s="3">
+        <v>102020005</v>
+      </c>
+      <c r="I67" s="3">
+        <v>2</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>606</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D68" s="3">
+        <v>607</v>
+      </c>
+      <c r="E68" s="3">
+        <v>6</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G68" s="3">
+        <v>6</v>
+      </c>
+      <c r="H68" s="3">
+        <v>102020006</v>
+      </c>
+      <c r="I68" s="3">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>607</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69" s="3">
+        <v>608</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G69" s="3">
+        <v>7</v>
+      </c>
+      <c r="H69" s="3">
+        <v>102020007</v>
+      </c>
+      <c r="I69" s="3">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>608</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" s="3">
+        <v>609</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G70" s="3">
+        <v>8</v>
+      </c>
+      <c r="H70" s="3">
+        <v>102020008</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>609</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" s="3">
+        <v>610</v>
+      </c>
+      <c r="E71" s="3">
+        <v>6</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G71" s="3">
+        <v>9</v>
+      </c>
+      <c r="H71" s="3">
+        <v>102020009</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>610</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G72" s="3">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3">
+        <v>102020010</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>701</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D73" s="3">
+        <v>702</v>
+      </c>
+      <c r="E73" s="3">
+        <v>7</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>102030001</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>702</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D74" s="3">
+        <v>703</v>
+      </c>
+      <c r="E74" s="3">
+        <v>7</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2</v>
+      </c>
+      <c r="H74" s="3">
+        <v>102030002</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>703</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D75" s="3">
+        <v>704</v>
+      </c>
+      <c r="E75" s="3">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3</v>
+      </c>
+      <c r="H75" s="3">
+        <v>102030003</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
+        <v>704</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D76" s="3">
+        <v>705</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3">
+        <v>102030004</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3">
+        <v>705</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D77" s="3">
+        <v>706</v>
+      </c>
+      <c r="E77" s="3">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G77" s="3">
+        <v>5</v>
+      </c>
+      <c r="H77" s="3">
+        <v>102030005</v>
+      </c>
+      <c r="I77" s="3">
+        <v>2</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3">
+        <v>706</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D78" s="3">
+        <v>707</v>
+      </c>
+      <c r="E78" s="3">
+        <v>7</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G78" s="3">
+        <v>6</v>
+      </c>
+      <c r="H78" s="3">
+        <v>102030006</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3">
+        <v>707</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D79" s="3">
+        <v>708</v>
+      </c>
+      <c r="E79" s="3">
+        <v>7</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G79" s="3">
+        <v>7</v>
+      </c>
+      <c r="H79" s="3">
+        <v>102030007</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3">
+        <v>708</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D80" s="3">
+        <v>709</v>
+      </c>
+      <c r="E80" s="3">
+        <v>7</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G80" s="3">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3">
+        <v>102030008</v>
+      </c>
+      <c r="I80" s="3">
+        <v>2</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3">
+        <v>709</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D81" s="3">
+        <v>710</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G81" s="3">
+        <v>9</v>
+      </c>
+      <c r="H81" s="3">
+        <v>102030009</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>710</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E82" s="3">
+        <v>7</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G82" s="3">
+        <v>10</v>
+      </c>
+      <c r="H82" s="3">
+        <v>102030010</v>
+      </c>
+      <c r="I82" s="3">
+        <v>2</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <v>801</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="3">
+        <v>802</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <v>108020001</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3">
+        <v>802</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="3">
+        <v>803</v>
+      </c>
+      <c r="E84" s="3">
+        <v>8</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3">
+        <v>108020002</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3">
+        <v>803</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="3">
+        <v>804</v>
+      </c>
+      <c r="E85" s="3">
+        <v>8</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3</v>
+      </c>
+      <c r="H85" s="3">
+        <v>108020003</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>804</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D86" s="3">
+        <v>805</v>
+      </c>
+      <c r="E86" s="3">
+        <v>8</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G86" s="3">
+        <v>4</v>
+      </c>
+      <c r="H86" s="3">
+        <v>108020004</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>805</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="3">
+        <v>806</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G87" s="3">
+        <v>5</v>
+      </c>
+      <c r="H87" s="3">
+        <v>108020005</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3">
+        <v>806</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="3">
+        <v>807</v>
+      </c>
+      <c r="E88" s="3">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G88" s="3">
+        <v>6</v>
+      </c>
+      <c r="H88" s="3">
+        <v>108020006</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>807</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="3">
+        <v>808</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G89" s="3">
+        <v>7</v>
+      </c>
+      <c r="H89" s="3">
+        <v>108020007</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3">
+        <v>808</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E90" s="3">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G90" s="3">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3">
+        <v>108020008</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>901</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D91" s="3">
+        <v>902</v>
+      </c>
+      <c r="E91" s="3">
+        <v>9</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3">
+        <v>108010001</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="3">
+        <v>902</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" s="3">
+        <v>903</v>
+      </c>
+      <c r="E92" s="3">
+        <v>9</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G92" s="3">
+        <v>2</v>
+      </c>
+      <c r="H92" s="3">
+        <v>108010002</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="3">
+        <v>903</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D93" s="3">
+        <v>904</v>
+      </c>
+      <c r="E93" s="3">
+        <v>9</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G93" s="3">
+        <v>3</v>
+      </c>
+      <c r="H93" s="3">
+        <v>108010003</v>
+      </c>
+      <c r="I93" s="3">
+        <v>2</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3">
+        <v>904</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D94" s="3">
+        <v>905</v>
+      </c>
+      <c r="E94" s="3">
+        <v>9</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G94" s="3">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>108010004</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="3">
+        <v>905</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D95" s="3">
+        <v>906</v>
+      </c>
+      <c r="E95" s="3">
+        <v>9</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G95" s="3">
+        <v>5</v>
+      </c>
+      <c r="H95" s="3">
+        <v>108010005</v>
+      </c>
+      <c r="I95" s="3">
+        <v>2</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3">
+        <v>906</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" s="3">
+        <v>907</v>
+      </c>
+      <c r="E96" s="3">
+        <v>9</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G96" s="3">
+        <v>6</v>
+      </c>
+      <c r="H96" s="3">
+        <v>108010006</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>907</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" s="3">
+        <v>908</v>
+      </c>
+      <c r="E97" s="3">
+        <v>9</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G97" s="3">
+        <v>7</v>
+      </c>
+      <c r="H97" s="3">
+        <v>108010007</v>
+      </c>
+      <c r="I97" s="3">
+        <v>2</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3">
+        <v>908</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D98" s="3">
+        <v>909</v>
+      </c>
+      <c r="E98" s="3">
+        <v>9</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G98" s="3">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3">
+        <v>108010008</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3">
+        <v>909</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D99" s="3">
+        <v>910</v>
+      </c>
+      <c r="E99" s="3">
+        <v>9</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G99" s="3">
+        <v>9</v>
+      </c>
+      <c r="H99" s="3">
+        <v>108010009</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3">
+        <v>910</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E100" s="3">
+        <v>9</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G100" s="3">
+        <v>10</v>
+      </c>
+      <c r="H100" s="3">
+        <v>108010010</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E101" s="3">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
+        <v>201010001</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1003</v>
+      </c>
+      <c r="E102" s="3">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G102" s="3">
+        <v>2</v>
+      </c>
+      <c r="H102" s="3">
+        <v>201010002</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1004</v>
+      </c>
+      <c r="E103" s="3">
+        <v>10</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G103" s="3">
+        <v>3</v>
+      </c>
+      <c r="H103" s="3">
+        <v>201010003</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1005</v>
+      </c>
+      <c r="E104" s="3">
+        <v>10</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G104" s="3">
+        <v>4</v>
+      </c>
+      <c r="H104" s="3">
+        <v>201010006</v>
+      </c>
+      <c r="I104" s="3">
+        <v>2</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1006</v>
+      </c>
+      <c r="E105" s="3">
+        <v>10</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G105" s="3">
+        <v>5</v>
+      </c>
+      <c r="H105" s="3">
+        <v>201010009</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+      <c r="K105" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1007</v>
+      </c>
+      <c r="E106" s="3">
+        <v>10</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G106" s="3">
+        <v>6</v>
+      </c>
+      <c r="H106" s="3">
+        <v>201010011</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+      <c r="K106" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1008</v>
+      </c>
+      <c r="E107" s="3">
+        <v>10</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G107" s="3">
+        <v>7</v>
+      </c>
+      <c r="H107" s="3">
+        <v>201010013</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0</v>
+      </c>
+      <c r="K107" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1009</v>
+      </c>
+      <c r="E108" s="3">
+        <v>10</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G108" s="3">
+        <v>8</v>
+      </c>
+      <c r="H108" s="3">
+        <v>201010015</v>
+      </c>
+      <c r="I108" s="3">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
+      <c r="K108" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1010</v>
+      </c>
+      <c r="E109" s="3">
+        <v>10</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G109" s="3">
+        <v>9</v>
+      </c>
+      <c r="H109" s="3">
+        <v>201010017</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+      <c r="K109" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1011</v>
+      </c>
+      <c r="E110" s="3">
+        <v>10</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G110" s="3">
+        <v>10</v>
+      </c>
+      <c r="H110" s="3">
+        <v>201010019</v>
+      </c>
+      <c r="I110" s="3">
+        <v>2</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0</v>
+      </c>
+      <c r="K110" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1012</v>
+      </c>
+      <c r="E111" s="3">
+        <v>10</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G111" s="3">
+        <v>11</v>
+      </c>
+      <c r="H111" s="3">
+        <v>201010021</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1013</v>
+      </c>
+      <c r="E112" s="3">
+        <v>10</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G112" s="3">
+        <v>12</v>
+      </c>
+      <c r="H112" s="3">
+        <v>201010023</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1014</v>
+      </c>
+      <c r="E113" s="3">
+        <v>10</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G113" s="3">
+        <v>13</v>
+      </c>
+      <c r="H113" s="3">
+        <v>201010025</v>
+      </c>
+      <c r="I113" s="3">
+        <v>2</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1015</v>
+      </c>
+      <c r="E114" s="3">
+        <v>10</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G114" s="3">
+        <v>14</v>
+      </c>
+      <c r="H114" s="3">
+        <v>201010027</v>
+      </c>
+      <c r="I114" s="3">
+        <v>2</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1016</v>
+      </c>
+      <c r="E115" s="3">
+        <v>10</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G115" s="3">
+        <v>15</v>
+      </c>
+      <c r="H115" s="3">
+        <v>201010029</v>
+      </c>
+      <c r="I115" s="3">
+        <v>2</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+      <c r="K115" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1017</v>
+      </c>
+      <c r="E116" s="3">
+        <v>10</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G116" s="3">
+        <v>16</v>
+      </c>
+      <c r="H116" s="3">
+        <v>201010031</v>
+      </c>
+      <c r="I116" s="3">
+        <v>2</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1017</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1018</v>
+      </c>
+      <c r="E117" s="3">
+        <v>10</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G117" s="3">
+        <v>17</v>
+      </c>
+      <c r="H117" s="3">
+        <v>201010032</v>
+      </c>
+      <c r="I117" s="3">
+        <v>2</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1018</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1019</v>
+      </c>
+      <c r="E118" s="3">
+        <v>10</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G118" s="3">
+        <v>18</v>
+      </c>
+      <c r="H118" s="3">
+        <v>201010033</v>
+      </c>
+      <c r="I118" s="3">
+        <v>2</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1019</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1020</v>
+      </c>
+      <c r="E119" s="3">
+        <v>10</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G119" s="3">
+        <v>19</v>
+      </c>
+      <c r="H119" s="3">
+        <v>201010034</v>
+      </c>
+      <c r="I119" s="3">
+        <v>2</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="K119" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E120" s="3">
+        <v>10</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G120" s="3">
+        <v>20</v>
+      </c>
+      <c r="H120" s="3">
+        <v>201010035</v>
+      </c>
+      <c r="I120" s="3">
+        <v>2</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+      <c r="K120" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1101</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1102</v>
+      </c>
+      <c r="E121" s="3">
+        <v>11</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3">
+        <v>301010001</v>
+      </c>
+      <c r="I121" s="3">
+        <v>2</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1102</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1103</v>
+      </c>
+      <c r="E122" s="3">
+        <v>11</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G122" s="3">
+        <v>2</v>
+      </c>
+      <c r="H122" s="3">
+        <v>301010002</v>
+      </c>
+      <c r="I122" s="3">
+        <v>2</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0</v>
+      </c>
+      <c r="K122" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>120</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1103</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1104</v>
+      </c>
+      <c r="E123" s="3">
+        <v>11</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G123" s="3">
+        <v>3</v>
+      </c>
+      <c r="H123" s="3">
+        <v>301010003</v>
+      </c>
+      <c r="I123" s="3">
+        <v>2</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>121</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1104</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E124" s="3">
+        <v>11</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G124" s="3">
+        <v>4</v>
+      </c>
+      <c r="H124" s="3">
+        <v>301010004</v>
+      </c>
+      <c r="I124" s="3">
+        <v>2</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1105</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1106</v>
+      </c>
+      <c r="E125" s="3">
+        <v>11</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G125" s="3">
+        <v>5</v>
+      </c>
+      <c r="H125" s="3">
+        <v>301010005</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0</v>
+      </c>
+      <c r="K125" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1106</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1107</v>
+      </c>
+      <c r="E126" s="3">
+        <v>11</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G126" s="3">
+        <v>6</v>
+      </c>
+      <c r="H126" s="3">
+        <v>301010006</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1107</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1108</v>
+      </c>
+      <c r="E127" s="3">
+        <v>11</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G127" s="3">
+        <v>7</v>
+      </c>
+      <c r="H127" s="3">
+        <v>301010007</v>
+      </c>
+      <c r="I127" s="3">
+        <v>2</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="K127" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>125</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1108</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1109</v>
+      </c>
+      <c r="E128" s="3">
+        <v>11</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G128" s="3">
+        <v>8</v>
+      </c>
+      <c r="H128" s="3">
+        <v>301010008</v>
+      </c>
+      <c r="I128" s="3">
+        <v>2</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>126</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1109</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1110</v>
+      </c>
+      <c r="E129" s="3">
+        <v>11</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G129" s="3">
+        <v>9</v>
+      </c>
+      <c r="H129" s="3">
+        <v>301010009</v>
+      </c>
+      <c r="I129" s="3">
+        <v>2</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0</v>
+      </c>
+      <c r="K129" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1110</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1111</v>
+      </c>
+      <c r="E130" s="3">
+        <v>11</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G130" s="3">
+        <v>10</v>
+      </c>
+      <c r="H130" s="3">
+        <v>301010010</v>
+      </c>
+      <c r="I130" s="3">
+        <v>2</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+      <c r="K130" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>128</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1111</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1112</v>
+      </c>
+      <c r="E131" s="3">
+        <v>11</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G131" s="3">
+        <v>11</v>
+      </c>
+      <c r="H131" s="3">
+        <v>301010011</v>
+      </c>
+      <c r="I131" s="3">
+        <v>2</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+      <c r="K131" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>129</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1112</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E132" s="3">
+        <v>11</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G132" s="3">
+        <v>12</v>
+      </c>
+      <c r="H132" s="3">
+        <v>301010012</v>
+      </c>
+      <c r="I132" s="3">
+        <v>2</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
+      <c r="K132" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>130</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1113</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1114</v>
+      </c>
+      <c r="E133" s="3">
+        <v>12</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+      <c r="H133" s="3">
+        <v>301020001</v>
+      </c>
+      <c r="I133" s="3">
+        <v>2</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>131</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1114</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1115</v>
+      </c>
+      <c r="E134" s="3">
+        <v>12</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G134" s="3">
+        <v>2</v>
+      </c>
+      <c r="H134" s="3">
+        <v>301020002</v>
+      </c>
+      <c r="I134" s="3">
+        <v>2</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0</v>
+      </c>
+      <c r="K134" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>132</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1115</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1116</v>
+      </c>
+      <c r="E135" s="3">
+        <v>12</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G135" s="3">
+        <v>3</v>
+      </c>
+      <c r="H135" s="3">
+        <v>301020003</v>
+      </c>
+      <c r="I135" s="3">
+        <v>2</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>133</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1116</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1117</v>
+      </c>
+      <c r="E136" s="3">
+        <v>12</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G136" s="3">
+        <v>4</v>
+      </c>
+      <c r="H136" s="3">
+        <v>301020004</v>
+      </c>
+      <c r="I136" s="3">
+        <v>2</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+      <c r="K136" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>134</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1117</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1118</v>
+      </c>
+      <c r="E137" s="3">
+        <v>12</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G137" s="3">
+        <v>5</v>
+      </c>
+      <c r="H137" s="3">
+        <v>301020005</v>
+      </c>
+      <c r="I137" s="3">
+        <v>2</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
+      <c r="K137" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>135</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1118</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1119</v>
+      </c>
+      <c r="E138" s="3">
+        <v>12</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G138" s="3">
+        <v>6</v>
+      </c>
+      <c r="H138" s="3">
+        <v>301020006</v>
+      </c>
+      <c r="I138" s="3">
+        <v>2</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0</v>
+      </c>
+      <c r="K138" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>136</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1119</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1120</v>
+      </c>
+      <c r="E139" s="3">
+        <v>12</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G139" s="3">
+        <v>7</v>
+      </c>
+      <c r="H139" s="3">
+        <v>301020007</v>
+      </c>
+      <c r="I139" s="3">
+        <v>2</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
+      <c r="K139" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>137</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1120</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1121</v>
+      </c>
+      <c r="E140" s="3">
+        <v>12</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G140" s="3">
+        <v>8</v>
+      </c>
+      <c r="H140" s="3">
+        <v>301020008</v>
+      </c>
+      <c r="I140" s="3">
+        <v>2</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
+      <c r="K140" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>138</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1121</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1122</v>
+      </c>
+      <c r="E141" s="3">
+        <v>12</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G141" s="3">
+        <v>9</v>
+      </c>
+      <c r="H141" s="3">
+        <v>301020009</v>
+      </c>
+      <c r="I141" s="3">
+        <v>2</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>139</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1122</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1123</v>
+      </c>
+      <c r="E142" s="3">
+        <v>12</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G142" s="3">
+        <v>10</v>
+      </c>
+      <c r="H142" s="3">
+        <v>301020010</v>
+      </c>
+      <c r="I142" s="3">
+        <v>2</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+      <c r="K142" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>140</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1123</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1124</v>
+      </c>
+      <c r="E143" s="3">
+        <v>12</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G143" s="3">
+        <v>11</v>
+      </c>
+      <c r="H143" s="3">
+        <v>301020011</v>
+      </c>
+      <c r="I143" s="3">
+        <v>2</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>141</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1124</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E144" s="3">
+        <v>12</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G144" s="3">
+        <v>12</v>
+      </c>
+      <c r="H144" s="3">
+        <v>301020012</v>
+      </c>
+      <c r="I144" s="3">
+        <v>2</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0</v>
+      </c>
+      <c r="K144" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>142</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1201</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1202</v>
+      </c>
+      <c r="E145" s="3">
+        <v>13</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3">
+        <v>301020101</v>
+      </c>
+      <c r="I145" s="3">
+        <v>2</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0</v>
+      </c>
+      <c r="K145" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>143</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1202</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1203</v>
+      </c>
+      <c r="E146" s="3">
+        <v>13</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G146" s="3">
+        <v>2</v>
+      </c>
+      <c r="H146" s="3">
+        <v>301020102</v>
+      </c>
+      <c r="I146" s="3">
+        <v>2</v>
+      </c>
+      <c r="J146" s="3">
+        <v>0</v>
+      </c>
+      <c r="K146" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>144</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1203</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1204</v>
+      </c>
+      <c r="E147" s="3">
+        <v>13</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G147" s="3">
+        <v>3</v>
+      </c>
+      <c r="H147" s="3">
+        <v>301020103</v>
+      </c>
+      <c r="I147" s="3">
+        <v>2</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0</v>
+      </c>
+      <c r="K147" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>145</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1204</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1205</v>
+      </c>
+      <c r="E148" s="3">
+        <v>13</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G148" s="3">
+        <v>4</v>
+      </c>
+      <c r="H148" s="3">
+        <v>301020104</v>
+      </c>
+      <c r="I148" s="3">
+        <v>2</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+      <c r="K148" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>146</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1205</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D149" s="3">
+        <v>1206</v>
+      </c>
+      <c r="E149" s="3">
+        <v>13</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G149" s="3">
+        <v>5</v>
+      </c>
+      <c r="H149" s="3">
+        <v>301020105</v>
+      </c>
+      <c r="I149" s="3">
+        <v>2</v>
+      </c>
+      <c r="J149" s="3">
+        <v>0</v>
+      </c>
+      <c r="K149" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>147</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1206</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150" s="3">
+        <v>1207</v>
+      </c>
+      <c r="E150" s="3">
+        <v>13</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G150" s="3">
+        <v>6</v>
+      </c>
+      <c r="H150" s="3">
+        <v>301020106</v>
+      </c>
+      <c r="I150" s="3">
+        <v>2</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+      <c r="K150" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>148</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1207</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D151" s="3">
+        <v>1208</v>
+      </c>
+      <c r="E151" s="3">
+        <v>13</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G151" s="3">
+        <v>7</v>
+      </c>
+      <c r="H151" s="3">
+        <v>301020107</v>
+      </c>
+      <c r="I151" s="3">
+        <v>2</v>
+      </c>
+      <c r="J151" s="3">
+        <v>0</v>
+      </c>
+      <c r="K151" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>149</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1208</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D152" s="3">
+        <v>1209</v>
+      </c>
+      <c r="E152" s="3">
+        <v>13</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G152" s="3">
+        <v>8</v>
+      </c>
+      <c r="H152" s="3">
+        <v>301020108</v>
+      </c>
+      <c r="I152" s="3">
+        <v>2</v>
+      </c>
+      <c r="J152" s="3">
+        <v>0</v>
+      </c>
+      <c r="K152" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>150</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1209</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1210</v>
+      </c>
+      <c r="E153" s="3">
+        <v>13</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G153" s="3">
+        <v>9</v>
+      </c>
+      <c r="H153" s="3">
+        <v>301020109</v>
+      </c>
+      <c r="I153" s="3">
+        <v>2</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0</v>
+      </c>
+      <c r="K153" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>151</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1210</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1211</v>
+      </c>
+      <c r="E154" s="3">
+        <v>13</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G154" s="3">
+        <v>10</v>
+      </c>
+      <c r="H154" s="3">
+        <v>301020110</v>
+      </c>
+      <c r="I154" s="3">
+        <v>2</v>
+      </c>
+      <c r="J154" s="3">
+        <v>0</v>
+      </c>
+      <c r="K154" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>152</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1211</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E155" s="3">
+        <v>13</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G155" s="3">
+        <v>11</v>
+      </c>
+      <c r="H155" s="3">
+        <v>301020111</v>
+      </c>
+      <c r="I155" s="3">
+        <v>2</v>
+      </c>
+      <c r="J155" s="3">
+        <v>0</v>
+      </c>
+      <c r="K155" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3179B5-BC93-4352-B565-4B6FA1022363}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>429</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="12630" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840">
   <si>
     <t>sheet名</t>
   </si>
@@ -2567,6 +2567,9 @@
   </si>
   <si>
     <t>require</t>
+  </si>
+  <si>
+    <t>int:ea&lt;&gt;</t>
   </si>
   <si>
     <t>任务ID</t>
@@ -2616,10 +2619,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2648,9 +2651,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2666,110 +2787,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2783,25 +2801,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2814,14 +2825,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2843,13 +2846,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,43 +2948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2909,79 +2972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2999,13 +2990,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,37 +3038,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,20 +3107,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3137,17 +3144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3159,6 +3155,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3178,35 +3203,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3216,172 +3219,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -21402,7 +21405,7 @@
   <sheetPr/>
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
@@ -27961,8 +27964,8 @@
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28029,7 +28032,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>825</v>
       </c>
       <c r="G2" t="s">
         <v>803</v>
@@ -28055,19 +28058,19 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>805</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>808</v>
@@ -28096,7 +28099,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D4" s="3">
         <v>102</v>
@@ -28128,7 +28131,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D5" s="3">
         <v>103</v>
@@ -28166,7 +28169,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D6" s="3">
         <v>104</v>
@@ -28198,7 +28201,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D7" s="3">
         <v>105</v>
@@ -28230,7 +28233,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D8" s="3">
         <v>106</v>
@@ -28262,7 +28265,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D9" s="3">
         <v>107</v>
@@ -28294,7 +28297,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D10" s="3">
         <v>108</v>
@@ -28326,7 +28329,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D11" s="3">
         <v>109</v>
@@ -28358,7 +28361,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D12" s="3">
         <v>110</v>
@@ -28390,7 +28393,7 @@
         <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>815</v>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FEE904-1299-4E89-AB07-70AD5A80EE64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,18 +27,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,6 +48,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="872">
   <si>
     <t>sheet名</t>
   </si>
@@ -2682,19 +2690,47 @@
   </si>
   <si>
     <t>进阶装备一次</t>
+  </si>
+  <si>
+    <t>突破丹</t>
+  </si>
+  <si>
+    <t>幸运宝箱</t>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币幸运宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命石宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼石宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2707,174 +2743,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2882,26 +2796,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2916,49 +2844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2970,162 +2856,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3185,400 +2933,114 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="33" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="33" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3836,19 +3298,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -3859,7 +3321,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3882,7 +3344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3903,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="40.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -3924,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="47.25" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -3943,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="47.25" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -3964,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="40.5" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -3985,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -4006,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -4028,26 +3490,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D295" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -4070,7 +3530,7 @@
     <col min="30" max="30" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:23">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -4141,7 +3601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4224,7 +3684,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:29">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
@@ -4304,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:29">
+    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -4354,7 +3814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:23">
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -4395,7 +3855,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
     </row>
-    <row r="6" ht="16.5" spans="1:29">
+    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -4445,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:23">
+    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -4486,7 +3946,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
     </row>
-    <row r="8" ht="16.5" spans="1:29">
+    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -4536,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:23">
+    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -4577,7 +4037,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" ht="16.5" spans="1:23">
+    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -4618,7 +4078,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" ht="16.5" spans="1:29">
+    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -4668,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:23">
+    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -4709,7 +4169,7 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" ht="16.5" spans="1:23">
+    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -4750,7 +4210,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
-    <row r="14" ht="16.5" spans="1:29">
+    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -4800,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:23">
+    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -4841,7 +4301,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
-    <row r="16" ht="16.5" spans="1:23">
+    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -4882,7 +4342,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" ht="16.5" spans="1:23">
+    <row r="17" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -4923,7 +4383,7 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" ht="16.5" spans="1:23">
+    <row r="18" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -4964,7 +4424,7 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" ht="16.5" spans="1:29">
+    <row r="19" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -5014,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:29">
+    <row r="20" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -5064,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:29">
+    <row r="21" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -5114,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:23">
+    <row r="22" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -5155,7 +4615,7 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" ht="16.5" spans="1:29">
+    <row r="23" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -5205,7 +4665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:29">
+    <row r="24" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -5255,7 +4715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:29">
+    <row r="25" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -5305,7 +4765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:23">
+    <row r="26" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -5346,7 +4806,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
-    <row r="27" ht="16.5" spans="1:29">
+    <row r="27" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -5396,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:29">
+    <row r="28" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -5446,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:29">
+    <row r="29" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -5496,7 +4956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:29">
+    <row r="30" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -5546,7 +5006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:29">
+    <row r="31" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -5596,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:29">
+    <row r="32" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -5646,7 +5106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:29">
+    <row r="33" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -5696,7 +5156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:29">
+    <row r="34" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -5746,7 +5206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:29">
+    <row r="35" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -5796,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:29">
+    <row r="36" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -5846,7 +5306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:29">
+    <row r="37" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -5896,7 +5356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:29">
+    <row r="38" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -5946,7 +5406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:29">
+    <row r="39" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -5996,7 +5456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:29">
+    <row r="40" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -6046,7 +5506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:23">
+    <row r="41" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -6087,7 +5547,7 @@
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
     </row>
-    <row r="42" ht="16.5" spans="1:23">
+    <row r="42" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -6128,7 +5588,7 @@
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
     </row>
-    <row r="43" ht="16.5" spans="1:29">
+    <row r="43" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -6178,7 +5638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:29">
+    <row r="44" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -6228,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:29">
+    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -6278,7 +5738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:29">
+    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -6328,7 +5788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:29">
+    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -6378,7 +5838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:29">
+    <row r="48" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -6428,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:29">
+    <row r="49" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -6478,7 +5938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:29">
+    <row r="50" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -6528,7 +5988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:29">
+    <row r="51" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>48</v>
       </c>
@@ -6578,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:29">
+    <row r="52" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>49</v>
       </c>
@@ -6628,7 +6088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:23">
+    <row r="53" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>50</v>
       </c>
@@ -6669,7 +6129,7 @@
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
     </row>
-    <row r="54" ht="16.5" spans="1:29">
+    <row r="54" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>51</v>
       </c>
@@ -6719,7 +6179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:29">
+    <row r="55" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>52</v>
       </c>
@@ -6769,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:29">
+    <row r="56" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>53</v>
       </c>
@@ -6819,7 +6279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:29">
+    <row r="57" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>54</v>
       </c>
@@ -6869,7 +6329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:29">
+    <row r="58" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>55</v>
       </c>
@@ -6919,7 +6379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:29">
+    <row r="59" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>56</v>
       </c>
@@ -6969,7 +6429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:29">
+    <row r="60" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>57</v>
       </c>
@@ -7019,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" spans="1:29">
+    <row r="61" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>58</v>
       </c>
@@ -7069,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:29">
+    <row r="62" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>59</v>
       </c>
@@ -7119,7 +6579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" spans="1:23">
+    <row r="63" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>60</v>
       </c>
@@ -7160,7 +6620,7 @@
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:23">
+    <row r="64" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>61</v>
       </c>
@@ -7201,7 +6661,7 @@
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
     </row>
-    <row r="65" ht="16.5" spans="1:23">
+    <row r="65" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>62</v>
       </c>
@@ -7242,7 +6702,7 @@
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
     </row>
-    <row r="66" ht="16.5" spans="1:23">
+    <row r="66" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>63</v>
       </c>
@@ -7283,7 +6743,7 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" ht="16.5" spans="1:29">
+    <row r="67" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>64</v>
       </c>
@@ -7333,7 +6793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:29">
+    <row r="68" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>65</v>
       </c>
@@ -7383,7 +6843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:29">
+    <row r="69" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>66</v>
       </c>
@@ -7433,7 +6893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:29">
+    <row r="70" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>67</v>
       </c>
@@ -7483,7 +6943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:29">
+    <row r="71" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>68</v>
       </c>
@@ -7533,7 +6993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:29">
+    <row r="72" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>69</v>
       </c>
@@ -7583,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:29">
+    <row r="73" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>70</v>
       </c>
@@ -7633,7 +7093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:29">
+    <row r="74" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>71</v>
       </c>
@@ -7683,7 +7143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:29">
+    <row r="75" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>72</v>
       </c>
@@ -7733,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:29">
+    <row r="76" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>73</v>
       </c>
@@ -7783,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:29">
+    <row r="77" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>74</v>
       </c>
@@ -7833,7 +7293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:31">
+    <row r="78" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>75</v>
       </c>
@@ -7886,7 +7346,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:31">
+    <row r="79" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>76</v>
       </c>
@@ -7939,7 +7399,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:29">
+    <row r="80" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>77</v>
       </c>
@@ -7989,7 +7449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:23">
+    <row r="81" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>78</v>
       </c>
@@ -8030,7 +7490,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
     </row>
-    <row r="82" ht="16.5" spans="1:23">
+    <row r="82" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>79</v>
       </c>
@@ -8071,7 +7531,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
     </row>
-    <row r="83" ht="16.5" spans="1:29">
+    <row r="83" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>80</v>
       </c>
@@ -8121,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:29">
+    <row r="84" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>81</v>
       </c>
@@ -8171,7 +7631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:29">
+    <row r="85" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>82</v>
       </c>
@@ -8221,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:29">
+    <row r="86" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>83</v>
       </c>
@@ -8271,7 +7731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:29">
+    <row r="87" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>84</v>
       </c>
@@ -8321,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:29">
+    <row r="88" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>85</v>
       </c>
@@ -8371,7 +7831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:29">
+    <row r="89" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>86</v>
       </c>
@@ -8421,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:29">
+    <row r="90" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>87</v>
       </c>
@@ -8471,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:23">
+    <row r="91" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>88</v>
       </c>
@@ -8512,7 +7972,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
     </row>
-    <row r="92" ht="16.5" spans="1:23">
+    <row r="92" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>89</v>
       </c>
@@ -8553,7 +8013,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="7"/>
     </row>
-    <row r="93" ht="16.5" spans="1:23">
+    <row r="93" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>90</v>
       </c>
@@ -8594,7 +8054,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
     </row>
-    <row r="94" ht="16.5" spans="1:23">
+    <row r="94" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>91</v>
       </c>
@@ -8635,7 +8095,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="7"/>
     </row>
-    <row r="95" ht="16.5" spans="1:23">
+    <row r="95" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>92</v>
       </c>
@@ -8676,7 +8136,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="7"/>
     </row>
-    <row r="96" ht="16.5" spans="1:29">
+    <row r="96" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>93</v>
       </c>
@@ -8726,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:29">
+    <row r="97" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>94</v>
       </c>
@@ -8776,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:29">
+    <row r="98" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>95</v>
       </c>
@@ -8826,7 +8286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:29">
+    <row r="99" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>96</v>
       </c>
@@ -8876,7 +8336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:29">
+    <row r="100" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>97</v>
       </c>
@@ -8926,7 +8386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:23">
+    <row r="101" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>98</v>
       </c>
@@ -8967,7 +8427,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="7"/>
     </row>
-    <row r="102" ht="16.5" spans="1:23">
+    <row r="102" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>99</v>
       </c>
@@ -9008,7 +8468,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="7"/>
     </row>
-    <row r="103" ht="16.5" spans="1:23">
+    <row r="103" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>100</v>
       </c>
@@ -9049,7 +8509,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="7"/>
     </row>
-    <row r="104" ht="16.5" spans="1:23">
+    <row r="104" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>101</v>
       </c>
@@ -9090,7 +8550,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="7"/>
     </row>
-    <row r="105" ht="16.5" spans="1:23">
+    <row r="105" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>102</v>
       </c>
@@ -9131,7 +8591,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="7"/>
     </row>
-    <row r="106" ht="16.5" spans="1:23">
+    <row r="106" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>103</v>
       </c>
@@ -9172,7 +8632,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="7"/>
     </row>
-    <row r="107" ht="16.5" spans="1:23">
+    <row r="107" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>104</v>
       </c>
@@ -9213,7 +8673,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="7"/>
     </row>
-    <row r="108" ht="16.5" spans="1:23">
+    <row r="108" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>105</v>
       </c>
@@ -9254,7 +8714,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="7"/>
     </row>
-    <row r="109" ht="16.5" spans="1:23">
+    <row r="109" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>106</v>
       </c>
@@ -9295,7 +8755,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="7"/>
     </row>
-    <row r="110" ht="16.5" spans="1:29">
+    <row r="110" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>107</v>
       </c>
@@ -9345,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:29">
+    <row r="111" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>108</v>
       </c>
@@ -9395,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:29">
+    <row r="112" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>109</v>
       </c>
@@ -9445,7 +8905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:29">
+    <row r="113" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>110</v>
       </c>
@@ -9495,7 +8955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:29">
+    <row r="114" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>111</v>
       </c>
@@ -9545,7 +9005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:23">
+    <row r="115" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>112</v>
       </c>
@@ -9586,7 +9046,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" ht="16.5" spans="1:23">
+    <row r="116" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>113</v>
       </c>
@@ -9627,7 +9087,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="7"/>
     </row>
-    <row r="117" ht="16.5" spans="1:23">
+    <row r="117" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>114</v>
       </c>
@@ -9668,7 +9128,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="7"/>
     </row>
-    <row r="118" ht="16.5" spans="1:29">
+    <row r="118" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>115</v>
       </c>
@@ -9718,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:29">
+    <row r="119" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>116</v>
       </c>
@@ -9768,7 +9228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:23">
+    <row r="120" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>117</v>
       </c>
@@ -9809,7 +9269,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="7"/>
     </row>
-    <row r="121" ht="16.5" spans="1:29">
+    <row r="121" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>118</v>
       </c>
@@ -9859,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:29">
+    <row r="122" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>119</v>
       </c>
@@ -9909,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:29">
+    <row r="123" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>120</v>
       </c>
@@ -9959,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:29">
+    <row r="124" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>121</v>
       </c>
@@ -10009,7 +9469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:29">
+    <row r="125" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>122</v>
       </c>
@@ -10059,7 +9519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:23">
+    <row r="126" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>123</v>
       </c>
@@ -10100,7 +9560,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="7"/>
     </row>
-    <row r="127" ht="16.5" spans="1:23">
+    <row r="127" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>124</v>
       </c>
@@ -10141,7 +9601,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="7"/>
     </row>
-    <row r="128" ht="16.5" spans="1:23">
+    <row r="128" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>125</v>
       </c>
@@ -10182,7 +9642,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="7"/>
     </row>
-    <row r="129" ht="16.5" spans="1:23">
+    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>126</v>
       </c>
@@ -10223,7 +9683,7 @@
       <c r="V129" s="10"/>
       <c r="W129" s="10"/>
     </row>
-    <row r="130" ht="16.5" spans="1:23">
+    <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>127</v>
       </c>
@@ -10264,7 +9724,7 @@
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
     </row>
-    <row r="131" ht="16.5" spans="1:23">
+    <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>128</v>
       </c>
@@ -10305,7 +9765,7 @@
       <c r="V131" s="10"/>
       <c r="W131" s="10"/>
     </row>
-    <row r="132" ht="16.5" spans="1:23">
+    <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>129</v>
       </c>
@@ -10346,7 +9806,7 @@
       <c r="V132" s="10"/>
       <c r="W132" s="10"/>
     </row>
-    <row r="133" ht="16.5" spans="1:23">
+    <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>130</v>
       </c>
@@ -10387,7 +9847,7 @@
       <c r="V133" s="10"/>
       <c r="W133" s="10"/>
     </row>
-    <row r="134" ht="16.5" spans="1:23">
+    <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>131</v>
       </c>
@@ -10428,7 +9888,7 @@
       <c r="V134" s="10"/>
       <c r="W134" s="10"/>
     </row>
-    <row r="135" ht="16.5" spans="1:23">
+    <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>132</v>
       </c>
@@ -10469,7 +9929,7 @@
       <c r="V135" s="10"/>
       <c r="W135" s="10"/>
     </row>
-    <row r="136" ht="16.5" spans="1:23">
+    <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>133</v>
       </c>
@@ -10510,7 +9970,7 @@
       <c r="V136" s="10"/>
       <c r="W136" s="10"/>
     </row>
-    <row r="137" ht="16.5" spans="1:23">
+    <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>134</v>
       </c>
@@ -10551,7 +10011,7 @@
       <c r="V137" s="10"/>
       <c r="W137" s="10"/>
     </row>
-    <row r="138" ht="16.5" spans="1:23">
+    <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>135</v>
       </c>
@@ -10592,7 +10052,7 @@
       <c r="V138" s="10"/>
       <c r="W138" s="10"/>
     </row>
-    <row r="139" ht="16.5" spans="1:23">
+    <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>136</v>
       </c>
@@ -10633,7 +10093,7 @@
       <c r="V139" s="10"/>
       <c r="W139" s="10"/>
     </row>
-    <row r="140" ht="16.5" spans="1:23">
+    <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>137</v>
       </c>
@@ -10674,7 +10134,7 @@
       <c r="V140" s="10"/>
       <c r="W140" s="10"/>
     </row>
-    <row r="141" customFormat="1" ht="16.5" spans="1:23">
+    <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>138</v>
       </c>
@@ -10715,7 +10175,7 @@
       <c r="V141" s="10"/>
       <c r="W141" s="10"/>
     </row>
-    <row r="142" customFormat="1" ht="16.5" spans="1:23">
+    <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>139</v>
       </c>
@@ -10756,7 +10216,7 @@
       <c r="V142" s="10"/>
       <c r="W142" s="10"/>
     </row>
-    <row r="143" customFormat="1" ht="16.5" spans="1:23">
+    <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>140</v>
       </c>
@@ -10797,7 +10257,7 @@
       <c r="V143" s="10"/>
       <c r="W143" s="10"/>
     </row>
-    <row r="144" customFormat="1" ht="16.5" spans="1:23">
+    <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>141</v>
       </c>
@@ -10838,7 +10298,7 @@
       <c r="V144" s="10"/>
       <c r="W144" s="10"/>
     </row>
-    <row r="145" customFormat="1" ht="16.5" spans="1:23">
+    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>142</v>
       </c>
@@ -10879,7 +10339,7 @@
       <c r="V145" s="10"/>
       <c r="W145" s="10"/>
     </row>
-    <row r="146" customFormat="1" ht="16.5" spans="1:23">
+    <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>143</v>
       </c>
@@ -10920,7 +10380,7 @@
       <c r="V146" s="10"/>
       <c r="W146" s="10"/>
     </row>
-    <row r="147" customFormat="1" ht="16.5" spans="1:23">
+    <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>144</v>
       </c>
@@ -10961,7 +10421,7 @@
       <c r="V147" s="10"/>
       <c r="W147" s="10"/>
     </row>
-    <row r="148" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="148" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>145</v>
       </c>
@@ -11002,7 +10462,7 @@
       <c r="V148" s="12"/>
       <c r="W148" s="12"/>
     </row>
-    <row r="149" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="149" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>146</v>
       </c>
@@ -11043,7 +10503,7 @@
       <c r="V149" s="12"/>
       <c r="W149" s="12"/>
     </row>
-    <row r="150" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="150" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>147</v>
       </c>
@@ -11084,7 +10544,7 @@
       <c r="V150" s="12"/>
       <c r="W150" s="12"/>
     </row>
-    <row r="151" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="151" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>148</v>
       </c>
@@ -11125,7 +10585,7 @@
       <c r="V151" s="12"/>
       <c r="W151" s="12"/>
     </row>
-    <row r="152" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="152" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>149</v>
       </c>
@@ -11166,7 +10626,7 @@
       <c r="V152" s="12"/>
       <c r="W152" s="12"/>
     </row>
-    <row r="153" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="153" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>150</v>
       </c>
@@ -11207,7 +10667,7 @@
       <c r="V153" s="12"/>
       <c r="W153" s="12"/>
     </row>
-    <row r="154" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="154" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>151</v>
       </c>
@@ -11248,7 +10708,7 @@
       <c r="V154" s="12"/>
       <c r="W154" s="12"/>
     </row>
-    <row r="155" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="155" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>152</v>
       </c>
@@ -11289,7 +10749,7 @@
       <c r="V155" s="12"/>
       <c r="W155" s="12"/>
     </row>
-    <row r="156" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="156" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>153</v>
       </c>
@@ -11330,7 +10790,7 @@
       <c r="V156" s="12"/>
       <c r="W156" s="12"/>
     </row>
-    <row r="157" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="157" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>154</v>
       </c>
@@ -11371,7 +10831,7 @@
       <c r="V157" s="12"/>
       <c r="W157" s="12"/>
     </row>
-    <row r="158" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="158" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>155</v>
       </c>
@@ -11412,7 +10872,7 @@
       <c r="V158" s="12"/>
       <c r="W158" s="12"/>
     </row>
-    <row r="159" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="159" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>156</v>
       </c>
@@ -11453,7 +10913,7 @@
       <c r="V159" s="12"/>
       <c r="W159" s="12"/>
     </row>
-    <row r="160" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="160" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>157</v>
       </c>
@@ -11494,7 +10954,7 @@
       <c r="V160" s="12"/>
       <c r="W160" s="12"/>
     </row>
-    <row r="161" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="161" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>158</v>
       </c>
@@ -11535,7 +10995,7 @@
       <c r="V161" s="12"/>
       <c r="W161" s="12"/>
     </row>
-    <row r="162" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="162" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>159</v>
       </c>
@@ -11576,7 +11036,7 @@
       <c r="V162" s="12"/>
       <c r="W162" s="12"/>
     </row>
-    <row r="163" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="163" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>160</v>
       </c>
@@ -11617,7 +11077,7 @@
       <c r="V163" s="12"/>
       <c r="W163" s="12"/>
     </row>
-    <row r="164" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="164" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>161</v>
       </c>
@@ -11658,7 +11118,7 @@
       <c r="V164" s="12"/>
       <c r="W164" s="12"/>
     </row>
-    <row r="165" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="165" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>162</v>
       </c>
@@ -11699,7 +11159,7 @@
       <c r="V165" s="12"/>
       <c r="W165" s="12"/>
     </row>
-    <row r="166" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="166" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>163</v>
       </c>
@@ -11740,7 +11200,7 @@
       <c r="V166" s="12"/>
       <c r="W166" s="12"/>
     </row>
-    <row r="167" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="167" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>164</v>
       </c>
@@ -11781,7 +11241,7 @@
       <c r="V167" s="12"/>
       <c r="W167" s="12"/>
     </row>
-    <row r="168" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="168" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>165</v>
       </c>
@@ -11822,7 +11282,7 @@
       <c r="V168" s="12"/>
       <c r="W168" s="12"/>
     </row>
-    <row r="169" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="169" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>166</v>
       </c>
@@ -11863,7 +11323,7 @@
       <c r="V169" s="12"/>
       <c r="W169" s="12"/>
     </row>
-    <row r="170" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="170" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>167</v>
       </c>
@@ -11904,7 +11364,7 @@
       <c r="V170" s="12"/>
       <c r="W170" s="12"/>
     </row>
-    <row r="171" s="9" customFormat="1" ht="16.5" spans="1:23">
+    <row r="171" spans="1:23" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>168</v>
       </c>
@@ -11945,7 +11405,7 @@
       <c r="V171" s="12"/>
       <c r="W171" s="12"/>
     </row>
-    <row r="172" ht="16.5" spans="1:23">
+    <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="15">
         <v>169</v>
       </c>
@@ -11986,7 +11446,7 @@
       <c r="V172" s="15"/>
       <c r="W172" s="15"/>
     </row>
-    <row r="173" ht="16.5" spans="1:23">
+    <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>170</v>
       </c>
@@ -12027,7 +11487,7 @@
       <c r="V173" s="15"/>
       <c r="W173" s="15"/>
     </row>
-    <row r="174" ht="16.5" spans="1:23">
+    <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>171</v>
       </c>
@@ -12068,7 +11528,7 @@
       <c r="V174" s="15"/>
       <c r="W174" s="15"/>
     </row>
-    <row r="175" ht="16.5" spans="1:23">
+    <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>172</v>
       </c>
@@ -12109,7 +11569,7 @@
       <c r="V175" s="15"/>
       <c r="W175" s="15"/>
     </row>
-    <row r="176" ht="16.5" spans="1:23">
+    <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>173</v>
       </c>
@@ -12150,7 +11610,7 @@
       <c r="V176" s="15"/>
       <c r="W176" s="15"/>
     </row>
-    <row r="177" ht="16.5" spans="1:23">
+    <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>174</v>
       </c>
@@ -12191,7 +11651,7 @@
       <c r="V177" s="15"/>
       <c r="W177" s="15"/>
     </row>
-    <row r="178" ht="16.5" spans="1:23">
+    <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>175</v>
       </c>
@@ -12232,7 +11692,7 @@
       <c r="V178" s="15"/>
       <c r="W178" s="15"/>
     </row>
-    <row r="179" ht="16.5" spans="1:23">
+    <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>176</v>
       </c>
@@ -12273,7 +11733,7 @@
       <c r="V179" s="15"/>
       <c r="W179" s="15"/>
     </row>
-    <row r="180" ht="16.5" spans="1:23">
+    <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>177</v>
       </c>
@@ -12314,7 +11774,7 @@
       <c r="V180" s="15"/>
       <c r="W180" s="15"/>
     </row>
-    <row r="181" ht="16.5" spans="1:23">
+    <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>178</v>
       </c>
@@ -12355,7 +11815,7 @@
       <c r="V181" s="15"/>
       <c r="W181" s="15"/>
     </row>
-    <row r="182" ht="16.5" spans="1:23">
+    <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>179</v>
       </c>
@@ -12396,7 +11856,7 @@
       <c r="V182" s="15"/>
       <c r="W182" s="15"/>
     </row>
-    <row r="183" ht="16.5" spans="1:23">
+    <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>180</v>
       </c>
@@ -12437,7 +11897,7 @@
       <c r="V183" s="15"/>
       <c r="W183" s="15"/>
     </row>
-    <row r="184" ht="16.5" spans="1:23">
+    <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>181</v>
       </c>
@@ -12478,7 +11938,7 @@
       <c r="V184" s="7"/>
       <c r="W184" s="7"/>
     </row>
-    <row r="185" ht="16.5" spans="1:23">
+    <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>182</v>
       </c>
@@ -12519,7 +11979,7 @@
       <c r="V185" s="7"/>
       <c r="W185" s="7"/>
     </row>
-    <row r="186" ht="16.5" spans="1:23">
+    <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>183</v>
       </c>
@@ -12560,7 +12020,7 @@
       <c r="V186" s="7"/>
       <c r="W186" s="7"/>
     </row>
-    <row r="187" ht="16.5" spans="1:23">
+    <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>184</v>
       </c>
@@ -12601,7 +12061,7 @@
       <c r="V187" s="7"/>
       <c r="W187" s="7"/>
     </row>
-    <row r="188" ht="16.5" spans="1:23">
+    <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>185</v>
       </c>
@@ -12642,7 +12102,7 @@
       <c r="V188" s="7"/>
       <c r="W188" s="7"/>
     </row>
-    <row r="189" ht="16.5" spans="1:23">
+    <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>186</v>
       </c>
@@ -12683,7 +12143,7 @@
       <c r="V189" s="7"/>
       <c r="W189" s="7"/>
     </row>
-    <row r="190" ht="16.5" spans="1:23">
+    <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>187</v>
       </c>
@@ -12724,7 +12184,7 @@
       <c r="V190" s="7"/>
       <c r="W190" s="7"/>
     </row>
-    <row r="191" ht="16.5" spans="1:23">
+    <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>188</v>
       </c>
@@ -12765,7 +12225,7 @@
       <c r="V191" s="7"/>
       <c r="W191" s="7"/>
     </row>
-    <row r="192" ht="16.5" spans="1:23">
+    <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>189</v>
       </c>
@@ -12806,7 +12266,7 @@
       <c r="V192" s="7"/>
       <c r="W192" s="7"/>
     </row>
-    <row r="193" ht="16.5" spans="1:23">
+    <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <v>190</v>
       </c>
@@ -12847,7 +12307,7 @@
       <c r="V193" s="7"/>
       <c r="W193" s="7"/>
     </row>
-    <row r="194" ht="16.5" spans="1:23">
+    <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <v>191</v>
       </c>
@@ -12888,7 +12348,7 @@
       <c r="V194" s="7"/>
       <c r="W194" s="7"/>
     </row>
-    <row r="195" ht="16.5" spans="1:23">
+    <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>192</v>
       </c>
@@ -12929,7 +12389,7 @@
       <c r="V195" s="7"/>
       <c r="W195" s="7"/>
     </row>
-    <row r="196" ht="16.5" spans="1:23">
+    <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>193</v>
       </c>
@@ -12970,7 +12430,7 @@
       <c r="V196" s="7"/>
       <c r="W196" s="7"/>
     </row>
-    <row r="197" ht="16.5" spans="1:23">
+    <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <v>194</v>
       </c>
@@ -13011,7 +12471,7 @@
       <c r="V197" s="7"/>
       <c r="W197" s="7"/>
     </row>
-    <row r="198" ht="16.5" spans="1:23">
+    <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <v>195</v>
       </c>
@@ -13052,7 +12512,7 @@
       <c r="V198" s="7"/>
       <c r="W198" s="7"/>
     </row>
-    <row r="199" ht="16.5" spans="1:23">
+    <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>196</v>
       </c>
@@ -13093,7 +12553,7 @@
       <c r="V199" s="7"/>
       <c r="W199" s="7"/>
     </row>
-    <row r="200" ht="16.5" spans="1:23">
+    <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>197</v>
       </c>
@@ -13134,7 +12594,7 @@
       <c r="V200" s="7"/>
       <c r="W200" s="7"/>
     </row>
-    <row r="201" ht="16.5" spans="1:23">
+    <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>198</v>
       </c>
@@ -13175,7 +12635,7 @@
       <c r="V201" s="7"/>
       <c r="W201" s="7"/>
     </row>
-    <row r="202" ht="16.5" spans="1:23">
+    <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="7">
         <v>199</v>
       </c>
@@ -13216,7 +12676,7 @@
       <c r="V202" s="7"/>
       <c r="W202" s="7"/>
     </row>
-    <row r="203" ht="16.5" spans="1:23">
+    <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>200</v>
       </c>
@@ -13257,7 +12717,7 @@
       <c r="V203" s="7"/>
       <c r="W203" s="7"/>
     </row>
-    <row r="204" ht="16.5" spans="1:23">
+    <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>201</v>
       </c>
@@ -13298,7 +12758,7 @@
       <c r="V204" s="7"/>
       <c r="W204" s="7"/>
     </row>
-    <row r="205" ht="16.5" spans="1:23">
+    <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>202</v>
       </c>
@@ -13339,7 +12799,7 @@
       <c r="V205" s="7"/>
       <c r="W205" s="7"/>
     </row>
-    <row r="206" ht="16.5" spans="1:23">
+    <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>203</v>
       </c>
@@ -13380,7 +12840,7 @@
       <c r="V206" s="7"/>
       <c r="W206" s="7"/>
     </row>
-    <row r="207" ht="16.5" spans="1:23">
+    <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>204</v>
       </c>
@@ -13421,7 +12881,7 @@
       <c r="V207" s="7"/>
       <c r="W207" s="7"/>
     </row>
-    <row r="208" ht="16.5" spans="1:23">
+    <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>205</v>
       </c>
@@ -13462,7 +12922,7 @@
       <c r="V208" s="7"/>
       <c r="W208" s="7"/>
     </row>
-    <row r="209" ht="16.5" spans="1:23">
+    <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>206</v>
       </c>
@@ -13503,7 +12963,7 @@
       <c r="V209" s="7"/>
       <c r="W209" s="7"/>
     </row>
-    <row r="210" ht="16.5" spans="1:23">
+    <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>207</v>
       </c>
@@ -13544,7 +13004,7 @@
       <c r="V210" s="7"/>
       <c r="W210" s="7"/>
     </row>
-    <row r="211" ht="16.5" spans="1:23">
+    <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>208</v>
       </c>
@@ -13585,7 +13045,7 @@
       <c r="V211" s="7"/>
       <c r="W211" s="7"/>
     </row>
-    <row r="212" ht="16.5" spans="1:23">
+    <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>209</v>
       </c>
@@ -13626,7 +13086,7 @@
       <c r="V212" s="7"/>
       <c r="W212" s="7"/>
     </row>
-    <row r="213" ht="16.5" spans="1:23">
+    <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>210</v>
       </c>
@@ -13667,7 +13127,7 @@
       <c r="V213" s="7"/>
       <c r="W213" s="7"/>
     </row>
-    <row r="214" ht="16.5" spans="1:23">
+    <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>211</v>
       </c>
@@ -13708,7 +13168,7 @@
       <c r="V214" s="7"/>
       <c r="W214" s="7"/>
     </row>
-    <row r="215" ht="16.5" spans="1:23">
+    <row r="215" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>212</v>
       </c>
@@ -13749,7 +13209,7 @@
       <c r="V215" s="7"/>
       <c r="W215" s="7"/>
     </row>
-    <row r="216" ht="16.5" spans="1:23">
+    <row r="216" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>213</v>
       </c>
@@ -13790,7 +13250,7 @@
       <c r="V216" s="7"/>
       <c r="W216" s="7"/>
     </row>
-    <row r="217" ht="16.5" spans="1:23">
+    <row r="217" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>214</v>
       </c>
@@ -13831,7 +13291,7 @@
       <c r="V217" s="7"/>
       <c r="W217" s="7"/>
     </row>
-    <row r="218" ht="16.5" spans="1:23">
+    <row r="218" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>215</v>
       </c>
@@ -13872,7 +13332,7 @@
       <c r="V218" s="7"/>
       <c r="W218" s="7"/>
     </row>
-    <row r="219" ht="16.5" spans="1:23">
+    <row r="219" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>216</v>
       </c>
@@ -13913,7 +13373,7 @@
       <c r="V219" s="7"/>
       <c r="W219" s="7"/>
     </row>
-    <row r="220" ht="16.5" spans="1:23">
+    <row r="220" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>217</v>
       </c>
@@ -13954,7 +13414,7 @@
       <c r="V220" s="7"/>
       <c r="W220" s="7"/>
     </row>
-    <row r="221" ht="16.5" spans="1:23">
+    <row r="221" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>218</v>
       </c>
@@ -13995,7 +13455,7 @@
       <c r="V221" s="7"/>
       <c r="W221" s="7"/>
     </row>
-    <row r="222" ht="16.5" spans="1:23">
+    <row r="222" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>219</v>
       </c>
@@ -14036,7 +13496,7 @@
       <c r="V222" s="7"/>
       <c r="W222" s="7"/>
     </row>
-    <row r="223" ht="16.5" spans="1:23">
+    <row r="223" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>220</v>
       </c>
@@ -14077,7 +13537,7 @@
       <c r="V223" s="7"/>
       <c r="W223" s="7"/>
     </row>
-    <row r="224" ht="16.5" spans="1:23">
+    <row r="224" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>221</v>
       </c>
@@ -14118,7 +13578,7 @@
       <c r="V224" s="7"/>
       <c r="W224" s="7"/>
     </row>
-    <row r="225" ht="16.5" spans="1:23">
+    <row r="225" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>222</v>
       </c>
@@ -14159,7 +13619,7 @@
       <c r="V225" s="7"/>
       <c r="W225" s="7"/>
     </row>
-    <row r="226" ht="16.5" spans="1:23">
+    <row r="226" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>223</v>
       </c>
@@ -14200,7 +13660,7 @@
       <c r="V226" s="7"/>
       <c r="W226" s="7"/>
     </row>
-    <row r="227" ht="16.5" spans="1:23">
+    <row r="227" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>224</v>
       </c>
@@ -14241,7 +13701,7 @@
       <c r="V227" s="7"/>
       <c r="W227" s="7"/>
     </row>
-    <row r="228" ht="16.5" spans="1:23">
+    <row r="228" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>225</v>
       </c>
@@ -14282,7 +13742,7 @@
       <c r="V228" s="7"/>
       <c r="W228" s="7"/>
     </row>
-    <row r="229" ht="16.5" spans="1:23">
+    <row r="229" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>226</v>
       </c>
@@ -14323,7 +13783,7 @@
       <c r="V229" s="7"/>
       <c r="W229" s="7"/>
     </row>
-    <row r="230" ht="16.5" spans="1:23">
+    <row r="230" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>227</v>
       </c>
@@ -14364,7 +13824,7 @@
       <c r="V230" s="7"/>
       <c r="W230" s="7"/>
     </row>
-    <row r="231" ht="16.5" spans="1:23">
+    <row r="231" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>228</v>
       </c>
@@ -14405,7 +13865,7 @@
       <c r="V231" s="7"/>
       <c r="W231" s="7"/>
     </row>
-    <row r="232" ht="16.5" spans="1:23">
+    <row r="232" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>229</v>
       </c>
@@ -14446,7 +13906,7 @@
       <c r="V232" s="7"/>
       <c r="W232" s="7"/>
     </row>
-    <row r="233" ht="16.5" spans="1:23">
+    <row r="233" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>230</v>
       </c>
@@ -14487,7 +13947,7 @@
       <c r="V233" s="7"/>
       <c r="W233" s="7"/>
     </row>
-    <row r="234" ht="16.5" spans="1:23">
+    <row r="234" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>231</v>
       </c>
@@ -14528,7 +13988,7 @@
       <c r="V234" s="7"/>
       <c r="W234" s="7"/>
     </row>
-    <row r="235" ht="16.5" spans="1:23">
+    <row r="235" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>232</v>
       </c>
@@ -14569,7 +14029,7 @@
       <c r="V235" s="7"/>
       <c r="W235" s="7"/>
     </row>
-    <row r="236" ht="16.5" spans="1:23">
+    <row r="236" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>233</v>
       </c>
@@ -14610,7 +14070,7 @@
       <c r="V236" s="7"/>
       <c r="W236" s="7"/>
     </row>
-    <row r="237" ht="16.5" spans="1:23">
+    <row r="237" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>234</v>
       </c>
@@ -14651,7 +14111,7 @@
       <c r="V237" s="7"/>
       <c r="W237" s="7"/>
     </row>
-    <row r="238" ht="16.5" spans="1:23">
+    <row r="238" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>235</v>
       </c>
@@ -14692,7 +14152,7 @@
       <c r="V238" s="7"/>
       <c r="W238" s="7"/>
     </row>
-    <row r="239" ht="16.5" spans="1:23">
+    <row r="239" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>236</v>
       </c>
@@ -14733,7 +14193,7 @@
       <c r="V239" s="7"/>
       <c r="W239" s="7"/>
     </row>
-    <row r="240" ht="16.5" spans="1:23">
+    <row r="240" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>237</v>
       </c>
@@ -14774,7 +14234,7 @@
       <c r="V240" s="7"/>
       <c r="W240" s="7"/>
     </row>
-    <row r="241" ht="16.5" spans="1:23">
+    <row r="241" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>238</v>
       </c>
@@ -14815,7 +14275,7 @@
       <c r="V241" s="7"/>
       <c r="W241" s="7"/>
     </row>
-    <row r="242" ht="16.5" spans="1:23">
+    <row r="242" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>239</v>
       </c>
@@ -14856,7 +14316,7 @@
       <c r="V242" s="7"/>
       <c r="W242" s="7"/>
     </row>
-    <row r="243" ht="16.5" spans="1:23">
+    <row r="243" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>240</v>
       </c>
@@ -14897,7 +14357,7 @@
       <c r="V243" s="7"/>
       <c r="W243" s="7"/>
     </row>
-    <row r="244" ht="16.5" spans="1:23">
+    <row r="244" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>241</v>
       </c>
@@ -14938,7 +14398,7 @@
       <c r="V244" s="7"/>
       <c r="W244" s="7"/>
     </row>
-    <row r="245" ht="16.5" spans="1:23">
+    <row r="245" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>242</v>
       </c>
@@ -14979,7 +14439,7 @@
       <c r="V245" s="7"/>
       <c r="W245" s="7"/>
     </row>
-    <row r="246" ht="16.5" spans="1:23">
+    <row r="246" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>243</v>
       </c>
@@ -15020,7 +14480,7 @@
       <c r="V246" s="7"/>
       <c r="W246" s="7"/>
     </row>
-    <row r="247" ht="16.5" spans="1:23">
+    <row r="247" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>244</v>
       </c>
@@ -15061,7 +14521,7 @@
       <c r="V247" s="7"/>
       <c r="W247" s="7"/>
     </row>
-    <row r="248" ht="16.5" spans="1:23">
+    <row r="248" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>245</v>
       </c>
@@ -15102,7 +14562,7 @@
       <c r="V248" s="7"/>
       <c r="W248" s="7"/>
     </row>
-    <row r="249" ht="16.5" spans="1:23">
+    <row r="249" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>246</v>
       </c>
@@ -15143,7 +14603,7 @@
       <c r="V249" s="7"/>
       <c r="W249" s="7"/>
     </row>
-    <row r="250" ht="16.5" spans="1:23">
+    <row r="250" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>247</v>
       </c>
@@ -15184,7 +14644,7 @@
       <c r="V250" s="7"/>
       <c r="W250" s="7"/>
     </row>
-    <row r="251" ht="16.5" spans="1:23">
+    <row r="251" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>248</v>
       </c>
@@ -15225,7 +14685,7 @@
       <c r="V251" s="7"/>
       <c r="W251" s="7"/>
     </row>
-    <row r="252" ht="16.5" spans="1:23">
+    <row r="252" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>249</v>
       </c>
@@ -15266,7 +14726,7 @@
       <c r="V252" s="7"/>
       <c r="W252" s="7"/>
     </row>
-    <row r="253" ht="16.5" spans="1:23">
+    <row r="253" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>250</v>
       </c>
@@ -15307,7 +14767,7 @@
       <c r="V253" s="7"/>
       <c r="W253" s="7"/>
     </row>
-    <row r="254" ht="16.5" spans="1:23">
+    <row r="254" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>251</v>
       </c>
@@ -15348,7 +14808,7 @@
       <c r="V254" s="7"/>
       <c r="W254" s="7"/>
     </row>
-    <row r="255" ht="16.5" spans="1:23">
+    <row r="255" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>252</v>
       </c>
@@ -15389,7 +14849,7 @@
       <c r="V255" s="7"/>
       <c r="W255" s="7"/>
     </row>
-    <row r="256" ht="16.5" spans="1:23">
+    <row r="256" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>253</v>
       </c>
@@ -15430,7 +14890,7 @@
       <c r="V256" s="7"/>
       <c r="W256" s="7"/>
     </row>
-    <row r="257" ht="16.5" spans="1:23">
+    <row r="257" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>254</v>
       </c>
@@ -15471,7 +14931,7 @@
       <c r="V257" s="7"/>
       <c r="W257" s="7"/>
     </row>
-    <row r="258" ht="16.5" spans="1:23">
+    <row r="258" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
         <v>255</v>
       </c>
@@ -15512,7 +14972,7 @@
       <c r="V258" s="7"/>
       <c r="W258" s="7"/>
     </row>
-    <row r="259" ht="16.5" spans="1:23">
+    <row r="259" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>256</v>
       </c>
@@ -15553,7 +15013,7 @@
       <c r="V259" s="7"/>
       <c r="W259" s="7"/>
     </row>
-    <row r="260" ht="16.5" spans="1:23">
+    <row r="260" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>257</v>
       </c>
@@ -15594,7 +15054,7 @@
       <c r="V260" s="7"/>
       <c r="W260" s="7"/>
     </row>
-    <row r="261" ht="16.5" spans="1:23">
+    <row r="261" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
         <v>258</v>
       </c>
@@ -15635,7 +15095,7 @@
       <c r="V261" s="7"/>
       <c r="W261" s="7"/>
     </row>
-    <row r="262" ht="16.5" spans="1:23">
+    <row r="262" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
         <v>259</v>
       </c>
@@ -15676,7 +15136,7 @@
       <c r="V262" s="7"/>
       <c r="W262" s="7"/>
     </row>
-    <row r="263" ht="16.5" spans="1:23">
+    <row r="263" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>260</v>
       </c>
@@ -15717,7 +15177,7 @@
       <c r="V263" s="7"/>
       <c r="W263" s="7"/>
     </row>
-    <row r="264" ht="16.5" spans="1:23">
+    <row r="264" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>261</v>
       </c>
@@ -15758,7 +15218,7 @@
       <c r="V264" s="7"/>
       <c r="W264" s="7"/>
     </row>
-    <row r="265" ht="16.5" spans="1:23">
+    <row r="265" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
         <v>262</v>
       </c>
@@ -15799,7 +15259,7 @@
       <c r="V265" s="7"/>
       <c r="W265" s="7"/>
     </row>
-    <row r="266" ht="16.5" spans="1:23">
+    <row r="266" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A266" s="7">
         <v>263</v>
       </c>
@@ -15840,7 +15300,7 @@
       <c r="V266" s="7"/>
       <c r="W266" s="7"/>
     </row>
-    <row r="267" ht="16.5" spans="1:23">
+    <row r="267" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>264</v>
       </c>
@@ -15881,7 +15341,7 @@
       <c r="V267" s="7"/>
       <c r="W267" s="7"/>
     </row>
-    <row r="268" ht="16.5" spans="1:23">
+    <row r="268" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>265</v>
       </c>
@@ -15922,7 +15382,7 @@
       <c r="V268" s="7"/>
       <c r="W268" s="7"/>
     </row>
-    <row r="269" ht="16.5" spans="1:23">
+    <row r="269" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="7">
         <v>266</v>
       </c>
@@ -15963,7 +15423,7 @@
       <c r="V269" s="7"/>
       <c r="W269" s="7"/>
     </row>
-    <row r="270" ht="16.5" spans="1:23">
+    <row r="270" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>267</v>
       </c>
@@ -16004,7 +15464,7 @@
       <c r="V270" s="7"/>
       <c r="W270" s="7"/>
     </row>
-    <row r="271" ht="16.5" spans="1:23">
+    <row r="271" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>268</v>
       </c>
@@ -16045,7 +15505,7 @@
       <c r="V271" s="7"/>
       <c r="W271" s="7"/>
     </row>
-    <row r="272" ht="16.5" spans="1:23">
+    <row r="272" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>269</v>
       </c>
@@ -16086,7 +15546,7 @@
       <c r="V272" s="7"/>
       <c r="W272" s="7"/>
     </row>
-    <row r="273" ht="16.5" spans="1:23">
+    <row r="273" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>270</v>
       </c>
@@ -16127,7 +15587,7 @@
       <c r="V273" s="7"/>
       <c r="W273" s="7"/>
     </row>
-    <row r="274" ht="16.5" spans="1:23">
+    <row r="274" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>271</v>
       </c>
@@ -16168,7 +15628,7 @@
       <c r="V274" s="7"/>
       <c r="W274" s="7"/>
     </row>
-    <row r="275" ht="16.5" spans="1:23">
+    <row r="275" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>272</v>
       </c>
@@ -16209,7 +15669,7 @@
       <c r="V275" s="7"/>
       <c r="W275" s="7"/>
     </row>
-    <row r="276" ht="16.5" spans="1:23">
+    <row r="276" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>273</v>
       </c>
@@ -16250,7 +15710,7 @@
       <c r="V276" s="7"/>
       <c r="W276" s="7"/>
     </row>
-    <row r="277" ht="16.5" spans="1:23">
+    <row r="277" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>274</v>
       </c>
@@ -16291,7 +15751,7 @@
       <c r="V277" s="7"/>
       <c r="W277" s="7"/>
     </row>
-    <row r="278" ht="16.5" spans="1:23">
+    <row r="278" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="7">
         <v>275</v>
       </c>
@@ -16332,7 +15792,7 @@
       <c r="V278" s="7"/>
       <c r="W278" s="7"/>
     </row>
-    <row r="279" ht="16.5" spans="1:23">
+    <row r="279" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>276</v>
       </c>
@@ -16373,7 +15833,7 @@
       <c r="V279" s="7"/>
       <c r="W279" s="7"/>
     </row>
-    <row r="280" ht="16.5" spans="1:23">
+    <row r="280" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>277</v>
       </c>
@@ -16414,7 +15874,7 @@
       <c r="V280" s="7"/>
       <c r="W280" s="7"/>
     </row>
-    <row r="281" ht="16.5" spans="1:23">
+    <row r="281" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>278</v>
       </c>
@@ -16455,7 +15915,7 @@
       <c r="V281" s="7"/>
       <c r="W281" s="7"/>
     </row>
-    <row r="282" ht="16.5" spans="1:23">
+    <row r="282" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>279</v>
       </c>
@@ -16496,7 +15956,7 @@
       <c r="V282" s="7"/>
       <c r="W282" s="7"/>
     </row>
-    <row r="283" ht="16.5" spans="1:23">
+    <row r="283" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>280</v>
       </c>
@@ -16537,7 +15997,7 @@
       <c r="V283" s="7"/>
       <c r="W283" s="7"/>
     </row>
-    <row r="284" ht="16.5" spans="1:23">
+    <row r="284" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>281</v>
       </c>
@@ -16578,7 +16038,7 @@
       <c r="V284" s="7"/>
       <c r="W284" s="7"/>
     </row>
-    <row r="285" ht="16.5" spans="1:23">
+    <row r="285" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>282</v>
       </c>
@@ -16619,7 +16079,7 @@
       <c r="V285" s="7"/>
       <c r="W285" s="7"/>
     </row>
-    <row r="286" ht="16.5" spans="1:23">
+    <row r="286" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>283</v>
       </c>
@@ -16660,7 +16120,7 @@
       <c r="V286" s="7"/>
       <c r="W286" s="7"/>
     </row>
-    <row r="287" ht="16.5" spans="1:23">
+    <row r="287" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>284</v>
       </c>
@@ -16701,7 +16161,7 @@
       <c r="V287" s="7"/>
       <c r="W287" s="7"/>
     </row>
-    <row r="288" ht="16.5" spans="1:23">
+    <row r="288" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>285</v>
       </c>
@@ -16742,7 +16202,7 @@
       <c r="V288" s="7"/>
       <c r="W288" s="7"/>
     </row>
-    <row r="289" ht="16.5" spans="1:23">
+    <row r="289" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>286</v>
       </c>
@@ -16783,7 +16243,7 @@
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
     </row>
-    <row r="290" ht="16.5" spans="1:23">
+    <row r="290" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>287</v>
       </c>
@@ -16824,7 +16284,7 @@
       <c r="V290" s="7"/>
       <c r="W290" s="7"/>
     </row>
-    <row r="291" ht="16.5" spans="1:23">
+    <row r="291" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>288</v>
       </c>
@@ -16865,7 +16325,7 @@
       <c r="V291" s="7"/>
       <c r="W291" s="7"/>
     </row>
-    <row r="292" ht="16.5" spans="1:23">
+    <row r="292" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>289</v>
       </c>
@@ -16906,7 +16366,7 @@
       <c r="V292" s="7"/>
       <c r="W292" s="7"/>
     </row>
-    <row r="293" ht="16.5" spans="1:23">
+    <row r="293" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>290</v>
       </c>
@@ -16947,7 +16407,7 @@
       <c r="V293" s="7"/>
       <c r="W293" s="7"/>
     </row>
-    <row r="294" ht="16.5" spans="1:23">
+    <row r="294" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>291</v>
       </c>
@@ -16988,7 +16448,7 @@
       <c r="V294" s="7"/>
       <c r="W294" s="7"/>
     </row>
-    <row r="295" ht="16.5" spans="1:23">
+    <row r="295" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>292</v>
       </c>
@@ -17029,7 +16489,7 @@
       <c r="V295" s="7"/>
       <c r="W295" s="7"/>
     </row>
-    <row r="296" ht="16.5" spans="1:23">
+    <row r="296" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>293</v>
       </c>
@@ -17070,7 +16530,7 @@
       <c r="V296" s="7"/>
       <c r="W296" s="7"/>
     </row>
-    <row r="297" ht="16.5" spans="1:23">
+    <row r="297" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>294</v>
       </c>
@@ -17111,7 +16571,7 @@
       <c r="V297" s="7"/>
       <c r="W297" s="7"/>
     </row>
-    <row r="298" ht="16.5" spans="1:23">
+    <row r="298" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
         <v>295</v>
       </c>
@@ -17152,7 +16612,7 @@
       <c r="V298" s="7"/>
       <c r="W298" s="7"/>
     </row>
-    <row r="299" ht="16.5" spans="1:23">
+    <row r="299" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>296</v>
       </c>
@@ -17193,7 +16653,7 @@
       <c r="V299" s="7"/>
       <c r="W299" s="7"/>
     </row>
-    <row r="300" ht="16.5" spans="1:23">
+    <row r="300" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>297</v>
       </c>
@@ -17234,7 +16694,7 @@
       <c r="V300" s="7"/>
       <c r="W300" s="7"/>
     </row>
-    <row r="301" ht="16.5" spans="1:23">
+    <row r="301" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
         <v>298</v>
       </c>
@@ -17275,7 +16735,7 @@
       <c r="V301" s="7"/>
       <c r="W301" s="7"/>
     </row>
-    <row r="302" ht="16.5" spans="1:23">
+    <row r="302" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
         <v>299</v>
       </c>
@@ -17316,7 +16776,7 @@
       <c r="V302" s="7"/>
       <c r="W302" s="7"/>
     </row>
-    <row r="303" ht="16.5" spans="1:23">
+    <row r="303" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>300</v>
       </c>
@@ -17357,7 +16817,7 @@
       <c r="V303" s="7"/>
       <c r="W303" s="7"/>
     </row>
-    <row r="304" ht="16.5" spans="1:23">
+    <row r="304" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>301</v>
       </c>
@@ -17398,7 +16858,7 @@
       <c r="V304" s="7"/>
       <c r="W304" s="7"/>
     </row>
-    <row r="305" ht="16.5" spans="1:23">
+    <row r="305" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>302</v>
       </c>
@@ -17439,7 +16899,7 @@
       <c r="V305" s="7"/>
       <c r="W305" s="7"/>
     </row>
-    <row r="306" ht="16.5" spans="1:23">
+    <row r="306" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
         <v>303</v>
       </c>
@@ -17480,7 +16940,7 @@
       <c r="V306" s="7"/>
       <c r="W306" s="7"/>
     </row>
-    <row r="307" ht="16.5" spans="1:23">
+    <row r="307" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
         <v>304</v>
       </c>
@@ -17521,7 +16981,7 @@
       <c r="V307" s="7"/>
       <c r="W307" s="7"/>
     </row>
-    <row r="308" ht="16.5" spans="1:23">
+    <row r="308" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
         <v>305</v>
       </c>
@@ -17562,7 +17022,7 @@
       <c r="V308" s="7"/>
       <c r="W308" s="7"/>
     </row>
-    <row r="309" ht="16.5" spans="1:23">
+    <row r="309" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
         <v>306</v>
       </c>
@@ -17603,7 +17063,7 @@
       <c r="V309" s="7"/>
       <c r="W309" s="7"/>
     </row>
-    <row r="310" ht="16.5" spans="1:23">
+    <row r="310" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
         <v>307</v>
       </c>
@@ -17644,7 +17104,7 @@
       <c r="V310" s="7"/>
       <c r="W310" s="7"/>
     </row>
-    <row r="311" ht="16.5" spans="1:23">
+    <row r="311" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
         <v>308</v>
       </c>
@@ -17685,7 +17145,7 @@
       <c r="V311" s="7"/>
       <c r="W311" s="7"/>
     </row>
-    <row r="312" ht="16.5" spans="1:23">
+    <row r="312" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A312" s="7">
         <v>309</v>
       </c>
@@ -17726,7 +17186,7 @@
       <c r="V312" s="7"/>
       <c r="W312" s="7"/>
     </row>
-    <row r="313" ht="16.5" spans="1:23">
+    <row r="313" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A313" s="7">
         <v>310</v>
       </c>
@@ -17767,7 +17227,7 @@
       <c r="V313" s="7"/>
       <c r="W313" s="7"/>
     </row>
-    <row r="314" ht="16.5" spans="1:23">
+    <row r="314" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A314" s="7">
         <v>311</v>
       </c>
@@ -17808,7 +17268,7 @@
       <c r="V314" s="7"/>
       <c r="W314" s="7"/>
     </row>
-    <row r="315" ht="16.5" spans="1:23">
+    <row r="315" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A315" s="7">
         <v>312</v>
       </c>
@@ -17853,7 +17313,7 @@
       <c r="V315" s="7"/>
       <c r="W315" s="7"/>
     </row>
-    <row r="316" ht="16.5" spans="1:23">
+    <row r="316" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A316" s="7">
         <v>313</v>
       </c>
@@ -17898,7 +17358,7 @@
       <c r="V316" s="7"/>
       <c r="W316" s="7"/>
     </row>
-    <row r="317" ht="16.5" spans="1:23">
+    <row r="317" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A317" s="7">
         <v>314</v>
       </c>
@@ -17943,7 +17403,7 @@
       <c r="V317" s="7"/>
       <c r="W317" s="7"/>
     </row>
-    <row r="318" ht="16.5" spans="1:23">
+    <row r="318" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A318" s="7">
         <v>315</v>
       </c>
@@ -17988,7 +17448,7 @@
       <c r="V318" s="7"/>
       <c r="W318" s="7"/>
     </row>
-    <row r="319" ht="16.5" spans="1:23">
+    <row r="319" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A319" s="7">
         <v>316</v>
       </c>
@@ -18033,7 +17493,7 @@
       <c r="V319" s="7"/>
       <c r="W319" s="7"/>
     </row>
-    <row r="320" ht="16.5" spans="1:23">
+    <row r="320" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A320" s="7">
         <v>317</v>
       </c>
@@ -18078,7 +17538,7 @@
       <c r="V320" s="7"/>
       <c r="W320" s="7"/>
     </row>
-    <row r="321" ht="16.5" spans="1:23">
+    <row r="321" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A321" s="7">
         <v>318</v>
       </c>
@@ -18123,7 +17583,7 @@
       <c r="V321" s="7"/>
       <c r="W321" s="7"/>
     </row>
-    <row r="322" ht="16.5" spans="1:23">
+    <row r="322" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A322" s="7">
         <v>319</v>
       </c>
@@ -18168,7 +17628,7 @@
       <c r="V322" s="7"/>
       <c r="W322" s="7"/>
     </row>
-    <row r="323" ht="16.5" spans="1:23">
+    <row r="323" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A323" s="7">
         <v>320</v>
       </c>
@@ -18213,7 +17673,7 @@
       <c r="V323" s="7"/>
       <c r="W323" s="7"/>
     </row>
-    <row r="324" ht="16.5" spans="1:23">
+    <row r="324" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A324" s="7">
         <v>321</v>
       </c>
@@ -18258,7 +17718,7 @@
       <c r="V324" s="7"/>
       <c r="W324" s="7"/>
     </row>
-    <row r="325" ht="16.5" spans="1:23">
+    <row r="325" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A325" s="7">
         <v>322</v>
       </c>
@@ -18303,7 +17763,7 @@
       <c r="V325" s="7"/>
       <c r="W325" s="7"/>
     </row>
-    <row r="326" ht="16.5" spans="1:23">
+    <row r="326" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A326" s="7">
         <v>323</v>
       </c>
@@ -18348,7 +17808,7 @@
       <c r="V326" s="7"/>
       <c r="W326" s="7"/>
     </row>
-    <row r="327" ht="16.5" spans="1:23">
+    <row r="327" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A327" s="7">
         <v>324</v>
       </c>
@@ -18393,7 +17853,7 @@
       <c r="V327" s="7"/>
       <c r="W327" s="7"/>
     </row>
-    <row r="328" ht="16.5" spans="1:23">
+    <row r="328" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A328" s="7">
         <v>325</v>
       </c>
@@ -18438,7 +17898,7 @@
       <c r="V328" s="7"/>
       <c r="W328" s="7"/>
     </row>
-    <row r="329" ht="16.5" spans="1:23">
+    <row r="329" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A329" s="7">
         <v>326</v>
       </c>
@@ -18483,7 +17943,7 @@
       <c r="V329" s="7"/>
       <c r="W329" s="7"/>
     </row>
-    <row r="330" ht="16.5" spans="1:23">
+    <row r="330" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A330" s="7">
         <v>327</v>
       </c>
@@ -18528,7 +17988,7 @@
       <c r="V330" s="7"/>
       <c r="W330" s="7"/>
     </row>
-    <row r="331" ht="16.5" spans="1:23">
+    <row r="331" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A331" s="7">
         <v>328</v>
       </c>
@@ -18573,7 +18033,7 @@
       <c r="V331" s="7"/>
       <c r="W331" s="7"/>
     </row>
-    <row r="332" ht="16.5" spans="1:23">
+    <row r="332" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A332" s="7">
         <v>329</v>
       </c>
@@ -18618,7 +18078,7 @@
       <c r="V332" s="7"/>
       <c r="W332" s="7"/>
     </row>
-    <row r="333" ht="16.5" spans="1:23">
+    <row r="333" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A333" s="7">
         <v>330</v>
       </c>
@@ -18663,7 +18123,7 @@
       <c r="V333" s="7"/>
       <c r="W333" s="7"/>
     </row>
-    <row r="334" ht="16.5" spans="1:23">
+    <row r="334" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A334" s="7">
         <v>331</v>
       </c>
@@ -18708,7 +18168,7 @@
       <c r="V334" s="7"/>
       <c r="W334" s="7"/>
     </row>
-    <row r="335" ht="16.5" spans="1:23">
+    <row r="335" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A335" s="7">
         <v>332</v>
       </c>
@@ -18753,7 +18213,7 @@
       <c r="V335" s="7"/>
       <c r="W335" s="7"/>
     </row>
-    <row r="336" ht="16.5" spans="1:23">
+    <row r="336" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A336" s="7">
         <v>333</v>
       </c>
@@ -18798,7 +18258,7 @@
       <c r="V336" s="7"/>
       <c r="W336" s="7"/>
     </row>
-    <row r="337" ht="16.5" spans="1:23">
+    <row r="337" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A337" s="7">
         <v>334</v>
       </c>
@@ -18843,7 +18303,7 @@
       <c r="V337" s="7"/>
       <c r="W337" s="7"/>
     </row>
-    <row r="338" ht="16.5" spans="1:23">
+    <row r="338" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A338" s="7">
         <v>335</v>
       </c>
@@ -18888,7 +18348,7 @@
       <c r="V338" s="7"/>
       <c r="W338" s="7"/>
     </row>
-    <row r="339" ht="16.5" spans="1:23">
+    <row r="339" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A339" s="7">
         <v>336</v>
       </c>
@@ -18933,7 +18393,7 @@
       <c r="V339" s="7"/>
       <c r="W339" s="7"/>
     </row>
-    <row r="340" ht="16.5" spans="1:23">
+    <row r="340" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A340" s="7">
         <v>337</v>
       </c>
@@ -18976,7 +18436,7 @@
       <c r="V340" s="7"/>
       <c r="W340" s="7"/>
     </row>
-    <row r="341" ht="16.5" spans="1:23">
+    <row r="341" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A341" s="7">
         <v>338</v>
       </c>
@@ -19019,7 +18479,7 @@
       <c r="V341" s="7"/>
       <c r="W341" s="7"/>
     </row>
-    <row r="342" ht="16.5" spans="1:23">
+    <row r="342" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A342" s="7">
         <v>339</v>
       </c>
@@ -19062,7 +18522,7 @@
       <c r="V342" s="7"/>
       <c r="W342" s="7"/>
     </row>
-    <row r="343" ht="16.5" spans="1:23">
+    <row r="343" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A343" s="7">
         <v>340</v>
       </c>
@@ -19105,7 +18565,7 @@
       <c r="V343" s="7"/>
       <c r="W343" s="7"/>
     </row>
-    <row r="344" ht="16.5" spans="1:23">
+    <row r="344" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A344" s="7">
         <v>341</v>
       </c>
@@ -19148,7 +18608,7 @@
       <c r="V344" s="7"/>
       <c r="W344" s="7"/>
     </row>
-    <row r="345" ht="16.5" spans="1:23">
+    <row r="345" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A345" s="7">
         <v>342</v>
       </c>
@@ -19191,7 +18651,7 @@
       <c r="V345" s="7"/>
       <c r="W345" s="7"/>
     </row>
-    <row r="346" ht="16.5" spans="1:23">
+    <row r="346" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A346" s="7">
         <v>343</v>
       </c>
@@ -19234,7 +18694,7 @@
       <c r="V346" s="7"/>
       <c r="W346" s="7"/>
     </row>
-    <row r="347" ht="16.5" spans="1:23">
+    <row r="347" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A347" s="7">
         <v>344</v>
       </c>
@@ -19277,7 +18737,7 @@
       <c r="V347" s="7"/>
       <c r="W347" s="7"/>
     </row>
-    <row r="348" ht="16.5" spans="1:23">
+    <row r="348" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A348" s="7">
         <v>345</v>
       </c>
@@ -19320,7 +18780,7 @@
       <c r="V348" s="7"/>
       <c r="W348" s="7"/>
     </row>
-    <row r="349" ht="16.5" spans="1:23">
+    <row r="349" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A349" s="7">
         <v>346</v>
       </c>
@@ -19363,7 +18823,7 @@
       <c r="V349" s="7"/>
       <c r="W349" s="7"/>
     </row>
-    <row r="350" ht="16.5" spans="1:23">
+    <row r="350" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A350" s="7">
         <v>347</v>
       </c>
@@ -19406,7 +18866,7 @@
       <c r="V350" s="7"/>
       <c r="W350" s="7"/>
     </row>
-    <row r="351" ht="16.5" spans="1:23">
+    <row r="351" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A351" s="7">
         <v>348</v>
       </c>
@@ -19447,7 +18907,7 @@
       <c r="V351" s="7"/>
       <c r="W351" s="7"/>
     </row>
-    <row r="352" ht="16.5" spans="1:23">
+    <row r="352" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A352" s="7">
         <v>349</v>
       </c>
@@ -19488,7 +18948,7 @@
       <c r="V352" s="7"/>
       <c r="W352" s="7"/>
     </row>
-    <row r="353" ht="16.5" spans="1:23">
+    <row r="353" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A353" s="7">
         <v>350</v>
       </c>
@@ -19529,7 +18989,7 @@
       <c r="V353" s="7"/>
       <c r="W353" s="7"/>
     </row>
-    <row r="354" ht="16.5" spans="1:23">
+    <row r="354" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A354" s="7">
         <v>351</v>
       </c>
@@ -19570,7 +19030,7 @@
       <c r="V354" s="7"/>
       <c r="W354" s="7"/>
     </row>
-    <row r="355" ht="16.5" spans="1:23">
+    <row r="355" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A355" s="7">
         <v>352</v>
       </c>
@@ -19611,7 +19071,7 @@
       <c r="V355" s="7"/>
       <c r="W355" s="7"/>
     </row>
-    <row r="356" ht="16.5" spans="1:23">
+    <row r="356" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A356" s="7">
         <v>353</v>
       </c>
@@ -19652,7 +19112,7 @@
       <c r="V356" s="14"/>
       <c r="W356" s="14"/>
     </row>
-    <row r="357" ht="16.5" spans="1:23">
+    <row r="357" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A357" s="7">
         <v>354</v>
       </c>
@@ -19693,7 +19153,7 @@
       <c r="V357" s="14"/>
       <c r="W357" s="14"/>
     </row>
-    <row r="358" ht="16.5" spans="1:23">
+    <row r="358" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A358" s="7">
         <v>355</v>
       </c>
@@ -19734,7 +19194,7 @@
       <c r="V358" s="14"/>
       <c r="W358" s="14"/>
     </row>
-    <row r="359" ht="16.5" spans="1:23">
+    <row r="359" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A359" s="7">
         <v>356</v>
       </c>
@@ -19775,7 +19235,7 @@
       <c r="V359" s="14"/>
       <c r="W359" s="14"/>
     </row>
-    <row r="360" ht="16.5" spans="1:23">
+    <row r="360" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A360" s="7">
         <v>357</v>
       </c>
@@ -19816,7 +19276,7 @@
       <c r="V360" s="14"/>
       <c r="W360" s="14"/>
     </row>
-    <row r="361" ht="16.5" spans="1:23">
+    <row r="361" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A361" s="7">
         <v>358</v>
       </c>
@@ -19857,7 +19317,7 @@
       <c r="V361" s="14"/>
       <c r="W361" s="14"/>
     </row>
-    <row r="362" ht="16.5" spans="1:23">
+    <row r="362" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A362" s="7">
         <v>359</v>
       </c>
@@ -19898,7 +19358,7 @@
       <c r="V362" s="14"/>
       <c r="W362" s="14"/>
     </row>
-    <row r="363" ht="16.5" spans="1:23">
+    <row r="363" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A363" s="7">
         <v>360</v>
       </c>
@@ -19939,7 +19399,7 @@
       <c r="V363" s="14"/>
       <c r="W363" s="14"/>
     </row>
-    <row r="364" ht="16.5" spans="1:23">
+    <row r="364" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A364" s="7">
         <v>361</v>
       </c>
@@ -19980,7 +19440,7 @@
       <c r="V364" s="14"/>
       <c r="W364" s="14"/>
     </row>
-    <row r="365" ht="16.5" spans="1:23">
+    <row r="365" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A365" s="7">
         <v>362</v>
       </c>
@@ -20021,7 +19481,7 @@
       <c r="V365" s="14"/>
       <c r="W365" s="14"/>
     </row>
-    <row r="366" ht="16.5" spans="1:23">
+    <row r="366" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A366" s="7">
         <v>363</v>
       </c>
@@ -20062,7 +19522,7 @@
       <c r="V366" s="14"/>
       <c r="W366" s="14"/>
     </row>
-    <row r="367" ht="16.5" spans="1:23">
+    <row r="367" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A367" s="7">
         <v>364</v>
       </c>
@@ -20103,7 +19563,7 @@
       <c r="V367" s="14"/>
       <c r="W367" s="14"/>
     </row>
-    <row r="368" ht="16.5" spans="1:23">
+    <row r="368" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A368" s="7">
         <v>365</v>
       </c>
@@ -20144,7 +19604,7 @@
       <c r="V368" s="13"/>
       <c r="W368" s="13"/>
     </row>
-    <row r="369" ht="16.5" spans="1:23">
+    <row r="369" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A369" s="7">
         <v>366</v>
       </c>
@@ -20185,7 +19645,7 @@
       <c r="V369" s="13"/>
       <c r="W369" s="13"/>
     </row>
-    <row r="370" ht="16.5" spans="1:23">
+    <row r="370" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A370" s="7">
         <v>367</v>
       </c>
@@ -20226,7 +19686,7 @@
       <c r="V370" s="13"/>
       <c r="W370" s="13"/>
     </row>
-    <row r="371" ht="16.5" spans="1:23">
+    <row r="371" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A371" s="7">
         <v>368</v>
       </c>
@@ -20279,7 +19739,7 @@
       </c>
       <c r="W371" s="7"/>
     </row>
-    <row r="372" ht="16.5" spans="1:23">
+    <row r="372" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A372" s="7">
         <v>369</v>
       </c>
@@ -20320,7 +19780,7 @@
       <c r="V372" s="7"/>
       <c r="W372" s="7"/>
     </row>
-    <row r="373" ht="16.5" spans="1:23">
+    <row r="373" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A373" s="7">
         <v>370</v>
       </c>
@@ -20361,7 +19821,7 @@
       <c r="V373" s="7"/>
       <c r="W373" s="7"/>
     </row>
-    <row r="374" ht="16.5" spans="1:23">
+    <row r="374" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A374" s="7">
         <v>371</v>
       </c>
@@ -20402,7 +19862,7 @@
       <c r="V374" s="7"/>
       <c r="W374" s="7"/>
     </row>
-    <row r="375" ht="15" customHeight="1" spans="1:23">
+    <row r="375" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="7">
         <v>372</v>
       </c>
@@ -20443,7 +19903,7 @@
       <c r="V375" s="7"/>
       <c r="W375" s="7"/>
     </row>
-    <row r="376" ht="16.5" spans="1:23">
+    <row r="376" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A376" s="7">
         <v>373</v>
       </c>
@@ -20484,7 +19944,7 @@
       <c r="V376" s="7"/>
       <c r="W376" s="7"/>
     </row>
-    <row r="377" ht="16.5" spans="1:23">
+    <row r="377" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A377" s="7">
         <v>374</v>
       </c>
@@ -20525,7 +19985,7 @@
       <c r="V377" s="7"/>
       <c r="W377" s="7"/>
     </row>
-    <row r="378" ht="16.5" spans="1:23">
+    <row r="378" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A378" s="7">
         <v>375</v>
       </c>
@@ -20566,7 +20026,7 @@
       <c r="V378" s="7"/>
       <c r="W378" s="7"/>
     </row>
-    <row r="379" ht="16.5" spans="1:23">
+    <row r="379" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A379" s="7">
         <v>376</v>
       </c>
@@ -20607,7 +20067,7 @@
       <c r="V379" s="7"/>
       <c r="W379" s="7"/>
     </row>
-    <row r="380" ht="16.5" spans="1:23">
+    <row r="380" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A380" s="7">
         <v>377</v>
       </c>
@@ -20648,7 +20108,7 @@
       <c r="V380" s="7"/>
       <c r="W380" s="7"/>
     </row>
-    <row r="381" ht="16.5" spans="1:23">
+    <row r="381" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A381" s="7">
         <v>378</v>
       </c>
@@ -20689,7 +20149,7 @@
       <c r="V381" s="7"/>
       <c r="W381" s="7"/>
     </row>
-    <row r="382" ht="16.5" spans="1:23">
+    <row r="382" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A382" s="7">
         <v>379</v>
       </c>
@@ -20730,7 +20190,7 @@
       <c r="V382" s="7"/>
       <c r="W382" s="7"/>
     </row>
-    <row r="383" ht="16.5" spans="1:23">
+    <row r="383" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A383" s="7">
         <v>380</v>
       </c>
@@ -20771,7 +20231,7 @@
       <c r="V383" s="7"/>
       <c r="W383" s="7"/>
     </row>
-    <row r="384" ht="16.5" spans="1:23">
+    <row r="384" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A384" s="7">
         <v>381</v>
       </c>
@@ -20812,7 +20272,7 @@
       <c r="V384" s="12"/>
       <c r="W384" s="12"/>
     </row>
-    <row r="385" ht="16.5" spans="1:23">
+    <row r="385" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A385" s="7">
         <v>382</v>
       </c>
@@ -20853,7 +20313,7 @@
       <c r="V385" s="7"/>
       <c r="W385" s="7"/>
     </row>
-    <row r="386" ht="16.5" spans="1:23">
+    <row r="386" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A386" s="7">
         <v>383</v>
       </c>
@@ -20894,7 +20354,7 @@
       <c r="V386" s="7"/>
       <c r="W386" s="7"/>
     </row>
-    <row r="387" ht="16.5" spans="1:23">
+    <row r="387" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A387" s="7">
         <v>384</v>
       </c>
@@ -20935,7 +20395,7 @@
       <c r="V387" s="7"/>
       <c r="W387" s="7"/>
     </row>
-    <row r="388" ht="16.5" spans="1:23">
+    <row r="388" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A388" s="7">
         <v>385</v>
       </c>
@@ -20976,7 +20436,7 @@
       <c r="V388" s="7"/>
       <c r="W388" s="7"/>
     </row>
-    <row r="389" ht="16.5" spans="1:23">
+    <row r="389" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A389" s="7">
         <v>386</v>
       </c>
@@ -21017,7 +20477,7 @@
       <c r="V389" s="7"/>
       <c r="W389" s="7"/>
     </row>
-    <row r="390" ht="16.5" spans="1:23">
+    <row r="390" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A390" s="7">
         <v>387</v>
       </c>
@@ -21058,7 +20518,7 @@
       <c r="V390" s="7"/>
       <c r="W390" s="7"/>
     </row>
-    <row r="391" ht="16.5" spans="1:23">
+    <row r="391" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A391" s="7">
         <v>388</v>
       </c>
@@ -21099,7 +20559,7 @@
       <c r="V391" s="7"/>
       <c r="W391" s="7"/>
     </row>
-    <row r="392" ht="16.5" spans="1:23">
+    <row r="392" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A392" s="7">
         <v>389</v>
       </c>
@@ -21140,7 +20600,7 @@
       <c r="V392" s="7"/>
       <c r="W392" s="7"/>
     </row>
-    <row r="393" ht="16.5" spans="1:23">
+    <row r="393" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A393" s="7">
         <v>390</v>
       </c>
@@ -21181,7 +20641,7 @@
       <c r="V393" s="7"/>
       <c r="W393" s="7"/>
     </row>
-    <row r="394" ht="16.5" spans="1:23">
+    <row r="394" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A394" s="7">
         <v>391</v>
       </c>
@@ -21222,7 +20682,7 @@
       <c r="V394" s="7"/>
       <c r="W394" s="7"/>
     </row>
-    <row r="395" ht="16.5" spans="1:23">
+    <row r="395" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A395" s="7">
         <v>392</v>
       </c>
@@ -21265,7 +20725,7 @@
       <c r="V395" s="7"/>
       <c r="W395" s="7"/>
     </row>
-    <row r="396" ht="16.5" spans="1:23">
+    <row r="396" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A396" s="7">
         <v>393</v>
       </c>
@@ -21308,7 +20768,7 @@
       <c r="V396" s="7"/>
       <c r="W396" s="7"/>
     </row>
-    <row r="397" ht="16.5" spans="1:23">
+    <row r="397" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A397" s="7">
         <v>394</v>
       </c>
@@ -21351,7 +20811,7 @@
       <c r="V397" s="7"/>
       <c r="W397" s="7"/>
     </row>
-    <row r="398" ht="16.5" spans="1:23">
+    <row r="398" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A398" s="7">
         <v>395</v>
       </c>
@@ -21394,7 +20854,7 @@
       <c r="V398" s="7"/>
       <c r="W398" s="7"/>
     </row>
-    <row r="399" ht="16.5" spans="1:23">
+    <row r="399" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A399" s="7">
         <v>396</v>
       </c>
@@ -21437,7 +20897,7 @@
       <c r="V399" s="7"/>
       <c r="W399" s="7"/>
     </row>
-    <row r="400" ht="16.5" spans="1:23">
+    <row r="400" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A400" s="7">
         <v>397</v>
       </c>
@@ -21480,7 +20940,7 @@
       <c r="V400" s="7"/>
       <c r="W400" s="7"/>
     </row>
-    <row r="401" ht="16.5" spans="1:23">
+    <row r="401" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A401" s="7">
         <v>398</v>
       </c>
@@ -21523,7 +20983,7 @@
       <c r="V401" s="7"/>
       <c r="W401" s="7"/>
     </row>
-    <row r="402" ht="16.5" spans="1:23">
+    <row r="402" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A402" s="7">
         <v>399</v>
       </c>
@@ -21566,7 +21026,7 @@
       <c r="V402" s="7"/>
       <c r="W402" s="7"/>
     </row>
-    <row r="403" ht="16.5" spans="1:23">
+    <row r="403" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A403" s="7">
         <v>400</v>
       </c>
@@ -21609,7 +21069,7 @@
       <c r="V403" s="7"/>
       <c r="W403" s="7"/>
     </row>
-    <row r="404" ht="16.5" spans="1:23">
+    <row r="404" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A404" s="7">
         <v>401</v>
       </c>
@@ -21652,7 +21112,7 @@
       <c r="V404" s="7"/>
       <c r="W404" s="7"/>
     </row>
-    <row r="405" ht="16.5" spans="1:23">
+    <row r="405" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A405" s="7">
         <v>402</v>
       </c>
@@ -21693,7 +21153,7 @@
       <c r="V405" s="7"/>
       <c r="W405" s="7"/>
     </row>
-    <row r="406" ht="16.5" spans="1:23">
+    <row r="406" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A406" s="7">
         <v>403</v>
       </c>
@@ -21734,7 +21194,7 @@
       <c r="V406" s="7"/>
       <c r="W406" s="7"/>
     </row>
-    <row r="407" ht="16.5" spans="1:23">
+    <row r="407" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A407" s="7">
         <v>404</v>
       </c>
@@ -21775,7 +21235,7 @@
       <c r="V407" s="7"/>
       <c r="W407" s="7"/>
     </row>
-    <row r="408" ht="16.5" spans="1:23">
+    <row r="408" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A408" s="7">
         <v>405</v>
       </c>
@@ -21816,7 +21276,7 @@
       <c r="V408" s="7"/>
       <c r="W408" s="7"/>
     </row>
-    <row r="409" ht="16.5" spans="1:23">
+    <row r="409" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A409" s="7">
         <v>406</v>
       </c>
@@ -21857,7 +21317,7 @@
       <c r="V409" s="7"/>
       <c r="W409" s="7"/>
     </row>
-    <row r="410" ht="16.5" spans="1:23">
+    <row r="410" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A410" s="7">
         <v>407</v>
       </c>
@@ -21898,7 +21358,7 @@
       <c r="V410" s="7"/>
       <c r="W410" s="7"/>
     </row>
-    <row r="411" ht="16.5" spans="1:23">
+    <row r="411" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A411" s="7">
         <v>408</v>
       </c>
@@ -21939,7 +21399,7 @@
       <c r="V411" s="7"/>
       <c r="W411" s="7"/>
     </row>
-    <row r="412" ht="16.5" spans="1:23">
+    <row r="412" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A412" s="7">
         <v>409</v>
       </c>
@@ -21981,26 +21441,23 @@
       <c r="W412" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E412">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="E1:E412" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="M157" sqref="M157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -22009,7 +21466,7 @@
     <col min="9" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:14">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -22053,7 +21510,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -22097,7 +21554,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:14">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
@@ -22141,7 +21598,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:14">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -22179,7 +21636,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" ht="16.5" spans="1:14">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -22217,7 +21674,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" ht="16.5" spans="1:14">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -22255,7 +21712,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" ht="16.5" spans="1:14">
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -22293,7 +21750,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" ht="16.5" spans="1:14">
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -22331,7 +21788,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" ht="16.5" spans="1:14">
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -22369,7 +21826,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" ht="16.5" spans="1:14">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -22407,7 +21864,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" ht="16.5" spans="1:14">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -22445,7 +21902,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" ht="16.5" spans="1:14">
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -22483,7 +21940,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" ht="16.5" spans="1:14">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -22521,7 +21978,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" ht="16.5" spans="1:14">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -22559,7 +22016,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" ht="16.5" spans="1:14">
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -22597,7 +22054,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" ht="16.5" spans="1:14">
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -22635,7 +22092,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" ht="16.5" spans="1:14">
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -22673,7 +22130,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" ht="16.5" spans="1:14">
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -22711,7 +22168,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" ht="16.5" spans="1:14">
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -22749,7 +22206,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" ht="16.5" spans="1:14">
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -22787,7 +22244,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" ht="16.5" spans="1:14">
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -22825,7 +22282,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" ht="16.5" spans="1:14">
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -22863,7 +22320,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" ht="16.5" spans="1:14">
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -22901,7 +22358,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" ht="16.5" spans="1:14">
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -22939,7 +22396,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" ht="16.5" spans="1:14">
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -22977,7 +22434,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" ht="16.5" spans="1:14">
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -23015,7 +22472,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" ht="16.5" spans="1:14">
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -23053,7 +22510,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" ht="16.5" spans="1:14">
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -23091,7 +22548,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" ht="16.5" spans="1:14">
+    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -23129,7 +22586,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" ht="16.5" spans="1:14">
+    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -23167,7 +22624,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" ht="16.5" spans="1:14">
+    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -23205,7 +22662,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" ht="16.5" spans="1:14">
+    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -23243,7 +22700,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" ht="16.5" spans="1:14">
+    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -23281,7 +22738,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" ht="16.5" spans="1:14">
+    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -23319,7 +22776,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" ht="16.5" spans="1:14">
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -23357,7 +22814,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" ht="16.5" spans="1:14">
+    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -23395,7 +22852,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" ht="16.5" spans="1:14">
+    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -23433,7 +22890,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" ht="16.5" spans="1:14">
+    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -23471,7 +22928,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" ht="16.5" spans="1:14">
+    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -23509,7 +22966,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" ht="16.5" spans="1:14">
+    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -23547,7 +23004,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" ht="16.5" spans="1:14">
+    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -23585,7 +23042,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" ht="16.5" spans="1:14">
+    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -23623,7 +23080,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" ht="16.5" spans="1:14">
+    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -23661,7 +23118,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" ht="16.5" spans="1:14">
+    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -23699,7 +23156,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" ht="16.5" spans="1:14">
+    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -23737,7 +23194,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" ht="16.5" spans="1:14">
+    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -23775,7 +23232,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" ht="16.5" spans="1:14">
+    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -23813,7 +23270,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" ht="16.5" spans="1:14">
+    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -23851,7 +23308,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" ht="16.5" spans="1:14">
+    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -23889,7 +23346,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" ht="16.5" spans="1:14">
+    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -23927,7 +23384,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" ht="16.5" spans="1:14">
+    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>48</v>
       </c>
@@ -23965,7 +23422,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" ht="16.5" spans="1:14">
+    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>49</v>
       </c>
@@ -24003,7 +23460,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" ht="16.5" spans="1:14">
+    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>50</v>
       </c>
@@ -24041,7 +23498,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" ht="16.5" spans="1:14">
+    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>51</v>
       </c>
@@ -24079,7 +23536,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" ht="16.5" spans="1:14">
+    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>52</v>
       </c>
@@ -24117,7 +23574,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" ht="16.5" spans="1:14">
+    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>53</v>
       </c>
@@ -24155,7 +23612,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" ht="16.5" spans="1:14">
+    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>54</v>
       </c>
@@ -24193,7 +23650,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" ht="16.5" spans="1:14">
+    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>55</v>
       </c>
@@ -24231,7 +23688,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" ht="16.5" spans="1:14">
+    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>56</v>
       </c>
@@ -24269,7 +23726,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" ht="16.5" spans="1:14">
+    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>57</v>
       </c>
@@ -24307,7 +23764,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" ht="16.5" spans="1:14">
+    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>58</v>
       </c>
@@ -24345,7 +23802,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" ht="16.5" spans="1:14">
+    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>59</v>
       </c>
@@ -24383,7 +23840,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" ht="16.5" spans="1:14">
+    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>60</v>
       </c>
@@ -24421,7 +23878,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" ht="16.5" spans="1:14">
+    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>61</v>
       </c>
@@ -24459,7 +23916,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" ht="16.5" spans="1:14">
+    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>62</v>
       </c>
@@ -24497,7 +23954,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" ht="16.5" spans="1:14">
+    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>63</v>
       </c>
@@ -24535,7 +23992,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" ht="16.5" spans="1:14">
+    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>64</v>
       </c>
@@ -24573,7 +24030,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" ht="16.5" spans="1:14">
+    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>65</v>
       </c>
@@ -24611,7 +24068,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" ht="16.5" spans="1:14">
+    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>66</v>
       </c>
@@ -24649,7 +24106,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" ht="16.5" spans="1:14">
+    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>67</v>
       </c>
@@ -24687,7 +24144,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" ht="16.5" spans="1:14">
+    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>68</v>
       </c>
@@ -24725,7 +24182,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" ht="16.5" spans="1:14">
+    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>69</v>
       </c>
@@ -24763,7 +24220,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" ht="16.5" spans="1:14">
+    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>70</v>
       </c>
@@ -24801,7 +24258,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" ht="16.5" spans="1:14">
+    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>71</v>
       </c>
@@ -24839,7 +24296,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" ht="16.5" spans="1:14">
+    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>72</v>
       </c>
@@ -24877,7 +24334,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" ht="16.5" spans="1:14">
+    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>73</v>
       </c>
@@ -24915,7 +24372,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" ht="16.5" spans="1:14">
+    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>74</v>
       </c>
@@ -24953,7 +24410,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" ht="16.5" spans="1:14">
+    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>75</v>
       </c>
@@ -24991,7 +24448,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" ht="16.5" spans="1:14">
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>76</v>
       </c>
@@ -25029,7 +24486,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" ht="16.5" spans="1:14">
+    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>77</v>
       </c>
@@ -25067,7 +24524,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" ht="16.5" spans="1:14">
+    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>78</v>
       </c>
@@ -25105,7 +24562,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
     </row>
-    <row r="82" ht="16.5" spans="1:14">
+    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>79</v>
       </c>
@@ -25143,7 +24600,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" ht="16.5" spans="1:14">
+    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>80</v>
       </c>
@@ -25181,7 +24638,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" ht="16.5" spans="1:14">
+    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>81</v>
       </c>
@@ -25219,7 +24676,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" ht="16.5" spans="1:14">
+    <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>82</v>
       </c>
@@ -25257,7 +24714,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" ht="16.5" spans="1:14">
+    <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>83</v>
       </c>
@@ -25295,7 +24752,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" ht="16.5" spans="1:14">
+    <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>84</v>
       </c>
@@ -25333,7 +24790,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" ht="16.5" spans="1:14">
+    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>85</v>
       </c>
@@ -25371,7 +24828,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" ht="16.5" spans="1:14">
+    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>86</v>
       </c>
@@ -25409,7 +24866,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" ht="16.5" spans="1:14">
+    <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>87</v>
       </c>
@@ -25447,7 +24904,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" ht="16.5" spans="1:14">
+    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>88</v>
       </c>
@@ -25485,7 +24942,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" ht="16.5" spans="1:14">
+    <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>89</v>
       </c>
@@ -25523,7 +24980,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" ht="16.5" spans="1:14">
+    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>90</v>
       </c>
@@ -25561,7 +25018,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" ht="16.5" spans="1:14">
+    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>91</v>
       </c>
@@ -25599,7 +25056,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" ht="16.5" spans="1:14">
+    <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>92</v>
       </c>
@@ -25637,7 +25094,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" ht="16.5" spans="1:14">
+    <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>93</v>
       </c>
@@ -25675,7 +25132,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" ht="16.5" spans="1:14">
+    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>94</v>
       </c>
@@ -25713,7 +25170,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
     </row>
-    <row r="98" ht="16.5" spans="1:14">
+    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>95</v>
       </c>
@@ -25751,7 +25208,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
     </row>
-    <row r="99" ht="16.5" spans="1:14">
+    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>96</v>
       </c>
@@ -25789,7 +25246,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" ht="16.5" spans="1:14">
+    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>97</v>
       </c>
@@ -25827,7 +25284,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
     </row>
-    <row r="101" ht="16.5" spans="1:14">
+    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>98</v>
       </c>
@@ -25865,7 +25322,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
     </row>
-    <row r="102" ht="16.5" spans="1:14">
+    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>99</v>
       </c>
@@ -25903,7 +25360,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
     </row>
-    <row r="103" ht="16.5" spans="1:14">
+    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>100</v>
       </c>
@@ -25941,7 +25398,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
     </row>
-    <row r="104" ht="16.5" spans="1:14">
+    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>101</v>
       </c>
@@ -25979,7 +25436,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
     </row>
-    <row r="105" ht="16.5" spans="1:14">
+    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>102</v>
       </c>
@@ -26017,7 +25474,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" ht="16.5" spans="1:14">
+    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>103</v>
       </c>
@@ -26055,7 +25512,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
     </row>
-    <row r="107" ht="16.5" spans="1:14">
+    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>104</v>
       </c>
@@ -26093,7 +25550,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
     </row>
-    <row r="108" ht="16.5" spans="1:14">
+    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>105</v>
       </c>
@@ -26131,7 +25588,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
     </row>
-    <row r="109" ht="16.5" spans="1:14">
+    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>106</v>
       </c>
@@ -26169,7 +25626,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
     </row>
-    <row r="110" ht="16.5" spans="1:14">
+    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>107</v>
       </c>
@@ -26207,7 +25664,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
     </row>
-    <row r="111" ht="16.5" spans="1:14">
+    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>108</v>
       </c>
@@ -26245,7 +25702,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
     </row>
-    <row r="112" ht="16.5" spans="1:14">
+    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>109</v>
       </c>
@@ -26279,17 +25736,17 @@
       <c r="K112" s="7">
         <v>50</v>
       </c>
-      <c r="L112" s="7">
-        <v>1001</v>
+      <c r="L112" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M112" s="7">
         <v>0</v>
       </c>
       <c r="N112" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>110</v>
       </c>
@@ -26323,17 +25780,17 @@
       <c r="K113" s="7">
         <v>50</v>
       </c>
-      <c r="L113" s="7">
-        <v>1001</v>
+      <c r="L113" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M113" s="7">
         <v>0</v>
       </c>
       <c r="N113" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>111</v>
       </c>
@@ -26367,17 +25824,17 @@
       <c r="K114" s="7">
         <v>50</v>
       </c>
-      <c r="L114" s="7">
-        <v>1001</v>
+      <c r="L114" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M114" s="7">
         <v>0</v>
       </c>
       <c r="N114" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>112</v>
       </c>
@@ -26411,17 +25868,17 @@
       <c r="K115" s="7">
         <v>50</v>
       </c>
-      <c r="L115" s="7">
-        <v>1001</v>
+      <c r="L115" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M115" s="7">
         <v>0</v>
       </c>
       <c r="N115" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>113</v>
       </c>
@@ -26455,17 +25912,17 @@
       <c r="K116" s="7">
         <v>50</v>
       </c>
-      <c r="L116" s="7">
-        <v>1001</v>
+      <c r="L116" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M116" s="7">
         <v>0</v>
       </c>
       <c r="N116" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>114</v>
       </c>
@@ -26499,17 +25956,17 @@
       <c r="K117" s="7">
         <v>50</v>
       </c>
-      <c r="L117" s="7">
-        <v>1001</v>
+      <c r="L117" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M117" s="7">
         <v>0</v>
       </c>
       <c r="N117" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>115</v>
       </c>
@@ -26543,17 +26000,17 @@
       <c r="K118" s="7">
         <v>50</v>
       </c>
-      <c r="L118" s="7">
-        <v>1001</v>
+      <c r="L118" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M118" s="7">
         <v>0</v>
       </c>
       <c r="N118" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>116</v>
       </c>
@@ -26587,17 +26044,17 @@
       <c r="K119" s="7">
         <v>50</v>
       </c>
-      <c r="L119" s="7">
-        <v>1001</v>
+      <c r="L119" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M119" s="7">
         <v>0</v>
       </c>
       <c r="N119" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>117</v>
       </c>
@@ -26631,17 +26088,17 @@
       <c r="K120" s="7">
         <v>50</v>
       </c>
-      <c r="L120" s="7">
-        <v>1001</v>
+      <c r="L120" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="M120" s="7">
         <v>0</v>
       </c>
       <c r="N120" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" ht="16.5" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>118</v>
       </c>
@@ -26675,8 +26132,8 @@
       <c r="K121" s="7">
         <v>50</v>
       </c>
-      <c r="L121" s="7">
-        <v>1001</v>
+      <c r="L121" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="M121" s="7">
         <v>0</v>
@@ -26685,7 +26142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:14">
+    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>119</v>
       </c>
@@ -26719,8 +26176,8 @@
       <c r="K122" s="7">
         <v>50</v>
       </c>
-      <c r="L122" s="7">
-        <v>1001</v>
+      <c r="L122" s="7" t="s">
+        <v>864</v>
       </c>
       <c r="M122" s="7">
         <v>0</v>
@@ -26729,7 +26186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:14">
+    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>120</v>
       </c>
@@ -26763,8 +26220,8 @@
       <c r="K123" s="7">
         <v>50</v>
       </c>
-      <c r="L123" s="7">
-        <v>1001</v>
+      <c r="L123" s="7" t="s">
+        <v>870</v>
       </c>
       <c r="M123" s="7">
         <v>0</v>
@@ -26773,7 +26230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:14">
+    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>121</v>
       </c>
@@ -26807,8 +26264,8 @@
       <c r="K124" s="7">
         <v>50</v>
       </c>
-      <c r="L124" s="7">
-        <v>1001</v>
+      <c r="L124" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="M124" s="7">
         <v>0</v>
@@ -26817,7 +26274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:14">
+    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>122</v>
       </c>
@@ -26851,8 +26308,8 @@
       <c r="K125" s="7">
         <v>50</v>
       </c>
-      <c r="L125" s="7">
-        <v>1001</v>
+      <c r="L125" s="7" t="s">
+        <v>867</v>
       </c>
       <c r="M125" s="7">
         <v>0</v>
@@ -26861,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:14">
+    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>123</v>
       </c>
@@ -26895,8 +26352,8 @@
       <c r="K126" s="7">
         <v>50</v>
       </c>
-      <c r="L126" s="7">
-        <v>1001</v>
+      <c r="L126" s="7" t="s">
+        <v>868</v>
       </c>
       <c r="M126" s="7">
         <v>0</v>
@@ -26905,7 +26362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:14">
+    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>124</v>
       </c>
@@ -26939,8 +26396,8 @@
       <c r="K127" s="7">
         <v>50</v>
       </c>
-      <c r="L127" s="7">
-        <v>1001</v>
+      <c r="L127" s="7" t="s">
+        <v>869</v>
       </c>
       <c r="M127" s="7">
         <v>0</v>
@@ -26949,7 +26406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:14">
+    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>125</v>
       </c>
@@ -26983,8 +26440,8 @@
       <c r="K128" s="7">
         <v>50</v>
       </c>
-      <c r="L128" s="7">
-        <v>1001</v>
+      <c r="L128" s="7" t="s">
+        <v>871</v>
       </c>
       <c r="M128" s="7">
         <v>0</v>
@@ -26993,7 +26450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:14">
+    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>126</v>
       </c>
@@ -27027,8 +26484,8 @@
       <c r="K129" s="7">
         <v>50</v>
       </c>
-      <c r="L129" s="7">
-        <v>1001</v>
+      <c r="L129" s="7" t="s">
+        <v>866</v>
       </c>
       <c r="M129" s="7">
         <v>0</v>
@@ -27037,7 +26494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:14">
+    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>127</v>
       </c>
@@ -27071,8 +26528,8 @@
       <c r="K130" s="7">
         <v>50</v>
       </c>
-      <c r="L130" s="7">
-        <v>1001</v>
+      <c r="L130" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="M130" s="7">
         <v>0</v>
@@ -27081,7 +26538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:14">
+    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>128</v>
       </c>
@@ -27115,8 +26572,8 @@
       <c r="K131" s="7">
         <v>50</v>
       </c>
-      <c r="L131" s="7">
-        <v>1001</v>
+      <c r="L131" s="7" t="s">
+        <v>867</v>
       </c>
       <c r="M131" s="7">
         <v>0</v>
@@ -27125,7 +26582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:14">
+    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>129</v>
       </c>
@@ -27159,8 +26616,8 @@
       <c r="K132" s="7">
         <v>50</v>
       </c>
-      <c r="L132" s="7">
-        <v>1001</v>
+      <c r="L132" s="7" t="s">
+        <v>868</v>
       </c>
       <c r="M132" s="7">
         <v>0</v>
@@ -27169,7 +26626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:14">
+    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>130</v>
       </c>
@@ -27203,8 +26660,8 @@
       <c r="K133" s="7">
         <v>50</v>
       </c>
-      <c r="L133" s="7">
-        <v>1001</v>
+      <c r="L133" s="7" t="s">
+        <v>869</v>
       </c>
       <c r="M133" s="7">
         <v>0</v>
@@ -27213,7 +26670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:14">
+    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>131</v>
       </c>
@@ -27247,8 +26704,8 @@
       <c r="K134" s="7">
         <v>50</v>
       </c>
-      <c r="L134" s="7">
-        <v>1001</v>
+      <c r="L134" s="7" t="s">
+        <v>871</v>
       </c>
       <c r="M134" s="7">
         <v>0</v>
@@ -27257,7 +26714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:14">
+    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>132</v>
       </c>
@@ -27291,8 +26748,8 @@
       <c r="K135" s="7">
         <v>50</v>
       </c>
-      <c r="L135" s="7">
-        <v>1001</v>
+      <c r="L135" s="7" t="s">
+        <v>866</v>
       </c>
       <c r="M135" s="7">
         <v>0</v>
@@ -27301,7 +26758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:14">
+    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>133</v>
       </c>
@@ -27335,8 +26792,8 @@
       <c r="K136" s="7">
         <v>50</v>
       </c>
-      <c r="L136" s="7">
-        <v>1001</v>
+      <c r="L136" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="M136" s="7">
         <v>0</v>
@@ -27345,7 +26802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:14">
+    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>134</v>
       </c>
@@ -27379,8 +26836,8 @@
       <c r="K137" s="7">
         <v>50</v>
       </c>
-      <c r="L137" s="7">
-        <v>1001</v>
+      <c r="L137" s="7" t="s">
+        <v>867</v>
       </c>
       <c r="M137" s="7">
         <v>0</v>
@@ -27389,7 +26846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:14">
+    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>135</v>
       </c>
@@ -27423,8 +26880,8 @@
       <c r="K138" s="7">
         <v>50</v>
       </c>
-      <c r="L138" s="7">
-        <v>1001</v>
+      <c r="L138" s="7" t="s">
+        <v>868</v>
       </c>
       <c r="M138" s="7">
         <v>0</v>
@@ -27433,7 +26890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" ht="18" customHeight="1" spans="1:14">
+    <row r="139" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>136</v>
       </c>
@@ -27467,8 +26924,8 @@
       <c r="K139" s="7">
         <v>50</v>
       </c>
-      <c r="L139" s="7">
-        <v>1001</v>
+      <c r="L139" s="7" t="s">
+        <v>869</v>
       </c>
       <c r="M139" s="7">
         <v>0</v>
@@ -27477,7 +26934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:14">
+    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>137</v>
       </c>
@@ -27511,8 +26968,8 @@
       <c r="K140" s="7">
         <v>50</v>
       </c>
-      <c r="L140" s="7">
-        <v>1001</v>
+      <c r="L140" s="7" t="s">
+        <v>871</v>
       </c>
       <c r="M140" s="7">
         <v>0</v>
@@ -27521,7 +26978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:14">
+    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>138</v>
       </c>
@@ -27555,8 +27012,8 @@
       <c r="K141" s="7">
         <v>50</v>
       </c>
-      <c r="L141" s="7">
-        <v>1001</v>
+      <c r="L141" s="7" t="s">
+        <v>866</v>
       </c>
       <c r="M141" s="7">
         <v>0</v>
@@ -27565,7 +27022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:14">
+    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>139</v>
       </c>
@@ -27599,8 +27056,8 @@
       <c r="K142" s="7">
         <v>50</v>
       </c>
-      <c r="L142" s="7">
-        <v>1001</v>
+      <c r="L142" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="M142" s="7">
         <v>0</v>
@@ -27609,7 +27066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:14">
+    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>140</v>
       </c>
@@ -27643,8 +27100,8 @@
       <c r="K143" s="7">
         <v>50</v>
       </c>
-      <c r="L143" s="7">
-        <v>1001</v>
+      <c r="L143" s="7" t="s">
+        <v>867</v>
       </c>
       <c r="M143" s="7">
         <v>0</v>
@@ -27653,7 +27110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:14">
+    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>141</v>
       </c>
@@ -27687,8 +27144,8 @@
       <c r="K144" s="7">
         <v>50</v>
       </c>
-      <c r="L144" s="7">
-        <v>1001</v>
+      <c r="L144" s="7" t="s">
+        <v>868</v>
       </c>
       <c r="M144" s="7">
         <v>0</v>
@@ -27697,7 +27154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:14">
+    <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>142</v>
       </c>
@@ -27731,8 +27188,8 @@
       <c r="K145" s="7">
         <v>50</v>
       </c>
-      <c r="L145" s="7">
-        <v>1001</v>
+      <c r="L145" s="7" t="s">
+        <v>869</v>
       </c>
       <c r="M145" s="7">
         <v>0</v>
@@ -27741,7 +27198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:14">
+    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>143</v>
       </c>
@@ -27775,8 +27232,8 @@
       <c r="K146" s="7">
         <v>50</v>
       </c>
-      <c r="L146" s="7">
-        <v>1001</v>
+      <c r="L146" s="7" t="s">
+        <v>871</v>
       </c>
       <c r="M146" s="7">
         <v>0</v>
@@ -27785,7 +27242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:14">
+    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>144</v>
       </c>
@@ -27819,8 +27276,8 @@
       <c r="K147" s="7">
         <v>50</v>
       </c>
-      <c r="L147" s="7">
-        <v>1001</v>
+      <c r="L147" s="7" t="s">
+        <v>866</v>
       </c>
       <c r="M147" s="7">
         <v>0</v>
@@ -27829,7 +27286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:14">
+    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>145</v>
       </c>
@@ -27863,8 +27320,8 @@
       <c r="K148" s="7">
         <v>50</v>
       </c>
-      <c r="L148" s="7">
-        <v>1001</v>
+      <c r="L148" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="M148" s="7">
         <v>0</v>
@@ -27873,7 +27330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:14">
+    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>146</v>
       </c>
@@ -27907,8 +27364,8 @@
       <c r="K149" s="7">
         <v>50</v>
       </c>
-      <c r="L149" s="7">
-        <v>1001</v>
+      <c r="L149" s="7" t="s">
+        <v>867</v>
       </c>
       <c r="M149" s="7">
         <v>0</v>
@@ -27917,7 +27374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:14">
+    <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>147</v>
       </c>
@@ -27951,8 +27408,8 @@
       <c r="K150" s="7">
         <v>50</v>
       </c>
-      <c r="L150" s="7">
-        <v>1001</v>
+      <c r="L150" s="7" t="s">
+        <v>868</v>
       </c>
       <c r="M150" s="7">
         <v>0</v>
@@ -27961,7 +27418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:14">
+    <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>148</v>
       </c>
@@ -27995,8 +27452,8 @@
       <c r="K151" s="7">
         <v>50</v>
       </c>
-      <c r="L151" s="7">
-        <v>1001</v>
+      <c r="L151" s="7" t="s">
+        <v>869</v>
       </c>
       <c r="M151" s="7">
         <v>0</v>
@@ -28005,7 +27462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:14">
+    <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>149</v>
       </c>
@@ -28039,17 +27496,11 @@
       <c r="K152" s="7">
         <v>50</v>
       </c>
-      <c r="L152" s="7">
-        <v>1001</v>
-      </c>
-      <c r="M152" s="7">
-        <v>0</v>
-      </c>
-      <c r="N152" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" ht="16.5" spans="1:14">
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+    </row>
+    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>150</v>
       </c>
@@ -28083,17 +27534,11 @@
       <c r="K153" s="7">
         <v>50</v>
       </c>
-      <c r="L153" s="7">
-        <v>1001</v>
-      </c>
-      <c r="M153" s="7">
-        <v>0</v>
-      </c>
-      <c r="N153" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" ht="16.5" spans="1:14">
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+    </row>
+    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>151</v>
       </c>
@@ -28127,17 +27572,11 @@
       <c r="K154" s="7">
         <v>50</v>
       </c>
-      <c r="L154" s="7">
-        <v>1001</v>
-      </c>
-      <c r="M154" s="7">
-        <v>0</v>
-      </c>
-      <c r="N154" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" ht="16.5" spans="1:14">
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+    </row>
+    <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>152</v>
       </c>
@@ -28175,7 +27614,7 @@
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
     </row>
-    <row r="156" ht="16.5" spans="1:14">
+    <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>153</v>
       </c>
@@ -28213,7 +27652,7 @@
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
     </row>
-    <row r="157" ht="16.5" spans="1:14">
+    <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>154</v>
       </c>
@@ -28251,7 +27690,7 @@
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
     </row>
-    <row r="158" ht="16.5" spans="1:14">
+    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>155</v>
       </c>
@@ -28289,7 +27728,7 @@
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
     </row>
-    <row r="159" ht="16.5" spans="1:14">
+    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>156</v>
       </c>
@@ -28327,7 +27766,7 @@
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
     </row>
-    <row r="160" ht="16.5" spans="1:14">
+    <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>157</v>
       </c>
@@ -28365,7 +27804,7 @@
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
     </row>
-    <row r="161" ht="16.5" spans="1:14">
+    <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>158</v>
       </c>
@@ -28403,7 +27842,7 @@
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
     </row>
-    <row r="162" ht="16.5" spans="1:14">
+    <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>159</v>
       </c>
@@ -28441,7 +27880,7 @@
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
     </row>
-    <row r="163" ht="16.5" spans="1:14">
+    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>160</v>
       </c>
@@ -28479,7 +27918,7 @@
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
     </row>
-    <row r="164" ht="16.5" spans="1:14">
+    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>161</v>
       </c>
@@ -28517,7 +27956,7 @@
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
     </row>
-    <row r="165" ht="16.5" spans="1:14">
+    <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>162</v>
       </c>
@@ -28555,7 +27994,7 @@
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
     </row>
-    <row r="166" ht="16.5" spans="1:14">
+    <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>163</v>
       </c>
@@ -28593,7 +28032,7 @@
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
     </row>
-    <row r="167" ht="16.5" spans="1:14">
+    <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>164</v>
       </c>
@@ -28631,7 +28070,7 @@
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
     </row>
-    <row r="168" ht="16.5" spans="1:14">
+    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>165</v>
       </c>
@@ -28669,7 +28108,7 @@
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
     </row>
-    <row r="169" ht="16.5" spans="1:14">
+    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>166</v>
       </c>
@@ -28707,7 +28146,7 @@
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
     </row>
-    <row r="170" ht="16.5" spans="1:14">
+    <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>167</v>
       </c>
@@ -28745,7 +28184,7 @@
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
     </row>
-    <row r="171" ht="16.5" spans="1:14">
+    <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>168</v>
       </c>
@@ -28783,7 +28222,7 @@
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
     </row>
-    <row r="172" ht="16.5" spans="1:14">
+    <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>169</v>
       </c>
@@ -28821,7 +28260,7 @@
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
     </row>
-    <row r="173" ht="16.5" spans="1:14">
+    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>170</v>
       </c>
@@ -28859,7 +28298,7 @@
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
     </row>
-    <row r="174" ht="16.5" spans="1:14">
+    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>171</v>
       </c>
@@ -28897,7 +28336,7 @@
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
     </row>
-    <row r="175" ht="16.5" spans="1:14">
+    <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>172</v>
       </c>
@@ -28935,7 +28374,7 @@
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
     </row>
-    <row r="176" ht="16.5" spans="1:14">
+    <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>173</v>
       </c>
@@ -28973,7 +28412,7 @@
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
     </row>
-    <row r="177" ht="16.5" spans="1:14">
+    <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>174</v>
       </c>
@@ -29011,7 +28450,7 @@
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
     </row>
-    <row r="178" ht="16.5" spans="1:14">
+    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>175</v>
       </c>
@@ -29049,7 +28488,7 @@
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
     </row>
-    <row r="179" ht="16.5" spans="1:14">
+    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="B179" s="7">
         <v>1213</v>
@@ -29085,7 +28524,7 @@
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
     </row>
-    <row r="180" ht="16.5" spans="1:14">
+    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>150</v>
       </c>
@@ -29123,7 +28562,7 @@
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
     </row>
-    <row r="181" ht="16.5" spans="1:14">
+    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>151</v>
       </c>
@@ -29161,7 +28600,7 @@
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
     </row>
-    <row r="182" ht="16.5" spans="1:14">
+    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>152</v>
       </c>
@@ -29199,7 +28638,7 @@
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
     </row>
-    <row r="183" ht="16.5" spans="1:14">
+    <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>153</v>
       </c>
@@ -29237,7 +28676,7 @@
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
     </row>
-    <row r="184" ht="16.5" spans="1:14">
+    <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>154</v>
       </c>
@@ -29275,7 +28714,7 @@
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
     </row>
-    <row r="185" ht="16.5" spans="1:14">
+    <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>155</v>
       </c>
@@ -29313,7 +28752,7 @@
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
     </row>
-    <row r="186" ht="16.5" spans="1:14">
+    <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>156</v>
       </c>
@@ -29351,7 +28790,7 @@
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
     </row>
-    <row r="187" ht="16.5" spans="1:14">
+    <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>157</v>
       </c>
@@ -29389,7 +28828,7 @@
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
     </row>
-    <row r="188" ht="16.5" spans="1:14">
+    <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>158</v>
       </c>
@@ -29427,7 +28866,7 @@
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
     </row>
-    <row r="189" ht="16.5" spans="1:14">
+    <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>159</v>
       </c>
@@ -29465,7 +28904,7 @@
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
     </row>
-    <row r="190" ht="16.5" spans="1:14">
+    <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>160</v>
       </c>
@@ -29504,27 +28943,26 @@
       <c r="N190" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:2">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -29532,7 +28970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -29540,7 +28978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
@@ -29548,7 +28986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -29556,7 +28994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:2">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -29564,7 +29002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:2">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -29572,7 +29010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:2">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -29580,7 +29018,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:2">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -29588,7 +29026,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:2">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -29596,7 +29034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:2">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -29604,7 +29042,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:2">
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -29612,7 +29050,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:2">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -29620,7 +29058,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:2">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -29628,7 +29066,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:2">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -29636,7 +29074,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:2">
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -29644,7 +29082,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:2">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -29653,21 +29091,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -29676,7 +29113,7 @@
     <col min="7" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -29714,7 +29151,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -29752,7 +29189,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -29790,7 +29227,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -29822,7 +29259,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -29860,7 +29297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -29892,7 +29329,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -29924,7 +29361,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" ht="17.25" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -29956,7 +29393,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -29988,7 +29425,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -30020,7 +29457,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -30052,7 +29489,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" ht="17.25" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -30084,7 +29521,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" ht="17.25" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -30116,10 +29553,10 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627C9B2-ABFB-408B-B446-58DAFA53686C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F2585D-3C0D-4695-A42F-D55FE4EE76EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1462">
   <si>
     <t>sheet名</t>
   </si>
@@ -5014,6 +5014,194 @@
   <si>
     <t>主舰核能1</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁撩炮</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>撩炮I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买特定UID的道具</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买金币1</t>
+  </si>
+  <si>
+    <t>商店购买金币1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买金币2</t>
+  </si>
+  <si>
+    <t>商店购买金币3</t>
+  </si>
+  <si>
+    <t>商店购买金币4</t>
+  </si>
+  <si>
+    <t>商店购买金币5</t>
+  </si>
+  <si>
+    <t>商店购买金币6</t>
+  </si>
+  <si>
+    <t>商店购买金币7</t>
+  </si>
+  <si>
+    <t>商店购买金币8</t>
+  </si>
+  <si>
+    <t>商店购买金币9</t>
+  </si>
+  <si>
+    <t>商店购买金币10</t>
+  </si>
+  <si>
+    <t>商店购买突破丹1</t>
+  </si>
+  <si>
+    <t>商店购买突破丹1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买突破丹2</t>
+  </si>
+  <si>
+    <t>商店购买突破丹3</t>
+  </si>
+  <si>
+    <t>商店购买突破丹4</t>
+  </si>
+  <si>
+    <t>商店购买突破丹5</t>
+  </si>
+  <si>
+    <t>商店购买突破丹6</t>
+  </si>
+  <si>
+    <t>商店购买装备精炼石1</t>
+  </si>
+  <si>
+    <t>商店购买装备精炼石1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买装备精炼石2</t>
+  </si>
+  <si>
+    <t>商店购买装备精炼石3</t>
+  </si>
+  <si>
+    <t>商店购买装备精炼石4</t>
+  </si>
+  <si>
+    <t>商店购买装备精炼石5</t>
+  </si>
+  <si>
+    <t>商店购买装备精炼石6</t>
+  </si>
+  <si>
+    <t>购买金币宝箱1次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱5次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱10次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱20次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱50次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱100次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱200次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱300次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱400次</t>
+  </si>
+  <si>
+    <t>购买金币宝箱500次</t>
+  </si>
+  <si>
+    <t>购买智慧机体宝箱1次</t>
+  </si>
+  <si>
+    <t>购买智慧机体宝箱5次</t>
+  </si>
+  <si>
+    <t>购买智慧机体宝箱10次</t>
+  </si>
+  <si>
+    <t>购买智慧机体宝箱20次</t>
+  </si>
+  <si>
+    <t>购买智慧机体宝箱50次</t>
+  </si>
+  <si>
+    <t>购买智慧机体宝箱100次</t>
+  </si>
+  <si>
+    <t>购买装备精炼宝箱1次</t>
+  </si>
+  <si>
+    <t>购买装备精炼宝箱5次</t>
+  </si>
+  <si>
+    <t>购买装备精炼宝箱10次</t>
+  </si>
+  <si>
+    <t>购买装备精炼宝箱20次</t>
+  </si>
+  <si>
+    <t>购买装备精炼宝箱50次</t>
+  </si>
+  <si>
+    <t>购买装备精炼宝箱100次</t>
+  </si>
+  <si>
+    <t>商店购买金币1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店买金币</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店买突破丹</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店买装备精炼石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
   </si>
 </sst>
 </file>
@@ -5291,7 +5479,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5362,6 +5550,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
@@ -5843,20 +6032,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T584"/>
+  <dimension ref="A1:T606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D349" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E573" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D376" sqref="D376"/>
+      <selection pane="bottomRight" activeCell="B600" sqref="B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="46.625" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
@@ -28450,6 +28639,886 @@
       <c r="S584" s="6"/>
       <c r="T584" s="6"/>
     </row>
+    <row r="585" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A585" s="6">
+        <v>582</v>
+      </c>
+      <c r="B585" s="6">
+        <v>405041101</v>
+      </c>
+      <c r="C585" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D585" s="6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E585" s="6">
+        <v>47</v>
+      </c>
+      <c r="F585" s="6">
+        <v>405</v>
+      </c>
+      <c r="G585" s="6">
+        <v>4</v>
+      </c>
+      <c r="H585" s="6"/>
+      <c r="I585" s="6">
+        <v>1</v>
+      </c>
+      <c r="J585" s="6">
+        <v>101</v>
+      </c>
+      <c r="K585" s="6"/>
+      <c r="L585" s="6"/>
+      <c r="M585" s="6"/>
+      <c r="N585" s="6"/>
+      <c r="O585" s="6"/>
+      <c r="P585" s="6"/>
+      <c r="Q585" s="6"/>
+      <c r="R585" s="6"/>
+      <c r="S585" s="6"/>
+      <c r="T585" s="6"/>
+    </row>
+    <row r="586" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A586" s="6">
+        <v>583</v>
+      </c>
+      <c r="B586" s="6">
+        <v>405041102</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D586" s="6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E586" s="6">
+        <v>47</v>
+      </c>
+      <c r="F586" s="6">
+        <v>405</v>
+      </c>
+      <c r="G586" s="6">
+        <v>4</v>
+      </c>
+      <c r="H586" s="6"/>
+      <c r="I586" s="6">
+        <v>5</v>
+      </c>
+      <c r="J586" s="6">
+        <v>101</v>
+      </c>
+      <c r="K586" s="6"/>
+      <c r="L586" s="6"/>
+      <c r="M586" s="6"/>
+      <c r="N586" s="6"/>
+      <c r="O586" s="6"/>
+      <c r="P586" s="6"/>
+      <c r="Q586" s="6"/>
+      <c r="R586" s="6"/>
+      <c r="S586" s="6"/>
+      <c r="T586" s="6"/>
+    </row>
+    <row r="587" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A587" s="6">
+        <v>584</v>
+      </c>
+      <c r="B587" s="6">
+        <v>405041103</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D587" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E587" s="6">
+        <v>47</v>
+      </c>
+      <c r="F587" s="6">
+        <v>405</v>
+      </c>
+      <c r="G587" s="6">
+        <v>4</v>
+      </c>
+      <c r="H587" s="6"/>
+      <c r="I587" s="6">
+        <v>10</v>
+      </c>
+      <c r="J587" s="6">
+        <v>101</v>
+      </c>
+      <c r="K587" s="6"/>
+      <c r="L587" s="6"/>
+      <c r="M587" s="6"/>
+      <c r="N587" s="6"/>
+      <c r="O587" s="6"/>
+      <c r="P587" s="6"/>
+      <c r="Q587" s="6"/>
+      <c r="R587" s="6"/>
+      <c r="S587" s="6"/>
+      <c r="T587" s="6"/>
+    </row>
+    <row r="588" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A588" s="6">
+        <v>585</v>
+      </c>
+      <c r="B588" s="6">
+        <v>405041104</v>
+      </c>
+      <c r="C588" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D588" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E588" s="6">
+        <v>47</v>
+      </c>
+      <c r="F588" s="6">
+        <v>405</v>
+      </c>
+      <c r="G588" s="6">
+        <v>4</v>
+      </c>
+      <c r="H588" s="6"/>
+      <c r="I588" s="6">
+        <v>20</v>
+      </c>
+      <c r="J588" s="6">
+        <v>101</v>
+      </c>
+      <c r="K588" s="6"/>
+      <c r="L588" s="6"/>
+      <c r="M588" s="6"/>
+      <c r="N588" s="6"/>
+      <c r="O588" s="6"/>
+      <c r="P588" s="6"/>
+      <c r="Q588" s="6"/>
+      <c r="R588" s="6"/>
+      <c r="S588" s="6"/>
+      <c r="T588" s="6"/>
+    </row>
+    <row r="589" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A589" s="6">
+        <v>586</v>
+      </c>
+      <c r="B589" s="6">
+        <v>405041105</v>
+      </c>
+      <c r="C589" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D589" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E589" s="6">
+        <v>47</v>
+      </c>
+      <c r="F589" s="6">
+        <v>405</v>
+      </c>
+      <c r="G589" s="6">
+        <v>4</v>
+      </c>
+      <c r="H589" s="6"/>
+      <c r="I589" s="6">
+        <v>50</v>
+      </c>
+      <c r="J589" s="6">
+        <v>101</v>
+      </c>
+      <c r="K589" s="6"/>
+      <c r="L589" s="6"/>
+      <c r="M589" s="6"/>
+      <c r="N589" s="6"/>
+      <c r="O589" s="6"/>
+      <c r="P589" s="6"/>
+      <c r="Q589" s="6"/>
+      <c r="R589" s="6"/>
+      <c r="S589" s="6"/>
+      <c r="T589" s="6"/>
+    </row>
+    <row r="590" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A590" s="6">
+        <v>587</v>
+      </c>
+      <c r="B590" s="6">
+        <v>405041106</v>
+      </c>
+      <c r="C590" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D590" s="6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E590" s="6">
+        <v>47</v>
+      </c>
+      <c r="F590" s="6">
+        <v>405</v>
+      </c>
+      <c r="G590" s="6">
+        <v>4</v>
+      </c>
+      <c r="H590" s="6"/>
+      <c r="I590" s="6">
+        <v>100</v>
+      </c>
+      <c r="J590" s="6">
+        <v>101</v>
+      </c>
+      <c r="K590" s="6"/>
+      <c r="L590" s="6"/>
+      <c r="M590" s="6"/>
+      <c r="N590" s="6"/>
+      <c r="O590" s="6"/>
+      <c r="P590" s="6"/>
+      <c r="Q590" s="6"/>
+      <c r="R590" s="6"/>
+      <c r="S590" s="6"/>
+      <c r="T590" s="6"/>
+    </row>
+    <row r="591" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A591" s="6">
+        <v>588</v>
+      </c>
+      <c r="B591" s="6">
+        <v>405041107</v>
+      </c>
+      <c r="C591" s="6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D591" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E591" s="6">
+        <v>47</v>
+      </c>
+      <c r="F591" s="6">
+        <v>405</v>
+      </c>
+      <c r="G591" s="6">
+        <v>4</v>
+      </c>
+      <c r="H591" s="6"/>
+      <c r="I591" s="6">
+        <v>200</v>
+      </c>
+      <c r="J591" s="6">
+        <v>101</v>
+      </c>
+      <c r="K591" s="6"/>
+      <c r="L591" s="6"/>
+      <c r="M591" s="6"/>
+      <c r="N591" s="6"/>
+      <c r="O591" s="6"/>
+      <c r="P591" s="6"/>
+      <c r="Q591" s="6"/>
+      <c r="R591" s="6"/>
+      <c r="S591" s="6"/>
+      <c r="T591" s="6"/>
+    </row>
+    <row r="592" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A592" s="6">
+        <v>589</v>
+      </c>
+      <c r="B592" s="6">
+        <v>405041108</v>
+      </c>
+      <c r="C592" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D592" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E592" s="6">
+        <v>47</v>
+      </c>
+      <c r="F592" s="6">
+        <v>405</v>
+      </c>
+      <c r="G592" s="6">
+        <v>4</v>
+      </c>
+      <c r="H592" s="6"/>
+      <c r="I592" s="6">
+        <v>300</v>
+      </c>
+      <c r="J592" s="6">
+        <v>101</v>
+      </c>
+      <c r="K592" s="6"/>
+      <c r="L592" s="6"/>
+      <c r="M592" s="6"/>
+      <c r="N592" s="6"/>
+      <c r="O592" s="6"/>
+      <c r="P592" s="6"/>
+      <c r="Q592" s="6"/>
+      <c r="R592" s="6"/>
+      <c r="S592" s="6"/>
+      <c r="T592" s="6"/>
+    </row>
+    <row r="593" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A593" s="6">
+        <v>590</v>
+      </c>
+      <c r="B593" s="6">
+        <v>405041109</v>
+      </c>
+      <c r="C593" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D593" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E593" s="6">
+        <v>47</v>
+      </c>
+      <c r="F593" s="6">
+        <v>405</v>
+      </c>
+      <c r="G593" s="6">
+        <v>4</v>
+      </c>
+      <c r="H593" s="6"/>
+      <c r="I593" s="6">
+        <v>400</v>
+      </c>
+      <c r="J593" s="6">
+        <v>101</v>
+      </c>
+      <c r="K593" s="6"/>
+      <c r="L593" s="6"/>
+      <c r="M593" s="6"/>
+      <c r="N593" s="6"/>
+      <c r="O593" s="6"/>
+      <c r="P593" s="6"/>
+      <c r="Q593" s="6"/>
+      <c r="R593" s="6"/>
+      <c r="S593" s="6"/>
+      <c r="T593" s="6"/>
+    </row>
+    <row r="594" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A594" s="6">
+        <v>591</v>
+      </c>
+      <c r="B594" s="6">
+        <v>405041110</v>
+      </c>
+      <c r="C594" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D594" s="6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E594" s="6">
+        <v>47</v>
+      </c>
+      <c r="F594" s="6">
+        <v>405</v>
+      </c>
+      <c r="G594" s="6">
+        <v>4</v>
+      </c>
+      <c r="H594" s="6"/>
+      <c r="I594" s="6">
+        <v>500</v>
+      </c>
+      <c r="J594" s="6">
+        <v>101</v>
+      </c>
+      <c r="K594" s="6"/>
+      <c r="L594" s="6"/>
+      <c r="M594" s="6"/>
+      <c r="N594" s="6"/>
+      <c r="O594" s="6"/>
+      <c r="P594" s="6"/>
+      <c r="Q594" s="6"/>
+      <c r="R594" s="6"/>
+      <c r="S594" s="6"/>
+      <c r="T594" s="6"/>
+    </row>
+    <row r="595" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A595" s="6">
+        <v>592</v>
+      </c>
+      <c r="B595" s="6">
+        <v>405042101</v>
+      </c>
+      <c r="C595" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D595" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E595" s="6">
+        <v>47</v>
+      </c>
+      <c r="F595" s="6">
+        <v>405</v>
+      </c>
+      <c r="G595" s="6">
+        <v>4</v>
+      </c>
+      <c r="H595" s="6"/>
+      <c r="I595" s="6">
+        <v>1</v>
+      </c>
+      <c r="J595" s="6">
+        <v>102</v>
+      </c>
+      <c r="K595" s="6"/>
+      <c r="L595" s="6"/>
+      <c r="M595" s="6"/>
+      <c r="N595" s="6"/>
+      <c r="O595" s="6"/>
+      <c r="P595" s="6"/>
+      <c r="Q595" s="6"/>
+      <c r="R595" s="6"/>
+      <c r="S595" s="6"/>
+      <c r="T595" s="6"/>
+    </row>
+    <row r="596" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A596" s="6">
+        <v>593</v>
+      </c>
+      <c r="B596" s="6">
+        <v>405042102</v>
+      </c>
+      <c r="C596" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D596" s="6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E596" s="6">
+        <v>47</v>
+      </c>
+      <c r="F596" s="6">
+        <v>405</v>
+      </c>
+      <c r="G596" s="6">
+        <v>4</v>
+      </c>
+      <c r="H596" s="6"/>
+      <c r="I596" s="6">
+        <v>5</v>
+      </c>
+      <c r="J596" s="6">
+        <v>102</v>
+      </c>
+      <c r="K596" s="6"/>
+      <c r="L596" s="6"/>
+      <c r="M596" s="6"/>
+      <c r="N596" s="6"/>
+      <c r="O596" s="6"/>
+      <c r="P596" s="6"/>
+      <c r="Q596" s="6"/>
+      <c r="R596" s="6"/>
+      <c r="S596" s="6"/>
+      <c r="T596" s="6"/>
+    </row>
+    <row r="597" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A597" s="6">
+        <v>594</v>
+      </c>
+      <c r="B597" s="6">
+        <v>405042103</v>
+      </c>
+      <c r="C597" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D597" s="6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E597" s="6">
+        <v>47</v>
+      </c>
+      <c r="F597" s="6">
+        <v>405</v>
+      </c>
+      <c r="G597" s="6">
+        <v>4</v>
+      </c>
+      <c r="H597" s="6"/>
+      <c r="I597" s="6">
+        <v>10</v>
+      </c>
+      <c r="J597" s="6">
+        <v>102</v>
+      </c>
+      <c r="K597" s="6"/>
+      <c r="L597" s="6"/>
+      <c r="M597" s="6"/>
+      <c r="N597" s="6"/>
+      <c r="O597" s="6"/>
+      <c r="P597" s="6"/>
+      <c r="Q597" s="6"/>
+      <c r="R597" s="6"/>
+      <c r="S597" s="6"/>
+      <c r="T597" s="6"/>
+    </row>
+    <row r="598" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A598" s="6">
+        <v>595</v>
+      </c>
+      <c r="B598" s="6">
+        <v>405042104</v>
+      </c>
+      <c r="C598" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D598" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E598" s="6">
+        <v>47</v>
+      </c>
+      <c r="F598" s="6">
+        <v>405</v>
+      </c>
+      <c r="G598" s="6">
+        <v>4</v>
+      </c>
+      <c r="H598" s="6"/>
+      <c r="I598" s="6">
+        <v>20</v>
+      </c>
+      <c r="J598" s="6">
+        <v>102</v>
+      </c>
+      <c r="K598" s="6"/>
+      <c r="L598" s="6"/>
+      <c r="M598" s="6"/>
+      <c r="N598" s="6"/>
+      <c r="O598" s="6"/>
+      <c r="P598" s="6"/>
+      <c r="Q598" s="6"/>
+      <c r="R598" s="6"/>
+      <c r="S598" s="6"/>
+      <c r="T598" s="6"/>
+    </row>
+    <row r="599" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A599" s="6">
+        <v>596</v>
+      </c>
+      <c r="B599" s="6">
+        <v>405042105</v>
+      </c>
+      <c r="C599" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D599" s="6" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E599" s="6">
+        <v>47</v>
+      </c>
+      <c r="F599" s="6">
+        <v>405</v>
+      </c>
+      <c r="G599" s="6">
+        <v>4</v>
+      </c>
+      <c r="H599" s="6"/>
+      <c r="I599" s="6">
+        <v>50</v>
+      </c>
+      <c r="J599" s="6">
+        <v>102</v>
+      </c>
+      <c r="K599" s="6"/>
+      <c r="L599" s="6"/>
+      <c r="M599" s="6"/>
+      <c r="N599" s="6"/>
+      <c r="O599" s="6"/>
+      <c r="P599" s="6"/>
+      <c r="Q599" s="6"/>
+      <c r="R599" s="6"/>
+      <c r="S599" s="6"/>
+      <c r="T599" s="6"/>
+    </row>
+    <row r="600" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A600" s="6">
+        <v>597</v>
+      </c>
+      <c r="B600" s="6">
+        <v>405042106</v>
+      </c>
+      <c r="C600" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D600" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E600" s="6">
+        <v>47</v>
+      </c>
+      <c r="F600" s="6">
+        <v>405</v>
+      </c>
+      <c r="G600" s="6">
+        <v>4</v>
+      </c>
+      <c r="H600" s="6"/>
+      <c r="I600" s="6">
+        <v>100</v>
+      </c>
+      <c r="J600" s="6">
+        <v>102</v>
+      </c>
+      <c r="K600" s="6"/>
+      <c r="L600" s="6"/>
+      <c r="M600" s="6"/>
+      <c r="N600" s="6"/>
+      <c r="O600" s="6"/>
+      <c r="P600" s="6"/>
+      <c r="Q600" s="6"/>
+      <c r="R600" s="6"/>
+      <c r="S600" s="6"/>
+      <c r="T600" s="6"/>
+    </row>
+    <row r="601" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A601" s="6">
+        <v>598</v>
+      </c>
+      <c r="B601" s="6">
+        <v>405042401</v>
+      </c>
+      <c r="C601" s="6" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D601" s="6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E601" s="6">
+        <v>47</v>
+      </c>
+      <c r="F601" s="6">
+        <v>405</v>
+      </c>
+      <c r="G601" s="6">
+        <v>4</v>
+      </c>
+      <c r="H601" s="6"/>
+      <c r="I601" s="6">
+        <v>1</v>
+      </c>
+      <c r="J601" s="6">
+        <v>204</v>
+      </c>
+      <c r="K601" s="6"/>
+      <c r="L601" s="6"/>
+      <c r="M601" s="6"/>
+      <c r="N601" s="6"/>
+      <c r="O601" s="6"/>
+      <c r="P601" s="6"/>
+      <c r="Q601" s="6"/>
+      <c r="R601" s="6"/>
+      <c r="S601" s="6"/>
+      <c r="T601" s="6"/>
+    </row>
+    <row r="602" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A602" s="6">
+        <v>599</v>
+      </c>
+      <c r="B602" s="6">
+        <v>405042402</v>
+      </c>
+      <c r="C602" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D602" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E602" s="6">
+        <v>47</v>
+      </c>
+      <c r="F602" s="6">
+        <v>405</v>
+      </c>
+      <c r="G602" s="6">
+        <v>4</v>
+      </c>
+      <c r="H602" s="6"/>
+      <c r="I602" s="6">
+        <v>5</v>
+      </c>
+      <c r="J602" s="6">
+        <v>204</v>
+      </c>
+      <c r="K602" s="6"/>
+      <c r="L602" s="6"/>
+      <c r="M602" s="6"/>
+      <c r="N602" s="6"/>
+      <c r="O602" s="6"/>
+      <c r="P602" s="6"/>
+      <c r="Q602" s="6"/>
+      <c r="R602" s="6"/>
+      <c r="S602" s="6"/>
+      <c r="T602" s="6"/>
+    </row>
+    <row r="603" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A603" s="6">
+        <v>600</v>
+      </c>
+      <c r="B603" s="6">
+        <v>405042403</v>
+      </c>
+      <c r="C603" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D603" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E603" s="6">
+        <v>47</v>
+      </c>
+      <c r="F603" s="6">
+        <v>405</v>
+      </c>
+      <c r="G603" s="6">
+        <v>4</v>
+      </c>
+      <c r="H603" s="6"/>
+      <c r="I603" s="6">
+        <v>10</v>
+      </c>
+      <c r="J603" s="6">
+        <v>204</v>
+      </c>
+      <c r="K603" s="6"/>
+      <c r="L603" s="6"/>
+      <c r="M603" s="6"/>
+      <c r="N603" s="6"/>
+      <c r="O603" s="6"/>
+      <c r="P603" s="6"/>
+      <c r="Q603" s="6"/>
+      <c r="R603" s="6"/>
+      <c r="S603" s="6"/>
+      <c r="T603" s="6"/>
+    </row>
+    <row r="604" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A604" s="6">
+        <v>601</v>
+      </c>
+      <c r="B604" s="6">
+        <v>405042404</v>
+      </c>
+      <c r="C604" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D604" s="6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E604" s="6">
+        <v>47</v>
+      </c>
+      <c r="F604" s="6">
+        <v>405</v>
+      </c>
+      <c r="G604" s="6">
+        <v>4</v>
+      </c>
+      <c r="H604" s="6"/>
+      <c r="I604" s="6">
+        <v>20</v>
+      </c>
+      <c r="J604" s="6">
+        <v>204</v>
+      </c>
+      <c r="K604" s="6"/>
+      <c r="L604" s="6"/>
+      <c r="M604" s="6"/>
+      <c r="N604" s="6"/>
+      <c r="O604" s="6"/>
+      <c r="P604" s="6"/>
+      <c r="Q604" s="6"/>
+      <c r="R604" s="6"/>
+      <c r="S604" s="6"/>
+      <c r="T604" s="6"/>
+    </row>
+    <row r="605" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A605" s="6">
+        <v>602</v>
+      </c>
+      <c r="B605" s="6">
+        <v>405042405</v>
+      </c>
+      <c r="C605" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D605" s="6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E605" s="6">
+        <v>47</v>
+      </c>
+      <c r="F605" s="6">
+        <v>405</v>
+      </c>
+      <c r="G605" s="6">
+        <v>4</v>
+      </c>
+      <c r="H605" s="6"/>
+      <c r="I605" s="6">
+        <v>50</v>
+      </c>
+      <c r="J605" s="6">
+        <v>204</v>
+      </c>
+      <c r="K605" s="6"/>
+      <c r="L605" s="6"/>
+      <c r="M605" s="6"/>
+      <c r="N605" s="6"/>
+      <c r="O605" s="6"/>
+      <c r="P605" s="6"/>
+      <c r="Q605" s="6"/>
+      <c r="R605" s="6"/>
+      <c r="S605" s="6"/>
+      <c r="T605" s="6"/>
+    </row>
+    <row r="606" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A606" s="6">
+        <v>603</v>
+      </c>
+      <c r="B606" s="6">
+        <v>405042406</v>
+      </c>
+      <c r="C606" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D606" s="6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E606" s="6">
+        <v>47</v>
+      </c>
+      <c r="F606" s="6">
+        <v>405</v>
+      </c>
+      <c r="G606" s="6">
+        <v>4</v>
+      </c>
+      <c r="H606" s="6"/>
+      <c r="I606" s="6">
+        <v>100</v>
+      </c>
+      <c r="J606" s="6">
+        <v>204</v>
+      </c>
+      <c r="K606" s="6"/>
+      <c r="L606" s="6"/>
+      <c r="M606" s="6"/>
+      <c r="N606" s="6"/>
+      <c r="O606" s="6"/>
+      <c r="P606" s="6"/>
+      <c r="Q606" s="6"/>
+      <c r="R606" s="6"/>
+      <c r="S606" s="6"/>
+      <c r="T606" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E564" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -28461,13 +29530,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34756B03-19AD-48C0-85DE-3879039F5624}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29376,6 +30445,12 @@
       <c r="F45">
         <v>32</v>
       </c>
+      <c r="I45">
+        <v>47</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -29550,27 +30625,24 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>1407</v>
       </c>
       <c r="B58">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="E58" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
+      <c r="E58" s="26" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B59">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -29579,84 +30651,90 @@
         <v>182</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B60">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="C60">
         <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B61">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C61">
         <v>1</v>
-      </c>
-      <c r="F61">
-        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B62">
         <v>402</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B63">
         <v>402</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B64">
         <v>402</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B65">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B66">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -29664,136 +30742,148 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B67">
         <v>405</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
-        <v>1342</v>
+      <c r="A68" t="s">
+        <v>264</v>
       </c>
       <c r="B68">
         <v>405</v>
       </c>
       <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="F68">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>1389</v>
+        <v>1342</v>
       </c>
       <c r="B69">
         <v>405</v>
       </c>
       <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B70">
+        <v>405</v>
+      </c>
+      <c r="C70">
         <v>4</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E70" s="19" t="s">
         <v>1390</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>267</v>
-      </c>
-      <c r="B70">
-        <v>406</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B71">
         <v>406</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B72">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B73">
         <v>501</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B74">
-        <v>601</v>
+        <v>501</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75">
+        <v>601</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>290</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>602</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O253"/>
+  <dimension ref="A1:O275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E240" sqref="E240"/>
+      <selection pane="bottomRight" activeCell="K264" sqref="K264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="15" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40071,6 +41161,908 @@
       <c r="M253" s="6"/>
       <c r="N253" s="6"/>
       <c r="O253" s="6"/>
+    </row>
+    <row r="254" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="6">
+        <v>251</v>
+      </c>
+      <c r="B254" s="6">
+        <v>1501</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E254" s="6">
+        <v>1502</v>
+      </c>
+      <c r="F254" s="6">
+        <v>15</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H254" s="6">
+        <v>1</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J254" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K254" s="6">
+        <v>0</v>
+      </c>
+      <c r="L254" s="6">
+        <v>10</v>
+      </c>
+      <c r="M254" s="6"/>
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+    </row>
+    <row r="255" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="6">
+        <v>252</v>
+      </c>
+      <c r="B255" s="6">
+        <v>1502</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E255" s="6">
+        <v>1503</v>
+      </c>
+      <c r="F255" s="6">
+        <v>15</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H255" s="6">
+        <v>2</v>
+      </c>
+      <c r="I255" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J255" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K255" s="6">
+        <v>0</v>
+      </c>
+      <c r="L255" s="6">
+        <v>20</v>
+      </c>
+      <c r="M255" s="6"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+    </row>
+    <row r="256" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="6">
+        <v>253</v>
+      </c>
+      <c r="B256" s="6">
+        <v>1503</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E256" s="6">
+        <v>1504</v>
+      </c>
+      <c r="F256" s="6">
+        <v>15</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H256" s="6">
+        <v>3</v>
+      </c>
+      <c r="I256" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J256" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K256" s="6">
+        <v>0</v>
+      </c>
+      <c r="L256" s="6">
+        <v>30</v>
+      </c>
+      <c r="M256" s="6"/>
+      <c r="N256" s="6"/>
+      <c r="O256" s="6"/>
+    </row>
+    <row r="257" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="6">
+        <v>254</v>
+      </c>
+      <c r="B257" s="6">
+        <v>1504</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E257" s="6">
+        <v>1505</v>
+      </c>
+      <c r="F257" s="6">
+        <v>15</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H257" s="6">
+        <v>4</v>
+      </c>
+      <c r="I257" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J257" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K257" s="6">
+        <v>0</v>
+      </c>
+      <c r="L257" s="6">
+        <v>50</v>
+      </c>
+      <c r="M257" s="6"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+    </row>
+    <row r="258" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="6">
+        <v>255</v>
+      </c>
+      <c r="B258" s="6">
+        <v>1505</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E258" s="6">
+        <v>1506</v>
+      </c>
+      <c r="F258" s="6">
+        <v>15</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H258" s="6">
+        <v>5</v>
+      </c>
+      <c r="I258" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="J258" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K258" s="6">
+        <v>0</v>
+      </c>
+      <c r="L258" s="6">
+        <v>50</v>
+      </c>
+      <c r="M258" s="6"/>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+    </row>
+    <row r="259" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="6">
+        <v>256</v>
+      </c>
+      <c r="B259" s="6">
+        <v>1506</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E259" s="6">
+        <v>1507</v>
+      </c>
+      <c r="F259" s="6">
+        <v>15</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H259" s="6">
+        <v>6</v>
+      </c>
+      <c r="I259" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J259" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K259" s="6">
+        <v>0</v>
+      </c>
+      <c r="L259" s="6">
+        <v>50</v>
+      </c>
+      <c r="M259" s="6"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+    </row>
+    <row r="260" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="6">
+        <v>257</v>
+      </c>
+      <c r="B260" s="6">
+        <v>1507</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E260" s="6">
+        <v>1508</v>
+      </c>
+      <c r="F260" s="6">
+        <v>15</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H260" s="6">
+        <v>7</v>
+      </c>
+      <c r="I260" s="6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J260" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K260" s="6">
+        <v>0</v>
+      </c>
+      <c r="L260" s="6">
+        <v>50</v>
+      </c>
+      <c r="M260" s="6"/>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+    </row>
+    <row r="261" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="6">
+        <v>258</v>
+      </c>
+      <c r="B261" s="6">
+        <v>1508</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E261" s="6">
+        <v>1509</v>
+      </c>
+      <c r="F261" s="6">
+        <v>15</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H261" s="6">
+        <v>8</v>
+      </c>
+      <c r="I261" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J261" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K261" s="6">
+        <v>0</v>
+      </c>
+      <c r="L261" s="6">
+        <v>50</v>
+      </c>
+      <c r="M261" s="6"/>
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+    </row>
+    <row r="262" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="6">
+        <v>259</v>
+      </c>
+      <c r="B262" s="6">
+        <v>1509</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E262" s="6">
+        <v>1510</v>
+      </c>
+      <c r="F262" s="6">
+        <v>15</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H262" s="6">
+        <v>9</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J262" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K262" s="6">
+        <v>0</v>
+      </c>
+      <c r="L262" s="6">
+        <v>50</v>
+      </c>
+      <c r="M262" s="6"/>
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+    </row>
+    <row r="263" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="6">
+        <v>260</v>
+      </c>
+      <c r="B263" s="6">
+        <v>1510</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="F263" s="6">
+        <v>15</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H263" s="6">
+        <v>10</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J263" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K263" s="6">
+        <v>0</v>
+      </c>
+      <c r="L263" s="6">
+        <v>50</v>
+      </c>
+      <c r="M263" s="6"/>
+      <c r="N263" s="6"/>
+      <c r="O263" s="6"/>
+    </row>
+    <row r="264" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="6">
+        <v>261</v>
+      </c>
+      <c r="B264" s="6">
+        <v>1601</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E264" s="6">
+        <v>1602</v>
+      </c>
+      <c r="F264" s="6">
+        <v>16</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H264" s="6">
+        <v>1</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J264" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K264" s="6">
+        <v>0</v>
+      </c>
+      <c r="L264" s="6">
+        <v>10</v>
+      </c>
+      <c r="M264" s="6"/>
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
+    </row>
+    <row r="265" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="6">
+        <v>262</v>
+      </c>
+      <c r="B265" s="6">
+        <v>1602</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E265" s="6">
+        <v>1603</v>
+      </c>
+      <c r="F265" s="6">
+        <v>16</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H265" s="6">
+        <v>2</v>
+      </c>
+      <c r="I265" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J265" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K265" s="6">
+        <v>0</v>
+      </c>
+      <c r="L265" s="6">
+        <v>20</v>
+      </c>
+      <c r="M265" s="6"/>
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+    </row>
+    <row r="266" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="6">
+        <v>263</v>
+      </c>
+      <c r="B266" s="6">
+        <v>1603</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E266" s="6">
+        <v>1604</v>
+      </c>
+      <c r="F266" s="6">
+        <v>16</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H266" s="6">
+        <v>3</v>
+      </c>
+      <c r="I266" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J266" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K266" s="6">
+        <v>0</v>
+      </c>
+      <c r="L266" s="6">
+        <v>30</v>
+      </c>
+      <c r="M266" s="6"/>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+    </row>
+    <row r="267" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="6">
+        <v>264</v>
+      </c>
+      <c r="B267" s="6">
+        <v>1604</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E267" s="6">
+        <v>1605</v>
+      </c>
+      <c r="F267" s="6">
+        <v>16</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H267" s="6">
+        <v>4</v>
+      </c>
+      <c r="I267" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J267" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K267" s="6">
+        <v>0</v>
+      </c>
+      <c r="L267" s="6">
+        <v>50</v>
+      </c>
+      <c r="M267" s="6"/>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+    </row>
+    <row r="268" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="6">
+        <v>265</v>
+      </c>
+      <c r="B268" s="6">
+        <v>1605</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E268" s="6">
+        <v>1606</v>
+      </c>
+      <c r="F268" s="6">
+        <v>16</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H268" s="6">
+        <v>5</v>
+      </c>
+      <c r="I268" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J268" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K268" s="6">
+        <v>0</v>
+      </c>
+      <c r="L268" s="6">
+        <v>50</v>
+      </c>
+      <c r="M268" s="6"/>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+    </row>
+    <row r="269" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="6">
+        <v>266</v>
+      </c>
+      <c r="B269" s="6">
+        <v>1606</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="F269" s="6">
+        <v>16</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H269" s="6">
+        <v>6</v>
+      </c>
+      <c r="I269" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J269" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K269" s="6">
+        <v>0</v>
+      </c>
+      <c r="L269" s="6">
+        <v>50</v>
+      </c>
+      <c r="M269" s="6"/>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+    </row>
+    <row r="270" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="6">
+        <v>267</v>
+      </c>
+      <c r="B270" s="6">
+        <v>1701</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E270" s="6">
+        <v>1702</v>
+      </c>
+      <c r="F270" s="6">
+        <v>17</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H270" s="6">
+        <v>1</v>
+      </c>
+      <c r="I270" s="6" t="s">
+        <v>1428</v>
+      </c>
+      <c r="J270" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K270" s="6">
+        <v>0</v>
+      </c>
+      <c r="L270" s="6">
+        <v>10</v>
+      </c>
+      <c r="M270" s="6"/>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+    </row>
+    <row r="271" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="6">
+        <v>268</v>
+      </c>
+      <c r="B271" s="6">
+        <v>1702</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E271" s="6">
+        <v>1703</v>
+      </c>
+      <c r="F271" s="6">
+        <v>17</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H271" s="6">
+        <v>2</v>
+      </c>
+      <c r="I271" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J271" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K271" s="6">
+        <v>0</v>
+      </c>
+      <c r="L271" s="6">
+        <v>20</v>
+      </c>
+      <c r="M271" s="6"/>
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+    </row>
+    <row r="272" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="6">
+        <v>269</v>
+      </c>
+      <c r="B272" s="6">
+        <v>1703</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E272" s="6">
+        <v>1704</v>
+      </c>
+      <c r="F272" s="6">
+        <v>17</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H272" s="6">
+        <v>3</v>
+      </c>
+      <c r="I272" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J272" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K272" s="6">
+        <v>0</v>
+      </c>
+      <c r="L272" s="6">
+        <v>30</v>
+      </c>
+      <c r="M272" s="6"/>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+    </row>
+    <row r="273" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="6">
+        <v>270</v>
+      </c>
+      <c r="B273" s="6">
+        <v>1704</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E273" s="6">
+        <v>1705</v>
+      </c>
+      <c r="F273" s="6">
+        <v>17</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H273" s="6">
+        <v>4</v>
+      </c>
+      <c r="I273" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J273" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K273" s="6">
+        <v>0</v>
+      </c>
+      <c r="L273" s="6">
+        <v>50</v>
+      </c>
+      <c r="M273" s="6"/>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+    </row>
+    <row r="274" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="6">
+        <v>271</v>
+      </c>
+      <c r="B274" s="6">
+        <v>1705</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E274" s="6">
+        <v>1706</v>
+      </c>
+      <c r="F274" s="6">
+        <v>17</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H274" s="6">
+        <v>5</v>
+      </c>
+      <c r="I274" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J274" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K274" s="6">
+        <v>0</v>
+      </c>
+      <c r="L274" s="6">
+        <v>50</v>
+      </c>
+      <c r="M274" s="6"/>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+    </row>
+    <row r="275" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="6">
+        <v>272</v>
+      </c>
+      <c r="B275" s="6">
+        <v>1706</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="F275" s="6">
+        <v>17</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="H275" s="6">
+        <v>6</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J275" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K275" s="6">
+        <v>0</v>
+      </c>
+      <c r="L275" s="6">
+        <v>50</v>
+      </c>
+      <c r="M275" s="6"/>
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -40081,10 +42073,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E15:E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40227,6 +42219,30 @@
       </c>
       <c r="B17" s="6" t="s">
         <v>981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1460</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6ECF32-46A9-4070-824A-1C66D6BCA4A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302E360D-9F44-4D60-8A2E-71A308FED124}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1606">
   <si>
     <t>sheet名</t>
   </si>
@@ -5211,6 +5211,443 @@
   <si>
     <t>激光炮核能</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰升级到10级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰升级到80级</t>
+  </si>
+  <si>
+    <t>主舰升级到100级</t>
+  </si>
+  <si>
+    <t>主舰升级到120级</t>
+  </si>
+  <si>
+    <t>主舰升级到180级</t>
+  </si>
+  <si>
+    <t>主舰升级到200级</t>
+  </si>
+  <si>
+    <t>主舰升级到220级</t>
+  </si>
+  <si>
+    <t>主舰升级到250级</t>
+  </si>
+  <si>
+    <t>主舰升级到300级</t>
+  </si>
+  <si>
+    <t>主舰升级到20级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰升级到50级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰升级到400级</t>
+  </si>
+  <si>
+    <t>主舰升级到500级</t>
+  </si>
+  <si>
+    <t>主舰升级到600级</t>
+  </si>
+  <si>
+    <t>主舰升级到700级</t>
+  </si>
+  <si>
+    <t>主舰升级到800级</t>
+  </si>
+  <si>
+    <t>主舰升级到850级</t>
+  </si>
+  <si>
+    <t>主舰升级到900级</t>
+  </si>
+  <si>
+    <t>主舰升级到950级</t>
+  </si>
+  <si>
+    <t>主舰升级到1000级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到10级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到20级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到50级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到100级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到200级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到400级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到600级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到800级</t>
+  </si>
+  <si>
+    <t>导弹炮升级到1000级</t>
+  </si>
+  <si>
+    <t>激光炮升级到10级</t>
+  </si>
+  <si>
+    <t>激光炮升级到20级</t>
+  </si>
+  <si>
+    <t>激光炮升级到50级</t>
+  </si>
+  <si>
+    <t>激光炮升级到100级</t>
+  </si>
+  <si>
+    <t>激光炮升级到200级</t>
+  </si>
+  <si>
+    <t>激光炮升级到400级</t>
+  </si>
+  <si>
+    <t>激光炮升级到600级</t>
+  </si>
+  <si>
+    <t>激光炮升级到800级</t>
+  </si>
+  <si>
+    <t>激光炮升级到1000级</t>
+  </si>
+  <si>
+    <t>战机所有组件10级</t>
+  </si>
+  <si>
+    <t>战机所有组件20级</t>
+  </si>
+  <si>
+    <t>战机所有组件50级</t>
+  </si>
+  <si>
+    <t>战机所有组件100级</t>
+  </si>
+  <si>
+    <t>战机所有组件150级</t>
+  </si>
+  <si>
+    <t>战机所有组件200级</t>
+  </si>
+  <si>
+    <t>战机所有组件250级</t>
+  </si>
+  <si>
+    <t>战机所有组件300级</t>
+  </si>
+  <si>
+    <t>战机所有组件350级</t>
+  </si>
+  <si>
+    <t>战机所有组件400级</t>
+  </si>
+  <si>
+    <t>战机所有组件450级</t>
+  </si>
+  <si>
+    <t>战机所有组件500级</t>
+  </si>
+  <si>
+    <t>战机所有组件600级</t>
+  </si>
+  <si>
+    <t>战机所有组件650级</t>
+  </si>
+  <si>
+    <t>战机所有组件700级</t>
+  </si>
+  <si>
+    <t>战机所有组件800级</t>
+  </si>
+  <si>
+    <t>主舰进阶到达1代</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰进阶到达2代</t>
+  </si>
+  <si>
+    <t>主舰进阶到达3代</t>
+  </si>
+  <si>
+    <t>主舰进阶到达4代</t>
+  </si>
+  <si>
+    <t>主舰进阶到达5代</t>
+  </si>
+  <si>
+    <t>主舰进阶到达6代</t>
+  </si>
+  <si>
+    <t>主舰进阶到达7代</t>
+  </si>
+  <si>
+    <t>主舰进阶到达8代</t>
+  </si>
+  <si>
+    <t>主舰进阶到达9代</t>
+  </si>
+  <si>
+    <t>主舰进阶到达10代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达1代</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破到达2代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达3代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达4代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达5代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达6代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达7代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达8代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达9代</t>
+  </si>
+  <si>
+    <t>导弹炮突破到达10代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达1代</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破到达2代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达3代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达4代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达5代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达6代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达7代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达8代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达9代</t>
+  </si>
+  <si>
+    <t>激光炮突破到达10代</t>
+  </si>
+  <si>
+    <t>装备一个2级晶片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备一个3级晶片</t>
+  </si>
+  <si>
+    <t>装备一个4级晶片</t>
+  </si>
+  <si>
+    <t>装备一个5级晶片</t>
+  </si>
+  <si>
+    <t>装备一个6级晶片</t>
+  </si>
+  <si>
+    <t>装备一个7级晶片</t>
+  </si>
+  <si>
+    <t>装备一个8级晶片</t>
+  </si>
+  <si>
+    <t>装备一个9级晶片</t>
+  </si>
+  <si>
+    <t>晶片总等级到达2级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达5级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达10级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达15级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达20级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达25级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达30级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达35级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达40级</t>
+  </si>
+  <si>
+    <t>晶片总等级到达50级</t>
+  </si>
+  <si>
+    <t>通过第1关</t>
+  </si>
+  <si>
+    <t>通过第2关</t>
+  </si>
+  <si>
+    <t>通过第3关</t>
+  </si>
+  <si>
+    <t>通过第4关</t>
+  </si>
+  <si>
+    <t>通过第5关</t>
+  </si>
+  <si>
+    <t>通过第6关</t>
+  </si>
+  <si>
+    <t>通过第7关</t>
+  </si>
+  <si>
+    <t>通过第8关</t>
+  </si>
+  <si>
+    <t>通过第9关</t>
+  </si>
+  <si>
+    <t>通过第10关</t>
+  </si>
+  <si>
+    <t>通过第20关</t>
+  </si>
+  <si>
+    <t>通过第30关</t>
+  </si>
+  <si>
+    <t>通过第40关</t>
+  </si>
+  <si>
+    <t>通过第50关</t>
+  </si>
+  <si>
+    <t>通过第60关</t>
+  </si>
+  <si>
+    <t>通过第80关</t>
+  </si>
+  <si>
+    <t>通过第100关</t>
+  </si>
+  <si>
+    <t>通过第120关</t>
+  </si>
+  <si>
+    <t>通过第150关</t>
+  </si>
+  <si>
+    <t>通过第180关</t>
+  </si>
+  <si>
+    <t>通过第200关</t>
+  </si>
+  <si>
+    <t>通过第220关</t>
+  </si>
+  <si>
+    <t>通过第250关</t>
+  </si>
+  <si>
+    <t>通过第280关</t>
+  </si>
+  <si>
+    <t>通过第300关</t>
+  </si>
+  <si>
+    <t>通过第320关</t>
+  </si>
+  <si>
+    <t>通过第350关</t>
+  </si>
+  <si>
+    <t>通过第380关</t>
+  </si>
+  <si>
+    <t>通过第400关</t>
+  </si>
+  <si>
+    <t>通过第420关</t>
+  </si>
+  <si>
+    <t>通过第450关</t>
+  </si>
+  <si>
+    <t>通过第480关</t>
+  </si>
+  <si>
+    <t>通过第500关</t>
+  </si>
+  <si>
+    <t>通过第550关</t>
+  </si>
+  <si>
+    <t>通过第600关</t>
+  </si>
+  <si>
+    <t>通过第650关</t>
+  </si>
+  <si>
+    <t>通过第700关</t>
+  </si>
+  <si>
+    <t>通过第750关</t>
+  </si>
+  <si>
+    <t>通过第800关</t>
+  </si>
+  <si>
+    <t>通过第1000关</t>
   </si>
 </sst>
 </file>
@@ -6043,11 +6480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T606"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D454" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J482" sqref="J482"/>
+      <selection pane="bottomRight" activeCell="D496" sqref="D496:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6143,7 +6580,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>1463</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -30866,11 +31303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O275"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D248" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C270" sqref="C270:C275"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31034,7 +31471,9 @@
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>1464</v>
+      </c>
       <c r="E4" s="6">
         <v>102</v>
       </c>
@@ -31073,7 +31512,9 @@
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>1473</v>
+      </c>
       <c r="E5" s="6">
         <v>103</v>
       </c>
@@ -31112,7 +31553,9 @@
       <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>1474</v>
+      </c>
       <c r="E6" s="6">
         <v>104</v>
       </c>
@@ -31151,7 +31594,9 @@
       <c r="C7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>1465</v>
+      </c>
       <c r="E7" s="6">
         <v>105</v>
       </c>
@@ -31190,7 +31635,9 @@
       <c r="C8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>1466</v>
+      </c>
       <c r="E8" s="6">
         <v>106</v>
       </c>
@@ -31229,7 +31676,9 @@
       <c r="C9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>1467</v>
+      </c>
       <c r="E9" s="6">
         <v>107</v>
       </c>
@@ -31268,7 +31717,9 @@
       <c r="C10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>1468</v>
+      </c>
       <c r="E10" s="6">
         <v>108</v>
       </c>
@@ -31307,7 +31758,9 @@
       <c r="C11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>1469</v>
+      </c>
       <c r="E11" s="6">
         <v>109</v>
       </c>
@@ -31346,7 +31799,9 @@
       <c r="C12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>1470</v>
+      </c>
       <c r="E12" s="6">
         <v>110</v>
       </c>
@@ -31385,7 +31840,9 @@
       <c r="C13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>1471</v>
+      </c>
       <c r="E13" s="6">
         <v>111</v>
       </c>
@@ -31424,7 +31881,9 @@
       <c r="C14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>1472</v>
+      </c>
       <c r="E14" s="6">
         <v>112</v>
       </c>
@@ -31463,7 +31922,9 @@
       <c r="C15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>1475</v>
+      </c>
       <c r="E15" s="6">
         <v>113</v>
       </c>
@@ -31502,7 +31963,9 @@
       <c r="C16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>1476</v>
+      </c>
       <c r="E16" s="6">
         <v>114</v>
       </c>
@@ -31541,7 +32004,9 @@
       <c r="C17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>1477</v>
+      </c>
       <c r="E17" s="6">
         <v>115</v>
       </c>
@@ -31580,7 +32045,9 @@
       <c r="C18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>1478</v>
+      </c>
       <c r="E18" s="6">
         <v>116</v>
       </c>
@@ -31619,7 +32086,9 @@
       <c r="C19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>1479</v>
+      </c>
       <c r="E19" s="6">
         <v>117</v>
       </c>
@@ -31658,7 +32127,9 @@
       <c r="C20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>1480</v>
+      </c>
       <c r="E20" s="6">
         <v>118</v>
       </c>
@@ -31697,7 +32168,9 @@
       <c r="C21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>1481</v>
+      </c>
       <c r="E21" s="6">
         <v>119</v>
       </c>
@@ -31736,7 +32209,9 @@
       <c r="C22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>1482</v>
+      </c>
       <c r="E22" s="6">
         <v>120</v>
       </c>
@@ -31775,7 +32250,9 @@
       <c r="C23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>1483</v>
+      </c>
       <c r="E23" s="20" t="s">
         <v>998</v>
       </c>
@@ -31814,7 +32291,9 @@
       <c r="C24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>1484</v>
+      </c>
       <c r="E24" s="6">
         <v>202</v>
       </c>
@@ -31853,7 +32332,9 @@
       <c r="C25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>1485</v>
+      </c>
       <c r="E25" s="6">
         <v>203</v>
       </c>
@@ -31892,7 +32373,9 @@
       <c r="C26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>1486</v>
+      </c>
       <c r="E26" s="6">
         <v>204</v>
       </c>
@@ -31931,7 +32414,9 @@
       <c r="C27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>1487</v>
+      </c>
       <c r="E27" s="6">
         <v>205</v>
       </c>
@@ -31970,7 +32455,9 @@
       <c r="C28" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>1488</v>
+      </c>
       <c r="E28" s="6">
         <v>206</v>
       </c>
@@ -32009,7 +32496,9 @@
       <c r="C29" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>1489</v>
+      </c>
       <c r="E29" s="6">
         <v>207</v>
       </c>
@@ -32048,7 +32537,9 @@
       <c r="C30" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>1490</v>
+      </c>
       <c r="E30" s="6">
         <v>208</v>
       </c>
@@ -32087,7 +32578,9 @@
       <c r="C31" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>1491</v>
+      </c>
       <c r="E31" s="6">
         <v>209</v>
       </c>
@@ -32126,7 +32619,9 @@
       <c r="C32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>1492</v>
+      </c>
       <c r="E32" s="20" t="s">
         <v>998</v>
       </c>
@@ -32165,7 +32660,9 @@
       <c r="C33" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>1493</v>
+      </c>
       <c r="E33" s="6">
         <v>302</v>
       </c>
@@ -32204,7 +32701,9 @@
       <c r="C34" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>1494</v>
+      </c>
       <c r="E34" s="6">
         <v>303</v>
       </c>
@@ -32243,7 +32742,9 @@
       <c r="C35" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>1495</v>
+      </c>
       <c r="E35" s="6">
         <v>304</v>
       </c>
@@ -32282,7 +32783,9 @@
       <c r="C36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>1496</v>
+      </c>
       <c r="E36" s="6">
         <v>305</v>
       </c>
@@ -32321,7 +32824,9 @@
       <c r="C37" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>1497</v>
+      </c>
       <c r="E37" s="6">
         <v>306</v>
       </c>
@@ -32360,7 +32865,9 @@
       <c r="C38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>1498</v>
+      </c>
       <c r="E38" s="6">
         <v>307</v>
       </c>
@@ -32399,7 +32906,9 @@
       <c r="C39" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>1499</v>
+      </c>
       <c r="E39" s="6">
         <v>308</v>
       </c>
@@ -32438,7 +32947,9 @@
       <c r="C40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>1500</v>
+      </c>
       <c r="E40" s="6">
         <v>309</v>
       </c>
@@ -32477,7 +32988,9 @@
       <c r="C41" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>1501</v>
+      </c>
       <c r="E41" s="20" t="s">
         <v>998</v>
       </c>
@@ -32516,7 +33029,9 @@
       <c r="C42" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>1502</v>
+      </c>
       <c r="E42" s="6">
         <v>402</v>
       </c>
@@ -32555,7 +33070,9 @@
       <c r="C43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>1503</v>
+      </c>
       <c r="E43" s="6">
         <v>403</v>
       </c>
@@ -32594,7 +33111,9 @@
       <c r="C44" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>1504</v>
+      </c>
       <c r="E44" s="6">
         <v>404</v>
       </c>
@@ -32633,7 +33152,9 @@
       <c r="C45" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>1505</v>
+      </c>
       <c r="E45" s="6">
         <v>405</v>
       </c>
@@ -32672,7 +33193,9 @@
       <c r="C46" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>1506</v>
+      </c>
       <c r="E46" s="6">
         <v>406</v>
       </c>
@@ -32711,7 +33234,9 @@
       <c r="C47" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>1507</v>
+      </c>
       <c r="E47" s="6">
         <v>407</v>
       </c>
@@ -32750,7 +33275,9 @@
       <c r="C48" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>1508</v>
+      </c>
       <c r="E48" s="6">
         <v>408</v>
       </c>
@@ -32789,7 +33316,9 @@
       <c r="C49" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>1509</v>
+      </c>
       <c r="E49" s="6">
         <v>409</v>
       </c>
@@ -32828,7 +33357,9 @@
       <c r="C50" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>1510</v>
+      </c>
       <c r="E50" s="6">
         <v>410</v>
       </c>
@@ -32867,7 +33398,9 @@
       <c r="C51" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>1511</v>
+      </c>
       <c r="E51" s="6">
         <v>411</v>
       </c>
@@ -32906,7 +33439,9 @@
       <c r="C52" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>1512</v>
+      </c>
       <c r="E52" s="6">
         <v>412</v>
       </c>
@@ -32945,7 +33480,9 @@
       <c r="C53" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>1513</v>
+      </c>
       <c r="E53" s="6">
         <v>413</v>
       </c>
@@ -32984,7 +33521,9 @@
       <c r="C54" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>1514</v>
+      </c>
       <c r="E54" s="6">
         <v>414</v>
       </c>
@@ -33023,7 +33562,9 @@
       <c r="C55" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>1515</v>
+      </c>
       <c r="E55" s="6">
         <v>415</v>
       </c>
@@ -33062,7 +33603,9 @@
       <c r="C56" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>1516</v>
+      </c>
       <c r="E56" s="6">
         <v>416</v>
       </c>
@@ -33101,7 +33644,9 @@
       <c r="C57" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>1517</v>
+      </c>
       <c r="E57" s="6" t="s">
         <v>781</v>
       </c>
@@ -33140,7 +33685,9 @@
       <c r="C58" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>1518</v>
+      </c>
       <c r="E58" s="6">
         <v>502</v>
       </c>
@@ -33179,7 +33726,9 @@
       <c r="C59" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>1519</v>
+      </c>
       <c r="E59" s="6">
         <v>503</v>
       </c>
@@ -33218,7 +33767,9 @@
       <c r="C60" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>1520</v>
+      </c>
       <c r="E60" s="6">
         <v>504</v>
       </c>
@@ -33257,7 +33808,9 @@
       <c r="C61" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>1521</v>
+      </c>
       <c r="E61" s="6">
         <v>505</v>
       </c>
@@ -33296,7 +33849,9 @@
       <c r="C62" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>1522</v>
+      </c>
       <c r="E62" s="6">
         <v>506</v>
       </c>
@@ -33335,7 +33890,9 @@
       <c r="C63" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>1523</v>
+      </c>
       <c r="E63" s="6">
         <v>507</v>
       </c>
@@ -33374,7 +33931,9 @@
       <c r="C64" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>1524</v>
+      </c>
       <c r="E64" s="6">
         <v>508</v>
       </c>
@@ -33413,7 +33972,9 @@
       <c r="C65" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>1525</v>
+      </c>
       <c r="E65" s="6">
         <v>509</v>
       </c>
@@ -33452,7 +34013,9 @@
       <c r="C66" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>1526</v>
+      </c>
       <c r="E66" s="6">
         <v>510</v>
       </c>
@@ -33491,7 +34054,9 @@
       <c r="C67" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>1527</v>
+      </c>
       <c r="E67" s="6" t="s">
         <v>781</v>
       </c>
@@ -33530,7 +34095,9 @@
       <c r="C68" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>1528</v>
+      </c>
       <c r="E68" s="6">
         <v>602</v>
       </c>
@@ -33569,7 +34136,9 @@
       <c r="C69" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>1529</v>
+      </c>
       <c r="E69" s="6">
         <v>603</v>
       </c>
@@ -33608,7 +34177,9 @@
       <c r="C70" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>1530</v>
+      </c>
       <c r="E70" s="6">
         <v>604</v>
       </c>
@@ -33647,7 +34218,9 @@
       <c r="C71" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>1531</v>
+      </c>
       <c r="E71" s="6">
         <v>605</v>
       </c>
@@ -33686,7 +34259,9 @@
       <c r="C72" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>1532</v>
+      </c>
       <c r="E72" s="6">
         <v>606</v>
       </c>
@@ -33725,7 +34300,9 @@
       <c r="C73" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>1533</v>
+      </c>
       <c r="E73" s="6">
         <v>607</v>
       </c>
@@ -33764,7 +34341,9 @@
       <c r="C74" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="6" t="s">
+        <v>1534</v>
+      </c>
       <c r="E74" s="6">
         <v>608</v>
       </c>
@@ -33803,7 +34382,9 @@
       <c r="C75" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="D75" s="6" t="s">
+        <v>1535</v>
+      </c>
       <c r="E75" s="6">
         <v>609</v>
       </c>
@@ -33842,7 +34423,9 @@
       <c r="C76" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>1536</v>
+      </c>
       <c r="E76" s="6">
         <v>610</v>
       </c>
@@ -33881,7 +34464,9 @@
       <c r="C77" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>1537</v>
+      </c>
       <c r="E77" s="6" t="s">
         <v>781</v>
       </c>
@@ -33920,7 +34505,9 @@
       <c r="C78" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>1538</v>
+      </c>
       <c r="E78" s="6">
         <v>702</v>
       </c>
@@ -33959,7 +34546,9 @@
       <c r="C79" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>1539</v>
+      </c>
       <c r="E79" s="6">
         <v>703</v>
       </c>
@@ -33998,7 +34587,9 @@
       <c r="C80" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>1540</v>
+      </c>
       <c r="E80" s="6">
         <v>704</v>
       </c>
@@ -34037,7 +34628,9 @@
       <c r="C81" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>1541</v>
+      </c>
       <c r="E81" s="6">
         <v>705</v>
       </c>
@@ -34076,7 +34669,9 @@
       <c r="C82" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D82" s="6"/>
+      <c r="D82" s="6" t="s">
+        <v>1542</v>
+      </c>
       <c r="E82" s="6">
         <v>706</v>
       </c>
@@ -34115,7 +34710,9 @@
       <c r="C83" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>1543</v>
+      </c>
       <c r="E83" s="6">
         <v>707</v>
       </c>
@@ -34154,7 +34751,9 @@
       <c r="C84" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>1544</v>
+      </c>
       <c r="E84" s="6">
         <v>708</v>
       </c>
@@ -34193,7 +34792,9 @@
       <c r="C85" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>1545</v>
+      </c>
       <c r="E85" s="6">
         <v>709</v>
       </c>
@@ -34232,7 +34833,9 @@
       <c r="C86" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>1546</v>
+      </c>
       <c r="E86" s="6">
         <v>710</v>
       </c>
@@ -34271,7 +34874,9 @@
       <c r="C87" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>1547</v>
+      </c>
       <c r="E87" s="6" t="s">
         <v>781</v>
       </c>
@@ -34310,7 +34915,9 @@
       <c r="C88" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="D88" s="6"/>
+      <c r="D88" s="6" t="s">
+        <v>1548</v>
+      </c>
       <c r="E88" s="6">
         <v>802</v>
       </c>
@@ -34349,7 +34956,9 @@
       <c r="C89" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="D89" s="6"/>
+      <c r="D89" s="6" t="s">
+        <v>1549</v>
+      </c>
       <c r="E89" s="6">
         <v>803</v>
       </c>
@@ -34388,7 +34997,9 @@
       <c r="C90" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="D90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>1550</v>
+      </c>
       <c r="E90" s="6">
         <v>804</v>
       </c>
@@ -34427,7 +35038,9 @@
       <c r="C91" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="D91" s="6"/>
+      <c r="D91" s="6" t="s">
+        <v>1551</v>
+      </c>
       <c r="E91" s="6">
         <v>805</v>
       </c>
@@ -34466,7 +35079,9 @@
       <c r="C92" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="D92" s="6"/>
+      <c r="D92" s="6" t="s">
+        <v>1552</v>
+      </c>
       <c r="E92" s="6">
         <v>806</v>
       </c>
@@ -34505,7 +35120,9 @@
       <c r="C93" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="D93" s="6"/>
+      <c r="D93" s="6" t="s">
+        <v>1553</v>
+      </c>
       <c r="E93" s="6">
         <v>807</v>
       </c>
@@ -34544,7 +35161,9 @@
       <c r="C94" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="6" t="s">
+        <v>1554</v>
+      </c>
       <c r="E94" s="6">
         <v>808</v>
       </c>
@@ -34583,7 +35202,9 @@
       <c r="C95" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="6" t="s">
+        <v>1555</v>
+      </c>
       <c r="E95" s="6" t="s">
         <v>781</v>
       </c>
@@ -34622,7 +35243,9 @@
       <c r="C96" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="6" t="s">
+        <v>1556</v>
+      </c>
       <c r="E96" s="6">
         <v>902</v>
       </c>
@@ -34661,7 +35284,9 @@
       <c r="C97" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="6" t="s">
+        <v>1557</v>
+      </c>
       <c r="E97" s="6">
         <v>903</v>
       </c>
@@ -34700,7 +35325,9 @@
       <c r="C98" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="6" t="s">
+        <v>1558</v>
+      </c>
       <c r="E98" s="6">
         <v>904</v>
       </c>
@@ -34739,7 +35366,9 @@
       <c r="C99" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D99" s="6"/>
+      <c r="D99" s="6" t="s">
+        <v>1559</v>
+      </c>
       <c r="E99" s="6">
         <v>905</v>
       </c>
@@ -34778,7 +35407,9 @@
       <c r="C100" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="6" t="s">
+        <v>1560</v>
+      </c>
       <c r="E100" s="6">
         <v>906</v>
       </c>
@@ -34817,7 +35448,9 @@
       <c r="C101" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="D101" s="6" t="s">
+        <v>1561</v>
+      </c>
       <c r="E101" s="6">
         <v>907</v>
       </c>
@@ -34856,7 +35489,9 @@
       <c r="C102" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D102" s="6"/>
+      <c r="D102" s="6" t="s">
+        <v>1562</v>
+      </c>
       <c r="E102" s="6">
         <v>908</v>
       </c>
@@ -34895,7 +35530,9 @@
       <c r="C103" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="6" t="s">
+        <v>1563</v>
+      </c>
       <c r="E103" s="6">
         <v>909</v>
       </c>
@@ -34934,7 +35571,9 @@
       <c r="C104" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="D104" s="6" t="s">
+        <v>1564</v>
+      </c>
       <c r="E104" s="6">
         <v>910</v>
       </c>
@@ -34973,7 +35612,9 @@
       <c r="C105" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D105" s="6"/>
+      <c r="D105" s="6" t="s">
+        <v>1565</v>
+      </c>
       <c r="E105" s="6" t="s">
         <v>781</v>
       </c>
@@ -35012,7 +35653,9 @@
       <c r="C106" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D106" s="6"/>
+      <c r="D106" s="6" t="s">
+        <v>1566</v>
+      </c>
       <c r="E106" s="6">
         <v>1002</v>
       </c>
@@ -35057,7 +35700,9 @@
       <c r="C107" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="D107" s="6"/>
+      <c r="D107" s="6" t="s">
+        <v>1567</v>
+      </c>
       <c r="E107" s="6">
         <v>1003</v>
       </c>
@@ -35102,7 +35747,9 @@
       <c r="C108" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D108" s="6"/>
+      <c r="D108" s="6" t="s">
+        <v>1568</v>
+      </c>
       <c r="E108" s="6">
         <v>1004</v>
       </c>
@@ -35147,7 +35794,9 @@
       <c r="C109" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="6" t="s">
+        <v>1569</v>
+      </c>
       <c r="E109" s="6">
         <v>1005</v>
       </c>
@@ -35192,7 +35841,9 @@
       <c r="C110" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="6" t="s">
+        <v>1570</v>
+      </c>
       <c r="E110" s="6">
         <v>1006</v>
       </c>
@@ -35237,7 +35888,9 @@
       <c r="C111" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D111" s="6"/>
+      <c r="D111" s="6" t="s">
+        <v>1571</v>
+      </c>
       <c r="E111" s="6">
         <v>1007</v>
       </c>
@@ -35282,7 +35935,9 @@
       <c r="C112" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D112" s="6"/>
+      <c r="D112" s="6" t="s">
+        <v>1572</v>
+      </c>
       <c r="E112" s="6">
         <v>1008</v>
       </c>
@@ -35327,7 +35982,9 @@
       <c r="C113" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="D113" s="6" t="s">
+        <v>1573</v>
+      </c>
       <c r="E113" s="6">
         <v>1009</v>
       </c>
@@ -35372,7 +36029,9 @@
       <c r="C114" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D114" s="6"/>
+      <c r="D114" s="6" t="s">
+        <v>1574</v>
+      </c>
       <c r="E114" s="6">
         <v>1010</v>
       </c>
@@ -35417,7 +36076,9 @@
       <c r="C115" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="6" t="s">
+        <v>1575</v>
+      </c>
       <c r="E115" s="6">
         <v>1011</v>
       </c>
@@ -35462,7 +36123,9 @@
       <c r="C116" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="6" t="s">
+        <v>1576</v>
+      </c>
       <c r="E116" s="6">
         <v>1012</v>
       </c>
@@ -35507,7 +36170,9 @@
       <c r="C117" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="6" t="s">
+        <v>1577</v>
+      </c>
       <c r="E117" s="6">
         <v>1013</v>
       </c>
@@ -35552,7 +36217,9 @@
       <c r="C118" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="6" t="s">
+        <v>1578</v>
+      </c>
       <c r="E118" s="6">
         <v>1014</v>
       </c>
@@ -35597,7 +36264,9 @@
       <c r="C119" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D119" s="6"/>
+      <c r="D119" s="6" t="s">
+        <v>1579</v>
+      </c>
       <c r="E119" s="6">
         <v>1015</v>
       </c>
@@ -35642,7 +36311,9 @@
       <c r="C120" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D120" s="6"/>
+      <c r="D120" s="6" t="s">
+        <v>1580</v>
+      </c>
       <c r="E120" s="6">
         <v>1016</v>
       </c>
@@ -35687,7 +36358,9 @@
       <c r="C121" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D121" s="6"/>
+      <c r="D121" s="6" t="s">
+        <v>1581</v>
+      </c>
       <c r="E121" s="6">
         <v>1017</v>
       </c>
@@ -35732,7 +36405,9 @@
       <c r="C122" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="D122" s="6"/>
+      <c r="D122" s="6" t="s">
+        <v>1582</v>
+      </c>
       <c r="E122" s="6">
         <v>1018</v>
       </c>
@@ -35777,7 +36452,9 @@
       <c r="C123" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="D123" s="6" t="s">
+        <v>1583</v>
+      </c>
       <c r="E123" s="6">
         <v>1019</v>
       </c>
@@ -35822,7 +36499,9 @@
       <c r="C124" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D124" s="6"/>
+      <c r="D124" s="6" t="s">
+        <v>1584</v>
+      </c>
       <c r="E124" s="6">
         <v>1020</v>
       </c>
@@ -35867,7 +36546,9 @@
       <c r="C125" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D125" s="6"/>
+      <c r="D125" s="6" t="s">
+        <v>1585</v>
+      </c>
       <c r="E125" s="6">
         <v>1021</v>
       </c>
@@ -35912,7 +36593,9 @@
       <c r="C126" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D126" s="6"/>
+      <c r="D126" s="6" t="s">
+        <v>1586</v>
+      </c>
       <c r="E126" s="6">
         <v>1022</v>
       </c>
@@ -35957,7 +36640,9 @@
       <c r="C127" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="6" t="s">
+        <v>1587</v>
+      </c>
       <c r="E127" s="6">
         <v>1023</v>
       </c>
@@ -36002,7 +36687,9 @@
       <c r="C128" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D128" s="6"/>
+      <c r="D128" s="6" t="s">
+        <v>1588</v>
+      </c>
       <c r="E128" s="6">
         <v>1024</v>
       </c>
@@ -36047,7 +36734,9 @@
       <c r="C129" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D129" s="6"/>
+      <c r="D129" s="6" t="s">
+        <v>1589</v>
+      </c>
       <c r="E129" s="6">
         <v>1025</v>
       </c>
@@ -36092,7 +36781,9 @@
       <c r="C130" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="6" t="s">
+        <v>1590</v>
+      </c>
       <c r="E130" s="6">
         <v>1026</v>
       </c>
@@ -36137,7 +36828,9 @@
       <c r="C131" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="6" t="s">
+        <v>1591</v>
+      </c>
       <c r="E131" s="6">
         <v>1027</v>
       </c>
@@ -36182,7 +36875,9 @@
       <c r="C132" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D132" s="6"/>
+      <c r="D132" s="6" t="s">
+        <v>1592</v>
+      </c>
       <c r="E132" s="6">
         <v>1028</v>
       </c>
@@ -36227,7 +36922,9 @@
       <c r="C133" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D133" s="6"/>
+      <c r="D133" s="6" t="s">
+        <v>1593</v>
+      </c>
       <c r="E133" s="6">
         <v>1029</v>
       </c>
@@ -36272,7 +36969,9 @@
       <c r="C134" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="D134" s="6"/>
+      <c r="D134" s="6" t="s">
+        <v>1594</v>
+      </c>
       <c r="E134" s="6">
         <v>1030</v>
       </c>
@@ -36317,7 +37016,9 @@
       <c r="C135" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D135" s="6"/>
+      <c r="D135" s="6" t="s">
+        <v>1595</v>
+      </c>
       <c r="E135" s="6">
         <v>1031</v>
       </c>
@@ -36362,7 +37063,9 @@
       <c r="C136" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="D136" s="6"/>
+      <c r="D136" s="6" t="s">
+        <v>1596</v>
+      </c>
       <c r="E136" s="6">
         <v>1032</v>
       </c>
@@ -36407,7 +37110,9 @@
       <c r="C137" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D137" s="6"/>
+      <c r="D137" s="6" t="s">
+        <v>1597</v>
+      </c>
       <c r="E137" s="6">
         <v>1033</v>
       </c>
@@ -36452,7 +37157,9 @@
       <c r="C138" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="D138" s="6"/>
+      <c r="D138" s="6" t="s">
+        <v>1598</v>
+      </c>
       <c r="E138" s="6">
         <v>1034</v>
       </c>
@@ -36497,7 +37204,9 @@
       <c r="C139" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D139" s="6"/>
+      <c r="D139" s="6" t="s">
+        <v>1599</v>
+      </c>
       <c r="E139" s="6">
         <v>1035</v>
       </c>
@@ -36542,7 +37251,9 @@
       <c r="C140" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="6" t="s">
+        <v>1600</v>
+      </c>
       <c r="E140" s="6">
         <v>1036</v>
       </c>
@@ -36587,7 +37298,9 @@
       <c r="C141" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D141" s="6"/>
+      <c r="D141" s="6" t="s">
+        <v>1601</v>
+      </c>
       <c r="E141" s="6">
         <v>1037</v>
       </c>
@@ -36632,7 +37345,9 @@
       <c r="C142" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="D142" s="6"/>
+      <c r="D142" s="6" t="s">
+        <v>1602</v>
+      </c>
       <c r="E142" s="6">
         <v>1038</v>
       </c>
@@ -36677,7 +37392,9 @@
       <c r="C143" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D143" s="6"/>
+      <c r="D143" s="6" t="s">
+        <v>1603</v>
+      </c>
       <c r="E143" s="6">
         <v>1039</v>
       </c>
@@ -36722,7 +37439,9 @@
       <c r="C144" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="D144" s="6"/>
+      <c r="D144" s="6" t="s">
+        <v>1604</v>
+      </c>
       <c r="E144" s="6">
         <v>1040</v>
       </c>
@@ -36767,7 +37486,9 @@
       <c r="C145" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="D145" s="6"/>
+      <c r="D145" s="6" t="s">
+        <v>1605</v>
+      </c>
       <c r="E145" s="6" t="s">
         <v>781</v>
       </c>
@@ -36812,7 +37533,9 @@
       <c r="C146" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D146" s="6"/>
+      <c r="D146" s="6" t="s">
+        <v>597</v>
+      </c>
       <c r="E146" s="6">
         <v>1102</v>
       </c>
@@ -36851,7 +37574,9 @@
       <c r="C147" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D147" s="6"/>
+      <c r="D147" s="6" t="s">
+        <v>598</v>
+      </c>
       <c r="E147" s="6">
         <v>1103</v>
       </c>
@@ -36890,7 +37615,9 @@
       <c r="C148" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="D148" s="6"/>
+      <c r="D148" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E148" s="6">
         <v>1104</v>
       </c>
@@ -36929,7 +37656,9 @@
       <c r="C149" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D149" s="6"/>
+      <c r="D149" s="6" t="s">
+        <v>600</v>
+      </c>
       <c r="E149" s="6">
         <v>1105</v>
       </c>
@@ -36968,7 +37697,9 @@
       <c r="C150" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="6" t="s">
+        <v>601</v>
+      </c>
       <c r="E150" s="6">
         <v>1106</v>
       </c>
@@ -37007,7 +37738,9 @@
       <c r="C151" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="D151" s="6"/>
+      <c r="D151" s="6" t="s">
+        <v>602</v>
+      </c>
       <c r="E151" s="6">
         <v>1107</v>
       </c>
@@ -37046,7 +37779,9 @@
       <c r="C152" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="D152" s="6"/>
+      <c r="D152" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="E152" s="6">
         <v>1108</v>
       </c>
@@ -37085,7 +37820,9 @@
       <c r="C153" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="D153" s="6"/>
+      <c r="D153" s="6" t="s">
+        <v>604</v>
+      </c>
       <c r="E153" s="6">
         <v>1109</v>
       </c>
@@ -37124,7 +37861,9 @@
       <c r="C154" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="D154" s="6"/>
+      <c r="D154" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="E154" s="6">
         <v>1110</v>
       </c>
@@ -37163,7 +37902,9 @@
       <c r="C155" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="D155" s="6"/>
+      <c r="D155" s="6" t="s">
+        <v>606</v>
+      </c>
       <c r="E155" s="6">
         <v>1111</v>
       </c>
@@ -37202,7 +37943,9 @@
       <c r="C156" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="D156" s="6"/>
+      <c r="D156" s="6" t="s">
+        <v>607</v>
+      </c>
       <c r="E156" s="6">
         <v>1112</v>
       </c>
@@ -37241,7 +37984,9 @@
       <c r="C157" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="D157" s="6"/>
+      <c r="D157" s="6" t="s">
+        <v>608</v>
+      </c>
       <c r="E157" s="6" t="s">
         <v>781</v>
       </c>
@@ -37280,7 +38025,9 @@
       <c r="C158" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="D158" s="6"/>
+      <c r="D158" s="6" t="s">
+        <v>609</v>
+      </c>
       <c r="E158" s="6">
         <v>1202</v>
       </c>
@@ -37319,7 +38066,9 @@
       <c r="C159" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="D159" s="6"/>
+      <c r="D159" s="6" t="s">
+        <v>610</v>
+      </c>
       <c r="E159" s="6">
         <v>1203</v>
       </c>
@@ -37358,7 +38107,9 @@
       <c r="C160" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="D160" s="7"/>
+      <c r="D160" s="7" t="s">
+        <v>611</v>
+      </c>
       <c r="E160" s="6">
         <v>1204</v>
       </c>
@@ -37397,7 +38148,9 @@
       <c r="C161" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="D161" s="6"/>
+      <c r="D161" s="6" t="s">
+        <v>612</v>
+      </c>
       <c r="E161" s="6">
         <v>1205</v>
       </c>
@@ -37436,7 +38189,9 @@
       <c r="C162" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D162" s="6"/>
+      <c r="D162" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="E162" s="6">
         <v>1206</v>
       </c>
@@ -37475,7 +38230,9 @@
       <c r="C163" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="D163" s="6"/>
+      <c r="D163" s="6" t="s">
+        <v>614</v>
+      </c>
       <c r="E163" s="6">
         <v>1207</v>
       </c>
@@ -37514,7 +38271,9 @@
       <c r="C164" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="D164" s="6"/>
+      <c r="D164" s="6" t="s">
+        <v>615</v>
+      </c>
       <c r="E164" s="6">
         <v>1208</v>
       </c>
@@ -37553,7 +38312,9 @@
       <c r="C165" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="D165" s="6"/>
+      <c r="D165" s="6" t="s">
+        <v>616</v>
+      </c>
       <c r="E165" s="6">
         <v>1209</v>
       </c>
@@ -37592,7 +38353,9 @@
       <c r="C166" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="D166" s="6"/>
+      <c r="D166" s="6" t="s">
+        <v>617</v>
+      </c>
       <c r="E166" s="6">
         <v>1210</v>
       </c>
@@ -37631,7 +38394,9 @@
       <c r="C167" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="D167" s="6"/>
+      <c r="D167" s="6" t="s">
+        <v>618</v>
+      </c>
       <c r="E167" s="6">
         <v>1211</v>
       </c>
@@ -37670,7 +38435,9 @@
       <c r="C168" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="D168" s="6"/>
+      <c r="D168" s="6" t="s">
+        <v>619</v>
+      </c>
       <c r="E168" s="6">
         <v>1212</v>
       </c>
@@ -37709,7 +38476,9 @@
       <c r="C169" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="D169" s="6"/>
+      <c r="D169" s="6" t="s">
+        <v>620</v>
+      </c>
       <c r="E169" s="6">
         <v>1213</v>
       </c>
@@ -37748,7 +38517,9 @@
       <c r="C170" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="D170" s="6"/>
+      <c r="D170" s="6" t="s">
+        <v>621</v>
+      </c>
       <c r="E170" s="6" t="s">
         <v>781</v>
       </c>
@@ -37787,7 +38558,9 @@
       <c r="C171" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="D171" s="6"/>
+      <c r="D171" s="6" t="s">
+        <v>623</v>
+      </c>
       <c r="E171" s="6">
         <v>1302</v>
       </c>
@@ -37826,7 +38599,9 @@
       <c r="C172" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="D172" s="6"/>
+      <c r="D172" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="E172" s="6">
         <v>1303</v>
       </c>
@@ -37865,7 +38640,9 @@
       <c r="C173" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="D173" s="6"/>
+      <c r="D173" s="6" t="s">
+        <v>627</v>
+      </c>
       <c r="E173" s="6">
         <v>1304</v>
       </c>
@@ -37904,7 +38681,9 @@
       <c r="C174" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="D174" s="6"/>
+      <c r="D174" s="6" t="s">
+        <v>629</v>
+      </c>
       <c r="E174" s="6">
         <v>1305</v>
       </c>
@@ -37943,7 +38722,9 @@
       <c r="C175" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="D175" s="6"/>
+      <c r="D175" s="6" t="s">
+        <v>631</v>
+      </c>
       <c r="E175" s="6">
         <v>1306</v>
       </c>
@@ -37982,7 +38763,9 @@
       <c r="C176" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="D176" s="6"/>
+      <c r="D176" s="6" t="s">
+        <v>633</v>
+      </c>
       <c r="E176" s="6">
         <v>1307</v>
       </c>
@@ -38021,7 +38804,9 @@
       <c r="C177" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="D177" s="6"/>
+      <c r="D177" s="6" t="s">
+        <v>635</v>
+      </c>
       <c r="E177" s="6">
         <v>1308</v>
       </c>
@@ -38060,7 +38845,9 @@
       <c r="C178" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="D178" s="6"/>
+      <c r="D178" s="6" t="s">
+        <v>637</v>
+      </c>
       <c r="E178" s="6">
         <v>1309</v>
       </c>
@@ -38099,7 +38886,9 @@
       <c r="C179" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="D179" s="6"/>
+      <c r="D179" s="6" t="s">
+        <v>639</v>
+      </c>
       <c r="E179" s="6">
         <v>1310</v>
       </c>
@@ -38138,7 +38927,9 @@
       <c r="C180" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D180" s="6"/>
+      <c r="D180" s="6" t="s">
+        <v>641</v>
+      </c>
       <c r="E180" s="6">
         <v>1311</v>
       </c>
@@ -38177,7 +38968,9 @@
       <c r="C181" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="D181" s="6"/>
+      <c r="D181" s="6" t="s">
+        <v>643</v>
+      </c>
       <c r="E181" s="6" t="s">
         <v>781</v>
       </c>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302E360D-9F44-4D60-8A2E-71A308FED124}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05C3AB-C091-4BF3-8025-2378DF235CEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31304,10 +31304,10 @@
   <dimension ref="A1:O275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="E106" sqref="E106:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05C3AB-C091-4BF3-8025-2378DF235CEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596E972C-293E-423E-95A1-9544C7631369}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1611">
   <si>
     <t>sheet名</t>
   </si>
@@ -2711,10 +2711,6 @@
   </si>
   <si>
     <t>通过第11关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行一次装备抽奖</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -3164,9 +3160,6 @@
   </si>
   <si>
     <t>新手任务71</t>
-  </si>
-  <si>
-    <t>新手任务72</t>
   </si>
   <si>
     <t>新手任务</t>
@@ -5648,6 +5641,34 @@
   </si>
   <si>
     <t>通过第1000关</t>
+  </si>
+  <si>
+    <t>突破丹</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子S1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6580,7 +6601,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -6701,10 +6722,10 @@
         <v>101010001</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -6739,10 +6760,10 @@
         <v>101010002</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -6777,10 +6798,10 @@
         <v>101010003</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -6815,10 +6836,10 @@
         <v>101010004</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -6853,10 +6874,10 @@
         <v>101010005</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -6891,10 +6912,10 @@
         <v>101010006</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -6929,10 +6950,10 @@
         <v>101010007</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -6967,10 +6988,10 @@
         <v>101010008</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -7005,10 +7026,10 @@
         <v>101010009</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -7046,7 +7067,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -7084,7 +7105,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -7119,10 +7140,10 @@
         <v>101010012</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -7157,10 +7178,10 @@
         <v>101010013</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -7198,7 +7219,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -7233,10 +7254,10 @@
         <v>101010015</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -7271,10 +7292,10 @@
         <v>101010016</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -7312,7 +7333,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -7347,10 +7368,10 @@
         <v>101010018</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -7388,7 +7409,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -7426,7 +7447,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -7461,10 +7482,10 @@
         <v>101010021</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -7499,10 +7520,10 @@
         <v>101010022</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -7540,7 +7561,7 @@
         <v>70</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -7578,7 +7599,7 @@
         <v>71</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
@@ -7616,7 +7637,7 @@
         <v>73</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -7654,7 +7675,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -7692,7 +7713,7 @@
         <v>75</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -7730,7 +7751,7 @@
         <v>77</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -7768,7 +7789,7 @@
         <v>78</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -7806,7 +7827,7 @@
         <v>79</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -7844,7 +7865,7 @@
         <v>80</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -7882,7 +7903,7 @@
         <v>81</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
@@ -7920,7 +7941,7 @@
         <v>83</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -7958,7 +7979,7 @@
         <v>85</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
@@ -7996,7 +8017,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -8034,7 +8055,7 @@
         <v>88</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
@@ -8069,10 +8090,10 @@
         <v>101020001</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
@@ -8107,10 +8128,10 @@
         <v>101020002</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
@@ -8183,10 +8204,10 @@
         <v>101020004</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
@@ -8525,10 +8546,10 @@
         <v>101030001</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E52" s="6">
         <v>3</v>
@@ -8563,10 +8584,10 @@
         <v>101030002</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -8639,10 +8660,10 @@
         <v>101030004</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E55" s="6">
         <v>3</v>
@@ -10729,10 +10750,10 @@
         <v>102040001</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E110" s="6">
         <v>45</v>
@@ -10767,10 +10788,10 @@
         <v>102040002</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E111" s="6">
         <v>45</v>
@@ -10805,10 +10826,10 @@
         <v>102040003</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E112" s="6">
         <v>45</v>
@@ -10843,10 +10864,10 @@
         <v>102040004</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E113" s="6">
         <v>45</v>
@@ -10881,10 +10902,10 @@
         <v>102040005</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E114" s="6">
         <v>45</v>
@@ -10919,10 +10940,10 @@
         <v>102040006</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E115" s="6">
         <v>45</v>
@@ -10957,10 +10978,10 @@
         <v>102040007</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E116" s="6">
         <v>45</v>
@@ -10995,10 +11016,10 @@
         <v>102040008</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E117" s="6">
         <v>45</v>
@@ -11033,10 +11054,10 @@
         <v>102040009</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E118" s="6">
         <v>45</v>
@@ -11071,10 +11092,10 @@
         <v>102040010</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E119" s="6">
         <v>45</v>
@@ -11109,10 +11130,10 @@
         <v>102040011</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E120" s="6">
         <v>45</v>
@@ -11147,10 +11168,10 @@
         <v>102040012</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E121" s="6">
         <v>45</v>
@@ -12781,10 +12802,10 @@
         <v>105010101</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E164" s="6">
         <v>43</v>
@@ -12821,10 +12842,10 @@
         <v>105010102</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E165" s="6">
         <v>43</v>
@@ -12861,10 +12882,10 @@
         <v>105010103</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E166" s="6">
         <v>43</v>
@@ -12901,10 +12922,10 @@
         <v>105010104</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E167" s="6">
         <v>43</v>
@@ -12941,10 +12962,10 @@
         <v>105010105</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E168" s="6">
         <v>43</v>
@@ -12981,10 +13002,10 @@
         <v>105010106</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E169" s="6">
         <v>43</v>
@@ -13021,10 +13042,10 @@
         <v>105010107</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E170" s="6">
         <v>43</v>
@@ -13061,10 +13082,10 @@
         <v>105010108</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E171" s="6">
         <v>43</v>
@@ -13101,10 +13122,10 @@
         <v>105010109</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E172" s="6">
         <v>43</v>
@@ -13141,10 +13162,10 @@
         <v>105010110</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E173" s="6">
         <v>43</v>
@@ -13181,10 +13202,10 @@
         <v>105010111</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E174" s="6">
         <v>43</v>
@@ -13221,10 +13242,10 @@
         <v>105010112</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E175" s="6">
         <v>43</v>
@@ -13261,10 +13282,10 @@
         <v>105010201</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E176" s="6">
         <v>43</v>
@@ -13301,10 +13322,10 @@
         <v>105010202</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E177" s="6">
         <v>43</v>
@@ -13341,10 +13362,10 @@
         <v>105010203</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E178" s="6">
         <v>43</v>
@@ -13381,10 +13402,10 @@
         <v>105010204</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E179" s="6">
         <v>43</v>
@@ -13421,10 +13442,10 @@
         <v>105010205</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E180" s="6">
         <v>43</v>
@@ -13461,10 +13482,10 @@
         <v>105010206</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E181" s="6">
         <v>43</v>
@@ -13501,10 +13522,10 @@
         <v>105010207</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E182" s="6">
         <v>43</v>
@@ -13541,10 +13562,10 @@
         <v>105010208</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E183" s="6">
         <v>43</v>
@@ -13581,10 +13602,10 @@
         <v>105010209</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E184" s="6">
         <v>43</v>
@@ -13621,10 +13642,10 @@
         <v>105010210</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E185" s="6">
         <v>43</v>
@@ -13661,10 +13682,10 @@
         <v>105010211</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E186" s="6">
         <v>43</v>
@@ -13701,10 +13722,10 @@
         <v>105010212</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E187" s="6">
         <v>43</v>
@@ -13741,10 +13762,10 @@
         <v>105010301</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E188" s="6">
         <v>43</v>
@@ -13781,10 +13802,10 @@
         <v>105010302</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E189" s="6">
         <v>43</v>
@@ -13821,10 +13842,10 @@
         <v>105010303</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E190" s="6">
         <v>43</v>
@@ -13861,10 +13882,10 @@
         <v>105010304</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E191" s="6">
         <v>43</v>
@@ -13901,10 +13922,10 @@
         <v>105010305</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E192" s="6">
         <v>43</v>
@@ -13941,10 +13962,10 @@
         <v>105010306</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E193" s="6">
         <v>43</v>
@@ -13981,10 +14002,10 @@
         <v>105010307</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E194" s="6">
         <v>43</v>
@@ -14021,10 +14042,10 @@
         <v>105010308</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E195" s="6">
         <v>43</v>
@@ -14061,10 +14082,10 @@
         <v>105010309</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E196" s="6">
         <v>43</v>
@@ -14101,10 +14122,10 @@
         <v>105010310</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E197" s="6">
         <v>43</v>
@@ -14141,10 +14162,10 @@
         <v>105010311</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E198" s="6">
         <v>43</v>
@@ -14181,10 +14202,10 @@
         <v>105010312</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E199" s="6">
         <v>43</v>
@@ -14221,10 +14242,10 @@
         <v>105010401</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E200" s="6">
         <v>43</v>
@@ -14261,10 +14282,10 @@
         <v>105010402</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E201" s="6">
         <v>43</v>
@@ -14301,10 +14322,10 @@
         <v>105010403</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E202" s="6">
         <v>43</v>
@@ -14341,10 +14362,10 @@
         <v>105010404</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E203" s="6">
         <v>43</v>
@@ -14381,10 +14402,10 @@
         <v>105010405</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E204" s="6">
         <v>43</v>
@@ -14421,10 +14442,10 @@
         <v>105010406</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E205" s="6">
         <v>43</v>
@@ -14461,10 +14482,10 @@
         <v>105010407</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E206" s="6">
         <v>43</v>
@@ -14501,10 +14522,10 @@
         <v>105010408</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E207" s="6">
         <v>43</v>
@@ -14541,10 +14562,10 @@
         <v>105010409</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E208" s="6">
         <v>43</v>
@@ -14581,10 +14602,10 @@
         <v>105010410</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E209" s="6">
         <v>43</v>
@@ -14621,10 +14642,10 @@
         <v>105010411</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E210" s="6">
         <v>43</v>
@@ -14661,10 +14682,10 @@
         <v>105010412</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E211" s="6">
         <v>43</v>
@@ -14701,10 +14722,10 @@
         <v>105010501</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E212" s="6">
         <v>43</v>
@@ -14741,10 +14762,10 @@
         <v>105010502</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E213" s="6">
         <v>43</v>
@@ -14781,10 +14802,10 @@
         <v>105010503</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E214" s="6">
         <v>43</v>
@@ -14821,10 +14842,10 @@
         <v>105010504</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E215" s="6">
         <v>43</v>
@@ -14861,10 +14882,10 @@
         <v>105010505</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E216" s="6">
         <v>43</v>
@@ -14901,10 +14922,10 @@
         <v>105010506</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E217" s="6">
         <v>43</v>
@@ -14941,10 +14962,10 @@
         <v>105010507</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E218" s="6">
         <v>43</v>
@@ -14981,10 +15002,10 @@
         <v>105010508</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E219" s="6">
         <v>43</v>
@@ -15021,10 +15042,10 @@
         <v>105010509</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E220" s="6">
         <v>43</v>
@@ -15061,10 +15082,10 @@
         <v>105010510</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E221" s="6">
         <v>43</v>
@@ -15101,10 +15122,10 @@
         <v>105010511</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E222" s="6">
         <v>43</v>
@@ -15141,10 +15162,10 @@
         <v>105010512</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E223" s="6">
         <v>43</v>
@@ -15181,10 +15202,10 @@
         <v>105010601</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E224" s="6">
         <v>43</v>
@@ -15221,10 +15242,10 @@
         <v>105010602</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E225" s="6">
         <v>43</v>
@@ -15261,10 +15282,10 @@
         <v>105010603</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E226" s="6">
         <v>43</v>
@@ -15301,10 +15322,10 @@
         <v>105010604</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E227" s="6">
         <v>43</v>
@@ -15341,10 +15362,10 @@
         <v>105010605</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E228" s="6">
         <v>43</v>
@@ -15381,10 +15402,10 @@
         <v>105010606</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E229" s="6">
         <v>43</v>
@@ -15421,10 +15442,10 @@
         <v>105010607</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E230" s="6">
         <v>43</v>
@@ -15461,10 +15482,10 @@
         <v>105010608</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E231" s="6">
         <v>43</v>
@@ -15501,10 +15522,10 @@
         <v>105010609</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E232" s="6">
         <v>43</v>
@@ -15541,10 +15562,10 @@
         <v>105010610</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E233" s="6">
         <v>43</v>
@@ -15581,10 +15602,10 @@
         <v>105010611</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E234" s="6">
         <v>43</v>
@@ -15621,10 +15642,10 @@
         <v>105010612</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E235" s="6">
         <v>43</v>
@@ -15661,10 +15682,10 @@
         <v>105010701</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E236" s="6">
         <v>43</v>
@@ -15701,10 +15722,10 @@
         <v>105010702</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E237" s="6">
         <v>43</v>
@@ -15741,10 +15762,10 @@
         <v>105010703</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E238" s="6">
         <v>43</v>
@@ -15781,10 +15802,10 @@
         <v>105010704</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E239" s="6">
         <v>43</v>
@@ -15821,10 +15842,10 @@
         <v>105010705</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E240" s="6">
         <v>43</v>
@@ -15861,10 +15882,10 @@
         <v>105010706</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E241" s="6">
         <v>43</v>
@@ -15901,10 +15922,10 @@
         <v>105010707</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E242" s="6">
         <v>43</v>
@@ -15941,10 +15962,10 @@
         <v>105010708</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E243" s="6">
         <v>43</v>
@@ -15981,10 +16002,10 @@
         <v>105010709</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E244" s="6">
         <v>43</v>
@@ -16021,10 +16042,10 @@
         <v>105010710</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E245" s="6">
         <v>43</v>
@@ -16061,10 +16082,10 @@
         <v>105010711</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E246" s="6">
         <v>43</v>
@@ -16101,10 +16122,10 @@
         <v>105010712</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E247" s="6">
         <v>43</v>
@@ -16141,10 +16162,10 @@
         <v>105010801</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E248" s="6">
         <v>43</v>
@@ -16181,10 +16202,10 @@
         <v>105010802</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E249" s="6">
         <v>43</v>
@@ -16221,10 +16242,10 @@
         <v>105010803</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E250" s="6">
         <v>43</v>
@@ -16261,10 +16282,10 @@
         <v>105010804</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E251" s="6">
         <v>43</v>
@@ -16301,10 +16322,10 @@
         <v>105010805</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E252" s="6">
         <v>43</v>
@@ -16341,10 +16362,10 @@
         <v>105010806</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E253" s="6">
         <v>43</v>
@@ -16381,10 +16402,10 @@
         <v>105010807</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E254" s="6">
         <v>43</v>
@@ -16421,10 +16442,10 @@
         <v>105010808</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E255" s="6">
         <v>43</v>
@@ -16461,10 +16482,10 @@
         <v>105010809</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E256" s="6">
         <v>43</v>
@@ -16501,10 +16522,10 @@
         <v>105010810</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E257" s="6">
         <v>43</v>
@@ -16541,10 +16562,10 @@
         <v>105010811</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E258" s="6">
         <v>43</v>
@@ -16581,10 +16602,10 @@
         <v>105010812</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E259" s="6">
         <v>43</v>
@@ -19322,7 +19343,7 @@
         <v>394</v>
       </c>
       <c r="D331" s="24" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E331" s="12">
         <v>20</v>
@@ -19360,7 +19381,7 @@
         <v>395</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E332" s="12">
         <v>20</v>
@@ -19398,7 +19419,7 @@
         <v>396</v>
       </c>
       <c r="D333" s="24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E333" s="12">
         <v>20</v>
@@ -19436,7 +19457,7 @@
         <v>397</v>
       </c>
       <c r="D334" s="24" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E334" s="12">
         <v>20</v>
@@ -19474,7 +19495,7 @@
         <v>398</v>
       </c>
       <c r="D335" s="24" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E335" s="12">
         <v>20</v>
@@ -19512,7 +19533,7 @@
         <v>399</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E336" s="12">
         <v>20</v>
@@ -19547,10 +19568,10 @@
         <v>107020012</v>
       </c>
       <c r="C337" s="24" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D337" s="24" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E337" s="12">
         <v>20</v>
@@ -19585,10 +19606,10 @@
         <v>107020013</v>
       </c>
       <c r="C338" s="24" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D338" s="24" t="s">
         <v>1333</v>
-      </c>
-      <c r="D338" s="24" t="s">
-        <v>1335</v>
       </c>
       <c r="E338" s="12">
         <v>20</v>
@@ -19623,10 +19644,10 @@
         <v>107020014</v>
       </c>
       <c r="C339" s="24" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D339" s="24" t="s">
         <v>1334</v>
-      </c>
-      <c r="D339" s="24" t="s">
-        <v>1336</v>
       </c>
       <c r="E339" s="12">
         <v>20</v>
@@ -19661,10 +19682,10 @@
         <v>107030001</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D340" s="23" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E340" s="11">
         <v>32</v>
@@ -20117,7 +20138,7 @@
         <v>108020001</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D352" s="11" t="s">
         <v>422</v>
@@ -20155,7 +20176,7 @@
         <v>108020002</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>423</v>
@@ -20193,7 +20214,7 @@
         <v>108020003</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>424</v>
@@ -20231,7 +20252,7 @@
         <v>108020004</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>425</v>
@@ -20269,7 +20290,7 @@
         <v>108020005</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>426</v>
@@ -20307,7 +20328,7 @@
         <v>108020006</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>427</v>
@@ -20345,7 +20366,7 @@
         <v>108020007</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>428</v>
@@ -20383,7 +20404,7 @@
         <v>108020008</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D359" s="11" t="s">
         <v>429</v>
@@ -22131,10 +22152,10 @@
         <v>201010011</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E405" s="6">
         <v>9</v>
@@ -22169,10 +22190,10 @@
         <v>201010012</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E406" s="6">
         <v>9</v>
@@ -22207,10 +22228,10 @@
         <v>201010013</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E407" s="6">
         <v>9</v>
@@ -22245,10 +22266,10 @@
         <v>201010014</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E408" s="6">
         <v>9</v>
@@ -22283,10 +22304,10 @@
         <v>201010015</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E409" s="6">
         <v>9</v>
@@ -22321,10 +22342,10 @@
         <v>201010016</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E410" s="6">
         <v>9</v>
@@ -22359,10 +22380,10 @@
         <v>201010017</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E411" s="6">
         <v>9</v>
@@ -22397,10 +22418,10 @@
         <v>201010018</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E412" s="6">
         <v>9</v>
@@ -22435,10 +22456,10 @@
         <v>201010019</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E413" s="6">
         <v>9</v>
@@ -22511,10 +22532,10 @@
         <v>201010021</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E415" s="6">
         <v>9</v>
@@ -22549,10 +22570,10 @@
         <v>201010022</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E416" s="6">
         <v>9</v>
@@ -22587,10 +22608,10 @@
         <v>201010023</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E417" s="6">
         <v>9</v>
@@ -22625,10 +22646,10 @@
         <v>201010024</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E418" s="6">
         <v>9</v>
@@ -22663,10 +22684,10 @@
         <v>201010025</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E419" s="6">
         <v>9</v>
@@ -22701,10 +22722,10 @@
         <v>201010026</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E420" s="6">
         <v>9</v>
@@ -22739,10 +22760,10 @@
         <v>201010027</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E421" s="6">
         <v>9</v>
@@ -22777,10 +22798,10 @@
         <v>201010028</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E422" s="6">
         <v>9</v>
@@ -22815,10 +22836,10 @@
         <v>201010029</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E423" s="6">
         <v>9</v>
@@ -22891,10 +22912,10 @@
         <v>201010031</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E425" s="6">
         <v>9</v>
@@ -22929,10 +22950,10 @@
         <v>201010032</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E426" s="6">
         <v>9</v>
@@ -22967,10 +22988,10 @@
         <v>201010033</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E427" s="6">
         <v>9</v>
@@ -23005,10 +23026,10 @@
         <v>201010034</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E428" s="6">
         <v>9</v>
@@ -23043,10 +23064,10 @@
         <v>201010035</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E429" s="6">
         <v>9</v>
@@ -23081,10 +23102,10 @@
         <v>201010036</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E430" s="6">
         <v>9</v>
@@ -23119,10 +23140,10 @@
         <v>201010037</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E431" s="6">
         <v>9</v>
@@ -23157,10 +23178,10 @@
         <v>201010038</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E432" s="6">
         <v>9</v>
@@ -23195,10 +23216,10 @@
         <v>201010039</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E433" s="6">
         <v>9</v>
@@ -23271,10 +23292,10 @@
         <v>201010041</v>
       </c>
       <c r="C435" s="20" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D435" s="20" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E435" s="6">
         <v>9</v>
@@ -23347,10 +23368,10 @@
         <v>201010043</v>
       </c>
       <c r="C437" s="20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D437" s="20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="E437" s="6">
         <v>9</v>
@@ -23423,10 +23444,10 @@
         <v>201010045</v>
       </c>
       <c r="C439" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D439" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E439" s="6">
         <v>9</v>
@@ -23499,10 +23520,10 @@
         <v>201010047</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D441" s="20" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E441" s="6">
         <v>9</v>
@@ -28337,10 +28358,10 @@
         <v>602020001</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D565" s="6" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E565" s="6">
         <v>44</v>
@@ -28375,10 +28396,10 @@
         <v>602020002</v>
       </c>
       <c r="C566" s="6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D566" s="6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E566" s="6">
         <v>44</v>
@@ -28413,10 +28434,10 @@
         <v>602020003</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D567" s="6" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E567" s="6">
         <v>44</v>
@@ -28451,10 +28472,10 @@
         <v>602020004</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E568" s="6">
         <v>44</v>
@@ -28489,10 +28510,10 @@
         <v>602020005</v>
       </c>
       <c r="C569" s="20" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D569" s="20" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E569" s="6">
         <v>44</v>
@@ -28527,10 +28548,10 @@
         <v>602020006</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D570" s="6" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E570" s="6">
         <v>44</v>
@@ -28565,10 +28586,10 @@
         <v>602020007</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D571" s="6" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E571" s="6">
         <v>44</v>
@@ -28603,10 +28624,10 @@
         <v>602020008</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E572" s="6">
         <v>44</v>
@@ -28641,10 +28662,10 @@
         <v>602020009</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D573" s="6" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E573" s="6">
         <v>44</v>
@@ -28679,10 +28700,10 @@
         <v>602020010</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E574" s="6">
         <v>44</v>
@@ -28717,10 +28738,10 @@
         <v>407010001</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D575" s="6" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E575" s="6">
         <v>46</v>
@@ -28755,10 +28776,10 @@
         <v>407010002</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E576" s="6">
         <v>46</v>
@@ -28793,10 +28814,10 @@
         <v>407010003</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E577" s="6">
         <v>46</v>
@@ -28831,10 +28852,10 @@
         <v>407010004</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E578" s="6">
         <v>46</v>
@@ -28869,10 +28890,10 @@
         <v>407010005</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D579" s="6" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E579" s="6">
         <v>46</v>
@@ -28907,10 +28928,10 @@
         <v>407010006</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E580" s="6">
         <v>46</v>
@@ -28945,10 +28966,10 @@
         <v>407010007</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D581" s="6" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E581" s="6">
         <v>46</v>
@@ -28983,10 +29004,10 @@
         <v>407010008</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D582" s="6" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E582" s="6">
         <v>46</v>
@@ -29021,10 +29042,10 @@
         <v>407010009</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D583" s="6" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E583" s="6">
         <v>46</v>
@@ -29059,10 +29080,10 @@
         <v>407010010</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D584" s="6" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E584" s="6">
         <v>46</v>
@@ -29097,10 +29118,10 @@
         <v>407021101</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D585" s="6" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E585" s="6">
         <v>47</v>
@@ -29137,10 +29158,10 @@
         <v>407021102</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D586" s="6" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E586" s="6">
         <v>47</v>
@@ -29177,10 +29198,10 @@
         <v>407021103</v>
       </c>
       <c r="C587" s="6" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="D587" s="6" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E587" s="6">
         <v>47</v>
@@ -29217,10 +29238,10 @@
         <v>407021104</v>
       </c>
       <c r="C588" s="6" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D588" s="6" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E588" s="6">
         <v>47</v>
@@ -29257,10 +29278,10 @@
         <v>407021105</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D589" s="6" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E589" s="6">
         <v>47</v>
@@ -29297,10 +29318,10 @@
         <v>407021106</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D590" s="6" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E590" s="6">
         <v>47</v>
@@ -29337,10 +29358,10 @@
         <v>407021107</v>
       </c>
       <c r="C591" s="6" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D591" s="6" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E591" s="6">
         <v>47</v>
@@ -29377,10 +29398,10 @@
         <v>407021108</v>
       </c>
       <c r="C592" s="6" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E592" s="6">
         <v>47</v>
@@ -29417,10 +29438,10 @@
         <v>407021109</v>
       </c>
       <c r="C593" s="6" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D593" s="6" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E593" s="6">
         <v>47</v>
@@ -29457,10 +29478,10 @@
         <v>407021110</v>
       </c>
       <c r="C594" s="6" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D594" s="6" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E594" s="6">
         <v>47</v>
@@ -29497,10 +29518,10 @@
         <v>407022101</v>
       </c>
       <c r="C595" s="6" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D595" s="6" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E595" s="6">
         <v>47</v>
@@ -29537,10 +29558,10 @@
         <v>407022102</v>
       </c>
       <c r="C596" s="6" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D596" s="6" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E596" s="6">
         <v>47</v>
@@ -29577,10 +29598,10 @@
         <v>407022103</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D597" s="6" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E597" s="6">
         <v>47</v>
@@ -29617,10 +29638,10 @@
         <v>407022104</v>
       </c>
       <c r="C598" s="6" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D598" s="6" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E598" s="6">
         <v>47</v>
@@ -29657,10 +29678,10 @@
         <v>407022105</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D599" s="6" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E599" s="6">
         <v>47</v>
@@ -29697,10 +29718,10 @@
         <v>407022106</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D600" s="6" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E600" s="6">
         <v>47</v>
@@ -29737,10 +29758,10 @@
         <v>407022401</v>
       </c>
       <c r="C601" s="6" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D601" s="6" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E601" s="6">
         <v>47</v>
@@ -29777,10 +29798,10 @@
         <v>407022402</v>
       </c>
       <c r="C602" s="6" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D602" s="6" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E602" s="6">
         <v>47</v>
@@ -29817,10 +29838,10 @@
         <v>407022403</v>
       </c>
       <c r="C603" s="6" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D603" s="6" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E603" s="6">
         <v>47</v>
@@ -29857,10 +29878,10 @@
         <v>407022404</v>
       </c>
       <c r="C604" s="6" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D604" s="6" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E604" s="6">
         <v>47</v>
@@ -29897,10 +29918,10 @@
         <v>407022405</v>
       </c>
       <c r="C605" s="6" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D605" s="6" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E605" s="6">
         <v>47</v>
@@ -29937,10 +29958,10 @@
         <v>407022406</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E606" s="6">
         <v>47</v>
@@ -30011,10 +30032,10 @@
         <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -30048,7 +30069,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -30068,7 +30089,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -30088,7 +30109,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -30168,7 +30189,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -30190,7 +30211,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -30202,12 +30223,12 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B12">
         <v>103</v>
@@ -30219,12 +30240,12 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -30239,12 +30260,12 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B14">
         <v>104</v>
@@ -30259,12 +30280,12 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B15">
         <v>104</v>
@@ -30279,12 +30300,12 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B16">
         <v>104</v>
@@ -30299,12 +30320,12 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B17">
         <v>104</v>
@@ -30319,7 +30340,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -30342,7 +30363,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -30365,7 +30386,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -30416,7 +30437,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B22">
         <v>105</v>
@@ -30439,7 +30460,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B23">
         <v>105</v>
@@ -30480,7 +30501,7 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -30508,7 +30529,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B26">
         <v>105</v>
@@ -30528,7 +30549,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B27">
         <v>105</v>
@@ -30580,7 +30601,7 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -30600,7 +30621,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -30620,7 +30641,7 @@
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -30640,7 +30661,7 @@
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -30660,12 +30681,12 @@
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B34">
         <v>106</v>
@@ -30685,7 +30706,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B35">
         <v>106</v>
@@ -30700,12 +30721,12 @@
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B36">
         <v>106</v>
@@ -30720,12 +30741,12 @@
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B37">
         <v>106</v>
@@ -30740,7 +30761,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -30780,7 +30801,7 @@
         <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -30800,7 +30821,7 @@
         <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -30820,7 +30841,7 @@
         <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -30840,7 +30861,7 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -30860,12 +30881,12 @@
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B44">
         <v>107</v>
@@ -30880,12 +30901,12 @@
         <v>46</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B45">
         <v>107</v>
@@ -30900,12 +30921,12 @@
         <v>47</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B46">
         <v>107</v>
@@ -30919,7 +30940,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B47">
         <v>107</v>
@@ -30933,7 +30954,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B48">
         <v>108</v>
@@ -30947,7 +30968,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B49">
         <v>108</v>
@@ -30961,7 +30982,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B50">
         <v>108</v>
@@ -30970,12 +30991,12 @@
         <v>3</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B51">
         <v>108</v>
@@ -30984,10 +31005,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -31034,7 +31055,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B55">
         <v>204</v>
@@ -31043,7 +31064,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F55" s="19">
         <v>26</v>
@@ -31210,7 +31231,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B68">
         <v>407</v>
@@ -31224,7 +31245,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B69">
         <v>407</v>
@@ -31233,7 +31254,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F69">
         <v>47</v>
@@ -31301,13 +31322,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O275"/>
+  <dimension ref="A1:O274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E106" sqref="E106:E144"/>
+      <selection pane="bottomRight" activeCell="A205" sqref="A205:A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31346,7 +31367,7 @@
         <v>762</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>763</v>
@@ -31393,7 +31414,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J2" t="s">
         <v>769</v>
@@ -31472,7 +31493,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E4" s="6">
         <v>102</v>
@@ -31513,7 +31534,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E5" s="6">
         <v>103</v>
@@ -31554,7 +31575,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E6" s="6">
         <v>104</v>
@@ -31595,7 +31616,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E7" s="6">
         <v>105</v>
@@ -31636,7 +31657,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E8" s="6">
         <v>106</v>
@@ -31677,7 +31698,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E9" s="6">
         <v>107</v>
@@ -31718,7 +31739,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E10" s="6">
         <v>108</v>
@@ -31759,7 +31780,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E11" s="6">
         <v>109</v>
@@ -31800,7 +31821,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E12" s="6">
         <v>110</v>
@@ -31841,7 +31862,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E13" s="6">
         <v>111</v>
@@ -31882,7 +31903,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E14" s="6">
         <v>112</v>
@@ -31923,7 +31944,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E15" s="6">
         <v>113</v>
@@ -31964,7 +31985,7 @@
         <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E16" s="6">
         <v>114</v>
@@ -32005,7 +32026,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E17" s="6">
         <v>115</v>
@@ -32046,7 +32067,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E18" s="6">
         <v>116</v>
@@ -32087,7 +32108,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E19" s="6">
         <v>117</v>
@@ -32128,7 +32149,7 @@
         <v>83</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E20" s="6">
         <v>118</v>
@@ -32169,7 +32190,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E21" s="6">
         <v>119</v>
@@ -32210,7 +32231,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E22" s="6">
         <v>120</v>
@@ -32251,10 +32272,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -32292,7 +32313,7 @@
         <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E24" s="6">
         <v>202</v>
@@ -32333,7 +32354,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E25" s="6">
         <v>203</v>
@@ -32374,7 +32395,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E26" s="6">
         <v>204</v>
@@ -32415,7 +32436,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E27" s="6">
         <v>205</v>
@@ -32456,7 +32477,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E28" s="6">
         <v>206</v>
@@ -32497,7 +32518,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E29" s="6">
         <v>207</v>
@@ -32538,7 +32559,7 @@
         <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E30" s="6">
         <v>208</v>
@@ -32579,7 +32600,7 @@
         <v>98</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E31" s="6">
         <v>209</v>
@@ -32620,10 +32641,10 @@
         <v>100</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F32" s="6">
         <v>2</v>
@@ -32661,7 +32682,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E33" s="6">
         <v>302</v>
@@ -32702,7 +32723,7 @@
         <v>104</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E34" s="6">
         <v>303</v>
@@ -32743,7 +32764,7 @@
         <v>106</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E35" s="6">
         <v>304</v>
@@ -32784,7 +32805,7 @@
         <v>107</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E36" s="6">
         <v>305</v>
@@ -32825,7 +32846,7 @@
         <v>109</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E37" s="6">
         <v>306</v>
@@ -32866,7 +32887,7 @@
         <v>110</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E38" s="6">
         <v>307</v>
@@ -32907,7 +32928,7 @@
         <v>111</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E39" s="6">
         <v>308</v>
@@ -32948,7 +32969,7 @@
         <v>112</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E40" s="6">
         <v>309</v>
@@ -32989,10 +33010,10 @@
         <v>114</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
@@ -33030,7 +33051,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="6">
         <v>402</v>
@@ -33071,7 +33092,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E43" s="6">
         <v>403</v>
@@ -33112,7 +33133,7 @@
         <v>122</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E44" s="6">
         <v>404</v>
@@ -33153,7 +33174,7 @@
         <v>124</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E45" s="6">
         <v>405</v>
@@ -33194,7 +33215,7 @@
         <v>126</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E46" s="6">
         <v>406</v>
@@ -33235,7 +33256,7 @@
         <v>128</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E47" s="6">
         <v>407</v>
@@ -33276,7 +33297,7 @@
         <v>129</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E48" s="6">
         <v>408</v>
@@ -33317,7 +33338,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E49" s="6">
         <v>409</v>
@@ -33358,7 +33379,7 @@
         <v>131</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E50" s="6">
         <v>410</v>
@@ -33399,7 +33420,7 @@
         <v>132</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E51" s="6">
         <v>411</v>
@@ -33440,7 +33461,7 @@
         <v>133</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E52" s="6">
         <v>412</v>
@@ -33481,7 +33502,7 @@
         <v>134</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E53" s="6">
         <v>413</v>
@@ -33522,7 +33543,7 @@
         <v>135</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E54" s="6">
         <v>414</v>
@@ -33563,7 +33584,7 @@
         <v>136</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E55" s="6">
         <v>415</v>
@@ -33604,7 +33625,7 @@
         <v>137</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E56" s="6">
         <v>416</v>
@@ -33645,7 +33666,7 @@
         <v>138</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>781</v>
@@ -33686,7 +33707,7 @@
         <v>139</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E58" s="6">
         <v>502</v>
@@ -33727,7 +33748,7 @@
         <v>141</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E59" s="6">
         <v>503</v>
@@ -33768,7 +33789,7 @@
         <v>143</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E60" s="6">
         <v>504</v>
@@ -33809,7 +33830,7 @@
         <v>145</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E61" s="6">
         <v>505</v>
@@ -33850,7 +33871,7 @@
         <v>148</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E62" s="6">
         <v>506</v>
@@ -33891,7 +33912,7 @@
         <v>151</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E63" s="6">
         <v>507</v>
@@ -33932,7 +33953,7 @@
         <v>154</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E64" s="6">
         <v>508</v>
@@ -33973,7 +33994,7 @@
         <v>157</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E65" s="6">
         <v>509</v>
@@ -34014,7 +34035,7 @@
         <v>160</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="E66" s="6">
         <v>510</v>
@@ -34055,7 +34076,7 @@
         <v>162</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>781</v>
@@ -34096,7 +34117,7 @@
         <v>164</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E68" s="6">
         <v>602</v>
@@ -34137,7 +34158,7 @@
         <v>166</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E69" s="6">
         <v>603</v>
@@ -34178,7 +34199,7 @@
         <v>169</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E70" s="6">
         <v>604</v>
@@ -34219,7 +34240,7 @@
         <v>172</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E71" s="6">
         <v>605</v>
@@ -34260,7 +34281,7 @@
         <v>175</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E72" s="6">
         <v>606</v>
@@ -34301,7 +34322,7 @@
         <v>179</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E73" s="6">
         <v>607</v>
@@ -34342,7 +34363,7 @@
         <v>182</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E74" s="6">
         <v>608</v>
@@ -34383,7 +34404,7 @@
         <v>184</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="E75" s="6">
         <v>609</v>
@@ -34424,7 +34445,7 @@
         <v>186</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E76" s="6">
         <v>610</v>
@@ -34465,7 +34486,7 @@
         <v>188</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>781</v>
@@ -34506,7 +34527,7 @@
         <v>191</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E78" s="6">
         <v>702</v>
@@ -34547,7 +34568,7 @@
         <v>193</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E79" s="6">
         <v>703</v>
@@ -34588,7 +34609,7 @@
         <v>196</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E80" s="6">
         <v>704</v>
@@ -34629,7 +34650,7 @@
         <v>198</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E81" s="6">
         <v>705</v>
@@ -34670,7 +34691,7 @@
         <v>200</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E82" s="6">
         <v>706</v>
@@ -34711,7 +34732,7 @@
         <v>202</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E83" s="6">
         <v>707</v>
@@ -34752,7 +34773,7 @@
         <v>205</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E84" s="6">
         <v>708</v>
@@ -34793,7 +34814,7 @@
         <v>208</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E85" s="6">
         <v>709</v>
@@ -34834,7 +34855,7 @@
         <v>210</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E86" s="6">
         <v>710</v>
@@ -34875,7 +34896,7 @@
         <v>212</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>781</v>
@@ -34913,10 +34934,10 @@
         <v>801</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E88" s="6">
         <v>802</v>
@@ -34954,10 +34975,10 @@
         <v>802</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E89" s="6">
         <v>803</v>
@@ -34995,10 +35016,10 @@
         <v>803</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E90" s="6">
         <v>804</v>
@@ -35036,10 +35057,10 @@
         <v>804</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E91" s="6">
         <v>805</v>
@@ -35077,10 +35098,10 @@
         <v>805</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E92" s="6">
         <v>806</v>
@@ -35118,10 +35139,10 @@
         <v>806</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E93" s="6">
         <v>807</v>
@@ -35159,10 +35180,10 @@
         <v>807</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E94" s="6">
         <v>808</v>
@@ -35200,10 +35221,10 @@
         <v>808</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>781</v>
@@ -35244,7 +35265,7 @@
         <v>430</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E96" s="6">
         <v>902</v>
@@ -35285,7 +35306,7 @@
         <v>431</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E97" s="6">
         <v>903</v>
@@ -35326,7 +35347,7 @@
         <v>432</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E98" s="6">
         <v>904</v>
@@ -35367,7 +35388,7 @@
         <v>433</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E99" s="6">
         <v>905</v>
@@ -35408,7 +35429,7 @@
         <v>434</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E100" s="6">
         <v>906</v>
@@ -35449,7 +35470,7 @@
         <v>435</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E101" s="6">
         <v>907</v>
@@ -35490,7 +35511,7 @@
         <v>436</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E102" s="6">
         <v>908</v>
@@ -35531,7 +35552,7 @@
         <v>437</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E103" s="6">
         <v>909</v>
@@ -35572,7 +35593,7 @@
         <v>438</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E104" s="6">
         <v>910</v>
@@ -35613,7 +35634,7 @@
         <v>439</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>781</v>
@@ -35654,7 +35675,7 @@
         <v>550</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E106" s="6">
         <v>1002</v>
@@ -35701,7 +35722,7 @@
         <v>551</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E107" s="6">
         <v>1003</v>
@@ -35748,7 +35769,7 @@
         <v>552</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E108" s="6">
         <v>1004</v>
@@ -35795,7 +35816,7 @@
         <v>553</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E109" s="6">
         <v>1005</v>
@@ -35842,7 +35863,7 @@
         <v>554</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E110" s="6">
         <v>1006</v>
@@ -35889,7 +35910,7 @@
         <v>555</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="E111" s="6">
         <v>1007</v>
@@ -35936,7 +35957,7 @@
         <v>556</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="E112" s="6">
         <v>1008</v>
@@ -35983,7 +36004,7 @@
         <v>557</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E113" s="6">
         <v>1009</v>
@@ -36030,7 +36051,7 @@
         <v>558</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E114" s="6">
         <v>1010</v>
@@ -36077,7 +36098,7 @@
         <v>559</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E115" s="6">
         <v>1011</v>
@@ -36124,7 +36145,7 @@
         <v>560</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="E116" s="6">
         <v>1012</v>
@@ -36171,7 +36192,7 @@
         <v>561</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E117" s="6">
         <v>1013</v>
@@ -36218,7 +36239,7 @@
         <v>562</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E118" s="6">
         <v>1014</v>
@@ -36265,7 +36286,7 @@
         <v>563</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="E119" s="6">
         <v>1015</v>
@@ -36312,7 +36333,7 @@
         <v>564</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E120" s="6">
         <v>1016</v>
@@ -36359,7 +36380,7 @@
         <v>565</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E121" s="6">
         <v>1017</v>
@@ -36406,7 +36427,7 @@
         <v>566</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E122" s="6">
         <v>1018</v>
@@ -36453,7 +36474,7 @@
         <v>567</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="E123" s="6">
         <v>1019</v>
@@ -36500,7 +36521,7 @@
         <v>568</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E124" s="6">
         <v>1020</v>
@@ -36547,7 +36568,7 @@
         <v>569</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E125" s="6">
         <v>1021</v>
@@ -36594,7 +36615,7 @@
         <v>570</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E126" s="6">
         <v>1022</v>
@@ -36641,7 +36662,7 @@
         <v>571</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="E127" s="6">
         <v>1023</v>
@@ -36688,7 +36709,7 @@
         <v>572</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E128" s="6">
         <v>1024</v>
@@ -36735,7 +36756,7 @@
         <v>573</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E129" s="6">
         <v>1025</v>
@@ -36782,7 +36803,7 @@
         <v>574</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E130" s="6">
         <v>1026</v>
@@ -36829,7 +36850,7 @@
         <v>575</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E131" s="6">
         <v>1027</v>
@@ -36876,7 +36897,7 @@
         <v>576</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E132" s="6">
         <v>1028</v>
@@ -36923,7 +36944,7 @@
         <v>577</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="E133" s="6">
         <v>1029</v>
@@ -36970,7 +36991,7 @@
         <v>578</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E134" s="6">
         <v>1030</v>
@@ -37017,7 +37038,7 @@
         <v>579</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="E135" s="6">
         <v>1031</v>
@@ -37064,7 +37085,7 @@
         <v>580</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E136" s="6">
         <v>1032</v>
@@ -37111,7 +37132,7 @@
         <v>581</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="E137" s="6">
         <v>1033</v>
@@ -37158,7 +37179,7 @@
         <v>582</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E138" s="6">
         <v>1034</v>
@@ -37205,7 +37226,7 @@
         <v>583</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E139" s="6">
         <v>1035</v>
@@ -37252,7 +37273,7 @@
         <v>584</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E140" s="6">
         <v>1036</v>
@@ -37299,7 +37320,7 @@
         <v>585</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E141" s="6">
         <v>1037</v>
@@ -37346,7 +37367,7 @@
         <v>586</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E142" s="6">
         <v>1038</v>
@@ -37393,7 +37414,7 @@
         <v>587</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E143" s="6">
         <v>1039</v>
@@ -37440,7 +37461,7 @@
         <v>588</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E144" s="6">
         <v>1040</v>
@@ -37487,7 +37508,7 @@
         <v>592</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>781</v>
@@ -38577,7 +38598,7 @@
         <v>302020101</v>
       </c>
       <c r="J171" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K171" s="6">
         <v>0</v>
@@ -38618,7 +38639,7 @@
         <v>302020102</v>
       </c>
       <c r="J172" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K172" s="6">
         <v>0</v>
@@ -38659,7 +38680,7 @@
         <v>302020103</v>
       </c>
       <c r="J173" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K173" s="6">
         <v>0</v>
@@ -38700,7 +38721,7 @@
         <v>302020104</v>
       </c>
       <c r="J174" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K174" s="6">
         <v>0</v>
@@ -38741,7 +38762,7 @@
         <v>302020105</v>
       </c>
       <c r="J175" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="K175" s="6">
         <v>0</v>
@@ -38782,7 +38803,7 @@
         <v>302020106</v>
       </c>
       <c r="J176" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="K176" s="6">
         <v>0</v>
@@ -38823,7 +38844,7 @@
         <v>302020107</v>
       </c>
       <c r="J177" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="K177" s="6">
         <v>0</v>
@@ -38864,7 +38885,7 @@
         <v>302020108</v>
       </c>
       <c r="J178" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="K178" s="6">
         <v>0</v>
@@ -38905,7 +38926,7 @@
         <v>302020109</v>
       </c>
       <c r="J179" s="25" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="K179" s="6">
         <v>0</v>
@@ -38946,7 +38967,7 @@
         <v>302020110</v>
       </c>
       <c r="J180" s="25" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="K180" s="6">
         <v>0</v>
@@ -38987,7 +39008,7 @@
         <v>302020111</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="K181" s="6">
         <v>0</v>
@@ -39025,10 +39046,10 @@
         <v>1</v>
       </c>
       <c r="I182" s="20" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J182" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K182" s="6">
         <v>0</v>
@@ -39066,10 +39087,10 @@
         <v>2</v>
       </c>
       <c r="I183" s="20" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J183" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K183" s="6">
         <v>0</v>
@@ -39107,10 +39128,10 @@
         <v>3</v>
       </c>
       <c r="I184" s="20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J184" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K184" s="6">
         <v>0</v>
@@ -39148,10 +39169,10 @@
         <v>4</v>
       </c>
       <c r="I185" s="20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J185" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K185" s="6">
         <v>0</v>
@@ -39189,10 +39210,10 @@
         <v>5</v>
       </c>
       <c r="I186" s="20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J186" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K186" s="6">
         <v>0</v>
@@ -39230,10 +39251,10 @@
         <v>6</v>
       </c>
       <c r="I187" s="20" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J187" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K187" s="6">
         <v>0</v>
@@ -39271,10 +39292,10 @@
         <v>7</v>
       </c>
       <c r="I188" s="20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J188" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K188" s="6">
         <v>0</v>
@@ -39312,10 +39333,10 @@
         <v>8</v>
       </c>
       <c r="I189" s="20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="J189" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K189" s="6">
         <v>0</v>
@@ -39353,10 +39374,10 @@
         <v>9</v>
       </c>
       <c r="I190" s="20" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J190" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K190" s="6">
         <v>0</v>
@@ -39394,10 +39415,10 @@
         <v>10</v>
       </c>
       <c r="I191" s="20" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J191" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K191" s="6">
         <v>0</v>
@@ -39405,9 +39426,15 @@
       <c r="L191" s="6">
         <v>1000</v>
       </c>
-      <c r="M191" s="6"/>
-      <c r="N191" s="6"/>
-      <c r="O191" s="6"/>
+      <c r="M191" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N191" s="6">
+        <v>0</v>
+      </c>
+      <c r="O191" s="6">
+        <v>40</v>
+      </c>
     </row>
     <row r="192" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
@@ -39438,7 +39465,7 @@
         <v>139</v>
       </c>
       <c r="J192" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K192" s="6">
         <v>0</v>
@@ -39476,10 +39503,10 @@
         <v>12</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K193" s="6">
         <v>0</v>
@@ -39520,7 +39547,7 @@
         <v>440</v>
       </c>
       <c r="J194" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K194" s="6">
         <v>0</v>
@@ -39558,10 +39585,10 @@
         <v>14</v>
       </c>
       <c r="I195" s="20" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="J195" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K195" s="6">
         <v>0</v>
@@ -39599,10 +39626,10 @@
         <v>15</v>
       </c>
       <c r="I196" s="20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J196" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K196" s="6">
         <v>0</v>
@@ -39610,9 +39637,15 @@
       <c r="L196" s="6">
         <v>1000</v>
       </c>
-      <c r="M196" s="6"/>
-      <c r="N196" s="6"/>
-      <c r="O196" s="6"/>
+      <c r="M196" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N196" s="6">
+        <v>0</v>
+      </c>
+      <c r="O196" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
@@ -39640,10 +39673,10 @@
         <v>16</v>
       </c>
       <c r="I197" s="20" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="J197" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K197" s="6">
         <v>0</v>
@@ -39681,10 +39714,10 @@
         <v>17</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="J198" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K198" s="6">
         <v>0</v>
@@ -39692,9 +39725,15 @@
       <c r="L198" s="6">
         <v>1000</v>
       </c>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6"/>
+      <c r="M198" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="N198" s="6">
+        <v>0</v>
+      </c>
+      <c r="O198" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
@@ -39707,7 +39746,7 @@
         <v>836</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E199" s="6">
         <v>1419</v>
@@ -39722,10 +39761,10 @@
         <v>18</v>
       </c>
       <c r="I199" s="20" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J199" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K199" s="6">
         <v>0</v>
@@ -39748,7 +39787,7 @@
         <v>837</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E200" s="6">
         <v>1420</v>
@@ -39763,10 +39802,10 @@
         <v>19</v>
       </c>
       <c r="I200" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J200" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K200" s="6">
         <v>0</v>
@@ -39774,9 +39813,15 @@
       <c r="L200" s="6">
         <v>1000</v>
       </c>
-      <c r="M200" s="6"/>
-      <c r="N200" s="6"/>
-      <c r="O200" s="6"/>
+      <c r="M200" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="N200" s="6">
+        <v>0</v>
+      </c>
+      <c r="O200" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
@@ -39789,7 +39834,7 @@
         <v>838</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E201" s="6">
         <v>1421</v>
@@ -39804,10 +39849,10 @@
         <v>20</v>
       </c>
       <c r="I201" s="20" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="J201" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K201" s="6">
         <v>0</v>
@@ -39830,7 +39875,7 @@
         <v>839</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E202" s="6">
         <v>1422</v>
@@ -39845,10 +39890,10 @@
         <v>21</v>
       </c>
       <c r="I202" s="20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J202" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K202" s="6">
         <v>0</v>
@@ -39856,9 +39901,15 @@
       <c r="L202" s="6">
         <v>1000</v>
       </c>
-      <c r="M202" s="6"/>
-      <c r="N202" s="6"/>
-      <c r="O202" s="6"/>
+      <c r="M202" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="N202" s="6">
+        <v>0</v>
+      </c>
+      <c r="O202" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
@@ -39871,7 +39922,7 @@
         <v>840</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E203" s="6">
         <v>1423</v>
@@ -39886,10 +39937,10 @@
         <v>22</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="J203" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K203" s="6">
         <v>0</v>
@@ -39912,7 +39963,7 @@
         <v>841</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E204" s="6">
         <v>1424</v>
@@ -39927,10 +39978,10 @@
         <v>23</v>
       </c>
       <c r="I204" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J204" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K204" s="6">
         <v>0</v>
@@ -39938,9 +39989,15 @@
       <c r="L204" s="6">
         <v>1000</v>
       </c>
-      <c r="M204" s="6"/>
-      <c r="N204" s="6"/>
-      <c r="O204" s="6"/>
+      <c r="M204" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="N204" s="6">
+        <v>0</v>
+      </c>
+      <c r="O204" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
@@ -39950,10 +40007,10 @@
         <v>1424</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E205" s="6">
         <v>1425</v>
@@ -39968,10 +40025,10 @@
         <v>24</v>
       </c>
       <c r="I205" s="20" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="J205" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K205" s="6">
         <v>0</v>
@@ -39991,10 +40048,10 @@
         <v>1425</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E206" s="6">
         <v>1426</v>
@@ -40009,10 +40066,10 @@
         <v>25</v>
       </c>
       <c r="I206" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J206" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K206" s="6">
         <v>0</v>
@@ -40032,7 +40089,7 @@
         <v>1426</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>859</v>
@@ -40049,11 +40106,11 @@
       <c r="H207" s="6">
         <v>26</v>
       </c>
-      <c r="I207" s="6" t="s">
-        <v>644</v>
+      <c r="I207" s="20" t="s">
+        <v>1253</v>
       </c>
       <c r="J207" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K207" s="6">
         <v>0</v>
@@ -40073,10 +40130,10 @@
         <v>1427</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="E208" s="6">
         <v>1428</v>
@@ -40091,10 +40148,10 @@
         <v>27</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>1255</v>
+        <v>876</v>
       </c>
       <c r="J208" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K208" s="6">
         <v>0</v>
@@ -40114,10 +40171,10 @@
         <v>1428</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E209" s="6">
         <v>1429</v>
@@ -40131,17 +40188,17 @@
       <c r="H209" s="6">
         <v>28</v>
       </c>
-      <c r="I209" s="20" t="s">
-        <v>877</v>
+      <c r="I209" s="6" t="s">
+        <v>593</v>
       </c>
       <c r="J209" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K209" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209" s="6">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
@@ -40155,10 +40212,10 @@
         <v>1429</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E210" s="6">
         <v>1430</v>
@@ -40172,11 +40229,11 @@
       <c r="H210" s="6">
         <v>29</v>
       </c>
-      <c r="I210" s="6" t="s">
-        <v>593</v>
+      <c r="I210" s="20" t="s">
+        <v>877</v>
       </c>
       <c r="J210" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K210" s="6">
         <v>0</v>
@@ -40196,10 +40253,10 @@
         <v>1430</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E211" s="6">
         <v>1431</v>
@@ -40214,10 +40271,10 @@
         <v>30</v>
       </c>
       <c r="I211" s="20" t="s">
-        <v>878</v>
+        <v>1260</v>
       </c>
       <c r="J211" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K211" s="6">
         <v>0</v>
@@ -40237,10 +40294,10 @@
         <v>1431</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E212" s="6">
         <v>1432</v>
@@ -40255,10 +40312,10 @@
         <v>31</v>
       </c>
       <c r="I212" s="20" t="s">
-        <v>1262</v>
+        <v>881</v>
       </c>
       <c r="J212" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K212" s="6">
         <v>0</v>
@@ -40266,9 +40323,15 @@
       <c r="L212" s="6">
         <v>1000</v>
       </c>
-      <c r="M212" s="6"/>
-      <c r="N212" s="6"/>
-      <c r="O212" s="6"/>
+      <c r="M212" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N212" s="6">
+        <v>0</v>
+      </c>
+      <c r="O212" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="213" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
@@ -40278,7 +40341,7 @@
         <v>1432</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>882</v>
@@ -40295,11 +40358,11 @@
       <c r="H213" s="6">
         <v>32</v>
       </c>
-      <c r="I213" s="20" t="s">
-        <v>882</v>
+      <c r="I213" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="J213" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K213" s="6">
         <v>0</v>
@@ -40319,10 +40382,10 @@
         <v>1433</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E214" s="6">
         <v>1434</v>
@@ -40336,11 +40399,11 @@
       <c r="H214" s="6">
         <v>33</v>
       </c>
-      <c r="I214" s="6" t="s">
-        <v>164</v>
+      <c r="I214" s="20" t="s">
+        <v>884</v>
       </c>
       <c r="J214" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K214" s="6">
         <v>0</v>
@@ -40360,7 +40423,7 @@
         <v>1434</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>885</v>
@@ -40381,7 +40444,7 @@
         <v>885</v>
       </c>
       <c r="J215" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K215" s="6">
         <v>0</v>
@@ -40401,7 +40464,7 @@
         <v>1435</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>886</v>
@@ -40419,10 +40482,10 @@
         <v>35</v>
       </c>
       <c r="I216" s="20" t="s">
-        <v>886</v>
+        <v>1265</v>
       </c>
       <c r="J216" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K216" s="6">
         <v>0</v>
@@ -40442,10 +40505,10 @@
         <v>1436</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E217" s="6">
         <v>1437</v>
@@ -40460,10 +40523,10 @@
         <v>36</v>
       </c>
       <c r="I217" s="20" t="s">
-        <v>1267</v>
+        <v>888</v>
       </c>
       <c r="J217" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K217" s="6">
         <v>0</v>
@@ -40483,10 +40546,10 @@
         <v>1437</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="E218" s="6">
         <v>1438</v>
@@ -40500,11 +40563,11 @@
       <c r="H218" s="6">
         <v>37</v>
       </c>
-      <c r="I218" s="20" t="s">
-        <v>889</v>
+      <c r="I218" s="25" t="s">
+        <v>1393</v>
       </c>
       <c r="J218" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K218" s="6">
         <v>0</v>
@@ -40524,10 +40587,10 @@
         <v>1438</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E219" s="6">
         <v>1439</v>
@@ -40541,11 +40604,11 @@
       <c r="H219" s="6">
         <v>38</v>
       </c>
-      <c r="I219" s="25" t="s">
-        <v>1395</v>
+      <c r="I219" s="20" t="s">
+        <v>1266</v>
       </c>
       <c r="J219" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K219" s="6">
         <v>0</v>
@@ -40565,10 +40628,10 @@
         <v>1439</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="E220" s="6">
         <v>1440</v>
@@ -40583,10 +40646,10 @@
         <v>39</v>
       </c>
       <c r="I220" s="20" t="s">
-        <v>1268</v>
+        <v>889</v>
       </c>
       <c r="J220" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K220" s="6">
         <v>0</v>
@@ -40606,7 +40669,7 @@
         <v>1440</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>891</v>
@@ -40623,11 +40686,11 @@
       <c r="H221" s="6">
         <v>40</v>
       </c>
-      <c r="I221" s="20" t="s">
-        <v>890</v>
+      <c r="I221" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="J221" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K221" s="6">
         <v>0</v>
@@ -40647,10 +40710,10 @@
         <v>1441</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E222" s="6">
         <v>1442</v>
@@ -40664,11 +40727,11 @@
       <c r="H222" s="6">
         <v>41</v>
       </c>
-      <c r="I222" s="10" t="s">
-        <v>324</v>
+      <c r="I222" s="20" t="s">
+        <v>892</v>
       </c>
       <c r="J222" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K222" s="6">
         <v>0</v>
@@ -40688,7 +40751,7 @@
         <v>1442</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>894</v>
@@ -40705,11 +40768,11 @@
       <c r="H223" s="6">
         <v>42</v>
       </c>
-      <c r="I223" s="20" t="s">
-        <v>893</v>
+      <c r="I223" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="J223" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K223" s="6">
         <v>0</v>
@@ -40729,7 +40792,7 @@
         <v>1443</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>895</v>
@@ -40746,11 +40809,11 @@
       <c r="H224" s="6">
         <v>43</v>
       </c>
-      <c r="I224" s="10" t="s">
-        <v>300</v>
+      <c r="I224" s="20" t="s">
+        <v>1263</v>
       </c>
       <c r="J224" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K224" s="6">
         <v>0</v>
@@ -40770,10 +40833,10 @@
         <v>1444</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>896</v>
+        <v>1290</v>
       </c>
       <c r="E225" s="6">
         <v>1445</v>
@@ -40787,11 +40850,11 @@
       <c r="H225" s="6">
         <v>44</v>
       </c>
-      <c r="I225" s="20" t="s">
-        <v>1265</v>
+      <c r="I225" s="6" t="s">
+        <v>1290</v>
       </c>
       <c r="J225" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K225" s="6">
         <v>0</v>
@@ -40811,10 +40874,10 @@
         <v>1445</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>1292</v>
+        <v>896</v>
       </c>
       <c r="E226" s="6">
         <v>1446</v>
@@ -40828,11 +40891,11 @@
       <c r="H226" s="6">
         <v>45</v>
       </c>
-      <c r="I226" s="6" t="s">
-        <v>1292</v>
+      <c r="I226" s="20" t="s">
+        <v>1264</v>
       </c>
       <c r="J226" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K226" s="6">
         <v>0</v>
@@ -40852,7 +40915,7 @@
         <v>1446</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>897</v>
@@ -40869,11 +40932,11 @@
       <c r="H227" s="6">
         <v>46</v>
       </c>
-      <c r="I227" s="20" t="s">
-        <v>1266</v>
+      <c r="I227" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="J227" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K227" s="6">
         <v>0</v>
@@ -40893,7 +40956,7 @@
         <v>1447</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>898</v>
@@ -40910,11 +40973,11 @@
       <c r="H228" s="6">
         <v>47</v>
       </c>
-      <c r="I228" s="12" t="s">
-        <v>704</v>
+      <c r="I228" s="20" t="s">
+        <v>1270</v>
       </c>
       <c r="J228" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K228" s="6">
         <v>0</v>
@@ -40934,7 +40997,7 @@
         <v>1448</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>899</v>
@@ -40952,10 +41015,10 @@
         <v>48</v>
       </c>
       <c r="I229" s="20" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="J229" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K229" s="6">
         <v>0</v>
@@ -40975,13 +41038,13 @@
         <v>1449</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E230" s="6">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F230" s="6">
         <v>14</v>
@@ -40992,11 +41055,11 @@
       <c r="H230" s="6">
         <v>49</v>
       </c>
-      <c r="I230" s="20" t="s">
-        <v>1278</v>
+      <c r="I230" s="6" t="s">
+        <v>1362</v>
       </c>
       <c r="J230" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K230" s="6">
         <v>0</v>
@@ -41004,9 +41067,15 @@
       <c r="L230" s="6">
         <v>1000</v>
       </c>
-      <c r="M230" s="6"/>
-      <c r="N230" s="6"/>
-      <c r="O230" s="6"/>
+      <c r="M230" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N230" s="6">
+        <v>0</v>
+      </c>
+      <c r="O230" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="231" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
@@ -41016,13 +41085,13 @@
         <v>1450</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E231" s="6">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F231" s="6">
         <v>14</v>
@@ -41033,11 +41102,11 @@
       <c r="H231" s="6">
         <v>50</v>
       </c>
-      <c r="I231" s="6" t="s">
-        <v>1364</v>
+      <c r="I231" s="20" t="s">
+        <v>903</v>
       </c>
       <c r="J231" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K231" s="6">
         <v>0</v>
@@ -41057,13 +41126,13 @@
         <v>1451</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E232" s="6">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F232" s="6">
         <v>14</v>
@@ -41075,10 +41144,10 @@
         <v>51</v>
       </c>
       <c r="I232" s="20" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="J232" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K232" s="6">
         <v>0</v>
@@ -41098,13 +41167,13 @@
         <v>1452</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="E233" s="6">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F233" s="6">
         <v>14</v>
@@ -41115,11 +41184,11 @@
       <c r="H233" s="6">
         <v>52</v>
       </c>
-      <c r="I233" s="20" t="s">
-        <v>906</v>
+      <c r="I233" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="J233" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K233" s="6">
         <v>0</v>
@@ -41127,9 +41196,15 @@
       <c r="L233" s="6">
         <v>1000</v>
       </c>
-      <c r="M233" s="6"/>
-      <c r="N233" s="6"/>
-      <c r="O233" s="6"/>
+      <c r="M233" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="N233" s="6">
+        <v>0</v>
+      </c>
+      <c r="O233" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
@@ -41139,13 +41214,13 @@
         <v>1453</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E234" s="6">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F234" s="6">
         <v>14</v>
@@ -41156,11 +41231,11 @@
       <c r="H234" s="6">
         <v>53</v>
       </c>
-      <c r="I234" s="6" t="s">
-        <v>644</v>
+      <c r="I234" s="20" t="s">
+        <v>901</v>
       </c>
       <c r="J234" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K234" s="6">
         <v>0</v>
@@ -41180,13 +41255,13 @@
         <v>1454</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>902</v>
       </c>
       <c r="E235" s="6">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F235" s="6">
         <v>14</v>
@@ -41201,7 +41276,7 @@
         <v>902</v>
       </c>
       <c r="J235" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K235" s="6">
         <v>0</v>
@@ -41221,13 +41296,13 @@
         <v>1455</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="E236" s="6">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F236" s="6">
         <v>14</v>
@@ -41239,10 +41314,10 @@
         <v>55</v>
       </c>
       <c r="I236" s="20" t="s">
-        <v>903</v>
+        <v>561</v>
       </c>
       <c r="J236" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K236" s="6">
         <v>0</v>
@@ -41262,13 +41337,13 @@
         <v>1456</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E237" s="6">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F237" s="6">
         <v>14</v>
@@ -41279,11 +41354,11 @@
       <c r="H237" s="6">
         <v>56</v>
       </c>
-      <c r="I237" s="20" t="s">
-        <v>561</v>
+      <c r="I237" s="25" t="s">
+        <v>1392</v>
       </c>
       <c r="J237" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K237" s="6">
         <v>0</v>
@@ -41303,13 +41378,13 @@
         <v>1457</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="E238" s="6">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F238" s="6">
         <v>14</v>
@@ -41320,11 +41395,11 @@
       <c r="H238" s="6">
         <v>57</v>
       </c>
-      <c r="I238" s="25" t="s">
-        <v>1394</v>
+      <c r="I238" s="20" t="s">
+        <v>1271</v>
       </c>
       <c r="J238" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K238" s="6">
         <v>0</v>
@@ -41344,13 +41419,13 @@
         <v>1458</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E239" s="6">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F239" s="6">
         <v>14</v>
@@ -41362,10 +41437,10 @@
         <v>58</v>
       </c>
       <c r="I239" s="20" t="s">
-        <v>1273</v>
+        <v>910</v>
       </c>
       <c r="J239" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K239" s="6">
         <v>0</v>
@@ -41385,13 +41460,13 @@
         <v>1459</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>912</v>
       </c>
       <c r="E240" s="6">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F240" s="6">
         <v>14</v>
@@ -41403,10 +41478,10 @@
         <v>59</v>
       </c>
       <c r="I240" s="20" t="s">
-        <v>911</v>
+        <v>1272</v>
       </c>
       <c r="J240" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K240" s="6">
         <v>0</v>
@@ -41426,13 +41501,13 @@
         <v>1460</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>913</v>
       </c>
       <c r="E241" s="6">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F241" s="6">
         <v>14</v>
@@ -41444,10 +41519,10 @@
         <v>60</v>
       </c>
       <c r="I241" s="20" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="J241" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K241" s="6">
         <v>0</v>
@@ -41467,13 +41542,13 @@
         <v>1461</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>914</v>
+        <v>954</v>
       </c>
       <c r="E242" s="6">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F242" s="6">
         <v>14</v>
@@ -41485,10 +41560,10 @@
         <v>61</v>
       </c>
       <c r="I242" s="20" t="s">
-        <v>1281</v>
+        <v>562</v>
       </c>
       <c r="J242" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K242" s="6">
         <v>0</v>
@@ -41508,13 +41583,13 @@
         <v>1462</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="E243" s="6">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F243" s="6">
         <v>14</v>
@@ -41525,11 +41600,11 @@
       <c r="H243" s="6">
         <v>62</v>
       </c>
-      <c r="I243" s="20" t="s">
-        <v>562</v>
+      <c r="I243" s="23" t="s">
+        <v>1273</v>
       </c>
       <c r="J243" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K243" s="6">
         <v>0</v>
@@ -41549,13 +41624,13 @@
         <v>1463</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="E244" s="6">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F244" s="6">
         <v>14</v>
@@ -41566,11 +41641,11 @@
       <c r="H244" s="6">
         <v>63</v>
       </c>
-      <c r="I244" s="23" t="s">
-        <v>1275</v>
+      <c r="I244" s="20" t="s">
+        <v>1397</v>
       </c>
       <c r="J244" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K244" s="6">
         <v>0</v>
@@ -41590,13 +41665,13 @@
         <v>1464</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="E245" s="6">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F245" s="6">
         <v>14</v>
@@ -41607,11 +41682,11 @@
       <c r="H245" s="6">
         <v>64</v>
       </c>
-      <c r="I245" s="20" t="s">
-        <v>1399</v>
+      <c r="I245" s="25" t="s">
+        <v>1394</v>
       </c>
       <c r="J245" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K245" s="6">
         <v>0</v>
@@ -41631,13 +41706,13 @@
         <v>1465</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E246" s="6">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F246" s="6">
         <v>14</v>
@@ -41648,11 +41723,11 @@
       <c r="H246" s="6">
         <v>65</v>
       </c>
-      <c r="I246" s="25" t="s">
-        <v>1396</v>
+      <c r="I246" s="20" t="s">
+        <v>563</v>
       </c>
       <c r="J246" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K246" s="6">
         <v>0</v>
@@ -41672,13 +41747,13 @@
         <v>1466</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>957</v>
       </c>
       <c r="E247" s="6">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F247" s="6">
         <v>14</v>
@@ -41689,11 +41764,11 @@
       <c r="H247" s="6">
         <v>66</v>
       </c>
-      <c r="I247" s="20" t="s">
-        <v>563</v>
+      <c r="I247" s="25" t="s">
+        <v>1399</v>
       </c>
       <c r="J247" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K247" s="6">
         <v>0</v>
@@ -41713,13 +41788,13 @@
         <v>1467</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>958</v>
       </c>
       <c r="E248" s="6">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F248" s="6">
         <v>14</v>
@@ -41730,11 +41805,11 @@
       <c r="H248" s="6">
         <v>67</v>
       </c>
-      <c r="I248" s="25" t="s">
-        <v>1401</v>
+      <c r="I248" s="20" t="s">
+        <v>1398</v>
       </c>
       <c r="J248" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K248" s="6">
         <v>0</v>
@@ -41754,13 +41829,13 @@
         <v>1468</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>959</v>
       </c>
       <c r="E249" s="6">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F249" s="6">
         <v>14</v>
@@ -41772,10 +41847,10 @@
         <v>68</v>
       </c>
       <c r="I249" s="20" t="s">
-        <v>1400</v>
+        <v>1275</v>
       </c>
       <c r="J249" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K249" s="6">
         <v>0</v>
@@ -41795,13 +41870,13 @@
         <v>1469</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E250" s="6">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F250" s="6">
         <v>14</v>
@@ -41812,11 +41887,11 @@
       <c r="H250" s="6">
         <v>69</v>
       </c>
-      <c r="I250" s="20" t="s">
-        <v>1277</v>
+      <c r="I250" s="25" t="s">
+        <v>1395</v>
       </c>
       <c r="J250" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K250" s="6">
         <v>0</v>
@@ -41836,13 +41911,13 @@
         <v>1470</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>962</v>
       </c>
       <c r="E251" s="6">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F251" s="6">
         <v>14</v>
@@ -41853,11 +41928,11 @@
       <c r="H251" s="6">
         <v>70</v>
       </c>
-      <c r="I251" s="25" t="s">
-        <v>1397</v>
+      <c r="I251" s="20" t="s">
+        <v>564</v>
       </c>
       <c r="J251" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K251" s="6">
         <v>0</v>
@@ -41877,13 +41952,13 @@
         <v>1471</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="E252" s="6">
-        <v>1473</v>
+      <c r="E252" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F252" s="6">
         <v>14</v>
@@ -41894,11 +41969,11 @@
       <c r="H252" s="6">
         <v>71</v>
       </c>
-      <c r="I252" s="20" t="s">
-        <v>564</v>
+      <c r="I252" s="25" t="s">
+        <v>1396</v>
       </c>
       <c r="J252" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K252" s="6">
         <v>0</v>
@@ -41915,37 +41990,37 @@
         <v>250</v>
       </c>
       <c r="B253" s="6">
-        <v>1472</v>
+        <v>1501</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>975</v>
+        <v>1450</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>781</v>
+        <v>1428</v>
+      </c>
+      <c r="E253" s="6">
+        <v>1502</v>
       </c>
       <c r="F253" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G253" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H253" s="6">
-        <v>72</v>
-      </c>
-      <c r="I253" s="25" t="s">
-        <v>1398</v>
-      </c>
-      <c r="J253" s="20" t="s">
-        <v>1386</v>
+        <v>1</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>1454</v>
       </c>
       <c r="K253" s="6">
         <v>0</v>
       </c>
       <c r="L253" s="6">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="M253" s="6"/>
       <c r="N253" s="6"/>
@@ -41956,16 +42031,16 @@
         <v>251</v>
       </c>
       <c r="B254" s="6">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1452</v>
+        <v>1405</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E254" s="6">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="F254" s="6">
         <v>15</v>
@@ -41974,19 +42049,19 @@
         <v>780</v>
       </c>
       <c r="H254" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K254" s="6">
         <v>0</v>
       </c>
       <c r="L254" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M254" s="6"/>
       <c r="N254" s="6"/>
@@ -41997,16 +42072,16 @@
         <v>252</v>
       </c>
       <c r="B255" s="6">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E255" s="6">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="F255" s="6">
         <v>15</v>
@@ -42015,19 +42090,19 @@
         <v>780</v>
       </c>
       <c r="H255" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K255" s="6">
         <v>0</v>
       </c>
       <c r="L255" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M255" s="6"/>
       <c r="N255" s="6"/>
@@ -42038,16 +42113,16 @@
         <v>253</v>
       </c>
       <c r="B256" s="6">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E256" s="6">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F256" s="6">
         <v>15</v>
@@ -42056,19 +42131,19 @@
         <v>780</v>
       </c>
       <c r="H256" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K256" s="6">
         <v>0</v>
       </c>
       <c r="L256" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M256" s="6"/>
       <c r="N256" s="6"/>
@@ -42079,16 +42154,16 @@
         <v>254</v>
       </c>
       <c r="B257" s="6">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E257" s="6">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="F257" s="6">
         <v>15</v>
@@ -42097,13 +42172,13 @@
         <v>780</v>
       </c>
       <c r="H257" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K257" s="6">
         <v>0</v>
@@ -42120,16 +42195,16 @@
         <v>255</v>
       </c>
       <c r="B258" s="6">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E258" s="6">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="F258" s="6">
         <v>15</v>
@@ -42138,13 +42213,13 @@
         <v>780</v>
       </c>
       <c r="H258" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K258" s="6">
         <v>0</v>
@@ -42161,16 +42236,16 @@
         <v>256</v>
       </c>
       <c r="B259" s="6">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E259" s="6">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="F259" s="6">
         <v>15</v>
@@ -42179,13 +42254,13 @@
         <v>780</v>
       </c>
       <c r="H259" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K259" s="6">
         <v>0</v>
@@ -42202,16 +42277,16 @@
         <v>257</v>
       </c>
       <c r="B260" s="6">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E260" s="6">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="F260" s="6">
         <v>15</v>
@@ -42220,13 +42295,13 @@
         <v>780</v>
       </c>
       <c r="H260" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K260" s="6">
         <v>0</v>
@@ -42243,16 +42318,16 @@
         <v>258</v>
       </c>
       <c r="B261" s="6">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E261" s="6">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="F261" s="6">
         <v>15</v>
@@ -42261,13 +42336,13 @@
         <v>780</v>
       </c>
       <c r="H261" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K261" s="6">
         <v>0</v>
@@ -42284,16 +42359,16 @@
         <v>259</v>
       </c>
       <c r="B262" s="6">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E262" s="6">
-        <v>1510</v>
+        <v>1437</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F262" s="6">
         <v>15</v>
@@ -42302,13 +42377,13 @@
         <v>780</v>
       </c>
       <c r="H262" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K262" s="6">
         <v>0</v>
@@ -42325,37 +42400,37 @@
         <v>260</v>
       </c>
       <c r="B263" s="6">
-        <v>1510</v>
+        <v>1601</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>781</v>
+        <v>1438</v>
+      </c>
+      <c r="E263" s="6">
+        <v>1602</v>
       </c>
       <c r="F263" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G263" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H263" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K263" s="6">
         <v>0</v>
       </c>
       <c r="L263" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M263" s="6"/>
       <c r="N263" s="6"/>
@@ -42366,16 +42441,16 @@
         <v>261</v>
       </c>
       <c r="B264" s="6">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>1416</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E264" s="6">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="F264" s="6">
         <v>16</v>
@@ -42384,19 +42459,19 @@
         <v>780</v>
       </c>
       <c r="H264" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" s="6" t="s">
         <v>1416</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K264" s="6">
         <v>0</v>
       </c>
       <c r="L264" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M264" s="6"/>
       <c r="N264" s="6"/>
@@ -42407,16 +42482,16 @@
         <v>262</v>
       </c>
       <c r="B265" s="6">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E265" s="6">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="F265" s="6">
         <v>16</v>
@@ -42425,19 +42500,19 @@
         <v>780</v>
       </c>
       <c r="H265" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J265" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K265" s="6">
         <v>0</v>
       </c>
       <c r="L265" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M265" s="6"/>
       <c r="N265" s="6"/>
@@ -42448,16 +42523,16 @@
         <v>263</v>
       </c>
       <c r="B266" s="6">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E266" s="6">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="F266" s="6">
         <v>16</v>
@@ -42466,19 +42541,19 @@
         <v>780</v>
       </c>
       <c r="H266" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K266" s="6">
         <v>0</v>
       </c>
       <c r="L266" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M266" s="6"/>
       <c r="N266" s="6"/>
@@ -42489,16 +42564,16 @@
         <v>264</v>
       </c>
       <c r="B267" s="6">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E267" s="6">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="F267" s="6">
         <v>16</v>
@@ -42507,13 +42582,13 @@
         <v>780</v>
       </c>
       <c r="H267" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="J267" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K267" s="6">
         <v>0</v>
@@ -42530,16 +42605,16 @@
         <v>265</v>
       </c>
       <c r="B268" s="6">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E268" s="6">
-        <v>1606</v>
+        <v>1443</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F268" s="6">
         <v>16</v>
@@ -42548,13 +42623,13 @@
         <v>780</v>
       </c>
       <c r="H268" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="J268" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K268" s="6">
         <v>0</v>
@@ -42566,42 +42641,42 @@
       <c r="N268" s="6"/>
       <c r="O268" s="6"/>
     </row>
-    <row r="269" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>266</v>
       </c>
       <c r="B269" s="6">
-        <v>1606</v>
+        <v>1701</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>1445</v>
-      </c>
-      <c r="E269" s="6" t="s">
-        <v>781</v>
+        <v>1444</v>
+      </c>
+      <c r="E269" s="6">
+        <v>1702</v>
       </c>
       <c r="F269" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G269" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H269" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="J269" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K269" s="6">
         <v>0</v>
       </c>
       <c r="L269" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M269" s="6"/>
       <c r="N269" s="6"/>
@@ -42612,16 +42687,16 @@
         <v>267</v>
       </c>
       <c r="B270" s="6">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>1423</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E270" s="6">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="F270" s="6">
         <v>17</v>
@@ -42630,19 +42705,19 @@
         <v>780</v>
       </c>
       <c r="H270" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" s="6" t="s">
         <v>1423</v>
       </c>
       <c r="J270" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K270" s="6">
         <v>0</v>
       </c>
       <c r="L270" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M270" s="6"/>
       <c r="N270" s="6"/>
@@ -42653,16 +42728,16 @@
         <v>268</v>
       </c>
       <c r="B271" s="6">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E271" s="6">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="F271" s="6">
         <v>17</v>
@@ -42671,19 +42746,19 @@
         <v>780</v>
       </c>
       <c r="H271" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I271" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J271" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K271" s="6">
         <v>0</v>
       </c>
       <c r="L271" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M271" s="6"/>
       <c r="N271" s="6"/>
@@ -42694,16 +42769,16 @@
         <v>269</v>
       </c>
       <c r="B272" s="6">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E272" s="6">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="F272" s="6">
         <v>17</v>
@@ -42712,19 +42787,19 @@
         <v>780</v>
       </c>
       <c r="H272" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="J272" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K272" s="6">
         <v>0</v>
       </c>
       <c r="L272" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M272" s="6"/>
       <c r="N272" s="6"/>
@@ -42735,16 +42810,16 @@
         <v>270</v>
       </c>
       <c r="B273" s="6">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E273" s="6">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="F273" s="6">
         <v>17</v>
@@ -42753,13 +42828,13 @@
         <v>780</v>
       </c>
       <c r="H273" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I273" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J273" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K273" s="6">
         <v>0</v>
@@ -42776,16 +42851,16 @@
         <v>271</v>
       </c>
       <c r="B274" s="6">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E274" s="6">
-        <v>1706</v>
+        <v>1449</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F274" s="6">
         <v>17</v>
@@ -42794,13 +42869,13 @@
         <v>780</v>
       </c>
       <c r="H274" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I274" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="J274" s="6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K274" s="6">
         <v>0</v>
@@ -42811,47 +42886,6 @@
       <c r="M274" s="6"/>
       <c r="N274" s="6"/>
       <c r="O274" s="6"/>
-    </row>
-    <row r="275" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="6">
-        <v>272</v>
-      </c>
-      <c r="B275" s="6">
-        <v>1706</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F275" s="6">
-        <v>17</v>
-      </c>
-      <c r="G275" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H275" s="6">
-        <v>6</v>
-      </c>
-      <c r="I275" s="6" t="s">
-        <v>1429</v>
-      </c>
-      <c r="J275" s="6" t="s">
-        <v>1456</v>
-      </c>
-      <c r="K275" s="6">
-        <v>0</v>
-      </c>
-      <c r="L275" s="6">
-        <v>50</v>
-      </c>
-      <c r="M275" s="6"/>
-      <c r="N275" s="6"/>
-      <c r="O275" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -43007,7 +43041,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -43015,7 +43049,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -43023,7 +43057,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -43031,7 +43065,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596E972C-293E-423E-95A1-9544C7631369}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF333592-6658-4339-B19E-5C37DF4D4122}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1621">
   <si>
     <t>sheet名</t>
   </si>
@@ -2644,78 +2644,6 @@
   </si>
   <si>
     <t>新手任务23</t>
-  </si>
-  <si>
-    <t>通过第1关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第2关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>把主舰升级到5级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第3关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放一次技能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第4关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第5关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第6关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>把主舰强化到10级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第7关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级军阶到1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰1突</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第8关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第9关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第10关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备一个武器</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第11关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备一个头盔</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2734,10 +2662,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过12关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>通过1</t>
     </r>
@@ -2754,23 +2678,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过13关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备一个肩甲</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过12关</t>
-  </si>
-  <si>
-    <t>装备一个衣服</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备一个裤子</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通过13关</t>
@@ -2792,14 +2700,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过14关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备一个鞋子</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>通过1</t>
     </r>
@@ -2816,18 +2716,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过15关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁导弹炮</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶升到2阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过16关</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2836,14 +2724,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>装备一个戒指</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮升级到15级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过18关</t>
   </si>
   <si>
@@ -2851,10 +2731,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮突破+1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过19关</t>
   </si>
   <si>
@@ -2866,10 +2742,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>装备一个项链</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过21关</t>
   </si>
   <si>
@@ -2880,47 +2752,7 @@
     <t>通过22关</t>
   </si>
   <si>
-    <t>通过22关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>把武器强化到10级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过23关</t>
-  </si>
-  <si>
-    <t>通过23关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有装备强化到10级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过24关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过25关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行一次合成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备1件2阶武器</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过26关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过27关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通过28关</t>
@@ -2933,44 +2765,12 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>军阶升到3阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过27关</t>
   </si>
   <si>
-    <t>在商店购买一次商品</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导装备抽奖励</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过30关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过31关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过32关</t>
   </si>
   <si>
-    <t>通过32关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行一次符文抽将</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过35关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>新手任务24</t>
   </si>
   <si>
@@ -3089,50 +2889,6 @@
   </si>
   <si>
     <t>通过36关</t>
-  </si>
-  <si>
-    <t>通过40关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过45关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过50关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰核能升级到1级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过55关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰突破达到3级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶升级至4阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶升级至5阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过60关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶升级至6阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器精炼到达1级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>新手任务63</t>
@@ -5669,6 +5425,219 @@
   <si>
     <t>头盔S4</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务-1:通过第1关</t>
+  </si>
+  <si>
+    <t>新手任务-2:通过第2关</t>
+  </si>
+  <si>
+    <t>新手任务-3:把主舰升级到5级</t>
+  </si>
+  <si>
+    <t>新手任务-4:通过第3关</t>
+  </si>
+  <si>
+    <t>新手任务-5:释放一次技能</t>
+  </si>
+  <si>
+    <t>新手任务-6:通过第4关</t>
+  </si>
+  <si>
+    <t>新手任务-7:通过第5关</t>
+  </si>
+  <si>
+    <t>新手任务-8:通过第6关</t>
+  </si>
+  <si>
+    <t>新手任务-9:把主舰强化到10级</t>
+  </si>
+  <si>
+    <t>新手任务-10:通过第7关</t>
+  </si>
+  <si>
+    <t>新手任务-11:主舰1突</t>
+  </si>
+  <si>
+    <t>新手任务-12:通过第8关</t>
+  </si>
+  <si>
+    <t>新手任务-13:升级军阶到1阶</t>
+  </si>
+  <si>
+    <t>新手任务-14:通过第9关</t>
+  </si>
+  <si>
+    <t>新手任务-15:通过第10关</t>
+  </si>
+  <si>
+    <t>新手任务-16:装备一个武器</t>
+  </si>
+  <si>
+    <t>新手任务-17:通过第11关</t>
+  </si>
+  <si>
+    <t>新手任务-18:装备一个肩甲</t>
+  </si>
+  <si>
+    <t>新手任务-19:通过12关</t>
+  </si>
+  <si>
+    <t>新手任务-20:装备一个衣服</t>
+  </si>
+  <si>
+    <t>新手任务-21:通过13关</t>
+  </si>
+  <si>
+    <t>新手任务-22:装备一个裤子</t>
+  </si>
+  <si>
+    <t>新手任务-23:通过14关</t>
+  </si>
+  <si>
+    <t>新手任务-24:装备一个鞋子</t>
+  </si>
+  <si>
+    <t>新手任务-25:通过15关</t>
+  </si>
+  <si>
+    <t>新手任务-26:装备一个头盔</t>
+  </si>
+  <si>
+    <t>新手任务-27:通过16关</t>
+  </si>
+  <si>
+    <t>新手任务-28:解锁导弹炮</t>
+  </si>
+  <si>
+    <t>新手任务-29:通过17关</t>
+  </si>
+  <si>
+    <t>新手任务-30:导弹炮升级到15级</t>
+  </si>
+  <si>
+    <t>新手任务-31:通过18关</t>
+  </si>
+  <si>
+    <t>新手任务-32:导弹炮突破+1</t>
+  </si>
+  <si>
+    <t>新手任务-33:通过19关</t>
+  </si>
+  <si>
+    <t>新手任务-34:通过20关</t>
+  </si>
+  <si>
+    <t>新手任务-35:装备一个项链</t>
+  </si>
+  <si>
+    <t>新手任务-36:通过21关</t>
+  </si>
+  <si>
+    <t>新手任务-37:军阶升到2阶</t>
+  </si>
+  <si>
+    <t>新手任务-38:装备一个戒指</t>
+  </si>
+  <si>
+    <t>新手任务-39:通过22关</t>
+  </si>
+  <si>
+    <t>新手任务-40:把武器强化到10级</t>
+  </si>
+  <si>
+    <t>新手任务-41:通过23关</t>
+  </si>
+  <si>
+    <t>新手任务-42:把所有装备强化到10级</t>
+  </si>
+  <si>
+    <t>新手任务-43:通过24关</t>
+  </si>
+  <si>
+    <t>新手任务-44:战力达到50000</t>
+  </si>
+  <si>
+    <t>新手任务-45:通过25关</t>
+  </si>
+  <si>
+    <t>新手任务-46:进行一次合成</t>
+  </si>
+  <si>
+    <t>新手任务-47:装备1件2阶武器</t>
+  </si>
+  <si>
+    <t>新手任务-48:通过26关</t>
+  </si>
+  <si>
+    <t>新手任务-49:在商店购买一次商品</t>
+  </si>
+  <si>
+    <t>新手任务-50:主舰2突</t>
+  </si>
+  <si>
+    <t>新手任务-51:通过27关</t>
+  </si>
+  <si>
+    <t>新手任务-52:引导装备抽奖励</t>
+  </si>
+  <si>
+    <t>新手任务-53:通过28关</t>
+  </si>
+  <si>
+    <t>新手任务-54:通过29关</t>
+  </si>
+  <si>
+    <t>新手任务-55:通过30关</t>
+  </si>
+  <si>
+    <t>新手任务-56:军阶升到3阶</t>
+  </si>
+  <si>
+    <t>新手任务-57:通过31关</t>
+  </si>
+  <si>
+    <t>新手任务-58:通过32关</t>
+  </si>
+  <si>
+    <t>新手任务-59:进行一次符文抽将</t>
+  </si>
+  <si>
+    <t>新手任务-60:通过35关</t>
+  </si>
+  <si>
+    <t>新手任务-61:通过40关</t>
+  </si>
+  <si>
+    <t>新手任务-62:武器精炼到达1级</t>
+  </si>
+  <si>
+    <t>新手任务-63:通过45关</t>
+  </si>
+  <si>
+    <t>新手任务-64:军阶升级至4阶</t>
+  </si>
+  <si>
+    <t>新手任务-65:通过50关</t>
+  </si>
+  <si>
+    <t>新手任务-66:主舰核能升级到1级</t>
+  </si>
+  <si>
+    <t>新手任务-67:通过55关</t>
+  </si>
+  <si>
+    <t>新手任务-68:主舰突破达到3级</t>
+  </si>
+  <si>
+    <t>新手任务-69:军阶升级至5阶</t>
+  </si>
+  <si>
+    <t>新手任务-70:通过60关</t>
+  </si>
+  <si>
+    <t>新手任务-71:军阶升级至6阶</t>
   </si>
 </sst>
 </file>
@@ -6601,7 +6570,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>1461</v>
+        <v>1400</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -6722,10 +6691,10 @@
         <v>101010001</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>979</v>
+        <v>918</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>997</v>
+        <v>936</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -6760,10 +6729,10 @@
         <v>101010002</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>980</v>
+        <v>919</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -6798,10 +6767,10 @@
         <v>101010003</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>981</v>
+        <v>920</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>999</v>
+        <v>938</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -6836,10 +6805,10 @@
         <v>101010004</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>982</v>
+        <v>921</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1000</v>
+        <v>939</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -6874,10 +6843,10 @@
         <v>101010005</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>983</v>
+        <v>922</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1001</v>
+        <v>940</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -6912,10 +6881,10 @@
         <v>101010006</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1044</v>
+        <v>983</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1002</v>
+        <v>941</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -6950,10 +6919,10 @@
         <v>101010007</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>984</v>
+        <v>923</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1003</v>
+        <v>942</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -6988,10 +6957,10 @@
         <v>101010008</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>985</v>
+        <v>924</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1004</v>
+        <v>943</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -7026,10 +6995,10 @@
         <v>101010009</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>986</v>
+        <v>925</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1005</v>
+        <v>944</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -7067,7 +7036,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>1006</v>
+        <v>945</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -7105,7 +7074,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1007</v>
+        <v>946</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -7140,10 +7109,10 @@
         <v>101010012</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>987</v>
+        <v>926</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1008</v>
+        <v>947</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -7178,10 +7147,10 @@
         <v>101010013</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>988</v>
+        <v>927</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1009</v>
+        <v>948</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -7219,7 +7188,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1010</v>
+        <v>949</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -7254,10 +7223,10 @@
         <v>101010015</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>989</v>
+        <v>928</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1011</v>
+        <v>950</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -7292,10 +7261,10 @@
         <v>101010016</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>990</v>
+        <v>929</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>1012</v>
+        <v>951</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -7333,7 +7302,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1013</v>
+        <v>952</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -7368,10 +7337,10 @@
         <v>101010018</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>991</v>
+        <v>930</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1014</v>
+        <v>953</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -7409,7 +7378,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>1015</v>
+        <v>954</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -7447,7 +7416,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>1016</v>
+        <v>955</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -7482,10 +7451,10 @@
         <v>101010021</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>992</v>
+        <v>931</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1017</v>
+        <v>956</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -7520,10 +7489,10 @@
         <v>101010022</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>993</v>
+        <v>932</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1018</v>
+        <v>957</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -7561,7 +7530,7 @@
         <v>70</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1019</v>
+        <v>958</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -7599,7 +7568,7 @@
         <v>71</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1020</v>
+        <v>959</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
@@ -7637,7 +7606,7 @@
         <v>73</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1021</v>
+        <v>960</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -7675,7 +7644,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1022</v>
+        <v>961</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -7713,7 +7682,7 @@
         <v>75</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1023</v>
+        <v>962</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -7751,7 +7720,7 @@
         <v>77</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1024</v>
+        <v>963</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -7789,7 +7758,7 @@
         <v>78</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>1025</v>
+        <v>964</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -7827,7 +7796,7 @@
         <v>79</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1026</v>
+        <v>965</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -7865,7 +7834,7 @@
         <v>80</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1027</v>
+        <v>966</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -7903,7 +7872,7 @@
         <v>81</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>1028</v>
+        <v>967</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
@@ -7941,7 +7910,7 @@
         <v>83</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1029</v>
+        <v>968</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -7979,7 +7948,7 @@
         <v>85</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>1030</v>
+        <v>969</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
@@ -8017,7 +7986,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>1031</v>
+        <v>970</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -8055,7 +8024,7 @@
         <v>88</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>1032</v>
+        <v>971</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
@@ -8090,10 +8059,10 @@
         <v>101020001</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>1255</v>
+        <v>1194</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1255</v>
+        <v>1194</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
@@ -8128,10 +8097,10 @@
         <v>101020002</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>1256</v>
+        <v>1195</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1256</v>
+        <v>1195</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
@@ -8204,10 +8173,10 @@
         <v>101020004</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1261</v>
+        <v>1200</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1261</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
@@ -8546,10 +8515,10 @@
         <v>101030001</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>1257</v>
+        <v>1196</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1257</v>
+        <v>1196</v>
       </c>
       <c r="E52" s="6">
         <v>3</v>
@@ -8584,10 +8553,10 @@
         <v>101030002</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>1258</v>
+        <v>1197</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>1258</v>
+        <v>1197</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -8660,10 +8629,10 @@
         <v>101030004</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>1262</v>
+        <v>1201</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1262</v>
+        <v>1201</v>
       </c>
       <c r="E55" s="6">
         <v>3</v>
@@ -10750,10 +10719,10 @@
         <v>102040001</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1311</v>
+        <v>1250</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>1311</v>
+        <v>1250</v>
       </c>
       <c r="E110" s="6">
         <v>45</v>
@@ -10788,10 +10757,10 @@
         <v>102040002</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1312</v>
+        <v>1251</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>1312</v>
+        <v>1251</v>
       </c>
       <c r="E111" s="6">
         <v>45</v>
@@ -10826,10 +10795,10 @@
         <v>102040003</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>1313</v>
+        <v>1252</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>1313</v>
+        <v>1252</v>
       </c>
       <c r="E112" s="6">
         <v>45</v>
@@ -10864,10 +10833,10 @@
         <v>102040004</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>1314</v>
+        <v>1253</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>1314</v>
+        <v>1253</v>
       </c>
       <c r="E113" s="6">
         <v>45</v>
@@ -10902,10 +10871,10 @@
         <v>102040005</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>1315</v>
+        <v>1254</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>1315</v>
+        <v>1254</v>
       </c>
       <c r="E114" s="6">
         <v>45</v>
@@ -10940,10 +10909,10 @@
         <v>102040006</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>1316</v>
+        <v>1255</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>1316</v>
+        <v>1255</v>
       </c>
       <c r="E115" s="6">
         <v>45</v>
@@ -10978,10 +10947,10 @@
         <v>102040007</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>1317</v>
+        <v>1256</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>1317</v>
+        <v>1256</v>
       </c>
       <c r="E116" s="6">
         <v>45</v>
@@ -11016,10 +10985,10 @@
         <v>102040008</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>1318</v>
+        <v>1257</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>1318</v>
+        <v>1257</v>
       </c>
       <c r="E117" s="6">
         <v>45</v>
@@ -11054,10 +11023,10 @@
         <v>102040009</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>1319</v>
+        <v>1258</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>1319</v>
+        <v>1258</v>
       </c>
       <c r="E118" s="6">
         <v>45</v>
@@ -11092,10 +11061,10 @@
         <v>102040010</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>1320</v>
+        <v>1259</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>1320</v>
+        <v>1259</v>
       </c>
       <c r="E119" s="6">
         <v>45</v>
@@ -11130,10 +11099,10 @@
         <v>102040011</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>1321</v>
+        <v>1260</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>1321</v>
+        <v>1260</v>
       </c>
       <c r="E120" s="6">
         <v>45</v>
@@ -11168,10 +11137,10 @@
         <v>102040012</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>1322</v>
+        <v>1261</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>1322</v>
+        <v>1261</v>
       </c>
       <c r="E121" s="6">
         <v>45</v>
@@ -12802,10 +12771,10 @@
         <v>105010101</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>1150</v>
+        <v>1089</v>
       </c>
       <c r="E164" s="6">
         <v>43</v>
@@ -12842,10 +12811,10 @@
         <v>105010102</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>1151</v>
+        <v>1090</v>
       </c>
       <c r="E165" s="6">
         <v>43</v>
@@ -12882,10 +12851,10 @@
         <v>105010103</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1056</v>
+        <v>995</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>1152</v>
+        <v>1091</v>
       </c>
       <c r="E166" s="6">
         <v>43</v>
@@ -12922,10 +12891,10 @@
         <v>105010104</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>1057</v>
+        <v>996</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>1153</v>
+        <v>1092</v>
       </c>
       <c r="E167" s="6">
         <v>43</v>
@@ -12962,10 +12931,10 @@
         <v>105010105</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1058</v>
+        <v>997</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>1154</v>
+        <v>1093</v>
       </c>
       <c r="E168" s="6">
         <v>43</v>
@@ -13002,10 +12971,10 @@
         <v>105010106</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>1059</v>
+        <v>998</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>1155</v>
+        <v>1094</v>
       </c>
       <c r="E169" s="6">
         <v>43</v>
@@ -13042,10 +13011,10 @@
         <v>105010107</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1060</v>
+        <v>999</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>1156</v>
+        <v>1095</v>
       </c>
       <c r="E170" s="6">
         <v>43</v>
@@ -13082,10 +13051,10 @@
         <v>105010108</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1061</v>
+        <v>1000</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>1157</v>
+        <v>1096</v>
       </c>
       <c r="E171" s="6">
         <v>43</v>
@@ -13122,10 +13091,10 @@
         <v>105010109</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1062</v>
+        <v>1001</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>1158</v>
+        <v>1097</v>
       </c>
       <c r="E172" s="6">
         <v>43</v>
@@ -13162,10 +13131,10 @@
         <v>105010110</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1063</v>
+        <v>1002</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>1159</v>
+        <v>1098</v>
       </c>
       <c r="E173" s="6">
         <v>43</v>
@@ -13202,10 +13171,10 @@
         <v>105010111</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1064</v>
+        <v>1003</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>1160</v>
+        <v>1099</v>
       </c>
       <c r="E174" s="6">
         <v>43</v>
@@ -13242,10 +13211,10 @@
         <v>105010112</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1065</v>
+        <v>1004</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>1161</v>
+        <v>1100</v>
       </c>
       <c r="E175" s="6">
         <v>43</v>
@@ -13282,10 +13251,10 @@
         <v>105010201</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1066</v>
+        <v>1005</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>1162</v>
+        <v>1101</v>
       </c>
       <c r="E176" s="6">
         <v>43</v>
@@ -13322,10 +13291,10 @@
         <v>105010202</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1067</v>
+        <v>1006</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>1163</v>
+        <v>1102</v>
       </c>
       <c r="E177" s="6">
         <v>43</v>
@@ -13362,10 +13331,10 @@
         <v>105010203</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1068</v>
+        <v>1007</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>1164</v>
+        <v>1103</v>
       </c>
       <c r="E178" s="6">
         <v>43</v>
@@ -13402,10 +13371,10 @@
         <v>105010204</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1069</v>
+        <v>1008</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>1165</v>
+        <v>1104</v>
       </c>
       <c r="E179" s="6">
         <v>43</v>
@@ -13442,10 +13411,10 @@
         <v>105010205</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1070</v>
+        <v>1009</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>1166</v>
+        <v>1105</v>
       </c>
       <c r="E180" s="6">
         <v>43</v>
@@ -13482,10 +13451,10 @@
         <v>105010206</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1071</v>
+        <v>1010</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>1167</v>
+        <v>1106</v>
       </c>
       <c r="E181" s="6">
         <v>43</v>
@@ -13522,10 +13491,10 @@
         <v>105010207</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1072</v>
+        <v>1011</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>1168</v>
+        <v>1107</v>
       </c>
       <c r="E182" s="6">
         <v>43</v>
@@ -13562,10 +13531,10 @@
         <v>105010208</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1073</v>
+        <v>1012</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>1169</v>
+        <v>1108</v>
       </c>
       <c r="E183" s="6">
         <v>43</v>
@@ -13602,10 +13571,10 @@
         <v>105010209</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1074</v>
+        <v>1013</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>1170</v>
+        <v>1109</v>
       </c>
       <c r="E184" s="6">
         <v>43</v>
@@ -13642,10 +13611,10 @@
         <v>105010210</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1075</v>
+        <v>1014</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>1171</v>
+        <v>1110</v>
       </c>
       <c r="E185" s="6">
         <v>43</v>
@@ -13682,10 +13651,10 @@
         <v>105010211</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>1076</v>
+        <v>1015</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>1172</v>
+        <v>1111</v>
       </c>
       <c r="E186" s="6">
         <v>43</v>
@@ -13722,10 +13691,10 @@
         <v>105010212</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>1077</v>
+        <v>1016</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>1173</v>
+        <v>1112</v>
       </c>
       <c r="E187" s="6">
         <v>43</v>
@@ -13762,10 +13731,10 @@
         <v>105010301</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>1078</v>
+        <v>1017</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>1174</v>
+        <v>1113</v>
       </c>
       <c r="E188" s="6">
         <v>43</v>
@@ -13802,10 +13771,10 @@
         <v>105010302</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>1079</v>
+        <v>1018</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>1175</v>
+        <v>1114</v>
       </c>
       <c r="E189" s="6">
         <v>43</v>
@@ -13842,10 +13811,10 @@
         <v>105010303</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>1080</v>
+        <v>1019</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>1176</v>
+        <v>1115</v>
       </c>
       <c r="E190" s="6">
         <v>43</v>
@@ -13882,10 +13851,10 @@
         <v>105010304</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>1081</v>
+        <v>1020</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>1177</v>
+        <v>1116</v>
       </c>
       <c r="E191" s="6">
         <v>43</v>
@@ -13922,10 +13891,10 @@
         <v>105010305</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>1082</v>
+        <v>1021</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>1178</v>
+        <v>1117</v>
       </c>
       <c r="E192" s="6">
         <v>43</v>
@@ -13962,10 +13931,10 @@
         <v>105010306</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>1083</v>
+        <v>1022</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>1179</v>
+        <v>1118</v>
       </c>
       <c r="E193" s="6">
         <v>43</v>
@@ -14002,10 +13971,10 @@
         <v>105010307</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>1084</v>
+        <v>1023</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>1180</v>
+        <v>1119</v>
       </c>
       <c r="E194" s="6">
         <v>43</v>
@@ -14042,10 +14011,10 @@
         <v>105010308</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1085</v>
+        <v>1024</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>1181</v>
+        <v>1120</v>
       </c>
       <c r="E195" s="6">
         <v>43</v>
@@ -14082,10 +14051,10 @@
         <v>105010309</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1086</v>
+        <v>1025</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1182</v>
+        <v>1121</v>
       </c>
       <c r="E196" s="6">
         <v>43</v>
@@ -14122,10 +14091,10 @@
         <v>105010310</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1087</v>
+        <v>1026</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1183</v>
+        <v>1122</v>
       </c>
       <c r="E197" s="6">
         <v>43</v>
@@ -14162,10 +14131,10 @@
         <v>105010311</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1088</v>
+        <v>1027</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1184</v>
+        <v>1123</v>
       </c>
       <c r="E198" s="6">
         <v>43</v>
@@ -14202,10 +14171,10 @@
         <v>105010312</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1089</v>
+        <v>1028</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>1185</v>
+        <v>1124</v>
       </c>
       <c r="E199" s="6">
         <v>43</v>
@@ -14242,10 +14211,10 @@
         <v>105010401</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1090</v>
+        <v>1029</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>1186</v>
+        <v>1125</v>
       </c>
       <c r="E200" s="6">
         <v>43</v>
@@ -14282,10 +14251,10 @@
         <v>105010402</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1091</v>
+        <v>1030</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>1187</v>
+        <v>1126</v>
       </c>
       <c r="E201" s="6">
         <v>43</v>
@@ -14322,10 +14291,10 @@
         <v>105010403</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>1092</v>
+        <v>1031</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>1188</v>
+        <v>1127</v>
       </c>
       <c r="E202" s="6">
         <v>43</v>
@@ -14362,10 +14331,10 @@
         <v>105010404</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>1093</v>
+        <v>1032</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>1189</v>
+        <v>1128</v>
       </c>
       <c r="E203" s="6">
         <v>43</v>
@@ -14402,10 +14371,10 @@
         <v>105010405</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>1094</v>
+        <v>1033</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>1190</v>
+        <v>1129</v>
       </c>
       <c r="E204" s="6">
         <v>43</v>
@@ -14442,10 +14411,10 @@
         <v>105010406</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>1095</v>
+        <v>1034</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>1191</v>
+        <v>1130</v>
       </c>
       <c r="E205" s="6">
         <v>43</v>
@@ -14482,10 +14451,10 @@
         <v>105010407</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1096</v>
+        <v>1035</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>1192</v>
+        <v>1131</v>
       </c>
       <c r="E206" s="6">
         <v>43</v>
@@ -14522,10 +14491,10 @@
         <v>105010408</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1097</v>
+        <v>1036</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>1193</v>
+        <v>1132</v>
       </c>
       <c r="E207" s="6">
         <v>43</v>
@@ -14562,10 +14531,10 @@
         <v>105010409</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>1098</v>
+        <v>1037</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>1194</v>
+        <v>1133</v>
       </c>
       <c r="E208" s="6">
         <v>43</v>
@@ -14602,10 +14571,10 @@
         <v>105010410</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>1099</v>
+        <v>1038</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>1195</v>
+        <v>1134</v>
       </c>
       <c r="E209" s="6">
         <v>43</v>
@@ -14642,10 +14611,10 @@
         <v>105010411</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>1100</v>
+        <v>1039</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>1196</v>
+        <v>1135</v>
       </c>
       <c r="E210" s="6">
         <v>43</v>
@@ -14682,10 +14651,10 @@
         <v>105010412</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>1101</v>
+        <v>1040</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>1197</v>
+        <v>1136</v>
       </c>
       <c r="E211" s="6">
         <v>43</v>
@@ -14722,10 +14691,10 @@
         <v>105010501</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>1102</v>
+        <v>1041</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>1198</v>
+        <v>1137</v>
       </c>
       <c r="E212" s="6">
         <v>43</v>
@@ -14762,10 +14731,10 @@
         <v>105010502</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>1103</v>
+        <v>1042</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>1199</v>
+        <v>1138</v>
       </c>
       <c r="E213" s="6">
         <v>43</v>
@@ -14802,10 +14771,10 @@
         <v>105010503</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>1104</v>
+        <v>1043</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>1200</v>
+        <v>1139</v>
       </c>
       <c r="E214" s="6">
         <v>43</v>
@@ -14842,10 +14811,10 @@
         <v>105010504</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>1105</v>
+        <v>1044</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>1201</v>
+        <v>1140</v>
       </c>
       <c r="E215" s="6">
         <v>43</v>
@@ -14882,10 +14851,10 @@
         <v>105010505</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1106</v>
+        <v>1045</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>1202</v>
+        <v>1141</v>
       </c>
       <c r="E216" s="6">
         <v>43</v>
@@ -14922,10 +14891,10 @@
         <v>105010506</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1107</v>
+        <v>1046</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>1203</v>
+        <v>1142</v>
       </c>
       <c r="E217" s="6">
         <v>43</v>
@@ -14962,10 +14931,10 @@
         <v>105010507</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>1108</v>
+        <v>1047</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>1204</v>
+        <v>1143</v>
       </c>
       <c r="E218" s="6">
         <v>43</v>
@@ -15002,10 +14971,10 @@
         <v>105010508</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>1109</v>
+        <v>1048</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>1205</v>
+        <v>1144</v>
       </c>
       <c r="E219" s="6">
         <v>43</v>
@@ -15042,10 +15011,10 @@
         <v>105010509</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>1110</v>
+        <v>1049</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>1206</v>
+        <v>1145</v>
       </c>
       <c r="E220" s="6">
         <v>43</v>
@@ -15082,10 +15051,10 @@
         <v>105010510</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>1111</v>
+        <v>1050</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>1207</v>
+        <v>1146</v>
       </c>
       <c r="E221" s="6">
         <v>43</v>
@@ -15122,10 +15091,10 @@
         <v>105010511</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>1112</v>
+        <v>1051</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>1208</v>
+        <v>1147</v>
       </c>
       <c r="E222" s="6">
         <v>43</v>
@@ -15162,10 +15131,10 @@
         <v>105010512</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>1113</v>
+        <v>1052</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>1209</v>
+        <v>1148</v>
       </c>
       <c r="E223" s="6">
         <v>43</v>
@@ -15202,10 +15171,10 @@
         <v>105010601</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1114</v>
+        <v>1053</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>1210</v>
+        <v>1149</v>
       </c>
       <c r="E224" s="6">
         <v>43</v>
@@ -15242,10 +15211,10 @@
         <v>105010602</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1115</v>
+        <v>1054</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>1211</v>
+        <v>1150</v>
       </c>
       <c r="E225" s="6">
         <v>43</v>
@@ -15282,10 +15251,10 @@
         <v>105010603</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>1116</v>
+        <v>1055</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>1212</v>
+        <v>1151</v>
       </c>
       <c r="E226" s="6">
         <v>43</v>
@@ -15322,10 +15291,10 @@
         <v>105010604</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>1117</v>
+        <v>1056</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>1213</v>
+        <v>1152</v>
       </c>
       <c r="E227" s="6">
         <v>43</v>
@@ -15362,10 +15331,10 @@
         <v>105010605</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>1118</v>
+        <v>1057</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>1214</v>
+        <v>1153</v>
       </c>
       <c r="E228" s="6">
         <v>43</v>
@@ -15402,10 +15371,10 @@
         <v>105010606</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>1119</v>
+        <v>1058</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>1215</v>
+        <v>1154</v>
       </c>
       <c r="E229" s="6">
         <v>43</v>
@@ -15442,10 +15411,10 @@
         <v>105010607</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>1120</v>
+        <v>1059</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>1216</v>
+        <v>1155</v>
       </c>
       <c r="E230" s="6">
         <v>43</v>
@@ -15482,10 +15451,10 @@
         <v>105010608</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>1121</v>
+        <v>1060</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>1217</v>
+        <v>1156</v>
       </c>
       <c r="E231" s="6">
         <v>43</v>
@@ -15522,10 +15491,10 @@
         <v>105010609</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>1122</v>
+        <v>1061</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>1218</v>
+        <v>1157</v>
       </c>
       <c r="E232" s="6">
         <v>43</v>
@@ -15562,10 +15531,10 @@
         <v>105010610</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>1123</v>
+        <v>1062</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>1219</v>
+        <v>1158</v>
       </c>
       <c r="E233" s="6">
         <v>43</v>
@@ -15602,10 +15571,10 @@
         <v>105010611</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1124</v>
+        <v>1063</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>1220</v>
+        <v>1159</v>
       </c>
       <c r="E234" s="6">
         <v>43</v>
@@ -15642,10 +15611,10 @@
         <v>105010612</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>1125</v>
+        <v>1064</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>1221</v>
+        <v>1160</v>
       </c>
       <c r="E235" s="6">
         <v>43</v>
@@ -15682,10 +15651,10 @@
         <v>105010701</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>1126</v>
+        <v>1065</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>1222</v>
+        <v>1161</v>
       </c>
       <c r="E236" s="6">
         <v>43</v>
@@ -15722,10 +15691,10 @@
         <v>105010702</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>1127</v>
+        <v>1066</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>1223</v>
+        <v>1162</v>
       </c>
       <c r="E237" s="6">
         <v>43</v>
@@ -15762,10 +15731,10 @@
         <v>105010703</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>1128</v>
+        <v>1067</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>1224</v>
+        <v>1163</v>
       </c>
       <c r="E238" s="6">
         <v>43</v>
@@ -15802,10 +15771,10 @@
         <v>105010704</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>1129</v>
+        <v>1068</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>1225</v>
+        <v>1164</v>
       </c>
       <c r="E239" s="6">
         <v>43</v>
@@ -15842,10 +15811,10 @@
         <v>105010705</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>1130</v>
+        <v>1069</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>1226</v>
+        <v>1165</v>
       </c>
       <c r="E240" s="6">
         <v>43</v>
@@ -15882,10 +15851,10 @@
         <v>105010706</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>1131</v>
+        <v>1070</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>1227</v>
+        <v>1166</v>
       </c>
       <c r="E241" s="6">
         <v>43</v>
@@ -15922,10 +15891,10 @@
         <v>105010707</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>1132</v>
+        <v>1071</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>1228</v>
+        <v>1167</v>
       </c>
       <c r="E242" s="6">
         <v>43</v>
@@ -15962,10 +15931,10 @@
         <v>105010708</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>1133</v>
+        <v>1072</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>1229</v>
+        <v>1168</v>
       </c>
       <c r="E243" s="6">
         <v>43</v>
@@ -16002,10 +15971,10 @@
         <v>105010709</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>1134</v>
+        <v>1073</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>1230</v>
+        <v>1169</v>
       </c>
       <c r="E244" s="6">
         <v>43</v>
@@ -16042,10 +16011,10 @@
         <v>105010710</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>1135</v>
+        <v>1074</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>1231</v>
+        <v>1170</v>
       </c>
       <c r="E245" s="6">
         <v>43</v>
@@ -16082,10 +16051,10 @@
         <v>105010711</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>1136</v>
+        <v>1075</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>1232</v>
+        <v>1171</v>
       </c>
       <c r="E246" s="6">
         <v>43</v>
@@ -16122,10 +16091,10 @@
         <v>105010712</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>1137</v>
+        <v>1076</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>1233</v>
+        <v>1172</v>
       </c>
       <c r="E247" s="6">
         <v>43</v>
@@ -16162,10 +16131,10 @@
         <v>105010801</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>1138</v>
+        <v>1077</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>1234</v>
+        <v>1173</v>
       </c>
       <c r="E248" s="6">
         <v>43</v>
@@ -16202,10 +16171,10 @@
         <v>105010802</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>1139</v>
+        <v>1078</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>1235</v>
+        <v>1174</v>
       </c>
       <c r="E249" s="6">
         <v>43</v>
@@ -16242,10 +16211,10 @@
         <v>105010803</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>1140</v>
+        <v>1079</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>1236</v>
+        <v>1175</v>
       </c>
       <c r="E250" s="6">
         <v>43</v>
@@ -16282,10 +16251,10 @@
         <v>105010804</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>1141</v>
+        <v>1080</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>1237</v>
+        <v>1176</v>
       </c>
       <c r="E251" s="6">
         <v>43</v>
@@ -16322,10 +16291,10 @@
         <v>105010805</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>1142</v>
+        <v>1081</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>1238</v>
+        <v>1177</v>
       </c>
       <c r="E252" s="6">
         <v>43</v>
@@ -16362,10 +16331,10 @@
         <v>105010806</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>1143</v>
+        <v>1082</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>1239</v>
+        <v>1178</v>
       </c>
       <c r="E253" s="6">
         <v>43</v>
@@ -16402,10 +16371,10 @@
         <v>105010807</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>1144</v>
+        <v>1083</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>1240</v>
+        <v>1179</v>
       </c>
       <c r="E254" s="6">
         <v>43</v>
@@ -16442,10 +16411,10 @@
         <v>105010808</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>1145</v>
+        <v>1084</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>1241</v>
+        <v>1180</v>
       </c>
       <c r="E255" s="6">
         <v>43</v>
@@ -16482,10 +16451,10 @@
         <v>105010809</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>1146</v>
+        <v>1085</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>1242</v>
+        <v>1181</v>
       </c>
       <c r="E256" s="6">
         <v>43</v>
@@ -16522,10 +16491,10 @@
         <v>105010810</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>1147</v>
+        <v>1086</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>1243</v>
+        <v>1182</v>
       </c>
       <c r="E257" s="6">
         <v>43</v>
@@ -16562,10 +16531,10 @@
         <v>105010811</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>1148</v>
+        <v>1087</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>1244</v>
+        <v>1183</v>
       </c>
       <c r="E258" s="6">
         <v>43</v>
@@ -16602,10 +16571,10 @@
         <v>105010812</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>1149</v>
+        <v>1088</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>1245</v>
+        <v>1184</v>
       </c>
       <c r="E259" s="6">
         <v>43</v>
@@ -19343,7 +19312,7 @@
         <v>394</v>
       </c>
       <c r="D331" s="24" t="s">
-        <v>1323</v>
+        <v>1262</v>
       </c>
       <c r="E331" s="12">
         <v>20</v>
@@ -19381,7 +19350,7 @@
         <v>395</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>1324</v>
+        <v>1263</v>
       </c>
       <c r="E332" s="12">
         <v>20</v>
@@ -19419,7 +19388,7 @@
         <v>396</v>
       </c>
       <c r="D333" s="24" t="s">
-        <v>1325</v>
+        <v>1264</v>
       </c>
       <c r="E333" s="12">
         <v>20</v>
@@ -19457,7 +19426,7 @@
         <v>397</v>
       </c>
       <c r="D334" s="24" t="s">
-        <v>1326</v>
+        <v>1265</v>
       </c>
       <c r="E334" s="12">
         <v>20</v>
@@ -19495,7 +19464,7 @@
         <v>398</v>
       </c>
       <c r="D335" s="24" t="s">
-        <v>1327</v>
+        <v>1266</v>
       </c>
       <c r="E335" s="12">
         <v>20</v>
@@ -19533,7 +19502,7 @@
         <v>399</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>1328</v>
+        <v>1267</v>
       </c>
       <c r="E336" s="12">
         <v>20</v>
@@ -19568,10 +19537,10 @@
         <v>107020012</v>
       </c>
       <c r="C337" s="24" t="s">
-        <v>1329</v>
+        <v>1268</v>
       </c>
       <c r="D337" s="24" t="s">
-        <v>1330</v>
+        <v>1269</v>
       </c>
       <c r="E337" s="12">
         <v>20</v>
@@ -19606,10 +19575,10 @@
         <v>107020013</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>1331</v>
+        <v>1270</v>
       </c>
       <c r="D338" s="24" t="s">
-        <v>1333</v>
+        <v>1272</v>
       </c>
       <c r="E338" s="12">
         <v>20</v>
@@ -19644,10 +19613,10 @@
         <v>107020014</v>
       </c>
       <c r="C339" s="24" t="s">
-        <v>1332</v>
+        <v>1271</v>
       </c>
       <c r="D339" s="24" t="s">
-        <v>1334</v>
+        <v>1273</v>
       </c>
       <c r="E339" s="12">
         <v>20</v>
@@ -19682,10 +19651,10 @@
         <v>107030001</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>1273</v>
+        <v>1212</v>
       </c>
       <c r="D340" s="23" t="s">
-        <v>1274</v>
+        <v>1213</v>
       </c>
       <c r="E340" s="11">
         <v>32</v>
@@ -20138,7 +20107,7 @@
         <v>108020001</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>1033</v>
+        <v>972</v>
       </c>
       <c r="D352" s="11" t="s">
         <v>422</v>
@@ -20176,7 +20145,7 @@
         <v>108020002</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>1034</v>
+        <v>973</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>423</v>
@@ -20214,7 +20183,7 @@
         <v>108020003</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>1035</v>
+        <v>974</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>424</v>
@@ -20252,7 +20221,7 @@
         <v>108020004</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>1036</v>
+        <v>975</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>425</v>
@@ -20290,7 +20259,7 @@
         <v>108020005</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>1037</v>
+        <v>976</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>426</v>
@@ -20328,7 +20297,7 @@
         <v>108020006</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>1038</v>
+        <v>977</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>427</v>
@@ -20366,7 +20335,7 @@
         <v>108020007</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>1039</v>
+        <v>978</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>428</v>
@@ -20404,7 +20373,7 @@
         <v>108020008</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>1040</v>
+        <v>979</v>
       </c>
       <c r="D359" s="11" t="s">
         <v>429</v>
@@ -22152,10 +22121,10 @@
         <v>201010011</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>1247</v>
+        <v>1186</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>1247</v>
+        <v>1186</v>
       </c>
       <c r="E405" s="6">
         <v>9</v>
@@ -22190,10 +22159,10 @@
         <v>201010012</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="E406" s="6">
         <v>9</v>
@@ -22228,10 +22197,10 @@
         <v>201010013</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="E407" s="6">
         <v>9</v>
@@ -22266,10 +22235,10 @@
         <v>201010014</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>976</v>
+        <v>915</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>976</v>
+        <v>915</v>
       </c>
       <c r="E408" s="6">
         <v>9</v>
@@ -22304,10 +22273,10 @@
         <v>201010015</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>977</v>
+        <v>916</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>977</v>
+        <v>916</v>
       </c>
       <c r="E409" s="6">
         <v>9</v>
@@ -22342,10 +22311,10 @@
         <v>201010016</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>1254</v>
+        <v>1193</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>1254</v>
+        <v>1193</v>
       </c>
       <c r="E410" s="6">
         <v>9</v>
@@ -22380,10 +22349,10 @@
         <v>201010017</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>1259</v>
+        <v>1198</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>1259</v>
+        <v>1198</v>
       </c>
       <c r="E411" s="6">
         <v>9</v>
@@ -22418,10 +22387,10 @@
         <v>201010018</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="E412" s="6">
         <v>9</v>
@@ -22456,10 +22425,10 @@
         <v>201010019</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>883</v>
+        <v>852</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>883</v>
+        <v>852</v>
       </c>
       <c r="E413" s="6">
         <v>9</v>
@@ -22532,10 +22501,10 @@
         <v>201010021</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>887</v>
+        <v>855</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>887</v>
+        <v>855</v>
       </c>
       <c r="E415" s="6">
         <v>9</v>
@@ -22570,10 +22539,10 @@
         <v>201010022</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>889</v>
+        <v>857</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>889</v>
+        <v>857</v>
       </c>
       <c r="E416" s="6">
         <v>9</v>
@@ -22608,10 +22577,10 @@
         <v>201010023</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>892</v>
+        <v>858</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>892</v>
+        <v>858</v>
       </c>
       <c r="E417" s="6">
         <v>9</v>
@@ -22646,10 +22615,10 @@
         <v>201010024</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>1263</v>
+        <v>1202</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>1263</v>
+        <v>1202</v>
       </c>
       <c r="E418" s="6">
         <v>9</v>
@@ -22684,10 +22653,10 @@
         <v>201010025</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>1264</v>
+        <v>1203</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>1264</v>
+        <v>1203</v>
       </c>
       <c r="E419" s="6">
         <v>9</v>
@@ -22722,10 +22691,10 @@
         <v>201010026</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>1276</v>
+        <v>1215</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>1276</v>
+        <v>1215</v>
       </c>
       <c r="E420" s="6">
         <v>9</v>
@@ -22760,10 +22729,10 @@
         <v>201010027</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>905</v>
+        <v>862</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>905</v>
+        <v>862</v>
       </c>
       <c r="E421" s="6">
         <v>9</v>
@@ -22798,10 +22767,10 @@
         <v>201010028</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>901</v>
+        <v>859</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>901</v>
+        <v>859</v>
       </c>
       <c r="E422" s="6">
         <v>9</v>
@@ -22836,10 +22805,10 @@
         <v>201010029</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>902</v>
+        <v>860</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>902</v>
+        <v>860</v>
       </c>
       <c r="E423" s="6">
         <v>9</v>
@@ -22912,10 +22881,10 @@
         <v>201010031</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>1271</v>
+        <v>1210</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>1271</v>
+        <v>1210</v>
       </c>
       <c r="E425" s="6">
         <v>9</v>
@@ -22950,10 +22919,10 @@
         <v>201010032</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>910</v>
+        <v>863</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>910</v>
+        <v>863</v>
       </c>
       <c r="E426" s="6">
         <v>9</v>
@@ -22988,10 +22957,10 @@
         <v>201010033</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>1277</v>
+        <v>1216</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>1277</v>
+        <v>1216</v>
       </c>
       <c r="E427" s="6">
         <v>9</v>
@@ -23026,10 +22995,10 @@
         <v>201010034</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>1278</v>
+        <v>1217</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>1278</v>
+        <v>1217</v>
       </c>
       <c r="E428" s="6">
         <v>9</v>
@@ -23064,10 +23033,10 @@
         <v>201010035</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>1279</v>
+        <v>1218</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>1279</v>
+        <v>1218</v>
       </c>
       <c r="E429" s="6">
         <v>9</v>
@@ -23102,10 +23071,10 @@
         <v>201010036</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>953</v>
+        <v>903</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>953</v>
+        <v>903</v>
       </c>
       <c r="E430" s="6">
         <v>9</v>
@@ -23140,10 +23109,10 @@
         <v>201010037</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>1280</v>
+        <v>1219</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>1280</v>
+        <v>1219</v>
       </c>
       <c r="E431" s="6">
         <v>9</v>
@@ -23178,10 +23147,10 @@
         <v>201010038</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>1281</v>
+        <v>1220</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>1281</v>
+        <v>1220</v>
       </c>
       <c r="E432" s="6">
         <v>9</v>
@@ -23216,10 +23185,10 @@
         <v>201010039</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>1282</v>
+        <v>1221</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>1282</v>
+        <v>1221</v>
       </c>
       <c r="E433" s="6">
         <v>9</v>
@@ -23292,10 +23261,10 @@
         <v>201010041</v>
       </c>
       <c r="C435" s="20" t="s">
-        <v>1283</v>
+        <v>1222</v>
       </c>
       <c r="D435" s="20" t="s">
-        <v>1283</v>
+        <v>1222</v>
       </c>
       <c r="E435" s="6">
         <v>9</v>
@@ -23368,10 +23337,10 @@
         <v>201010043</v>
       </c>
       <c r="C437" s="20" t="s">
-        <v>1284</v>
+        <v>1223</v>
       </c>
       <c r="D437" s="20" t="s">
-        <v>1284</v>
+        <v>1223</v>
       </c>
       <c r="E437" s="6">
         <v>9</v>
@@ -23444,10 +23413,10 @@
         <v>201010045</v>
       </c>
       <c r="C439" s="20" t="s">
-        <v>1285</v>
+        <v>1224</v>
       </c>
       <c r="D439" s="20" t="s">
-        <v>1285</v>
+        <v>1224</v>
       </c>
       <c r="E439" s="6">
         <v>9</v>
@@ -23520,10 +23489,10 @@
         <v>201010047</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="D441" s="20" t="s">
-        <v>1286</v>
+        <v>1225</v>
       </c>
       <c r="E441" s="6">
         <v>9</v>
@@ -28358,10 +28327,10 @@
         <v>602020001</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>1287</v>
+        <v>1226</v>
       </c>
       <c r="D565" s="6" t="s">
-        <v>1287</v>
+        <v>1226</v>
       </c>
       <c r="E565" s="6">
         <v>44</v>
@@ -28396,10 +28365,10 @@
         <v>602020002</v>
       </c>
       <c r="C566" s="6" t="s">
-        <v>1288</v>
+        <v>1227</v>
       </c>
       <c r="D566" s="6" t="s">
-        <v>1288</v>
+        <v>1227</v>
       </c>
       <c r="E566" s="6">
         <v>44</v>
@@ -28434,10 +28403,10 @@
         <v>602020003</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>1289</v>
+        <v>1228</v>
       </c>
       <c r="D567" s="6" t="s">
-        <v>1289</v>
+        <v>1228</v>
       </c>
       <c r="E567" s="6">
         <v>44</v>
@@ -28472,10 +28441,10 @@
         <v>602020004</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>1290</v>
+        <v>1229</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>1290</v>
+        <v>1229</v>
       </c>
       <c r="E568" s="6">
         <v>44</v>
@@ -28510,10 +28479,10 @@
         <v>602020005</v>
       </c>
       <c r="C569" s="20" t="s">
-        <v>1296</v>
+        <v>1235</v>
       </c>
       <c r="D569" s="20" t="s">
-        <v>1296</v>
+        <v>1235</v>
       </c>
       <c r="E569" s="6">
         <v>44</v>
@@ -28548,10 +28517,10 @@
         <v>602020006</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>1291</v>
+        <v>1230</v>
       </c>
       <c r="D570" s="6" t="s">
-        <v>1291</v>
+        <v>1230</v>
       </c>
       <c r="E570" s="6">
         <v>44</v>
@@ -28586,10 +28555,10 @@
         <v>602020007</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>1293</v>
+        <v>1232</v>
       </c>
       <c r="D571" s="6" t="s">
-        <v>1293</v>
+        <v>1232</v>
       </c>
       <c r="E571" s="6">
         <v>44</v>
@@ -28624,10 +28593,10 @@
         <v>602020008</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>1294</v>
+        <v>1233</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>1294</v>
+        <v>1233</v>
       </c>
       <c r="E572" s="6">
         <v>44</v>
@@ -28662,10 +28631,10 @@
         <v>602020009</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>1295</v>
+        <v>1234</v>
       </c>
       <c r="D573" s="6" t="s">
-        <v>1295</v>
+        <v>1234</v>
       </c>
       <c r="E573" s="6">
         <v>44</v>
@@ -28700,10 +28669,10 @@
         <v>602020010</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>1292</v>
+        <v>1231</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>1292</v>
+        <v>1231</v>
       </c>
       <c r="E574" s="6">
         <v>44</v>
@@ -28738,10 +28707,10 @@
         <v>407010001</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>1362</v>
+        <v>1301</v>
       </c>
       <c r="D575" s="6" t="s">
-        <v>1372</v>
+        <v>1311</v>
       </c>
       <c r="E575" s="6">
         <v>46</v>
@@ -28776,10 +28745,10 @@
         <v>407010002</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>1363</v>
+        <v>1302</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>1373</v>
+        <v>1312</v>
       </c>
       <c r="E576" s="6">
         <v>46</v>
@@ -28814,10 +28783,10 @@
         <v>407010003</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>1364</v>
+        <v>1303</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>1374</v>
+        <v>1313</v>
       </c>
       <c r="E577" s="6">
         <v>46</v>
@@ -28852,10 +28821,10 @@
         <v>407010004</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>1365</v>
+        <v>1304</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>1375</v>
+        <v>1314</v>
       </c>
       <c r="E578" s="6">
         <v>46</v>
@@ -28890,10 +28859,10 @@
         <v>407010005</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>1366</v>
+        <v>1305</v>
       </c>
       <c r="D579" s="6" t="s">
-        <v>1376</v>
+        <v>1315</v>
       </c>
       <c r="E579" s="6">
         <v>46</v>
@@ -28928,10 +28897,10 @@
         <v>407010006</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>1367</v>
+        <v>1306</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>1377</v>
+        <v>1316</v>
       </c>
       <c r="E580" s="6">
         <v>46</v>
@@ -28966,10 +28935,10 @@
         <v>407010007</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>1368</v>
+        <v>1307</v>
       </c>
       <c r="D581" s="6" t="s">
-        <v>1378</v>
+        <v>1317</v>
       </c>
       <c r="E581" s="6">
         <v>46</v>
@@ -29004,10 +28973,10 @@
         <v>407010008</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>1369</v>
+        <v>1308</v>
       </c>
       <c r="D582" s="6" t="s">
-        <v>1379</v>
+        <v>1318</v>
       </c>
       <c r="E582" s="6">
         <v>46</v>
@@ -29042,10 +29011,10 @@
         <v>407010009</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>1370</v>
+        <v>1309</v>
       </c>
       <c r="D583" s="6" t="s">
-        <v>1380</v>
+        <v>1319</v>
       </c>
       <c r="E583" s="6">
         <v>46</v>
@@ -29080,10 +29049,10 @@
         <v>407010010</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>1371</v>
+        <v>1310</v>
       </c>
       <c r="D584" s="6" t="s">
-        <v>1381</v>
+        <v>1320</v>
       </c>
       <c r="E584" s="6">
         <v>46</v>
@@ -29118,10 +29087,10 @@
         <v>407021101</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>1404</v>
+        <v>1343</v>
       </c>
       <c r="D585" s="6" t="s">
-        <v>1428</v>
+        <v>1367</v>
       </c>
       <c r="E585" s="6">
         <v>47</v>
@@ -29158,10 +29127,10 @@
         <v>407021102</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>1405</v>
+        <v>1344</v>
       </c>
       <c r="D586" s="6" t="s">
-        <v>1429</v>
+        <v>1368</v>
       </c>
       <c r="E586" s="6">
         <v>47</v>
@@ -29198,10 +29167,10 @@
         <v>407021103</v>
       </c>
       <c r="C587" s="6" t="s">
-        <v>1406</v>
+        <v>1345</v>
       </c>
       <c r="D587" s="6" t="s">
-        <v>1430</v>
+        <v>1369</v>
       </c>
       <c r="E587" s="6">
         <v>47</v>
@@ -29238,10 +29207,10 @@
         <v>407021104</v>
       </c>
       <c r="C588" s="6" t="s">
-        <v>1407</v>
+        <v>1346</v>
       </c>
       <c r="D588" s="6" t="s">
-        <v>1431</v>
+        <v>1370</v>
       </c>
       <c r="E588" s="6">
         <v>47</v>
@@ -29278,10 +29247,10 @@
         <v>407021105</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>1408</v>
+        <v>1347</v>
       </c>
       <c r="D589" s="6" t="s">
-        <v>1432</v>
+        <v>1371</v>
       </c>
       <c r="E589" s="6">
         <v>47</v>
@@ -29318,10 +29287,10 @@
         <v>407021106</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>1409</v>
+        <v>1348</v>
       </c>
       <c r="D590" s="6" t="s">
-        <v>1433</v>
+        <v>1372</v>
       </c>
       <c r="E590" s="6">
         <v>47</v>
@@ -29358,10 +29327,10 @@
         <v>407021107</v>
       </c>
       <c r="C591" s="6" t="s">
-        <v>1410</v>
+        <v>1349</v>
       </c>
       <c r="D591" s="6" t="s">
-        <v>1434</v>
+        <v>1373</v>
       </c>
       <c r="E591" s="6">
         <v>47</v>
@@ -29398,10 +29367,10 @@
         <v>407021108</v>
       </c>
       <c r="C592" s="6" t="s">
-        <v>1411</v>
+        <v>1350</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>1435</v>
+        <v>1374</v>
       </c>
       <c r="E592" s="6">
         <v>47</v>
@@ -29438,10 +29407,10 @@
         <v>407021109</v>
       </c>
       <c r="C593" s="6" t="s">
-        <v>1412</v>
+        <v>1351</v>
       </c>
       <c r="D593" s="6" t="s">
-        <v>1436</v>
+        <v>1375</v>
       </c>
       <c r="E593" s="6">
         <v>47</v>
@@ -29478,10 +29447,10 @@
         <v>407021110</v>
       </c>
       <c r="C594" s="6" t="s">
-        <v>1413</v>
+        <v>1352</v>
       </c>
       <c r="D594" s="6" t="s">
-        <v>1437</v>
+        <v>1376</v>
       </c>
       <c r="E594" s="6">
         <v>47</v>
@@ -29518,10 +29487,10 @@
         <v>407022101</v>
       </c>
       <c r="C595" s="6" t="s">
-        <v>1415</v>
+        <v>1354</v>
       </c>
       <c r="D595" s="6" t="s">
-        <v>1438</v>
+        <v>1377</v>
       </c>
       <c r="E595" s="6">
         <v>47</v>
@@ -29558,10 +29527,10 @@
         <v>407022102</v>
       </c>
       <c r="C596" s="6" t="s">
-        <v>1416</v>
+        <v>1355</v>
       </c>
       <c r="D596" s="6" t="s">
-        <v>1439</v>
+        <v>1378</v>
       </c>
       <c r="E596" s="6">
         <v>47</v>
@@ -29598,10 +29567,10 @@
         <v>407022103</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>1417</v>
+        <v>1356</v>
       </c>
       <c r="D597" s="6" t="s">
-        <v>1440</v>
+        <v>1379</v>
       </c>
       <c r="E597" s="6">
         <v>47</v>
@@ -29638,10 +29607,10 @@
         <v>407022104</v>
       </c>
       <c r="C598" s="6" t="s">
-        <v>1418</v>
+        <v>1357</v>
       </c>
       <c r="D598" s="6" t="s">
-        <v>1441</v>
+        <v>1380</v>
       </c>
       <c r="E598" s="6">
         <v>47</v>
@@ -29678,10 +29647,10 @@
         <v>407022105</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>1419</v>
+        <v>1358</v>
       </c>
       <c r="D599" s="6" t="s">
-        <v>1442</v>
+        <v>1381</v>
       </c>
       <c r="E599" s="6">
         <v>47</v>
@@ -29718,10 +29687,10 @@
         <v>407022106</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>1420</v>
+        <v>1359</v>
       </c>
       <c r="D600" s="6" t="s">
-        <v>1443</v>
+        <v>1382</v>
       </c>
       <c r="E600" s="6">
         <v>47</v>
@@ -29758,10 +29727,10 @@
         <v>407022401</v>
       </c>
       <c r="C601" s="6" t="s">
-        <v>1422</v>
+        <v>1361</v>
       </c>
       <c r="D601" s="6" t="s">
-        <v>1444</v>
+        <v>1383</v>
       </c>
       <c r="E601" s="6">
         <v>47</v>
@@ -29798,10 +29767,10 @@
         <v>407022402</v>
       </c>
       <c r="C602" s="6" t="s">
-        <v>1423</v>
+        <v>1362</v>
       </c>
       <c r="D602" s="6" t="s">
-        <v>1445</v>
+        <v>1384</v>
       </c>
       <c r="E602" s="6">
         <v>47</v>
@@ -29838,10 +29807,10 @@
         <v>407022403</v>
       </c>
       <c r="C603" s="6" t="s">
-        <v>1424</v>
+        <v>1363</v>
       </c>
       <c r="D603" s="6" t="s">
-        <v>1446</v>
+        <v>1385</v>
       </c>
       <c r="E603" s="6">
         <v>47</v>
@@ -29878,10 +29847,10 @@
         <v>407022404</v>
       </c>
       <c r="C604" s="6" t="s">
-        <v>1425</v>
+        <v>1364</v>
       </c>
       <c r="D604" s="6" t="s">
-        <v>1447</v>
+        <v>1386</v>
       </c>
       <c r="E604" s="6">
         <v>47</v>
@@ -29918,10 +29887,10 @@
         <v>407022405</v>
       </c>
       <c r="C605" s="6" t="s">
-        <v>1426</v>
+        <v>1365</v>
       </c>
       <c r="D605" s="6" t="s">
-        <v>1448</v>
+        <v>1387</v>
       </c>
       <c r="E605" s="6">
         <v>47</v>
@@ -29958,10 +29927,10 @@
         <v>407022406</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>1427</v>
+        <v>1366</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>1449</v>
+        <v>1388</v>
       </c>
       <c r="E606" s="6">
         <v>47</v>
@@ -30032,10 +30001,10 @@
         <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>1297</v>
+        <v>1236</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>1305</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -30069,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1336</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -30089,7 +30058,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1337</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -30109,7 +30078,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -30189,7 +30158,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>1339</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -30211,7 +30180,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>1459</v>
+        <v>1398</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -30223,12 +30192,12 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>1340</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>1385</v>
+        <v>1324</v>
       </c>
       <c r="B12">
         <v>103</v>
@@ -30240,12 +30209,12 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>1341</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>1457</v>
+        <v>1396</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -30260,12 +30229,12 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>1342</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>1458</v>
+        <v>1397</v>
       </c>
       <c r="B14">
         <v>104</v>
@@ -30280,12 +30249,12 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>1343</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>1460</v>
+        <v>1399</v>
       </c>
       <c r="B15">
         <v>104</v>
@@ -30300,12 +30269,12 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>1344</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>1455</v>
+        <v>1394</v>
       </c>
       <c r="B16">
         <v>104</v>
@@ -30320,12 +30289,12 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>1345</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>1456</v>
+        <v>1395</v>
       </c>
       <c r="B17">
         <v>104</v>
@@ -30340,7 +30309,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>1346</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -30363,7 +30332,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>1347</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -30386,7 +30355,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>1348</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -30437,7 +30406,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1303</v>
+        <v>1242</v>
       </c>
       <c r="B22">
         <v>105</v>
@@ -30460,7 +30429,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1304</v>
+        <v>1243</v>
       </c>
       <c r="B23">
         <v>105</v>
@@ -30501,7 +30470,7 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>1349</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -30529,7 +30498,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>1309</v>
+        <v>1248</v>
       </c>
       <c r="B26">
         <v>105</v>
@@ -30549,7 +30518,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>1310</v>
+        <v>1249</v>
       </c>
       <c r="B27">
         <v>105</v>
@@ -30601,7 +30570,7 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>1350</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -30621,7 +30590,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>1351</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -30641,7 +30610,7 @@
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>1352</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -30661,7 +30630,7 @@
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>1306</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -30681,12 +30650,12 @@
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>1300</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1267</v>
+        <v>1206</v>
       </c>
       <c r="B34">
         <v>106</v>
@@ -30706,7 +30675,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1268</v>
+        <v>1207</v>
       </c>
       <c r="B35">
         <v>106</v>
@@ -30721,12 +30690,12 @@
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>1353</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>1308</v>
+        <v>1247</v>
       </c>
       <c r="B36">
         <v>106</v>
@@ -30741,12 +30710,12 @@
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>1354</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>1269</v>
+        <v>1208</v>
       </c>
       <c r="B37">
         <v>106</v>
@@ -30761,7 +30730,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>1355</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -30801,7 +30770,7 @@
         <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>1356</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -30821,7 +30790,7 @@
         <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>1357</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -30841,7 +30810,7 @@
         <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>1358</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -30861,7 +30830,7 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>1359</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -30881,12 +30850,12 @@
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>1360</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1298</v>
+        <v>1237</v>
       </c>
       <c r="B44">
         <v>107</v>
@@ -30901,12 +30870,12 @@
         <v>46</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>1361</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1299</v>
+        <v>1238</v>
       </c>
       <c r="B45">
         <v>107</v>
@@ -30921,12 +30890,12 @@
         <v>47</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>1402</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>1307</v>
+        <v>1246</v>
       </c>
       <c r="B46">
         <v>107</v>
@@ -30940,7 +30909,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>1301</v>
+        <v>1240</v>
       </c>
       <c r="B47">
         <v>107</v>
@@ -30954,7 +30923,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>1386</v>
+        <v>1325</v>
       </c>
       <c r="B48">
         <v>108</v>
@@ -30968,7 +30937,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>1387</v>
+        <v>1326</v>
       </c>
       <c r="B49">
         <v>108</v>
@@ -30982,7 +30951,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>1388</v>
+        <v>1327</v>
       </c>
       <c r="B50">
         <v>108</v>
@@ -30991,12 +30960,12 @@
         <v>3</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1390</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>1389</v>
+        <v>1328</v>
       </c>
       <c r="B51">
         <v>108</v>
@@ -31005,10 +30974,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1302</v>
+        <v>1241</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>1390</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -31055,7 +31024,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1400</v>
+        <v>1339</v>
       </c>
       <c r="B55">
         <v>204</v>
@@ -31064,7 +31033,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1401</v>
+        <v>1340</v>
       </c>
       <c r="F55" s="19">
         <v>26</v>
@@ -31231,7 +31200,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>1335</v>
+        <v>1274</v>
       </c>
       <c r="B68">
         <v>407</v>
@@ -31245,7 +31214,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>1382</v>
+        <v>1321</v>
       </c>
       <c r="B69">
         <v>407</v>
@@ -31254,7 +31223,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>1383</v>
+        <v>1322</v>
       </c>
       <c r="F69">
         <v>47</v>
@@ -31325,10 +31294,10 @@
   <dimension ref="A1:O274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A205" sqref="A205:A274"/>
+      <selection pane="bottomRight" activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31367,7 +31336,7 @@
         <v>762</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>994</v>
+        <v>933</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>763</v>
@@ -31414,7 +31383,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>995</v>
+        <v>934</v>
       </c>
       <c r="J2" t="s">
         <v>769</v>
@@ -31493,7 +31462,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1462</v>
+        <v>1401</v>
       </c>
       <c r="E4" s="6">
         <v>102</v>
@@ -31534,7 +31503,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1471</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="6">
         <v>103</v>
@@ -31575,7 +31544,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1472</v>
+        <v>1411</v>
       </c>
       <c r="E6" s="6">
         <v>104</v>
@@ -31616,7 +31585,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1463</v>
+        <v>1402</v>
       </c>
       <c r="E7" s="6">
         <v>105</v>
@@ -31657,7 +31626,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1464</v>
+        <v>1403</v>
       </c>
       <c r="E8" s="6">
         <v>106</v>
@@ -31698,7 +31667,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1465</v>
+        <v>1404</v>
       </c>
       <c r="E9" s="6">
         <v>107</v>
@@ -31739,7 +31708,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1466</v>
+        <v>1405</v>
       </c>
       <c r="E10" s="6">
         <v>108</v>
@@ -31780,7 +31749,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1467</v>
+        <v>1406</v>
       </c>
       <c r="E11" s="6">
         <v>109</v>
@@ -31821,7 +31790,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1468</v>
+        <v>1407</v>
       </c>
       <c r="E12" s="6">
         <v>110</v>
@@ -31862,7 +31831,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1469</v>
+        <v>1408</v>
       </c>
       <c r="E13" s="6">
         <v>111</v>
@@ -31903,7 +31872,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1470</v>
+        <v>1409</v>
       </c>
       <c r="E14" s="6">
         <v>112</v>
@@ -31944,7 +31913,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1473</v>
+        <v>1412</v>
       </c>
       <c r="E15" s="6">
         <v>113</v>
@@ -31985,7 +31954,7 @@
         <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1474</v>
+        <v>1413</v>
       </c>
       <c r="E16" s="6">
         <v>114</v>
@@ -32026,7 +31995,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1475</v>
+        <v>1414</v>
       </c>
       <c r="E17" s="6">
         <v>115</v>
@@ -32067,7 +32036,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1476</v>
+        <v>1415</v>
       </c>
       <c r="E18" s="6">
         <v>116</v>
@@ -32108,7 +32077,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1477</v>
+        <v>1416</v>
       </c>
       <c r="E19" s="6">
         <v>117</v>
@@ -32149,7 +32118,7 @@
         <v>83</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1478</v>
+        <v>1417</v>
       </c>
       <c r="E20" s="6">
         <v>118</v>
@@ -32190,7 +32159,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1479</v>
+        <v>1418</v>
       </c>
       <c r="E21" s="6">
         <v>119</v>
@@ -32231,7 +32200,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1480</v>
+        <v>1419</v>
       </c>
       <c r="E22" s="6">
         <v>120</v>
@@ -32272,10 +32241,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1481</v>
+        <v>1420</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>996</v>
+        <v>935</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -32313,7 +32282,7 @@
         <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1482</v>
+        <v>1421</v>
       </c>
       <c r="E24" s="6">
         <v>202</v>
@@ -32354,7 +32323,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1483</v>
+        <v>1422</v>
       </c>
       <c r="E25" s="6">
         <v>203</v>
@@ -32395,7 +32364,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1484</v>
+        <v>1423</v>
       </c>
       <c r="E26" s="6">
         <v>204</v>
@@ -32436,7 +32405,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1485</v>
+        <v>1424</v>
       </c>
       <c r="E27" s="6">
         <v>205</v>
@@ -32477,7 +32446,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1486</v>
+        <v>1425</v>
       </c>
       <c r="E28" s="6">
         <v>206</v>
@@ -32518,7 +32487,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1487</v>
+        <v>1426</v>
       </c>
       <c r="E29" s="6">
         <v>207</v>
@@ -32559,7 +32528,7 @@
         <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1488</v>
+        <v>1427</v>
       </c>
       <c r="E30" s="6">
         <v>208</v>
@@ -32600,7 +32569,7 @@
         <v>98</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1489</v>
+        <v>1428</v>
       </c>
       <c r="E31" s="6">
         <v>209</v>
@@ -32641,10 +32610,10 @@
         <v>100</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1490</v>
+        <v>1429</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>996</v>
+        <v>935</v>
       </c>
       <c r="F32" s="6">
         <v>2</v>
@@ -32682,7 +32651,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1491</v>
+        <v>1430</v>
       </c>
       <c r="E33" s="6">
         <v>302</v>
@@ -32723,7 +32692,7 @@
         <v>104</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1492</v>
+        <v>1431</v>
       </c>
       <c r="E34" s="6">
         <v>303</v>
@@ -32764,7 +32733,7 @@
         <v>106</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1493</v>
+        <v>1432</v>
       </c>
       <c r="E35" s="6">
         <v>304</v>
@@ -32805,7 +32774,7 @@
         <v>107</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1494</v>
+        <v>1433</v>
       </c>
       <c r="E36" s="6">
         <v>305</v>
@@ -32846,7 +32815,7 @@
         <v>109</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1495</v>
+        <v>1434</v>
       </c>
       <c r="E37" s="6">
         <v>306</v>
@@ -32887,7 +32856,7 @@
         <v>110</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1496</v>
+        <v>1435</v>
       </c>
       <c r="E38" s="6">
         <v>307</v>
@@ -32928,7 +32897,7 @@
         <v>111</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1497</v>
+        <v>1436</v>
       </c>
       <c r="E39" s="6">
         <v>308</v>
@@ -32969,7 +32938,7 @@
         <v>112</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1498</v>
+        <v>1437</v>
       </c>
       <c r="E40" s="6">
         <v>309</v>
@@ -33010,10 +32979,10 @@
         <v>114</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1499</v>
+        <v>1438</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>996</v>
+        <v>935</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
@@ -33051,7 +33020,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1500</v>
+        <v>1439</v>
       </c>
       <c r="E42" s="6">
         <v>402</v>
@@ -33092,7 +33061,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1501</v>
+        <v>1440</v>
       </c>
       <c r="E43" s="6">
         <v>403</v>
@@ -33133,7 +33102,7 @@
         <v>122</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1502</v>
+        <v>1441</v>
       </c>
       <c r="E44" s="6">
         <v>404</v>
@@ -33174,7 +33143,7 @@
         <v>124</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1503</v>
+        <v>1442</v>
       </c>
       <c r="E45" s="6">
         <v>405</v>
@@ -33215,7 +33184,7 @@
         <v>126</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1504</v>
+        <v>1443</v>
       </c>
       <c r="E46" s="6">
         <v>406</v>
@@ -33256,7 +33225,7 @@
         <v>128</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1505</v>
+        <v>1444</v>
       </c>
       <c r="E47" s="6">
         <v>407</v>
@@ -33297,7 +33266,7 @@
         <v>129</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1506</v>
+        <v>1445</v>
       </c>
       <c r="E48" s="6">
         <v>408</v>
@@ -33338,7 +33307,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1507</v>
+        <v>1446</v>
       </c>
       <c r="E49" s="6">
         <v>409</v>
@@ -33379,7 +33348,7 @@
         <v>131</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1508</v>
+        <v>1447</v>
       </c>
       <c r="E50" s="6">
         <v>410</v>
@@ -33420,7 +33389,7 @@
         <v>132</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1509</v>
+        <v>1448</v>
       </c>
       <c r="E51" s="6">
         <v>411</v>
@@ -33461,7 +33430,7 @@
         <v>133</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1510</v>
+        <v>1449</v>
       </c>
       <c r="E52" s="6">
         <v>412</v>
@@ -33502,7 +33471,7 @@
         <v>134</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1511</v>
+        <v>1450</v>
       </c>
       <c r="E53" s="6">
         <v>413</v>
@@ -33543,7 +33512,7 @@
         <v>135</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1512</v>
+        <v>1451</v>
       </c>
       <c r="E54" s="6">
         <v>414</v>
@@ -33584,7 +33553,7 @@
         <v>136</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1513</v>
+        <v>1452</v>
       </c>
       <c r="E55" s="6">
         <v>415</v>
@@ -33625,7 +33594,7 @@
         <v>137</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1514</v>
+        <v>1453</v>
       </c>
       <c r="E56" s="6">
         <v>416</v>
@@ -33666,7 +33635,7 @@
         <v>138</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1515</v>
+        <v>1454</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>781</v>
@@ -33707,7 +33676,7 @@
         <v>139</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1516</v>
+        <v>1455</v>
       </c>
       <c r="E58" s="6">
         <v>502</v>
@@ -33748,7 +33717,7 @@
         <v>141</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1517</v>
+        <v>1456</v>
       </c>
       <c r="E59" s="6">
         <v>503</v>
@@ -33789,7 +33758,7 @@
         <v>143</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1518</v>
+        <v>1457</v>
       </c>
       <c r="E60" s="6">
         <v>504</v>
@@ -33830,7 +33799,7 @@
         <v>145</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1519</v>
+        <v>1458</v>
       </c>
       <c r="E61" s="6">
         <v>505</v>
@@ -33871,7 +33840,7 @@
         <v>148</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1520</v>
+        <v>1459</v>
       </c>
       <c r="E62" s="6">
         <v>506</v>
@@ -33912,7 +33881,7 @@
         <v>151</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1521</v>
+        <v>1460</v>
       </c>
       <c r="E63" s="6">
         <v>507</v>
@@ -33953,7 +33922,7 @@
         <v>154</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1522</v>
+        <v>1461</v>
       </c>
       <c r="E64" s="6">
         <v>508</v>
@@ -33994,7 +33963,7 @@
         <v>157</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1523</v>
+        <v>1462</v>
       </c>
       <c r="E65" s="6">
         <v>509</v>
@@ -34035,7 +34004,7 @@
         <v>160</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1524</v>
+        <v>1463</v>
       </c>
       <c r="E66" s="6">
         <v>510</v>
@@ -34076,7 +34045,7 @@
         <v>162</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1525</v>
+        <v>1464</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>781</v>
@@ -34117,7 +34086,7 @@
         <v>164</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1526</v>
+        <v>1465</v>
       </c>
       <c r="E68" s="6">
         <v>602</v>
@@ -34158,7 +34127,7 @@
         <v>166</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1527</v>
+        <v>1466</v>
       </c>
       <c r="E69" s="6">
         <v>603</v>
@@ -34199,7 +34168,7 @@
         <v>169</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1528</v>
+        <v>1467</v>
       </c>
       <c r="E70" s="6">
         <v>604</v>
@@ -34240,7 +34209,7 @@
         <v>172</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1529</v>
+        <v>1468</v>
       </c>
       <c r="E71" s="6">
         <v>605</v>
@@ -34281,7 +34250,7 @@
         <v>175</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1530</v>
+        <v>1469</v>
       </c>
       <c r="E72" s="6">
         <v>606</v>
@@ -34322,7 +34291,7 @@
         <v>179</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1531</v>
+        <v>1470</v>
       </c>
       <c r="E73" s="6">
         <v>607</v>
@@ -34363,7 +34332,7 @@
         <v>182</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1532</v>
+        <v>1471</v>
       </c>
       <c r="E74" s="6">
         <v>608</v>
@@ -34404,7 +34373,7 @@
         <v>184</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1533</v>
+        <v>1472</v>
       </c>
       <c r="E75" s="6">
         <v>609</v>
@@ -34445,7 +34414,7 @@
         <v>186</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1534</v>
+        <v>1473</v>
       </c>
       <c r="E76" s="6">
         <v>610</v>
@@ -34486,7 +34455,7 @@
         <v>188</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1535</v>
+        <v>1474</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>781</v>
@@ -34527,7 +34496,7 @@
         <v>191</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1536</v>
+        <v>1475</v>
       </c>
       <c r="E78" s="6">
         <v>702</v>
@@ -34568,7 +34537,7 @@
         <v>193</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1537</v>
+        <v>1476</v>
       </c>
       <c r="E79" s="6">
         <v>703</v>
@@ -34609,7 +34578,7 @@
         <v>196</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1538</v>
+        <v>1477</v>
       </c>
       <c r="E80" s="6">
         <v>704</v>
@@ -34650,7 +34619,7 @@
         <v>198</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1539</v>
+        <v>1478</v>
       </c>
       <c r="E81" s="6">
         <v>705</v>
@@ -34691,7 +34660,7 @@
         <v>200</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1540</v>
+        <v>1479</v>
       </c>
       <c r="E82" s="6">
         <v>706</v>
@@ -34732,7 +34701,7 @@
         <v>202</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1541</v>
+        <v>1480</v>
       </c>
       <c r="E83" s="6">
         <v>707</v>
@@ -34773,7 +34742,7 @@
         <v>205</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1542</v>
+        <v>1481</v>
       </c>
       <c r="E84" s="6">
         <v>708</v>
@@ -34814,7 +34783,7 @@
         <v>208</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1543</v>
+        <v>1482</v>
       </c>
       <c r="E85" s="6">
         <v>709</v>
@@ -34855,7 +34824,7 @@
         <v>210</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1544</v>
+        <v>1483</v>
       </c>
       <c r="E86" s="6">
         <v>710</v>
@@ -34896,7 +34865,7 @@
         <v>212</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1545</v>
+        <v>1484</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>781</v>
@@ -34934,10 +34903,10 @@
         <v>801</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1033</v>
+        <v>972</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1546</v>
+        <v>1485</v>
       </c>
       <c r="E88" s="6">
         <v>802</v>
@@ -34975,10 +34944,10 @@
         <v>802</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1034</v>
+        <v>973</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1547</v>
+        <v>1486</v>
       </c>
       <c r="E89" s="6">
         <v>803</v>
@@ -35016,10 +34985,10 @@
         <v>803</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1035</v>
+        <v>974</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1548</v>
+        <v>1487</v>
       </c>
       <c r="E90" s="6">
         <v>804</v>
@@ -35057,10 +35026,10 @@
         <v>804</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1036</v>
+        <v>975</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1549</v>
+        <v>1488</v>
       </c>
       <c r="E91" s="6">
         <v>805</v>
@@ -35098,10 +35067,10 @@
         <v>805</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1037</v>
+        <v>976</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1550</v>
+        <v>1489</v>
       </c>
       <c r="E92" s="6">
         <v>806</v>
@@ -35139,10 +35108,10 @@
         <v>806</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1038</v>
+        <v>977</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1551</v>
+        <v>1490</v>
       </c>
       <c r="E93" s="6">
         <v>807</v>
@@ -35180,10 +35149,10 @@
         <v>807</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1039</v>
+        <v>978</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1552</v>
+        <v>1491</v>
       </c>
       <c r="E94" s="6">
         <v>808</v>
@@ -35221,10 +35190,10 @@
         <v>808</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1040</v>
+        <v>979</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1553</v>
+        <v>1492</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>781</v>
@@ -35265,7 +35234,7 @@
         <v>430</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1554</v>
+        <v>1493</v>
       </c>
       <c r="E96" s="6">
         <v>902</v>
@@ -35306,7 +35275,7 @@
         <v>431</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1555</v>
+        <v>1494</v>
       </c>
       <c r="E97" s="6">
         <v>903</v>
@@ -35347,7 +35316,7 @@
         <v>432</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1556</v>
+        <v>1495</v>
       </c>
       <c r="E98" s="6">
         <v>904</v>
@@ -35388,7 +35357,7 @@
         <v>433</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1557</v>
+        <v>1496</v>
       </c>
       <c r="E99" s="6">
         <v>905</v>
@@ -35429,7 +35398,7 @@
         <v>434</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1558</v>
+        <v>1497</v>
       </c>
       <c r="E100" s="6">
         <v>906</v>
@@ -35470,7 +35439,7 @@
         <v>435</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1559</v>
+        <v>1498</v>
       </c>
       <c r="E101" s="6">
         <v>907</v>
@@ -35511,7 +35480,7 @@
         <v>436</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1560</v>
+        <v>1499</v>
       </c>
       <c r="E102" s="6">
         <v>908</v>
@@ -35552,7 +35521,7 @@
         <v>437</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1561</v>
+        <v>1500</v>
       </c>
       <c r="E103" s="6">
         <v>909</v>
@@ -35593,7 +35562,7 @@
         <v>438</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1562</v>
+        <v>1501</v>
       </c>
       <c r="E104" s="6">
         <v>910</v>
@@ -35634,7 +35603,7 @@
         <v>439</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1563</v>
+        <v>1502</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>781</v>
@@ -35675,7 +35644,7 @@
         <v>550</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1564</v>
+        <v>1503</v>
       </c>
       <c r="E106" s="6">
         <v>1002</v>
@@ -35722,7 +35691,7 @@
         <v>551</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1565</v>
+        <v>1504</v>
       </c>
       <c r="E107" s="6">
         <v>1003</v>
@@ -35769,7 +35738,7 @@
         <v>552</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1566</v>
+        <v>1505</v>
       </c>
       <c r="E108" s="6">
         <v>1004</v>
@@ -35816,7 +35785,7 @@
         <v>553</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1567</v>
+        <v>1506</v>
       </c>
       <c r="E109" s="6">
         <v>1005</v>
@@ -35863,7 +35832,7 @@
         <v>554</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1568</v>
+        <v>1507</v>
       </c>
       <c r="E110" s="6">
         <v>1006</v>
@@ -35910,7 +35879,7 @@
         <v>555</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1569</v>
+        <v>1508</v>
       </c>
       <c r="E111" s="6">
         <v>1007</v>
@@ -35957,7 +35926,7 @@
         <v>556</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1570</v>
+        <v>1509</v>
       </c>
       <c r="E112" s="6">
         <v>1008</v>
@@ -36004,7 +35973,7 @@
         <v>557</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1571</v>
+        <v>1510</v>
       </c>
       <c r="E113" s="6">
         <v>1009</v>
@@ -36051,7 +36020,7 @@
         <v>558</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1572</v>
+        <v>1511</v>
       </c>
       <c r="E114" s="6">
         <v>1010</v>
@@ -36098,7 +36067,7 @@
         <v>559</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1573</v>
+        <v>1512</v>
       </c>
       <c r="E115" s="6">
         <v>1011</v>
@@ -36145,7 +36114,7 @@
         <v>560</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1574</v>
+        <v>1513</v>
       </c>
       <c r="E116" s="6">
         <v>1012</v>
@@ -36192,7 +36161,7 @@
         <v>561</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1575</v>
+        <v>1514</v>
       </c>
       <c r="E117" s="6">
         <v>1013</v>
@@ -36239,7 +36208,7 @@
         <v>562</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1576</v>
+        <v>1515</v>
       </c>
       <c r="E118" s="6">
         <v>1014</v>
@@ -36286,7 +36255,7 @@
         <v>563</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1577</v>
+        <v>1516</v>
       </c>
       <c r="E119" s="6">
         <v>1015</v>
@@ -36333,7 +36302,7 @@
         <v>564</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1578</v>
+        <v>1517</v>
       </c>
       <c r="E120" s="6">
         <v>1016</v>
@@ -36380,7 +36349,7 @@
         <v>565</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1579</v>
+        <v>1518</v>
       </c>
       <c r="E121" s="6">
         <v>1017</v>
@@ -36427,7 +36396,7 @@
         <v>566</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1580</v>
+        <v>1519</v>
       </c>
       <c r="E122" s="6">
         <v>1018</v>
@@ -36474,7 +36443,7 @@
         <v>567</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1581</v>
+        <v>1520</v>
       </c>
       <c r="E123" s="6">
         <v>1019</v>
@@ -36521,7 +36490,7 @@
         <v>568</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1582</v>
+        <v>1521</v>
       </c>
       <c r="E124" s="6">
         <v>1020</v>
@@ -36568,7 +36537,7 @@
         <v>569</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1583</v>
+        <v>1522</v>
       </c>
       <c r="E125" s="6">
         <v>1021</v>
@@ -36615,7 +36584,7 @@
         <v>570</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1584</v>
+        <v>1523</v>
       </c>
       <c r="E126" s="6">
         <v>1022</v>
@@ -36662,7 +36631,7 @@
         <v>571</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1585</v>
+        <v>1524</v>
       </c>
       <c r="E127" s="6">
         <v>1023</v>
@@ -36709,7 +36678,7 @@
         <v>572</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1586</v>
+        <v>1525</v>
       </c>
       <c r="E128" s="6">
         <v>1024</v>
@@ -36756,7 +36725,7 @@
         <v>573</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1587</v>
+        <v>1526</v>
       </c>
       <c r="E129" s="6">
         <v>1025</v>
@@ -36803,7 +36772,7 @@
         <v>574</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1588</v>
+        <v>1527</v>
       </c>
       <c r="E130" s="6">
         <v>1026</v>
@@ -36850,7 +36819,7 @@
         <v>575</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1589</v>
+        <v>1528</v>
       </c>
       <c r="E131" s="6">
         <v>1027</v>
@@ -36897,7 +36866,7 @@
         <v>576</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1590</v>
+        <v>1529</v>
       </c>
       <c r="E132" s="6">
         <v>1028</v>
@@ -36944,7 +36913,7 @@
         <v>577</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1591</v>
+        <v>1530</v>
       </c>
       <c r="E133" s="6">
         <v>1029</v>
@@ -36991,7 +36960,7 @@
         <v>578</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1592</v>
+        <v>1531</v>
       </c>
       <c r="E134" s="6">
         <v>1030</v>
@@ -37038,7 +37007,7 @@
         <v>579</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1593</v>
+        <v>1532</v>
       </c>
       <c r="E135" s="6">
         <v>1031</v>
@@ -37085,7 +37054,7 @@
         <v>580</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1594</v>
+        <v>1533</v>
       </c>
       <c r="E136" s="6">
         <v>1032</v>
@@ -37132,7 +37101,7 @@
         <v>581</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1595</v>
+        <v>1534</v>
       </c>
       <c r="E137" s="6">
         <v>1033</v>
@@ -37179,7 +37148,7 @@
         <v>582</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1596</v>
+        <v>1535</v>
       </c>
       <c r="E138" s="6">
         <v>1034</v>
@@ -37226,7 +37195,7 @@
         <v>583</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1597</v>
+        <v>1536</v>
       </c>
       <c r="E139" s="6">
         <v>1035</v>
@@ -37273,7 +37242,7 @@
         <v>584</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1598</v>
+        <v>1537</v>
       </c>
       <c r="E140" s="6">
         <v>1036</v>
@@ -37320,7 +37289,7 @@
         <v>585</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1599</v>
+        <v>1538</v>
       </c>
       <c r="E141" s="6">
         <v>1037</v>
@@ -37367,7 +37336,7 @@
         <v>586</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1600</v>
+        <v>1539</v>
       </c>
       <c r="E142" s="6">
         <v>1038</v>
@@ -37414,7 +37383,7 @@
         <v>587</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1601</v>
+        <v>1540</v>
       </c>
       <c r="E143" s="6">
         <v>1039</v>
@@ -37461,7 +37430,7 @@
         <v>588</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1602</v>
+        <v>1541</v>
       </c>
       <c r="E144" s="6">
         <v>1040</v>
@@ -37508,7 +37477,7 @@
         <v>592</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1603</v>
+        <v>1542</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>781</v>
@@ -38598,7 +38567,7 @@
         <v>302020101</v>
       </c>
       <c r="J171" s="20" t="s">
-        <v>1041</v>
+        <v>980</v>
       </c>
       <c r="K171" s="6">
         <v>0</v>
@@ -38639,7 +38608,7 @@
         <v>302020102</v>
       </c>
       <c r="J172" s="20" t="s">
-        <v>1041</v>
+        <v>980</v>
       </c>
       <c r="K172" s="6">
         <v>0</v>
@@ -38680,7 +38649,7 @@
         <v>302020103</v>
       </c>
       <c r="J173" s="20" t="s">
-        <v>1041</v>
+        <v>980</v>
       </c>
       <c r="K173" s="6">
         <v>0</v>
@@ -38721,7 +38690,7 @@
         <v>302020104</v>
       </c>
       <c r="J174" s="20" t="s">
-        <v>1041</v>
+        <v>980</v>
       </c>
       <c r="K174" s="6">
         <v>0</v>
@@ -38762,7 +38731,7 @@
         <v>302020105</v>
       </c>
       <c r="J175" s="20" t="s">
-        <v>1042</v>
+        <v>981</v>
       </c>
       <c r="K175" s="6">
         <v>0</v>
@@ -38803,7 +38772,7 @@
         <v>302020106</v>
       </c>
       <c r="J176" s="20" t="s">
-        <v>1042</v>
+        <v>981</v>
       </c>
       <c r="K176" s="6">
         <v>0</v>
@@ -38844,7 +38813,7 @@
         <v>302020107</v>
       </c>
       <c r="J177" s="20" t="s">
-        <v>1042</v>
+        <v>981</v>
       </c>
       <c r="K177" s="6">
         <v>0</v>
@@ -38885,7 +38854,7 @@
         <v>302020108</v>
       </c>
       <c r="J178" s="20" t="s">
-        <v>1042</v>
+        <v>981</v>
       </c>
       <c r="K178" s="6">
         <v>0</v>
@@ -38926,7 +38895,7 @@
         <v>302020109</v>
       </c>
       <c r="J179" s="25" t="s">
-        <v>1391</v>
+        <v>1330</v>
       </c>
       <c r="K179" s="6">
         <v>0</v>
@@ -38967,7 +38936,7 @@
         <v>302020110</v>
       </c>
       <c r="J180" s="25" t="s">
-        <v>1391</v>
+        <v>1330</v>
       </c>
       <c r="K180" s="6">
         <v>0</v>
@@ -39008,7 +38977,7 @@
         <v>302020111</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>1391</v>
+        <v>1330</v>
       </c>
       <c r="K181" s="6">
         <v>0</v>
@@ -39031,7 +39000,7 @@
         <v>816</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>842</v>
+        <v>1550</v>
       </c>
       <c r="E182" s="6">
         <v>1402</v>
@@ -39046,10 +39015,10 @@
         <v>1</v>
       </c>
       <c r="I182" s="20" t="s">
-        <v>975</v>
+        <v>914</v>
       </c>
       <c r="J182" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K182" s="6">
         <v>0</v>
@@ -39072,7 +39041,7 @@
         <v>820</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>843</v>
+        <v>1551</v>
       </c>
       <c r="E183" s="6">
         <v>1403</v>
@@ -39087,10 +39056,10 @@
         <v>2</v>
       </c>
       <c r="I183" s="20" t="s">
-        <v>978</v>
+        <v>917</v>
       </c>
       <c r="J183" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K183" s="6">
         <v>0</v>
@@ -39113,7 +39082,7 @@
         <v>821</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>844</v>
+        <v>1552</v>
       </c>
       <c r="E184" s="6">
         <v>1404</v>
@@ -39128,10 +39097,10 @@
         <v>3</v>
       </c>
       <c r="I184" s="20" t="s">
-        <v>983</v>
+        <v>922</v>
       </c>
       <c r="J184" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K184" s="6">
         <v>0</v>
@@ -39154,7 +39123,7 @@
         <v>822</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>845</v>
+        <v>1553</v>
       </c>
       <c r="E185" s="6">
         <v>1405</v>
@@ -39169,10 +39138,10 @@
         <v>4</v>
       </c>
       <c r="I185" s="20" t="s">
-        <v>1043</v>
+        <v>982</v>
       </c>
       <c r="J185" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K185" s="6">
         <v>0</v>
@@ -39195,7 +39164,7 @@
         <v>823</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>846</v>
+        <v>1554</v>
       </c>
       <c r="E186" s="6">
         <v>1406</v>
@@ -39210,10 +39179,10 @@
         <v>5</v>
       </c>
       <c r="I186" s="20" t="s">
-        <v>1045</v>
+        <v>984</v>
       </c>
       <c r="J186" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K186" s="6">
         <v>0</v>
@@ -39236,7 +39205,7 @@
         <v>824</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>847</v>
+        <v>1555</v>
       </c>
       <c r="E187" s="6">
         <v>1407</v>
@@ -39251,10 +39220,10 @@
         <v>6</v>
       </c>
       <c r="I187" s="20" t="s">
-        <v>1046</v>
+        <v>985</v>
       </c>
       <c r="J187" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K187" s="6">
         <v>0</v>
@@ -39277,7 +39246,7 @@
         <v>825</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>848</v>
+        <v>1556</v>
       </c>
       <c r="E188" s="6">
         <v>1408</v>
@@ -39292,10 +39261,10 @@
         <v>7</v>
       </c>
       <c r="I188" s="20" t="s">
-        <v>1047</v>
+        <v>986</v>
       </c>
       <c r="J188" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K188" s="6">
         <v>0</v>
@@ -39318,7 +39287,7 @@
         <v>826</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>849</v>
+        <v>1557</v>
       </c>
       <c r="E189" s="6">
         <v>1409</v>
@@ -39333,10 +39302,10 @@
         <v>8</v>
       </c>
       <c r="I189" s="20" t="s">
-        <v>1048</v>
+        <v>987</v>
       </c>
       <c r="J189" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K189" s="6">
         <v>0</v>
@@ -39359,7 +39328,7 @@
         <v>827</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>850</v>
+        <v>1558</v>
       </c>
       <c r="E190" s="6">
         <v>1410</v>
@@ -39374,10 +39343,10 @@
         <v>9</v>
       </c>
       <c r="I190" s="20" t="s">
-        <v>1049</v>
+        <v>988</v>
       </c>
       <c r="J190" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K190" s="6">
         <v>0</v>
@@ -39400,7 +39369,7 @@
         <v>828</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>851</v>
+        <v>1559</v>
       </c>
       <c r="E191" s="6">
         <v>1411</v>
@@ -39415,10 +39384,10 @@
         <v>10</v>
       </c>
       <c r="I191" s="20" t="s">
-        <v>1050</v>
+        <v>989</v>
       </c>
       <c r="J191" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K191" s="6">
         <v>0</v>
@@ -39427,7 +39396,7 @@
         <v>1000</v>
       </c>
       <c r="M191" s="6" t="s">
-        <v>1604</v>
+        <v>1543</v>
       </c>
       <c r="N191" s="6">
         <v>0</v>
@@ -39447,7 +39416,7 @@
         <v>829</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>853</v>
+        <v>1560</v>
       </c>
       <c r="E192" s="6">
         <v>1412</v>
@@ -39465,7 +39434,7 @@
         <v>139</v>
       </c>
       <c r="J192" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K192" s="6">
         <v>0</v>
@@ -39488,7 +39457,7 @@
         <v>830</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>854</v>
+        <v>1561</v>
       </c>
       <c r="E193" s="6">
         <v>1413</v>
@@ -39503,10 +39472,10 @@
         <v>12</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>1051</v>
+        <v>990</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K193" s="6">
         <v>0</v>
@@ -39529,7 +39498,7 @@
         <v>831</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>852</v>
+        <v>1562</v>
       </c>
       <c r="E194" s="6">
         <v>1414</v>
@@ -39547,7 +39516,7 @@
         <v>440</v>
       </c>
       <c r="J194" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K194" s="6">
         <v>0</v>
@@ -39570,7 +39539,7 @@
         <v>832</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>855</v>
+        <v>1563</v>
       </c>
       <c r="E195" s="6">
         <v>1415</v>
@@ -39585,10 +39554,10 @@
         <v>14</v>
       </c>
       <c r="I195" s="20" t="s">
-        <v>1052</v>
+        <v>991</v>
       </c>
       <c r="J195" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K195" s="6">
         <v>0</v>
@@ -39611,7 +39580,7 @@
         <v>833</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>856</v>
+        <v>1564</v>
       </c>
       <c r="E196" s="6">
         <v>1416</v>
@@ -39626,10 +39595,10 @@
         <v>15</v>
       </c>
       <c r="I196" s="20" t="s">
-        <v>1053</v>
+        <v>992</v>
       </c>
       <c r="J196" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K196" s="6">
         <v>0</v>
@@ -39638,7 +39607,7 @@
         <v>1000</v>
       </c>
       <c r="M196" s="6" t="s">
-        <v>1605</v>
+        <v>1544</v>
       </c>
       <c r="N196" s="6">
         <v>0</v>
@@ -39658,7 +39627,7 @@
         <v>834</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>857</v>
+        <v>1565</v>
       </c>
       <c r="E197" s="6">
         <v>1417</v>
@@ -39673,10 +39642,10 @@
         <v>16</v>
       </c>
       <c r="I197" s="20" t="s">
-        <v>1246</v>
+        <v>1185</v>
       </c>
       <c r="J197" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K197" s="6">
         <v>0</v>
@@ -39699,7 +39668,7 @@
         <v>835</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>858</v>
+        <v>1566</v>
       </c>
       <c r="E198" s="6">
         <v>1418</v>
@@ -39714,10 +39683,10 @@
         <v>17</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>1248</v>
+        <v>1187</v>
       </c>
       <c r="J198" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K198" s="6">
         <v>0</v>
@@ -39726,7 +39695,7 @@
         <v>1000</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>1606</v>
+        <v>1545</v>
       </c>
       <c r="N198" s="6">
         <v>0</v>
@@ -39746,7 +39715,7 @@
         <v>836</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>864</v>
+        <v>1567</v>
       </c>
       <c r="E199" s="6">
         <v>1419</v>
@@ -39761,10 +39730,10 @@
         <v>18</v>
       </c>
       <c r="I199" s="20" t="s">
-        <v>1249</v>
+        <v>1188</v>
       </c>
       <c r="J199" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K199" s="6">
         <v>0</v>
@@ -39787,7 +39756,7 @@
         <v>837</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>861</v>
+        <v>1568</v>
       </c>
       <c r="E200" s="6">
         <v>1420</v>
@@ -39802,10 +39771,10 @@
         <v>19</v>
       </c>
       <c r="I200" s="20" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="J200" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K200" s="6">
         <v>0</v>
@@ -39814,7 +39783,7 @@
         <v>1000</v>
       </c>
       <c r="M200" s="6" t="s">
-        <v>1607</v>
+        <v>1546</v>
       </c>
       <c r="N200" s="6">
         <v>0</v>
@@ -39834,7 +39803,7 @@
         <v>838</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>866</v>
+        <v>1569</v>
       </c>
       <c r="E201" s="6">
         <v>1421</v>
@@ -39849,10 +39818,10 @@
         <v>20</v>
       </c>
       <c r="I201" s="20" t="s">
-        <v>1250</v>
+        <v>1189</v>
       </c>
       <c r="J201" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K201" s="6">
         <v>0</v>
@@ -39875,7 +39844,7 @@
         <v>839</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>863</v>
+        <v>1570</v>
       </c>
       <c r="E202" s="6">
         <v>1422</v>
@@ -39890,10 +39859,10 @@
         <v>21</v>
       </c>
       <c r="I202" s="20" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="J202" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K202" s="6">
         <v>0</v>
@@ -39902,7 +39871,7 @@
         <v>1000</v>
       </c>
       <c r="M202" s="6" t="s">
-        <v>1608</v>
+        <v>1547</v>
       </c>
       <c r="N202" s="6">
         <v>0</v>
@@ -39922,7 +39891,7 @@
         <v>840</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>867</v>
+        <v>1571</v>
       </c>
       <c r="E203" s="6">
         <v>1423</v>
@@ -39937,10 +39906,10 @@
         <v>22</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>1251</v>
+        <v>1190</v>
       </c>
       <c r="J203" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K203" s="6">
         <v>0</v>
@@ -39963,7 +39932,7 @@
         <v>841</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>870</v>
+        <v>1572</v>
       </c>
       <c r="E204" s="6">
         <v>1424</v>
@@ -39978,10 +39947,10 @@
         <v>23</v>
       </c>
       <c r="I204" s="20" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="J204" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K204" s="6">
         <v>0</v>
@@ -39990,7 +39959,7 @@
         <v>1000</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>1609</v>
+        <v>1548</v>
       </c>
       <c r="N204" s="6">
         <v>0</v>
@@ -40007,10 +39976,10 @@
         <v>1424</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>914</v>
+        <v>864</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>871</v>
+        <v>1573</v>
       </c>
       <c r="E205" s="6">
         <v>1425</v>
@@ -40025,10 +39994,10 @@
         <v>24</v>
       </c>
       <c r="I205" s="20" t="s">
-        <v>1252</v>
+        <v>1191</v>
       </c>
       <c r="J205" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K205" s="6">
         <v>0</v>
@@ -40048,10 +40017,10 @@
         <v>1425</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>915</v>
+        <v>865</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>873</v>
+        <v>1574</v>
       </c>
       <c r="E206" s="6">
         <v>1426</v>
@@ -40066,10 +40035,10 @@
         <v>25</v>
       </c>
       <c r="I206" s="20" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="J206" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K206" s="6">
         <v>0</v>
@@ -40089,10 +40058,10 @@
         <v>1426</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>916</v>
+        <v>866</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>859</v>
+        <v>1575</v>
       </c>
       <c r="E207" s="6">
         <v>1427</v>
@@ -40107,10 +40076,10 @@
         <v>26</v>
       </c>
       <c r="I207" s="20" t="s">
-        <v>1253</v>
+        <v>1192</v>
       </c>
       <c r="J207" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K207" s="6">
         <v>0</v>
@@ -40130,10 +40099,10 @@
         <v>1427</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>917</v>
+        <v>867</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>876</v>
+        <v>1576</v>
       </c>
       <c r="E208" s="6">
         <v>1428</v>
@@ -40148,10 +40117,10 @@
         <v>27</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>876</v>
+        <v>848</v>
       </c>
       <c r="J208" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K208" s="6">
         <v>0</v>
@@ -40171,10 +40140,10 @@
         <v>1428</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>918</v>
+        <v>868</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>874</v>
+        <v>1577</v>
       </c>
       <c r="E209" s="6">
         <v>1429</v>
@@ -40192,7 +40161,7 @@
         <v>593</v>
       </c>
       <c r="J209" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K209" s="6">
         <v>1</v>
@@ -40212,10 +40181,10 @@
         <v>1429</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>919</v>
+        <v>869</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>877</v>
+        <v>1578</v>
       </c>
       <c r="E210" s="6">
         <v>1430</v>
@@ -40230,10 +40199,10 @@
         <v>29</v>
       </c>
       <c r="I210" s="20" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="J210" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K210" s="6">
         <v>0</v>
@@ -40253,10 +40222,10 @@
         <v>1430</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>879</v>
+        <v>1579</v>
       </c>
       <c r="E211" s="6">
         <v>1431</v>
@@ -40271,10 +40240,10 @@
         <v>30</v>
       </c>
       <c r="I211" s="20" t="s">
-        <v>1260</v>
+        <v>1199</v>
       </c>
       <c r="J211" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K211" s="6">
         <v>0</v>
@@ -40294,10 +40263,10 @@
         <v>1431</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>921</v>
+        <v>871</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>881</v>
+        <v>1580</v>
       </c>
       <c r="E212" s="6">
         <v>1432</v>
@@ -40312,10 +40281,10 @@
         <v>31</v>
       </c>
       <c r="I212" s="20" t="s">
-        <v>881</v>
+        <v>851</v>
       </c>
       <c r="J212" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K212" s="6">
         <v>0</v>
@@ -40324,7 +40293,7 @@
         <v>1000</v>
       </c>
       <c r="M212" s="6" t="s">
-        <v>1604</v>
+        <v>1543</v>
       </c>
       <c r="N212" s="6">
         <v>0</v>
@@ -40341,10 +40310,10 @@
         <v>1432</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>882</v>
+        <v>1581</v>
       </c>
       <c r="E213" s="6">
         <v>1433</v>
@@ -40362,7 +40331,7 @@
         <v>164</v>
       </c>
       <c r="J213" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K213" s="6">
         <v>0</v>
@@ -40382,10 +40351,10 @@
         <v>1433</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>923</v>
+        <v>873</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>884</v>
+        <v>1582</v>
       </c>
       <c r="E214" s="6">
         <v>1434</v>
@@ -40400,10 +40369,10 @@
         <v>33</v>
       </c>
       <c r="I214" s="20" t="s">
-        <v>884</v>
+        <v>853</v>
       </c>
       <c r="J214" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K214" s="6">
         <v>0</v>
@@ -40423,10 +40392,10 @@
         <v>1434</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>924</v>
+        <v>874</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>885</v>
+        <v>1583</v>
       </c>
       <c r="E215" s="6">
         <v>1435</v>
@@ -40441,10 +40410,10 @@
         <v>34</v>
       </c>
       <c r="I215" s="20" t="s">
-        <v>885</v>
+        <v>854</v>
       </c>
       <c r="J215" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K215" s="6">
         <v>0</v>
@@ -40464,10 +40433,10 @@
         <v>1435</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>886</v>
+        <v>1584</v>
       </c>
       <c r="E216" s="6">
         <v>1436</v>
@@ -40482,10 +40451,10 @@
         <v>35</v>
       </c>
       <c r="I216" s="20" t="s">
-        <v>1265</v>
+        <v>1204</v>
       </c>
       <c r="J216" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K216" s="6">
         <v>0</v>
@@ -40505,10 +40474,10 @@
         <v>1436</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>926</v>
+        <v>876</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>888</v>
+        <v>1585</v>
       </c>
       <c r="E217" s="6">
         <v>1437</v>
@@ -40523,10 +40492,10 @@
         <v>36</v>
       </c>
       <c r="I217" s="20" t="s">
-        <v>888</v>
+        <v>856</v>
       </c>
       <c r="J217" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K217" s="6">
         <v>0</v>
@@ -40546,10 +40515,10 @@
         <v>1437</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>927</v>
+        <v>877</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>875</v>
+        <v>1586</v>
       </c>
       <c r="E218" s="6">
         <v>1438</v>
@@ -40564,10 +40533,10 @@
         <v>37</v>
       </c>
       <c r="I218" s="25" t="s">
-        <v>1393</v>
+        <v>1332</v>
       </c>
       <c r="J218" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K218" s="6">
         <v>0</v>
@@ -40587,10 +40556,10 @@
         <v>1438</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>928</v>
+        <v>878</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>878</v>
+        <v>1587</v>
       </c>
       <c r="E219" s="6">
         <v>1439</v>
@@ -40605,10 +40574,10 @@
         <v>38</v>
       </c>
       <c r="I219" s="20" t="s">
-        <v>1266</v>
+        <v>1205</v>
       </c>
       <c r="J219" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K219" s="6">
         <v>0</v>
@@ -40628,10 +40597,10 @@
         <v>1439</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>929</v>
+        <v>879</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>890</v>
+        <v>1588</v>
       </c>
       <c r="E220" s="6">
         <v>1440</v>
@@ -40646,10 +40615,10 @@
         <v>39</v>
       </c>
       <c r="I220" s="20" t="s">
-        <v>889</v>
+        <v>857</v>
       </c>
       <c r="J220" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K220" s="6">
         <v>0</v>
@@ -40669,10 +40638,10 @@
         <v>1440</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>930</v>
+        <v>880</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>891</v>
+        <v>1589</v>
       </c>
       <c r="E221" s="6">
         <v>1441</v>
@@ -40690,7 +40659,7 @@
         <v>324</v>
       </c>
       <c r="J221" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K221" s="6">
         <v>0</v>
@@ -40710,10 +40679,10 @@
         <v>1441</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>893</v>
+        <v>1590</v>
       </c>
       <c r="E222" s="6">
         <v>1442</v>
@@ -40728,10 +40697,10 @@
         <v>41</v>
       </c>
       <c r="I222" s="20" t="s">
-        <v>892</v>
+        <v>858</v>
       </c>
       <c r="J222" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K222" s="6">
         <v>0</v>
@@ -40751,10 +40720,10 @@
         <v>1442</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>932</v>
+        <v>882</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>894</v>
+        <v>1591</v>
       </c>
       <c r="E223" s="6">
         <v>1443</v>
@@ -40772,7 +40741,7 @@
         <v>300</v>
       </c>
       <c r="J223" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K223" s="6">
         <v>0</v>
@@ -40792,10 +40761,10 @@
         <v>1443</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>895</v>
+        <v>1592</v>
       </c>
       <c r="E224" s="6">
         <v>1444</v>
@@ -40810,10 +40779,10 @@
         <v>43</v>
       </c>
       <c r="I224" s="20" t="s">
-        <v>1263</v>
+        <v>1202</v>
       </c>
       <c r="J224" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K224" s="6">
         <v>0</v>
@@ -40833,10 +40802,10 @@
         <v>1444</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>934</v>
+        <v>884</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>1290</v>
+        <v>1593</v>
       </c>
       <c r="E225" s="6">
         <v>1445</v>
@@ -40851,10 +40820,10 @@
         <v>44</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>1290</v>
+        <v>1229</v>
       </c>
       <c r="J225" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K225" s="6">
         <v>0</v>
@@ -40874,10 +40843,10 @@
         <v>1445</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>935</v>
+        <v>885</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>896</v>
+        <v>1594</v>
       </c>
       <c r="E226" s="6">
         <v>1446</v>
@@ -40892,10 +40861,10 @@
         <v>45</v>
       </c>
       <c r="I226" s="20" t="s">
-        <v>1264</v>
+        <v>1203</v>
       </c>
       <c r="J226" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K226" s="6">
         <v>0</v>
@@ -40915,10 +40884,10 @@
         <v>1446</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>936</v>
+        <v>886</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>897</v>
+        <v>1595</v>
       </c>
       <c r="E227" s="6">
         <v>1447</v>
@@ -40936,7 +40905,7 @@
         <v>704</v>
       </c>
       <c r="J227" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K227" s="6">
         <v>0</v>
@@ -40956,10 +40925,10 @@
         <v>1447</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>937</v>
+        <v>887</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>898</v>
+        <v>1596</v>
       </c>
       <c r="E228" s="6">
         <v>1448</v>
@@ -40974,10 +40943,10 @@
         <v>47</v>
       </c>
       <c r="I228" s="20" t="s">
-        <v>1270</v>
+        <v>1209</v>
       </c>
       <c r="J228" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K228" s="6">
         <v>0</v>
@@ -40997,10 +40966,10 @@
         <v>1448</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>938</v>
+        <v>888</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>899</v>
+        <v>1597</v>
       </c>
       <c r="E229" s="6">
         <v>1449</v>
@@ -41015,10 +40984,10 @@
         <v>48</v>
       </c>
       <c r="I229" s="20" t="s">
-        <v>1276</v>
+        <v>1215</v>
       </c>
       <c r="J229" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K229" s="6">
         <v>0</v>
@@ -41038,10 +41007,10 @@
         <v>1449</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>939</v>
+        <v>889</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>906</v>
+        <v>1598</v>
       </c>
       <c r="E230" s="6">
         <v>1450</v>
@@ -41056,10 +41025,10 @@
         <v>49</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>1362</v>
+        <v>1301</v>
       </c>
       <c r="J230" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K230" s="6">
         <v>0</v>
@@ -41068,7 +41037,7 @@
         <v>1000</v>
       </c>
       <c r="M230" s="6" t="s">
-        <v>1604</v>
+        <v>1543</v>
       </c>
       <c r="N230" s="6">
         <v>0</v>
@@ -41085,10 +41054,10 @@
         <v>1450</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>903</v>
+        <v>1599</v>
       </c>
       <c r="E231" s="6">
         <v>1451</v>
@@ -41103,10 +41072,10 @@
         <v>50</v>
       </c>
       <c r="I231" s="20" t="s">
-        <v>903</v>
+        <v>861</v>
       </c>
       <c r="J231" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K231" s="6">
         <v>0</v>
@@ -41126,10 +41095,10 @@
         <v>1451</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>941</v>
+        <v>891</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E232" s="6">
         <v>1452</v>
@@ -41144,10 +41113,10 @@
         <v>51</v>
       </c>
       <c r="I232" s="20" t="s">
-        <v>905</v>
+        <v>862</v>
       </c>
       <c r="J232" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K232" s="6">
         <v>0</v>
@@ -41167,10 +41136,10 @@
         <v>1452</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>942</v>
+        <v>892</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>907</v>
+        <v>1601</v>
       </c>
       <c r="E233" s="6">
         <v>1453</v>
@@ -41188,7 +41157,7 @@
         <v>644</v>
       </c>
       <c r="J233" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K233" s="6">
         <v>0</v>
@@ -41197,7 +41166,7 @@
         <v>1000</v>
       </c>
       <c r="M233" s="6" t="s">
-        <v>1610</v>
+        <v>1549</v>
       </c>
       <c r="N233" s="6">
         <v>0</v>
@@ -41214,10 +41183,10 @@
         <v>1453</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>943</v>
+        <v>893</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>901</v>
+        <v>1602</v>
       </c>
       <c r="E234" s="6">
         <v>1454</v>
@@ -41232,10 +41201,10 @@
         <v>53</v>
       </c>
       <c r="I234" s="20" t="s">
-        <v>901</v>
+        <v>859</v>
       </c>
       <c r="J234" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K234" s="6">
         <v>0</v>
@@ -41255,10 +41224,10 @@
         <v>1454</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>944</v>
+        <v>894</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>902</v>
+        <v>1603</v>
       </c>
       <c r="E235" s="6">
         <v>1455</v>
@@ -41273,10 +41242,10 @@
         <v>54</v>
       </c>
       <c r="I235" s="20" t="s">
-        <v>902</v>
+        <v>860</v>
       </c>
       <c r="J235" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K235" s="6">
         <v>0</v>
@@ -41296,10 +41265,10 @@
         <v>1455</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>945</v>
+        <v>895</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>908</v>
+        <v>1604</v>
       </c>
       <c r="E236" s="6">
         <v>1456</v>
@@ -41317,7 +41286,7 @@
         <v>561</v>
       </c>
       <c r="J236" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K236" s="6">
         <v>0</v>
@@ -41337,10 +41306,10 @@
         <v>1456</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>946</v>
+        <v>896</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>904</v>
+        <v>1605</v>
       </c>
       <c r="E237" s="6">
         <v>1457</v>
@@ -41355,10 +41324,10 @@
         <v>56</v>
       </c>
       <c r="I237" s="25" t="s">
-        <v>1392</v>
+        <v>1331</v>
       </c>
       <c r="J237" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K237" s="6">
         <v>0</v>
@@ -41378,10 +41347,10 @@
         <v>1457</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>947</v>
+        <v>897</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>909</v>
+        <v>1606</v>
       </c>
       <c r="E238" s="6">
         <v>1458</v>
@@ -41396,10 +41365,10 @@
         <v>57</v>
       </c>
       <c r="I238" s="20" t="s">
-        <v>1271</v>
+        <v>1210</v>
       </c>
       <c r="J238" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K238" s="6">
         <v>0</v>
@@ -41419,10 +41388,10 @@
         <v>1458</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>948</v>
+        <v>898</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>911</v>
+        <v>1607</v>
       </c>
       <c r="E239" s="6">
         <v>1459</v>
@@ -41437,10 +41406,10 @@
         <v>58</v>
       </c>
       <c r="I239" s="20" t="s">
-        <v>910</v>
+        <v>863</v>
       </c>
       <c r="J239" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K239" s="6">
         <v>0</v>
@@ -41460,10 +41429,10 @@
         <v>1459</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>912</v>
+        <v>1608</v>
       </c>
       <c r="E240" s="6">
         <v>1460</v>
@@ -41478,10 +41447,10 @@
         <v>59</v>
       </c>
       <c r="I240" s="20" t="s">
-        <v>1272</v>
+        <v>1211</v>
       </c>
       <c r="J240" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K240" s="6">
         <v>0</v>
@@ -41501,10 +41470,10 @@
         <v>1460</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>913</v>
+        <v>1609</v>
       </c>
       <c r="E241" s="6">
         <v>1461</v>
@@ -41519,10 +41488,10 @@
         <v>60</v>
       </c>
       <c r="I241" s="20" t="s">
-        <v>1279</v>
+        <v>1218</v>
       </c>
       <c r="J241" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K241" s="6">
         <v>0</v>
@@ -41542,10 +41511,10 @@
         <v>1461</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>951</v>
+        <v>901</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>954</v>
+        <v>1610</v>
       </c>
       <c r="E242" s="6">
         <v>1462</v>
@@ -41563,7 +41532,7 @@
         <v>562</v>
       </c>
       <c r="J242" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K242" s="6">
         <v>0</v>
@@ -41583,10 +41552,10 @@
         <v>1462</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>964</v>
+        <v>1611</v>
       </c>
       <c r="E243" s="6">
         <v>1463</v>
@@ -41601,10 +41570,10 @@
         <v>62</v>
       </c>
       <c r="I243" s="23" t="s">
-        <v>1273</v>
+        <v>1212</v>
       </c>
       <c r="J243" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K243" s="6">
         <v>0</v>
@@ -41624,10 +41593,10 @@
         <v>1463</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>965</v>
+        <v>904</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>955</v>
+        <v>1612</v>
       </c>
       <c r="E244" s="6">
         <v>1464</v>
@@ -41642,10 +41611,10 @@
         <v>63</v>
       </c>
       <c r="I244" s="20" t="s">
-        <v>1397</v>
+        <v>1336</v>
       </c>
       <c r="J244" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K244" s="6">
         <v>0</v>
@@ -41665,10 +41634,10 @@
         <v>1464</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>966</v>
+        <v>905</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>960</v>
+        <v>1613</v>
       </c>
       <c r="E245" s="6">
         <v>1465</v>
@@ -41683,10 +41652,10 @@
         <v>64</v>
       </c>
       <c r="I245" s="25" t="s">
-        <v>1394</v>
+        <v>1333</v>
       </c>
       <c r="J245" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K245" s="6">
         <v>0</v>
@@ -41706,10 +41675,10 @@
         <v>1465</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>967</v>
+        <v>906</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>956</v>
+        <v>1614</v>
       </c>
       <c r="E246" s="6">
         <v>1466</v>
@@ -41727,7 +41696,7 @@
         <v>563</v>
       </c>
       <c r="J246" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K246" s="6">
         <v>0</v>
@@ -41747,10 +41716,10 @@
         <v>1466</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>968</v>
+        <v>907</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>957</v>
+        <v>1615</v>
       </c>
       <c r="E247" s="6">
         <v>1467</v>
@@ -41765,10 +41734,10 @@
         <v>66</v>
       </c>
       <c r="I247" s="25" t="s">
-        <v>1399</v>
+        <v>1338</v>
       </c>
       <c r="J247" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K247" s="6">
         <v>0</v>
@@ -41788,10 +41757,10 @@
         <v>1467</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>969</v>
+        <v>908</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>958</v>
+        <v>1616</v>
       </c>
       <c r="E248" s="6">
         <v>1468</v>
@@ -41806,10 +41775,10 @@
         <v>67</v>
       </c>
       <c r="I248" s="20" t="s">
-        <v>1398</v>
+        <v>1337</v>
       </c>
       <c r="J248" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K248" s="6">
         <v>0</v>
@@ -41829,10 +41798,10 @@
         <v>1468</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>970</v>
+        <v>909</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>959</v>
+        <v>1617</v>
       </c>
       <c r="E249" s="6">
         <v>1469</v>
@@ -41847,10 +41816,10 @@
         <v>68</v>
       </c>
       <c r="I249" s="20" t="s">
-        <v>1275</v>
+        <v>1214</v>
       </c>
       <c r="J249" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K249" s="6">
         <v>0</v>
@@ -41870,10 +41839,10 @@
         <v>1469</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>971</v>
+        <v>910</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>961</v>
+        <v>1618</v>
       </c>
       <c r="E250" s="6">
         <v>1470</v>
@@ -41888,10 +41857,10 @@
         <v>69</v>
       </c>
       <c r="I250" s="25" t="s">
-        <v>1395</v>
+        <v>1334</v>
       </c>
       <c r="J250" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K250" s="6">
         <v>0</v>
@@ -41911,10 +41880,10 @@
         <v>1470</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>972</v>
+        <v>911</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>962</v>
+        <v>1619</v>
       </c>
       <c r="E251" s="6">
         <v>1471</v>
@@ -41932,7 +41901,7 @@
         <v>564</v>
       </c>
       <c r="J251" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K251" s="6">
         <v>0</v>
@@ -41952,10 +41921,10 @@
         <v>1471</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>973</v>
+        <v>912</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>963</v>
+        <v>1620</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>781</v>
@@ -41970,10 +41939,10 @@
         <v>71</v>
       </c>
       <c r="I252" s="25" t="s">
-        <v>1396</v>
+        <v>1335</v>
       </c>
       <c r="J252" s="20" t="s">
-        <v>1384</v>
+        <v>1323</v>
       </c>
       <c r="K252" s="6">
         <v>0</v>
@@ -41993,10 +41962,10 @@
         <v>1501</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1450</v>
+        <v>1389</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1428</v>
+        <v>1367</v>
       </c>
       <c r="E253" s="6">
         <v>1502</v>
@@ -42011,10 +41980,10 @@
         <v>1</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>1403</v>
+        <v>1342</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K253" s="6">
         <v>0</v>
@@ -42034,10 +42003,10 @@
         <v>1502</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1405</v>
+        <v>1344</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1429</v>
+        <v>1368</v>
       </c>
       <c r="E254" s="6">
         <v>1503</v>
@@ -42052,10 +42021,10 @@
         <v>2</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>1405</v>
+        <v>1344</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K254" s="6">
         <v>0</v>
@@ -42075,10 +42044,10 @@
         <v>1503</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1406</v>
+        <v>1345</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1430</v>
+        <v>1369</v>
       </c>
       <c r="E255" s="6">
         <v>1504</v>
@@ -42093,10 +42062,10 @@
         <v>3</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>1406</v>
+        <v>1345</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K255" s="6">
         <v>0</v>
@@ -42116,10 +42085,10 @@
         <v>1504</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>1407</v>
+        <v>1346</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>1431</v>
+        <v>1370</v>
       </c>
       <c r="E256" s="6">
         <v>1505</v>
@@ -42134,10 +42103,10 @@
         <v>4</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>1407</v>
+        <v>1346</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K256" s="6">
         <v>0</v>
@@ -42157,10 +42126,10 @@
         <v>1505</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>1408</v>
+        <v>1347</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>1432</v>
+        <v>1371</v>
       </c>
       <c r="E257" s="6">
         <v>1506</v>
@@ -42175,10 +42144,10 @@
         <v>5</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>1408</v>
+        <v>1347</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K257" s="6">
         <v>0</v>
@@ -42198,10 +42167,10 @@
         <v>1506</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1409</v>
+        <v>1348</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>1433</v>
+        <v>1372</v>
       </c>
       <c r="E258" s="6">
         <v>1507</v>
@@ -42216,10 +42185,10 @@
         <v>6</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>1409</v>
+        <v>1348</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K258" s="6">
         <v>0</v>
@@ -42239,10 +42208,10 @@
         <v>1507</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>1410</v>
+        <v>1349</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>1434</v>
+        <v>1373</v>
       </c>
       <c r="E259" s="6">
         <v>1508</v>
@@ -42257,10 +42226,10 @@
         <v>7</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>1410</v>
+        <v>1349</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K259" s="6">
         <v>0</v>
@@ -42280,10 +42249,10 @@
         <v>1508</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1411</v>
+        <v>1350</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>1435</v>
+        <v>1374</v>
       </c>
       <c r="E260" s="6">
         <v>1509</v>
@@ -42298,10 +42267,10 @@
         <v>8</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>1411</v>
+        <v>1350</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K260" s="6">
         <v>0</v>
@@ -42321,10 +42290,10 @@
         <v>1509</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1412</v>
+        <v>1351</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>1436</v>
+        <v>1375</v>
       </c>
       <c r="E261" s="6">
         <v>1510</v>
@@ -42339,10 +42308,10 @@
         <v>9</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>1412</v>
+        <v>1351</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K261" s="6">
         <v>0</v>
@@ -42362,10 +42331,10 @@
         <v>1510</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1413</v>
+        <v>1352</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>1437</v>
+        <v>1376</v>
       </c>
       <c r="E262" s="6" t="s">
         <v>781</v>
@@ -42380,10 +42349,10 @@
         <v>10</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>1413</v>
+        <v>1352</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K262" s="6">
         <v>0</v>
@@ -42403,10 +42372,10 @@
         <v>1601</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1414</v>
+        <v>1353</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>1438</v>
+        <v>1377</v>
       </c>
       <c r="E263" s="6">
         <v>1602</v>
@@ -42421,10 +42390,10 @@
         <v>1</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>1414</v>
+        <v>1353</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K263" s="6">
         <v>0</v>
@@ -42444,10 +42413,10 @@
         <v>1602</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>1416</v>
+        <v>1355</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>1439</v>
+        <v>1378</v>
       </c>
       <c r="E264" s="6">
         <v>1603</v>
@@ -42462,10 +42431,10 @@
         <v>2</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>1416</v>
+        <v>1355</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K264" s="6">
         <v>0</v>
@@ -42485,10 +42454,10 @@
         <v>1603</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>1417</v>
+        <v>1356</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>1440</v>
+        <v>1379</v>
       </c>
       <c r="E265" s="6">
         <v>1604</v>
@@ -42503,10 +42472,10 @@
         <v>3</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>1417</v>
+        <v>1356</v>
       </c>
       <c r="J265" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K265" s="6">
         <v>0</v>
@@ -42526,10 +42495,10 @@
         <v>1604</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1418</v>
+        <v>1357</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>1441</v>
+        <v>1380</v>
       </c>
       <c r="E266" s="6">
         <v>1605</v>
@@ -42544,10 +42513,10 @@
         <v>4</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>1418</v>
+        <v>1357</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K266" s="6">
         <v>0</v>
@@ -42567,10 +42536,10 @@
         <v>1605</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1419</v>
+        <v>1358</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>1442</v>
+        <v>1381</v>
       </c>
       <c r="E267" s="6">
         <v>1606</v>
@@ -42585,10 +42554,10 @@
         <v>5</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>1419</v>
+        <v>1358</v>
       </c>
       <c r="J267" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K267" s="6">
         <v>0</v>
@@ -42608,10 +42577,10 @@
         <v>1606</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1420</v>
+        <v>1359</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>1443</v>
+        <v>1382</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>781</v>
@@ -42626,10 +42595,10 @@
         <v>6</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>1420</v>
+        <v>1359</v>
       </c>
       <c r="J268" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K268" s="6">
         <v>0</v>
@@ -42649,10 +42618,10 @@
         <v>1701</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1421</v>
+        <v>1360</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>1444</v>
+        <v>1383</v>
       </c>
       <c r="E269" s="6">
         <v>1702</v>
@@ -42667,10 +42636,10 @@
         <v>1</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>1421</v>
+        <v>1360</v>
       </c>
       <c r="J269" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K269" s="6">
         <v>0</v>
@@ -42690,10 +42659,10 @@
         <v>1702</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>1423</v>
+        <v>1362</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>1445</v>
+        <v>1384</v>
       </c>
       <c r="E270" s="6">
         <v>1703</v>
@@ -42708,10 +42677,10 @@
         <v>2</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>1423</v>
+        <v>1362</v>
       </c>
       <c r="J270" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K270" s="6">
         <v>0</v>
@@ -42731,10 +42700,10 @@
         <v>1703</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1424</v>
+        <v>1363</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>1446</v>
+        <v>1385</v>
       </c>
       <c r="E271" s="6">
         <v>1704</v>
@@ -42749,10 +42718,10 @@
         <v>3</v>
       </c>
       <c r="I271" s="6" t="s">
-        <v>1424</v>
+        <v>1363</v>
       </c>
       <c r="J271" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K271" s="6">
         <v>0</v>
@@ -42772,10 +42741,10 @@
         <v>1704</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1425</v>
+        <v>1364</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>1447</v>
+        <v>1386</v>
       </c>
       <c r="E272" s="6">
         <v>1705</v>
@@ -42790,10 +42759,10 @@
         <v>4</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>1425</v>
+        <v>1364</v>
       </c>
       <c r="J272" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K272" s="6">
         <v>0</v>
@@ -42813,10 +42782,10 @@
         <v>1705</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1426</v>
+        <v>1365</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>1448</v>
+        <v>1387</v>
       </c>
       <c r="E273" s="6">
         <v>1706</v>
@@ -42831,10 +42800,10 @@
         <v>5</v>
       </c>
       <c r="I273" s="6" t="s">
-        <v>1426</v>
+        <v>1365</v>
       </c>
       <c r="J273" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K273" s="6">
         <v>0</v>
@@ -42854,10 +42823,10 @@
         <v>1706</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1427</v>
+        <v>1366</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>1449</v>
+        <v>1388</v>
       </c>
       <c r="E274" s="6" t="s">
         <v>781</v>
@@ -42872,10 +42841,10 @@
         <v>6</v>
       </c>
       <c r="I274" s="6" t="s">
-        <v>1427</v>
+        <v>1366</v>
       </c>
       <c r="J274" s="6" t="s">
-        <v>1454</v>
+        <v>1393</v>
       </c>
       <c r="K274" s="6">
         <v>0</v>
@@ -43041,7 +43010,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>974</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -43049,7 +43018,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1451</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -43057,7 +43026,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1452</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -43065,7 +43034,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1453</v>
+        <v>1392</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF333592-6658-4339-B19E-5C37DF4D4122}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18EBB18-F95B-42DC-953C-90C2865D3000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -6470,11 +6470,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T606"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D367" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D496" sqref="D496:D506"/>
+      <selection pane="bottomRight" activeCell="I370" sqref="I370:I394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="H370" s="6"/>
       <c r="I370" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J370" s="6"/>
       <c r="K370" s="6"/>
@@ -20845,7 +20845,7 @@
       </c>
       <c r="H371" s="6"/>
       <c r="I371" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J371" s="6"/>
       <c r="K371" s="6"/>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="H372" s="6"/>
       <c r="I372" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J372" s="6"/>
       <c r="K372" s="6"/>
@@ -20921,7 +20921,7 @@
       </c>
       <c r="H373" s="6"/>
       <c r="I373" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J373" s="6"/>
       <c r="K373" s="6"/>
@@ -20959,7 +20959,7 @@
       </c>
       <c r="H374" s="6"/>
       <c r="I374" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J374" s="6"/>
       <c r="K374" s="6"/>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="H375" s="6"/>
       <c r="I375" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J375" s="6"/>
       <c r="K375" s="6"/>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="H376" s="6"/>
       <c r="I376" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J376" s="6"/>
       <c r="K376" s="6"/>
@@ -21073,7 +21073,7 @@
       </c>
       <c r="H377" s="6"/>
       <c r="I377" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J377" s="6"/>
       <c r="K377" s="6"/>
@@ -21111,7 +21111,7 @@
       </c>
       <c r="H378" s="6"/>
       <c r="I378" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J378" s="6"/>
       <c r="K378" s="6"/>
@@ -21149,7 +21149,7 @@
       </c>
       <c r="H379" s="6"/>
       <c r="I379" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J379" s="6"/>
       <c r="K379" s="6"/>
@@ -21187,7 +21187,7 @@
       </c>
       <c r="H380" s="6"/>
       <c r="I380" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J380" s="6"/>
       <c r="K380" s="6"/>
@@ -21225,7 +21225,7 @@
       </c>
       <c r="H381" s="6"/>
       <c r="I381" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J381" s="6"/>
       <c r="K381" s="6"/>
@@ -21263,7 +21263,7 @@
       </c>
       <c r="H382" s="6"/>
       <c r="I382" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J382" s="6"/>
       <c r="K382" s="6"/>
@@ -21301,7 +21301,7 @@
       </c>
       <c r="H383" s="6"/>
       <c r="I383" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J383" s="6"/>
       <c r="K383" s="6"/>
@@ -21339,7 +21339,7 @@
       </c>
       <c r="H384" s="6"/>
       <c r="I384" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J384" s="6"/>
       <c r="K384" s="6"/>
@@ -21377,7 +21377,7 @@
       </c>
       <c r="H385" s="6"/>
       <c r="I385" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J385" s="6"/>
       <c r="K385" s="6"/>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="H386" s="6"/>
       <c r="I386" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J386" s="6"/>
       <c r="K386" s="6"/>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="H387" s="6"/>
       <c r="I387" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J387" s="6"/>
       <c r="K387" s="6"/>
@@ -21491,7 +21491,7 @@
       </c>
       <c r="H388" s="6"/>
       <c r="I388" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J388" s="6"/>
       <c r="K388" s="6"/>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="H389" s="6"/>
       <c r="I389" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J389" s="6"/>
       <c r="K389" s="6"/>
@@ -21567,7 +21567,7 @@
       </c>
       <c r="H390" s="6"/>
       <c r="I390" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J390" s="6"/>
       <c r="K390" s="6"/>
@@ -21605,7 +21605,7 @@
       </c>
       <c r="H391" s="6"/>
       <c r="I391" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J391" s="6"/>
       <c r="K391" s="6"/>
@@ -21643,7 +21643,7 @@
       </c>
       <c r="H392" s="6"/>
       <c r="I392" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J392" s="6"/>
       <c r="K392" s="6"/>
@@ -21681,7 +21681,7 @@
       </c>
       <c r="H393" s="6"/>
       <c r="I393" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J393" s="6"/>
       <c r="K393" s="6"/>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="H394" s="6"/>
       <c r="I394" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J394" s="6"/>
       <c r="K394" s="6"/>
@@ -31293,11 +31293,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="E226" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D176" sqref="D176"/>
+      <selection pane="bottomRight" activeCell="H252" sqref="H252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18EBB18-F95B-42DC-953C-90C2865D3000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF7E75-8227-46BE-B9E9-A7A94783798A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1426">
   <si>
     <t>sheet名</t>
   </si>
@@ -2562,10 +2562,6 @@
   </si>
   <si>
     <t>军阶进阶到一等兵</t>
-  </si>
-  <si>
-    <t>新手任务1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
@@ -2580,175 +2576,21 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>新手任务2</t>
-  </si>
-  <si>
-    <t>新手任务3</t>
-  </si>
-  <si>
-    <t>新手任务4</t>
-  </si>
-  <si>
-    <t>新手任务5</t>
-  </si>
-  <si>
-    <t>新手任务6</t>
-  </si>
-  <si>
-    <t>新手任务7</t>
-  </si>
-  <si>
-    <t>新手任务8</t>
-  </si>
-  <si>
-    <t>新手任务9</t>
-  </si>
-  <si>
-    <t>新手任务10</t>
-  </si>
-  <si>
-    <t>新手任务11</t>
-  </si>
-  <si>
-    <t>新手任务12</t>
-  </si>
-  <si>
-    <t>新手任务13</t>
-  </si>
-  <si>
-    <t>新手任务14</t>
-  </si>
-  <si>
-    <t>新手任务15</t>
-  </si>
-  <si>
-    <t>新手任务16</t>
-  </si>
-  <si>
-    <t>新手任务17</t>
-  </si>
-  <si>
-    <t>新手任务18</t>
-  </si>
-  <si>
-    <t>新手任务19</t>
-  </si>
-  <si>
-    <t>新手任务20</t>
-  </si>
-  <si>
-    <t>新手任务21</t>
-  </si>
-  <si>
-    <t>新手任务22</t>
-  </si>
-  <si>
-    <t>新手任务23</t>
-  </si>
-  <si>
-    <r>
-      <t>通过1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2关</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3关</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过12关</t>
   </si>
   <si>
     <t>通过13关</t>
   </si>
   <si>
-    <r>
-      <t>通过1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4关</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5关</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过16关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过17关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过18关</t>
   </si>
   <si>
-    <t>通过18关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过19关</t>
   </si>
   <si>
-    <t>通过19关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过20关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过21关</t>
   </si>
   <si>
-    <t>通过21关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过22关</t>
   </si>
   <si>
@@ -2761,179 +2603,19 @@
     <t>通过29关</t>
   </si>
   <si>
-    <t>主舰2突</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过27关</t>
   </si>
   <si>
     <t>通过32关</t>
   </si>
   <si>
-    <t>新手任务24</t>
-  </si>
-  <si>
-    <t>新手任务25</t>
-  </si>
-  <si>
-    <t>新手任务26</t>
-  </si>
-  <si>
-    <t>新手任务27</t>
-  </si>
-  <si>
-    <t>新手任务28</t>
-  </si>
-  <si>
-    <t>新手任务29</t>
-  </si>
-  <si>
-    <t>新手任务30</t>
-  </si>
-  <si>
-    <t>新手任务31</t>
-  </si>
-  <si>
-    <t>新手任务32</t>
-  </si>
-  <si>
-    <t>新手任务33</t>
-  </si>
-  <si>
-    <t>新手任务34</t>
-  </si>
-  <si>
-    <t>新手任务35</t>
-  </si>
-  <si>
-    <t>新手任务36</t>
-  </si>
-  <si>
-    <t>新手任务37</t>
-  </si>
-  <si>
-    <t>新手任务38</t>
-  </si>
-  <si>
-    <t>新手任务39</t>
-  </si>
-  <si>
-    <t>新手任务40</t>
-  </si>
-  <si>
-    <t>新手任务41</t>
-  </si>
-  <si>
-    <t>新手任务42</t>
-  </si>
-  <si>
-    <t>新手任务43</t>
-  </si>
-  <si>
-    <t>新手任务44</t>
-  </si>
-  <si>
-    <t>新手任务45</t>
-  </si>
-  <si>
-    <t>新手任务46</t>
-  </si>
-  <si>
-    <t>新手任务47</t>
-  </si>
-  <si>
-    <t>新手任务48</t>
-  </si>
-  <si>
-    <t>新手任务49</t>
-  </si>
-  <si>
-    <t>新手任务50</t>
-  </si>
-  <si>
-    <t>新手任务51</t>
-  </si>
-  <si>
-    <t>新手任务52</t>
-  </si>
-  <si>
-    <t>新手任务53</t>
-  </si>
-  <si>
-    <t>新手任务54</t>
-  </si>
-  <si>
-    <t>新手任务55</t>
-  </si>
-  <si>
-    <t>新手任务56</t>
-  </si>
-  <si>
-    <t>新手任务57</t>
-  </si>
-  <si>
-    <t>新手任务58</t>
-  </si>
-  <si>
-    <t>新手任务59</t>
-  </si>
-  <si>
-    <t>新手任务60</t>
-  </si>
-  <si>
-    <t>新手任务61</t>
-  </si>
-  <si>
-    <t>新手任务62</t>
-  </si>
-  <si>
     <t>通过36关</t>
   </si>
   <si>
-    <t>新手任务63</t>
-  </si>
-  <si>
-    <t>新手任务64</t>
-  </si>
-  <si>
-    <t>新手任务65</t>
-  </si>
-  <si>
-    <t>新手任务66</t>
-  </si>
-  <si>
-    <t>新手任务67</t>
-  </si>
-  <si>
-    <t>新手任务68</t>
-  </si>
-  <si>
-    <t>新手任务69</t>
-  </si>
-  <si>
-    <t>新手任务70</t>
-  </si>
-  <si>
-    <t>新手任务71</t>
-  </si>
-  <si>
-    <t>新手任务</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过1关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过14关</t>
   </si>
   <si>
     <t>通过15关</t>
-  </si>
-  <si>
-    <t>通过2关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>主舰1级</t>
@@ -3184,50 +2866,10 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过3关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>主舰6级</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>主舰6级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过4关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过5关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过6关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰10级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过7关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过8关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过9关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过10关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>武器1阶</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -3828,35 +3470,7 @@
     <t>索敌增强装置到达12阶</t>
   </si>
   <si>
-    <t>武器1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过11关</t>
-  </si>
-  <si>
-    <t>通过11关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩甲1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>裤子1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通过16关</t>
@@ -3879,22 +3493,6 @@
   </si>
   <si>
     <t>通过17关</t>
-  </si>
-  <si>
-    <r>
-      <t>导弹炮1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5级</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3955,14 +3553,6 @@
     <t>通过25关</t>
   </si>
   <si>
-    <t>项链1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指1阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>装备槽7强化</t>
   </si>
   <si>
@@ -3973,15 +3563,7 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>武器2阶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过31关</t>
-  </si>
-  <si>
-    <t>符文单抽1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>装备精炼到1级</t>
@@ -3990,22 +3572,6 @@
   <si>
     <t>最少一个装备精炼到1级</t>
     <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>主舰3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>突</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通过26关</t>
@@ -4688,10 +4254,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>金币</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁激光炮皮肤</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -4717,36 +4279,6 @@
   </si>
   <si>
     <t>特级精炼石</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过45关</t>
-  </si>
-  <si>
-    <t>通过55关</t>
-  </si>
-  <si>
-    <t>主舰核能1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -5397,247 +4929,6 @@
   </si>
   <si>
     <t>通过第1000关</t>
-  </si>
-  <si>
-    <t>突破丹</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩甲S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>裤子S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子S1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔S4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务-1:通过第1关</t>
-  </si>
-  <si>
-    <t>新手任务-2:通过第2关</t>
-  </si>
-  <si>
-    <t>新手任务-3:把主舰升级到5级</t>
-  </si>
-  <si>
-    <t>新手任务-4:通过第3关</t>
-  </si>
-  <si>
-    <t>新手任务-5:释放一次技能</t>
-  </si>
-  <si>
-    <t>新手任务-6:通过第4关</t>
-  </si>
-  <si>
-    <t>新手任务-7:通过第5关</t>
-  </si>
-  <si>
-    <t>新手任务-8:通过第6关</t>
-  </si>
-  <si>
-    <t>新手任务-9:把主舰强化到10级</t>
-  </si>
-  <si>
-    <t>新手任务-10:通过第7关</t>
-  </si>
-  <si>
-    <t>新手任务-11:主舰1突</t>
-  </si>
-  <si>
-    <t>新手任务-12:通过第8关</t>
-  </si>
-  <si>
-    <t>新手任务-13:升级军阶到1阶</t>
-  </si>
-  <si>
-    <t>新手任务-14:通过第9关</t>
-  </si>
-  <si>
-    <t>新手任务-15:通过第10关</t>
-  </si>
-  <si>
-    <t>新手任务-16:装备一个武器</t>
-  </si>
-  <si>
-    <t>新手任务-17:通过第11关</t>
-  </si>
-  <si>
-    <t>新手任务-18:装备一个肩甲</t>
-  </si>
-  <si>
-    <t>新手任务-19:通过12关</t>
-  </si>
-  <si>
-    <t>新手任务-20:装备一个衣服</t>
-  </si>
-  <si>
-    <t>新手任务-21:通过13关</t>
-  </si>
-  <si>
-    <t>新手任务-22:装备一个裤子</t>
-  </si>
-  <si>
-    <t>新手任务-23:通过14关</t>
-  </si>
-  <si>
-    <t>新手任务-24:装备一个鞋子</t>
-  </si>
-  <si>
-    <t>新手任务-25:通过15关</t>
-  </si>
-  <si>
-    <t>新手任务-26:装备一个头盔</t>
-  </si>
-  <si>
-    <t>新手任务-27:通过16关</t>
-  </si>
-  <si>
-    <t>新手任务-28:解锁导弹炮</t>
-  </si>
-  <si>
-    <t>新手任务-29:通过17关</t>
-  </si>
-  <si>
-    <t>新手任务-30:导弹炮升级到15级</t>
-  </si>
-  <si>
-    <t>新手任务-31:通过18关</t>
-  </si>
-  <si>
-    <t>新手任务-32:导弹炮突破+1</t>
-  </si>
-  <si>
-    <t>新手任务-33:通过19关</t>
-  </si>
-  <si>
-    <t>新手任务-34:通过20关</t>
-  </si>
-  <si>
-    <t>新手任务-35:装备一个项链</t>
-  </si>
-  <si>
-    <t>新手任务-36:通过21关</t>
-  </si>
-  <si>
-    <t>新手任务-37:军阶升到2阶</t>
-  </si>
-  <si>
-    <t>新手任务-38:装备一个戒指</t>
-  </si>
-  <si>
-    <t>新手任务-39:通过22关</t>
-  </si>
-  <si>
-    <t>新手任务-40:把武器强化到10级</t>
-  </si>
-  <si>
-    <t>新手任务-41:通过23关</t>
-  </si>
-  <si>
-    <t>新手任务-42:把所有装备强化到10级</t>
-  </si>
-  <si>
-    <t>新手任务-43:通过24关</t>
-  </si>
-  <si>
-    <t>新手任务-44:战力达到50000</t>
-  </si>
-  <si>
-    <t>新手任务-45:通过25关</t>
-  </si>
-  <si>
-    <t>新手任务-46:进行一次合成</t>
-  </si>
-  <si>
-    <t>新手任务-47:装备1件2阶武器</t>
-  </si>
-  <si>
-    <t>新手任务-48:通过26关</t>
-  </si>
-  <si>
-    <t>新手任务-49:在商店购买一次商品</t>
-  </si>
-  <si>
-    <t>新手任务-50:主舰2突</t>
-  </si>
-  <si>
-    <t>新手任务-51:通过27关</t>
-  </si>
-  <si>
-    <t>新手任务-52:引导装备抽奖励</t>
-  </si>
-  <si>
-    <t>新手任务-53:通过28关</t>
-  </si>
-  <si>
-    <t>新手任务-54:通过29关</t>
-  </si>
-  <si>
-    <t>新手任务-55:通过30关</t>
-  </si>
-  <si>
-    <t>新手任务-56:军阶升到3阶</t>
-  </si>
-  <si>
-    <t>新手任务-57:通过31关</t>
-  </si>
-  <si>
-    <t>新手任务-58:通过32关</t>
-  </si>
-  <si>
-    <t>新手任务-59:进行一次符文抽将</t>
-  </si>
-  <si>
-    <t>新手任务-60:通过35关</t>
-  </si>
-  <si>
-    <t>新手任务-61:通过40关</t>
-  </si>
-  <si>
-    <t>新手任务-62:武器精炼到达1级</t>
-  </si>
-  <si>
-    <t>新手任务-63:通过45关</t>
-  </si>
-  <si>
-    <t>新手任务-64:军阶升级至4阶</t>
-  </si>
-  <si>
-    <t>新手任务-65:通过50关</t>
-  </si>
-  <si>
-    <t>新手任务-66:主舰核能升级到1级</t>
-  </si>
-  <si>
-    <t>新手任务-67:通过55关</t>
-  </si>
-  <si>
-    <t>新手任务-68:主舰突破达到3级</t>
-  </si>
-  <si>
-    <t>新手任务-69:军阶升级至5阶</t>
-  </si>
-  <si>
-    <t>新手任务-70:通过60关</t>
-  </si>
-  <si>
-    <t>新手任务-71:军阶升级至6阶</t>
   </si>
 </sst>
 </file>
@@ -6470,11 +5761,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T606"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D367" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I370" sqref="I370:I394"/>
+      <selection pane="bottomRight" activeCell="C565" sqref="C565:C574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6570,7 +5861,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>1400</v>
+        <v>1283</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -6691,10 +5982,10 @@
         <v>101010001</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>918</v>
+        <v>833</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -6729,10 +6020,10 @@
         <v>101010002</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>919</v>
+        <v>834</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>937</v>
+        <v>852</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -6767,10 +6058,10 @@
         <v>101010003</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>920</v>
+        <v>835</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>938</v>
+        <v>853</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -6805,10 +6096,10 @@
         <v>101010004</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>921</v>
+        <v>836</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>939</v>
+        <v>854</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -6843,10 +6134,10 @@
         <v>101010005</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>922</v>
+        <v>837</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>940</v>
+        <v>855</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -6881,10 +6172,10 @@
         <v>101010006</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>983</v>
+        <v>897</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>941</v>
+        <v>856</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -6919,10 +6210,10 @@
         <v>101010007</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>923</v>
+        <v>838</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>942</v>
+        <v>857</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -6957,10 +6248,10 @@
         <v>101010008</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>924</v>
+        <v>839</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>943</v>
+        <v>858</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -6995,10 +6286,10 @@
         <v>101010009</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>925</v>
+        <v>840</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>944</v>
+        <v>859</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -7036,7 +6327,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>945</v>
+        <v>860</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -7074,7 +6365,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>946</v>
+        <v>861</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -7109,10 +6400,10 @@
         <v>101010012</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>926</v>
+        <v>841</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>947</v>
+        <v>862</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -7147,10 +6438,10 @@
         <v>101010013</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>927</v>
+        <v>842</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>948</v>
+        <v>863</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -7188,7 +6479,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>949</v>
+        <v>864</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -7223,10 +6514,10 @@
         <v>101010015</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>928</v>
+        <v>843</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>950</v>
+        <v>865</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -7261,10 +6552,10 @@
         <v>101010016</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>929</v>
+        <v>844</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>951</v>
+        <v>866</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -7302,7 +6593,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>952</v>
+        <v>867</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -7337,10 +6628,10 @@
         <v>101010018</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>930</v>
+        <v>845</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>953</v>
+        <v>868</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -7378,7 +6669,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>954</v>
+        <v>869</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -7416,7 +6707,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>955</v>
+        <v>870</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -7451,10 +6742,10 @@
         <v>101010021</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>931</v>
+        <v>846</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>956</v>
+        <v>871</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -7489,10 +6780,10 @@
         <v>101010022</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>932</v>
+        <v>847</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>957</v>
+        <v>872</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -7530,7 +6821,7 @@
         <v>70</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>958</v>
+        <v>873</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -7568,7 +6859,7 @@
         <v>71</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>959</v>
+        <v>874</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
@@ -7606,7 +6897,7 @@
         <v>73</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>960</v>
+        <v>875</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -7644,7 +6935,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>961</v>
+        <v>876</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -7682,7 +6973,7 @@
         <v>75</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>962</v>
+        <v>877</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -7720,7 +7011,7 @@
         <v>77</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>963</v>
+        <v>878</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -7758,7 +7049,7 @@
         <v>78</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>964</v>
+        <v>879</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -7796,7 +7087,7 @@
         <v>79</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>965</v>
+        <v>880</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -7834,7 +7125,7 @@
         <v>80</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>966</v>
+        <v>881</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -7872,7 +7163,7 @@
         <v>81</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>967</v>
+        <v>882</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
@@ -7910,7 +7201,7 @@
         <v>83</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>968</v>
+        <v>883</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -7948,7 +7239,7 @@
         <v>85</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>969</v>
+        <v>884</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
@@ -7986,7 +7277,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>970</v>
+        <v>885</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -8024,7 +7315,7 @@
         <v>88</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>971</v>
+        <v>886</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
@@ -8059,10 +7350,10 @@
         <v>101020001</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>1194</v>
+        <v>1092</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1194</v>
+        <v>1092</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
@@ -8097,10 +7388,10 @@
         <v>101020002</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>1195</v>
+        <v>1093</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1195</v>
+        <v>1093</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
@@ -8173,10 +7464,10 @@
         <v>101020004</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1200</v>
+        <v>1097</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1200</v>
+        <v>1097</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
@@ -8515,10 +7806,10 @@
         <v>101030001</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>1196</v>
+        <v>1094</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1196</v>
+        <v>1094</v>
       </c>
       <c r="E52" s="6">
         <v>3</v>
@@ -8553,10 +7844,10 @@
         <v>101030002</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>1197</v>
+        <v>1095</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>1197</v>
+        <v>1095</v>
       </c>
       <c r="E53" s="6">
         <v>3</v>
@@ -8629,10 +7920,10 @@
         <v>101030004</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>1201</v>
+        <v>1098</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1201</v>
+        <v>1098</v>
       </c>
       <c r="E55" s="6">
         <v>3</v>
@@ -10719,10 +10010,10 @@
         <v>102040001</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1250</v>
+        <v>1142</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>1250</v>
+        <v>1142</v>
       </c>
       <c r="E110" s="6">
         <v>45</v>
@@ -10757,10 +10048,10 @@
         <v>102040002</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1251</v>
+        <v>1143</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>1251</v>
+        <v>1143</v>
       </c>
       <c r="E111" s="6">
         <v>45</v>
@@ -10795,10 +10086,10 @@
         <v>102040003</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>1252</v>
+        <v>1144</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>1252</v>
+        <v>1144</v>
       </c>
       <c r="E112" s="6">
         <v>45</v>
@@ -10833,10 +10124,10 @@
         <v>102040004</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>1253</v>
+        <v>1145</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>1253</v>
+        <v>1145</v>
       </c>
       <c r="E113" s="6">
         <v>45</v>
@@ -10871,10 +10162,10 @@
         <v>102040005</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>1254</v>
+        <v>1146</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>1254</v>
+        <v>1146</v>
       </c>
       <c r="E114" s="6">
         <v>45</v>
@@ -10909,10 +10200,10 @@
         <v>102040006</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>1255</v>
+        <v>1147</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>1255</v>
+        <v>1147</v>
       </c>
       <c r="E115" s="6">
         <v>45</v>
@@ -10947,10 +10238,10 @@
         <v>102040007</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>1256</v>
+        <v>1148</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>1256</v>
+        <v>1148</v>
       </c>
       <c r="E116" s="6">
         <v>45</v>
@@ -10985,10 +10276,10 @@
         <v>102040008</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>1257</v>
+        <v>1149</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>1257</v>
+        <v>1149</v>
       </c>
       <c r="E117" s="6">
         <v>45</v>
@@ -11023,10 +10314,10 @@
         <v>102040009</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>1258</v>
+        <v>1150</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>1258</v>
+        <v>1150</v>
       </c>
       <c r="E118" s="6">
         <v>45</v>
@@ -11061,10 +10352,10 @@
         <v>102040010</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>1259</v>
+        <v>1151</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>1259</v>
+        <v>1151</v>
       </c>
       <c r="E119" s="6">
         <v>45</v>
@@ -11099,10 +10390,10 @@
         <v>102040011</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>1260</v>
+        <v>1152</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>1260</v>
+        <v>1152</v>
       </c>
       <c r="E120" s="6">
         <v>45</v>
@@ -11137,10 +10428,10 @@
         <v>102040012</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>1261</v>
+        <v>1153</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>1261</v>
+        <v>1153</v>
       </c>
       <c r="E121" s="6">
         <v>45</v>
@@ -12771,10 +12062,10 @@
         <v>105010101</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>993</v>
+        <v>898</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>1089</v>
+        <v>994</v>
       </c>
       <c r="E164" s="6">
         <v>43</v>
@@ -12811,10 +12102,10 @@
         <v>105010102</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>994</v>
+        <v>899</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>1090</v>
+        <v>995</v>
       </c>
       <c r="E165" s="6">
         <v>43</v>
@@ -12851,10 +12142,10 @@
         <v>105010103</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>995</v>
+        <v>900</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>1091</v>
+        <v>996</v>
       </c>
       <c r="E166" s="6">
         <v>43</v>
@@ -12891,10 +12182,10 @@
         <v>105010104</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>996</v>
+        <v>901</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>1092</v>
+        <v>997</v>
       </c>
       <c r="E167" s="6">
         <v>43</v>
@@ -12931,10 +12222,10 @@
         <v>105010105</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>997</v>
+        <v>902</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>1093</v>
+        <v>998</v>
       </c>
       <c r="E168" s="6">
         <v>43</v>
@@ -12971,10 +12262,10 @@
         <v>105010106</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>998</v>
+        <v>903</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>1094</v>
+        <v>999</v>
       </c>
       <c r="E169" s="6">
         <v>43</v>
@@ -13011,10 +12302,10 @@
         <v>105010107</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>999</v>
+        <v>904</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>1095</v>
+        <v>1000</v>
       </c>
       <c r="E170" s="6">
         <v>43</v>
@@ -13051,10 +12342,10 @@
         <v>105010108</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1000</v>
+        <v>905</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>1096</v>
+        <v>1001</v>
       </c>
       <c r="E171" s="6">
         <v>43</v>
@@ -13091,10 +12382,10 @@
         <v>105010109</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1001</v>
+        <v>906</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>1097</v>
+        <v>1002</v>
       </c>
       <c r="E172" s="6">
         <v>43</v>
@@ -13131,10 +12422,10 @@
         <v>105010110</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1002</v>
+        <v>907</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>1098</v>
+        <v>1003</v>
       </c>
       <c r="E173" s="6">
         <v>43</v>
@@ -13171,10 +12462,10 @@
         <v>105010111</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1003</v>
+        <v>908</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>1099</v>
+        <v>1004</v>
       </c>
       <c r="E174" s="6">
         <v>43</v>
@@ -13211,10 +12502,10 @@
         <v>105010112</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1004</v>
+        <v>909</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>1100</v>
+        <v>1005</v>
       </c>
       <c r="E175" s="6">
         <v>43</v>
@@ -13251,10 +12542,10 @@
         <v>105010201</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1005</v>
+        <v>910</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>1101</v>
+        <v>1006</v>
       </c>
       <c r="E176" s="6">
         <v>43</v>
@@ -13291,10 +12582,10 @@
         <v>105010202</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1006</v>
+        <v>911</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>1102</v>
+        <v>1007</v>
       </c>
       <c r="E177" s="6">
         <v>43</v>
@@ -13331,10 +12622,10 @@
         <v>105010203</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1007</v>
+        <v>912</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>1103</v>
+        <v>1008</v>
       </c>
       <c r="E178" s="6">
         <v>43</v>
@@ -13371,10 +12662,10 @@
         <v>105010204</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1008</v>
+        <v>913</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>1104</v>
+        <v>1009</v>
       </c>
       <c r="E179" s="6">
         <v>43</v>
@@ -13411,10 +12702,10 @@
         <v>105010205</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1009</v>
+        <v>914</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>1105</v>
+        <v>1010</v>
       </c>
       <c r="E180" s="6">
         <v>43</v>
@@ -13451,10 +12742,10 @@
         <v>105010206</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1010</v>
+        <v>915</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>1106</v>
+        <v>1011</v>
       </c>
       <c r="E181" s="6">
         <v>43</v>
@@ -13491,10 +12782,10 @@
         <v>105010207</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1011</v>
+        <v>916</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>1107</v>
+        <v>1012</v>
       </c>
       <c r="E182" s="6">
         <v>43</v>
@@ -13531,10 +12822,10 @@
         <v>105010208</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1012</v>
+        <v>917</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>1108</v>
+        <v>1013</v>
       </c>
       <c r="E183" s="6">
         <v>43</v>
@@ -13571,10 +12862,10 @@
         <v>105010209</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1013</v>
+        <v>918</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>1109</v>
+        <v>1014</v>
       </c>
       <c r="E184" s="6">
         <v>43</v>
@@ -13611,10 +12902,10 @@
         <v>105010210</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1014</v>
+        <v>919</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>1110</v>
+        <v>1015</v>
       </c>
       <c r="E185" s="6">
         <v>43</v>
@@ -13651,10 +12942,10 @@
         <v>105010211</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>1015</v>
+        <v>920</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>1111</v>
+        <v>1016</v>
       </c>
       <c r="E186" s="6">
         <v>43</v>
@@ -13691,10 +12982,10 @@
         <v>105010212</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>1016</v>
+        <v>921</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>1112</v>
+        <v>1017</v>
       </c>
       <c r="E187" s="6">
         <v>43</v>
@@ -13731,10 +13022,10 @@
         <v>105010301</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>1017</v>
+        <v>922</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>1113</v>
+        <v>1018</v>
       </c>
       <c r="E188" s="6">
         <v>43</v>
@@ -13771,10 +13062,10 @@
         <v>105010302</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>1018</v>
+        <v>923</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>1114</v>
+        <v>1019</v>
       </c>
       <c r="E189" s="6">
         <v>43</v>
@@ -13811,10 +13102,10 @@
         <v>105010303</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>1019</v>
+        <v>924</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>1115</v>
+        <v>1020</v>
       </c>
       <c r="E190" s="6">
         <v>43</v>
@@ -13851,10 +13142,10 @@
         <v>105010304</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>1020</v>
+        <v>925</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>1116</v>
+        <v>1021</v>
       </c>
       <c r="E191" s="6">
         <v>43</v>
@@ -13891,10 +13182,10 @@
         <v>105010305</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>1021</v>
+        <v>926</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>1117</v>
+        <v>1022</v>
       </c>
       <c r="E192" s="6">
         <v>43</v>
@@ -13931,10 +13222,10 @@
         <v>105010306</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>1022</v>
+        <v>927</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>1118</v>
+        <v>1023</v>
       </c>
       <c r="E193" s="6">
         <v>43</v>
@@ -13971,10 +13262,10 @@
         <v>105010307</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>1023</v>
+        <v>928</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>1119</v>
+        <v>1024</v>
       </c>
       <c r="E194" s="6">
         <v>43</v>
@@ -14011,10 +13302,10 @@
         <v>105010308</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1024</v>
+        <v>929</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>1120</v>
+        <v>1025</v>
       </c>
       <c r="E195" s="6">
         <v>43</v>
@@ -14051,10 +13342,10 @@
         <v>105010309</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1025</v>
+        <v>930</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1121</v>
+        <v>1026</v>
       </c>
       <c r="E196" s="6">
         <v>43</v>
@@ -14091,10 +13382,10 @@
         <v>105010310</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1026</v>
+        <v>931</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1122</v>
+        <v>1027</v>
       </c>
       <c r="E197" s="6">
         <v>43</v>
@@ -14131,10 +13422,10 @@
         <v>105010311</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1027</v>
+        <v>932</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1123</v>
+        <v>1028</v>
       </c>
       <c r="E198" s="6">
         <v>43</v>
@@ -14171,10 +13462,10 @@
         <v>105010312</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1028</v>
+        <v>933</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>1124</v>
+        <v>1029</v>
       </c>
       <c r="E199" s="6">
         <v>43</v>
@@ -14211,10 +13502,10 @@
         <v>105010401</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1029</v>
+        <v>934</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>1125</v>
+        <v>1030</v>
       </c>
       <c r="E200" s="6">
         <v>43</v>
@@ -14251,10 +13542,10 @@
         <v>105010402</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1030</v>
+        <v>935</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>1126</v>
+        <v>1031</v>
       </c>
       <c r="E201" s="6">
         <v>43</v>
@@ -14291,10 +13582,10 @@
         <v>105010403</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>1031</v>
+        <v>936</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>1127</v>
+        <v>1032</v>
       </c>
       <c r="E202" s="6">
         <v>43</v>
@@ -14331,10 +13622,10 @@
         <v>105010404</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>1032</v>
+        <v>937</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>1128</v>
+        <v>1033</v>
       </c>
       <c r="E203" s="6">
         <v>43</v>
@@ -14371,10 +13662,10 @@
         <v>105010405</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>1033</v>
+        <v>938</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>1129</v>
+        <v>1034</v>
       </c>
       <c r="E204" s="6">
         <v>43</v>
@@ -14411,10 +13702,10 @@
         <v>105010406</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>1034</v>
+        <v>939</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>1130</v>
+        <v>1035</v>
       </c>
       <c r="E205" s="6">
         <v>43</v>
@@ -14451,10 +13742,10 @@
         <v>105010407</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1035</v>
+        <v>940</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>1131</v>
+        <v>1036</v>
       </c>
       <c r="E206" s="6">
         <v>43</v>
@@ -14491,10 +13782,10 @@
         <v>105010408</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1036</v>
+        <v>941</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>1132</v>
+        <v>1037</v>
       </c>
       <c r="E207" s="6">
         <v>43</v>
@@ -14531,10 +13822,10 @@
         <v>105010409</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>1037</v>
+        <v>942</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>1133</v>
+        <v>1038</v>
       </c>
       <c r="E208" s="6">
         <v>43</v>
@@ -14571,10 +13862,10 @@
         <v>105010410</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>1038</v>
+        <v>943</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>1134</v>
+        <v>1039</v>
       </c>
       <c r="E209" s="6">
         <v>43</v>
@@ -14611,10 +13902,10 @@
         <v>105010411</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>1039</v>
+        <v>944</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>1135</v>
+        <v>1040</v>
       </c>
       <c r="E210" s="6">
         <v>43</v>
@@ -14651,10 +13942,10 @@
         <v>105010412</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>1040</v>
+        <v>945</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>1136</v>
+        <v>1041</v>
       </c>
       <c r="E211" s="6">
         <v>43</v>
@@ -14691,10 +13982,10 @@
         <v>105010501</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>1041</v>
+        <v>946</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>1137</v>
+        <v>1042</v>
       </c>
       <c r="E212" s="6">
         <v>43</v>
@@ -14731,10 +14022,10 @@
         <v>105010502</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>1042</v>
+        <v>947</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="E213" s="6">
         <v>43</v>
@@ -14771,10 +14062,10 @@
         <v>105010503</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>1043</v>
+        <v>948</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>1139</v>
+        <v>1044</v>
       </c>
       <c r="E214" s="6">
         <v>43</v>
@@ -14811,10 +14102,10 @@
         <v>105010504</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>1044</v>
+        <v>949</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>1140</v>
+        <v>1045</v>
       </c>
       <c r="E215" s="6">
         <v>43</v>
@@ -14851,10 +14142,10 @@
         <v>105010505</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1045</v>
+        <v>950</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>1141</v>
+        <v>1046</v>
       </c>
       <c r="E216" s="6">
         <v>43</v>
@@ -14891,10 +14182,10 @@
         <v>105010506</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1046</v>
+        <v>951</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>1142</v>
+        <v>1047</v>
       </c>
       <c r="E217" s="6">
         <v>43</v>
@@ -14931,10 +14222,10 @@
         <v>105010507</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>1047</v>
+        <v>952</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>1143</v>
+        <v>1048</v>
       </c>
       <c r="E218" s="6">
         <v>43</v>
@@ -14971,10 +14262,10 @@
         <v>105010508</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>1048</v>
+        <v>953</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>1144</v>
+        <v>1049</v>
       </c>
       <c r="E219" s="6">
         <v>43</v>
@@ -15011,10 +14302,10 @@
         <v>105010509</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>1049</v>
+        <v>954</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>1145</v>
+        <v>1050</v>
       </c>
       <c r="E220" s="6">
         <v>43</v>
@@ -15051,10 +14342,10 @@
         <v>105010510</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>1050</v>
+        <v>955</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>1146</v>
+        <v>1051</v>
       </c>
       <c r="E221" s="6">
         <v>43</v>
@@ -15091,10 +14382,10 @@
         <v>105010511</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>1051</v>
+        <v>956</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>1147</v>
+        <v>1052</v>
       </c>
       <c r="E222" s="6">
         <v>43</v>
@@ -15131,10 +14422,10 @@
         <v>105010512</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>1052</v>
+        <v>957</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>1148</v>
+        <v>1053</v>
       </c>
       <c r="E223" s="6">
         <v>43</v>
@@ -15171,10 +14462,10 @@
         <v>105010601</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1053</v>
+        <v>958</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>1149</v>
+        <v>1054</v>
       </c>
       <c r="E224" s="6">
         <v>43</v>
@@ -15211,10 +14502,10 @@
         <v>105010602</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1054</v>
+        <v>959</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>1150</v>
+        <v>1055</v>
       </c>
       <c r="E225" s="6">
         <v>43</v>
@@ -15251,10 +14542,10 @@
         <v>105010603</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>1055</v>
+        <v>960</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>1151</v>
+        <v>1056</v>
       </c>
       <c r="E226" s="6">
         <v>43</v>
@@ -15291,10 +14582,10 @@
         <v>105010604</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>1056</v>
+        <v>961</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>1152</v>
+        <v>1057</v>
       </c>
       <c r="E227" s="6">
         <v>43</v>
@@ -15331,10 +14622,10 @@
         <v>105010605</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>1057</v>
+        <v>962</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>1153</v>
+        <v>1058</v>
       </c>
       <c r="E228" s="6">
         <v>43</v>
@@ -15371,10 +14662,10 @@
         <v>105010606</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>1154</v>
+        <v>1059</v>
       </c>
       <c r="E229" s="6">
         <v>43</v>
@@ -15411,10 +14702,10 @@
         <v>105010607</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>1059</v>
+        <v>964</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>1155</v>
+        <v>1060</v>
       </c>
       <c r="E230" s="6">
         <v>43</v>
@@ -15451,10 +14742,10 @@
         <v>105010608</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>1060</v>
+        <v>965</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>1156</v>
+        <v>1061</v>
       </c>
       <c r="E231" s="6">
         <v>43</v>
@@ -15491,10 +14782,10 @@
         <v>105010609</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>1061</v>
+        <v>966</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>1157</v>
+        <v>1062</v>
       </c>
       <c r="E232" s="6">
         <v>43</v>
@@ -15531,10 +14822,10 @@
         <v>105010610</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>1062</v>
+        <v>967</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>1158</v>
+        <v>1063</v>
       </c>
       <c r="E233" s="6">
         <v>43</v>
@@ -15571,10 +14862,10 @@
         <v>105010611</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1063</v>
+        <v>968</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>1159</v>
+        <v>1064</v>
       </c>
       <c r="E234" s="6">
         <v>43</v>
@@ -15611,10 +14902,10 @@
         <v>105010612</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>1064</v>
+        <v>969</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>1160</v>
+        <v>1065</v>
       </c>
       <c r="E235" s="6">
         <v>43</v>
@@ -15651,10 +14942,10 @@
         <v>105010701</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>1065</v>
+        <v>970</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>1161</v>
+        <v>1066</v>
       </c>
       <c r="E236" s="6">
         <v>43</v>
@@ -15691,10 +14982,10 @@
         <v>105010702</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>1066</v>
+        <v>971</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>1162</v>
+        <v>1067</v>
       </c>
       <c r="E237" s="6">
         <v>43</v>
@@ -15731,10 +15022,10 @@
         <v>105010703</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>1067</v>
+        <v>972</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>1163</v>
+        <v>1068</v>
       </c>
       <c r="E238" s="6">
         <v>43</v>
@@ -15771,10 +15062,10 @@
         <v>105010704</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>1068</v>
+        <v>973</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>1164</v>
+        <v>1069</v>
       </c>
       <c r="E239" s="6">
         <v>43</v>
@@ -15811,10 +15102,10 @@
         <v>105010705</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>1069</v>
+        <v>974</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>1165</v>
+        <v>1070</v>
       </c>
       <c r="E240" s="6">
         <v>43</v>
@@ -15851,10 +15142,10 @@
         <v>105010706</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>1070</v>
+        <v>975</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>1166</v>
+        <v>1071</v>
       </c>
       <c r="E241" s="6">
         <v>43</v>
@@ -15891,10 +15182,10 @@
         <v>105010707</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>1071</v>
+        <v>976</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>1167</v>
+        <v>1072</v>
       </c>
       <c r="E242" s="6">
         <v>43</v>
@@ -15931,10 +15222,10 @@
         <v>105010708</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>1072</v>
+        <v>977</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>1168</v>
+        <v>1073</v>
       </c>
       <c r="E243" s="6">
         <v>43</v>
@@ -15971,10 +15262,10 @@
         <v>105010709</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>1073</v>
+        <v>978</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>1169</v>
+        <v>1074</v>
       </c>
       <c r="E244" s="6">
         <v>43</v>
@@ -16011,10 +15302,10 @@
         <v>105010710</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>1074</v>
+        <v>979</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>1170</v>
+        <v>1075</v>
       </c>
       <c r="E245" s="6">
         <v>43</v>
@@ -16051,10 +15342,10 @@
         <v>105010711</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>1075</v>
+        <v>980</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>1171</v>
+        <v>1076</v>
       </c>
       <c r="E246" s="6">
         <v>43</v>
@@ -16091,10 +15382,10 @@
         <v>105010712</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>1076</v>
+        <v>981</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>1172</v>
+        <v>1077</v>
       </c>
       <c r="E247" s="6">
         <v>43</v>
@@ -16131,10 +15422,10 @@
         <v>105010801</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>1077</v>
+        <v>982</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>1173</v>
+        <v>1078</v>
       </c>
       <c r="E248" s="6">
         <v>43</v>
@@ -16171,10 +15462,10 @@
         <v>105010802</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>1078</v>
+        <v>983</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>1174</v>
+        <v>1079</v>
       </c>
       <c r="E249" s="6">
         <v>43</v>
@@ -16211,10 +15502,10 @@
         <v>105010803</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>1079</v>
+        <v>984</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>1175</v>
+        <v>1080</v>
       </c>
       <c r="E250" s="6">
         <v>43</v>
@@ -16251,10 +15542,10 @@
         <v>105010804</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>1080</v>
+        <v>985</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>1176</v>
+        <v>1081</v>
       </c>
       <c r="E251" s="6">
         <v>43</v>
@@ -16291,10 +15582,10 @@
         <v>105010805</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>1081</v>
+        <v>986</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>1177</v>
+        <v>1082</v>
       </c>
       <c r="E252" s="6">
         <v>43</v>
@@ -16331,10 +15622,10 @@
         <v>105010806</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>1082</v>
+        <v>987</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>1178</v>
+        <v>1083</v>
       </c>
       <c r="E253" s="6">
         <v>43</v>
@@ -16371,10 +15662,10 @@
         <v>105010807</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>1083</v>
+        <v>988</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>1179</v>
+        <v>1084</v>
       </c>
       <c r="E254" s="6">
         <v>43</v>
@@ -16411,10 +15702,10 @@
         <v>105010808</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>1084</v>
+        <v>989</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>1180</v>
+        <v>1085</v>
       </c>
       <c r="E255" s="6">
         <v>43</v>
@@ -16451,10 +15742,10 @@
         <v>105010809</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>1085</v>
+        <v>990</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>1181</v>
+        <v>1086</v>
       </c>
       <c r="E256" s="6">
         <v>43</v>
@@ -16491,10 +15782,10 @@
         <v>105010810</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>1086</v>
+        <v>991</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>1182</v>
+        <v>1087</v>
       </c>
       <c r="E257" s="6">
         <v>43</v>
@@ -16531,10 +15822,10 @@
         <v>105010811</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>1087</v>
+        <v>992</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>1183</v>
+        <v>1088</v>
       </c>
       <c r="E258" s="6">
         <v>43</v>
@@ -16571,10 +15862,10 @@
         <v>105010812</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>1088</v>
+        <v>993</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>1184</v>
+        <v>1089</v>
       </c>
       <c r="E259" s="6">
         <v>43</v>
@@ -19312,7 +18603,7 @@
         <v>394</v>
       </c>
       <c r="D331" s="24" t="s">
-        <v>1262</v>
+        <v>1154</v>
       </c>
       <c r="E331" s="12">
         <v>20</v>
@@ -19350,7 +18641,7 @@
         <v>395</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>1263</v>
+        <v>1155</v>
       </c>
       <c r="E332" s="12">
         <v>20</v>
@@ -19388,7 +18679,7 @@
         <v>396</v>
       </c>
       <c r="D333" s="24" t="s">
-        <v>1264</v>
+        <v>1156</v>
       </c>
       <c r="E333" s="12">
         <v>20</v>
@@ -19426,7 +18717,7 @@
         <v>397</v>
       </c>
       <c r="D334" s="24" t="s">
-        <v>1265</v>
+        <v>1157</v>
       </c>
       <c r="E334" s="12">
         <v>20</v>
@@ -19464,7 +18755,7 @@
         <v>398</v>
       </c>
       <c r="D335" s="24" t="s">
-        <v>1266</v>
+        <v>1158</v>
       </c>
       <c r="E335" s="12">
         <v>20</v>
@@ -19502,7 +18793,7 @@
         <v>399</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>1267</v>
+        <v>1159</v>
       </c>
       <c r="E336" s="12">
         <v>20</v>
@@ -19537,10 +18828,10 @@
         <v>107020012</v>
       </c>
       <c r="C337" s="24" t="s">
-        <v>1268</v>
+        <v>1160</v>
       </c>
       <c r="D337" s="24" t="s">
-        <v>1269</v>
+        <v>1161</v>
       </c>
       <c r="E337" s="12">
         <v>20</v>
@@ -19575,10 +18866,10 @@
         <v>107020013</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>1270</v>
+        <v>1162</v>
       </c>
       <c r="D338" s="24" t="s">
-        <v>1272</v>
+        <v>1164</v>
       </c>
       <c r="E338" s="12">
         <v>20</v>
@@ -19613,10 +18904,10 @@
         <v>107020014</v>
       </c>
       <c r="C339" s="24" t="s">
-        <v>1271</v>
+        <v>1163</v>
       </c>
       <c r="D339" s="24" t="s">
-        <v>1273</v>
+        <v>1165</v>
       </c>
       <c r="E339" s="12">
         <v>20</v>
@@ -19651,10 +18942,10 @@
         <v>107030001</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>1212</v>
+        <v>1105</v>
       </c>
       <c r="D340" s="23" t="s">
-        <v>1213</v>
+        <v>1106</v>
       </c>
       <c r="E340" s="11">
         <v>32</v>
@@ -20107,7 +19398,7 @@
         <v>108020001</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>972</v>
+        <v>887</v>
       </c>
       <c r="D352" s="11" t="s">
         <v>422</v>
@@ -20145,7 +19436,7 @@
         <v>108020002</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>973</v>
+        <v>888</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>423</v>
@@ -20183,7 +19474,7 @@
         <v>108020003</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>974</v>
+        <v>889</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>424</v>
@@ -20221,7 +19512,7 @@
         <v>108020004</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>975</v>
+        <v>890</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>425</v>
@@ -20259,7 +19550,7 @@
         <v>108020005</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>976</v>
+        <v>891</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>426</v>
@@ -20297,7 +19588,7 @@
         <v>108020006</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>977</v>
+        <v>892</v>
       </c>
       <c r="D357" s="11" t="s">
         <v>427</v>
@@ -20335,7 +19626,7 @@
         <v>108020007</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>978</v>
+        <v>893</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>428</v>
@@ -20373,7 +19664,7 @@
         <v>108020008</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>979</v>
+        <v>894</v>
       </c>
       <c r="D359" s="11" t="s">
         <v>429</v>
@@ -22121,10 +21412,10 @@
         <v>201010011</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>1186</v>
+        <v>1090</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>1186</v>
+        <v>1090</v>
       </c>
       <c r="E405" s="6">
         <v>9</v>
@@ -22159,10 +21450,10 @@
         <v>201010012</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="E406" s="6">
         <v>9</v>
@@ -22197,10 +21488,10 @@
         <v>201010013</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="E407" s="6">
         <v>9</v>
@@ -22235,10 +21526,10 @@
         <v>201010014</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>915</v>
+        <v>831</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>915</v>
+        <v>831</v>
       </c>
       <c r="E408" s="6">
         <v>9</v>
@@ -22273,10 +21564,10 @@
         <v>201010015</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>916</v>
+        <v>832</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>916</v>
+        <v>832</v>
       </c>
       <c r="E409" s="6">
         <v>9</v>
@@ -22311,10 +21602,10 @@
         <v>201010016</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>1193</v>
+        <v>1091</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>1193</v>
+        <v>1091</v>
       </c>
       <c r="E410" s="6">
         <v>9</v>
@@ -22349,10 +21640,10 @@
         <v>201010017</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>1198</v>
+        <v>1096</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>1198</v>
+        <v>1096</v>
       </c>
       <c r="E411" s="6">
         <v>9</v>
@@ -22387,10 +21678,10 @@
         <v>201010018</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>850</v>
+        <v>821</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>850</v>
+        <v>821</v>
       </c>
       <c r="E412" s="6">
         <v>9</v>
@@ -22425,10 +21716,10 @@
         <v>201010019</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="E413" s="6">
         <v>9</v>
@@ -22501,10 +21792,10 @@
         <v>201010021</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="E415" s="6">
         <v>9</v>
@@ -22539,10 +21830,10 @@
         <v>201010022</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="E416" s="6">
         <v>9</v>
@@ -22577,10 +21868,10 @@
         <v>201010023</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="E417" s="6">
         <v>9</v>
@@ -22615,10 +21906,10 @@
         <v>201010024</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>1202</v>
+        <v>1099</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>1202</v>
+        <v>1099</v>
       </c>
       <c r="E418" s="6">
         <v>9</v>
@@ -22653,10 +21944,10 @@
         <v>201010025</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>1203</v>
+        <v>1100</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>1203</v>
+        <v>1100</v>
       </c>
       <c r="E419" s="6">
         <v>9</v>
@@ -22691,10 +21982,10 @@
         <v>201010026</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>1215</v>
+        <v>1107</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>1215</v>
+        <v>1107</v>
       </c>
       <c r="E420" s="6">
         <v>9</v>
@@ -22729,10 +22020,10 @@
         <v>201010027</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="E421" s="6">
         <v>9</v>
@@ -22767,10 +22058,10 @@
         <v>201010028</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="E422" s="6">
         <v>9</v>
@@ -22805,10 +22096,10 @@
         <v>201010029</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="E423" s="6">
         <v>9</v>
@@ -22881,10 +22172,10 @@
         <v>201010031</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>1210</v>
+        <v>1104</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>1210</v>
+        <v>1104</v>
       </c>
       <c r="E425" s="6">
         <v>9</v>
@@ -22919,10 +22210,10 @@
         <v>201010032</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="E426" s="6">
         <v>9</v>
@@ -22957,10 +22248,10 @@
         <v>201010033</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>1216</v>
+        <v>1108</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>1216</v>
+        <v>1108</v>
       </c>
       <c r="E427" s="6">
         <v>9</v>
@@ -22995,10 +22286,10 @@
         <v>201010034</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>1217</v>
+        <v>1109</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>1217</v>
+        <v>1109</v>
       </c>
       <c r="E428" s="6">
         <v>9</v>
@@ -23033,10 +22324,10 @@
         <v>201010035</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>1218</v>
+        <v>1110</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>1218</v>
+        <v>1110</v>
       </c>
       <c r="E429" s="6">
         <v>9</v>
@@ -23071,10 +22362,10 @@
         <v>201010036</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>903</v>
+        <v>830</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>903</v>
+        <v>830</v>
       </c>
       <c r="E430" s="6">
         <v>9</v>
@@ -23109,10 +22400,10 @@
         <v>201010037</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>1219</v>
+        <v>1111</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>1219</v>
+        <v>1111</v>
       </c>
       <c r="E431" s="6">
         <v>9</v>
@@ -23147,10 +22438,10 @@
         <v>201010038</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>1220</v>
+        <v>1112</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>1220</v>
+        <v>1112</v>
       </c>
       <c r="E432" s="6">
         <v>9</v>
@@ -23185,10 +22476,10 @@
         <v>201010039</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>1221</v>
+        <v>1113</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>1221</v>
+        <v>1113</v>
       </c>
       <c r="E433" s="6">
         <v>9</v>
@@ -23261,10 +22552,10 @@
         <v>201010041</v>
       </c>
       <c r="C435" s="20" t="s">
-        <v>1222</v>
+        <v>1114</v>
       </c>
       <c r="D435" s="20" t="s">
-        <v>1222</v>
+        <v>1114</v>
       </c>
       <c r="E435" s="6">
         <v>9</v>
@@ -23337,10 +22628,10 @@
         <v>201010043</v>
       </c>
       <c r="C437" s="20" t="s">
-        <v>1223</v>
+        <v>1115</v>
       </c>
       <c r="D437" s="20" t="s">
-        <v>1223</v>
+        <v>1115</v>
       </c>
       <c r="E437" s="6">
         <v>9</v>
@@ -23413,10 +22704,10 @@
         <v>201010045</v>
       </c>
       <c r="C439" s="20" t="s">
-        <v>1224</v>
+        <v>1116</v>
       </c>
       <c r="D439" s="20" t="s">
-        <v>1224</v>
+        <v>1116</v>
       </c>
       <c r="E439" s="6">
         <v>9</v>
@@ -23489,10 +22780,10 @@
         <v>201010047</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>1225</v>
+        <v>1117</v>
       </c>
       <c r="D441" s="20" t="s">
-        <v>1225</v>
+        <v>1117</v>
       </c>
       <c r="E441" s="6">
         <v>9</v>
@@ -28327,10 +27618,10 @@
         <v>602020001</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>1226</v>
+        <v>1118</v>
       </c>
       <c r="D565" s="6" t="s">
-        <v>1226</v>
+        <v>1118</v>
       </c>
       <c r="E565" s="6">
         <v>44</v>
@@ -28365,10 +27656,10 @@
         <v>602020002</v>
       </c>
       <c r="C566" s="6" t="s">
-        <v>1227</v>
+        <v>1119</v>
       </c>
       <c r="D566" s="6" t="s">
-        <v>1227</v>
+        <v>1119</v>
       </c>
       <c r="E566" s="6">
         <v>44</v>
@@ -28403,10 +27694,10 @@
         <v>602020003</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>1228</v>
+        <v>1120</v>
       </c>
       <c r="D567" s="6" t="s">
-        <v>1228</v>
+        <v>1120</v>
       </c>
       <c r="E567" s="6">
         <v>44</v>
@@ -28441,10 +27732,10 @@
         <v>602020004</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>1229</v>
+        <v>1121</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>1229</v>
+        <v>1121</v>
       </c>
       <c r="E568" s="6">
         <v>44</v>
@@ -28479,10 +27770,10 @@
         <v>602020005</v>
       </c>
       <c r="C569" s="20" t="s">
-        <v>1235</v>
+        <v>1127</v>
       </c>
       <c r="D569" s="20" t="s">
-        <v>1235</v>
+        <v>1127</v>
       </c>
       <c r="E569" s="6">
         <v>44</v>
@@ -28517,10 +27808,10 @@
         <v>602020006</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>1230</v>
+        <v>1122</v>
       </c>
       <c r="D570" s="6" t="s">
-        <v>1230</v>
+        <v>1122</v>
       </c>
       <c r="E570" s="6">
         <v>44</v>
@@ -28555,10 +27846,10 @@
         <v>602020007</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>1232</v>
+        <v>1124</v>
       </c>
       <c r="D571" s="6" t="s">
-        <v>1232</v>
+        <v>1124</v>
       </c>
       <c r="E571" s="6">
         <v>44</v>
@@ -28593,10 +27884,10 @@
         <v>602020008</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>1233</v>
+        <v>1125</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>1233</v>
+        <v>1125</v>
       </c>
       <c r="E572" s="6">
         <v>44</v>
@@ -28631,10 +27922,10 @@
         <v>602020009</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>1234</v>
+        <v>1126</v>
       </c>
       <c r="D573" s="6" t="s">
-        <v>1234</v>
+        <v>1126</v>
       </c>
       <c r="E573" s="6">
         <v>44</v>
@@ -28669,10 +27960,10 @@
         <v>602020010</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>1231</v>
+        <v>1123</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>1231</v>
+        <v>1123</v>
       </c>
       <c r="E574" s="6">
         <v>44</v>
@@ -28707,10 +27998,10 @@
         <v>407010001</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>1301</v>
+        <v>1193</v>
       </c>
       <c r="D575" s="6" t="s">
-        <v>1311</v>
+        <v>1203</v>
       </c>
       <c r="E575" s="6">
         <v>46</v>
@@ -28745,10 +28036,10 @@
         <v>407010002</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>1302</v>
+        <v>1194</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="E576" s="6">
         <v>46</v>
@@ -28783,10 +28074,10 @@
         <v>407010003</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>1303</v>
+        <v>1195</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>1313</v>
+        <v>1205</v>
       </c>
       <c r="E577" s="6">
         <v>46</v>
@@ -28821,10 +28112,10 @@
         <v>407010004</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>1304</v>
+        <v>1196</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>1314</v>
+        <v>1206</v>
       </c>
       <c r="E578" s="6">
         <v>46</v>
@@ -28859,10 +28150,10 @@
         <v>407010005</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>1305</v>
+        <v>1197</v>
       </c>
       <c r="D579" s="6" t="s">
-        <v>1315</v>
+        <v>1207</v>
       </c>
       <c r="E579" s="6">
         <v>46</v>
@@ -28897,10 +28188,10 @@
         <v>407010006</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>1306</v>
+        <v>1198</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>1316</v>
+        <v>1208</v>
       </c>
       <c r="E580" s="6">
         <v>46</v>
@@ -28935,10 +28226,10 @@
         <v>407010007</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>1307</v>
+        <v>1199</v>
       </c>
       <c r="D581" s="6" t="s">
-        <v>1317</v>
+        <v>1209</v>
       </c>
       <c r="E581" s="6">
         <v>46</v>
@@ -28973,10 +28264,10 @@
         <v>407010008</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>1308</v>
+        <v>1200</v>
       </c>
       <c r="D582" s="6" t="s">
-        <v>1318</v>
+        <v>1210</v>
       </c>
       <c r="E582" s="6">
         <v>46</v>
@@ -29011,10 +28302,10 @@
         <v>407010009</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>1309</v>
+        <v>1201</v>
       </c>
       <c r="D583" s="6" t="s">
-        <v>1319</v>
+        <v>1211</v>
       </c>
       <c r="E583" s="6">
         <v>46</v>
@@ -29049,10 +28340,10 @@
         <v>407010010</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>1310</v>
+        <v>1202</v>
       </c>
       <c r="D584" s="6" t="s">
-        <v>1320</v>
+        <v>1212</v>
       </c>
       <c r="E584" s="6">
         <v>46</v>
@@ -29087,10 +28378,10 @@
         <v>407021101</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>1343</v>
+        <v>1226</v>
       </c>
       <c r="D585" s="6" t="s">
-        <v>1367</v>
+        <v>1250</v>
       </c>
       <c r="E585" s="6">
         <v>47</v>
@@ -29127,10 +28418,10 @@
         <v>407021102</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>1344</v>
+        <v>1227</v>
       </c>
       <c r="D586" s="6" t="s">
-        <v>1368</v>
+        <v>1251</v>
       </c>
       <c r="E586" s="6">
         <v>47</v>
@@ -29167,10 +28458,10 @@
         <v>407021103</v>
       </c>
       <c r="C587" s="6" t="s">
-        <v>1345</v>
+        <v>1228</v>
       </c>
       <c r="D587" s="6" t="s">
-        <v>1369</v>
+        <v>1252</v>
       </c>
       <c r="E587" s="6">
         <v>47</v>
@@ -29207,10 +28498,10 @@
         <v>407021104</v>
       </c>
       <c r="C588" s="6" t="s">
-        <v>1346</v>
+        <v>1229</v>
       </c>
       <c r="D588" s="6" t="s">
-        <v>1370</v>
+        <v>1253</v>
       </c>
       <c r="E588" s="6">
         <v>47</v>
@@ -29247,10 +28538,10 @@
         <v>407021105</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>1347</v>
+        <v>1230</v>
       </c>
       <c r="D589" s="6" t="s">
-        <v>1371</v>
+        <v>1254</v>
       </c>
       <c r="E589" s="6">
         <v>47</v>
@@ -29287,10 +28578,10 @@
         <v>407021106</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>1348</v>
+        <v>1231</v>
       </c>
       <c r="D590" s="6" t="s">
-        <v>1372</v>
+        <v>1255</v>
       </c>
       <c r="E590" s="6">
         <v>47</v>
@@ -29327,10 +28618,10 @@
         <v>407021107</v>
       </c>
       <c r="C591" s="6" t="s">
-        <v>1349</v>
+        <v>1232</v>
       </c>
       <c r="D591" s="6" t="s">
-        <v>1373</v>
+        <v>1256</v>
       </c>
       <c r="E591" s="6">
         <v>47</v>
@@ -29367,10 +28658,10 @@
         <v>407021108</v>
       </c>
       <c r="C592" s="6" t="s">
-        <v>1350</v>
+        <v>1233</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>1374</v>
+        <v>1257</v>
       </c>
       <c r="E592" s="6">
         <v>47</v>
@@ -29407,10 +28698,10 @@
         <v>407021109</v>
       </c>
       <c r="C593" s="6" t="s">
-        <v>1351</v>
+        <v>1234</v>
       </c>
       <c r="D593" s="6" t="s">
-        <v>1375</v>
+        <v>1258</v>
       </c>
       <c r="E593" s="6">
         <v>47</v>
@@ -29447,10 +28738,10 @@
         <v>407021110</v>
       </c>
       <c r="C594" s="6" t="s">
-        <v>1352</v>
+        <v>1235</v>
       </c>
       <c r="D594" s="6" t="s">
-        <v>1376</v>
+        <v>1259</v>
       </c>
       <c r="E594" s="6">
         <v>47</v>
@@ -29487,10 +28778,10 @@
         <v>407022101</v>
       </c>
       <c r="C595" s="6" t="s">
-        <v>1354</v>
+        <v>1237</v>
       </c>
       <c r="D595" s="6" t="s">
-        <v>1377</v>
+        <v>1260</v>
       </c>
       <c r="E595" s="6">
         <v>47</v>
@@ -29527,10 +28818,10 @@
         <v>407022102</v>
       </c>
       <c r="C596" s="6" t="s">
-        <v>1355</v>
+        <v>1238</v>
       </c>
       <c r="D596" s="6" t="s">
-        <v>1378</v>
+        <v>1261</v>
       </c>
       <c r="E596" s="6">
         <v>47</v>
@@ -29567,10 +28858,10 @@
         <v>407022103</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>1356</v>
+        <v>1239</v>
       </c>
       <c r="D597" s="6" t="s">
-        <v>1379</v>
+        <v>1262</v>
       </c>
       <c r="E597" s="6">
         <v>47</v>
@@ -29607,10 +28898,10 @@
         <v>407022104</v>
       </c>
       <c r="C598" s="6" t="s">
-        <v>1357</v>
+        <v>1240</v>
       </c>
       <c r="D598" s="6" t="s">
-        <v>1380</v>
+        <v>1263</v>
       </c>
       <c r="E598" s="6">
         <v>47</v>
@@ -29647,10 +28938,10 @@
         <v>407022105</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>1358</v>
+        <v>1241</v>
       </c>
       <c r="D599" s="6" t="s">
-        <v>1381</v>
+        <v>1264</v>
       </c>
       <c r="E599" s="6">
         <v>47</v>
@@ -29687,10 +28978,10 @@
         <v>407022106</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>1359</v>
+        <v>1242</v>
       </c>
       <c r="D600" s="6" t="s">
-        <v>1382</v>
+        <v>1265</v>
       </c>
       <c r="E600" s="6">
         <v>47</v>
@@ -29727,10 +29018,10 @@
         <v>407022401</v>
       </c>
       <c r="C601" s="6" t="s">
-        <v>1361</v>
+        <v>1244</v>
       </c>
       <c r="D601" s="6" t="s">
-        <v>1383</v>
+        <v>1266</v>
       </c>
       <c r="E601" s="6">
         <v>47</v>
@@ -29767,10 +29058,10 @@
         <v>407022402</v>
       </c>
       <c r="C602" s="6" t="s">
-        <v>1362</v>
+        <v>1245</v>
       </c>
       <c r="D602" s="6" t="s">
-        <v>1384</v>
+        <v>1267</v>
       </c>
       <c r="E602" s="6">
         <v>47</v>
@@ -29807,10 +29098,10 @@
         <v>407022403</v>
       </c>
       <c r="C603" s="6" t="s">
-        <v>1363</v>
+        <v>1246</v>
       </c>
       <c r="D603" s="6" t="s">
-        <v>1385</v>
+        <v>1268</v>
       </c>
       <c r="E603" s="6">
         <v>47</v>
@@ -29847,10 +29138,10 @@
         <v>407022404</v>
       </c>
       <c r="C604" s="6" t="s">
-        <v>1364</v>
+        <v>1247</v>
       </c>
       <c r="D604" s="6" t="s">
-        <v>1386</v>
+        <v>1269</v>
       </c>
       <c r="E604" s="6">
         <v>47</v>
@@ -29887,10 +29178,10 @@
         <v>407022405</v>
       </c>
       <c r="C605" s="6" t="s">
-        <v>1365</v>
+        <v>1248</v>
       </c>
       <c r="D605" s="6" t="s">
-        <v>1387</v>
+        <v>1270</v>
       </c>
       <c r="E605" s="6">
         <v>47</v>
@@ -29927,10 +29218,10 @@
         <v>407022406</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>1366</v>
+        <v>1249</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>1388</v>
+        <v>1271</v>
       </c>
       <c r="E606" s="6">
         <v>47</v>
@@ -30001,10 +29292,10 @@
         <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>1236</v>
+        <v>1128</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>1244</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -30038,7 +29329,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1275</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -30058,7 +29349,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1276</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -30078,7 +29369,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1277</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -30158,7 +29449,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>1278</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -30180,7 +29471,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>1398</v>
+        <v>1281</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -30192,12 +29483,12 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>1279</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>1324</v>
+        <v>1215</v>
       </c>
       <c r="B12">
         <v>103</v>
@@ -30209,12 +29500,12 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>1280</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>1396</v>
+        <v>1279</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -30229,12 +29520,12 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>1281</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>1397</v>
+        <v>1280</v>
       </c>
       <c r="B14">
         <v>104</v>
@@ -30249,12 +29540,12 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>1282</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>1399</v>
+        <v>1282</v>
       </c>
       <c r="B15">
         <v>104</v>
@@ -30269,12 +29560,12 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>1283</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>1394</v>
+        <v>1277</v>
       </c>
       <c r="B16">
         <v>104</v>
@@ -30289,12 +29580,12 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>1284</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>1395</v>
+        <v>1278</v>
       </c>
       <c r="B17">
         <v>104</v>
@@ -30309,7 +29600,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>1285</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -30332,7 +29623,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>1286</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -30355,7 +29646,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>1287</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -30406,7 +29697,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1242</v>
+        <v>1134</v>
       </c>
       <c r="B22">
         <v>105</v>
@@ -30429,7 +29720,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1243</v>
+        <v>1135</v>
       </c>
       <c r="B23">
         <v>105</v>
@@ -30470,7 +29761,7 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>1288</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -30498,7 +29789,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>1248</v>
+        <v>1140</v>
       </c>
       <c r="B26">
         <v>105</v>
@@ -30518,7 +29809,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>1249</v>
+        <v>1141</v>
       </c>
       <c r="B27">
         <v>105</v>
@@ -30570,7 +29861,7 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>1289</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -30590,7 +29881,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>1290</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -30610,7 +29901,7 @@
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>1291</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -30630,7 +29921,7 @@
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>1245</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -30650,12 +29941,12 @@
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>1239</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1206</v>
+        <v>1101</v>
       </c>
       <c r="B34">
         <v>106</v>
@@ -30675,7 +29966,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1207</v>
+        <v>1102</v>
       </c>
       <c r="B35">
         <v>106</v>
@@ -30690,12 +29981,12 @@
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>1292</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>1247</v>
+        <v>1139</v>
       </c>
       <c r="B36">
         <v>106</v>
@@ -30710,12 +30001,12 @@
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>1293</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>1208</v>
+        <v>1103</v>
       </c>
       <c r="B37">
         <v>106</v>
@@ -30730,7 +30021,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>1294</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -30770,7 +30061,7 @@
         <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>1295</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -30790,7 +30081,7 @@
         <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>1296</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -30810,7 +30101,7 @@
         <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>1297</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -30830,7 +30121,7 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>1298</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -30850,12 +30141,12 @@
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>1299</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1237</v>
+        <v>1129</v>
       </c>
       <c r="B44">
         <v>107</v>
@@ -30870,12 +30161,12 @@
         <v>46</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>1300</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1238</v>
+        <v>1130</v>
       </c>
       <c r="B45">
         <v>107</v>
@@ -30890,12 +30181,12 @@
         <v>47</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>1341</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>1246</v>
+        <v>1138</v>
       </c>
       <c r="B46">
         <v>107</v>
@@ -30909,7 +30200,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>1240</v>
+        <v>1132</v>
       </c>
       <c r="B47">
         <v>107</v>
@@ -30923,7 +30214,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>1325</v>
+        <v>1216</v>
       </c>
       <c r="B48">
         <v>108</v>
@@ -30937,7 +30228,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>1326</v>
+        <v>1217</v>
       </c>
       <c r="B49">
         <v>108</v>
@@ -30951,7 +30242,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>1327</v>
+        <v>1218</v>
       </c>
       <c r="B50">
         <v>108</v>
@@ -30960,12 +30251,12 @@
         <v>3</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1329</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>1328</v>
+        <v>1219</v>
       </c>
       <c r="B51">
         <v>108</v>
@@ -30974,10 +30265,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1241</v>
+        <v>1133</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>1329</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -31024,7 +30315,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1339</v>
+        <v>1222</v>
       </c>
       <c r="B55">
         <v>204</v>
@@ -31033,7 +30324,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1340</v>
+        <v>1223</v>
       </c>
       <c r="F55" s="19">
         <v>26</v>
@@ -31200,7 +30491,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>1274</v>
+        <v>1166</v>
       </c>
       <c r="B68">
         <v>407</v>
@@ -31214,7 +30505,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>1321</v>
+        <v>1213</v>
       </c>
       <c r="B69">
         <v>407</v>
@@ -31223,7 +30514,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>1322</v>
+        <v>1214</v>
       </c>
       <c r="F69">
         <v>47</v>
@@ -31291,13 +30582,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O274"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E226" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H252" sqref="H252"/>
+      <selection pane="bottomRight" activeCell="F198" sqref="F198:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31321,7 +30612,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>760</v>
@@ -31336,7 +30627,7 @@
         <v>762</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>933</v>
+        <v>848</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>763</v>
@@ -31368,7 +30659,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -31383,7 +30674,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>934</v>
+        <v>849</v>
       </c>
       <c r="J2" t="s">
         <v>769</v>
@@ -31415,7 +30706,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>771</v>
@@ -31462,7 +30753,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1401</v>
+        <v>1284</v>
       </c>
       <c r="E4" s="6">
         <v>102</v>
@@ -31503,7 +30794,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1410</v>
+        <v>1293</v>
       </c>
       <c r="E5" s="6">
         <v>103</v>
@@ -31544,7 +30835,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1411</v>
+        <v>1294</v>
       </c>
       <c r="E6" s="6">
         <v>104</v>
@@ -31585,7 +30876,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1402</v>
+        <v>1285</v>
       </c>
       <c r="E7" s="6">
         <v>105</v>
@@ -31626,7 +30917,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1403</v>
+        <v>1286</v>
       </c>
       <c r="E8" s="6">
         <v>106</v>
@@ -31667,7 +30958,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1404</v>
+        <v>1287</v>
       </c>
       <c r="E9" s="6">
         <v>107</v>
@@ -31708,7 +30999,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1405</v>
+        <v>1288</v>
       </c>
       <c r="E10" s="6">
         <v>108</v>
@@ -31749,7 +31040,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1406</v>
+        <v>1289</v>
       </c>
       <c r="E11" s="6">
         <v>109</v>
@@ -31790,7 +31081,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1407</v>
+        <v>1290</v>
       </c>
       <c r="E12" s="6">
         <v>110</v>
@@ -31831,7 +31122,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1408</v>
+        <v>1291</v>
       </c>
       <c r="E13" s="6">
         <v>111</v>
@@ -31872,7 +31163,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1409</v>
+        <v>1292</v>
       </c>
       <c r="E14" s="6">
         <v>112</v>
@@ -31913,7 +31204,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1412</v>
+        <v>1295</v>
       </c>
       <c r="E15" s="6">
         <v>113</v>
@@ -31954,7 +31245,7 @@
         <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1413</v>
+        <v>1296</v>
       </c>
       <c r="E16" s="6">
         <v>114</v>
@@ -31995,7 +31286,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1414</v>
+        <v>1297</v>
       </c>
       <c r="E17" s="6">
         <v>115</v>
@@ -32036,7 +31327,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1415</v>
+        <v>1298</v>
       </c>
       <c r="E18" s="6">
         <v>116</v>
@@ -32077,7 +31368,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1416</v>
+        <v>1299</v>
       </c>
       <c r="E19" s="6">
         <v>117</v>
@@ -32118,7 +31409,7 @@
         <v>83</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1417</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="6">
         <v>118</v>
@@ -32159,7 +31450,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1418</v>
+        <v>1301</v>
       </c>
       <c r="E21" s="6">
         <v>119</v>
@@ -32200,7 +31491,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1419</v>
+        <v>1302</v>
       </c>
       <c r="E22" s="6">
         <v>120</v>
@@ -32241,10 +31532,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1420</v>
+        <v>1303</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>935</v>
+        <v>850</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -32282,7 +31573,7 @@
         <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1421</v>
+        <v>1304</v>
       </c>
       <c r="E24" s="6">
         <v>202</v>
@@ -32323,7 +31614,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1422</v>
+        <v>1305</v>
       </c>
       <c r="E25" s="6">
         <v>203</v>
@@ -32364,7 +31655,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1423</v>
+        <v>1306</v>
       </c>
       <c r="E26" s="6">
         <v>204</v>
@@ -32405,7 +31696,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1424</v>
+        <v>1307</v>
       </c>
       <c r="E27" s="6">
         <v>205</v>
@@ -32446,7 +31737,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1425</v>
+        <v>1308</v>
       </c>
       <c r="E28" s="6">
         <v>206</v>
@@ -32487,7 +31778,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1426</v>
+        <v>1309</v>
       </c>
       <c r="E29" s="6">
         <v>207</v>
@@ -32528,7 +31819,7 @@
         <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1427</v>
+        <v>1310</v>
       </c>
       <c r="E30" s="6">
         <v>208</v>
@@ -32569,7 +31860,7 @@
         <v>98</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1428</v>
+        <v>1311</v>
       </c>
       <c r="E31" s="6">
         <v>209</v>
@@ -32610,10 +31901,10 @@
         <v>100</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1429</v>
+        <v>1312</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>935</v>
+        <v>850</v>
       </c>
       <c r="F32" s="6">
         <v>2</v>
@@ -32651,7 +31942,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1430</v>
+        <v>1313</v>
       </c>
       <c r="E33" s="6">
         <v>302</v>
@@ -32692,7 +31983,7 @@
         <v>104</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1431</v>
+        <v>1314</v>
       </c>
       <c r="E34" s="6">
         <v>303</v>
@@ -32733,7 +32024,7 @@
         <v>106</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1432</v>
+        <v>1315</v>
       </c>
       <c r="E35" s="6">
         <v>304</v>
@@ -32774,7 +32065,7 @@
         <v>107</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1433</v>
+        <v>1316</v>
       </c>
       <c r="E36" s="6">
         <v>305</v>
@@ -32815,7 +32106,7 @@
         <v>109</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1434</v>
+        <v>1317</v>
       </c>
       <c r="E37" s="6">
         <v>306</v>
@@ -32856,7 +32147,7 @@
         <v>110</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1435</v>
+        <v>1318</v>
       </c>
       <c r="E38" s="6">
         <v>307</v>
@@ -32897,7 +32188,7 @@
         <v>111</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1436</v>
+        <v>1319</v>
       </c>
       <c r="E39" s="6">
         <v>308</v>
@@ -32938,7 +32229,7 @@
         <v>112</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1437</v>
+        <v>1320</v>
       </c>
       <c r="E40" s="6">
         <v>309</v>
@@ -32979,10 +32270,10 @@
         <v>114</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1438</v>
+        <v>1321</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>935</v>
+        <v>850</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
@@ -33020,7 +32311,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1439</v>
+        <v>1322</v>
       </c>
       <c r="E42" s="6">
         <v>402</v>
@@ -33061,7 +32352,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1440</v>
+        <v>1323</v>
       </c>
       <c r="E43" s="6">
         <v>403</v>
@@ -33102,7 +32393,7 @@
         <v>122</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1441</v>
+        <v>1324</v>
       </c>
       <c r="E44" s="6">
         <v>404</v>
@@ -33143,7 +32434,7 @@
         <v>124</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1442</v>
+        <v>1325</v>
       </c>
       <c r="E45" s="6">
         <v>405</v>
@@ -33184,7 +32475,7 @@
         <v>126</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1443</v>
+        <v>1326</v>
       </c>
       <c r="E46" s="6">
         <v>406</v>
@@ -33225,7 +32516,7 @@
         <v>128</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1444</v>
+        <v>1327</v>
       </c>
       <c r="E47" s="6">
         <v>407</v>
@@ -33266,7 +32557,7 @@
         <v>129</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1445</v>
+        <v>1328</v>
       </c>
       <c r="E48" s="6">
         <v>408</v>
@@ -33307,7 +32598,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1446</v>
+        <v>1329</v>
       </c>
       <c r="E49" s="6">
         <v>409</v>
@@ -33348,7 +32639,7 @@
         <v>131</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1447</v>
+        <v>1330</v>
       </c>
       <c r="E50" s="6">
         <v>410</v>
@@ -33389,7 +32680,7 @@
         <v>132</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1448</v>
+        <v>1331</v>
       </c>
       <c r="E51" s="6">
         <v>411</v>
@@ -33430,7 +32721,7 @@
         <v>133</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1449</v>
+        <v>1332</v>
       </c>
       <c r="E52" s="6">
         <v>412</v>
@@ -33471,7 +32762,7 @@
         <v>134</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1450</v>
+        <v>1333</v>
       </c>
       <c r="E53" s="6">
         <v>413</v>
@@ -33512,7 +32803,7 @@
         <v>135</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1451</v>
+        <v>1334</v>
       </c>
       <c r="E54" s="6">
         <v>414</v>
@@ -33553,7 +32844,7 @@
         <v>136</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1452</v>
+        <v>1335</v>
       </c>
       <c r="E55" s="6">
         <v>415</v>
@@ -33594,7 +32885,7 @@
         <v>137</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1453</v>
+        <v>1336</v>
       </c>
       <c r="E56" s="6">
         <v>416</v>
@@ -33635,7 +32926,7 @@
         <v>138</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1454</v>
+        <v>1337</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>781</v>
@@ -33676,7 +32967,7 @@
         <v>139</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1455</v>
+        <v>1338</v>
       </c>
       <c r="E58" s="6">
         <v>502</v>
@@ -33717,7 +33008,7 @@
         <v>141</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1456</v>
+        <v>1339</v>
       </c>
       <c r="E59" s="6">
         <v>503</v>
@@ -33758,7 +33049,7 @@
         <v>143</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1457</v>
+        <v>1340</v>
       </c>
       <c r="E60" s="6">
         <v>504</v>
@@ -33799,7 +33090,7 @@
         <v>145</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1458</v>
+        <v>1341</v>
       </c>
       <c r="E61" s="6">
         <v>505</v>
@@ -33840,7 +33131,7 @@
         <v>148</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1459</v>
+        <v>1342</v>
       </c>
       <c r="E62" s="6">
         <v>506</v>
@@ -33881,7 +33172,7 @@
         <v>151</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1460</v>
+        <v>1343</v>
       </c>
       <c r="E63" s="6">
         <v>507</v>
@@ -33922,7 +33213,7 @@
         <v>154</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1461</v>
+        <v>1344</v>
       </c>
       <c r="E64" s="6">
         <v>508</v>
@@ -33963,7 +33254,7 @@
         <v>157</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1462</v>
+        <v>1345</v>
       </c>
       <c r="E65" s="6">
         <v>509</v>
@@ -34004,7 +33295,7 @@
         <v>160</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1463</v>
+        <v>1346</v>
       </c>
       <c r="E66" s="6">
         <v>510</v>
@@ -34045,7 +33336,7 @@
         <v>162</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1464</v>
+        <v>1347</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>781</v>
@@ -34086,7 +33377,7 @@
         <v>164</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1465</v>
+        <v>1348</v>
       </c>
       <c r="E68" s="6">
         <v>602</v>
@@ -34127,7 +33418,7 @@
         <v>166</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1466</v>
+        <v>1349</v>
       </c>
       <c r="E69" s="6">
         <v>603</v>
@@ -34168,7 +33459,7 @@
         <v>169</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1467</v>
+        <v>1350</v>
       </c>
       <c r="E70" s="6">
         <v>604</v>
@@ -34209,7 +33500,7 @@
         <v>172</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1468</v>
+        <v>1351</v>
       </c>
       <c r="E71" s="6">
         <v>605</v>
@@ -34250,7 +33541,7 @@
         <v>175</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1469</v>
+        <v>1352</v>
       </c>
       <c r="E72" s="6">
         <v>606</v>
@@ -34291,7 +33582,7 @@
         <v>179</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1470</v>
+        <v>1353</v>
       </c>
       <c r="E73" s="6">
         <v>607</v>
@@ -34332,7 +33623,7 @@
         <v>182</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1471</v>
+        <v>1354</v>
       </c>
       <c r="E74" s="6">
         <v>608</v>
@@ -34373,7 +33664,7 @@
         <v>184</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1472</v>
+        <v>1355</v>
       </c>
       <c r="E75" s="6">
         <v>609</v>
@@ -34414,7 +33705,7 @@
         <v>186</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1473</v>
+        <v>1356</v>
       </c>
       <c r="E76" s="6">
         <v>610</v>
@@ -34455,7 +33746,7 @@
         <v>188</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1474</v>
+        <v>1357</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>781</v>
@@ -34496,7 +33787,7 @@
         <v>191</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1475</v>
+        <v>1358</v>
       </c>
       <c r="E78" s="6">
         <v>702</v>
@@ -34537,7 +33828,7 @@
         <v>193</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1476</v>
+        <v>1359</v>
       </c>
       <c r="E79" s="6">
         <v>703</v>
@@ -34578,7 +33869,7 @@
         <v>196</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1477</v>
+        <v>1360</v>
       </c>
       <c r="E80" s="6">
         <v>704</v>
@@ -34619,7 +33910,7 @@
         <v>198</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1478</v>
+        <v>1361</v>
       </c>
       <c r="E81" s="6">
         <v>705</v>
@@ -34660,7 +33951,7 @@
         <v>200</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1479</v>
+        <v>1362</v>
       </c>
       <c r="E82" s="6">
         <v>706</v>
@@ -34701,7 +33992,7 @@
         <v>202</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1480</v>
+        <v>1363</v>
       </c>
       <c r="E83" s="6">
         <v>707</v>
@@ -34742,7 +34033,7 @@
         <v>205</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1481</v>
+        <v>1364</v>
       </c>
       <c r="E84" s="6">
         <v>708</v>
@@ -34783,7 +34074,7 @@
         <v>208</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1482</v>
+        <v>1365</v>
       </c>
       <c r="E85" s="6">
         <v>709</v>
@@ -34824,7 +34115,7 @@
         <v>210</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1483</v>
+        <v>1366</v>
       </c>
       <c r="E86" s="6">
         <v>710</v>
@@ -34865,7 +34156,7 @@
         <v>212</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1484</v>
+        <v>1367</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>781</v>
@@ -34903,10 +34194,10 @@
         <v>801</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>972</v>
+        <v>887</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1485</v>
+        <v>1368</v>
       </c>
       <c r="E88" s="6">
         <v>802</v>
@@ -34944,10 +34235,10 @@
         <v>802</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>973</v>
+        <v>888</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1486</v>
+        <v>1369</v>
       </c>
       <c r="E89" s="6">
         <v>803</v>
@@ -34985,10 +34276,10 @@
         <v>803</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>974</v>
+        <v>889</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1487</v>
+        <v>1370</v>
       </c>
       <c r="E90" s="6">
         <v>804</v>
@@ -35026,10 +34317,10 @@
         <v>804</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>975</v>
+        <v>890</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1488</v>
+        <v>1371</v>
       </c>
       <c r="E91" s="6">
         <v>805</v>
@@ -35067,10 +34358,10 @@
         <v>805</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>976</v>
+        <v>891</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1489</v>
+        <v>1372</v>
       </c>
       <c r="E92" s="6">
         <v>806</v>
@@ -35108,10 +34399,10 @@
         <v>806</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>977</v>
+        <v>892</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1490</v>
+        <v>1373</v>
       </c>
       <c r="E93" s="6">
         <v>807</v>
@@ -35149,10 +34440,10 @@
         <v>807</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>978</v>
+        <v>893</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1491</v>
+        <v>1374</v>
       </c>
       <c r="E94" s="6">
         <v>808</v>
@@ -35190,10 +34481,10 @@
         <v>808</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>979</v>
+        <v>894</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1492</v>
+        <v>1375</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>781</v>
@@ -35234,7 +34525,7 @@
         <v>430</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1493</v>
+        <v>1376</v>
       </c>
       <c r="E96" s="6">
         <v>902</v>
@@ -35275,7 +34566,7 @@
         <v>431</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1494</v>
+        <v>1377</v>
       </c>
       <c r="E97" s="6">
         <v>903</v>
@@ -35316,7 +34607,7 @@
         <v>432</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1495</v>
+        <v>1378</v>
       </c>
       <c r="E98" s="6">
         <v>904</v>
@@ -35357,7 +34648,7 @@
         <v>433</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1496</v>
+        <v>1379</v>
       </c>
       <c r="E99" s="6">
         <v>905</v>
@@ -35398,7 +34689,7 @@
         <v>434</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1497</v>
+        <v>1380</v>
       </c>
       <c r="E100" s="6">
         <v>906</v>
@@ -35439,7 +34730,7 @@
         <v>435</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1498</v>
+        <v>1381</v>
       </c>
       <c r="E101" s="6">
         <v>907</v>
@@ -35480,7 +34771,7 @@
         <v>436</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1499</v>
+        <v>1382</v>
       </c>
       <c r="E102" s="6">
         <v>908</v>
@@ -35521,7 +34812,7 @@
         <v>437</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1500</v>
+        <v>1383</v>
       </c>
       <c r="E103" s="6">
         <v>909</v>
@@ -35562,7 +34853,7 @@
         <v>438</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1501</v>
+        <v>1384</v>
       </c>
       <c r="E104" s="6">
         <v>910</v>
@@ -35603,7 +34894,7 @@
         <v>439</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1502</v>
+        <v>1385</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>781</v>
@@ -35644,7 +34935,7 @@
         <v>550</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1503</v>
+        <v>1386</v>
       </c>
       <c r="E106" s="6">
         <v>1002</v>
@@ -35691,7 +34982,7 @@
         <v>551</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1504</v>
+        <v>1387</v>
       </c>
       <c r="E107" s="6">
         <v>1003</v>
@@ -35738,7 +35029,7 @@
         <v>552</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1505</v>
+        <v>1388</v>
       </c>
       <c r="E108" s="6">
         <v>1004</v>
@@ -35785,7 +35076,7 @@
         <v>553</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1506</v>
+        <v>1389</v>
       </c>
       <c r="E109" s="6">
         <v>1005</v>
@@ -35832,7 +35123,7 @@
         <v>554</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1507</v>
+        <v>1390</v>
       </c>
       <c r="E110" s="6">
         <v>1006</v>
@@ -35879,7 +35170,7 @@
         <v>555</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1508</v>
+        <v>1391</v>
       </c>
       <c r="E111" s="6">
         <v>1007</v>
@@ -35926,7 +35217,7 @@
         <v>556</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1509</v>
+        <v>1392</v>
       </c>
       <c r="E112" s="6">
         <v>1008</v>
@@ -35973,7 +35264,7 @@
         <v>557</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1510</v>
+        <v>1393</v>
       </c>
       <c r="E113" s="6">
         <v>1009</v>
@@ -36020,7 +35311,7 @@
         <v>558</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1511</v>
+        <v>1394</v>
       </c>
       <c r="E114" s="6">
         <v>1010</v>
@@ -36067,7 +35358,7 @@
         <v>559</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1512</v>
+        <v>1395</v>
       </c>
       <c r="E115" s="6">
         <v>1011</v>
@@ -36114,7 +35405,7 @@
         <v>560</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1513</v>
+        <v>1396</v>
       </c>
       <c r="E116" s="6">
         <v>1012</v>
@@ -36161,7 +35452,7 @@
         <v>561</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1514</v>
+        <v>1397</v>
       </c>
       <c r="E117" s="6">
         <v>1013</v>
@@ -36208,7 +35499,7 @@
         <v>562</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1515</v>
+        <v>1398</v>
       </c>
       <c r="E118" s="6">
         <v>1014</v>
@@ -36255,7 +35546,7 @@
         <v>563</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1516</v>
+        <v>1399</v>
       </c>
       <c r="E119" s="6">
         <v>1015</v>
@@ -36302,7 +35593,7 @@
         <v>564</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1517</v>
+        <v>1400</v>
       </c>
       <c r="E120" s="6">
         <v>1016</v>
@@ -36349,7 +35640,7 @@
         <v>565</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1518</v>
+        <v>1401</v>
       </c>
       <c r="E121" s="6">
         <v>1017</v>
@@ -36396,7 +35687,7 @@
         <v>566</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1519</v>
+        <v>1402</v>
       </c>
       <c r="E122" s="6">
         <v>1018</v>
@@ -36443,7 +35734,7 @@
         <v>567</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1520</v>
+        <v>1403</v>
       </c>
       <c r="E123" s="6">
         <v>1019</v>
@@ -36490,7 +35781,7 @@
         <v>568</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1521</v>
+        <v>1404</v>
       </c>
       <c r="E124" s="6">
         <v>1020</v>
@@ -36537,7 +35828,7 @@
         <v>569</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1522</v>
+        <v>1405</v>
       </c>
       <c r="E125" s="6">
         <v>1021</v>
@@ -36584,7 +35875,7 @@
         <v>570</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1523</v>
+        <v>1406</v>
       </c>
       <c r="E126" s="6">
         <v>1022</v>
@@ -36631,7 +35922,7 @@
         <v>571</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1524</v>
+        <v>1407</v>
       </c>
       <c r="E127" s="6">
         <v>1023</v>
@@ -36678,7 +35969,7 @@
         <v>572</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1525</v>
+        <v>1408</v>
       </c>
       <c r="E128" s="6">
         <v>1024</v>
@@ -36725,7 +36016,7 @@
         <v>573</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1526</v>
+        <v>1409</v>
       </c>
       <c r="E129" s="6">
         <v>1025</v>
@@ -36772,7 +36063,7 @@
         <v>574</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1527</v>
+        <v>1410</v>
       </c>
       <c r="E130" s="6">
         <v>1026</v>
@@ -36819,7 +36110,7 @@
         <v>575</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1528</v>
+        <v>1411</v>
       </c>
       <c r="E131" s="6">
         <v>1027</v>
@@ -36866,7 +36157,7 @@
         <v>576</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1529</v>
+        <v>1412</v>
       </c>
       <c r="E132" s="6">
         <v>1028</v>
@@ -36913,7 +36204,7 @@
         <v>577</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1530</v>
+        <v>1413</v>
       </c>
       <c r="E133" s="6">
         <v>1029</v>
@@ -36960,7 +36251,7 @@
         <v>578</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1531</v>
+        <v>1414</v>
       </c>
       <c r="E134" s="6">
         <v>1030</v>
@@ -37007,7 +36298,7 @@
         <v>579</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1532</v>
+        <v>1415</v>
       </c>
       <c r="E135" s="6">
         <v>1031</v>
@@ -37054,7 +36345,7 @@
         <v>580</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1533</v>
+        <v>1416</v>
       </c>
       <c r="E136" s="6">
         <v>1032</v>
@@ -37101,7 +36392,7 @@
         <v>581</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1534</v>
+        <v>1417</v>
       </c>
       <c r="E137" s="6">
         <v>1033</v>
@@ -37148,7 +36439,7 @@
         <v>582</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1535</v>
+        <v>1418</v>
       </c>
       <c r="E138" s="6">
         <v>1034</v>
@@ -37195,7 +36486,7 @@
         <v>583</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1536</v>
+        <v>1419</v>
       </c>
       <c r="E139" s="6">
         <v>1035</v>
@@ -37242,7 +36533,7 @@
         <v>584</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1537</v>
+        <v>1420</v>
       </c>
       <c r="E140" s="6">
         <v>1036</v>
@@ -37289,7 +36580,7 @@
         <v>585</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1538</v>
+        <v>1421</v>
       </c>
       <c r="E141" s="6">
         <v>1037</v>
@@ -37336,7 +36627,7 @@
         <v>586</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1539</v>
+        <v>1422</v>
       </c>
       <c r="E142" s="6">
         <v>1038</v>
@@ -37383,7 +36674,7 @@
         <v>587</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1540</v>
+        <v>1423</v>
       </c>
       <c r="E143" s="6">
         <v>1039</v>
@@ -37430,7 +36721,7 @@
         <v>588</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1541</v>
+        <v>1424</v>
       </c>
       <c r="E144" s="6">
         <v>1040</v>
@@ -37477,7 +36768,7 @@
         <v>592</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1542</v>
+        <v>1425</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>781</v>
@@ -38567,7 +37858,7 @@
         <v>302020101</v>
       </c>
       <c r="J171" s="20" t="s">
-        <v>980</v>
+        <v>895</v>
       </c>
       <c r="K171" s="6">
         <v>0</v>
@@ -38608,7 +37899,7 @@
         <v>302020102</v>
       </c>
       <c r="J172" s="20" t="s">
-        <v>980</v>
+        <v>895</v>
       </c>
       <c r="K172" s="6">
         <v>0</v>
@@ -38649,7 +37940,7 @@
         <v>302020103</v>
       </c>
       <c r="J173" s="20" t="s">
-        <v>980</v>
+        <v>895</v>
       </c>
       <c r="K173" s="6">
         <v>0</v>
@@ -38690,7 +37981,7 @@
         <v>302020104</v>
       </c>
       <c r="J174" s="20" t="s">
-        <v>980</v>
+        <v>895</v>
       </c>
       <c r="K174" s="6">
         <v>0</v>
@@ -38731,7 +38022,7 @@
         <v>302020105</v>
       </c>
       <c r="J175" s="20" t="s">
-        <v>981</v>
+        <v>896</v>
       </c>
       <c r="K175" s="6">
         <v>0</v>
@@ -38772,7 +38063,7 @@
         <v>302020106</v>
       </c>
       <c r="J176" s="20" t="s">
-        <v>981</v>
+        <v>896</v>
       </c>
       <c r="K176" s="6">
         <v>0</v>
@@ -38813,7 +38104,7 @@
         <v>302020107</v>
       </c>
       <c r="J177" s="20" t="s">
-        <v>981</v>
+        <v>896</v>
       </c>
       <c r="K177" s="6">
         <v>0</v>
@@ -38854,7 +38145,7 @@
         <v>302020108</v>
       </c>
       <c r="J178" s="20" t="s">
-        <v>981</v>
+        <v>896</v>
       </c>
       <c r="K178" s="6">
         <v>0</v>
@@ -38895,7 +38186,7 @@
         <v>302020109</v>
       </c>
       <c r="J179" s="25" t="s">
-        <v>1330</v>
+        <v>1221</v>
       </c>
       <c r="K179" s="6">
         <v>0</v>
@@ -38936,7 +38227,7 @@
         <v>302020110</v>
       </c>
       <c r="J180" s="25" t="s">
-        <v>1330</v>
+        <v>1221</v>
       </c>
       <c r="K180" s="6">
         <v>0</v>
@@ -38977,7 +38268,7 @@
         <v>302020111</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>1330</v>
+        <v>1221</v>
       </c>
       <c r="K181" s="6">
         <v>0</v>
@@ -38994,16 +38285,16 @@
         <v>179</v>
       </c>
       <c r="B182" s="6">
-        <v>1401</v>
+        <v>1501</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>816</v>
+        <v>1272</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="E182" s="6">
-        <v>1402</v>
+        <v>1502</v>
       </c>
       <c r="F182" s="6">
         <v>14</v>
@@ -39014,17 +38305,17 @@
       <c r="H182" s="6">
         <v>1</v>
       </c>
-      <c r="I182" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="J182" s="20" t="s">
-        <v>1323</v>
+      <c r="I182" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K182" s="6">
         <v>0</v>
       </c>
       <c r="L182" s="6">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
@@ -39035,16 +38326,16 @@
         <v>180</v>
       </c>
       <c r="B183" s="6">
-        <v>1402</v>
+        <v>1502</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>820</v>
+        <v>1227</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1551</v>
+        <v>1251</v>
       </c>
       <c r="E183" s="6">
-        <v>1403</v>
+        <v>1503</v>
       </c>
       <c r="F183" s="6">
         <v>14</v>
@@ -39055,17 +38346,17 @@
       <c r="H183" s="6">
         <v>2</v>
       </c>
-      <c r="I183" s="20" t="s">
-        <v>917</v>
-      </c>
-      <c r="J183" s="20" t="s">
-        <v>1323</v>
+      <c r="I183" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K183" s="6">
         <v>0</v>
       </c>
       <c r="L183" s="6">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
@@ -39076,16 +38367,16 @@
         <v>181</v>
       </c>
       <c r="B184" s="6">
-        <v>1403</v>
+        <v>1503</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>821</v>
+        <v>1228</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1552</v>
+        <v>1252</v>
       </c>
       <c r="E184" s="6">
-        <v>1404</v>
+        <v>1504</v>
       </c>
       <c r="F184" s="6">
         <v>14</v>
@@ -39096,17 +38387,17 @@
       <c r="H184" s="6">
         <v>3</v>
       </c>
-      <c r="I184" s="20" t="s">
-        <v>922</v>
-      </c>
-      <c r="J184" s="20" t="s">
-        <v>1323</v>
+      <c r="I184" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K184" s="6">
         <v>0</v>
       </c>
       <c r="L184" s="6">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
@@ -39117,16 +38408,16 @@
         <v>182</v>
       </c>
       <c r="B185" s="6">
-        <v>1404</v>
+        <v>1504</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>822</v>
+        <v>1229</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1553</v>
+        <v>1253</v>
       </c>
       <c r="E185" s="6">
-        <v>1405</v>
+        <v>1505</v>
       </c>
       <c r="F185" s="6">
         <v>14</v>
@@ -39137,17 +38428,17 @@
       <c r="H185" s="6">
         <v>4</v>
       </c>
-      <c r="I185" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="J185" s="20" t="s">
-        <v>1323</v>
+      <c r="I185" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K185" s="6">
         <v>0</v>
       </c>
       <c r="L185" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
@@ -39158,16 +38449,16 @@
         <v>183</v>
       </c>
       <c r="B186" s="6">
-        <v>1405</v>
+        <v>1505</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="D186" s="20" t="s">
-        <v>1554</v>
+        <v>1230</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>1254</v>
       </c>
       <c r="E186" s="6">
-        <v>1406</v>
+        <v>1506</v>
       </c>
       <c r="F186" s="6">
         <v>14</v>
@@ -39178,17 +38469,17 @@
       <c r="H186" s="6">
         <v>5</v>
       </c>
-      <c r="I186" s="20" t="s">
-        <v>984</v>
-      </c>
-      <c r="J186" s="20" t="s">
-        <v>1323</v>
+      <c r="I186" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K186" s="6">
         <v>0</v>
       </c>
       <c r="L186" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
@@ -39199,16 +38490,16 @@
         <v>184</v>
       </c>
       <c r="B187" s="6">
-        <v>1406</v>
+        <v>1506</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>824</v>
+        <v>1231</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1555</v>
+        <v>1255</v>
       </c>
       <c r="E187" s="6">
-        <v>1407</v>
+        <v>1507</v>
       </c>
       <c r="F187" s="6">
         <v>14</v>
@@ -39219,17 +38510,17 @@
       <c r="H187" s="6">
         <v>6</v>
       </c>
-      <c r="I187" s="20" t="s">
-        <v>985</v>
-      </c>
-      <c r="J187" s="20" t="s">
-        <v>1323</v>
+      <c r="I187" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K187" s="6">
         <v>0</v>
       </c>
       <c r="L187" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
@@ -39240,16 +38531,16 @@
         <v>185</v>
       </c>
       <c r="B188" s="6">
-        <v>1407</v>
+        <v>1507</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>825</v>
+        <v>1232</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1556</v>
+        <v>1256</v>
       </c>
       <c r="E188" s="6">
-        <v>1408</v>
+        <v>1508</v>
       </c>
       <c r="F188" s="6">
         <v>14</v>
@@ -39260,17 +38551,17 @@
       <c r="H188" s="6">
         <v>7</v>
       </c>
-      <c r="I188" s="20" t="s">
-        <v>986</v>
-      </c>
-      <c r="J188" s="20" t="s">
-        <v>1323</v>
+      <c r="I188" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K188" s="6">
         <v>0</v>
       </c>
       <c r="L188" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
@@ -39281,16 +38572,16 @@
         <v>186</v>
       </c>
       <c r="B189" s="6">
-        <v>1408</v>
+        <v>1508</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>826</v>
+        <v>1233</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1557</v>
+        <v>1257</v>
       </c>
       <c r="E189" s="6">
-        <v>1409</v>
+        <v>1509</v>
       </c>
       <c r="F189" s="6">
         <v>14</v>
@@ -39301,17 +38592,17 @@
       <c r="H189" s="6">
         <v>8</v>
       </c>
-      <c r="I189" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="J189" s="20" t="s">
-        <v>1323</v>
+      <c r="I189" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K189" s="6">
         <v>0</v>
       </c>
       <c r="L189" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
@@ -39322,16 +38613,16 @@
         <v>187</v>
       </c>
       <c r="B190" s="6">
-        <v>1409</v>
+        <v>1509</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>827</v>
+        <v>1234</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>1558</v>
+        <v>1258</v>
       </c>
       <c r="E190" s="6">
-        <v>1410</v>
+        <v>1510</v>
       </c>
       <c r="F190" s="6">
         <v>14</v>
@@ -39342,17 +38633,17 @@
       <c r="H190" s="6">
         <v>9</v>
       </c>
-      <c r="I190" s="20" t="s">
-        <v>988</v>
-      </c>
-      <c r="J190" s="20" t="s">
-        <v>1323</v>
+      <c r="I190" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K190" s="6">
         <v>0</v>
       </c>
       <c r="L190" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
@@ -39363,16 +38654,16 @@
         <v>188</v>
       </c>
       <c r="B191" s="6">
-        <v>1410</v>
+        <v>1510</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>828</v>
+        <v>1235</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E191" s="6">
-        <v>1411</v>
+        <v>1259</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F191" s="6">
         <v>14</v>
@@ -39383,64 +38674,58 @@
       <c r="H191" s="6">
         <v>10</v>
       </c>
-      <c r="I191" s="20" t="s">
-        <v>989</v>
-      </c>
-      <c r="J191" s="20" t="s">
-        <v>1323</v>
+      <c r="I191" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K191" s="6">
         <v>0</v>
       </c>
       <c r="L191" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M191" s="6" t="s">
-        <v>1543</v>
-      </c>
-      <c r="N191" s="6">
-        <v>0</v>
-      </c>
-      <c r="O191" s="6">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
     </row>
     <row r="192" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>189</v>
       </c>
       <c r="B192" s="6">
-        <v>1411</v>
+        <v>1601</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>829</v>
+        <v>1236</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1560</v>
+        <v>1260</v>
       </c>
       <c r="E192" s="6">
-        <v>1412</v>
+        <v>1602</v>
       </c>
       <c r="F192" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H192" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J192" s="20" t="s">
-        <v>1323</v>
+        <v>1236</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K192" s="6">
         <v>0</v>
       </c>
       <c r="L192" s="6">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
@@ -39451,37 +38736,37 @@
         <v>190</v>
       </c>
       <c r="B193" s="6">
-        <v>1412</v>
+        <v>1602</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>830</v>
+        <v>1238</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>1561</v>
+        <v>1261</v>
       </c>
       <c r="E193" s="6">
-        <v>1413</v>
+        <v>1603</v>
       </c>
       <c r="F193" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H193" s="6">
-        <v>12</v>
-      </c>
-      <c r="I193" s="20" t="s">
-        <v>990</v>
-      </c>
-      <c r="J193" s="20" t="s">
-        <v>1323</v>
+        <v>2</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K193" s="6">
         <v>0</v>
       </c>
       <c r="L193" s="6">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
@@ -39492,37 +38777,37 @@
         <v>191</v>
       </c>
       <c r="B194" s="6">
-        <v>1413</v>
+        <v>1603</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>831</v>
+        <v>1239</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1562</v>
+        <v>1262</v>
       </c>
       <c r="E194" s="6">
-        <v>1414</v>
+        <v>1604</v>
       </c>
       <c r="F194" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H194" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="J194" s="20" t="s">
-        <v>1323</v>
+        <v>1239</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K194" s="6">
         <v>0</v>
       </c>
       <c r="L194" s="6">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
@@ -39533,37 +38818,37 @@
         <v>192</v>
       </c>
       <c r="B195" s="6">
-        <v>1414</v>
+        <v>1604</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>832</v>
+        <v>1240</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>1563</v>
+        <v>1263</v>
       </c>
       <c r="E195" s="6">
-        <v>1415</v>
+        <v>1605</v>
       </c>
       <c r="F195" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H195" s="6">
-        <v>14</v>
-      </c>
-      <c r="I195" s="20" t="s">
-        <v>991</v>
-      </c>
-      <c r="J195" s="20" t="s">
-        <v>1323</v>
+        <v>4</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K195" s="6">
         <v>0</v>
       </c>
       <c r="L195" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
@@ -39574,3287 +38859,328 @@
         <v>193</v>
       </c>
       <c r="B196" s="6">
-        <v>1415</v>
+        <v>1605</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>833</v>
+        <v>1241</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>1564</v>
+        <v>1264</v>
       </c>
       <c r="E196" s="6">
-        <v>1416</v>
+        <v>1606</v>
       </c>
       <c r="F196" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H196" s="6">
-        <v>15</v>
-      </c>
-      <c r="I196" s="20" t="s">
-        <v>992</v>
-      </c>
-      <c r="J196" s="20" t="s">
-        <v>1323</v>
+        <v>5</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K196" s="6">
         <v>0</v>
       </c>
       <c r="L196" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M196" s="6" t="s">
-        <v>1544</v>
-      </c>
-      <c r="N196" s="6">
-        <v>0</v>
-      </c>
-      <c r="O196" s="6">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
     </row>
     <row r="197" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>194</v>
       </c>
       <c r="B197" s="6">
-        <v>1416</v>
+        <v>1606</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>834</v>
+        <v>1242</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E197" s="6">
-        <v>1417</v>
+        <v>1265</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F197" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H197" s="6">
-        <v>16</v>
-      </c>
-      <c r="I197" s="20" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J197" s="20" t="s">
-        <v>1323</v>
+        <v>6</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K197" s="6">
         <v>0</v>
       </c>
       <c r="L197" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M197" s="6"/>
       <c r="N197" s="6"/>
       <c r="O197" s="6"/>
     </row>
-    <row r="198" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>195</v>
       </c>
       <c r="B198" s="6">
-        <v>1417</v>
+        <v>1701</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>835</v>
+        <v>1243</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1566</v>
+        <v>1266</v>
       </c>
       <c r="E198" s="6">
-        <v>1418</v>
+        <v>1702</v>
       </c>
       <c r="F198" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H198" s="6">
-        <v>17</v>
-      </c>
-      <c r="I198" s="20" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J198" s="20" t="s">
-        <v>1323</v>
+        <v>1</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K198" s="6">
         <v>0</v>
       </c>
       <c r="L198" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M198" s="6" t="s">
-        <v>1545</v>
-      </c>
-      <c r="N198" s="6">
-        <v>0</v>
-      </c>
-      <c r="O198" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+    </row>
+    <row r="199" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>196</v>
       </c>
       <c r="B199" s="6">
-        <v>1418</v>
+        <v>1702</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>836</v>
+        <v>1245</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1567</v>
+        <v>1267</v>
       </c>
       <c r="E199" s="6">
-        <v>1419</v>
+        <v>1703</v>
       </c>
       <c r="F199" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H199" s="6">
-        <v>18</v>
-      </c>
-      <c r="I199" s="20" t="s">
-        <v>1188</v>
-      </c>
-      <c r="J199" s="20" t="s">
-        <v>1323</v>
+        <v>2</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K199" s="6">
         <v>0</v>
       </c>
       <c r="L199" s="6">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="M199" s="6"/>
       <c r="N199" s="6"/>
       <c r="O199" s="6"/>
     </row>
-    <row r="200" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>197</v>
       </c>
       <c r="B200" s="6">
-        <v>1419</v>
+        <v>1703</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>837</v>
+        <v>1246</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>1568</v>
+        <v>1268</v>
       </c>
       <c r="E200" s="6">
-        <v>1420</v>
+        <v>1704</v>
       </c>
       <c r="F200" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G200" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H200" s="6">
-        <v>19</v>
-      </c>
-      <c r="I200" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="J200" s="20" t="s">
-        <v>1323</v>
+        <v>3</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K200" s="6">
         <v>0</v>
       </c>
       <c r="L200" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M200" s="6" t="s">
-        <v>1546</v>
-      </c>
-      <c r="N200" s="6">
-        <v>0</v>
-      </c>
-      <c r="O200" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+    </row>
+    <row r="201" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>198</v>
       </c>
       <c r="B201" s="6">
-        <v>1420</v>
+        <v>1704</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>838</v>
+        <v>1247</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1569</v>
+        <v>1269</v>
       </c>
       <c r="E201" s="6">
-        <v>1421</v>
+        <v>1705</v>
       </c>
       <c r="F201" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H201" s="6">
-        <v>20</v>
-      </c>
-      <c r="I201" s="20" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J201" s="20" t="s">
-        <v>1323</v>
+        <v>4</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K201" s="6">
         <v>0</v>
       </c>
       <c r="L201" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M201" s="6"/>
       <c r="N201" s="6"/>
       <c r="O201" s="6"/>
     </row>
-    <row r="202" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>199</v>
       </c>
       <c r="B202" s="6">
-        <v>1421</v>
+        <v>1705</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>839</v>
+        <v>1248</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>1570</v>
+        <v>1270</v>
       </c>
       <c r="E202" s="6">
-        <v>1422</v>
+        <v>1706</v>
       </c>
       <c r="F202" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G202" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H202" s="6">
-        <v>21</v>
-      </c>
-      <c r="I202" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="J202" s="20" t="s">
-        <v>1323</v>
+        <v>5</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K202" s="6">
         <v>0</v>
       </c>
       <c r="L202" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M202" s="6" t="s">
-        <v>1547</v>
-      </c>
-      <c r="N202" s="6">
-        <v>0</v>
-      </c>
-      <c r="O202" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+    </row>
+    <row r="203" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>200</v>
       </c>
       <c r="B203" s="6">
-        <v>1422</v>
+        <v>1706</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>840</v>
+        <v>1249</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E203" s="6">
-        <v>1423</v>
+        <v>1271</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F203" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G203" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H203" s="6">
-        <v>22</v>
-      </c>
-      <c r="I203" s="20" t="s">
-        <v>1190</v>
-      </c>
-      <c r="J203" s="20" t="s">
-        <v>1323</v>
+        <v>6</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K203" s="6">
         <v>0</v>
       </c>
       <c r="L203" s="6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="M203" s="6"/>
       <c r="N203" s="6"/>
       <c r="O203" s="6"/>
-    </row>
-    <row r="204" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="6">
-        <v>201</v>
-      </c>
-      <c r="B204" s="6">
-        <v>1423</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E204" s="6">
-        <v>1424</v>
-      </c>
-      <c r="F204" s="6">
-        <v>14</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H204" s="6">
-        <v>23</v>
-      </c>
-      <c r="I204" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="J204" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K204" s="6">
-        <v>0</v>
-      </c>
-      <c r="L204" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M204" s="6" t="s">
-        <v>1548</v>
-      </c>
-      <c r="N204" s="6">
-        <v>0</v>
-      </c>
-      <c r="O204" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="6">
-        <v>202</v>
-      </c>
-      <c r="B205" s="6">
-        <v>1424</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E205" s="6">
-        <v>1425</v>
-      </c>
-      <c r="F205" s="6">
-        <v>14</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H205" s="6">
-        <v>24</v>
-      </c>
-      <c r="I205" s="20" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J205" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K205" s="6">
-        <v>0</v>
-      </c>
-      <c r="L205" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M205" s="6"/>
-      <c r="N205" s="6"/>
-      <c r="O205" s="6"/>
-    </row>
-    <row r="206" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="6">
-        <v>203</v>
-      </c>
-      <c r="B206" s="6">
-        <v>1425</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E206" s="6">
-        <v>1426</v>
-      </c>
-      <c r="F206" s="6">
-        <v>14</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H206" s="6">
-        <v>25</v>
-      </c>
-      <c r="I206" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="J206" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K206" s="6">
-        <v>0</v>
-      </c>
-      <c r="L206" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M206" s="6"/>
-      <c r="N206" s="6"/>
-      <c r="O206" s="6"/>
-    </row>
-    <row r="207" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="6">
-        <v>204</v>
-      </c>
-      <c r="B207" s="6">
-        <v>1426</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E207" s="6">
-        <v>1427</v>
-      </c>
-      <c r="F207" s="6">
-        <v>14</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H207" s="6">
-        <v>26</v>
-      </c>
-      <c r="I207" s="20" t="s">
-        <v>1192</v>
-      </c>
-      <c r="J207" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K207" s="6">
-        <v>0</v>
-      </c>
-      <c r="L207" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M207" s="6"/>
-      <c r="N207" s="6"/>
-      <c r="O207" s="6"/>
-    </row>
-    <row r="208" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="6">
-        <v>205</v>
-      </c>
-      <c r="B208" s="6">
-        <v>1427</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E208" s="6">
-        <v>1428</v>
-      </c>
-      <c r="F208" s="6">
-        <v>14</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H208" s="6">
-        <v>27</v>
-      </c>
-      <c r="I208" s="20" t="s">
-        <v>848</v>
-      </c>
-      <c r="J208" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K208" s="6">
-        <v>0</v>
-      </c>
-      <c r="L208" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M208" s="6"/>
-      <c r="N208" s="6"/>
-      <c r="O208" s="6"/>
-    </row>
-    <row r="209" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="6">
-        <v>206</v>
-      </c>
-      <c r="B209" s="6">
-        <v>1428</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E209" s="6">
-        <v>1429</v>
-      </c>
-      <c r="F209" s="6">
-        <v>14</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H209" s="6">
-        <v>28</v>
-      </c>
-      <c r="I209" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="J209" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K209" s="6">
-        <v>1</v>
-      </c>
-      <c r="L209" s="6">
-        <v>35</v>
-      </c>
-      <c r="M209" s="6"/>
-      <c r="N209" s="6"/>
-      <c r="O209" s="6"/>
-    </row>
-    <row r="210" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="6">
-        <v>207</v>
-      </c>
-      <c r="B210" s="6">
-        <v>1429</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E210" s="6">
-        <v>1430</v>
-      </c>
-      <c r="F210" s="6">
-        <v>14</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H210" s="6">
-        <v>29</v>
-      </c>
-      <c r="I210" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="J210" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K210" s="6">
-        <v>0</v>
-      </c>
-      <c r="L210" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M210" s="6"/>
-      <c r="N210" s="6"/>
-      <c r="O210" s="6"/>
-    </row>
-    <row r="211" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="6">
-        <v>208</v>
-      </c>
-      <c r="B211" s="6">
-        <v>1430</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E211" s="6">
-        <v>1431</v>
-      </c>
-      <c r="F211" s="6">
-        <v>14</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H211" s="6">
-        <v>30</v>
-      </c>
-      <c r="I211" s="20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="J211" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K211" s="6">
-        <v>0</v>
-      </c>
-      <c r="L211" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M211" s="6"/>
-      <c r="N211" s="6"/>
-      <c r="O211" s="6"/>
-    </row>
-    <row r="212" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="6">
-        <v>209</v>
-      </c>
-      <c r="B212" s="6">
-        <v>1431</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E212" s="6">
-        <v>1432</v>
-      </c>
-      <c r="F212" s="6">
-        <v>14</v>
-      </c>
-      <c r="G212" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H212" s="6">
-        <v>31</v>
-      </c>
-      <c r="I212" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="J212" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K212" s="6">
-        <v>0</v>
-      </c>
-      <c r="L212" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M212" s="6" t="s">
-        <v>1543</v>
-      </c>
-      <c r="N212" s="6">
-        <v>0</v>
-      </c>
-      <c r="O212" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="6">
-        <v>210</v>
-      </c>
-      <c r="B213" s="6">
-        <v>1432</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E213" s="6">
-        <v>1433</v>
-      </c>
-      <c r="F213" s="6">
-        <v>14</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H213" s="6">
-        <v>32</v>
-      </c>
-      <c r="I213" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J213" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K213" s="6">
-        <v>0</v>
-      </c>
-      <c r="L213" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M213" s="6"/>
-      <c r="N213" s="6"/>
-      <c r="O213" s="6"/>
-    </row>
-    <row r="214" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="6">
-        <v>211</v>
-      </c>
-      <c r="B214" s="6">
-        <v>1433</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E214" s="6">
-        <v>1434</v>
-      </c>
-      <c r="F214" s="6">
-        <v>14</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H214" s="6">
-        <v>33</v>
-      </c>
-      <c r="I214" s="20" t="s">
-        <v>853</v>
-      </c>
-      <c r="J214" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K214" s="6">
-        <v>0</v>
-      </c>
-      <c r="L214" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M214" s="6"/>
-      <c r="N214" s="6"/>
-      <c r="O214" s="6"/>
-    </row>
-    <row r="215" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="6">
-        <v>212</v>
-      </c>
-      <c r="B215" s="6">
-        <v>1434</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E215" s="6">
-        <v>1435</v>
-      </c>
-      <c r="F215" s="6">
-        <v>14</v>
-      </c>
-      <c r="G215" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H215" s="6">
-        <v>34</v>
-      </c>
-      <c r="I215" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="J215" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K215" s="6">
-        <v>0</v>
-      </c>
-      <c r="L215" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M215" s="6"/>
-      <c r="N215" s="6"/>
-      <c r="O215" s="6"/>
-    </row>
-    <row r="216" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="6">
-        <v>213</v>
-      </c>
-      <c r="B216" s="6">
-        <v>1435</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E216" s="6">
-        <v>1436</v>
-      </c>
-      <c r="F216" s="6">
-        <v>14</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H216" s="6">
-        <v>35</v>
-      </c>
-      <c r="I216" s="20" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J216" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K216" s="6">
-        <v>0</v>
-      </c>
-      <c r="L216" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M216" s="6"/>
-      <c r="N216" s="6"/>
-      <c r="O216" s="6"/>
-    </row>
-    <row r="217" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="6">
-        <v>214</v>
-      </c>
-      <c r="B217" s="6">
-        <v>1436</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E217" s="6">
-        <v>1437</v>
-      </c>
-      <c r="F217" s="6">
-        <v>14</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H217" s="6">
-        <v>36</v>
-      </c>
-      <c r="I217" s="20" t="s">
-        <v>856</v>
-      </c>
-      <c r="J217" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K217" s="6">
-        <v>0</v>
-      </c>
-      <c r="L217" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M217" s="6"/>
-      <c r="N217" s="6"/>
-      <c r="O217" s="6"/>
-    </row>
-    <row r="218" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="6">
-        <v>215</v>
-      </c>
-      <c r="B218" s="6">
-        <v>1437</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E218" s="6">
-        <v>1438</v>
-      </c>
-      <c r="F218" s="6">
-        <v>14</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H218" s="6">
-        <v>37</v>
-      </c>
-      <c r="I218" s="25" t="s">
-        <v>1332</v>
-      </c>
-      <c r="J218" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K218" s="6">
-        <v>0</v>
-      </c>
-      <c r="L218" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M218" s="6"/>
-      <c r="N218" s="6"/>
-      <c r="O218" s="6"/>
-    </row>
-    <row r="219" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="6">
-        <v>216</v>
-      </c>
-      <c r="B219" s="6">
-        <v>1438</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E219" s="6">
-        <v>1439</v>
-      </c>
-      <c r="F219" s="6">
-        <v>14</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H219" s="6">
-        <v>38</v>
-      </c>
-      <c r="I219" s="20" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J219" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K219" s="6">
-        <v>0</v>
-      </c>
-      <c r="L219" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M219" s="6"/>
-      <c r="N219" s="6"/>
-      <c r="O219" s="6"/>
-    </row>
-    <row r="220" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="6">
-        <v>217</v>
-      </c>
-      <c r="B220" s="6">
-        <v>1439</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E220" s="6">
-        <v>1440</v>
-      </c>
-      <c r="F220" s="6">
-        <v>14</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H220" s="6">
-        <v>39</v>
-      </c>
-      <c r="I220" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="J220" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K220" s="6">
-        <v>0</v>
-      </c>
-      <c r="L220" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M220" s="6"/>
-      <c r="N220" s="6"/>
-      <c r="O220" s="6"/>
-    </row>
-    <row r="221" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="6">
-        <v>218</v>
-      </c>
-      <c r="B221" s="6">
-        <v>1440</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E221" s="6">
-        <v>1441</v>
-      </c>
-      <c r="F221" s="6">
-        <v>14</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H221" s="6">
-        <v>40</v>
-      </c>
-      <c r="I221" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="J221" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K221" s="6">
-        <v>0</v>
-      </c>
-      <c r="L221" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M221" s="6"/>
-      <c r="N221" s="6"/>
-      <c r="O221" s="6"/>
-    </row>
-    <row r="222" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="6">
-        <v>219</v>
-      </c>
-      <c r="B222" s="6">
-        <v>1441</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E222" s="6">
-        <v>1442</v>
-      </c>
-      <c r="F222" s="6">
-        <v>14</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H222" s="6">
-        <v>41</v>
-      </c>
-      <c r="I222" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="J222" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K222" s="6">
-        <v>0</v>
-      </c>
-      <c r="L222" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M222" s="6"/>
-      <c r="N222" s="6"/>
-      <c r="O222" s="6"/>
-    </row>
-    <row r="223" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="6">
-        <v>220</v>
-      </c>
-      <c r="B223" s="6">
-        <v>1442</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E223" s="6">
-        <v>1443</v>
-      </c>
-      <c r="F223" s="6">
-        <v>14</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H223" s="6">
-        <v>42</v>
-      </c>
-      <c r="I223" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="J223" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K223" s="6">
-        <v>0</v>
-      </c>
-      <c r="L223" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M223" s="6"/>
-      <c r="N223" s="6"/>
-      <c r="O223" s="6"/>
-    </row>
-    <row r="224" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="6">
-        <v>221</v>
-      </c>
-      <c r="B224" s="6">
-        <v>1443</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E224" s="6">
-        <v>1444</v>
-      </c>
-      <c r="F224" s="6">
-        <v>14</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H224" s="6">
-        <v>43</v>
-      </c>
-      <c r="I224" s="20" t="s">
-        <v>1202</v>
-      </c>
-      <c r="J224" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K224" s="6">
-        <v>0</v>
-      </c>
-      <c r="L224" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M224" s="6"/>
-      <c r="N224" s="6"/>
-      <c r="O224" s="6"/>
-    </row>
-    <row r="225" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="6">
-        <v>222</v>
-      </c>
-      <c r="B225" s="6">
-        <v>1444</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E225" s="6">
-        <v>1445</v>
-      </c>
-      <c r="F225" s="6">
-        <v>14</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H225" s="6">
-        <v>44</v>
-      </c>
-      <c r="I225" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J225" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K225" s="6">
-        <v>0</v>
-      </c>
-      <c r="L225" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M225" s="6"/>
-      <c r="N225" s="6"/>
-      <c r="O225" s="6"/>
-    </row>
-    <row r="226" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="6">
-        <v>223</v>
-      </c>
-      <c r="B226" s="6">
-        <v>1445</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E226" s="6">
-        <v>1446</v>
-      </c>
-      <c r="F226" s="6">
-        <v>14</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H226" s="6">
-        <v>45</v>
-      </c>
-      <c r="I226" s="20" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J226" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K226" s="6">
-        <v>0</v>
-      </c>
-      <c r="L226" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M226" s="6"/>
-      <c r="N226" s="6"/>
-      <c r="O226" s="6"/>
-    </row>
-    <row r="227" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="6">
-        <v>224</v>
-      </c>
-      <c r="B227" s="6">
-        <v>1446</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E227" s="6">
-        <v>1447</v>
-      </c>
-      <c r="F227" s="6">
-        <v>14</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H227" s="6">
-        <v>46</v>
-      </c>
-      <c r="I227" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="J227" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K227" s="6">
-        <v>0</v>
-      </c>
-      <c r="L227" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M227" s="6"/>
-      <c r="N227" s="6"/>
-      <c r="O227" s="6"/>
-    </row>
-    <row r="228" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="6">
-        <v>225</v>
-      </c>
-      <c r="B228" s="6">
-        <v>1447</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E228" s="6">
-        <v>1448</v>
-      </c>
-      <c r="F228" s="6">
-        <v>14</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H228" s="6">
-        <v>47</v>
-      </c>
-      <c r="I228" s="20" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J228" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K228" s="6">
-        <v>0</v>
-      </c>
-      <c r="L228" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M228" s="6"/>
-      <c r="N228" s="6"/>
-      <c r="O228" s="6"/>
-    </row>
-    <row r="229" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="6">
-        <v>226</v>
-      </c>
-      <c r="B229" s="6">
-        <v>1448</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E229" s="6">
-        <v>1449</v>
-      </c>
-      <c r="F229" s="6">
-        <v>14</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H229" s="6">
-        <v>48</v>
-      </c>
-      <c r="I229" s="20" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J229" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K229" s="6">
-        <v>0</v>
-      </c>
-      <c r="L229" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M229" s="6"/>
-      <c r="N229" s="6"/>
-      <c r="O229" s="6"/>
-    </row>
-    <row r="230" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="6">
-        <v>227</v>
-      </c>
-      <c r="B230" s="6">
-        <v>1449</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E230" s="6">
-        <v>1450</v>
-      </c>
-      <c r="F230" s="6">
-        <v>14</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H230" s="6">
-        <v>49</v>
-      </c>
-      <c r="I230" s="6" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J230" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K230" s="6">
-        <v>0</v>
-      </c>
-      <c r="L230" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M230" s="6" t="s">
-        <v>1543</v>
-      </c>
-      <c r="N230" s="6">
-        <v>0</v>
-      </c>
-      <c r="O230" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="6">
-        <v>228</v>
-      </c>
-      <c r="B231" s="6">
-        <v>1450</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E231" s="6">
-        <v>1451</v>
-      </c>
-      <c r="F231" s="6">
-        <v>14</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H231" s="6">
-        <v>50</v>
-      </c>
-      <c r="I231" s="20" t="s">
-        <v>861</v>
-      </c>
-      <c r="J231" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K231" s="6">
-        <v>0</v>
-      </c>
-      <c r="L231" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M231" s="6"/>
-      <c r="N231" s="6"/>
-      <c r="O231" s="6"/>
-    </row>
-    <row r="232" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="6">
-        <v>229</v>
-      </c>
-      <c r="B232" s="6">
-        <v>1451</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="D232" s="6" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E232" s="6">
-        <v>1452</v>
-      </c>
-      <c r="F232" s="6">
-        <v>14</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H232" s="6">
-        <v>51</v>
-      </c>
-      <c r="I232" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="J232" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K232" s="6">
-        <v>0</v>
-      </c>
-      <c r="L232" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M232" s="6"/>
-      <c r="N232" s="6"/>
-      <c r="O232" s="6"/>
-    </row>
-    <row r="233" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="6">
-        <v>230</v>
-      </c>
-      <c r="B233" s="6">
-        <v>1452</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E233" s="6">
-        <v>1453</v>
-      </c>
-      <c r="F233" s="6">
-        <v>14</v>
-      </c>
-      <c r="G233" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H233" s="6">
-        <v>52</v>
-      </c>
-      <c r="I233" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="J233" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K233" s="6">
-        <v>0</v>
-      </c>
-      <c r="L233" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M233" s="6" t="s">
-        <v>1549</v>
-      </c>
-      <c r="N233" s="6">
-        <v>0</v>
-      </c>
-      <c r="O233" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="6">
-        <v>231</v>
-      </c>
-      <c r="B234" s="6">
-        <v>1453</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E234" s="6">
-        <v>1454</v>
-      </c>
-      <c r="F234" s="6">
-        <v>14</v>
-      </c>
-      <c r="G234" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H234" s="6">
-        <v>53</v>
-      </c>
-      <c r="I234" s="20" t="s">
-        <v>859</v>
-      </c>
-      <c r="J234" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K234" s="6">
-        <v>0</v>
-      </c>
-      <c r="L234" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M234" s="6"/>
-      <c r="N234" s="6"/>
-      <c r="O234" s="6"/>
-    </row>
-    <row r="235" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="6">
-        <v>232</v>
-      </c>
-      <c r="B235" s="6">
-        <v>1454</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E235" s="6">
-        <v>1455</v>
-      </c>
-      <c r="F235" s="6">
-        <v>14</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H235" s="6">
-        <v>54</v>
-      </c>
-      <c r="I235" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="J235" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K235" s="6">
-        <v>0</v>
-      </c>
-      <c r="L235" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M235" s="6"/>
-      <c r="N235" s="6"/>
-      <c r="O235" s="6"/>
-    </row>
-    <row r="236" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="6">
-        <v>233</v>
-      </c>
-      <c r="B236" s="6">
-        <v>1455</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E236" s="6">
-        <v>1456</v>
-      </c>
-      <c r="F236" s="6">
-        <v>14</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H236" s="6">
-        <v>55</v>
-      </c>
-      <c r="I236" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="J236" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K236" s="6">
-        <v>0</v>
-      </c>
-      <c r="L236" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M236" s="6"/>
-      <c r="N236" s="6"/>
-      <c r="O236" s="6"/>
-    </row>
-    <row r="237" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="6">
-        <v>234</v>
-      </c>
-      <c r="B237" s="6">
-        <v>1456</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E237" s="6">
-        <v>1457</v>
-      </c>
-      <c r="F237" s="6">
-        <v>14</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H237" s="6">
-        <v>56</v>
-      </c>
-      <c r="I237" s="25" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J237" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K237" s="6">
-        <v>0</v>
-      </c>
-      <c r="L237" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M237" s="6"/>
-      <c r="N237" s="6"/>
-      <c r="O237" s="6"/>
-    </row>
-    <row r="238" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="6">
-        <v>235</v>
-      </c>
-      <c r="B238" s="6">
-        <v>1457</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E238" s="6">
-        <v>1458</v>
-      </c>
-      <c r="F238" s="6">
-        <v>14</v>
-      </c>
-      <c r="G238" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H238" s="6">
-        <v>57</v>
-      </c>
-      <c r="I238" s="20" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J238" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K238" s="6">
-        <v>0</v>
-      </c>
-      <c r="L238" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M238" s="6"/>
-      <c r="N238" s="6"/>
-      <c r="O238" s="6"/>
-    </row>
-    <row r="239" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="6">
-        <v>236</v>
-      </c>
-      <c r="B239" s="6">
-        <v>1458</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E239" s="6">
-        <v>1459</v>
-      </c>
-      <c r="F239" s="6">
-        <v>14</v>
-      </c>
-      <c r="G239" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H239" s="6">
-        <v>58</v>
-      </c>
-      <c r="I239" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="J239" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K239" s="6">
-        <v>0</v>
-      </c>
-      <c r="L239" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M239" s="6"/>
-      <c r="N239" s="6"/>
-      <c r="O239" s="6"/>
-    </row>
-    <row r="240" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="6">
-        <v>237</v>
-      </c>
-      <c r="B240" s="6">
-        <v>1459</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E240" s="6">
-        <v>1460</v>
-      </c>
-      <c r="F240" s="6">
-        <v>14</v>
-      </c>
-      <c r="G240" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H240" s="6">
-        <v>59</v>
-      </c>
-      <c r="I240" s="20" t="s">
-        <v>1211</v>
-      </c>
-      <c r="J240" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K240" s="6">
-        <v>0</v>
-      </c>
-      <c r="L240" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M240" s="6"/>
-      <c r="N240" s="6"/>
-      <c r="O240" s="6"/>
-    </row>
-    <row r="241" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="6">
-        <v>238</v>
-      </c>
-      <c r="B241" s="6">
-        <v>1460</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E241" s="6">
-        <v>1461</v>
-      </c>
-      <c r="F241" s="6">
-        <v>14</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H241" s="6">
-        <v>60</v>
-      </c>
-      <c r="I241" s="20" t="s">
-        <v>1218</v>
-      </c>
-      <c r="J241" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K241" s="6">
-        <v>0</v>
-      </c>
-      <c r="L241" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M241" s="6"/>
-      <c r="N241" s="6"/>
-      <c r="O241" s="6"/>
-    </row>
-    <row r="242" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="6">
-        <v>239</v>
-      </c>
-      <c r="B242" s="6">
-        <v>1461</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E242" s="6">
-        <v>1462</v>
-      </c>
-      <c r="F242" s="6">
-        <v>14</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H242" s="6">
-        <v>61</v>
-      </c>
-      <c r="I242" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="J242" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K242" s="6">
-        <v>0</v>
-      </c>
-      <c r="L242" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M242" s="6"/>
-      <c r="N242" s="6"/>
-      <c r="O242" s="6"/>
-    </row>
-    <row r="243" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="6">
-        <v>240</v>
-      </c>
-      <c r="B243" s="6">
-        <v>1462</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E243" s="6">
-        <v>1463</v>
-      </c>
-      <c r="F243" s="6">
-        <v>14</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H243" s="6">
-        <v>62</v>
-      </c>
-      <c r="I243" s="23" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J243" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K243" s="6">
-        <v>0</v>
-      </c>
-      <c r="L243" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M243" s="6"/>
-      <c r="N243" s="6"/>
-      <c r="O243" s="6"/>
-    </row>
-    <row r="244" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="6">
-        <v>241</v>
-      </c>
-      <c r="B244" s="6">
-        <v>1463</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E244" s="6">
-        <v>1464</v>
-      </c>
-      <c r="F244" s="6">
-        <v>14</v>
-      </c>
-      <c r="G244" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H244" s="6">
-        <v>63</v>
-      </c>
-      <c r="I244" s="20" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J244" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K244" s="6">
-        <v>0</v>
-      </c>
-      <c r="L244" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M244" s="6"/>
-      <c r="N244" s="6"/>
-      <c r="O244" s="6"/>
-    </row>
-    <row r="245" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="6">
-        <v>242</v>
-      </c>
-      <c r="B245" s="6">
-        <v>1464</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E245" s="6">
-        <v>1465</v>
-      </c>
-      <c r="F245" s="6">
-        <v>14</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H245" s="6">
-        <v>64</v>
-      </c>
-      <c r="I245" s="25" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J245" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K245" s="6">
-        <v>0</v>
-      </c>
-      <c r="L245" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M245" s="6"/>
-      <c r="N245" s="6"/>
-      <c r="O245" s="6"/>
-    </row>
-    <row r="246" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
-        <v>243</v>
-      </c>
-      <c r="B246" s="6">
-        <v>1465</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E246" s="6">
-        <v>1466</v>
-      </c>
-      <c r="F246" s="6">
-        <v>14</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H246" s="6">
-        <v>65</v>
-      </c>
-      <c r="I246" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="J246" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K246" s="6">
-        <v>0</v>
-      </c>
-      <c r="L246" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M246" s="6"/>
-      <c r="N246" s="6"/>
-      <c r="O246" s="6"/>
-    </row>
-    <row r="247" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="6">
-        <v>244</v>
-      </c>
-      <c r="B247" s="6">
-        <v>1466</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E247" s="6">
-        <v>1467</v>
-      </c>
-      <c r="F247" s="6">
-        <v>14</v>
-      </c>
-      <c r="G247" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H247" s="6">
-        <v>66</v>
-      </c>
-      <c r="I247" s="25" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J247" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K247" s="6">
-        <v>0</v>
-      </c>
-      <c r="L247" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M247" s="6"/>
-      <c r="N247" s="6"/>
-      <c r="O247" s="6"/>
-    </row>
-    <row r="248" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="6">
-        <v>245</v>
-      </c>
-      <c r="B248" s="6">
-        <v>1467</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E248" s="6">
-        <v>1468</v>
-      </c>
-      <c r="F248" s="6">
-        <v>14</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H248" s="6">
-        <v>67</v>
-      </c>
-      <c r="I248" s="20" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J248" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K248" s="6">
-        <v>0</v>
-      </c>
-      <c r="L248" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M248" s="6"/>
-      <c r="N248" s="6"/>
-      <c r="O248" s="6"/>
-    </row>
-    <row r="249" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="6">
-        <v>246</v>
-      </c>
-      <c r="B249" s="6">
-        <v>1468</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E249" s="6">
-        <v>1469</v>
-      </c>
-      <c r="F249" s="6">
-        <v>14</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H249" s="6">
-        <v>68</v>
-      </c>
-      <c r="I249" s="20" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J249" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K249" s="6">
-        <v>0</v>
-      </c>
-      <c r="L249" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M249" s="6"/>
-      <c r="N249" s="6"/>
-      <c r="O249" s="6"/>
-    </row>
-    <row r="250" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="6">
-        <v>247</v>
-      </c>
-      <c r="B250" s="6">
-        <v>1469</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E250" s="6">
-        <v>1470</v>
-      </c>
-      <c r="F250" s="6">
-        <v>14</v>
-      </c>
-      <c r="G250" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H250" s="6">
-        <v>69</v>
-      </c>
-      <c r="I250" s="25" t="s">
-        <v>1334</v>
-      </c>
-      <c r="J250" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K250" s="6">
-        <v>0</v>
-      </c>
-      <c r="L250" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M250" s="6"/>
-      <c r="N250" s="6"/>
-      <c r="O250" s="6"/>
-    </row>
-    <row r="251" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="6">
-        <v>248</v>
-      </c>
-      <c r="B251" s="6">
-        <v>1470</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E251" s="6">
-        <v>1471</v>
-      </c>
-      <c r="F251" s="6">
-        <v>14</v>
-      </c>
-      <c r="G251" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H251" s="6">
-        <v>70</v>
-      </c>
-      <c r="I251" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="J251" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K251" s="6">
-        <v>0</v>
-      </c>
-      <c r="L251" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M251" s="6"/>
-      <c r="N251" s="6"/>
-      <c r="O251" s="6"/>
-    </row>
-    <row r="252" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="6">
-        <v>249</v>
-      </c>
-      <c r="B252" s="6">
-        <v>1471</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F252" s="6">
-        <v>14</v>
-      </c>
-      <c r="G252" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H252" s="6">
-        <v>71</v>
-      </c>
-      <c r="I252" s="25" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J252" s="20" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K252" s="6">
-        <v>0</v>
-      </c>
-      <c r="L252" s="6">
-        <v>1000</v>
-      </c>
-      <c r="M252" s="6"/>
-      <c r="N252" s="6"/>
-      <c r="O252" s="6"/>
-    </row>
-    <row r="253" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="6">
-        <v>250</v>
-      </c>
-      <c r="B253" s="6">
-        <v>1501</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E253" s="6">
-        <v>1502</v>
-      </c>
-      <c r="F253" s="6">
-        <v>15</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H253" s="6">
-        <v>1</v>
-      </c>
-      <c r="I253" s="6" t="s">
-        <v>1342</v>
-      </c>
-      <c r="J253" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K253" s="6">
-        <v>0</v>
-      </c>
-      <c r="L253" s="6">
-        <v>10</v>
-      </c>
-      <c r="M253" s="6"/>
-      <c r="N253" s="6"/>
-      <c r="O253" s="6"/>
-    </row>
-    <row r="254" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="6">
-        <v>251</v>
-      </c>
-      <c r="B254" s="6">
-        <v>1502</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E254" s="6">
-        <v>1503</v>
-      </c>
-      <c r="F254" s="6">
-        <v>15</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H254" s="6">
-        <v>2</v>
-      </c>
-      <c r="I254" s="6" t="s">
-        <v>1344</v>
-      </c>
-      <c r="J254" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K254" s="6">
-        <v>0</v>
-      </c>
-      <c r="L254" s="6">
-        <v>20</v>
-      </c>
-      <c r="M254" s="6"/>
-      <c r="N254" s="6"/>
-      <c r="O254" s="6"/>
-    </row>
-    <row r="255" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="6">
-        <v>252</v>
-      </c>
-      <c r="B255" s="6">
-        <v>1503</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E255" s="6">
-        <v>1504</v>
-      </c>
-      <c r="F255" s="6">
-        <v>15</v>
-      </c>
-      <c r="G255" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H255" s="6">
-        <v>3</v>
-      </c>
-      <c r="I255" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J255" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K255" s="6">
-        <v>0</v>
-      </c>
-      <c r="L255" s="6">
-        <v>30</v>
-      </c>
-      <c r="M255" s="6"/>
-      <c r="N255" s="6"/>
-      <c r="O255" s="6"/>
-    </row>
-    <row r="256" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="6">
-        <v>253</v>
-      </c>
-      <c r="B256" s="6">
-        <v>1504</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E256" s="6">
-        <v>1505</v>
-      </c>
-      <c r="F256" s="6">
-        <v>15</v>
-      </c>
-      <c r="G256" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H256" s="6">
-        <v>4</v>
-      </c>
-      <c r="I256" s="6" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J256" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K256" s="6">
-        <v>0</v>
-      </c>
-      <c r="L256" s="6">
-        <v>50</v>
-      </c>
-      <c r="M256" s="6"/>
-      <c r="N256" s="6"/>
-      <c r="O256" s="6"/>
-    </row>
-    <row r="257" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="6">
-        <v>254</v>
-      </c>
-      <c r="B257" s="6">
-        <v>1505</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E257" s="6">
-        <v>1506</v>
-      </c>
-      <c r="F257" s="6">
-        <v>15</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H257" s="6">
-        <v>5</v>
-      </c>
-      <c r="I257" s="6" t="s">
-        <v>1347</v>
-      </c>
-      <c r="J257" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K257" s="6">
-        <v>0</v>
-      </c>
-      <c r="L257" s="6">
-        <v>50</v>
-      </c>
-      <c r="M257" s="6"/>
-      <c r="N257" s="6"/>
-      <c r="O257" s="6"/>
-    </row>
-    <row r="258" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="6">
-        <v>255</v>
-      </c>
-      <c r="B258" s="6">
-        <v>1506</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E258" s="6">
-        <v>1507</v>
-      </c>
-      <c r="F258" s="6">
-        <v>15</v>
-      </c>
-      <c r="G258" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H258" s="6">
-        <v>6</v>
-      </c>
-      <c r="I258" s="6" t="s">
-        <v>1348</v>
-      </c>
-      <c r="J258" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K258" s="6">
-        <v>0</v>
-      </c>
-      <c r="L258" s="6">
-        <v>50</v>
-      </c>
-      <c r="M258" s="6"/>
-      <c r="N258" s="6"/>
-      <c r="O258" s="6"/>
-    </row>
-    <row r="259" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="6">
-        <v>256</v>
-      </c>
-      <c r="B259" s="6">
-        <v>1507</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E259" s="6">
-        <v>1508</v>
-      </c>
-      <c r="F259" s="6">
-        <v>15</v>
-      </c>
-      <c r="G259" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H259" s="6">
-        <v>7</v>
-      </c>
-      <c r="I259" s="6" t="s">
-        <v>1349</v>
-      </c>
-      <c r="J259" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K259" s="6">
-        <v>0</v>
-      </c>
-      <c r="L259" s="6">
-        <v>50</v>
-      </c>
-      <c r="M259" s="6"/>
-      <c r="N259" s="6"/>
-      <c r="O259" s="6"/>
-    </row>
-    <row r="260" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="6">
-        <v>257</v>
-      </c>
-      <c r="B260" s="6">
-        <v>1508</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E260" s="6">
-        <v>1509</v>
-      </c>
-      <c r="F260" s="6">
-        <v>15</v>
-      </c>
-      <c r="G260" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H260" s="6">
-        <v>8</v>
-      </c>
-      <c r="I260" s="6" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J260" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K260" s="6">
-        <v>0</v>
-      </c>
-      <c r="L260" s="6">
-        <v>50</v>
-      </c>
-      <c r="M260" s="6"/>
-      <c r="N260" s="6"/>
-      <c r="O260" s="6"/>
-    </row>
-    <row r="261" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="6">
-        <v>258</v>
-      </c>
-      <c r="B261" s="6">
-        <v>1509</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E261" s="6">
-        <v>1510</v>
-      </c>
-      <c r="F261" s="6">
-        <v>15</v>
-      </c>
-      <c r="G261" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H261" s="6">
-        <v>9</v>
-      </c>
-      <c r="I261" s="6" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J261" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K261" s="6">
-        <v>0</v>
-      </c>
-      <c r="L261" s="6">
-        <v>50</v>
-      </c>
-      <c r="M261" s="6"/>
-      <c r="N261" s="6"/>
-      <c r="O261" s="6"/>
-    </row>
-    <row r="262" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="6">
-        <v>259</v>
-      </c>
-      <c r="B262" s="6">
-        <v>1510</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F262" s="6">
-        <v>15</v>
-      </c>
-      <c r="G262" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H262" s="6">
-        <v>10</v>
-      </c>
-      <c r="I262" s="6" t="s">
-        <v>1352</v>
-      </c>
-      <c r="J262" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K262" s="6">
-        <v>0</v>
-      </c>
-      <c r="L262" s="6">
-        <v>50</v>
-      </c>
-      <c r="M262" s="6"/>
-      <c r="N262" s="6"/>
-      <c r="O262" s="6"/>
-    </row>
-    <row r="263" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="6">
-        <v>260</v>
-      </c>
-      <c r="B263" s="6">
-        <v>1601</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E263" s="6">
-        <v>1602</v>
-      </c>
-      <c r="F263" s="6">
-        <v>16</v>
-      </c>
-      <c r="G263" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H263" s="6">
-        <v>1</v>
-      </c>
-      <c r="I263" s="6" t="s">
-        <v>1353</v>
-      </c>
-      <c r="J263" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K263" s="6">
-        <v>0</v>
-      </c>
-      <c r="L263" s="6">
-        <v>10</v>
-      </c>
-      <c r="M263" s="6"/>
-      <c r="N263" s="6"/>
-      <c r="O263" s="6"/>
-    </row>
-    <row r="264" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="6">
-        <v>261</v>
-      </c>
-      <c r="B264" s="6">
-        <v>1602</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E264" s="6">
-        <v>1603</v>
-      </c>
-      <c r="F264" s="6">
-        <v>16</v>
-      </c>
-      <c r="G264" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H264" s="6">
-        <v>2</v>
-      </c>
-      <c r="I264" s="6" t="s">
-        <v>1355</v>
-      </c>
-      <c r="J264" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K264" s="6">
-        <v>0</v>
-      </c>
-      <c r="L264" s="6">
-        <v>20</v>
-      </c>
-      <c r="M264" s="6"/>
-      <c r="N264" s="6"/>
-      <c r="O264" s="6"/>
-    </row>
-    <row r="265" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="6">
-        <v>262</v>
-      </c>
-      <c r="B265" s="6">
-        <v>1603</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E265" s="6">
-        <v>1604</v>
-      </c>
-      <c r="F265" s="6">
-        <v>16</v>
-      </c>
-      <c r="G265" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H265" s="6">
-        <v>3</v>
-      </c>
-      <c r="I265" s="6" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J265" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K265" s="6">
-        <v>0</v>
-      </c>
-      <c r="L265" s="6">
-        <v>30</v>
-      </c>
-      <c r="M265" s="6"/>
-      <c r="N265" s="6"/>
-      <c r="O265" s="6"/>
-    </row>
-    <row r="266" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="6">
-        <v>263</v>
-      </c>
-      <c r="B266" s="6">
-        <v>1604</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E266" s="6">
-        <v>1605</v>
-      </c>
-      <c r="F266" s="6">
-        <v>16</v>
-      </c>
-      <c r="G266" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H266" s="6">
-        <v>4</v>
-      </c>
-      <c r="I266" s="6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J266" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K266" s="6">
-        <v>0</v>
-      </c>
-      <c r="L266" s="6">
-        <v>50</v>
-      </c>
-      <c r="M266" s="6"/>
-      <c r="N266" s="6"/>
-      <c r="O266" s="6"/>
-    </row>
-    <row r="267" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="6">
-        <v>264</v>
-      </c>
-      <c r="B267" s="6">
-        <v>1605</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E267" s="6">
-        <v>1606</v>
-      </c>
-      <c r="F267" s="6">
-        <v>16</v>
-      </c>
-      <c r="G267" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H267" s="6">
-        <v>5</v>
-      </c>
-      <c r="I267" s="6" t="s">
-        <v>1358</v>
-      </c>
-      <c r="J267" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K267" s="6">
-        <v>0</v>
-      </c>
-      <c r="L267" s="6">
-        <v>50</v>
-      </c>
-      <c r="M267" s="6"/>
-      <c r="N267" s="6"/>
-      <c r="O267" s="6"/>
-    </row>
-    <row r="268" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="6">
-        <v>265</v>
-      </c>
-      <c r="B268" s="6">
-        <v>1606</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E268" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F268" s="6">
-        <v>16</v>
-      </c>
-      <c r="G268" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H268" s="6">
-        <v>6</v>
-      </c>
-      <c r="I268" s="6" t="s">
-        <v>1359</v>
-      </c>
-      <c r="J268" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K268" s="6">
-        <v>0</v>
-      </c>
-      <c r="L268" s="6">
-        <v>50</v>
-      </c>
-      <c r="M268" s="6"/>
-      <c r="N268" s="6"/>
-      <c r="O268" s="6"/>
-    </row>
-    <row r="269" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="6">
-        <v>266</v>
-      </c>
-      <c r="B269" s="6">
-        <v>1701</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E269" s="6">
-        <v>1702</v>
-      </c>
-      <c r="F269" s="6">
-        <v>17</v>
-      </c>
-      <c r="G269" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H269" s="6">
-        <v>1</v>
-      </c>
-      <c r="I269" s="6" t="s">
-        <v>1360</v>
-      </c>
-      <c r="J269" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K269" s="6">
-        <v>0</v>
-      </c>
-      <c r="L269" s="6">
-        <v>10</v>
-      </c>
-      <c r="M269" s="6"/>
-      <c r="N269" s="6"/>
-      <c r="O269" s="6"/>
-    </row>
-    <row r="270" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="6">
-        <v>267</v>
-      </c>
-      <c r="B270" s="6">
-        <v>1702</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E270" s="6">
-        <v>1703</v>
-      </c>
-      <c r="F270" s="6">
-        <v>17</v>
-      </c>
-      <c r="G270" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H270" s="6">
-        <v>2</v>
-      </c>
-      <c r="I270" s="6" t="s">
-        <v>1362</v>
-      </c>
-      <c r="J270" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K270" s="6">
-        <v>0</v>
-      </c>
-      <c r="L270" s="6">
-        <v>20</v>
-      </c>
-      <c r="M270" s="6"/>
-      <c r="N270" s="6"/>
-      <c r="O270" s="6"/>
-    </row>
-    <row r="271" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="6">
-        <v>268</v>
-      </c>
-      <c r="B271" s="6">
-        <v>1703</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E271" s="6">
-        <v>1704</v>
-      </c>
-      <c r="F271" s="6">
-        <v>17</v>
-      </c>
-      <c r="G271" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H271" s="6">
-        <v>3</v>
-      </c>
-      <c r="I271" s="6" t="s">
-        <v>1363</v>
-      </c>
-      <c r="J271" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K271" s="6">
-        <v>0</v>
-      </c>
-      <c r="L271" s="6">
-        <v>30</v>
-      </c>
-      <c r="M271" s="6"/>
-      <c r="N271" s="6"/>
-      <c r="O271" s="6"/>
-    </row>
-    <row r="272" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="6">
-        <v>269</v>
-      </c>
-      <c r="B272" s="6">
-        <v>1704</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E272" s="6">
-        <v>1705</v>
-      </c>
-      <c r="F272" s="6">
-        <v>17</v>
-      </c>
-      <c r="G272" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H272" s="6">
-        <v>4</v>
-      </c>
-      <c r="I272" s="6" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J272" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K272" s="6">
-        <v>0</v>
-      </c>
-      <c r="L272" s="6">
-        <v>50</v>
-      </c>
-      <c r="M272" s="6"/>
-      <c r="N272" s="6"/>
-      <c r="O272" s="6"/>
-    </row>
-    <row r="273" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="6">
-        <v>270</v>
-      </c>
-      <c r="B273" s="6">
-        <v>1705</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E273" s="6">
-        <v>1706</v>
-      </c>
-      <c r="F273" s="6">
-        <v>17</v>
-      </c>
-      <c r="G273" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H273" s="6">
-        <v>5</v>
-      </c>
-      <c r="I273" s="6" t="s">
-        <v>1365</v>
-      </c>
-      <c r="J273" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K273" s="6">
-        <v>0</v>
-      </c>
-      <c r="L273" s="6">
-        <v>50</v>
-      </c>
-      <c r="M273" s="6"/>
-      <c r="N273" s="6"/>
-      <c r="O273" s="6"/>
-    </row>
-    <row r="274" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="6">
-        <v>271</v>
-      </c>
-      <c r="B274" s="6">
-        <v>1706</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F274" s="6">
-        <v>17</v>
-      </c>
-      <c r="G274" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H274" s="6">
-        <v>6</v>
-      </c>
-      <c r="I274" s="6" t="s">
-        <v>1366</v>
-      </c>
-      <c r="J274" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K274" s="6">
-        <v>0</v>
-      </c>
-      <c r="L274" s="6">
-        <v>50</v>
-      </c>
-      <c r="M274" s="6"/>
-      <c r="N274" s="6"/>
-      <c r="O274" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -42865,10 +39191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A15" sqref="A15:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43010,7 +39336,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>913</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -43018,7 +39344,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1390</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -43026,15 +39352,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>1392</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF7E75-8227-46BE-B9E9-A7A94783798A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FE844C-728C-4F09-8D2E-6C0DAD81F433}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1425">
   <si>
     <t>sheet名</t>
   </si>
@@ -2460,9 +2460,6 @@
   </si>
   <si>
     <t>[nil]</t>
-  </si>
-  <si>
-    <t>突破丹</t>
   </si>
   <si>
     <t>装备宝箱</t>
@@ -2610,6 +2607,10 @@
   </si>
   <si>
     <t>通过36关</t>
+  </si>
+  <si>
+    <t>新手任务</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>通过14关</t>
@@ -4615,54 +4616,6 @@
     <t>激光炮升级到1000级</t>
   </si>
   <si>
-    <t>战机所有组件10级</t>
-  </si>
-  <si>
-    <t>战机所有组件20级</t>
-  </si>
-  <si>
-    <t>战机所有组件50级</t>
-  </si>
-  <si>
-    <t>战机所有组件100级</t>
-  </si>
-  <si>
-    <t>战机所有组件150级</t>
-  </si>
-  <si>
-    <t>战机所有组件200级</t>
-  </si>
-  <si>
-    <t>战机所有组件250级</t>
-  </si>
-  <si>
-    <t>战机所有组件300级</t>
-  </si>
-  <si>
-    <t>战机所有组件350级</t>
-  </si>
-  <si>
-    <t>战机所有组件400级</t>
-  </si>
-  <si>
-    <t>战机所有组件450级</t>
-  </si>
-  <si>
-    <t>战机所有组件500级</t>
-  </si>
-  <si>
-    <t>战机所有组件600级</t>
-  </si>
-  <si>
-    <t>战机所有组件650级</t>
-  </si>
-  <si>
-    <t>战机所有组件700级</t>
-  </si>
-  <si>
-    <t>战机所有组件800级</t>
-  </si>
-  <si>
     <t>主舰进阶到达1代</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -4811,33 +4764,6 @@
     <t>晶片总等级到达50级</t>
   </si>
   <si>
-    <t>通过第1关</t>
-  </si>
-  <si>
-    <t>通过第2关</t>
-  </si>
-  <si>
-    <t>通过第3关</t>
-  </si>
-  <si>
-    <t>通过第4关</t>
-  </si>
-  <si>
-    <t>通过第5关</t>
-  </si>
-  <si>
-    <t>通过第6关</t>
-  </si>
-  <si>
-    <t>通过第7关</t>
-  </si>
-  <si>
-    <t>通过第8关</t>
-  </si>
-  <si>
-    <t>通过第9关</t>
-  </si>
-  <si>
     <t>通过第10关</t>
   </si>
   <si>
@@ -4929,6 +4855,81 @@
   </si>
   <si>
     <t>通过第1000关</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮10级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机和全部瞭炮20级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮50级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮100级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮150级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮200级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮250级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮300级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮350级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮400级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮450级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮500级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮600级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮650级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮700级</t>
+  </si>
+  <si>
+    <t>战机和全部瞭炮800级</t>
+  </si>
+  <si>
+    <t>晶片等级2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片等级3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片等级5</t>
+  </si>
+  <si>
+    <t>晶片等级4</t>
+  </si>
+  <si>
+    <t>晶片等级6</t>
+  </si>
+  <si>
+    <t>晶片等级7</t>
+  </si>
+  <si>
+    <t>晶片等级8</t>
+  </si>
+  <si>
+    <t>晶片等级9</t>
   </si>
 </sst>
 </file>
@@ -5762,10 +5763,10 @@
   <dimension ref="A1:T606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D548" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C565" sqref="C565:C574"/>
+      <selection pane="bottomRight" activeCell="B565" sqref="B565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21450,10 +21451,10 @@
         <v>201010012</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E406" s="6">
         <v>9</v>
@@ -21488,10 +21489,10 @@
         <v>201010013</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E407" s="6">
         <v>9</v>
@@ -21678,10 +21679,10 @@
         <v>201010018</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E412" s="6">
         <v>9</v>
@@ -21716,10 +21717,10 @@
         <v>201010019</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E413" s="6">
         <v>9</v>
@@ -21792,10 +21793,10 @@
         <v>201010021</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E415" s="6">
         <v>9</v>
@@ -21830,10 +21831,10 @@
         <v>201010022</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E416" s="6">
         <v>9</v>
@@ -21868,10 +21869,10 @@
         <v>201010023</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E417" s="6">
         <v>9</v>
@@ -22020,10 +22021,10 @@
         <v>201010027</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E421" s="6">
         <v>9</v>
@@ -22058,10 +22059,10 @@
         <v>201010028</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E422" s="6">
         <v>9</v>
@@ -22096,10 +22097,10 @@
         <v>201010029</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E423" s="6">
         <v>9</v>
@@ -22210,10 +22211,10 @@
         <v>201010032</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E426" s="6">
         <v>9</v>
@@ -22362,10 +22363,10 @@
         <v>201010036</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E430" s="6">
         <v>9</v>
@@ -27615,7 +27616,7 @@
         <v>562</v>
       </c>
       <c r="B565" s="6">
-        <v>602020001</v>
+        <v>602010001</v>
       </c>
       <c r="C565" s="6" t="s">
         <v>1118</v>
@@ -27653,7 +27654,7 @@
         <v>563</v>
       </c>
       <c r="B566" s="6">
-        <v>602020002</v>
+        <v>602010002</v>
       </c>
       <c r="C566" s="6" t="s">
         <v>1119</v>
@@ -27691,7 +27692,7 @@
         <v>564</v>
       </c>
       <c r="B567" s="6">
-        <v>602020003</v>
+        <v>602010003</v>
       </c>
       <c r="C567" s="6" t="s">
         <v>1120</v>
@@ -27729,7 +27730,7 @@
         <v>565</v>
       </c>
       <c r="B568" s="6">
-        <v>602020004</v>
+        <v>602010004</v>
       </c>
       <c r="C568" s="6" t="s">
         <v>1121</v>
@@ -27767,7 +27768,7 @@
         <v>566</v>
       </c>
       <c r="B569" s="6">
-        <v>602020005</v>
+        <v>602010005</v>
       </c>
       <c r="C569" s="20" t="s">
         <v>1127</v>
@@ -27805,7 +27806,7 @@
         <v>567</v>
       </c>
       <c r="B570" s="6">
-        <v>602020006</v>
+        <v>602010006</v>
       </c>
       <c r="C570" s="6" t="s">
         <v>1122</v>
@@ -27843,7 +27844,7 @@
         <v>568</v>
       </c>
       <c r="B571" s="6">
-        <v>602020007</v>
+        <v>602010007</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>1124</v>
@@ -27881,7 +27882,7 @@
         <v>569</v>
       </c>
       <c r="B572" s="6">
-        <v>602020008</v>
+        <v>602010008</v>
       </c>
       <c r="C572" s="6" t="s">
         <v>1125</v>
@@ -27919,7 +27920,7 @@
         <v>570</v>
       </c>
       <c r="B573" s="6">
-        <v>602020009</v>
+        <v>602010009</v>
       </c>
       <c r="C573" s="6" t="s">
         <v>1126</v>
@@ -27957,7 +27958,7 @@
         <v>571</v>
       </c>
       <c r="B574" s="6">
-        <v>602020010</v>
+        <v>602010010</v>
       </c>
       <c r="C574" s="6" t="s">
         <v>1123</v>
@@ -29389,7 +29390,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -29466,7 +29467,7 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -30041,7 +30042,7 @@
         <v>40</v>
       </c>
       <c r="J38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -30582,13 +30583,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O203"/>
+  <dimension ref="A1:O194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F198" sqref="F198:F203"/>
+      <selection pane="bottomRight" activeCell="H106" sqref="H106:H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30612,7 +30613,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>760</v>
@@ -30659,7 +30660,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -30706,7 +30707,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>771</v>
@@ -32311,7 +32312,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1322</v>
+        <v>1401</v>
       </c>
       <c r="E42" s="6">
         <v>402</v>
@@ -32352,7 +32353,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1323</v>
+        <v>1402</v>
       </c>
       <c r="E43" s="6">
         <v>403</v>
@@ -32393,7 +32394,7 @@
         <v>122</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1324</v>
+        <v>1403</v>
       </c>
       <c r="E44" s="6">
         <v>404</v>
@@ -32434,7 +32435,7 @@
         <v>124</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1325</v>
+        <v>1404</v>
       </c>
       <c r="E45" s="6">
         <v>405</v>
@@ -32475,7 +32476,7 @@
         <v>126</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1326</v>
+        <v>1405</v>
       </c>
       <c r="E46" s="6">
         <v>406</v>
@@ -32516,7 +32517,7 @@
         <v>128</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1327</v>
+        <v>1406</v>
       </c>
       <c r="E47" s="6">
         <v>407</v>
@@ -32557,7 +32558,7 @@
         <v>129</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1328</v>
+        <v>1407</v>
       </c>
       <c r="E48" s="6">
         <v>408</v>
@@ -32598,7 +32599,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1329</v>
+        <v>1408</v>
       </c>
       <c r="E49" s="6">
         <v>409</v>
@@ -32639,7 +32640,7 @@
         <v>131</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1330</v>
+        <v>1409</v>
       </c>
       <c r="E50" s="6">
         <v>410</v>
@@ -32680,7 +32681,7 @@
         <v>132</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1331</v>
+        <v>1410</v>
       </c>
       <c r="E51" s="6">
         <v>411</v>
@@ -32721,7 +32722,7 @@
         <v>133</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1332</v>
+        <v>1411</v>
       </c>
       <c r="E52" s="6">
         <v>412</v>
@@ -32762,7 +32763,7 @@
         <v>134</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1333</v>
+        <v>1412</v>
       </c>
       <c r="E53" s="6">
         <v>413</v>
@@ -32803,7 +32804,7 @@
         <v>135</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1334</v>
+        <v>1413</v>
       </c>
       <c r="E54" s="6">
         <v>414</v>
@@ -32844,7 +32845,7 @@
         <v>136</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1335</v>
+        <v>1414</v>
       </c>
       <c r="E55" s="6">
         <v>415</v>
@@ -32885,7 +32886,7 @@
         <v>137</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1336</v>
+        <v>1415</v>
       </c>
       <c r="E56" s="6">
         <v>416</v>
@@ -32926,7 +32927,7 @@
         <v>138</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1337</v>
+        <v>1416</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>781</v>
@@ -32967,7 +32968,7 @@
         <v>139</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
       <c r="E58" s="6">
         <v>502</v>
@@ -33008,7 +33009,7 @@
         <v>141</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="E59" s="6">
         <v>503</v>
@@ -33049,7 +33050,7 @@
         <v>143</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="E60" s="6">
         <v>504</v>
@@ -33090,7 +33091,7 @@
         <v>145</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="E61" s="6">
         <v>505</v>
@@ -33131,7 +33132,7 @@
         <v>148</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="E62" s="6">
         <v>506</v>
@@ -33172,7 +33173,7 @@
         <v>151</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
       <c r="E63" s="6">
         <v>507</v>
@@ -33213,7 +33214,7 @@
         <v>154</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="E64" s="6">
         <v>508</v>
@@ -33254,7 +33255,7 @@
         <v>157</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="E65" s="6">
         <v>509</v>
@@ -33295,7 +33296,7 @@
         <v>160</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="E66" s="6">
         <v>510</v>
@@ -33336,7 +33337,7 @@
         <v>162</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1347</v>
+        <v>1331</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>781</v>
@@ -33377,7 +33378,7 @@
         <v>164</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1348</v>
+        <v>1332</v>
       </c>
       <c r="E68" s="6">
         <v>602</v>
@@ -33418,7 +33419,7 @@
         <v>166</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1349</v>
+        <v>1333</v>
       </c>
       <c r="E69" s="6">
         <v>603</v>
@@ -33459,7 +33460,7 @@
         <v>169</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1350</v>
+        <v>1334</v>
       </c>
       <c r="E70" s="6">
         <v>604</v>
@@ -33500,7 +33501,7 @@
         <v>172</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="E71" s="6">
         <v>605</v>
@@ -33541,7 +33542,7 @@
         <v>175</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1352</v>
+        <v>1336</v>
       </c>
       <c r="E72" s="6">
         <v>606</v>
@@ -33582,7 +33583,7 @@
         <v>179</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
       <c r="E73" s="6">
         <v>607</v>
@@ -33623,7 +33624,7 @@
         <v>182</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1354</v>
+        <v>1338</v>
       </c>
       <c r="E74" s="6">
         <v>608</v>
@@ -33664,7 +33665,7 @@
         <v>184</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="E75" s="6">
         <v>609</v>
@@ -33705,7 +33706,7 @@
         <v>186</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
       <c r="E76" s="6">
         <v>610</v>
@@ -33746,7 +33747,7 @@
         <v>188</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1357</v>
+        <v>1341</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>781</v>
@@ -33787,7 +33788,7 @@
         <v>191</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1358</v>
+        <v>1342</v>
       </c>
       <c r="E78" s="6">
         <v>702</v>
@@ -33828,7 +33829,7 @@
         <v>193</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="E79" s="6">
         <v>703</v>
@@ -33869,7 +33870,7 @@
         <v>196</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="E80" s="6">
         <v>704</v>
@@ -33910,7 +33911,7 @@
         <v>198</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1361</v>
+        <v>1345</v>
       </c>
       <c r="E81" s="6">
         <v>705</v>
@@ -33951,7 +33952,7 @@
         <v>200</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="E82" s="6">
         <v>706</v>
@@ -33992,7 +33993,7 @@
         <v>202</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1363</v>
+        <v>1347</v>
       </c>
       <c r="E83" s="6">
         <v>707</v>
@@ -34033,7 +34034,7 @@
         <v>205</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1364</v>
+        <v>1348</v>
       </c>
       <c r="E84" s="6">
         <v>708</v>
@@ -34074,7 +34075,7 @@
         <v>208</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1365</v>
+        <v>1349</v>
       </c>
       <c r="E85" s="6">
         <v>709</v>
@@ -34115,7 +34116,7 @@
         <v>210</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1366</v>
+        <v>1350</v>
       </c>
       <c r="E86" s="6">
         <v>710</v>
@@ -34156,7 +34157,7 @@
         <v>212</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1367</v>
+        <v>1351</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>781</v>
@@ -34194,10 +34195,10 @@
         <v>801</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>887</v>
+        <v>1417</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
       <c r="E88" s="6">
         <v>802</v>
@@ -34235,10 +34236,10 @@
         <v>802</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>888</v>
+        <v>1418</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1369</v>
+        <v>1353</v>
       </c>
       <c r="E89" s="6">
         <v>803</v>
@@ -34276,10 +34277,10 @@
         <v>803</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>889</v>
+        <v>1420</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1370</v>
+        <v>1354</v>
       </c>
       <c r="E90" s="6">
         <v>804</v>
@@ -34317,10 +34318,10 @@
         <v>804</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>890</v>
+        <v>1419</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1371</v>
+        <v>1355</v>
       </c>
       <c r="E91" s="6">
         <v>805</v>
@@ -34358,10 +34359,10 @@
         <v>805</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>891</v>
+        <v>1421</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1372</v>
+        <v>1356</v>
       </c>
       <c r="E92" s="6">
         <v>806</v>
@@ -34399,10 +34400,10 @@
         <v>806</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>892</v>
+        <v>1422</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
       <c r="E93" s="6">
         <v>807</v>
@@ -34440,10 +34441,10 @@
         <v>807</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>893</v>
+        <v>1423</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1374</v>
+        <v>1358</v>
       </c>
       <c r="E94" s="6">
         <v>808</v>
@@ -34481,10 +34482,10 @@
         <v>808</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>894</v>
+        <v>1424</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>781</v>
@@ -34525,7 +34526,7 @@
         <v>430</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
       <c r="E96" s="6">
         <v>902</v>
@@ -34566,7 +34567,7 @@
         <v>431</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
       <c r="E97" s="6">
         <v>903</v>
@@ -34607,7 +34608,7 @@
         <v>432</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
       <c r="E98" s="6">
         <v>904</v>
@@ -34648,7 +34649,7 @@
         <v>433</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1379</v>
+        <v>1363</v>
       </c>
       <c r="E99" s="6">
         <v>905</v>
@@ -34689,7 +34690,7 @@
         <v>434</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1380</v>
+        <v>1364</v>
       </c>
       <c r="E100" s="6">
         <v>906</v>
@@ -34730,7 +34731,7 @@
         <v>435</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="E101" s="6">
         <v>907</v>
@@ -34771,7 +34772,7 @@
         <v>436</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="E102" s="6">
         <v>908</v>
@@ -34812,7 +34813,7 @@
         <v>437</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1383</v>
+        <v>1367</v>
       </c>
       <c r="E103" s="6">
         <v>909</v>
@@ -34853,7 +34854,7 @@
         <v>438</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="E104" s="6">
         <v>910</v>
@@ -34894,7 +34895,7 @@
         <v>439</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>781</v>
@@ -34929,16 +34930,16 @@
         <v>103</v>
       </c>
       <c r="B106" s="6">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1386</v>
+        <v>1370</v>
       </c>
       <c r="E106" s="6">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="F106" s="6">
         <v>10</v>
@@ -34950,7 +34951,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="6">
-        <v>201010001</v>
+        <v>201010010</v>
       </c>
       <c r="J106" s="6">
         <v>2</v>
@@ -34968,7 +34969,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -34976,16 +34977,16 @@
         <v>104</v>
       </c>
       <c r="B107" s="6">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1387</v>
+        <v>1371</v>
       </c>
       <c r="E107" s="6">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="F107" s="6">
         <v>10</v>
@@ -34997,7 +34998,7 @@
         <v>2</v>
       </c>
       <c r="I107" s="6">
-        <v>201010002</v>
+        <v>201010011</v>
       </c>
       <c r="J107" s="6">
         <v>2</v>
@@ -35009,13 +35010,13 @@
         <v>5</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N107" s="6">
         <v>0</v>
       </c>
       <c r="O107" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35023,16 +35024,16 @@
         <v>105</v>
       </c>
       <c r="B108" s="6">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
       <c r="E108" s="6">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="F108" s="6">
         <v>10</v>
@@ -35044,7 +35045,7 @@
         <v>3</v>
       </c>
       <c r="I108" s="6">
-        <v>201010003</v>
+        <v>201010012</v>
       </c>
       <c r="J108" s="6">
         <v>2</v>
@@ -35056,13 +35057,13 @@
         <v>5</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="N108" s="6">
         <v>0</v>
       </c>
       <c r="O108" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35070,16 +35071,16 @@
         <v>106</v>
       </c>
       <c r="B109" s="6">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
       <c r="E109" s="6">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="F109" s="6">
         <v>10</v>
@@ -35091,7 +35092,7 @@
         <v>4</v>
       </c>
       <c r="I109" s="6">
-        <v>201010004</v>
+        <v>201010013</v>
       </c>
       <c r="J109" s="6">
         <v>2</v>
@@ -35109,7 +35110,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35117,16 +35118,16 @@
         <v>107</v>
       </c>
       <c r="B110" s="6">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1390</v>
+        <v>1374</v>
       </c>
       <c r="E110" s="6">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="F110" s="6">
         <v>10</v>
@@ -35138,7 +35139,7 @@
         <v>5</v>
       </c>
       <c r="I110" s="6">
-        <v>201010005</v>
+        <v>201010014</v>
       </c>
       <c r="J110" s="6">
         <v>2</v>
@@ -35150,13 +35151,13 @@
         <v>5</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="N110" s="6">
         <v>0</v>
       </c>
       <c r="O110" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35164,16 +35165,16 @@
         <v>108</v>
       </c>
       <c r="B111" s="6">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1391</v>
+        <v>1375</v>
       </c>
       <c r="E111" s="6">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="F111" s="6">
         <v>10</v>
@@ -35185,7 +35186,7 @@
         <v>6</v>
       </c>
       <c r="I111" s="6">
-        <v>201010006</v>
+        <v>201010015</v>
       </c>
       <c r="J111" s="6">
         <v>2</v>
@@ -35197,13 +35198,13 @@
         <v>5</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="N111" s="6">
         <v>0</v>
       </c>
       <c r="O111" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35211,16 +35212,16 @@
         <v>109</v>
       </c>
       <c r="B112" s="6">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1392</v>
+        <v>1376</v>
       </c>
       <c r="E112" s="6">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="F112" s="6">
         <v>10</v>
@@ -35232,7 +35233,7 @@
         <v>7</v>
       </c>
       <c r="I112" s="6">
-        <v>201010007</v>
+        <v>201010016</v>
       </c>
       <c r="J112" s="6">
         <v>2</v>
@@ -35244,13 +35245,13 @@
         <v>5</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="N112" s="6">
         <v>0</v>
       </c>
       <c r="O112" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35258,16 +35259,16 @@
         <v>110</v>
       </c>
       <c r="B113" s="6">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1393</v>
+        <v>1377</v>
       </c>
       <c r="E113" s="6">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="F113" s="6">
         <v>10</v>
@@ -35279,7 +35280,7 @@
         <v>8</v>
       </c>
       <c r="I113" s="6">
-        <v>201010008</v>
+        <v>201010017</v>
       </c>
       <c r="J113" s="6">
         <v>2</v>
@@ -35291,13 +35292,13 @@
         <v>5</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="N113" s="6">
         <v>0</v>
       </c>
       <c r="O113" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35305,16 +35306,16 @@
         <v>111</v>
       </c>
       <c r="B114" s="6">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1394</v>
+        <v>1378</v>
       </c>
       <c r="E114" s="6">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="F114" s="6">
         <v>10</v>
@@ -35326,7 +35327,7 @@
         <v>9</v>
       </c>
       <c r="I114" s="6">
-        <v>201010009</v>
+        <v>201010018</v>
       </c>
       <c r="J114" s="6">
         <v>2</v>
@@ -35338,13 +35339,13 @@
         <v>5</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="N114" s="6">
         <v>0</v>
       </c>
       <c r="O114" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35352,16 +35353,16 @@
         <v>112</v>
       </c>
       <c r="B115" s="6">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
       <c r="E115" s="6">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="F115" s="6">
         <v>10</v>
@@ -35373,7 +35374,7 @@
         <v>10</v>
       </c>
       <c r="I115" s="6">
-        <v>201010010</v>
+        <v>201010019</v>
       </c>
       <c r="J115" s="6">
         <v>2</v>
@@ -35385,7 +35386,7 @@
         <v>5</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N115" s="6">
         <v>0</v>
@@ -35399,16 +35400,16 @@
         <v>113</v>
       </c>
       <c r="B116" s="6">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1396</v>
+        <v>1380</v>
       </c>
       <c r="E116" s="6">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="F116" s="6">
         <v>10</v>
@@ -35420,7 +35421,7 @@
         <v>11</v>
       </c>
       <c r="I116" s="6">
-        <v>201010011</v>
+        <v>201010020</v>
       </c>
       <c r="J116" s="6">
         <v>2</v>
@@ -35432,7 +35433,7 @@
         <v>5</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N116" s="6">
         <v>0</v>
@@ -35446,16 +35447,16 @@
         <v>114</v>
       </c>
       <c r="B117" s="6">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1397</v>
+        <v>1381</v>
       </c>
       <c r="E117" s="6">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="F117" s="6">
         <v>10</v>
@@ -35467,7 +35468,7 @@
         <v>12</v>
       </c>
       <c r="I117" s="6">
-        <v>201010012</v>
+        <v>201010021</v>
       </c>
       <c r="J117" s="6">
         <v>2</v>
@@ -35479,7 +35480,7 @@
         <v>5</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N117" s="6">
         <v>0</v>
@@ -35493,16 +35494,16 @@
         <v>115</v>
       </c>
       <c r="B118" s="6">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
       <c r="E118" s="6">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="F118" s="6">
         <v>10</v>
@@ -35514,7 +35515,7 @@
         <v>13</v>
       </c>
       <c r="I118" s="6">
-        <v>201010013</v>
+        <v>201010022</v>
       </c>
       <c r="J118" s="6">
         <v>2</v>
@@ -35526,7 +35527,7 @@
         <v>5</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="N118" s="6">
         <v>0</v>
@@ -35540,16 +35541,16 @@
         <v>116</v>
       </c>
       <c r="B119" s="6">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
       <c r="E119" s="6">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="F119" s="6">
         <v>10</v>
@@ -35561,7 +35562,7 @@
         <v>14</v>
       </c>
       <c r="I119" s="6">
-        <v>201010014</v>
+        <v>201010023</v>
       </c>
       <c r="J119" s="6">
         <v>2</v>
@@ -35573,7 +35574,7 @@
         <v>5</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="N119" s="6">
         <v>0</v>
@@ -35587,16 +35588,16 @@
         <v>117</v>
       </c>
       <c r="B120" s="6">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="E120" s="6">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="F120" s="6">
         <v>10</v>
@@ -35608,7 +35609,7 @@
         <v>15</v>
       </c>
       <c r="I120" s="6">
-        <v>201010015</v>
+        <v>201010024</v>
       </c>
       <c r="J120" s="6">
         <v>2</v>
@@ -35620,7 +35621,7 @@
         <v>5</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="N120" s="6">
         <v>0</v>
@@ -35634,16 +35635,16 @@
         <v>118</v>
       </c>
       <c r="B121" s="6">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
       <c r="E121" s="6">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="F121" s="6">
         <v>10</v>
@@ -35655,7 +35656,7 @@
         <v>16</v>
       </c>
       <c r="I121" s="6">
-        <v>201010016</v>
+        <v>201010025</v>
       </c>
       <c r="J121" s="6">
         <v>2</v>
@@ -35667,7 +35668,7 @@
         <v>5</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="N121" s="6">
         <v>0</v>
@@ -35681,16 +35682,16 @@
         <v>119</v>
       </c>
       <c r="B122" s="6">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1402</v>
+        <v>1386</v>
       </c>
       <c r="E122" s="6">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="F122" s="6">
         <v>10</v>
@@ -35702,7 +35703,7 @@
         <v>17</v>
       </c>
       <c r="I122" s="6">
-        <v>201010017</v>
+        <v>201010026</v>
       </c>
       <c r="J122" s="6">
         <v>2</v>
@@ -35714,7 +35715,7 @@
         <v>5</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="N122" s="6">
         <v>0</v>
@@ -35728,16 +35729,16 @@
         <v>120</v>
       </c>
       <c r="B123" s="6">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1403</v>
+        <v>1387</v>
       </c>
       <c r="E123" s="6">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="F123" s="6">
         <v>10</v>
@@ -35749,7 +35750,7 @@
         <v>18</v>
       </c>
       <c r="I123" s="6">
-        <v>201010018</v>
+        <v>201010027</v>
       </c>
       <c r="J123" s="6">
         <v>2</v>
@@ -35761,7 +35762,7 @@
         <v>5</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="N123" s="6">
         <v>0</v>
@@ -35770,21 +35771,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>121</v>
       </c>
       <c r="B124" s="6">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1404</v>
+        <v>1388</v>
       </c>
       <c r="E124" s="6">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="F124" s="6">
         <v>10</v>
@@ -35796,7 +35797,7 @@
         <v>19</v>
       </c>
       <c r="I124" s="6">
-        <v>201010019</v>
+        <v>201010028</v>
       </c>
       <c r="J124" s="6">
         <v>2</v>
@@ -35808,7 +35809,7 @@
         <v>5</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="N124" s="6">
         <v>0</v>
@@ -35822,16 +35823,16 @@
         <v>122</v>
       </c>
       <c r="B125" s="6">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
       <c r="E125" s="6">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="F125" s="6">
         <v>10</v>
@@ -35843,7 +35844,7 @@
         <v>20</v>
       </c>
       <c r="I125" s="6">
-        <v>201010020</v>
+        <v>201010029</v>
       </c>
       <c r="J125" s="6">
         <v>2</v>
@@ -35855,7 +35856,7 @@
         <v>5</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="N125" s="6">
         <v>0</v>
@@ -35869,16 +35870,16 @@
         <v>123</v>
       </c>
       <c r="B126" s="6">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
       <c r="E126" s="6">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="F126" s="6">
         <v>10</v>
@@ -35890,7 +35891,7 @@
         <v>21</v>
       </c>
       <c r="I126" s="6">
-        <v>201010021</v>
+        <v>201010030</v>
       </c>
       <c r="J126" s="6">
         <v>2</v>
@@ -35902,7 +35903,7 @@
         <v>5</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="N126" s="6">
         <v>0</v>
@@ -35916,16 +35917,16 @@
         <v>124</v>
       </c>
       <c r="B127" s="6">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="E127" s="6">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="F127" s="6">
         <v>10</v>
@@ -35937,7 +35938,7 @@
         <v>22</v>
       </c>
       <c r="I127" s="6">
-        <v>201010022</v>
+        <v>201010031</v>
       </c>
       <c r="J127" s="6">
         <v>2</v>
@@ -35949,7 +35950,7 @@
         <v>5</v>
       </c>
       <c r="M127" s="6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="N127" s="6">
         <v>0</v>
@@ -35963,16 +35964,16 @@
         <v>125</v>
       </c>
       <c r="B128" s="6">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="E128" s="6">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="F128" s="6">
         <v>10</v>
@@ -35984,7 +35985,7 @@
         <v>23</v>
       </c>
       <c r="I128" s="6">
-        <v>201010023</v>
+        <v>201010032</v>
       </c>
       <c r="J128" s="6">
         <v>2</v>
@@ -35996,7 +35997,7 @@
         <v>5</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="N128" s="6">
         <v>0</v>
@@ -36010,16 +36011,16 @@
         <v>126</v>
       </c>
       <c r="B129" s="6">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="E129" s="6">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="F129" s="6">
         <v>10</v>
@@ -36031,7 +36032,7 @@
         <v>24</v>
       </c>
       <c r="I129" s="6">
-        <v>201010024</v>
+        <v>201010033</v>
       </c>
       <c r="J129" s="6">
         <v>2</v>
@@ -36043,7 +36044,7 @@
         <v>5</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="N129" s="6">
         <v>0</v>
@@ -36057,16 +36058,16 @@
         <v>127</v>
       </c>
       <c r="B130" s="6">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="E130" s="6">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="F130" s="6">
         <v>10</v>
@@ -36078,7 +36079,7 @@
         <v>25</v>
       </c>
       <c r="I130" s="6">
-        <v>201010025</v>
+        <v>201010034</v>
       </c>
       <c r="J130" s="6">
         <v>2</v>
@@ -36090,7 +36091,7 @@
         <v>5</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="N130" s="6">
         <v>0</v>
@@ -36104,16 +36105,16 @@
         <v>128</v>
       </c>
       <c r="B131" s="6">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="E131" s="6">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="F131" s="6">
         <v>10</v>
@@ -36125,7 +36126,7 @@
         <v>26</v>
       </c>
       <c r="I131" s="6">
-        <v>201010026</v>
+        <v>201010035</v>
       </c>
       <c r="J131" s="6">
         <v>2</v>
@@ -36137,7 +36138,7 @@
         <v>5</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="N131" s="6">
         <v>0</v>
@@ -36151,16 +36152,16 @@
         <v>129</v>
       </c>
       <c r="B132" s="6">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1412</v>
+        <v>1396</v>
       </c>
       <c r="E132" s="6">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="F132" s="6">
         <v>10</v>
@@ -36172,7 +36173,7 @@
         <v>27</v>
       </c>
       <c r="I132" s="6">
-        <v>201010027</v>
+        <v>201010036</v>
       </c>
       <c r="J132" s="6">
         <v>2</v>
@@ -36184,7 +36185,7 @@
         <v>5</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="N132" s="6">
         <v>0</v>
@@ -36193,21 +36194,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>130</v>
       </c>
       <c r="B133" s="6">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="E133" s="6">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="F133" s="6">
         <v>10</v>
@@ -36219,7 +36220,7 @@
         <v>28</v>
       </c>
       <c r="I133" s="6">
-        <v>201010028</v>
+        <v>201010037</v>
       </c>
       <c r="J133" s="6">
         <v>2</v>
@@ -36231,7 +36232,7 @@
         <v>5</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="N133" s="6">
         <v>0</v>
@@ -36245,16 +36246,16 @@
         <v>131</v>
       </c>
       <c r="B134" s="6">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
       <c r="E134" s="6">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="F134" s="6">
         <v>10</v>
@@ -36266,7 +36267,7 @@
         <v>29</v>
       </c>
       <c r="I134" s="6">
-        <v>201010029</v>
+        <v>201010038</v>
       </c>
       <c r="J134" s="6">
         <v>2</v>
@@ -36278,7 +36279,7 @@
         <v>5</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="N134" s="6">
         <v>0</v>
@@ -36292,16 +36293,16 @@
         <v>132</v>
       </c>
       <c r="B135" s="6">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1415</v>
+        <v>1399</v>
       </c>
       <c r="E135" s="6">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="F135" s="6">
         <v>10</v>
@@ -36313,7 +36314,7 @@
         <v>30</v>
       </c>
       <c r="I135" s="6">
-        <v>201010030</v>
+        <v>201010039</v>
       </c>
       <c r="J135" s="6">
         <v>2</v>
@@ -36325,7 +36326,7 @@
         <v>5</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="N135" s="6">
         <v>0</v>
@@ -36339,16 +36340,16 @@
         <v>133</v>
       </c>
       <c r="B136" s="6">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E136" s="6">
-        <v>1032</v>
+        <v>1400</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F136" s="6">
         <v>10</v>
@@ -36360,7 +36361,7 @@
         <v>31</v>
       </c>
       <c r="I136" s="6">
-        <v>201010031</v>
+        <v>201010040</v>
       </c>
       <c r="J136" s="6">
         <v>2</v>
@@ -36372,7 +36373,7 @@
         <v>5</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="N136" s="6">
         <v>0</v>
@@ -36386,28 +36387,28 @@
         <v>134</v>
       </c>
       <c r="B137" s="6">
-        <v>1032</v>
+        <v>1101</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1417</v>
+        <v>597</v>
       </c>
       <c r="E137" s="6">
-        <v>1033</v>
+        <v>1102</v>
       </c>
       <c r="F137" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H137" s="6">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I137" s="6">
-        <v>201010032</v>
+        <v>301010001</v>
       </c>
       <c r="J137" s="6">
         <v>2</v>
@@ -36416,45 +36417,39 @@
         <v>0</v>
       </c>
       <c r="L137" s="6">
-        <v>5</v>
-      </c>
-      <c r="M137" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="N137" s="6">
-        <v>0</v>
-      </c>
-      <c r="O137" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
     </row>
     <row r="138" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>135</v>
       </c>
       <c r="B138" s="6">
-        <v>1033</v>
+        <v>1102</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1418</v>
+        <v>598</v>
       </c>
       <c r="E138" s="6">
-        <v>1034</v>
+        <v>1103</v>
       </c>
       <c r="F138" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G138" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H138" s="6">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I138" s="6">
-        <v>201010033</v>
+        <v>301010002</v>
       </c>
       <c r="J138" s="6">
         <v>2</v>
@@ -36463,45 +36458,39 @@
         <v>0</v>
       </c>
       <c r="L138" s="6">
-        <v>5</v>
-      </c>
-      <c r="M138" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="N138" s="6">
-        <v>0</v>
-      </c>
-      <c r="O138" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
     </row>
     <row r="139" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>136</v>
       </c>
       <c r="B139" s="6">
-        <v>1034</v>
+        <v>1103</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1419</v>
+        <v>599</v>
       </c>
       <c r="E139" s="6">
-        <v>1035</v>
+        <v>1104</v>
       </c>
       <c r="F139" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H139" s="6">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I139" s="6">
-        <v>201010034</v>
+        <v>301010003</v>
       </c>
       <c r="J139" s="6">
         <v>2</v>
@@ -36510,45 +36499,39 @@
         <v>0</v>
       </c>
       <c r="L139" s="6">
-        <v>5</v>
-      </c>
-      <c r="M139" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="N139" s="6">
-        <v>0</v>
-      </c>
-      <c r="O139" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
     </row>
     <row r="140" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>137</v>
       </c>
       <c r="B140" s="6">
-        <v>1035</v>
+        <v>1104</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1420</v>
+        <v>600</v>
       </c>
       <c r="E140" s="6">
-        <v>1036</v>
+        <v>1105</v>
       </c>
       <c r="F140" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G140" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H140" s="6">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I140" s="6">
-        <v>201010035</v>
+        <v>301010004</v>
       </c>
       <c r="J140" s="6">
         <v>2</v>
@@ -36557,45 +36540,39 @@
         <v>0</v>
       </c>
       <c r="L140" s="6">
-        <v>5</v>
-      </c>
-      <c r="M140" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="N140" s="6">
-        <v>0</v>
-      </c>
-      <c r="O140" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
     </row>
     <row r="141" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>138</v>
       </c>
       <c r="B141" s="6">
-        <v>1036</v>
+        <v>1105</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1421</v>
+        <v>601</v>
       </c>
       <c r="E141" s="6">
-        <v>1037</v>
+        <v>1106</v>
       </c>
       <c r="F141" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G141" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H141" s="6">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="I141" s="6">
-        <v>201010036</v>
+        <v>301010005</v>
       </c>
       <c r="J141" s="6">
         <v>2</v>
@@ -36604,45 +36581,39 @@
         <v>0</v>
       </c>
       <c r="L141" s="6">
-        <v>5</v>
-      </c>
-      <c r="M141" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="N141" s="6">
-        <v>0</v>
-      </c>
-      <c r="O141" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
     </row>
     <row r="142" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>139</v>
       </c>
       <c r="B142" s="6">
-        <v>1037</v>
+        <v>1106</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1422</v>
+        <v>602</v>
       </c>
       <c r="E142" s="6">
-        <v>1038</v>
+        <v>1107</v>
       </c>
       <c r="F142" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H142" s="6">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="I142" s="6">
-        <v>201010037</v>
+        <v>301010006</v>
       </c>
       <c r="J142" s="6">
         <v>2</v>
@@ -36651,45 +36622,39 @@
         <v>0</v>
       </c>
       <c r="L142" s="6">
-        <v>5</v>
-      </c>
-      <c r="M142" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="N142" s="6">
-        <v>0</v>
-      </c>
-      <c r="O142" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
     </row>
     <row r="143" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>140</v>
       </c>
       <c r="B143" s="6">
-        <v>1038</v>
+        <v>1107</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1423</v>
+        <v>603</v>
       </c>
       <c r="E143" s="6">
-        <v>1039</v>
+        <v>1108</v>
       </c>
       <c r="F143" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H143" s="6">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I143" s="6">
-        <v>201010038</v>
+        <v>301010007</v>
       </c>
       <c r="J143" s="6">
         <v>2</v>
@@ -36698,45 +36663,39 @@
         <v>0</v>
       </c>
       <c r="L143" s="6">
-        <v>5</v>
-      </c>
-      <c r="M143" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="N143" s="6">
-        <v>0</v>
-      </c>
-      <c r="O143" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
     </row>
     <row r="144" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>141</v>
       </c>
       <c r="B144" s="6">
-        <v>1039</v>
+        <v>1108</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1424</v>
+        <v>604</v>
       </c>
       <c r="E144" s="6">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="F144" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H144" s="6">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I144" s="6">
-        <v>201010039</v>
+        <v>301010008</v>
       </c>
       <c r="J144" s="6">
         <v>2</v>
@@ -36745,45 +36704,39 @@
         <v>0</v>
       </c>
       <c r="L144" s="6">
-        <v>5</v>
-      </c>
-      <c r="M144" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="N144" s="6">
-        <v>0</v>
-      </c>
-      <c r="O144" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
     </row>
     <row r="145" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>142</v>
       </c>
       <c r="B145" s="6">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>781</v>
+        <v>605</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1110</v>
       </c>
       <c r="F145" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H145" s="6">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I145" s="6">
-        <v>201010040</v>
+        <v>301010009</v>
       </c>
       <c r="J145" s="6">
         <v>2</v>
@@ -36792,33 +36745,27 @@
         <v>0</v>
       </c>
       <c r="L145" s="6">
-        <v>5</v>
-      </c>
-      <c r="M145" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="N145" s="6">
-        <v>0</v>
-      </c>
-      <c r="O145" s="6">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
     </row>
     <row r="146" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>143</v>
       </c>
       <c r="B146" s="6">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E146" s="6">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="F146" s="6">
         <v>11</v>
@@ -36827,10 +36774,10 @@
         <v>780</v>
       </c>
       <c r="H146" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I146" s="6">
-        <v>301010001</v>
+        <v>301010010</v>
       </c>
       <c r="J146" s="6">
         <v>2</v>
@@ -36850,16 +36797,16 @@
         <v>144</v>
       </c>
       <c r="B147" s="6">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="E147" s="6">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="F147" s="6">
         <v>11</v>
@@ -36868,10 +36815,10 @@
         <v>780</v>
       </c>
       <c r="H147" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I147" s="6">
-        <v>301010002</v>
+        <v>301010011</v>
       </c>
       <c r="J147" s="6">
         <v>2</v>
@@ -36891,16 +36838,16 @@
         <v>145</v>
       </c>
       <c r="B148" s="6">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="E148" s="6">
-        <v>1104</v>
+        <v>608</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F148" s="6">
         <v>11</v>
@@ -36909,10 +36856,10 @@
         <v>780</v>
       </c>
       <c r="H148" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I148" s="6">
-        <v>301010003</v>
+        <v>301010012</v>
       </c>
       <c r="J148" s="6">
         <v>2</v>
@@ -36932,28 +36879,28 @@
         <v>146</v>
       </c>
       <c r="B149" s="6">
-        <v>1104</v>
+        <v>1201</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="E149" s="6">
-        <v>1105</v>
+        <v>1202</v>
       </c>
       <c r="F149" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G149" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H149" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I149" s="6">
-        <v>301010004</v>
+        <v>302010001</v>
       </c>
       <c r="J149" s="6">
         <v>2</v>
@@ -36973,28 +36920,28 @@
         <v>147</v>
       </c>
       <c r="B150" s="6">
-        <v>1105</v>
+        <v>1202</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="E150" s="6">
-        <v>1106</v>
+        <v>1203</v>
       </c>
       <c r="F150" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H150" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I150" s="6">
-        <v>301010005</v>
+        <v>302010002</v>
       </c>
       <c r="J150" s="6">
         <v>2</v>
@@ -37014,28 +36961,28 @@
         <v>148</v>
       </c>
       <c r="B151" s="6">
-        <v>1106</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>602</v>
+        <v>1203</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>611</v>
       </c>
       <c r="E151" s="6">
-        <v>1107</v>
+        <v>1204</v>
       </c>
       <c r="F151" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H151" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I151" s="6">
-        <v>301010006</v>
+        <v>302010003</v>
       </c>
       <c r="J151" s="6">
         <v>2</v>
@@ -37055,28 +37002,28 @@
         <v>149</v>
       </c>
       <c r="B152" s="6">
-        <v>1107</v>
+        <v>1204</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="E152" s="6">
-        <v>1108</v>
+        <v>1205</v>
       </c>
       <c r="F152" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H152" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I152" s="6">
-        <v>301010007</v>
+        <v>302010004</v>
       </c>
       <c r="J152" s="6">
         <v>2</v>
@@ -37096,28 +37043,28 @@
         <v>150</v>
       </c>
       <c r="B153" s="6">
-        <v>1108</v>
+        <v>1205</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="E153" s="6">
-        <v>1109</v>
+        <v>1206</v>
       </c>
       <c r="F153" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H153" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I153" s="6">
-        <v>301010008</v>
+        <v>302010005</v>
       </c>
       <c r="J153" s="6">
         <v>2</v>
@@ -37137,28 +37084,28 @@
         <v>151</v>
       </c>
       <c r="B154" s="6">
-        <v>1109</v>
+        <v>1206</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="E154" s="6">
-        <v>1110</v>
+        <v>1207</v>
       </c>
       <c r="F154" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H154" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I154" s="6">
-        <v>301010009</v>
+        <v>302010006</v>
       </c>
       <c r="J154" s="6">
         <v>2</v>
@@ -37178,28 +37125,28 @@
         <v>152</v>
       </c>
       <c r="B155" s="6">
-        <v>1110</v>
+        <v>1207</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="E155" s="6">
-        <v>1111</v>
+        <v>1208</v>
       </c>
       <c r="F155" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H155" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I155" s="6">
-        <v>301010010</v>
+        <v>302010007</v>
       </c>
       <c r="J155" s="6">
         <v>2</v>
@@ -37219,28 +37166,28 @@
         <v>153</v>
       </c>
       <c r="B156" s="6">
-        <v>1111</v>
+        <v>1208</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="E156" s="6">
-        <v>1112</v>
+        <v>1209</v>
       </c>
       <c r="F156" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G156" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H156" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I156" s="6">
-        <v>301010011</v>
+        <v>302010008</v>
       </c>
       <c r="J156" s="6">
         <v>2</v>
@@ -37260,28 +37207,28 @@
         <v>154</v>
       </c>
       <c r="B157" s="6">
-        <v>1112</v>
+        <v>1209</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>781</v>
+        <v>617</v>
+      </c>
+      <c r="E157" s="6">
+        <v>1210</v>
       </c>
       <c r="F157" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G157" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H157" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I157" s="6">
-        <v>301010012</v>
+        <v>302010009</v>
       </c>
       <c r="J157" s="6">
         <v>2</v>
@@ -37301,16 +37248,16 @@
         <v>155</v>
       </c>
       <c r="B158" s="6">
-        <v>1201</v>
+        <v>1210</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="E158" s="6">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="F158" s="6">
         <v>12</v>
@@ -37319,10 +37266,10 @@
         <v>780</v>
       </c>
       <c r="H158" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I158" s="6">
-        <v>302010001</v>
+        <v>302010010</v>
       </c>
       <c r="J158" s="6">
         <v>2</v>
@@ -37342,16 +37289,16 @@
         <v>156</v>
       </c>
       <c r="B159" s="6">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E159" s="6">
-        <v>1203</v>
+        <v>1212</v>
       </c>
       <c r="F159" s="6">
         <v>12</v>
@@ -37360,10 +37307,10 @@
         <v>780</v>
       </c>
       <c r="H159" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I159" s="6">
-        <v>302010002</v>
+        <v>302010011</v>
       </c>
       <c r="J159" s="6">
         <v>2</v>
@@ -37383,16 +37330,16 @@
         <v>157</v>
       </c>
       <c r="B160" s="6">
-        <v>1203</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>611</v>
+        <v>1212</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="E160" s="6">
-        <v>1204</v>
+        <v>1213</v>
       </c>
       <c r="F160" s="6">
         <v>12</v>
@@ -37401,10 +37348,10 @@
         <v>780</v>
       </c>
       <c r="H160" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I160" s="6">
-        <v>302010003</v>
+        <v>302010012</v>
       </c>
       <c r="J160" s="6">
         <v>2</v>
@@ -37424,16 +37371,16 @@
         <v>158</v>
       </c>
       <c r="B161" s="6">
-        <v>1204</v>
+        <v>1213</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E161" s="6">
-        <v>1205</v>
+        <v>621</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F161" s="6">
         <v>12</v>
@@ -37442,10 +37389,10 @@
         <v>780</v>
       </c>
       <c r="H161" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I161" s="6">
-        <v>302010004</v>
+        <v>302010013</v>
       </c>
       <c r="J161" s="6">
         <v>2</v>
@@ -37465,31 +37412,31 @@
         <v>159</v>
       </c>
       <c r="B162" s="6">
-        <v>1205</v>
+        <v>1301</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="E162" s="6">
-        <v>1206</v>
+        <v>1302</v>
       </c>
       <c r="F162" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H162" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I162" s="6">
-        <v>302010005</v>
-      </c>
-      <c r="J162" s="6">
-        <v>2</v>
+        <v>302020101</v>
+      </c>
+      <c r="J162" s="20" t="s">
+        <v>895</v>
       </c>
       <c r="K162" s="6">
         <v>0</v>
@@ -37506,37 +37453,37 @@
         <v>160</v>
       </c>
       <c r="B163" s="6">
-        <v>1206</v>
+        <v>1302</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E163" s="6">
-        <v>1207</v>
+        <v>1303</v>
       </c>
       <c r="F163" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H163" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I163" s="6">
-        <v>302010006</v>
-      </c>
-      <c r="J163" s="6">
-        <v>2</v>
+        <v>302020102</v>
+      </c>
+      <c r="J163" s="20" t="s">
+        <v>895</v>
       </c>
       <c r="K163" s="6">
         <v>0</v>
       </c>
-      <c r="L163" s="6">
-        <v>10</v>
+      <c r="L163" s="20">
+        <v>20</v>
       </c>
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
@@ -37547,37 +37494,37 @@
         <v>161</v>
       </c>
       <c r="B164" s="6">
-        <v>1207</v>
+        <v>1303</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="E164" s="6">
-        <v>1208</v>
+        <v>1304</v>
       </c>
       <c r="F164" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H164" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I164" s="6">
-        <v>302010007</v>
-      </c>
-      <c r="J164" s="6">
-        <v>2</v>
+        <v>302020103</v>
+      </c>
+      <c r="J164" s="20" t="s">
+        <v>895</v>
       </c>
       <c r="K164" s="6">
         <v>0</v>
       </c>
       <c r="L164" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
@@ -37588,37 +37535,37 @@
         <v>162</v>
       </c>
       <c r="B165" s="6">
-        <v>1208</v>
+        <v>1304</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="E165" s="6">
-        <v>1209</v>
+        <v>1305</v>
       </c>
       <c r="F165" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H165" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I165" s="6">
-        <v>302010008</v>
-      </c>
-      <c r="J165" s="6">
-        <v>2</v>
+        <v>302020104</v>
+      </c>
+      <c r="J165" s="20" t="s">
+        <v>895</v>
       </c>
       <c r="K165" s="6">
         <v>0</v>
       </c>
       <c r="L165" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
@@ -37629,36 +37576,36 @@
         <v>163</v>
       </c>
       <c r="B166" s="6">
-        <v>1209</v>
+        <v>1305</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="E166" s="6">
-        <v>1210</v>
+        <v>1306</v>
       </c>
       <c r="F166" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H166" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I166" s="6">
-        <v>302010009</v>
-      </c>
-      <c r="J166" s="6">
-        <v>2</v>
+        <v>302020105</v>
+      </c>
+      <c r="J166" s="20" t="s">
+        <v>896</v>
       </c>
       <c r="K166" s="6">
         <v>0</v>
       </c>
-      <c r="L166" s="6">
+      <c r="L166" s="20">
         <v>10</v>
       </c>
       <c r="M166" s="6"/>
@@ -37670,37 +37617,37 @@
         <v>164</v>
       </c>
       <c r="B167" s="6">
-        <v>1210</v>
+        <v>1306</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="E167" s="6">
-        <v>1211</v>
+        <v>1307</v>
       </c>
       <c r="F167" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H167" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I167" s="6">
-        <v>302010010</v>
-      </c>
-      <c r="J167" s="6">
-        <v>2</v>
+        <v>302020106</v>
+      </c>
+      <c r="J167" s="20" t="s">
+        <v>896</v>
       </c>
       <c r="K167" s="6">
         <v>0</v>
       </c>
       <c r="L167" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
@@ -37711,37 +37658,37 @@
         <v>165</v>
       </c>
       <c r="B168" s="6">
-        <v>1211</v>
+        <v>1307</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="E168" s="6">
-        <v>1212</v>
+        <v>1308</v>
       </c>
       <c r="F168" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H168" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I168" s="6">
-        <v>302010011</v>
-      </c>
-      <c r="J168" s="6">
-        <v>2</v>
+        <v>302020107</v>
+      </c>
+      <c r="J168" s="20" t="s">
+        <v>896</v>
       </c>
       <c r="K168" s="6">
         <v>0</v>
       </c>
       <c r="L168" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
@@ -37752,37 +37699,37 @@
         <v>166</v>
       </c>
       <c r="B169" s="6">
-        <v>1212</v>
+        <v>1308</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="E169" s="6">
-        <v>1213</v>
+        <v>1309</v>
       </c>
       <c r="F169" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H169" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I169" s="6">
-        <v>302010012</v>
-      </c>
-      <c r="J169" s="6">
-        <v>2</v>
+        <v>302020108</v>
+      </c>
+      <c r="J169" s="20" t="s">
+        <v>896</v>
       </c>
       <c r="K169" s="6">
         <v>0</v>
       </c>
       <c r="L169" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
@@ -37793,31 +37740,31 @@
         <v>167</v>
       </c>
       <c r="B170" s="6">
-        <v>1213</v>
+        <v>1309</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>781</v>
+        <v>639</v>
+      </c>
+      <c r="E170" s="6">
+        <v>1310</v>
       </c>
       <c r="F170" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H170" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I170" s="6">
-        <v>302010013</v>
-      </c>
-      <c r="J170" s="6">
-        <v>2</v>
+        <v>302020109</v>
+      </c>
+      <c r="J170" s="25" t="s">
+        <v>1221</v>
       </c>
       <c r="K170" s="6">
         <v>0</v>
@@ -37834,16 +37781,16 @@
         <v>168</v>
       </c>
       <c r="B171" s="6">
-        <v>1301</v>
+        <v>1310</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="E171" s="6">
-        <v>1302</v>
+        <v>1311</v>
       </c>
       <c r="F171" s="6">
         <v>13</v>
@@ -37852,19 +37799,19 @@
         <v>780</v>
       </c>
       <c r="H171" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I171" s="6">
-        <v>302020101</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>895</v>
+        <v>302020110</v>
+      </c>
+      <c r="J171" s="25" t="s">
+        <v>1221</v>
       </c>
       <c r="K171" s="6">
         <v>0</v>
       </c>
       <c r="L171" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
@@ -37875,16 +37822,16 @@
         <v>169</v>
       </c>
       <c r="B172" s="6">
-        <v>1302</v>
+        <v>1311</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="E172" s="6">
-        <v>1303</v>
+        <v>643</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F172" s="6">
         <v>13</v>
@@ -37893,19 +37840,19 @@
         <v>780</v>
       </c>
       <c r="H172" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I172" s="6">
-        <v>302020102</v>
-      </c>
-      <c r="J172" s="20" t="s">
-        <v>895</v>
+        <v>302020111</v>
+      </c>
+      <c r="J172" s="25" t="s">
+        <v>1221</v>
       </c>
       <c r="K172" s="6">
         <v>0</v>
       </c>
-      <c r="L172" s="20">
-        <v>20</v>
+      <c r="L172" s="6">
+        <v>30</v>
       </c>
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
@@ -37916,37 +37863,37 @@
         <v>170</v>
       </c>
       <c r="B173" s="6">
-        <v>1303</v>
+        <v>1501</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>626</v>
+        <v>1272</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>627</v>
+        <v>1250</v>
       </c>
       <c r="E173" s="6">
-        <v>1304</v>
+        <v>1502</v>
       </c>
       <c r="F173" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G173" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H173" s="6">
-        <v>3</v>
-      </c>
-      <c r="I173" s="6">
-        <v>302020103</v>
-      </c>
-      <c r="J173" s="20" t="s">
-        <v>895</v>
+        <v>1</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K173" s="6">
         <v>0</v>
       </c>
       <c r="L173" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
@@ -37957,37 +37904,37 @@
         <v>171</v>
       </c>
       <c r="B174" s="6">
-        <v>1304</v>
+        <v>1502</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>628</v>
+        <v>1227</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>629</v>
+        <v>1251</v>
       </c>
       <c r="E174" s="6">
-        <v>1305</v>
+        <v>1503</v>
       </c>
       <c r="F174" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G174" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H174" s="6">
-        <v>4</v>
-      </c>
-      <c r="I174" s="6">
-        <v>302020104</v>
-      </c>
-      <c r="J174" s="20" t="s">
-        <v>895</v>
+        <v>2</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K174" s="6">
         <v>0</v>
       </c>
       <c r="L174" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
@@ -37998,37 +37945,37 @@
         <v>172</v>
       </c>
       <c r="B175" s="6">
-        <v>1305</v>
+        <v>1503</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>630</v>
+        <v>1228</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>631</v>
+        <v>1252</v>
       </c>
       <c r="E175" s="6">
-        <v>1306</v>
+        <v>1504</v>
       </c>
       <c r="F175" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G175" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H175" s="6">
-        <v>5</v>
-      </c>
-      <c r="I175" s="6">
-        <v>302020105</v>
-      </c>
-      <c r="J175" s="20" t="s">
-        <v>896</v>
+        <v>3</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K175" s="6">
         <v>0</v>
       </c>
-      <c r="L175" s="20">
-        <v>10</v>
+      <c r="L175" s="6">
+        <v>30</v>
       </c>
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
@@ -38039,37 +37986,37 @@
         <v>173</v>
       </c>
       <c r="B176" s="6">
-        <v>1306</v>
+        <v>1504</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>632</v>
+        <v>1229</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>633</v>
+        <v>1253</v>
       </c>
       <c r="E176" s="6">
-        <v>1307</v>
+        <v>1505</v>
       </c>
       <c r="F176" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G176" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H176" s="6">
-        <v>6</v>
-      </c>
-      <c r="I176" s="6">
-        <v>302020106</v>
-      </c>
-      <c r="J176" s="20" t="s">
-        <v>896</v>
+        <v>4</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K176" s="6">
         <v>0</v>
       </c>
       <c r="L176" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
@@ -38080,37 +38027,37 @@
         <v>174</v>
       </c>
       <c r="B177" s="6">
-        <v>1307</v>
+        <v>1505</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>634</v>
+        <v>1230</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>635</v>
+        <v>1254</v>
       </c>
       <c r="E177" s="6">
-        <v>1308</v>
+        <v>1506</v>
       </c>
       <c r="F177" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G177" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H177" s="6">
-        <v>7</v>
-      </c>
-      <c r="I177" s="6">
-        <v>302020107</v>
-      </c>
-      <c r="J177" s="20" t="s">
-        <v>896</v>
+        <v>5</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K177" s="6">
         <v>0</v>
       </c>
       <c r="L177" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
@@ -38121,31 +38068,31 @@
         <v>175</v>
       </c>
       <c r="B178" s="6">
-        <v>1308</v>
+        <v>1506</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>636</v>
+        <v>1231</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>637</v>
+        <v>1255</v>
       </c>
       <c r="E178" s="6">
-        <v>1309</v>
+        <v>1507</v>
       </c>
       <c r="F178" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H178" s="6">
-        <v>8</v>
-      </c>
-      <c r="I178" s="6">
-        <v>302020108</v>
-      </c>
-      <c r="J178" s="20" t="s">
-        <v>896</v>
+        <v>6</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K178" s="6">
         <v>0</v>
@@ -38162,37 +38109,37 @@
         <v>176</v>
       </c>
       <c r="B179" s="6">
-        <v>1309</v>
+        <v>1507</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>638</v>
+        <v>1232</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>639</v>
+        <v>1256</v>
       </c>
       <c r="E179" s="6">
-        <v>1310</v>
+        <v>1508</v>
       </c>
       <c r="F179" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G179" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H179" s="6">
-        <v>9</v>
-      </c>
-      <c r="I179" s="6">
-        <v>302020109</v>
-      </c>
-      <c r="J179" s="25" t="s">
-        <v>1221</v>
+        <v>7</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K179" s="6">
         <v>0</v>
       </c>
       <c r="L179" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
@@ -38203,37 +38150,37 @@
         <v>177</v>
       </c>
       <c r="B180" s="6">
-        <v>1310</v>
+        <v>1508</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>640</v>
+        <v>1233</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>641</v>
+        <v>1257</v>
       </c>
       <c r="E180" s="6">
-        <v>1311</v>
+        <v>1509</v>
       </c>
       <c r="F180" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G180" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H180" s="6">
-        <v>10</v>
-      </c>
-      <c r="I180" s="6">
-        <v>302020110</v>
-      </c>
-      <c r="J180" s="25" t="s">
-        <v>1221</v>
+        <v>8</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K180" s="6">
         <v>0</v>
       </c>
       <c r="L180" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
@@ -38244,37 +38191,37 @@
         <v>178</v>
       </c>
       <c r="B181" s="6">
-        <v>1311</v>
+        <v>1509</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>642</v>
+        <v>1234</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>781</v>
+        <v>1258</v>
+      </c>
+      <c r="E181" s="6">
+        <v>1510</v>
       </c>
       <c r="F181" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G181" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H181" s="6">
-        <v>11</v>
-      </c>
-      <c r="I181" s="6">
-        <v>302020111</v>
-      </c>
-      <c r="J181" s="25" t="s">
-        <v>1221</v>
+        <v>9</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>1276</v>
       </c>
       <c r="K181" s="6">
         <v>0</v>
       </c>
       <c r="L181" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
@@ -38285,28 +38232,28 @@
         <v>179</v>
       </c>
       <c r="B182" s="6">
-        <v>1501</v>
+        <v>1510</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1272</v>
+        <v>1235</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E182" s="6">
-        <v>1502</v>
+        <v>1259</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F182" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H182" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>1225</v>
+        <v>1235</v>
       </c>
       <c r="J182" s="6" t="s">
         <v>1276</v>
@@ -38315,7 +38262,7 @@
         <v>0</v>
       </c>
       <c r="L182" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
@@ -38326,28 +38273,28 @@
         <v>180</v>
       </c>
       <c r="B183" s="6">
-        <v>1502</v>
+        <v>1601</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1251</v>
+        <v>1260</v>
       </c>
       <c r="E183" s="6">
-        <v>1503</v>
+        <v>1602</v>
       </c>
       <c r="F183" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G183" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H183" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="J183" s="6" t="s">
         <v>1276</v>
@@ -38356,7 +38303,7 @@
         <v>0</v>
       </c>
       <c r="L183" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
@@ -38367,28 +38314,28 @@
         <v>181</v>
       </c>
       <c r="B184" s="6">
-        <v>1503</v>
+        <v>1602</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1252</v>
+        <v>1261</v>
       </c>
       <c r="E184" s="6">
-        <v>1504</v>
+        <v>1603</v>
       </c>
       <c r="F184" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H184" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="J184" s="6" t="s">
         <v>1276</v>
@@ -38397,7 +38344,7 @@
         <v>0</v>
       </c>
       <c r="L184" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
@@ -38408,28 +38355,28 @@
         <v>182</v>
       </c>
       <c r="B185" s="6">
-        <v>1504</v>
+        <v>1603</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1229</v>
+        <v>1239</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1253</v>
+        <v>1262</v>
       </c>
       <c r="E185" s="6">
-        <v>1505</v>
+        <v>1604</v>
       </c>
       <c r="F185" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G185" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H185" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>1229</v>
+        <v>1239</v>
       </c>
       <c r="J185" s="6" t="s">
         <v>1276</v>
@@ -38438,7 +38385,7 @@
         <v>0</v>
       </c>
       <c r="L185" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
@@ -38449,28 +38396,28 @@
         <v>183</v>
       </c>
       <c r="B186" s="6">
-        <v>1505</v>
+        <v>1604</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1254</v>
+        <v>1263</v>
       </c>
       <c r="E186" s="6">
-        <v>1506</v>
+        <v>1605</v>
       </c>
       <c r="F186" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H186" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="J186" s="6" t="s">
         <v>1276</v>
@@ -38490,28 +38437,28 @@
         <v>184</v>
       </c>
       <c r="B187" s="6">
-        <v>1506</v>
+        <v>1605</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1231</v>
+        <v>1241</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
       <c r="E187" s="6">
-        <v>1507</v>
+        <v>1606</v>
       </c>
       <c r="F187" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G187" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H187" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>1231</v>
+        <v>1241</v>
       </c>
       <c r="J187" s="6" t="s">
         <v>1276</v>
@@ -38531,28 +38478,28 @@
         <v>185</v>
       </c>
       <c r="B188" s="6">
-        <v>1507</v>
+        <v>1606</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E188" s="6">
-        <v>1508</v>
+        <v>1265</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F188" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G188" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H188" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="J188" s="6" t="s">
         <v>1276</v>
@@ -38567,33 +38514,33 @@
       <c r="N188" s="6"/>
       <c r="O188" s="6"/>
     </row>
-    <row r="189" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>186</v>
       </c>
       <c r="B189" s="6">
-        <v>1508</v>
+        <v>1701</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1233</v>
+        <v>1243</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1257</v>
+        <v>1266</v>
       </c>
       <c r="E189" s="6">
-        <v>1509</v>
+        <v>1702</v>
       </c>
       <c r="F189" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H189" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>1233</v>
+        <v>1243</v>
       </c>
       <c r="J189" s="6" t="s">
         <v>1276</v>
@@ -38602,39 +38549,39 @@
         <v>0</v>
       </c>
       <c r="L189" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
       <c r="O189" s="6"/>
     </row>
-    <row r="190" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>187</v>
       </c>
       <c r="B190" s="6">
-        <v>1509</v>
+        <v>1702</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>1258</v>
+        <v>1267</v>
       </c>
       <c r="E190" s="6">
-        <v>1510</v>
+        <v>1703</v>
       </c>
       <c r="F190" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G190" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H190" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
       <c r="J190" s="6" t="s">
         <v>1276</v>
@@ -38643,39 +38590,39 @@
         <v>0</v>
       </c>
       <c r="L190" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
       <c r="O190" s="6"/>
     </row>
-    <row r="191" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>188</v>
       </c>
       <c r="B191" s="6">
-        <v>1510</v>
+        <v>1703</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>781</v>
+        <v>1268</v>
+      </c>
+      <c r="E191" s="6">
+        <v>1704</v>
       </c>
       <c r="F191" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H191" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="J191" s="6" t="s">
         <v>1276</v>
@@ -38684,39 +38631,39 @@
         <v>0</v>
       </c>
       <c r="L191" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
     </row>
-    <row r="192" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>189</v>
       </c>
       <c r="B192" s="6">
-        <v>1601</v>
+        <v>1704</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1260</v>
+        <v>1269</v>
       </c>
       <c r="E192" s="6">
-        <v>1602</v>
+        <v>1705</v>
       </c>
       <c r="F192" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H192" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="J192" s="6" t="s">
         <v>1276</v>
@@ -38725,39 +38672,39 @@
         <v>0</v>
       </c>
       <c r="L192" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
       <c r="O192" s="6"/>
     </row>
-    <row r="193" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>190</v>
       </c>
       <c r="B193" s="6">
-        <v>1602</v>
+        <v>1705</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>1261</v>
+        <v>1270</v>
       </c>
       <c r="E193" s="6">
-        <v>1603</v>
+        <v>1706</v>
       </c>
       <c r="F193" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H193" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="J193" s="6" t="s">
         <v>1276</v>
@@ -38766,39 +38713,39 @@
         <v>0</v>
       </c>
       <c r="L193" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
       <c r="O193" s="6"/>
     </row>
-    <row r="194" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>191</v>
       </c>
       <c r="B194" s="6">
-        <v>1603</v>
+        <v>1706</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E194" s="6">
-        <v>1604</v>
+        <v>1271</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>781</v>
       </c>
       <c r="F194" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>780</v>
       </c>
       <c r="H194" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>1276</v>
@@ -38807,380 +38754,11 @@
         <v>0</v>
       </c>
       <c r="L194" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
       <c r="O194" s="6"/>
-    </row>
-    <row r="195" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="6">
-        <v>192</v>
-      </c>
-      <c r="B195" s="6">
-        <v>1604</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E195" s="6">
-        <v>1605</v>
-      </c>
-      <c r="F195" s="6">
-        <v>15</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H195" s="6">
-        <v>4</v>
-      </c>
-      <c r="I195" s="6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="J195" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K195" s="6">
-        <v>0</v>
-      </c>
-      <c r="L195" s="6">
-        <v>50</v>
-      </c>
-      <c r="M195" s="6"/>
-      <c r="N195" s="6"/>
-      <c r="O195" s="6"/>
-    </row>
-    <row r="196" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="6">
-        <v>193</v>
-      </c>
-      <c r="B196" s="6">
-        <v>1605</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E196" s="6">
-        <v>1606</v>
-      </c>
-      <c r="F196" s="6">
-        <v>15</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H196" s="6">
-        <v>5</v>
-      </c>
-      <c r="I196" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="J196" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K196" s="6">
-        <v>0</v>
-      </c>
-      <c r="L196" s="6">
-        <v>50</v>
-      </c>
-      <c r="M196" s="6"/>
-      <c r="N196" s="6"/>
-      <c r="O196" s="6"/>
-    </row>
-    <row r="197" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="6">
-        <v>194</v>
-      </c>
-      <c r="B197" s="6">
-        <v>1606</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F197" s="6">
-        <v>15</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H197" s="6">
-        <v>6</v>
-      </c>
-      <c r="I197" s="6" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K197" s="6">
-        <v>0</v>
-      </c>
-      <c r="L197" s="6">
-        <v>50</v>
-      </c>
-      <c r="M197" s="6"/>
-      <c r="N197" s="6"/>
-      <c r="O197" s="6"/>
-    </row>
-    <row r="198" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="6">
-        <v>195</v>
-      </c>
-      <c r="B198" s="6">
-        <v>1701</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E198" s="6">
-        <v>1702</v>
-      </c>
-      <c r="F198" s="6">
-        <v>16</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H198" s="6">
-        <v>1</v>
-      </c>
-      <c r="I198" s="6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J198" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K198" s="6">
-        <v>0</v>
-      </c>
-      <c r="L198" s="6">
-        <v>10</v>
-      </c>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6"/>
-    </row>
-    <row r="199" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="6">
-        <v>196</v>
-      </c>
-      <c r="B199" s="6">
-        <v>1702</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E199" s="6">
-        <v>1703</v>
-      </c>
-      <c r="F199" s="6">
-        <v>16</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H199" s="6">
-        <v>2</v>
-      </c>
-      <c r="I199" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J199" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K199" s="6">
-        <v>0</v>
-      </c>
-      <c r="L199" s="6">
-        <v>20</v>
-      </c>
-      <c r="M199" s="6"/>
-      <c r="N199" s="6"/>
-      <c r="O199" s="6"/>
-    </row>
-    <row r="200" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="6">
-        <v>197</v>
-      </c>
-      <c r="B200" s="6">
-        <v>1703</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E200" s="6">
-        <v>1704</v>
-      </c>
-      <c r="F200" s="6">
-        <v>16</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H200" s="6">
-        <v>3</v>
-      </c>
-      <c r="I200" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J200" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K200" s="6">
-        <v>0</v>
-      </c>
-      <c r="L200" s="6">
-        <v>30</v>
-      </c>
-      <c r="M200" s="6"/>
-      <c r="N200" s="6"/>
-      <c r="O200" s="6"/>
-    </row>
-    <row r="201" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="6">
-        <v>198</v>
-      </c>
-      <c r="B201" s="6">
-        <v>1704</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E201" s="6">
-        <v>1705</v>
-      </c>
-      <c r="F201" s="6">
-        <v>16</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H201" s="6">
-        <v>4</v>
-      </c>
-      <c r="I201" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="J201" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K201" s="6">
-        <v>0</v>
-      </c>
-      <c r="L201" s="6">
-        <v>50</v>
-      </c>
-      <c r="M201" s="6"/>
-      <c r="N201" s="6"/>
-      <c r="O201" s="6"/>
-    </row>
-    <row r="202" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="6">
-        <v>199</v>
-      </c>
-      <c r="B202" s="6">
-        <v>1705</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E202" s="6">
-        <v>1706</v>
-      </c>
-      <c r="F202" s="6">
-        <v>16</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H202" s="6">
-        <v>5</v>
-      </c>
-      <c r="I202" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J202" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K202" s="6">
-        <v>0</v>
-      </c>
-      <c r="L202" s="6">
-        <v>50</v>
-      </c>
-      <c r="M202" s="6"/>
-      <c r="N202" s="6"/>
-      <c r="O202" s="6"/>
-    </row>
-    <row r="203" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="6">
-        <v>200</v>
-      </c>
-      <c r="B203" s="6">
-        <v>1706</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F203" s="6">
-        <v>16</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="H203" s="6">
-        <v>6</v>
-      </c>
-      <c r="I203" s="6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="J203" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K203" s="6">
-        <v>0</v>
-      </c>
-      <c r="L203" s="6">
-        <v>50</v>
-      </c>
-      <c r="M203" s="6"/>
-      <c r="N203" s="6"/>
-      <c r="O203" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -39191,10 +38769,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39256,7 +38834,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39264,7 +38842,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39288,7 +38866,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39296,7 +38874,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39304,7 +38882,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39312,7 +38890,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39320,7 +38898,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39328,7 +38906,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39336,7 +38914,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1273</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39344,7 +38922,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -39352,6 +38930,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -39395,7 +38981,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>763</v>
@@ -39433,7 +39019,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G2" t="s">
         <v>769</v>
@@ -39459,19 +39045,19 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>771</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>774</v>
@@ -39500,7 +39086,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D4" s="3">
         <v>102</v>
@@ -39532,7 +39118,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D5" s="3">
         <v>103</v>
@@ -39564,7 +39150,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D6" s="3">
         <v>104</v>
@@ -39596,7 +39182,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D7" s="3">
         <v>105</v>
@@ -39628,7 +39214,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D8" s="3">
         <v>106</v>
@@ -39660,7 +39246,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D9" s="3">
         <v>107</v>
@@ -39730,7 +39316,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D11" s="3">
         <v>109</v>
@@ -39762,7 +39348,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D12" s="3">
         <v>110</v>
@@ -39794,7 +39380,7 @@
         <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D13" s="3">
         <v>111</v>
@@ -39826,7 +39412,7 @@
         <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D14" s="3">
         <v>112</v>
@@ -39858,7 +39444,7 @@
         <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>781</v>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\公用挂机\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FE844C-728C-4F09-8D2E-6C0DAD81F433}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D60245D-2C5C-45C4-9705-E3EF872260FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="1425">
   <si>
     <t>sheet名</t>
   </si>
@@ -5763,10 +5763,10 @@
   <dimension ref="A1:T606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D548" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D461" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B565" sqref="B565"/>
+      <selection pane="bottomRight" activeCell="C404" sqref="C404:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30585,11 +30585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H106" sqref="H106:H136"/>
+      <selection pane="bottomRight" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34950,8 +34950,8 @@
       <c r="H106" s="6">
         <v>1</v>
       </c>
-      <c r="I106" s="6">
-        <v>201010010</v>
+      <c r="I106" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="J106" s="6">
         <v>2</v>
@@ -34997,8 +34997,8 @@
       <c r="H107" s="6">
         <v>2</v>
       </c>
-      <c r="I107" s="6">
-        <v>201010011</v>
+      <c r="I107" s="6" t="s">
+        <v>560</v>
       </c>
       <c r="J107" s="6">
         <v>2</v>
@@ -35044,8 +35044,8 @@
       <c r="H108" s="6">
         <v>3</v>
       </c>
-      <c r="I108" s="6">
-        <v>201010012</v>
+      <c r="I108" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="J108" s="6">
         <v>2</v>
@@ -35091,8 +35091,8 @@
       <c r="H109" s="6">
         <v>4</v>
       </c>
-      <c r="I109" s="6">
-        <v>201010013</v>
+      <c r="I109" s="6" t="s">
+        <v>562</v>
       </c>
       <c r="J109" s="6">
         <v>2</v>
@@ -35138,8 +35138,8 @@
       <c r="H110" s="6">
         <v>5</v>
       </c>
-      <c r="I110" s="6">
-        <v>201010014</v>
+      <c r="I110" s="6" t="s">
+        <v>563</v>
       </c>
       <c r="J110" s="6">
         <v>2</v>
@@ -35185,8 +35185,8 @@
       <c r="H111" s="6">
         <v>6</v>
       </c>
-      <c r="I111" s="6">
-        <v>201010015</v>
+      <c r="I111" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="J111" s="6">
         <v>2</v>
@@ -35232,8 +35232,8 @@
       <c r="H112" s="6">
         <v>7</v>
       </c>
-      <c r="I112" s="6">
-        <v>201010016</v>
+      <c r="I112" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="J112" s="6">
         <v>2</v>
@@ -35279,8 +35279,8 @@
       <c r="H113" s="6">
         <v>8</v>
       </c>
-      <c r="I113" s="6">
-        <v>201010017</v>
+      <c r="I113" s="6" t="s">
+        <v>566</v>
       </c>
       <c r="J113" s="6">
         <v>2</v>
@@ -35326,8 +35326,8 @@
       <c r="H114" s="6">
         <v>9</v>
       </c>
-      <c r="I114" s="6">
-        <v>201010018</v>
+      <c r="I114" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="J114" s="6">
         <v>2</v>
@@ -35373,8 +35373,8 @@
       <c r="H115" s="6">
         <v>10</v>
       </c>
-      <c r="I115" s="6">
-        <v>201010019</v>
+      <c r="I115" s="6" t="s">
+        <v>568</v>
       </c>
       <c r="J115" s="6">
         <v>2</v>
@@ -35420,8 +35420,8 @@
       <c r="H116" s="6">
         <v>11</v>
       </c>
-      <c r="I116" s="6">
-        <v>201010020</v>
+      <c r="I116" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="J116" s="6">
         <v>2</v>
@@ -35467,8 +35467,8 @@
       <c r="H117" s="6">
         <v>12</v>
       </c>
-      <c r="I117" s="6">
-        <v>201010021</v>
+      <c r="I117" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="J117" s="6">
         <v>2</v>
@@ -35514,8 +35514,8 @@
       <c r="H118" s="6">
         <v>13</v>
       </c>
-      <c r="I118" s="6">
-        <v>201010022</v>
+      <c r="I118" s="6" t="s">
+        <v>571</v>
       </c>
       <c r="J118" s="6">
         <v>2</v>
@@ -35561,8 +35561,8 @@
       <c r="H119" s="6">
         <v>14</v>
       </c>
-      <c r="I119" s="6">
-        <v>201010023</v>
+      <c r="I119" s="6" t="s">
+        <v>572</v>
       </c>
       <c r="J119" s="6">
         <v>2</v>
@@ -35608,8 +35608,8 @@
       <c r="H120" s="6">
         <v>15</v>
       </c>
-      <c r="I120" s="6">
-        <v>201010024</v>
+      <c r="I120" s="6" t="s">
+        <v>573</v>
       </c>
       <c r="J120" s="6">
         <v>2</v>
@@ -35655,8 +35655,8 @@
       <c r="H121" s="6">
         <v>16</v>
       </c>
-      <c r="I121" s="6">
-        <v>201010025</v>
+      <c r="I121" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="J121" s="6">
         <v>2</v>
@@ -35702,8 +35702,8 @@
       <c r="H122" s="6">
         <v>17</v>
       </c>
-      <c r="I122" s="6">
-        <v>201010026</v>
+      <c r="I122" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="J122" s="6">
         <v>2</v>
@@ -35749,8 +35749,8 @@
       <c r="H123" s="6">
         <v>18</v>
       </c>
-      <c r="I123" s="6">
-        <v>201010027</v>
+      <c r="I123" s="6" t="s">
+        <v>576</v>
       </c>
       <c r="J123" s="6">
         <v>2</v>
@@ -35796,8 +35796,8 @@
       <c r="H124" s="6">
         <v>19</v>
       </c>
-      <c r="I124" s="6">
-        <v>201010028</v>
+      <c r="I124" s="6" t="s">
+        <v>577</v>
       </c>
       <c r="J124" s="6">
         <v>2</v>
@@ -35843,8 +35843,8 @@
       <c r="H125" s="6">
         <v>20</v>
       </c>
-      <c r="I125" s="6">
-        <v>201010029</v>
+      <c r="I125" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="J125" s="6">
         <v>2</v>
@@ -35890,8 +35890,8 @@
       <c r="H126" s="6">
         <v>21</v>
       </c>
-      <c r="I126" s="6">
-        <v>201010030</v>
+      <c r="I126" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="J126" s="6">
         <v>2</v>
@@ -35937,8 +35937,8 @@
       <c r="H127" s="6">
         <v>22</v>
       </c>
-      <c r="I127" s="6">
-        <v>201010031</v>
+      <c r="I127" s="6" t="s">
+        <v>580</v>
       </c>
       <c r="J127" s="6">
         <v>2</v>
@@ -35984,8 +35984,8 @@
       <c r="H128" s="6">
         <v>23</v>
       </c>
-      <c r="I128" s="6">
-        <v>201010032</v>
+      <c r="I128" s="6" t="s">
+        <v>581</v>
       </c>
       <c r="J128" s="6">
         <v>2</v>
@@ -36031,8 +36031,8 @@
       <c r="H129" s="6">
         <v>24</v>
       </c>
-      <c r="I129" s="6">
-        <v>201010033</v>
+      <c r="I129" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="J129" s="6">
         <v>2</v>
@@ -36078,8 +36078,8 @@
       <c r="H130" s="6">
         <v>25</v>
       </c>
-      <c r="I130" s="6">
-        <v>201010034</v>
+      <c r="I130" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="J130" s="6">
         <v>2</v>
@@ -36125,8 +36125,8 @@
       <c r="H131" s="6">
         <v>26</v>
       </c>
-      <c r="I131" s="6">
-        <v>201010035</v>
+      <c r="I131" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="J131" s="6">
         <v>2</v>
@@ -36172,8 +36172,8 @@
       <c r="H132" s="6">
         <v>27</v>
       </c>
-      <c r="I132" s="6">
-        <v>201010036</v>
+      <c r="I132" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="J132" s="6">
         <v>2</v>
@@ -36219,8 +36219,8 @@
       <c r="H133" s="6">
         <v>28</v>
       </c>
-      <c r="I133" s="6">
-        <v>201010037</v>
+      <c r="I133" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="J133" s="6">
         <v>2</v>
@@ -36266,8 +36266,8 @@
       <c r="H134" s="6">
         <v>29</v>
       </c>
-      <c r="I134" s="6">
-        <v>201010038</v>
+      <c r="I134" s="6" t="s">
+        <v>587</v>
       </c>
       <c r="J134" s="6">
         <v>2</v>
@@ -36313,8 +36313,8 @@
       <c r="H135" s="6">
         <v>30</v>
       </c>
-      <c r="I135" s="6">
-        <v>201010039</v>
+      <c r="I135" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="J135" s="6">
         <v>2</v>
@@ -36360,8 +36360,8 @@
       <c r="H136" s="6">
         <v>31</v>
       </c>
-      <c r="I136" s="6">
-        <v>201010040</v>
+      <c r="I136" s="6" t="s">
+        <v>592</v>
       </c>
       <c r="J136" s="6">
         <v>2</v>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\公用挂机\doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D60245D-2C5C-45C4-9705-E3EF872260FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126183C8-F63F-483B-92BE-8BBCD5C71718}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3705,22 +3705,6 @@
   </si>
   <si>
     <r>
-      <t>战力达到5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>战力达到</t>
     </r>
     <r>
@@ -4930,6 +4914,10 @@
   </si>
   <si>
     <t>晶片等级9</t>
+  </si>
+  <si>
+    <t>战力达到60000</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5762,11 +5750,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T606"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D461" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D549" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C404" sqref="C404:C468"/>
+      <selection pane="bottomRight" activeCell="C567" sqref="C567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5862,7 +5850,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -10011,10 +9999,10 @@
         <v>102040001</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E110" s="6">
         <v>45</v>
@@ -10049,10 +10037,10 @@
         <v>102040002</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E111" s="6">
         <v>45</v>
@@ -10087,10 +10075,10 @@
         <v>102040003</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E112" s="6">
         <v>45</v>
@@ -10125,10 +10113,10 @@
         <v>102040004</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E113" s="6">
         <v>45</v>
@@ -10163,10 +10151,10 @@
         <v>102040005</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E114" s="6">
         <v>45</v>
@@ -10201,10 +10189,10 @@
         <v>102040006</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E115" s="6">
         <v>45</v>
@@ -10239,10 +10227,10 @@
         <v>102040007</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E116" s="6">
         <v>45</v>
@@ -10277,10 +10265,10 @@
         <v>102040008</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E117" s="6">
         <v>45</v>
@@ -10315,10 +10303,10 @@
         <v>102040009</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E118" s="6">
         <v>45</v>
@@ -10353,10 +10341,10 @@
         <v>102040010</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E119" s="6">
         <v>45</v>
@@ -10391,10 +10379,10 @@
         <v>102040011</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E120" s="6">
         <v>45</v>
@@ -10429,10 +10417,10 @@
         <v>102040012</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E121" s="6">
         <v>45</v>
@@ -18604,7 +18592,7 @@
         <v>394</v>
       </c>
       <c r="D331" s="24" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E331" s="12">
         <v>20</v>
@@ -18642,7 +18630,7 @@
         <v>395</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E332" s="12">
         <v>20</v>
@@ -18680,7 +18668,7 @@
         <v>396</v>
       </c>
       <c r="D333" s="24" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E333" s="12">
         <v>20</v>
@@ -18718,7 +18706,7 @@
         <v>397</v>
       </c>
       <c r="D334" s="24" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E334" s="12">
         <v>20</v>
@@ -18756,7 +18744,7 @@
         <v>398</v>
       </c>
       <c r="D335" s="24" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E335" s="12">
         <v>20</v>
@@ -18794,7 +18782,7 @@
         <v>399</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E336" s="12">
         <v>20</v>
@@ -18829,10 +18817,10 @@
         <v>107020012</v>
       </c>
       <c r="C337" s="24" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D337" s="24" t="s">
         <v>1160</v>
-      </c>
-      <c r="D337" s="24" t="s">
-        <v>1161</v>
       </c>
       <c r="E337" s="12">
         <v>20</v>
@@ -18867,10 +18855,10 @@
         <v>107020013</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D338" s="24" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E338" s="12">
         <v>20</v>
@@ -18905,10 +18893,10 @@
         <v>107020014</v>
       </c>
       <c r="C339" s="24" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D339" s="24" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E339" s="12">
         <v>20</v>
@@ -27733,10 +27721,10 @@
         <v>602010004</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>1121</v>
+        <v>1424</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>1121</v>
+        <v>1424</v>
       </c>
       <c r="E568" s="6">
         <v>44</v>
@@ -27749,7 +27737,7 @@
       </c>
       <c r="H568" s="6"/>
       <c r="I568" s="6">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="J568" s="6"/>
       <c r="K568" s="6"/>
@@ -27771,10 +27759,10 @@
         <v>602010005</v>
       </c>
       <c r="C569" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D569" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E569" s="6">
         <v>44</v>
@@ -27809,10 +27797,10 @@
         <v>602010006</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D570" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E570" s="6">
         <v>44</v>
@@ -27847,10 +27835,10 @@
         <v>602010007</v>
       </c>
       <c r="C571" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D571" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E571" s="6">
         <v>44</v>
@@ -27885,10 +27873,10 @@
         <v>602010008</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E572" s="6">
         <v>44</v>
@@ -27923,10 +27911,10 @@
         <v>602010009</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D573" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E573" s="6">
         <v>44</v>
@@ -27961,10 +27949,10 @@
         <v>602010010</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E574" s="6">
         <v>44</v>
@@ -27999,10 +27987,10 @@
         <v>407010001</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D575" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E575" s="6">
         <v>46</v>
@@ -28037,10 +28025,10 @@
         <v>407010002</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E576" s="6">
         <v>46</v>
@@ -28075,10 +28063,10 @@
         <v>407010003</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E577" s="6">
         <v>46</v>
@@ -28113,10 +28101,10 @@
         <v>407010004</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E578" s="6">
         <v>46</v>
@@ -28151,10 +28139,10 @@
         <v>407010005</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D579" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E579" s="6">
         <v>46</v>
@@ -28189,10 +28177,10 @@
         <v>407010006</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E580" s="6">
         <v>46</v>
@@ -28227,10 +28215,10 @@
         <v>407010007</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D581" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E581" s="6">
         <v>46</v>
@@ -28265,10 +28253,10 @@
         <v>407010008</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D582" s="6" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E582" s="6">
         <v>46</v>
@@ -28303,10 +28291,10 @@
         <v>407010009</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D583" s="6" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E583" s="6">
         <v>46</v>
@@ -28341,10 +28329,10 @@
         <v>407010010</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D584" s="6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E584" s="6">
         <v>46</v>
@@ -28379,10 +28367,10 @@
         <v>407021101</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D585" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E585" s="6">
         <v>47</v>
@@ -28419,10 +28407,10 @@
         <v>407021102</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D586" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E586" s="6">
         <v>47</v>
@@ -28459,10 +28447,10 @@
         <v>407021103</v>
       </c>
       <c r="C587" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D587" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E587" s="6">
         <v>47</v>
@@ -28499,10 +28487,10 @@
         <v>407021104</v>
       </c>
       <c r="C588" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D588" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E588" s="6">
         <v>47</v>
@@ -28539,10 +28527,10 @@
         <v>407021105</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D589" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E589" s="6">
         <v>47</v>
@@ -28579,10 +28567,10 @@
         <v>407021106</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D590" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E590" s="6">
         <v>47</v>
@@ -28619,10 +28607,10 @@
         <v>407021107</v>
       </c>
       <c r="C591" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D591" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E591" s="6">
         <v>47</v>
@@ -28659,10 +28647,10 @@
         <v>407021108</v>
       </c>
       <c r="C592" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E592" s="6">
         <v>47</v>
@@ -28699,10 +28687,10 @@
         <v>407021109</v>
       </c>
       <c r="C593" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D593" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E593" s="6">
         <v>47</v>
@@ -28739,10 +28727,10 @@
         <v>407021110</v>
       </c>
       <c r="C594" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D594" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E594" s="6">
         <v>47</v>
@@ -28779,10 +28767,10 @@
         <v>407022101</v>
       </c>
       <c r="C595" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D595" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E595" s="6">
         <v>47</v>
@@ -28819,10 +28807,10 @@
         <v>407022102</v>
       </c>
       <c r="C596" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D596" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E596" s="6">
         <v>47</v>
@@ -28859,10 +28847,10 @@
         <v>407022103</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D597" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E597" s="6">
         <v>47</v>
@@ -28899,10 +28887,10 @@
         <v>407022104</v>
       </c>
       <c r="C598" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D598" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E598" s="6">
         <v>47</v>
@@ -28939,10 +28927,10 @@
         <v>407022105</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D599" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E599" s="6">
         <v>47</v>
@@ -28979,10 +28967,10 @@
         <v>407022106</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D600" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E600" s="6">
         <v>47</v>
@@ -29019,10 +29007,10 @@
         <v>407022401</v>
       </c>
       <c r="C601" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D601" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E601" s="6">
         <v>47</v>
@@ -29059,10 +29047,10 @@
         <v>407022402</v>
       </c>
       <c r="C602" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D602" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E602" s="6">
         <v>47</v>
@@ -29099,10 +29087,10 @@
         <v>407022403</v>
       </c>
       <c r="C603" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D603" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E603" s="6">
         <v>47</v>
@@ -29139,10 +29127,10 @@
         <v>407022404</v>
       </c>
       <c r="C604" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D604" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E604" s="6">
         <v>47</v>
@@ -29179,10 +29167,10 @@
         <v>407022405</v>
       </c>
       <c r="C605" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D605" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E605" s="6">
         <v>47</v>
@@ -29219,10 +29207,10 @@
         <v>407022406</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E606" s="6">
         <v>47</v>
@@ -29293,10 +29281,10 @@
         <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -29330,7 +29318,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -29350,7 +29338,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -29370,7 +29358,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -29450,7 +29438,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -29472,7 +29460,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -29484,12 +29472,12 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B12">
         <v>103</v>
@@ -29501,12 +29489,12 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -29521,12 +29509,12 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B14">
         <v>104</v>
@@ -29541,12 +29529,12 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B15">
         <v>104</v>
@@ -29561,12 +29549,12 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B16">
         <v>104</v>
@@ -29581,12 +29569,12 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B17">
         <v>104</v>
@@ -29601,7 +29589,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -29624,7 +29612,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -29647,7 +29635,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -29698,7 +29686,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B22">
         <v>105</v>
@@ -29721,7 +29709,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B23">
         <v>105</v>
@@ -29762,7 +29750,7 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -29790,7 +29778,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B26">
         <v>105</v>
@@ -29810,7 +29798,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B27">
         <v>105</v>
@@ -29862,7 +29850,7 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -29882,7 +29870,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -29902,7 +29890,7 @@
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -29922,7 +29910,7 @@
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -29942,7 +29930,7 @@
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -29982,12 +29970,12 @@
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B36">
         <v>106</v>
@@ -30002,7 +29990,7 @@
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -30022,7 +30010,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -30062,7 +30050,7 @@
         <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -30082,7 +30070,7 @@
         <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -30102,7 +30090,7 @@
         <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -30122,7 +30110,7 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -30142,12 +30130,12 @@
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B44">
         <v>107</v>
@@ -30162,12 +30150,12 @@
         <v>46</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B45">
         <v>107</v>
@@ -30182,12 +30170,12 @@
         <v>47</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B46">
         <v>107</v>
@@ -30201,7 +30189,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B47">
         <v>107</v>
@@ -30215,7 +30203,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B48">
         <v>108</v>
@@ -30229,7 +30217,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B49">
         <v>108</v>
@@ -30243,7 +30231,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B50">
         <v>108</v>
@@ -30252,12 +30240,12 @@
         <v>3</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B51">
         <v>108</v>
@@ -30266,10 +30254,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -30316,7 +30304,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B55">
         <v>204</v>
@@ -30325,7 +30313,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F55" s="19">
         <v>26</v>
@@ -30492,7 +30480,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B68">
         <v>407</v>
@@ -30506,7 +30494,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B69">
         <v>407</v>
@@ -30515,7 +30503,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F69">
         <v>47</v>
@@ -30585,8 +30573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I127" sqref="I127"/>
@@ -30754,7 +30742,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E4" s="6">
         <v>102</v>
@@ -30795,7 +30783,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E5" s="6">
         <v>103</v>
@@ -30836,7 +30824,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E6" s="6">
         <v>104</v>
@@ -30877,7 +30865,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E7" s="6">
         <v>105</v>
@@ -30918,7 +30906,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E8" s="6">
         <v>106</v>
@@ -30959,7 +30947,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E9" s="6">
         <v>107</v>
@@ -31000,7 +30988,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E10" s="6">
         <v>108</v>
@@ -31041,7 +31029,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E11" s="6">
         <v>109</v>
@@ -31082,7 +31070,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E12" s="6">
         <v>110</v>
@@ -31123,7 +31111,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E13" s="6">
         <v>111</v>
@@ -31164,7 +31152,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E14" s="6">
         <v>112</v>
@@ -31205,7 +31193,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E15" s="6">
         <v>113</v>
@@ -31246,7 +31234,7 @@
         <v>78</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E16" s="6">
         <v>114</v>
@@ -31287,7 +31275,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E17" s="6">
         <v>115</v>
@@ -31328,7 +31316,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E18" s="6">
         <v>116</v>
@@ -31369,7 +31357,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E19" s="6">
         <v>117</v>
@@ -31410,7 +31398,7 @@
         <v>83</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E20" s="6">
         <v>118</v>
@@ -31451,7 +31439,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E21" s="6">
         <v>119</v>
@@ -31492,7 +31480,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E22" s="6">
         <v>120</v>
@@ -31533,7 +31521,7 @@
         <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>850</v>
@@ -31574,7 +31562,7 @@
         <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E24" s="6">
         <v>202</v>
@@ -31615,7 +31603,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E25" s="6">
         <v>203</v>
@@ -31656,7 +31644,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E26" s="6">
         <v>204</v>
@@ -31697,7 +31685,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E27" s="6">
         <v>205</v>
@@ -31738,7 +31726,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E28" s="6">
         <v>206</v>
@@ -31779,7 +31767,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E29" s="6">
         <v>207</v>
@@ -31820,7 +31808,7 @@
         <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E30" s="6">
         <v>208</v>
@@ -31861,7 +31849,7 @@
         <v>98</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E31" s="6">
         <v>209</v>
@@ -31902,7 +31890,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>850</v>
@@ -31943,7 +31931,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E33" s="6">
         <v>302</v>
@@ -31984,7 +31972,7 @@
         <v>104</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E34" s="6">
         <v>303</v>
@@ -32025,7 +32013,7 @@
         <v>106</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E35" s="6">
         <v>304</v>
@@ -32066,7 +32054,7 @@
         <v>107</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E36" s="6">
         <v>305</v>
@@ -32107,7 +32095,7 @@
         <v>109</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E37" s="6">
         <v>306</v>
@@ -32148,7 +32136,7 @@
         <v>110</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E38" s="6">
         <v>307</v>
@@ -32189,7 +32177,7 @@
         <v>111</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E39" s="6">
         <v>308</v>
@@ -32230,7 +32218,7 @@
         <v>112</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E40" s="6">
         <v>309</v>
@@ -32271,7 +32259,7 @@
         <v>114</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>850</v>
@@ -32312,7 +32300,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E42" s="6">
         <v>402</v>
@@ -32353,7 +32341,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E43" s="6">
         <v>403</v>
@@ -32394,7 +32382,7 @@
         <v>122</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E44" s="6">
         <v>404</v>
@@ -32435,7 +32423,7 @@
         <v>124</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E45" s="6">
         <v>405</v>
@@ -32476,7 +32464,7 @@
         <v>126</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E46" s="6">
         <v>406</v>
@@ -32517,7 +32505,7 @@
         <v>128</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E47" s="6">
         <v>407</v>
@@ -32558,7 +32546,7 @@
         <v>129</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E48" s="6">
         <v>408</v>
@@ -32599,7 +32587,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E49" s="6">
         <v>409</v>
@@ -32640,7 +32628,7 @@
         <v>131</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E50" s="6">
         <v>410</v>
@@ -32681,7 +32669,7 @@
         <v>132</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E51" s="6">
         <v>411</v>
@@ -32722,7 +32710,7 @@
         <v>133</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E52" s="6">
         <v>412</v>
@@ -32763,7 +32751,7 @@
         <v>134</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E53" s="6">
         <v>413</v>
@@ -32804,7 +32792,7 @@
         <v>135</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E54" s="6">
         <v>414</v>
@@ -32845,7 +32833,7 @@
         <v>136</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E55" s="6">
         <v>415</v>
@@ -32886,7 +32874,7 @@
         <v>137</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E56" s="6">
         <v>416</v>
@@ -32927,7 +32915,7 @@
         <v>138</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>781</v>
@@ -32968,7 +32956,7 @@
         <v>139</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E58" s="6">
         <v>502</v>
@@ -33009,7 +32997,7 @@
         <v>141</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E59" s="6">
         <v>503</v>
@@ -33050,7 +33038,7 @@
         <v>143</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E60" s="6">
         <v>504</v>
@@ -33091,7 +33079,7 @@
         <v>145</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E61" s="6">
         <v>505</v>
@@ -33132,7 +33120,7 @@
         <v>148</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E62" s="6">
         <v>506</v>
@@ -33173,7 +33161,7 @@
         <v>151</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E63" s="6">
         <v>507</v>
@@ -33214,7 +33202,7 @@
         <v>154</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E64" s="6">
         <v>508</v>
@@ -33255,7 +33243,7 @@
         <v>157</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E65" s="6">
         <v>509</v>
@@ -33296,7 +33284,7 @@
         <v>160</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E66" s="6">
         <v>510</v>
@@ -33337,7 +33325,7 @@
         <v>162</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>781</v>
@@ -33378,7 +33366,7 @@
         <v>164</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E68" s="6">
         <v>602</v>
@@ -33419,7 +33407,7 @@
         <v>166</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E69" s="6">
         <v>603</v>
@@ -33460,7 +33448,7 @@
         <v>169</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E70" s="6">
         <v>604</v>
@@ -33501,7 +33489,7 @@
         <v>172</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E71" s="6">
         <v>605</v>
@@ -33542,7 +33530,7 @@
         <v>175</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E72" s="6">
         <v>606</v>
@@ -33583,7 +33571,7 @@
         <v>179</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E73" s="6">
         <v>607</v>
@@ -33624,7 +33612,7 @@
         <v>182</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E74" s="6">
         <v>608</v>
@@ -33665,7 +33653,7 @@
         <v>184</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E75" s="6">
         <v>609</v>
@@ -33706,7 +33694,7 @@
         <v>186</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E76" s="6">
         <v>610</v>
@@ -33747,7 +33735,7 @@
         <v>188</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>781</v>
@@ -33788,7 +33776,7 @@
         <v>191</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E78" s="6">
         <v>702</v>
@@ -33829,7 +33817,7 @@
         <v>193</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E79" s="6">
         <v>703</v>
@@ -33870,7 +33858,7 @@
         <v>196</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E80" s="6">
         <v>704</v>
@@ -33911,7 +33899,7 @@
         <v>198</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E81" s="6">
         <v>705</v>
@@ -33952,7 +33940,7 @@
         <v>200</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E82" s="6">
         <v>706</v>
@@ -33993,7 +33981,7 @@
         <v>202</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E83" s="6">
         <v>707</v>
@@ -34034,7 +34022,7 @@
         <v>205</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E84" s="6">
         <v>708</v>
@@ -34075,7 +34063,7 @@
         <v>208</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E85" s="6">
         <v>709</v>
@@ -34116,7 +34104,7 @@
         <v>210</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E86" s="6">
         <v>710</v>
@@ -34157,7 +34145,7 @@
         <v>212</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>781</v>
@@ -34195,10 +34183,10 @@
         <v>801</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E88" s="6">
         <v>802</v>
@@ -34236,10 +34224,10 @@
         <v>802</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E89" s="6">
         <v>803</v>
@@ -34277,10 +34265,10 @@
         <v>803</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E90" s="6">
         <v>804</v>
@@ -34318,10 +34306,10 @@
         <v>804</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E91" s="6">
         <v>805</v>
@@ -34359,10 +34347,10 @@
         <v>805</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E92" s="6">
         <v>806</v>
@@ -34400,10 +34388,10 @@
         <v>806</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E93" s="6">
         <v>807</v>
@@ -34441,10 +34429,10 @@
         <v>807</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E94" s="6">
         <v>808</v>
@@ -34482,10 +34470,10 @@
         <v>808</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>781</v>
@@ -34526,7 +34514,7 @@
         <v>430</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E96" s="6">
         <v>902</v>
@@ -34567,7 +34555,7 @@
         <v>431</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E97" s="6">
         <v>903</v>
@@ -34608,7 +34596,7 @@
         <v>432</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E98" s="6">
         <v>904</v>
@@ -34649,7 +34637,7 @@
         <v>433</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E99" s="6">
         <v>905</v>
@@ -34690,7 +34678,7 @@
         <v>434</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E100" s="6">
         <v>906</v>
@@ -34731,7 +34719,7 @@
         <v>435</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E101" s="6">
         <v>907</v>
@@ -34772,7 +34760,7 @@
         <v>436</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E102" s="6">
         <v>908</v>
@@ -34813,7 +34801,7 @@
         <v>437</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E103" s="6">
         <v>909</v>
@@ -34854,7 +34842,7 @@
         <v>438</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E104" s="6">
         <v>910</v>
@@ -34895,7 +34883,7 @@
         <v>439</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>781</v>
@@ -34936,7 +34924,7 @@
         <v>559</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E106" s="6">
         <v>1011</v>
@@ -34983,7 +34971,7 @@
         <v>560</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E107" s="6">
         <v>1012</v>
@@ -35030,7 +35018,7 @@
         <v>561</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E108" s="6">
         <v>1013</v>
@@ -35077,7 +35065,7 @@
         <v>562</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E109" s="6">
         <v>1014</v>
@@ -35124,7 +35112,7 @@
         <v>563</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E110" s="6">
         <v>1015</v>
@@ -35171,7 +35159,7 @@
         <v>564</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E111" s="6">
         <v>1016</v>
@@ -35218,7 +35206,7 @@
         <v>565</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E112" s="6">
         <v>1017</v>
@@ -35265,7 +35253,7 @@
         <v>566</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E113" s="6">
         <v>1018</v>
@@ -35312,7 +35300,7 @@
         <v>567</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E114" s="6">
         <v>1019</v>
@@ -35359,7 +35347,7 @@
         <v>568</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E115" s="6">
         <v>1020</v>
@@ -35406,7 +35394,7 @@
         <v>569</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E116" s="6">
         <v>1021</v>
@@ -35453,7 +35441,7 @@
         <v>570</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E117" s="6">
         <v>1022</v>
@@ -35500,7 +35488,7 @@
         <v>571</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E118" s="6">
         <v>1023</v>
@@ -35547,7 +35535,7 @@
         <v>572</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E119" s="6">
         <v>1024</v>
@@ -35594,7 +35582,7 @@
         <v>573</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E120" s="6">
         <v>1025</v>
@@ -35641,7 +35629,7 @@
         <v>574</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E121" s="6">
         <v>1026</v>
@@ -35688,7 +35676,7 @@
         <v>575</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E122" s="6">
         <v>1027</v>
@@ -35735,7 +35723,7 @@
         <v>576</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E123" s="6">
         <v>1028</v>
@@ -35782,7 +35770,7 @@
         <v>577</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E124" s="6">
         <v>1029</v>
@@ -35829,7 +35817,7 @@
         <v>578</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E125" s="6">
         <v>1030</v>
@@ -35876,7 +35864,7 @@
         <v>579</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E126" s="6">
         <v>1031</v>
@@ -35923,7 +35911,7 @@
         <v>580</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E127" s="6">
         <v>1032</v>
@@ -35970,7 +35958,7 @@
         <v>581</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E128" s="6">
         <v>1033</v>
@@ -36017,7 +36005,7 @@
         <v>582</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E129" s="6">
         <v>1034</v>
@@ -36064,7 +36052,7 @@
         <v>583</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E130" s="6">
         <v>1035</v>
@@ -36111,7 +36099,7 @@
         <v>584</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E131" s="6">
         <v>1036</v>
@@ -36158,7 +36146,7 @@
         <v>585</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E132" s="6">
         <v>1037</v>
@@ -36205,7 +36193,7 @@
         <v>586</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E133" s="6">
         <v>1038</v>
@@ -36252,7 +36240,7 @@
         <v>587</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E134" s="6">
         <v>1039</v>
@@ -36299,7 +36287,7 @@
         <v>588</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E135" s="6">
         <v>1040</v>
@@ -36346,7 +36334,7 @@
         <v>592</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>781</v>
@@ -37764,7 +37752,7 @@
         <v>302020109</v>
       </c>
       <c r="J170" s="25" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K170" s="6">
         <v>0</v>
@@ -37805,7 +37793,7 @@
         <v>302020110</v>
       </c>
       <c r="J171" s="25" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K171" s="6">
         <v>0</v>
@@ -37846,7 +37834,7 @@
         <v>302020111</v>
       </c>
       <c r="J172" s="25" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K172" s="6">
         <v>0</v>
@@ -37866,10 +37854,10 @@
         <v>1501</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E173" s="6">
         <v>1502</v>
@@ -37884,10 +37872,10 @@
         <v>1</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K173" s="6">
         <v>0</v>
@@ -37907,10 +37895,10 @@
         <v>1502</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E174" s="6">
         <v>1503</v>
@@ -37925,10 +37913,10 @@
         <v>2</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K174" s="6">
         <v>0</v>
@@ -37948,10 +37936,10 @@
         <v>1503</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E175" s="6">
         <v>1504</v>
@@ -37966,10 +37954,10 @@
         <v>3</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K175" s="6">
         <v>0</v>
@@ -37989,10 +37977,10 @@
         <v>1504</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E176" s="6">
         <v>1505</v>
@@ -38007,10 +37995,10 @@
         <v>4</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K176" s="6">
         <v>0</v>
@@ -38030,10 +38018,10 @@
         <v>1505</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E177" s="6">
         <v>1506</v>
@@ -38048,10 +38036,10 @@
         <v>5</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K177" s="6">
         <v>0</v>
@@ -38071,10 +38059,10 @@
         <v>1506</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E178" s="6">
         <v>1507</v>
@@ -38089,10 +38077,10 @@
         <v>6</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K178" s="6">
         <v>0</v>
@@ -38112,10 +38100,10 @@
         <v>1507</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E179" s="6">
         <v>1508</v>
@@ -38130,10 +38118,10 @@
         <v>7</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K179" s="6">
         <v>0</v>
@@ -38153,10 +38141,10 @@
         <v>1508</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E180" s="6">
         <v>1509</v>
@@ -38171,10 +38159,10 @@
         <v>8</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K180" s="6">
         <v>0</v>
@@ -38194,10 +38182,10 @@
         <v>1509</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E181" s="6">
         <v>1510</v>
@@ -38212,10 +38200,10 @@
         <v>9</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K181" s="6">
         <v>0</v>
@@ -38235,10 +38223,10 @@
         <v>1510</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>781</v>
@@ -38253,10 +38241,10 @@
         <v>10</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K182" s="6">
         <v>0</v>
@@ -38276,10 +38264,10 @@
         <v>1601</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E183" s="6">
         <v>1602</v>
@@ -38294,10 +38282,10 @@
         <v>1</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K183" s="6">
         <v>0</v>
@@ -38317,10 +38305,10 @@
         <v>1602</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E184" s="6">
         <v>1603</v>
@@ -38335,10 +38323,10 @@
         <v>2</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K184" s="6">
         <v>0</v>
@@ -38358,10 +38346,10 @@
         <v>1603</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E185" s="6">
         <v>1604</v>
@@ -38376,10 +38364,10 @@
         <v>3</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K185" s="6">
         <v>0</v>
@@ -38399,10 +38387,10 @@
         <v>1604</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E186" s="6">
         <v>1605</v>
@@ -38417,10 +38405,10 @@
         <v>4</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K186" s="6">
         <v>0</v>
@@ -38440,10 +38428,10 @@
         <v>1605</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E187" s="6">
         <v>1606</v>
@@ -38458,10 +38446,10 @@
         <v>5</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K187" s="6">
         <v>0</v>
@@ -38481,10 +38469,10 @@
         <v>1606</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>781</v>
@@ -38499,10 +38487,10 @@
         <v>6</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K188" s="6">
         <v>0</v>
@@ -38522,10 +38510,10 @@
         <v>1701</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E189" s="6">
         <v>1702</v>
@@ -38540,10 +38528,10 @@
         <v>1</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K189" s="6">
         <v>0</v>
@@ -38563,10 +38551,10 @@
         <v>1702</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E190" s="6">
         <v>1703</v>
@@ -38581,10 +38569,10 @@
         <v>2</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K190" s="6">
         <v>0</v>
@@ -38604,10 +38592,10 @@
         <v>1703</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E191" s="6">
         <v>1704</v>
@@ -38622,10 +38610,10 @@
         <v>3</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K191" s="6">
         <v>0</v>
@@ -38645,10 +38633,10 @@
         <v>1704</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E192" s="6">
         <v>1705</v>
@@ -38663,10 +38651,10 @@
         <v>4</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K192" s="6">
         <v>0</v>
@@ -38686,10 +38674,10 @@
         <v>1705</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E193" s="6">
         <v>1706</v>
@@ -38704,10 +38692,10 @@
         <v>5</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K193" s="6">
         <v>0</v>
@@ -38727,10 +38715,10 @@
         <v>1706</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>781</v>
@@ -38745,10 +38733,10 @@
         <v>6</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K194" s="6">
         <v>0</v>
@@ -38922,7 +38910,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -38930,7 +38918,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -38938,7 +38926,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE82D075-23B0-4718-91EA-DCDB74E7F8C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07077673-34CB-404A-A3F8-2D6DA0CA5AB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1437">
   <si>
     <t>sheet名</t>
   </si>
@@ -2444,12 +2444,6 @@
   </si>
   <si>
     <t>装备宝箱</t>
-  </si>
-  <si>
-    <t>幸运宝箱</t>
-  </si>
-  <si>
-    <t>龙晶石宝箱</t>
   </si>
   <si>
     <t>晶片宝箱</t>
@@ -5610,7 +5604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -5763,10 +5757,10 @@
   <dimension ref="A1:T621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D591" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D552" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C607" sqref="C607:C621"/>
+      <selection pane="bottomRight" activeCell="D616" sqref="D616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5862,7 +5856,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -5983,10 +5977,10 @@
         <v>101010001</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -6021,10 +6015,10 @@
         <v>101010002</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -6059,10 +6053,10 @@
         <v>101010003</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -6097,10 +6091,10 @@
         <v>101010004</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -6135,10 +6129,10 @@
         <v>101010005</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -6173,10 +6167,10 @@
         <v>101010006</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -6211,10 +6205,10 @@
         <v>101010007</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -6249,10 +6243,10 @@
         <v>101010008</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -6287,10 +6281,10 @@
         <v>101010009</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -6328,7 +6322,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -6366,7 +6360,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -6401,10 +6395,10 @@
         <v>101010012</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -6439,10 +6433,10 @@
         <v>101010013</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -6480,7 +6474,7 @@
         <v>59</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -6515,10 +6509,10 @@
         <v>101010015</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -6553,10 +6547,10 @@
         <v>101010016</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -6594,7 +6588,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -6629,10 +6623,10 @@
         <v>101010018</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -6670,7 +6664,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -6708,7 +6702,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -6743,10 +6737,10 @@
         <v>101010021</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -6781,10 +6775,10 @@
         <v>101010022</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -6822,7 +6816,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -6860,7 +6854,7 @@
         <v>66</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -6898,7 +6892,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -6936,7 +6930,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -6974,7 +6968,7 @@
         <v>70</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -7012,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -7050,7 +7044,7 @@
         <v>73</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -7088,7 +7082,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -7126,7 +7120,7 @@
         <v>75</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -7164,7 +7158,7 @@
         <v>76</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -7202,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -7240,7 +7234,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -7278,7 +7272,7 @@
         <v>82</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -7316,7 +7310,7 @@
         <v>83</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -7351,10 +7345,10 @@
         <v>101020001</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -7389,10 +7383,10 @@
         <v>101020002</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -7465,10 +7459,10 @@
         <v>101020004</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -7807,10 +7801,10 @@
         <v>101030001</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E52" s="3">
         <v>3</v>
@@ -7845,10 +7839,10 @@
         <v>101030002</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
@@ -7921,10 +7915,10 @@
         <v>101030004</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E55" s="3">
         <v>3</v>
@@ -10011,10 +10005,10 @@
         <v>102040001</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E110" s="3">
         <v>45</v>
@@ -10049,10 +10043,10 @@
         <v>102040002</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E111" s="3">
         <v>45</v>
@@ -10087,10 +10081,10 @@
         <v>102040003</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E112" s="3">
         <v>45</v>
@@ -10125,10 +10119,10 @@
         <v>102040004</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E113" s="3">
         <v>45</v>
@@ -10163,10 +10157,10 @@
         <v>102040005</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E114" s="3">
         <v>45</v>
@@ -10201,10 +10195,10 @@
         <v>102040006</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E115" s="3">
         <v>45</v>
@@ -10239,10 +10233,10 @@
         <v>102040007</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E116" s="3">
         <v>45</v>
@@ -10277,10 +10271,10 @@
         <v>102040008</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E117" s="3">
         <v>45</v>
@@ -10315,10 +10309,10 @@
         <v>102040009</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E118" s="3">
         <v>45</v>
@@ -10353,10 +10347,10 @@
         <v>102040010</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E119" s="3">
         <v>45</v>
@@ -10391,10 +10385,10 @@
         <v>102040011</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E120" s="3">
         <v>45</v>
@@ -10429,10 +10423,10 @@
         <v>102040012</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E121" s="3">
         <v>45</v>
@@ -12063,10 +12057,10 @@
         <v>105010101</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E164" s="3">
         <v>43</v>
@@ -12103,10 +12097,10 @@
         <v>105010102</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E165" s="3">
         <v>43</v>
@@ -12143,10 +12137,10 @@
         <v>105010103</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E166" s="3">
         <v>43</v>
@@ -12183,10 +12177,10 @@
         <v>105010104</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E167" s="3">
         <v>43</v>
@@ -12223,10 +12217,10 @@
         <v>105010105</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E168" s="3">
         <v>43</v>
@@ -12263,10 +12257,10 @@
         <v>105010106</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E169" s="3">
         <v>43</v>
@@ -12303,10 +12297,10 @@
         <v>105010107</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E170" s="3">
         <v>43</v>
@@ -12343,10 +12337,10 @@
         <v>105010108</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E171" s="3">
         <v>43</v>
@@ -12383,10 +12377,10 @@
         <v>105010109</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E172" s="3">
         <v>43</v>
@@ -12423,10 +12417,10 @@
         <v>105010110</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E173" s="3">
         <v>43</v>
@@ -12463,10 +12457,10 @@
         <v>105010111</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E174" s="3">
         <v>43</v>
@@ -12503,10 +12497,10 @@
         <v>105010112</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E175" s="3">
         <v>43</v>
@@ -12543,10 +12537,10 @@
         <v>105010201</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E176" s="3">
         <v>43</v>
@@ -12583,10 +12577,10 @@
         <v>105010202</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E177" s="3">
         <v>43</v>
@@ -12623,10 +12617,10 @@
         <v>105010203</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E178" s="3">
         <v>43</v>
@@ -12663,10 +12657,10 @@
         <v>105010204</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E179" s="3">
         <v>43</v>
@@ -12703,10 +12697,10 @@
         <v>105010205</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E180" s="3">
         <v>43</v>
@@ -12743,10 +12737,10 @@
         <v>105010206</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E181" s="3">
         <v>43</v>
@@ -12783,10 +12777,10 @@
         <v>105010207</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E182" s="3">
         <v>43</v>
@@ -12823,10 +12817,10 @@
         <v>105010208</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E183" s="3">
         <v>43</v>
@@ -12863,10 +12857,10 @@
         <v>105010209</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E184" s="3">
         <v>43</v>
@@ -12903,10 +12897,10 @@
         <v>105010210</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E185" s="3">
         <v>43</v>
@@ -12943,10 +12937,10 @@
         <v>105010211</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E186" s="3">
         <v>43</v>
@@ -12983,10 +12977,10 @@
         <v>105010212</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E187" s="3">
         <v>43</v>
@@ -13023,10 +13017,10 @@
         <v>105010301</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E188" s="3">
         <v>43</v>
@@ -13063,10 +13057,10 @@
         <v>105010302</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E189" s="3">
         <v>43</v>
@@ -13103,10 +13097,10 @@
         <v>105010303</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E190" s="3">
         <v>43</v>
@@ -13143,10 +13137,10 @@
         <v>105010304</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E191" s="3">
         <v>43</v>
@@ -13183,10 +13177,10 @@
         <v>105010305</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E192" s="3">
         <v>43</v>
@@ -13223,10 +13217,10 @@
         <v>105010306</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E193" s="3">
         <v>43</v>
@@ -13263,10 +13257,10 @@
         <v>105010307</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E194" s="3">
         <v>43</v>
@@ -13303,10 +13297,10 @@
         <v>105010308</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E195" s="3">
         <v>43</v>
@@ -13343,10 +13337,10 @@
         <v>105010309</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E196" s="3">
         <v>43</v>
@@ -13383,10 +13377,10 @@
         <v>105010310</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E197" s="3">
         <v>43</v>
@@ -13423,10 +13417,10 @@
         <v>105010311</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E198" s="3">
         <v>43</v>
@@ -13463,10 +13457,10 @@
         <v>105010312</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E199" s="3">
         <v>43</v>
@@ -13503,10 +13497,10 @@
         <v>105010401</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E200" s="3">
         <v>43</v>
@@ -13543,10 +13537,10 @@
         <v>105010402</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E201" s="3">
         <v>43</v>
@@ -13583,10 +13577,10 @@
         <v>105010403</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E202" s="3">
         <v>43</v>
@@ -13623,10 +13617,10 @@
         <v>105010404</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E203" s="3">
         <v>43</v>
@@ -13663,10 +13657,10 @@
         <v>105010405</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E204" s="3">
         <v>43</v>
@@ -13703,10 +13697,10 @@
         <v>105010406</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E205" s="3">
         <v>43</v>
@@ -13743,10 +13737,10 @@
         <v>105010407</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E206" s="3">
         <v>43</v>
@@ -13783,10 +13777,10 @@
         <v>105010408</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E207" s="3">
         <v>43</v>
@@ -13823,10 +13817,10 @@
         <v>105010409</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E208" s="3">
         <v>43</v>
@@ -13863,10 +13857,10 @@
         <v>105010410</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E209" s="3">
         <v>43</v>
@@ -13903,10 +13897,10 @@
         <v>105010411</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E210" s="3">
         <v>43</v>
@@ -13943,10 +13937,10 @@
         <v>105010412</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E211" s="3">
         <v>43</v>
@@ -13983,10 +13977,10 @@
         <v>105010501</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E212" s="3">
         <v>43</v>
@@ -14023,10 +14017,10 @@
         <v>105010502</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E213" s="3">
         <v>43</v>
@@ -14063,10 +14057,10 @@
         <v>105010503</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E214" s="3">
         <v>43</v>
@@ -14103,10 +14097,10 @@
         <v>105010504</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E215" s="3">
         <v>43</v>
@@ -14143,10 +14137,10 @@
         <v>105010505</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E216" s="3">
         <v>43</v>
@@ -14183,10 +14177,10 @@
         <v>105010506</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E217" s="3">
         <v>43</v>
@@ -14223,10 +14217,10 @@
         <v>105010507</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E218" s="3">
         <v>43</v>
@@ -14263,10 +14257,10 @@
         <v>105010508</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E219" s="3">
         <v>43</v>
@@ -14303,10 +14297,10 @@
         <v>105010509</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E220" s="3">
         <v>43</v>
@@ -14343,10 +14337,10 @@
         <v>105010510</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E221" s="3">
         <v>43</v>
@@ -14383,10 +14377,10 @@
         <v>105010511</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E222" s="3">
         <v>43</v>
@@ -14423,10 +14417,10 @@
         <v>105010512</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E223" s="3">
         <v>43</v>
@@ -14463,10 +14457,10 @@
         <v>105010601</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E224" s="3">
         <v>43</v>
@@ -14503,10 +14497,10 @@
         <v>105010602</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E225" s="3">
         <v>43</v>
@@ -14543,10 +14537,10 @@
         <v>105010603</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E226" s="3">
         <v>43</v>
@@ -14583,10 +14577,10 @@
         <v>105010604</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E227" s="3">
         <v>43</v>
@@ -14623,10 +14617,10 @@
         <v>105010605</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E228" s="3">
         <v>43</v>
@@ -14663,10 +14657,10 @@
         <v>105010606</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E229" s="3">
         <v>43</v>
@@ -14703,10 +14697,10 @@
         <v>105010607</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E230" s="3">
         <v>43</v>
@@ -14743,10 +14737,10 @@
         <v>105010608</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E231" s="3">
         <v>43</v>
@@ -14783,10 +14777,10 @@
         <v>105010609</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E232" s="3">
         <v>43</v>
@@ -14823,10 +14817,10 @@
         <v>105010610</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E233" s="3">
         <v>43</v>
@@ -14863,10 +14857,10 @@
         <v>105010611</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E234" s="3">
         <v>43</v>
@@ -14903,10 +14897,10 @@
         <v>105010612</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E235" s="3">
         <v>43</v>
@@ -14943,10 +14937,10 @@
         <v>105010701</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E236" s="3">
         <v>43</v>
@@ -14983,10 +14977,10 @@
         <v>105010702</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E237" s="3">
         <v>43</v>
@@ -15023,10 +15017,10 @@
         <v>105010703</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E238" s="3">
         <v>43</v>
@@ -15063,10 +15057,10 @@
         <v>105010704</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E239" s="3">
         <v>43</v>
@@ -15103,10 +15097,10 @@
         <v>105010705</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E240" s="3">
         <v>43</v>
@@ -15143,10 +15137,10 @@
         <v>105010706</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E241" s="3">
         <v>43</v>
@@ -15183,10 +15177,10 @@
         <v>105010707</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E242" s="3">
         <v>43</v>
@@ -15223,10 +15217,10 @@
         <v>105010708</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E243" s="3">
         <v>43</v>
@@ -15263,10 +15257,10 @@
         <v>105010709</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E244" s="3">
         <v>43</v>
@@ -15303,10 +15297,10 @@
         <v>105010710</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E245" s="3">
         <v>43</v>
@@ -15343,10 +15337,10 @@
         <v>105010711</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E246" s="3">
         <v>43</v>
@@ -15383,10 +15377,10 @@
         <v>105010712</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E247" s="3">
         <v>43</v>
@@ -15423,10 +15417,10 @@
         <v>105010801</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E248" s="3">
         <v>43</v>
@@ -15463,10 +15457,10 @@
         <v>105010802</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E249" s="3">
         <v>43</v>
@@ -15503,10 +15497,10 @@
         <v>105010803</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E250" s="3">
         <v>43</v>
@@ -15543,10 +15537,10 @@
         <v>105010804</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E251" s="3">
         <v>43</v>
@@ -15583,10 +15577,10 @@
         <v>105010805</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E252" s="3">
         <v>43</v>
@@ -15623,10 +15617,10 @@
         <v>105010806</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E253" s="3">
         <v>43</v>
@@ -15663,10 +15657,10 @@
         <v>105010807</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E254" s="3">
         <v>43</v>
@@ -15703,10 +15697,10 @@
         <v>105010808</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E255" s="3">
         <v>43</v>
@@ -15743,10 +15737,10 @@
         <v>105010809</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E256" s="3">
         <v>43</v>
@@ -15783,10 +15777,10 @@
         <v>105010810</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E257" s="3">
         <v>43</v>
@@ -15823,10 +15817,10 @@
         <v>105010811</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E258" s="3">
         <v>43</v>
@@ -15863,10 +15857,10 @@
         <v>105010812</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E259" s="3">
         <v>43</v>
@@ -18604,7 +18598,7 @@
         <v>388</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E331" s="9">
         <v>20</v>
@@ -18642,7 +18636,7 @@
         <v>389</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E332" s="9">
         <v>20</v>
@@ -18680,7 +18674,7 @@
         <v>390</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E333" s="9">
         <v>20</v>
@@ -18718,7 +18712,7 @@
         <v>391</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E334" s="9">
         <v>20</v>
@@ -18756,7 +18750,7 @@
         <v>392</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E335" s="9">
         <v>20</v>
@@ -18794,7 +18788,7 @@
         <v>393</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E336" s="9">
         <v>20</v>
@@ -18829,10 +18823,10 @@
         <v>107020012</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E337" s="9">
         <v>20</v>
@@ -18867,10 +18861,10 @@
         <v>107020013</v>
       </c>
       <c r="C338" s="21" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D338" s="21" t="s">
         <v>1138</v>
-      </c>
-      <c r="D338" s="21" t="s">
-        <v>1140</v>
       </c>
       <c r="E338" s="9">
         <v>20</v>
@@ -18905,10 +18899,10 @@
         <v>107020014</v>
       </c>
       <c r="C339" s="21" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D339" s="21" t="s">
         <v>1139</v>
-      </c>
-      <c r="D339" s="21" t="s">
-        <v>1141</v>
       </c>
       <c r="E339" s="9">
         <v>20</v>
@@ -18943,10 +18937,10 @@
         <v>107030001</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D340" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E340" s="8">
         <v>32</v>
@@ -19399,7 +19393,7 @@
         <v>108020001</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D352" s="8" t="s">
         <v>416</v>
@@ -19437,7 +19431,7 @@
         <v>108020002</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D353" s="8" t="s">
         <v>417</v>
@@ -19475,7 +19469,7 @@
         <v>108020003</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D354" s="8" t="s">
         <v>418</v>
@@ -19513,7 +19507,7 @@
         <v>108020004</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D355" s="8" t="s">
         <v>419</v>
@@ -19551,7 +19545,7 @@
         <v>108020005</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D356" s="8" t="s">
         <v>420</v>
@@ -19589,7 +19583,7 @@
         <v>108020006</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D357" s="8" t="s">
         <v>421</v>
@@ -19627,7 +19621,7 @@
         <v>108020007</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D358" s="8" t="s">
         <v>422</v>
@@ -19665,7 +19659,7 @@
         <v>108020008</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>423</v>
@@ -21413,10 +21407,10 @@
         <v>201010011</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E405" s="3">
         <v>9</v>
@@ -21451,10 +21445,10 @@
         <v>201010012</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E406" s="3">
         <v>9</v>
@@ -21489,10 +21483,10 @@
         <v>201010013</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E407" s="3">
         <v>9</v>
@@ -21527,10 +21521,10 @@
         <v>201010014</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E408" s="3">
         <v>9</v>
@@ -21565,10 +21559,10 @@
         <v>201010015</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E409" s="3">
         <v>9</v>
@@ -21603,10 +21597,10 @@
         <v>201010016</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E410" s="3">
         <v>9</v>
@@ -21641,10 +21635,10 @@
         <v>201010017</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E411" s="3">
         <v>9</v>
@@ -21679,10 +21673,10 @@
         <v>201010018</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E412" s="3">
         <v>9</v>
@@ -21717,10 +21711,10 @@
         <v>201010019</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E413" s="3">
         <v>9</v>
@@ -21793,10 +21787,10 @@
         <v>201010021</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E415" s="3">
         <v>9</v>
@@ -21831,10 +21825,10 @@
         <v>201010022</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E416" s="3">
         <v>9</v>
@@ -21869,10 +21863,10 @@
         <v>201010023</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E417" s="3">
         <v>9</v>
@@ -21907,10 +21901,10 @@
         <v>201010024</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E418" s="3">
         <v>9</v>
@@ -21945,10 +21939,10 @@
         <v>201010025</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E419" s="3">
         <v>9</v>
@@ -21983,10 +21977,10 @@
         <v>201010026</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E420" s="3">
         <v>9</v>
@@ -22021,10 +22015,10 @@
         <v>201010027</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E421" s="3">
         <v>9</v>
@@ -22059,10 +22053,10 @@
         <v>201010028</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E422" s="3">
         <v>9</v>
@@ -22097,10 +22091,10 @@
         <v>201010029</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E423" s="3">
         <v>9</v>
@@ -22173,10 +22167,10 @@
         <v>201010031</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E425" s="3">
         <v>9</v>
@@ -22211,10 +22205,10 @@
         <v>201010032</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E426" s="3">
         <v>9</v>
@@ -22249,10 +22243,10 @@
         <v>201010033</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E427" s="3">
         <v>9</v>
@@ -22287,10 +22281,10 @@
         <v>201010034</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E428" s="3">
         <v>9</v>
@@ -22325,10 +22319,10 @@
         <v>201010035</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E429" s="3">
         <v>9</v>
@@ -22363,10 +22357,10 @@
         <v>201010036</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E430" s="3">
         <v>9</v>
@@ -22401,10 +22395,10 @@
         <v>201010037</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E431" s="3">
         <v>9</v>
@@ -22439,10 +22433,10 @@
         <v>201010038</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E432" s="3">
         <v>9</v>
@@ -22477,10 +22471,10 @@
         <v>201010039</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E433" s="3">
         <v>9</v>
@@ -22553,10 +22547,10 @@
         <v>201010041</v>
       </c>
       <c r="C435" s="17" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D435" s="17" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E435" s="3">
         <v>9</v>
@@ -22629,10 +22623,10 @@
         <v>201010043</v>
       </c>
       <c r="C437" s="17" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D437" s="17" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E437" s="3">
         <v>9</v>
@@ -22705,10 +22699,10 @@
         <v>201010045</v>
       </c>
       <c r="C439" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D439" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E439" s="3">
         <v>9</v>
@@ -22781,10 +22775,10 @@
         <v>201010047</v>
       </c>
       <c r="C441" s="17" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D441" s="17" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E441" s="3">
         <v>9</v>
@@ -27619,10 +27613,10 @@
         <v>602010001</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E565" s="3">
         <v>44</v>
@@ -27657,10 +27651,10 @@
         <v>602010002</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E566" s="3">
         <v>44</v>
@@ -27695,10 +27689,10 @@
         <v>602010003</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E567" s="3">
         <v>44</v>
@@ -27733,10 +27727,10 @@
         <v>602010004</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E568" s="3">
         <v>44</v>
@@ -27771,10 +27765,10 @@
         <v>602010005</v>
       </c>
       <c r="C569" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D569" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E569" s="3">
         <v>44</v>
@@ -27809,10 +27803,10 @@
         <v>602010006</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E570" s="3">
         <v>44</v>
@@ -27847,10 +27841,10 @@
         <v>602010007</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E571" s="3">
         <v>44</v>
@@ -27885,10 +27879,10 @@
         <v>602010008</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E572" s="3">
         <v>44</v>
@@ -27923,10 +27917,10 @@
         <v>602010009</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E573" s="3">
         <v>44</v>
@@ -27961,10 +27955,10 @@
         <v>602010010</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E574" s="3">
         <v>44</v>
@@ -27999,10 +27993,10 @@
         <v>407010001</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E575" s="3">
         <v>46</v>
@@ -28037,10 +28031,10 @@
         <v>407010002</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E576" s="3">
         <v>46</v>
@@ -28075,10 +28069,10 @@
         <v>407010003</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E577" s="3">
         <v>46</v>
@@ -28113,10 +28107,10 @@
         <v>407010004</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E578" s="3">
         <v>46</v>
@@ -28151,10 +28145,10 @@
         <v>407010005</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E579" s="3">
         <v>46</v>
@@ -28189,10 +28183,10 @@
         <v>407010006</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E580" s="3">
         <v>46</v>
@@ -28227,10 +28221,10 @@
         <v>407010007</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E581" s="3">
         <v>46</v>
@@ -28265,10 +28259,10 @@
         <v>407010008</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E582" s="3">
         <v>46</v>
@@ -28303,10 +28297,10 @@
         <v>407010009</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E583" s="3">
         <v>46</v>
@@ -28341,10 +28335,10 @@
         <v>407010010</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E584" s="3">
         <v>46</v>
@@ -28379,10 +28373,10 @@
         <v>407021101</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E585" s="3">
         <v>47</v>
@@ -28419,10 +28413,10 @@
         <v>407021102</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E586" s="3">
         <v>47</v>
@@ -28459,10 +28453,10 @@
         <v>407021103</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E587" s="3">
         <v>47</v>
@@ -28499,10 +28493,10 @@
         <v>407021104</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E588" s="3">
         <v>47</v>
@@ -28539,10 +28533,10 @@
         <v>407021105</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E589" s="3">
         <v>47</v>
@@ -28579,10 +28573,10 @@
         <v>407021106</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E590" s="3">
         <v>47</v>
@@ -28619,10 +28613,10 @@
         <v>407021107</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E591" s="3">
         <v>47</v>
@@ -28659,10 +28653,10 @@
         <v>407021108</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E592" s="3">
         <v>47</v>
@@ -28699,10 +28693,10 @@
         <v>407021109</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E593" s="3">
         <v>47</v>
@@ -28739,10 +28733,10 @@
         <v>407021110</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E594" s="3">
         <v>47</v>
@@ -28779,10 +28773,10 @@
         <v>407022101</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E595" s="3">
         <v>47</v>
@@ -28819,10 +28813,10 @@
         <v>407022102</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E596" s="3">
         <v>47</v>
@@ -28859,10 +28853,10 @@
         <v>407022103</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E597" s="3">
         <v>47</v>
@@ -28899,10 +28893,10 @@
         <v>407022104</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E598" s="3">
         <v>47</v>
@@ -28939,10 +28933,10 @@
         <v>407022105</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E599" s="3">
         <v>47</v>
@@ -28979,10 +28973,10 @@
         <v>407022106</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E600" s="3">
         <v>47</v>
@@ -29019,10 +29013,10 @@
         <v>407022401</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E601" s="3">
         <v>47</v>
@@ -29059,10 +29053,10 @@
         <v>407022402</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E602" s="3">
         <v>47</v>
@@ -29099,10 +29093,10 @@
         <v>407022403</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E603" s="3">
         <v>47</v>
@@ -29139,10 +29133,10 @@
         <v>407022404</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E604" s="3">
         <v>47</v>
@@ -29179,10 +29173,10 @@
         <v>407022405</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E605" s="3">
         <v>47</v>
@@ -29219,10 +29213,10 @@
         <v>407022406</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E606" s="3">
         <v>47</v>
@@ -29259,10 +29253,10 @@
         <v>408010001</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E607" s="3">
         <v>48</v>
@@ -29297,10 +29291,10 @@
         <v>408010002</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E608" s="3">
         <v>48</v>
@@ -29335,10 +29329,10 @@
         <v>408010003</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E609" s="3">
         <v>48</v>
@@ -29373,10 +29367,10 @@
         <v>408010004</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E610" s="3">
         <v>48</v>
@@ -29411,10 +29405,10 @@
         <v>408010005</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E611" s="3">
         <v>48</v>
@@ -29449,10 +29443,10 @@
         <v>408010006</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E612" s="3">
         <v>48</v>
@@ -29487,10 +29481,10 @@
         <v>408010007</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E613" s="3">
         <v>48</v>
@@ -29525,10 +29519,10 @@
         <v>408010008</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E614" s="3">
         <v>48</v>
@@ -29563,10 +29557,10 @@
         <v>408010009</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E615" s="3">
         <v>48</v>
@@ -29601,10 +29595,10 @@
         <v>408010010</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E616" s="3">
         <v>48</v>
@@ -29639,10 +29633,10 @@
         <v>408010011</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E617" s="3">
         <v>48</v>
@@ -29677,10 +29671,10 @@
         <v>408010012</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E618" s="3">
         <v>48</v>
@@ -29715,10 +29709,10 @@
         <v>408010013</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E619" s="3">
         <v>48</v>
@@ -29753,10 +29747,10 @@
         <v>408010014</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E620" s="3">
         <v>48</v>
@@ -29791,10 +29785,10 @@
         <v>408010015</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E621" s="3">
         <v>48</v>
@@ -29863,10 +29857,10 @@
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -29900,7 +29894,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -29920,7 +29914,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -29940,7 +29934,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -29960,7 +29954,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -30020,7 +30014,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -30037,12 +30031,12 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -30054,12 +30048,12 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B12">
         <v>103</v>
@@ -30071,12 +30065,12 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -30091,12 +30085,12 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B14">
         <v>104</v>
@@ -30111,12 +30105,12 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B15">
         <v>104</v>
@@ -30131,12 +30125,12 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B16">
         <v>104</v>
@@ -30151,12 +30145,12 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B17">
         <v>104</v>
@@ -30171,7 +30165,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -30194,7 +30188,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -30217,7 +30211,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -30268,7 +30262,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B22">
         <v>105</v>
@@ -30291,7 +30285,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B23">
         <v>105</v>
@@ -30332,7 +30326,7 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -30360,7 +30354,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B26">
         <v>105</v>
@@ -30380,7 +30374,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B27">
         <v>105</v>
@@ -30432,7 +30426,7 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -30452,7 +30446,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -30472,7 +30466,7 @@
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -30492,7 +30486,7 @@
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -30512,12 +30506,12 @@
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B34">
         <v>106</v>
@@ -30537,7 +30531,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B35">
         <v>106</v>
@@ -30552,12 +30546,12 @@
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B36">
         <v>106</v>
@@ -30572,12 +30566,12 @@
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B37">
         <v>106</v>
@@ -30592,7 +30586,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -30612,7 +30606,7 @@
         <v>40</v>
       </c>
       <c r="J38" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -30632,7 +30626,7 @@
         <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -30652,7 +30646,7 @@
         <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -30672,7 +30666,7 @@
         <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -30692,7 +30686,7 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -30712,12 +30706,12 @@
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B44">
         <v>107</v>
@@ -30732,12 +30726,12 @@
         <v>46</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B45">
         <v>107</v>
@@ -30752,12 +30746,12 @@
         <v>47</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B46">
         <v>107</v>
@@ -30772,12 +30766,12 @@
         <v>48</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B47">
         <v>107</v>
@@ -30791,7 +30785,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B48">
         <v>108</v>
@@ -30805,7 +30799,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B49">
         <v>108</v>
@@ -30819,7 +30813,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B50">
         <v>108</v>
@@ -30828,12 +30822,12 @@
         <v>3</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B51">
         <v>108</v>
@@ -30842,10 +30836,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -30892,7 +30886,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B55">
         <v>204</v>
@@ -30901,7 +30895,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F55" s="16">
         <v>26</v>
@@ -31068,7 +31062,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B68">
         <v>407</v>
@@ -31082,7 +31076,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B69">
         <v>407</v>
@@ -31091,7 +31085,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F69">
         <v>47</v>
@@ -31099,7 +31093,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B70">
         <v>408</v>
@@ -31176,11 +31170,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E182" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M207" sqref="M207:M209"/>
+      <selection pane="bottomRight" activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31204,7 +31198,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>754</v>
@@ -31219,7 +31213,7 @@
         <v>756</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>757</v>
@@ -31251,7 +31245,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -31266,7 +31260,7 @@
         <v>37</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J2" t="s">
         <v>763</v>
@@ -31298,7 +31292,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>765</v>
@@ -31345,7 +31339,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E4" s="3">
         <v>102</v>
@@ -31386,7 +31380,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E5" s="3">
         <v>103</v>
@@ -31427,7 +31421,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E6" s="3">
         <v>104</v>
@@ -31468,7 +31462,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E7" s="3">
         <v>105</v>
@@ -31509,7 +31503,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E8" s="3">
         <v>106</v>
@@ -31550,7 +31544,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E9" s="3">
         <v>107</v>
@@ -31591,7 +31585,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E10" s="3">
         <v>108</v>
@@ -31632,7 +31626,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E11" s="3">
         <v>109</v>
@@ -31673,7 +31667,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E12" s="3">
         <v>110</v>
@@ -31714,7 +31708,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E13" s="3">
         <v>111</v>
@@ -31755,7 +31749,7 @@
         <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E14" s="3">
         <v>112</v>
@@ -31796,7 +31790,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E15" s="3">
         <v>113</v>
@@ -31837,7 +31831,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E16" s="3">
         <v>114</v>
@@ -31878,7 +31872,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E17" s="3">
         <v>115</v>
@@ -31919,7 +31913,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E18" s="3">
         <v>116</v>
@@ -31960,7 +31954,7 @@
         <v>76</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E19" s="3">
         <v>117</v>
@@ -32001,7 +31995,7 @@
         <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E20" s="3">
         <v>118</v>
@@ -32042,7 +32036,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E21" s="3">
         <v>119</v>
@@ -32083,7 +32077,7 @@
         <v>82</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E22" s="3">
         <v>120</v>
@@ -32124,10 +32118,10 @@
         <v>83</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -32165,7 +32159,7 @@
         <v>84</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E24" s="3">
         <v>202</v>
@@ -32206,7 +32200,7 @@
         <v>85</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E25" s="3">
         <v>203</v>
@@ -32247,7 +32241,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E26" s="3">
         <v>204</v>
@@ -32288,7 +32282,7 @@
         <v>87</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E27" s="3">
         <v>205</v>
@@ -32329,7 +32323,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E28" s="3">
         <v>206</v>
@@ -32370,7 +32364,7 @@
         <v>89</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E29" s="3">
         <v>207</v>
@@ -32411,7 +32405,7 @@
         <v>91</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="E30" s="3">
         <v>208</v>
@@ -32452,7 +32446,7 @@
         <v>93</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E31" s="3">
         <v>209</v>
@@ -32493,10 +32487,10 @@
         <v>95</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F32" s="3">
         <v>2</v>
@@ -32534,7 +32528,7 @@
         <v>97</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E33" s="3">
         <v>302</v>
@@ -32575,7 +32569,7 @@
         <v>99</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E34" s="3">
         <v>303</v>
@@ -32616,7 +32610,7 @@
         <v>101</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E35" s="3">
         <v>304</v>
@@ -32657,7 +32651,7 @@
         <v>102</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E36" s="3">
         <v>305</v>
@@ -32698,7 +32692,7 @@
         <v>103</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E37" s="3">
         <v>306</v>
@@ -32739,7 +32733,7 @@
         <v>104</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E38" s="3">
         <v>307</v>
@@ -32780,7 +32774,7 @@
         <v>105</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E39" s="3">
         <v>308</v>
@@ -32821,7 +32815,7 @@
         <v>106</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E40" s="3">
         <v>309</v>
@@ -32862,10 +32856,10 @@
         <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F41" s="3">
         <v>3</v>
@@ -32903,7 +32897,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E42" s="3">
         <v>402</v>
@@ -32944,7 +32938,7 @@
         <v>114</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E43" s="3">
         <v>403</v>
@@ -32985,7 +32979,7 @@
         <v>116</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E44" s="3">
         <v>404</v>
@@ -33026,7 +33020,7 @@
         <v>118</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E45" s="3">
         <v>405</v>
@@ -33067,7 +33061,7 @@
         <v>120</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E46" s="3">
         <v>406</v>
@@ -33108,7 +33102,7 @@
         <v>122</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E47" s="3">
         <v>407</v>
@@ -33149,7 +33143,7 @@
         <v>123</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E48" s="3">
         <v>408</v>
@@ -33190,7 +33184,7 @@
         <v>124</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E49" s="3">
         <v>409</v>
@@ -33231,7 +33225,7 @@
         <v>125</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E50" s="3">
         <v>410</v>
@@ -33272,7 +33266,7 @@
         <v>126</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E51" s="3">
         <v>411</v>
@@ -33313,7 +33307,7 @@
         <v>127</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E52" s="3">
         <v>412</v>
@@ -33354,7 +33348,7 @@
         <v>128</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E53" s="3">
         <v>413</v>
@@ -33395,7 +33389,7 @@
         <v>129</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E54" s="3">
         <v>414</v>
@@ -33436,7 +33430,7 @@
         <v>130</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E55" s="3">
         <v>415</v>
@@ -33477,7 +33471,7 @@
         <v>131</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E56" s="3">
         <v>416</v>
@@ -33518,7 +33512,7 @@
         <v>132</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>775</v>
@@ -33559,7 +33553,7 @@
         <v>133</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E58" s="3">
         <v>502</v>
@@ -33600,7 +33594,7 @@
         <v>135</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E59" s="3">
         <v>503</v>
@@ -33641,7 +33635,7 @@
         <v>137</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E60" s="3">
         <v>504</v>
@@ -33682,7 +33676,7 @@
         <v>139</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E61" s="3">
         <v>505</v>
@@ -33723,7 +33717,7 @@
         <v>142</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
         <v>506</v>
@@ -33764,7 +33758,7 @@
         <v>145</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E63" s="3">
         <v>507</v>
@@ -33805,7 +33799,7 @@
         <v>148</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E64" s="3">
         <v>508</v>
@@ -33846,7 +33840,7 @@
         <v>151</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E65" s="3">
         <v>509</v>
@@ -33887,7 +33881,7 @@
         <v>154</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E66" s="3">
         <v>510</v>
@@ -33928,7 +33922,7 @@
         <v>156</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>775</v>
@@ -33969,7 +33963,7 @@
         <v>158</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E68" s="3">
         <v>602</v>
@@ -34010,7 +34004,7 @@
         <v>160</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E69" s="3">
         <v>603</v>
@@ -34051,7 +34045,7 @@
         <v>163</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E70" s="3">
         <v>604</v>
@@ -34092,7 +34086,7 @@
         <v>166</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E71" s="3">
         <v>605</v>
@@ -34133,7 +34127,7 @@
         <v>169</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E72" s="3">
         <v>606</v>
@@ -34174,7 +34168,7 @@
         <v>173</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E73" s="3">
         <v>607</v>
@@ -34215,7 +34209,7 @@
         <v>176</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E74" s="3">
         <v>608</v>
@@ -34256,7 +34250,7 @@
         <v>178</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E75" s="3">
         <v>609</v>
@@ -34297,7 +34291,7 @@
         <v>180</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E76" s="3">
         <v>610</v>
@@ -34338,7 +34332,7 @@
         <v>182</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>775</v>
@@ -34379,7 +34373,7 @@
         <v>185</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E78" s="3">
         <v>702</v>
@@ -34420,7 +34414,7 @@
         <v>187</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E79" s="3">
         <v>703</v>
@@ -34461,7 +34455,7 @@
         <v>190</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E80" s="3">
         <v>704</v>
@@ -34502,7 +34496,7 @@
         <v>192</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E81" s="3">
         <v>705</v>
@@ -34543,7 +34537,7 @@
         <v>194</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E82" s="3">
         <v>706</v>
@@ -34584,7 +34578,7 @@
         <v>196</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E83" s="3">
         <v>707</v>
@@ -34625,7 +34619,7 @@
         <v>199</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E84" s="3">
         <v>708</v>
@@ -34666,7 +34660,7 @@
         <v>202</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E85" s="3">
         <v>709</v>
@@ -34707,7 +34701,7 @@
         <v>204</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E86" s="3">
         <v>710</v>
@@ -34748,7 +34742,7 @@
         <v>206</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>775</v>
@@ -34786,10 +34780,10 @@
         <v>801</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E88" s="3">
         <v>802</v>
@@ -34827,10 +34821,10 @@
         <v>802</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E89" s="3">
         <v>803</v>
@@ -34868,10 +34862,10 @@
         <v>803</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E90" s="3">
         <v>804</v>
@@ -34909,10 +34903,10 @@
         <v>804</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E91" s="3">
         <v>805</v>
@@ -34950,10 +34944,10 @@
         <v>805</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E92" s="3">
         <v>806</v>
@@ -34991,10 +34985,10 @@
         <v>806</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E93" s="3">
         <v>807</v>
@@ -35032,10 +35026,10 @@
         <v>807</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E94" s="3">
         <v>808</v>
@@ -35073,10 +35067,10 @@
         <v>808</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>775</v>
@@ -35117,7 +35111,7 @@
         <v>424</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E96" s="3">
         <v>902</v>
@@ -35158,7 +35152,7 @@
         <v>425</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E97" s="3">
         <v>903</v>
@@ -35199,7 +35193,7 @@
         <v>426</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E98" s="3">
         <v>904</v>
@@ -35240,7 +35234,7 @@
         <v>427</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E99" s="3">
         <v>905</v>
@@ -35281,7 +35275,7 @@
         <v>428</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E100" s="3">
         <v>906</v>
@@ -35322,7 +35316,7 @@
         <v>429</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E101" s="3">
         <v>907</v>
@@ -35363,7 +35357,7 @@
         <v>430</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E102" s="3">
         <v>908</v>
@@ -35404,7 +35398,7 @@
         <v>431</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E103" s="3">
         <v>909</v>
@@ -35445,7 +35439,7 @@
         <v>432</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E104" s="3">
         <v>910</v>
@@ -35486,7 +35480,7 @@
         <v>433</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>775</v>
@@ -35527,7 +35521,7 @@
         <v>553</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E106" s="3">
         <v>1011</v>
@@ -35553,15 +35547,9 @@
       <c r="L106" s="3">
         <v>5</v>
       </c>
-      <c r="M106" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="N106" s="3">
-        <v>0</v>
-      </c>
-      <c r="O106" s="3">
-        <v>1</v>
-      </c>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
     </row>
     <row r="107" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
@@ -35574,7 +35562,7 @@
         <v>554</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E107" s="3">
         <v>1012</v>
@@ -35600,15 +35588,9 @@
       <c r="L107" s="3">
         <v>5</v>
       </c>
-      <c r="M107" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="N107" s="3">
-        <v>0</v>
-      </c>
-      <c r="O107" s="3">
-        <v>1</v>
-      </c>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
@@ -35621,7 +35603,7 @@
         <v>555</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E108" s="3">
         <v>1013</v>
@@ -35647,15 +35629,9 @@
       <c r="L108" s="3">
         <v>5</v>
       </c>
-      <c r="M108" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="N108" s="3">
-        <v>0</v>
-      </c>
-      <c r="O108" s="3">
-        <v>1</v>
-      </c>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
     </row>
     <row r="109" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
@@ -35668,7 +35644,7 @@
         <v>556</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E109" s="3">
         <v>1014</v>
@@ -35715,7 +35691,7 @@
         <v>557</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E110" s="3">
         <v>1015</v>
@@ -35742,7 +35718,7 @@
         <v>5</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N110" s="3">
         <v>0</v>
@@ -35762,7 +35738,7 @@
         <v>558</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E111" s="3">
         <v>1016</v>
@@ -35789,7 +35765,7 @@
         <v>5</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N111" s="3">
         <v>0</v>
@@ -35809,7 +35785,7 @@
         <v>559</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E112" s="3">
         <v>1017</v>
@@ -35836,7 +35812,7 @@
         <v>5</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N112" s="3">
         <v>0</v>
@@ -35856,7 +35832,7 @@
         <v>560</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E113" s="3">
         <v>1018</v>
@@ -35883,7 +35859,7 @@
         <v>5</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N113" s="3">
         <v>0</v>
@@ -35903,7 +35879,7 @@
         <v>561</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E114" s="3">
         <v>1019</v>
@@ -35930,7 +35906,7 @@
         <v>5</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N114" s="3">
         <v>0</v>
@@ -35950,7 +35926,7 @@
         <v>562</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E115" s="3">
         <v>1020</v>
@@ -35997,7 +35973,7 @@
         <v>563</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E116" s="3">
         <v>1021</v>
@@ -36024,7 +36000,7 @@
         <v>5</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N116" s="3">
         <v>0</v>
@@ -36044,7 +36020,7 @@
         <v>564</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E117" s="3">
         <v>1022</v>
@@ -36071,7 +36047,7 @@
         <v>5</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N117" s="3">
         <v>0</v>
@@ -36091,7 +36067,7 @@
         <v>565</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E118" s="3">
         <v>1023</v>
@@ -36118,7 +36094,7 @@
         <v>5</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N118" s="3">
         <v>0</v>
@@ -36138,7 +36114,7 @@
         <v>566</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E119" s="3">
         <v>1024</v>
@@ -36165,7 +36141,7 @@
         <v>5</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N119" s="3">
         <v>0</v>
@@ -36185,7 +36161,7 @@
         <v>567</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E120" s="3">
         <v>1025</v>
@@ -36212,7 +36188,7 @@
         <v>5</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N120" s="3">
         <v>0</v>
@@ -36232,7 +36208,7 @@
         <v>568</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E121" s="3">
         <v>1026</v>
@@ -36279,7 +36255,7 @@
         <v>569</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="E122" s="3">
         <v>1027</v>
@@ -36306,7 +36282,7 @@
         <v>5</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N122" s="3">
         <v>0</v>
@@ -36326,7 +36302,7 @@
         <v>570</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E123" s="3">
         <v>1028</v>
@@ -36353,7 +36329,7 @@
         <v>5</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N123" s="3">
         <v>0</v>
@@ -36373,7 +36349,7 @@
         <v>571</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E124" s="3">
         <v>1029</v>
@@ -36400,7 +36376,7 @@
         <v>5</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N124" s="3">
         <v>0</v>
@@ -36420,7 +36396,7 @@
         <v>572</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E125" s="3">
         <v>1030</v>
@@ -36447,7 +36423,7 @@
         <v>5</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N125" s="3">
         <v>0</v>
@@ -36467,7 +36443,7 @@
         <v>573</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E126" s="3">
         <v>1031</v>
@@ -36494,7 +36470,7 @@
         <v>5</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N126" s="3">
         <v>0</v>
@@ -36514,7 +36490,7 @@
         <v>574</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E127" s="3">
         <v>1032</v>
@@ -36561,7 +36537,7 @@
         <v>575</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E128" s="3">
         <v>1033</v>
@@ -36588,7 +36564,7 @@
         <v>5</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N128" s="3">
         <v>0</v>
@@ -36608,7 +36584,7 @@
         <v>576</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E129" s="3">
         <v>1034</v>
@@ -36635,7 +36611,7 @@
         <v>5</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N129" s="3">
         <v>0</v>
@@ -36655,7 +36631,7 @@
         <v>577</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E130" s="3">
         <v>1035</v>
@@ -36682,7 +36658,7 @@
         <v>5</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N130" s="3">
         <v>0</v>
@@ -36702,7 +36678,7 @@
         <v>578</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E131" s="3">
         <v>1036</v>
@@ -36729,7 +36705,7 @@
         <v>5</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N131" s="3">
         <v>0</v>
@@ -36749,7 +36725,7 @@
         <v>579</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E132" s="3">
         <v>1037</v>
@@ -36776,7 +36752,7 @@
         <v>5</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N132" s="3">
         <v>0</v>
@@ -36796,7 +36772,7 @@
         <v>580</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E133" s="3">
         <v>1038</v>
@@ -36843,7 +36819,7 @@
         <v>581</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E134" s="3">
         <v>1039</v>
@@ -36870,7 +36846,7 @@
         <v>5</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N134" s="3">
         <v>0</v>
@@ -36890,7 +36866,7 @@
         <v>582</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E135" s="3">
         <v>1040</v>
@@ -36917,7 +36893,7 @@
         <v>5</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N135" s="3">
         <v>0</v>
@@ -36937,7 +36913,7 @@
         <v>586</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>775</v>
@@ -36964,7 +36940,7 @@
         <v>5</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N136" s="3">
         <v>0</v>
@@ -38027,7 +38003,7 @@
         <v>302020101</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K162" s="3">
         <v>0</v>
@@ -38068,7 +38044,7 @@
         <v>302020102</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K163" s="3">
         <v>0</v>
@@ -38109,7 +38085,7 @@
         <v>302020103</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K164" s="3">
         <v>0</v>
@@ -38150,7 +38126,7 @@
         <v>302020104</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K165" s="3">
         <v>0</v>
@@ -38191,7 +38167,7 @@
         <v>302020105</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K166" s="3">
         <v>0</v>
@@ -38232,7 +38208,7 @@
         <v>302020106</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K167" s="3">
         <v>0</v>
@@ -38273,7 +38249,7 @@
         <v>302020107</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K168" s="3">
         <v>0</v>
@@ -38314,7 +38290,7 @@
         <v>302020108</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K169" s="3">
         <v>0</v>
@@ -38355,7 +38331,7 @@
         <v>302020109</v>
       </c>
       <c r="J170" s="22" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K170" s="3">
         <v>0</v>
@@ -38396,7 +38372,7 @@
         <v>302020110</v>
       </c>
       <c r="J171" s="22" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K171" s="3">
         <v>0</v>
@@ -38437,7 +38413,7 @@
         <v>302020111</v>
       </c>
       <c r="J172" s="22" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K172" s="3">
         <v>0</v>
@@ -38457,10 +38433,10 @@
         <v>1501</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E173" s="3">
         <v>1502</v>
@@ -38475,10 +38451,10 @@
         <v>1</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K173" s="3">
         <v>0</v>
@@ -38498,10 +38474,10 @@
         <v>1502</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E174" s="3">
         <v>1503</v>
@@ -38516,10 +38492,10 @@
         <v>2</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K174" s="3">
         <v>0</v>
@@ -38539,10 +38515,10 @@
         <v>1503</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E175" s="3">
         <v>1504</v>
@@ -38557,10 +38533,10 @@
         <v>3</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K175" s="3">
         <v>0</v>
@@ -38580,10 +38556,10 @@
         <v>1504</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E176" s="3">
         <v>1505</v>
@@ -38598,10 +38574,10 @@
         <v>4</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K176" s="3">
         <v>0</v>
@@ -38621,10 +38597,10 @@
         <v>1505</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E177" s="3">
         <v>1506</v>
@@ -38639,10 +38615,10 @@
         <v>5</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K177" s="3">
         <v>0</v>
@@ -38662,10 +38638,10 @@
         <v>1506</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E178" s="3">
         <v>1507</v>
@@ -38680,10 +38656,10 @@
         <v>6</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K178" s="3">
         <v>0</v>
@@ -38703,10 +38679,10 @@
         <v>1507</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E179" s="3">
         <v>1508</v>
@@ -38721,10 +38697,10 @@
         <v>7</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K179" s="3">
         <v>0</v>
@@ -38744,10 +38720,10 @@
         <v>1508</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E180" s="3">
         <v>1509</v>
@@ -38762,10 +38738,10 @@
         <v>8</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K180" s="3">
         <v>0</v>
@@ -38785,10 +38761,10 @@
         <v>1509</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E181" s="3">
         <v>1510</v>
@@ -38803,10 +38779,10 @@
         <v>9</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K181" s="3">
         <v>0</v>
@@ -38826,10 +38802,10 @@
         <v>1510</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>775</v>
@@ -38844,10 +38820,10 @@
         <v>10</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K182" s="3">
         <v>0</v>
@@ -38867,10 +38843,10 @@
         <v>1601</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E183" s="3">
         <v>1602</v>
@@ -38885,10 +38861,10 @@
         <v>1</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K183" s="3">
         <v>0</v>
@@ -38908,10 +38884,10 @@
         <v>1602</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E184" s="3">
         <v>1603</v>
@@ -38926,10 +38902,10 @@
         <v>2</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K184" s="3">
         <v>0</v>
@@ -38949,10 +38925,10 @@
         <v>1603</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E185" s="3">
         <v>1604</v>
@@ -38967,10 +38943,10 @@
         <v>3</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K185" s="3">
         <v>0</v>
@@ -38990,10 +38966,10 @@
         <v>1604</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E186" s="3">
         <v>1605</v>
@@ -39008,10 +38984,10 @@
         <v>4</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K186" s="3">
         <v>0</v>
@@ -39031,10 +39007,10 @@
         <v>1605</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E187" s="3">
         <v>1606</v>
@@ -39049,10 +39025,10 @@
         <v>5</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K187" s="3">
         <v>0</v>
@@ -39072,10 +39048,10 @@
         <v>1606</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>775</v>
@@ -39090,10 +39066,10 @@
         <v>6</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K188" s="3">
         <v>0</v>
@@ -39113,10 +39089,10 @@
         <v>1701</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E189" s="3">
         <v>1702</v>
@@ -39131,10 +39107,10 @@
         <v>1</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K189" s="3">
         <v>0</v>
@@ -39154,10 +39130,10 @@
         <v>1702</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E190" s="3">
         <v>1703</v>
@@ -39172,10 +39148,10 @@
         <v>2</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K190" s="3">
         <v>0</v>
@@ -39195,10 +39171,10 @@
         <v>1703</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E191" s="3">
         <v>1704</v>
@@ -39213,10 +39189,10 @@
         <v>3</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K191" s="3">
         <v>0</v>
@@ -39236,10 +39212,10 @@
         <v>1704</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E192" s="3">
         <v>1705</v>
@@ -39254,10 +39230,10 @@
         <v>4</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K192" s="3">
         <v>0</v>
@@ -39277,10 +39253,10 @@
         <v>1705</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E193" s="3">
         <v>1706</v>
@@ -39295,10 +39271,10 @@
         <v>5</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K193" s="3">
         <v>0</v>
@@ -39318,10 +39294,10 @@
         <v>1706</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>775</v>
@@ -39336,10 +39312,10 @@
         <v>6</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K194" s="3">
         <v>0</v>
@@ -39359,10 +39335,10 @@
         <v>1801</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E195" s="3">
         <v>1802</v>
@@ -39377,10 +39353,10 @@
         <v>1</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K195" s="3">
         <v>0</v>
@@ -39400,10 +39376,10 @@
         <v>1802</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E196" s="3">
         <v>1803</v>
@@ -39418,10 +39394,10 @@
         <v>2</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K196" s="3">
         <v>0</v>
@@ -39441,10 +39417,10 @@
         <v>1803</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E197" s="3">
         <v>1804</v>
@@ -39459,10 +39435,10 @@
         <v>3</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K197" s="3">
         <v>0</v>
@@ -39482,10 +39458,10 @@
         <v>1804</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E198" s="3">
         <v>1805</v>
@@ -39500,10 +39476,10 @@
         <v>4</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K198" s="3">
         <v>0</v>
@@ -39512,7 +39488,7 @@
         <v>30</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N198" s="3">
         <v>0</v>
@@ -39529,10 +39505,10 @@
         <v>1805</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E199" s="3">
         <v>1806</v>
@@ -39547,10 +39523,10 @@
         <v>5</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K199" s="3">
         <v>0</v>
@@ -39559,7 +39535,7 @@
         <v>35</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N199" s="3">
         <v>0</v>
@@ -39576,10 +39552,10 @@
         <v>1806</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E200" s="3">
         <v>1807</v>
@@ -39594,10 +39570,10 @@
         <v>6</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K200" s="3">
         <v>0</v>
@@ -39606,7 +39582,7 @@
         <v>40</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N200" s="3">
         <v>0</v>
@@ -39623,10 +39599,10 @@
         <v>1807</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E201" s="3">
         <v>1808</v>
@@ -39641,10 +39617,10 @@
         <v>7</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K201" s="3">
         <v>0</v>
@@ -39653,7 +39629,7 @@
         <v>45</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="N201" s="3">
         <v>0</v>
@@ -39670,10 +39646,10 @@
         <v>1808</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E202" s="3">
         <v>1809</v>
@@ -39688,10 +39664,10 @@
         <v>8</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K202" s="3">
         <v>0</v>
@@ -39700,7 +39676,7 @@
         <v>50</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="N202" s="3">
         <v>0</v>
@@ -39717,10 +39693,10 @@
         <v>1809</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E203" s="3">
         <v>1810</v>
@@ -39735,10 +39711,10 @@
         <v>9</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K203" s="3">
         <v>0</v>
@@ -39747,7 +39723,7 @@
         <v>50</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="N203" s="3">
         <v>0</v>
@@ -39764,10 +39740,10 @@
         <v>1810</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E204" s="3">
         <v>1811</v>
@@ -39782,10 +39758,10 @@
         <v>10</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K204" s="3">
         <v>0</v>
@@ -39794,7 +39770,7 @@
         <v>100</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="N204" s="3">
         <v>0</v>
@@ -39811,10 +39787,10 @@
         <v>1811</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E205" s="3">
         <v>1812</v>
@@ -39829,10 +39805,10 @@
         <v>11</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K205" s="3">
         <v>0</v>
@@ -39841,7 +39817,7 @@
         <v>100</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="N205" s="3">
         <v>0</v>
@@ -39858,10 +39834,10 @@
         <v>1812</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E206" s="3">
         <v>1813</v>
@@ -39876,10 +39852,10 @@
         <v>12</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K206" s="3">
         <v>0</v>
@@ -39888,7 +39864,7 @@
         <v>100</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="N206" s="3">
         <v>0</v>
@@ -39905,10 +39881,10 @@
         <v>1813</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E207" s="3">
         <v>1814</v>
@@ -39923,10 +39899,10 @@
         <v>13</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K207" s="3">
         <v>0</v>
@@ -39935,7 +39911,7 @@
         <v>100</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="N207" s="3">
         <v>0</v>
@@ -39952,10 +39928,10 @@
         <v>1814</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E208" s="3">
         <v>1815</v>
@@ -39970,10 +39946,10 @@
         <v>14</v>
       </c>
       <c r="I208" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J208" s="3" t="s">
         <v>1432</v>
-      </c>
-      <c r="J208" s="3" t="s">
-        <v>1434</v>
       </c>
       <c r="K208" s="3">
         <v>0</v>
@@ -39982,7 +39958,7 @@
         <v>100</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="N208" s="3">
         <v>0</v>
@@ -39999,10 +39975,10 @@
         <v>1815</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>775</v>
@@ -40017,10 +39993,10 @@
         <v>15</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K209" s="3">
         <v>0</v>
@@ -40029,7 +40005,7 @@
         <v>100</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="N209" s="3">
         <v>0</v>
@@ -40112,7 +40088,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40120,7 +40096,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40144,7 +40120,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40152,7 +40128,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40160,7 +40136,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40168,7 +40144,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40176,7 +40152,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40184,7 +40160,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40192,7 +40168,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40200,7 +40176,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40208,7 +40184,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40216,7 +40192,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -40224,7 +40200,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/achv.成就.xlsx
+++ b/Excel/achv.成就.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224A252B-3339-4984-B6E3-FF2B57848189}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECD743A-02B8-4EDF-8662-D31B17C69E79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1780">
   <si>
     <t>sheet名</t>
   </si>
@@ -2638,9 +2638,6 @@
   </si>
   <si>
     <t>武器2阶</t>
-  </si>
-  <si>
-    <t>武器3阶</t>
   </si>
   <si>
     <t>武器4阶</t>
@@ -6397,6 +6394,22 @@
   </si>
   <si>
     <t>全部装备精炼+120</t>
+  </si>
+  <si>
+    <t>武器3阶</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石II</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石IV</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石III</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7179,10 +7192,10 @@
   <dimension ref="A1:T812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D681" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="C689" sqref="C689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7278,7 +7291,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -8767,10 +8780,10 @@
         <v>101020001</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -8805,10 +8818,10 @@
         <v>101020002</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -8846,7 +8859,7 @@
         <v>84</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -8881,10 +8894,10 @@
         <v>101020004</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -8922,7 +8935,7 @@
         <v>85</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -8960,7 +8973,7 @@
         <v>86</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -8995,10 +9008,10 @@
         <v>101020007</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -9036,7 +9049,7 @@
         <v>87</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -9071,10 +9084,10 @@
         <v>101020009</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -9109,10 +9122,10 @@
         <v>101020010</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
@@ -9147,10 +9160,10 @@
         <v>101020011</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -9185,10 +9198,10 @@
         <v>101020012</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -9226,7 +9239,7 @@
         <v>88</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
@@ -9261,10 +9274,10 @@
         <v>101020014</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
@@ -9299,10 +9312,10 @@
         <v>101020015</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
@@ -9337,10 +9350,10 @@
         <v>101020016</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -9378,7 +9391,7 @@
         <v>89</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
@@ -9413,10 +9426,10 @@
         <v>101020018</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
@@ -9454,7 +9467,7 @@
         <v>91</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
@@ -9489,10 +9502,10 @@
         <v>101020020</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
@@ -9530,7 +9543,7 @@
         <v>93</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
@@ -9565,10 +9578,10 @@
         <v>101020022</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E61" s="3">
         <v>2</v>
@@ -9603,10 +9616,10 @@
         <v>101020023</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
@@ -9641,10 +9654,10 @@
         <v>101020024</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E63" s="3">
         <v>2</v>
@@ -9682,7 +9695,7 @@
         <v>95</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E64" s="3">
         <v>2</v>
@@ -9717,10 +9730,10 @@
         <v>101030001</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E65" s="3">
         <v>3</v>
@@ -9755,10 +9768,10 @@
         <v>101030002</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
         <v>3</v>
@@ -9831,10 +9844,10 @@
         <v>101030004</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E68" s="3">
         <v>3</v>
@@ -9945,10 +9958,10 @@
         <v>101030007</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
@@ -10021,10 +10034,10 @@
         <v>101030009</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
@@ -10059,10 +10072,10 @@
         <v>101030010</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E74" s="3">
         <v>3</v>
@@ -10097,10 +10110,10 @@
         <v>101030011</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E75" s="3">
         <v>3</v>
@@ -10135,10 +10148,10 @@
         <v>101030012</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
@@ -10211,10 +10224,10 @@
         <v>101030014</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E78" s="3">
         <v>3</v>
@@ -10249,10 +10262,10 @@
         <v>101030015</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E79" s="3">
         <v>3</v>
@@ -10287,10 +10300,10 @@
         <v>101030016</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E80" s="3">
         <v>3</v>
@@ -10363,10 +10376,10 @@
         <v>101030018</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E82" s="3">
         <v>3</v>
@@ -10439,10 +10452,10 @@
         <v>101030020</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E84" s="3">
         <v>3</v>
@@ -10515,10 +10528,10 @@
         <v>101030022</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E86" s="3">
         <v>3</v>
@@ -10553,10 +10566,10 @@
         <v>101030023</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E87" s="3">
         <v>3</v>
@@ -10591,10 +10604,10 @@
         <v>101030024</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E88" s="3">
         <v>3</v>
@@ -12415,10 +12428,10 @@
         <v>102040001</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E136" s="3">
         <v>45</v>
@@ -12453,10 +12466,10 @@
         <v>102040002</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E137" s="3">
         <v>45</v>
@@ -12491,10 +12504,10 @@
         <v>102040003</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E138" s="3">
         <v>45</v>
@@ -12529,10 +12542,10 @@
         <v>102040004</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E139" s="3">
         <v>45</v>
@@ -12567,10 +12580,10 @@
         <v>102040005</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E140" s="3">
         <v>45</v>
@@ -12605,10 +12618,10 @@
         <v>102040006</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E141" s="3">
         <v>45</v>
@@ -12643,10 +12656,10 @@
         <v>102040007</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E142" s="3">
         <v>45</v>
@@ -12681,10 +12694,10 @@
         <v>102040008</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E143" s="3">
         <v>45</v>
@@ -12719,10 +12732,10 @@
         <v>102040009</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E144" s="3">
         <v>45</v>
@@ -12757,10 +12770,10 @@
         <v>102040010</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E145" s="3">
         <v>45</v>
@@ -12795,10 +12808,10 @@
         <v>102040011</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E146" s="3">
         <v>45</v>
@@ -12833,10 +12846,10 @@
         <v>102040012</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E147" s="3">
         <v>45</v>
@@ -13561,7 +13574,7 @@
         <v>104010007</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D166" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13600,7 +13613,7 @@
         <v>104010008</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D167" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13639,7 +13652,7 @@
         <v>104010009</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D168" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13678,7 +13691,7 @@
         <v>104010010</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D169" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13717,7 +13730,7 @@
         <v>104010011</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D170" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13756,7 +13769,7 @@
         <v>104010012</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D171" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13798,7 +13811,7 @@
         <v>460</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E172" s="3">
         <v>25</v>
@@ -13836,7 +13849,7 @@
         <v>461</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E173" s="3">
         <v>25</v>
@@ -13874,7 +13887,7 @@
         <v>462</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E174" s="3">
         <v>25</v>
@@ -13912,7 +13925,7 @@
         <v>463</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E175" s="3">
         <v>25</v>
@@ -13950,7 +13963,7 @@
         <v>464</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E176" s="3">
         <v>25</v>
@@ -13988,7 +14001,7 @@
         <v>465</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E177" s="3">
         <v>25</v>
@@ -14023,10 +14036,10 @@
         <v>104020007</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E178" s="3">
         <v>25</v>
@@ -14061,10 +14074,10 @@
         <v>104020008</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E179" s="3">
         <v>25</v>
@@ -14099,10 +14112,10 @@
         <v>104020009</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E180" s="3">
         <v>25</v>
@@ -14137,10 +14150,10 @@
         <v>104020010</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E181" s="3">
         <v>25</v>
@@ -14175,10 +14188,10 @@
         <v>104020011</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E182" s="3">
         <v>25</v>
@@ -14213,10 +14226,10 @@
         <v>104020012</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E183" s="3">
         <v>25</v>
@@ -14254,7 +14267,7 @@
         <v>466</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E184" s="3">
         <v>26</v>
@@ -14292,7 +14305,7 @@
         <v>467</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E185" s="3">
         <v>26</v>
@@ -14330,7 +14343,7 @@
         <v>468</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E186" s="3">
         <v>26</v>
@@ -14368,7 +14381,7 @@
         <v>469</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E187" s="3">
         <v>26</v>
@@ -14406,7 +14419,7 @@
         <v>470</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E188" s="3">
         <v>26</v>
@@ -14444,7 +14457,7 @@
         <v>471</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E189" s="3">
         <v>26</v>
@@ -144